--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21110" windowHeight="12380"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,12 @@
     <t>奖励</t>
   </si>
   <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>功夫经验</t>
+  </si>
+  <si>
     <t>推荐功力</t>
   </si>
   <si>
@@ -66,6 +72,12 @@
     <t>Reward</t>
   </si>
   <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>KongfuExp</t>
+  </si>
+  <si>
     <t>RecommendAtkValue</t>
   </si>
   <si>
@@ -75,193 +87,103 @@
     <t>101|1|20;102|1|15</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|100</t>
+    <t>干他姥姥的。</t>
+  </si>
+  <si>
+    <t>Coin|20</t>
   </si>
   <si>
     <t>小马河战斗1</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|101</t>
-  </si>
-  <si>
     <t>小马河战斗2</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|102</t>
-  </si>
-  <si>
     <t>小马河战斗3</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|103</t>
-  </si>
-  <si>
     <t>小马河战斗4</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|104</t>
-  </si>
-  <si>
     <t>小马河战斗5</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|105</t>
-  </si>
-  <si>
     <t>小马河战斗6</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|106</t>
-  </si>
-  <si>
     <t>小马河战斗7</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|107</t>
-  </si>
-  <si>
     <t>小马河战斗8</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|108</t>
-  </si>
-  <si>
     <t>小马河战斗9</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|109</t>
-  </si>
-  <si>
     <t>小马河战斗10</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|110</t>
-  </si>
-  <si>
     <t>小马河战斗11</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|111</t>
-  </si>
-  <si>
     <t>小马河战斗12</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|112</t>
-  </si>
-  <si>
     <t>小马河战斗13</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|113</t>
-  </si>
-  <si>
     <t>小马河战斗14</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|114</t>
-  </si>
-  <si>
     <t>小马河战斗15</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|115</t>
-  </si>
-  <si>
     <t>小马河战斗16</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|116</t>
-  </si>
-  <si>
     <t>小马河战斗17</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|117</t>
-  </si>
-  <si>
     <t>小马河战斗18</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|118</t>
-  </si>
-  <si>
     <t>小马河战斗19</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|119</t>
-  </si>
-  <si>
     <t>小马河战斗20</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|120</t>
-  </si>
-  <si>
     <t>小马河战斗21</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|121</t>
-  </si>
-  <si>
     <t>小马河战斗22</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|122</t>
-  </si>
-  <si>
     <t>小马河战斗23</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|123</t>
-  </si>
-  <si>
     <t>小马河战斗24</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|124</t>
-  </si>
-  <si>
     <t>小马河战斗25</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|125</t>
-  </si>
-  <si>
     <t>小马河战斗26</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|126</t>
-  </si>
-  <si>
     <t>小马河战斗27</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|127</t>
-  </si>
-  <si>
     <t>小马河战斗28</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|128</t>
-  </si>
-  <si>
     <t>小马河战斗29</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|129</t>
-  </si>
-  <si>
     <t>小马河战斗30</t>
   </si>
   <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|130</t>
-  </si>
-  <si>
     <t>小马河战斗31</t>
-  </si>
-  <si>
-    <t>PropItem|1|10;Food|10;Money|100;ExpCharacter|100;ExpKongfu|131</t>
   </si>
   <si>
     <t>小马河战斗32</t>
@@ -391,9 +313,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -425,16 +347,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,14 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,6 +407,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,9 +427,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,76 +485,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,37 +512,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,139 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,6 +840,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -957,30 +888,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1001,17 +929,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,10 +943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,133 +955,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1571,26 +1493,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E36"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="36" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.8727272727273" style="19" customWidth="1"/>
-    <col min="5" max="5" width="83.8181818181818" style="19" customWidth="1"/>
-    <col min="6" max="6" width="18.7545454545455" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14.4545454545455" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="5.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="4.375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="19" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="19" customWidth="1"/>
+    <col min="9" max="9" width="14.4583333333333" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="13.5" spans="1:7">
+    <row r="1" s="18" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1612,814 +1537,1030 @@
       <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="13.5" spans="1:7">
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="18" customFormat="1" ht="13.5" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="18" customFormat="1" ht="13.5" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="19">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="19">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G5" s="19">
+        <v>100</v>
+      </c>
+      <c r="H5" s="19">
+        <v>100</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="19">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="19">
-        <v>120</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G6" s="19">
+        <v>100</v>
+      </c>
+      <c r="H6" s="19">
+        <v>100</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="19">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="19">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="19">
-        <v>3</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="19">
+        <v>100</v>
+      </c>
+      <c r="H7" s="19">
+        <v>100</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="19">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="19">
-        <v>180</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="19">
-        <v>4</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G8" s="19">
+        <v>100</v>
+      </c>
+      <c r="H8" s="19">
+        <v>100</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="19">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="19">
-        <v>210</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="19">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G9" s="19">
+        <v>100</v>
+      </c>
+      <c r="H9" s="19">
+        <v>100</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="19">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19">
-        <v>135</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="19">
-        <v>6</v>
-      </c>
-      <c r="G10" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="19">
+        <v>100</v>
+      </c>
+      <c r="H10" s="19">
+        <v>100</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="19">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="19">
-        <v>270</v>
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="19">
+        <v>100</v>
+      </c>
+      <c r="G11" s="19">
+        <v>100</v>
+      </c>
+      <c r="H11" s="19">
+        <v>100</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="19">
-        <v>7</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="19">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="19">
-        <v>255</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F12" s="19">
-        <v>8</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G12" s="19">
+        <v>100</v>
+      </c>
+      <c r="H12" s="19">
+        <v>100</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="19">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B13" s="19">
         <v>2</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="19">
-        <v>140</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F13" s="19">
-        <v>9</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G13" s="19">
+        <v>100</v>
+      </c>
+      <c r="H13" s="19">
+        <v>100</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="19">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="B14" s="19">
         <v>2</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19">
-        <v>270</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F14" s="19">
-        <v>10</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G14" s="19">
+        <v>100</v>
+      </c>
+      <c r="H14" s="19">
+        <v>100</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="19">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="B15" s="19">
         <v>2</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="19">
-        <v>135</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F15" s="19">
-        <v>11</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19">
+        <v>100</v>
+      </c>
+      <c r="H15" s="19">
+        <v>100</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="19">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="B16" s="19">
         <v>2</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="19">
-        <v>195</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F16" s="19">
-        <v>12</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G16" s="19">
+        <v>100</v>
+      </c>
+      <c r="H16" s="19">
+        <v>100</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="19">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="B17" s="19">
         <v>2</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="19">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F17" s="19">
-        <v>13</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G17" s="19">
+        <v>100</v>
+      </c>
+      <c r="H17" s="19">
+        <v>100</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="19">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>2</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="19">
-        <v>225</v>
+        <v>21</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F18" s="19">
-        <v>14</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G18" s="19">
+        <v>100</v>
+      </c>
+      <c r="H18" s="19">
+        <v>100</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="19">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="B19" s="19">
         <v>2</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="19">
-        <v>300</v>
+        <v>21</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F19" s="19">
-        <v>15</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G19" s="19">
+        <v>100</v>
+      </c>
+      <c r="H19" s="19">
+        <v>100</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="19">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="B20" s="19">
         <v>2</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="19">
-        <v>180</v>
+        <v>21</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="19">
+        <v>100</v>
+      </c>
+      <c r="G20" s="19">
+        <v>100</v>
+      </c>
+      <c r="H20" s="19">
+        <v>100</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="19">
+        <v>301</v>
+      </c>
+      <c r="B21" s="19">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="19">
+        <v>100</v>
+      </c>
+      <c r="G21" s="19">
+        <v>100</v>
+      </c>
+      <c r="H21" s="19">
+        <v>100</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="19">
+        <v>302</v>
+      </c>
+      <c r="B22" s="19">
+        <v>3</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="19">
+        <v>100</v>
+      </c>
+      <c r="G22" s="19">
+        <v>100</v>
+      </c>
+      <c r="H22" s="19">
+        <v>100</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="19">
+        <v>303</v>
+      </c>
+      <c r="B23" s="19">
+        <v>3</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="19">
+        <v>100</v>
+      </c>
+      <c r="G23" s="19">
+        <v>100</v>
+      </c>
+      <c r="H23" s="19">
+        <v>100</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="19">
+        <v>304</v>
+      </c>
+      <c r="B24" s="19">
+        <v>3</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="19">
+        <v>100</v>
+      </c>
+      <c r="G24" s="19">
+        <v>100</v>
+      </c>
+      <c r="H24" s="19">
+        <v>100</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="19">
+        <v>305</v>
+      </c>
+      <c r="B25" s="19">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="19">
+        <v>100</v>
+      </c>
+      <c r="G25" s="19">
+        <v>100</v>
+      </c>
+      <c r="H25" s="19">
+        <v>100</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="19">
+        <v>306</v>
+      </c>
+      <c r="B26" s="19">
+        <v>3</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="19">
+        <v>100</v>
+      </c>
+      <c r="G26" s="19">
+        <v>100</v>
+      </c>
+      <c r="H26" s="19">
+        <v>100</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="19">
+        <v>307</v>
+      </c>
+      <c r="B27" s="19">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="19">
+        <v>100</v>
+      </c>
+      <c r="G27" s="19">
+        <v>100</v>
+      </c>
+      <c r="H27" s="19">
+        <v>100</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="19">
+        <v>308</v>
+      </c>
+      <c r="B28" s="19">
+        <v>3</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="19">
+        <v>100</v>
+      </c>
+      <c r="G28" s="19">
+        <v>100</v>
+      </c>
+      <c r="H28" s="19">
+        <v>100</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="19">
+        <v>401</v>
+      </c>
+      <c r="B29" s="19">
+        <v>4</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="19">
+        <v>100</v>
+      </c>
+      <c r="G29" s="19">
+        <v>100</v>
+      </c>
+      <c r="H29" s="19">
+        <v>100</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="19">
-        <v>16</v>
-      </c>
-      <c r="G20" s="19" t="s">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="19">
+        <v>402</v>
+      </c>
+      <c r="B30" s="19">
+        <v>4</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="19">
+        <v>100</v>
+      </c>
+      <c r="G30" s="19">
+        <v>100</v>
+      </c>
+      <c r="H30" s="19">
+        <v>100</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
-        <v>9</v>
-      </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="19">
-        <v>135</v>
-      </c>
-      <c r="E21" s="19" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="19">
+        <v>403</v>
+      </c>
+      <c r="B31" s="19">
+        <v>4</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="19">
+        <v>100</v>
+      </c>
+      <c r="G31" s="19">
+        <v>100</v>
+      </c>
+      <c r="H31" s="19">
+        <v>100</v>
+      </c>
+      <c r="I31" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="19">
-        <v>17</v>
-      </c>
-      <c r="G21" s="19" t="s">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="19">
+        <v>404</v>
+      </c>
+      <c r="B32" s="19">
+        <v>4</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="19">
+        <v>100</v>
+      </c>
+      <c r="G32" s="19">
+        <v>100</v>
+      </c>
+      <c r="H32" s="19">
+        <v>100</v>
+      </c>
+      <c r="I32" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
-        <v>10</v>
-      </c>
-      <c r="B22" s="19">
-        <v>2</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="19">
-        <v>180</v>
-      </c>
-      <c r="E22" s="19" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="19">
+        <v>405</v>
+      </c>
+      <c r="B33" s="19">
+        <v>4</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="19">
+        <v>100</v>
+      </c>
+      <c r="G33" s="19">
+        <v>100</v>
+      </c>
+      <c r="H33" s="19">
+        <v>100</v>
+      </c>
+      <c r="I33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="19">
-        <v>18</v>
-      </c>
-      <c r="G22" s="19" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="19">
+        <v>406</v>
+      </c>
+      <c r="B34" s="19">
+        <v>4</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="19">
+        <v>100</v>
+      </c>
+      <c r="G34" s="19">
+        <v>100</v>
+      </c>
+      <c r="H34" s="19">
+        <v>100</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
-        <v>11</v>
-      </c>
-      <c r="B23" s="19">
-        <v>2</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="19">
-        <v>60</v>
-      </c>
-      <c r="E23" s="19" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="19">
+        <v>407</v>
+      </c>
+      <c r="B35" s="19">
+        <v>4</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="19">
+        <v>100</v>
+      </c>
+      <c r="G35" s="19">
+        <v>100</v>
+      </c>
+      <c r="H35" s="19">
+        <v>100</v>
+      </c>
+      <c r="I35" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="19">
-        <v>19</v>
-      </c>
-      <c r="G23" s="19" t="s">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="19">
+        <v>408</v>
+      </c>
+      <c r="B36" s="19">
+        <v>4</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="19">
+        <v>100</v>
+      </c>
+      <c r="G36" s="19">
+        <v>100</v>
+      </c>
+      <c r="H36" s="19">
+        <v>100</v>
+      </c>
+      <c r="I36" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19">
-        <v>12</v>
-      </c>
-      <c r="B24" s="19">
-        <v>2</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="19">
-        <v>360</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="19">
-        <v>20</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>13</v>
-      </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="19">
-        <v>140</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="19">
-        <v>21</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>14</v>
-      </c>
-      <c r="B26" s="19">
-        <v>2</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="19">
-        <v>270</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="19">
-        <v>22</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>15</v>
-      </c>
-      <c r="B27" s="19">
-        <v>2</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="19">
-        <v>135</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="19">
-        <v>23</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>16</v>
-      </c>
-      <c r="B28" s="19">
-        <v>2</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="19">
-        <v>195</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="19">
-        <v>24</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="19">
-        <v>17</v>
-      </c>
-      <c r="B29" s="19">
-        <v>2</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="19">
-        <v>105</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="19">
-        <v>25</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="19">
-        <v>18</v>
-      </c>
-      <c r="B30" s="19">
-        <v>2</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="19">
-        <v>225</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="19">
-        <v>26</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="19">
-        <v>19</v>
-      </c>
-      <c r="B31" s="19">
-        <v>2</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="19">
-        <v>300</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="19">
-        <v>27</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="19">
-        <v>1</v>
-      </c>
-      <c r="B32" s="19">
-        <v>3</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="19">
-        <v>180</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="19">
-        <v>28</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="19">
-        <v>2</v>
-      </c>
-      <c r="B33" s="19">
-        <v>3</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="19">
-        <v>135</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="19">
-        <v>29</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="19">
-        <v>3</v>
-      </c>
-      <c r="B34" s="19">
-        <v>3</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="19">
-        <v>180</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="19">
-        <v>30</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="19">
-        <v>4</v>
-      </c>
-      <c r="B35" s="19">
-        <v>3</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="19">
-        <v>60</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="19">
-        <v>31</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="19">
-        <v>5</v>
-      </c>
-      <c r="B36" s="19">
-        <v>3</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="19">
-        <v>360</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="19">
-        <v>32</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37"/>
+    <row r="37" spans="9:9">
+      <c r="I37"/>
     </row>
   </sheetData>
   <sortState ref="A3:E15">
@@ -2440,76 +2581,76 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="13.1090909090909" customWidth="1"/>
-    <col min="6" max="10" width="24.6636363636364" customWidth="1"/>
+    <col min="4" max="4" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="10" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="14.5" spans="2:10">
+    <row r="3" ht="16.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5" spans="2:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:10">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2517,16 +2658,16 @@
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" ht="14.5" spans="2:10">
+    <row r="6" ht="16.5" spans="2:10">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2534,16 +2675,16 @@
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" ht="14.5" spans="2:10">
+    <row r="7" ht="16.5" spans="2:10">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2551,16 +2692,16 @@
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" ht="14.5" spans="2:10">
+    <row r="8" ht="16.5" spans="2:10">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2568,16 +2709,16 @@
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" ht="14.5" spans="2:10">
+    <row r="9" ht="16.5" spans="2:10">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2585,31 +2726,31 @@
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="2:15">
       <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2617,29 +2758,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2651,10 +2792,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2673,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2695,10 +2836,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2717,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
@@ -2766,7 +2907,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -36,12 +36,6 @@
     <t>奖励</t>
   </si>
   <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>功夫经验</t>
-  </si>
-  <si>
     <t>推荐功力</t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>Reward</t>
   </si>
   <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>KongfuExp</t>
-  </si>
-  <si>
     <t>RecommendAtkValue</t>
   </si>
   <si>
@@ -90,100 +78,193 @@
     <t>干他姥姥的。</t>
   </si>
   <si>
-    <t>Coin|20</t>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|100</t>
   </si>
   <si>
     <t>小马河战斗1</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|101</t>
+  </si>
+  <si>
     <t>小马河战斗2</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|102</t>
+  </si>
+  <si>
     <t>小马河战斗3</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|103</t>
+  </si>
+  <si>
     <t>小马河战斗4</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|104</t>
+  </si>
+  <si>
     <t>小马河战斗5</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|105</t>
+  </si>
+  <si>
     <t>小马河战斗6</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|106</t>
+  </si>
+  <si>
     <t>小马河战斗7</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|107</t>
+  </si>
+  <si>
     <t>小马河战斗8</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|108</t>
+  </si>
+  <si>
     <t>小马河战斗9</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|109</t>
+  </si>
+  <si>
     <t>小马河战斗10</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|110</t>
+  </si>
+  <si>
     <t>小马河战斗11</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|111</t>
+  </si>
+  <si>
     <t>小马河战斗12</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|112</t>
+  </si>
+  <si>
     <t>小马河战斗13</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|113</t>
+  </si>
+  <si>
     <t>小马河战斗14</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|114</t>
+  </si>
+  <si>
     <t>小马河战斗15</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|115</t>
+  </si>
+  <si>
     <t>小马河战斗16</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|116</t>
+  </si>
+  <si>
     <t>小马河战斗17</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|117</t>
+  </si>
+  <si>
     <t>小马河战斗18</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|118</t>
+  </si>
+  <si>
     <t>小马河战斗19</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|119</t>
+  </si>
+  <si>
     <t>小马河战斗20</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|120</t>
+  </si>
+  <si>
     <t>小马河战斗21</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|121</t>
+  </si>
+  <si>
     <t>小马河战斗22</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|122</t>
+  </si>
+  <si>
     <t>小马河战斗23</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|123</t>
+  </si>
+  <si>
     <t>小马河战斗24</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|124</t>
+  </si>
+  <si>
     <t>小马河战斗25</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|125</t>
+  </si>
+  <si>
     <t>小马河战斗26</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|126</t>
+  </si>
+  <si>
     <t>小马河战斗27</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|127</t>
+  </si>
+  <si>
     <t>小马河战斗28</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|128</t>
+  </si>
+  <si>
     <t>小马河战斗29</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|129</t>
+  </si>
+  <si>
     <t>小马河战斗30</t>
   </si>
   <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|130</t>
+  </si>
+  <si>
     <t>小马河战斗31</t>
+  </si>
+  <si>
+    <t>Coin|20;Exp_Role|100;Exp_Kongfu|131</t>
   </si>
   <si>
     <t>小马河战斗32</t>
@@ -313,9 +394,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -348,51 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,14 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,7 +458,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -443,9 +488,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,23 +519,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +547,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -512,37 +593,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,139 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,9 +923,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,15 +974,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -884,32 +985,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,11 +1004,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,10 +1024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,133 +1036,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,29 +1574,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.375" style="19" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="19" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="19" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.4583333333333" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="19"/>
+    <col min="5" max="5" width="39.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14.4583333333333" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="18" customFormat="1" ht="14.25" spans="1:7">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1537,101 +1616,77 @@
       <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+    </row>
+    <row r="2" s="18" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="B2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="18" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="18" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="18" t="s">
+    </row>
+    <row r="4" s="18" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="18" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="19">
         <v>101</v>
       </c>
@@ -1639,28 +1694,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="19">
         <v>100</v>
       </c>
-      <c r="G5" s="19">
-        <v>100</v>
-      </c>
-      <c r="H5" s="19">
-        <v>100</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="19">
         <v>102</v>
       </c>
@@ -1668,28 +1717,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="F6" s="19">
+        <v>100</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="19">
-        <v>100</v>
-      </c>
-      <c r="G6" s="19">
-        <v>100</v>
-      </c>
-      <c r="H6" s="19">
-        <v>100</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="19">
         <v>103</v>
       </c>
@@ -1697,10 +1740,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>23</v>
@@ -1708,17 +1751,11 @@
       <c r="F7" s="19">
         <v>100</v>
       </c>
-      <c r="G7" s="19">
-        <v>100</v>
-      </c>
-      <c r="H7" s="19">
-        <v>100</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="19">
         <v>104</v>
       </c>
@@ -1726,28 +1763,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="19">
         <v>100</v>
       </c>
-      <c r="G8" s="19">
-        <v>100</v>
-      </c>
-      <c r="H8" s="19">
-        <v>100</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>105</v>
       </c>
@@ -1755,28 +1786,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19">
         <v>100</v>
       </c>
-      <c r="G9" s="19">
-        <v>100</v>
-      </c>
-      <c r="H9" s="19">
-        <v>100</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>106</v>
       </c>
@@ -1784,28 +1809,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F10" s="19">
         <v>100</v>
       </c>
-      <c r="G10" s="19">
-        <v>100</v>
-      </c>
-      <c r="H10" s="19">
-        <v>100</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>107</v>
       </c>
@@ -1813,28 +1832,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F11" s="19">
         <v>100</v>
       </c>
-      <c r="G11" s="19">
-        <v>100</v>
-      </c>
-      <c r="H11" s="19">
-        <v>100</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>108</v>
       </c>
@@ -1842,28 +1855,22 @@
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F12" s="19">
         <v>100</v>
       </c>
-      <c r="G12" s="19">
-        <v>100</v>
-      </c>
-      <c r="H12" s="19">
-        <v>100</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G12" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="19">
         <v>201</v>
       </c>
@@ -1871,28 +1878,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F13" s="19">
         <v>100</v>
       </c>
-      <c r="G13" s="19">
-        <v>100</v>
-      </c>
-      <c r="H13" s="19">
-        <v>100</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>202</v>
       </c>
@@ -1900,28 +1901,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14" s="19">
         <v>100</v>
       </c>
-      <c r="G14" s="19">
-        <v>100</v>
-      </c>
-      <c r="H14" s="19">
-        <v>100</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G14" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>203</v>
       </c>
@@ -1929,28 +1924,22 @@
         <v>2</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F15" s="19">
         <v>100</v>
       </c>
-      <c r="G15" s="19">
-        <v>100</v>
-      </c>
-      <c r="H15" s="19">
-        <v>100</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>204</v>
       </c>
@@ -1958,28 +1947,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F16" s="19">
         <v>100</v>
       </c>
-      <c r="G16" s="19">
-        <v>100</v>
-      </c>
-      <c r="H16" s="19">
-        <v>100</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>205</v>
       </c>
@@ -1987,28 +1970,22 @@
         <v>2</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F17" s="19">
         <v>100</v>
       </c>
-      <c r="G17" s="19">
-        <v>100</v>
-      </c>
-      <c r="H17" s="19">
-        <v>100</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>206</v>
       </c>
@@ -2016,28 +1993,22 @@
         <v>2</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F18" s="19">
         <v>100</v>
       </c>
-      <c r="G18" s="19">
-        <v>100</v>
-      </c>
-      <c r="H18" s="19">
-        <v>100</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="19">
         <v>207</v>
       </c>
@@ -2045,28 +2016,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F19" s="19">
         <v>100</v>
       </c>
-      <c r="G19" s="19">
-        <v>100</v>
-      </c>
-      <c r="H19" s="19">
-        <v>100</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="G19" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="19">
         <v>208</v>
       </c>
@@ -2074,28 +2039,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F20" s="19">
         <v>100</v>
       </c>
-      <c r="G20" s="19">
-        <v>100</v>
-      </c>
-      <c r="H20" s="19">
-        <v>100</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="19">
         <v>301</v>
       </c>
@@ -2103,28 +2062,22 @@
         <v>3</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F21" s="19">
         <v>100</v>
       </c>
-      <c r="G21" s="19">
-        <v>100</v>
-      </c>
-      <c r="H21" s="19">
-        <v>100</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="19">
         <v>302</v>
       </c>
@@ -2132,28 +2085,22 @@
         <v>3</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F22" s="19">
         <v>100</v>
       </c>
-      <c r="G22" s="19">
-        <v>100</v>
-      </c>
-      <c r="H22" s="19">
-        <v>100</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="G22" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>303</v>
       </c>
@@ -2161,28 +2108,22 @@
         <v>3</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F23" s="19">
         <v>100</v>
       </c>
-      <c r="G23" s="19">
-        <v>100</v>
-      </c>
-      <c r="H23" s="19">
-        <v>100</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>304</v>
       </c>
@@ -2190,28 +2131,22 @@
         <v>3</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F24" s="19">
         <v>100</v>
       </c>
-      <c r="G24" s="19">
-        <v>100</v>
-      </c>
-      <c r="H24" s="19">
-        <v>100</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>305</v>
       </c>
@@ -2219,28 +2154,22 @@
         <v>3</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F25" s="19">
         <v>100</v>
       </c>
-      <c r="G25" s="19">
-        <v>100</v>
-      </c>
-      <c r="H25" s="19">
-        <v>100</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="19">
         <v>306</v>
       </c>
@@ -2248,28 +2177,22 @@
         <v>3</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F26" s="19">
         <v>100</v>
       </c>
-      <c r="G26" s="19">
-        <v>100</v>
-      </c>
-      <c r="H26" s="19">
-        <v>100</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="G26" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="19">
         <v>307</v>
       </c>
@@ -2277,28 +2200,22 @@
         <v>3</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F27" s="19">
         <v>100</v>
       </c>
-      <c r="G27" s="19">
-        <v>100</v>
-      </c>
-      <c r="H27" s="19">
-        <v>100</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="19">
         <v>308</v>
       </c>
@@ -2306,28 +2223,22 @@
         <v>3</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F28" s="19">
         <v>100</v>
       </c>
-      <c r="G28" s="19">
-        <v>100</v>
-      </c>
-      <c r="H28" s="19">
-        <v>100</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="G28" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="19">
         <v>401</v>
       </c>
@@ -2335,28 +2246,22 @@
         <v>4</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F29" s="19">
         <v>100</v>
       </c>
-      <c r="G29" s="19">
-        <v>100</v>
-      </c>
-      <c r="H29" s="19">
-        <v>100</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="G29" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>402</v>
       </c>
@@ -2364,28 +2269,22 @@
         <v>4</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F30" s="19">
         <v>100</v>
       </c>
-      <c r="G30" s="19">
-        <v>100</v>
-      </c>
-      <c r="H30" s="19">
-        <v>100</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="G30" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="19">
         <v>403</v>
       </c>
@@ -2393,28 +2292,22 @@
         <v>4</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F31" s="19">
         <v>100</v>
       </c>
-      <c r="G31" s="19">
-        <v>100</v>
-      </c>
-      <c r="H31" s="19">
-        <v>100</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="G31" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="19">
         <v>404</v>
       </c>
@@ -2422,28 +2315,22 @@
         <v>4</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F32" s="19">
         <v>100</v>
       </c>
-      <c r="G32" s="19">
-        <v>100</v>
-      </c>
-      <c r="H32" s="19">
-        <v>100</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="G32" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="19">
         <v>405</v>
       </c>
@@ -2451,28 +2338,22 @@
         <v>4</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="F33" s="19">
         <v>100</v>
       </c>
-      <c r="G33" s="19">
-        <v>100</v>
-      </c>
-      <c r="H33" s="19">
-        <v>100</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="G33" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="19">
         <v>406</v>
       </c>
@@ -2480,28 +2361,22 @@
         <v>4</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F34" s="19">
         <v>100</v>
       </c>
-      <c r="G34" s="19">
-        <v>100</v>
-      </c>
-      <c r="H34" s="19">
-        <v>100</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="G34" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="19">
         <v>407</v>
       </c>
@@ -2509,28 +2384,22 @@
         <v>4</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F35" s="19">
         <v>100</v>
       </c>
-      <c r="G35" s="19">
-        <v>100</v>
-      </c>
-      <c r="H35" s="19">
-        <v>100</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="G35" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="19">
         <v>408</v>
       </c>
@@ -2538,29 +2407,23 @@
         <v>4</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F36" s="19">
         <v>100</v>
       </c>
-      <c r="G36" s="19">
-        <v>100</v>
-      </c>
-      <c r="H36" s="19">
-        <v>100</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9">
-      <c r="I37"/>
+      <c r="G36" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37"/>
     </row>
   </sheetData>
   <sortState ref="A3:E15">
@@ -2589,56 +2452,56 @@
   <sheetData>
     <row r="3" ht="16.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:10">
@@ -2647,10 +2510,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2664,10 +2527,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2681,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2698,10 +2561,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2715,10 +2578,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2728,29 +2591,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2758,29 +2621,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2792,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2814,10 +2677,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2836,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2858,10 +2721,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -84,187 +84,94 @@
     <t>小马河战斗1</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|101</t>
-  </si>
-  <si>
     <t>小马河战斗2</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|102</t>
-  </si>
-  <si>
     <t>小马河战斗3</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|103</t>
-  </si>
-  <si>
     <t>小马河战斗4</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|104</t>
-  </si>
-  <si>
     <t>小马河战斗5</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|105</t>
-  </si>
-  <si>
     <t>小马河战斗6</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|106</t>
-  </si>
-  <si>
     <t>小马河战斗7</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|107</t>
-  </si>
-  <si>
     <t>小马河战斗8</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|108</t>
-  </si>
-  <si>
     <t>小马河战斗9</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|109</t>
-  </si>
-  <si>
     <t>小马河战斗10</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|110</t>
-  </si>
-  <si>
     <t>小马河战斗11</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|111</t>
-  </si>
-  <si>
     <t>小马河战斗12</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|112</t>
-  </si>
-  <si>
     <t>小马河战斗13</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|113</t>
-  </si>
-  <si>
     <t>小马河战斗14</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|114</t>
-  </si>
-  <si>
     <t>小马河战斗15</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|115</t>
-  </si>
-  <si>
     <t>小马河战斗16</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|116</t>
-  </si>
-  <si>
     <t>小马河战斗17</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|117</t>
-  </si>
-  <si>
     <t>小马河战斗18</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|118</t>
-  </si>
-  <si>
     <t>小马河战斗19</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|119</t>
-  </si>
-  <si>
     <t>小马河战斗20</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|120</t>
-  </si>
-  <si>
     <t>小马河战斗21</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|121</t>
-  </si>
-  <si>
     <t>小马河战斗22</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|122</t>
-  </si>
-  <si>
     <t>小马河战斗23</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|123</t>
-  </si>
-  <si>
     <t>小马河战斗24</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|124</t>
-  </si>
-  <si>
     <t>小马河战斗25</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|125</t>
-  </si>
-  <si>
     <t>小马河战斗26</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|126</t>
-  </si>
-  <si>
     <t>小马河战斗27</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|127</t>
-  </si>
-  <si>
     <t>小马河战斗28</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|128</t>
-  </si>
-  <si>
     <t>小马河战斗29</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|129</t>
-  </si>
-  <si>
     <t>小马河战斗30</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|130</t>
-  </si>
-  <si>
     <t>小马河战斗31</t>
-  </si>
-  <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|131</t>
   </si>
   <si>
     <t>小马河战斗32</t>
@@ -1579,7 +1486,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1723,13 +1630,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="19">
+        <v>100</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="19">
-        <v>100</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1746,13 +1653,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" s="19">
         <v>100</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1769,13 +1676,13 @@
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" s="19">
         <v>100</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1792,13 +1699,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F9" s="19">
         <v>100</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1815,13 +1722,13 @@
         <v>18</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F10" s="19">
         <v>100</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1838,13 +1745,13 @@
         <v>18</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F11" s="19">
         <v>100</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1861,13 +1768,13 @@
         <v>18</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F12" s="19">
         <v>100</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1884,13 +1791,13 @@
         <v>18</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F13" s="19">
         <v>100</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1907,13 +1814,13 @@
         <v>18</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F14" s="19">
         <v>100</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1930,13 +1837,13 @@
         <v>18</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F15" s="19">
         <v>100</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1953,13 +1860,13 @@
         <v>18</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F16" s="19">
         <v>100</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1976,13 +1883,13 @@
         <v>18</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F17" s="19">
         <v>100</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1999,13 +1906,13 @@
         <v>18</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F18" s="19">
         <v>100</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2022,13 +1929,13 @@
         <v>18</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F19" s="19">
         <v>100</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2045,13 +1952,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F20" s="19">
         <v>100</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2068,13 +1975,13 @@
         <v>18</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F21" s="19">
         <v>100</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2091,13 +1998,13 @@
         <v>18</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F22" s="19">
         <v>100</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2114,13 +2021,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F23" s="19">
         <v>100</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2137,13 +2044,13 @@
         <v>18</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F24" s="19">
         <v>100</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2160,13 +2067,13 @@
         <v>18</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F25" s="19">
         <v>100</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2183,13 +2090,13 @@
         <v>18</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F26" s="19">
         <v>100</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2206,13 +2113,13 @@
         <v>18</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F27" s="19">
         <v>100</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2229,13 +2136,13 @@
         <v>18</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F28" s="19">
         <v>100</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2252,13 +2159,13 @@
         <v>18</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F29" s="19">
         <v>100</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2275,13 +2182,13 @@
         <v>18</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F30" s="19">
         <v>100</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2298,13 +2205,13 @@
         <v>18</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F31" s="19">
         <v>100</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2321,13 +2228,13 @@
         <v>18</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F32" s="19">
         <v>100</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2344,13 +2251,13 @@
         <v>18</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F33" s="19">
         <v>100</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2367,13 +2274,13 @@
         <v>18</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F34" s="19">
         <v>100</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2390,13 +2297,13 @@
         <v>18</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F35" s="19">
         <v>100</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2413,13 +2320,13 @@
         <v>18</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F36" s="19">
         <v>100</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="7:7">
@@ -2452,56 +2359,56 @@
   <sheetData>
     <row r="3" ht="16.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:10">
@@ -2510,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2527,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2544,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2561,10 +2468,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2578,10 +2485,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2591,29 +2498,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2621,29 +2528,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2655,10 +2562,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2677,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2699,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2721,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25250" windowHeight="13790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,193 +78,193 @@
     <t>干他姥姥的。</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|100</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10000</t>
   </si>
   <si>
     <t>小马河战斗1</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|101</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10001</t>
   </si>
   <si>
     <t>小马河战斗2</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|102</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10002</t>
   </si>
   <si>
     <t>小马河战斗3</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|103</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10003</t>
   </si>
   <si>
     <t>小马河战斗4</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|104</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10004</t>
   </si>
   <si>
     <t>小马河战斗5</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|105</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10005</t>
   </si>
   <si>
     <t>小马河战斗6</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|106</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10006</t>
   </si>
   <si>
     <t>小马河战斗7</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|107</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10007</t>
   </si>
   <si>
     <t>小马河战斗8</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|108</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10008</t>
   </si>
   <si>
     <t>小马河战斗9</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|109</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10009</t>
   </si>
   <si>
     <t>小马河战斗10</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|110</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10010</t>
   </si>
   <si>
     <t>小马河战斗11</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|111</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10011</t>
   </si>
   <si>
     <t>小马河战斗12</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|112</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10012</t>
   </si>
   <si>
     <t>小马河战斗13</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|113</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10013</t>
   </si>
   <si>
     <t>小马河战斗14</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|114</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10014</t>
   </si>
   <si>
     <t>小马河战斗15</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|115</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10015</t>
   </si>
   <si>
     <t>小马河战斗16</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|116</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10016</t>
   </si>
   <si>
     <t>小马河战斗17</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|117</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10017</t>
   </si>
   <si>
     <t>小马河战斗18</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|118</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10018</t>
   </si>
   <si>
     <t>小马河战斗19</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|119</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10019</t>
   </si>
   <si>
     <t>小马河战斗20</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|120</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10020</t>
   </si>
   <si>
     <t>小马河战斗21</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|121</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10021</t>
   </si>
   <si>
     <t>小马河战斗22</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|122</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10022</t>
   </si>
   <si>
     <t>小马河战斗23</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|123</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10023</t>
   </si>
   <si>
     <t>小马河战斗24</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|124</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10024</t>
   </si>
   <si>
     <t>小马河战斗25</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|125</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10025</t>
   </si>
   <si>
     <t>小马河战斗26</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|126</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10026</t>
   </si>
   <si>
     <t>小马河战斗27</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|127</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10027</t>
   </si>
   <si>
     <t>小马河战斗28</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|128</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10028</t>
   </si>
   <si>
     <t>小马河战斗29</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|129</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10029</t>
   </si>
   <si>
     <t>小马河战斗30</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|130</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10030</t>
   </si>
   <si>
     <t>小马河战斗31</t>
   </si>
   <si>
-    <t>Coin|20;Exp_Role|100;Exp_Kongfu|131</t>
+    <t>Coin|20;Exp_Role|10000;Exp_Kongfu|10031</t>
   </si>
   <si>
     <t>小马河战斗32</t>
@@ -394,10 +394,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -429,29 +429,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,6 +511,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -480,23 +527,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,67 +565,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -593,37 +593,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,127 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,38 +923,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,6 +945,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -989,17 +995,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,145 +1024,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1579,22 +1579,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.37272727272727" style="19" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14.4583333333333" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.8727272727273" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.3727272727273" style="19" customWidth="1"/>
+    <col min="6" max="6" width="18.7545454545455" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14.4545454545455" style="19" customWidth="1"/>
     <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="18" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" ht="14.25" spans="1:7">
+    <row r="2" s="18" customFormat="1" ht="13.5" spans="1:7">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="18" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="18" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
@@ -2444,13 +2444,13 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="13.1083333333333" customWidth="1"/>
-    <col min="6" max="10" width="24.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.1090909090909" customWidth="1"/>
+    <col min="6" max="10" width="24.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" spans="2:10">
+    <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:10">
+    <row r="5" ht="14.5" spans="2:10">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>3</v>
@@ -2521,7 +2521,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" ht="16.5" spans="2:10">
+    <row r="6" ht="14.5" spans="2:10">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -2538,7 +2538,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" ht="16.5" spans="2:10">
+    <row r="7" ht="14.5" spans="2:10">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>3</v>
@@ -2555,7 +2555,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" ht="16.5" spans="2:10">
+    <row r="8" ht="14.5" spans="2:10">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>3</v>
@@ -2572,7 +2572,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" ht="16.5" spans="2:10">
+    <row r="9" ht="14.5" spans="2:10">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>3</v>
@@ -2589,7 +2589,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="2:15">
+    <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
@@ -2770,7 +2770,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -153,6 +153,9 @@
     <t>BattleName</t>
   </si>
   <si>
+    <t>enemy_icon_cike</t>
+  </si>
+  <si>
     <t>101|1|20;104|1|15;105|1|15;105|1|15;106|1|15</t>
   </si>
   <si>
@@ -168,16 +171,25 @@
     <t>乔帮主</t>
   </si>
   <si>
+    <t>enemy_icon_dubi</t>
+  </si>
+  <si>
     <t>丐帮切磋2</t>
   </si>
   <si>
     <t>长老洪七</t>
   </si>
   <si>
+    <t>enemy_icon_emei</t>
+  </si>
+  <si>
     <t>丐帮切磋3</t>
   </si>
   <si>
     <t>醉丐苏花子</t>
+  </si>
+  <si>
+    <t>enemy_icon_huashan3</t>
   </si>
   <si>
     <t>丐帮切磋4</t>
@@ -1082,8 +1094,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1102,9 +1114,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1116,7 +1136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,17 +1150,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1153,7 +1167,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,72 +1243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,7 +1289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1313,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,7 +1391,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,73 +1451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,73 +1463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,17 +1498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,20 +1524,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1554,32 +1590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,10 +1601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,16 +1613,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1619,115 +1631,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2094,25 +2106,25 @@
   <dimension ref="A1:K244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.37272727272727" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.3727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.2545454545455" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1272727272727" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2223,27 +2235,29 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4">
         <v>13321</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1">
         <v>101</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2253,27 +2267,29 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4">
         <v>14098</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1">
         <v>102</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2283,27 +2299,29 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4">
         <v>14920</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1">
         <v>103</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2313,27 +2331,29 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4">
         <v>15790</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1">
         <v>104</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2343,27 +2363,29 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4">
         <v>16711</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1">
         <v>105</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2373,27 +2395,29 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4">
         <v>17686</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1">
         <v>106</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2403,21 +2427,23 @@
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4">
         <v>18717</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2427,21 +2453,23 @@
       <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4">
         <v>19809</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2451,21 +2479,23 @@
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4">
         <v>20964</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2475,21 +2505,23 @@
       <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="4">
         <v>22187</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2499,21 +2531,23 @@
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4">
         <v>23481</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2523,21 +2557,23 @@
       <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="4">
         <v>24850</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2547,21 +2583,23 @@
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4">
         <v>26299</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2571,21 +2609,23 @@
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="4">
         <v>27833</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2595,21 +2635,23 @@
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="4">
         <v>29456</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2619,21 +2661,23 @@
       <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="4">
         <v>31174</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2643,21 +2687,23 @@
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="4">
         <v>32992</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2667,21 +2713,23 @@
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="4">
         <v>34916</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2691,21 +2739,23 @@
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="4">
         <v>36952</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2715,21 +2765,23 @@
       <c r="B24" s="4">
         <v>1</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="4">
         <v>39107</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2739,21 +2791,23 @@
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="4">
         <v>41388</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2763,21 +2817,23 @@
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="4">
         <v>43802</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2787,21 +2843,23 @@
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="4">
         <v>46357</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2811,21 +2869,23 @@
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" s="4">
         <v>49061</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2835,21 +2895,23 @@
       <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="4">
         <v>51922</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2859,21 +2921,23 @@
       <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="4">
         <v>54950</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2883,21 +2947,23 @@
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="4">
         <v>58155</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2907,21 +2973,23 @@
       <c r="B32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" s="4">
         <v>61547</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2931,21 +2999,23 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G33" s="4">
         <v>65136</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2955,21 +3025,23 @@
       <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D34" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" s="4">
         <v>68933</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2979,26 +3051,29 @@
       <c r="B35" s="1">
         <v>2</v>
       </c>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G35" s="1">
         <v>36278</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J35" s="1">
         <v>201</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3008,26 +3083,29 @@
       <c r="B36" s="1">
         <v>2</v>
       </c>
+      <c r="C36" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G36" s="1">
         <v>39361</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J36" s="1">
         <v>202</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3037,26 +3115,29 @@
       <c r="B37" s="1">
         <v>2</v>
       </c>
+      <c r="C37" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" s="1">
         <v>42706</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J37" s="1">
         <v>203</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3066,26 +3147,29 @@
       <c r="B38" s="1">
         <v>2</v>
       </c>
+      <c r="C38" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G38" s="1">
         <v>46336</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J38" s="1">
         <v>204</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3095,26 +3179,29 @@
       <c r="B39" s="1">
         <v>2</v>
       </c>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="1">
         <v>50274</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J39" s="1">
         <v>205</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3124,26 +3211,29 @@
       <c r="B40" s="1">
         <v>2</v>
       </c>
+      <c r="C40" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" s="1">
         <v>54547</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J40" s="1">
         <v>206</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3153,20 +3243,23 @@
       <c r="B41" s="1">
         <v>2</v>
       </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1">
         <v>59183</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3176,20 +3269,23 @@
       <c r="B42" s="1">
         <v>2</v>
       </c>
+      <c r="C42" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" s="1">
         <v>64213</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3199,20 +3295,23 @@
       <c r="B43" s="1">
         <v>2</v>
       </c>
+      <c r="C43" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G43" s="1">
         <v>69670</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3222,20 +3321,23 @@
       <c r="B44" s="1">
         <v>2</v>
       </c>
+      <c r="C44" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1">
         <v>75591</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3245,20 +3347,23 @@
       <c r="B45" s="1">
         <v>2</v>
       </c>
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1">
         <v>82015</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3268,20 +3373,23 @@
       <c r="B46" s="1">
         <v>2</v>
       </c>
+      <c r="C46" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1">
         <v>88985</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3291,20 +3399,23 @@
       <c r="B47" s="1">
         <v>2</v>
       </c>
+      <c r="C47" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" s="1">
         <v>96548</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3314,20 +3425,23 @@
       <c r="B48" s="1">
         <v>2</v>
       </c>
+      <c r="C48" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G48" s="1">
         <v>104753</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3337,20 +3451,23 @@
       <c r="B49" s="1">
         <v>2</v>
       </c>
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="1">
         <v>113656</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3360,20 +3477,23 @@
       <c r="B50" s="1">
         <v>2</v>
       </c>
+      <c r="C50" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="1">
         <v>123315</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3383,20 +3503,23 @@
       <c r="B51" s="1">
         <v>2</v>
       </c>
+      <c r="C51" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G51" s="1">
         <v>133795</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3406,20 +3529,23 @@
       <c r="B52" s="1">
         <v>2</v>
       </c>
+      <c r="C52" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G52" s="1">
         <v>145166</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3429,20 +3555,23 @@
       <c r="B53" s="1">
         <v>2</v>
       </c>
+      <c r="C53" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G53" s="1">
         <v>157503</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3452,20 +3581,23 @@
       <c r="B54" s="1">
         <v>2</v>
       </c>
+      <c r="C54" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G54" s="1">
         <v>170889</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3475,20 +3607,23 @@
       <c r="B55" s="1">
         <v>2</v>
       </c>
+      <c r="C55" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G55" s="1">
         <v>185413</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3498,20 +3633,23 @@
       <c r="B56" s="1">
         <v>2</v>
       </c>
+      <c r="C56" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D56" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G56" s="1">
         <v>201171</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3521,20 +3659,23 @@
       <c r="B57" s="1">
         <v>2</v>
       </c>
+      <c r="C57" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G57" s="1">
         <v>218268</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3544,20 +3685,23 @@
       <c r="B58" s="1">
         <v>2</v>
       </c>
+      <c r="C58" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G58" s="1">
         <v>236818</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3567,20 +3711,23 @@
       <c r="B59" s="1">
         <v>2</v>
       </c>
+      <c r="C59" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G59" s="1">
         <v>256945</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3590,20 +3737,23 @@
       <c r="B60" s="1">
         <v>2</v>
       </c>
+      <c r="C60" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D60" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G60" s="1">
         <v>278782</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3613,20 +3763,23 @@
       <c r="B61" s="1">
         <v>2</v>
       </c>
+      <c r="C61" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G61" s="1">
         <v>302475</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3636,20 +3789,23 @@
       <c r="B62" s="1">
         <v>2</v>
       </c>
+      <c r="C62" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G62" s="1">
         <v>328182</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3659,20 +3815,23 @@
       <c r="B63" s="1">
         <v>2</v>
       </c>
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D63" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" s="1">
         <v>356074</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3682,20 +3841,23 @@
       <c r="B64" s="1">
         <v>2</v>
       </c>
+      <c r="C64" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D64" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G64" s="1">
         <v>386340</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3705,27 +3867,29 @@
       <c r="B65" s="4">
         <v>3</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D65" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G65" s="4">
         <v>156720</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J65" s="1">
         <v>301</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3735,27 +3899,29 @@
       <c r="B66" s="4">
         <v>3</v>
       </c>
-      <c r="C66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D66" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G66" s="4">
         <v>172119</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J66" s="1">
         <v>302</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3765,27 +3931,29 @@
       <c r="B67" s="4">
         <v>3</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D67" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G67" s="4">
         <v>189031</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J67" s="1">
         <v>303</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3795,27 +3963,29 @@
       <c r="B68" s="4">
         <v>3</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D68" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G68" s="4">
         <v>207604</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J68" s="1">
         <v>304</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3825,27 +3995,29 @@
       <c r="B69" s="4">
         <v>3</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D69" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G69" s="4">
         <v>228002</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J69" s="1">
         <v>305</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3855,27 +4027,29 @@
       <c r="B70" s="4">
         <v>3</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D70" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G70" s="4">
         <v>250405</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J70" s="1">
         <v>306</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3885,21 +4059,23 @@
       <c r="B71" s="4">
         <v>3</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D71" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G71" s="4">
         <v>275009</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3909,21 +4085,23 @@
       <c r="B72" s="4">
         <v>3</v>
       </c>
-      <c r="C72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D72" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G72" s="4">
         <v>302030</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3933,21 +4111,23 @@
       <c r="B73" s="4">
         <v>3</v>
       </c>
-      <c r="C73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D73" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G73" s="4">
         <v>331706</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3957,21 +4137,23 @@
       <c r="B74" s="4">
         <v>3</v>
       </c>
-      <c r="C74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D74" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G74" s="4">
         <v>364298</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3981,21 +4163,23 @@
       <c r="B75" s="4">
         <v>3</v>
       </c>
-      <c r="C75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D75" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G75" s="4">
         <v>400093</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4005,21 +4189,23 @@
       <c r="B76" s="4">
         <v>3</v>
       </c>
-      <c r="C76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D76" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G76" s="4">
         <v>439405</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4029,21 +4215,23 @@
       <c r="B77" s="4">
         <v>3</v>
       </c>
-      <c r="C77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D77" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G77" s="4">
         <v>482579</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4053,21 +4241,23 @@
       <c r="B78" s="4">
         <v>3</v>
       </c>
-      <c r="C78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D78" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G78" s="4">
         <v>529995</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4077,21 +4267,23 @@
       <c r="B79" s="4">
         <v>3</v>
       </c>
-      <c r="C79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D79" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" s="4">
         <v>582070</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4101,21 +4293,23 @@
       <c r="B80" s="4">
         <v>3</v>
       </c>
-      <c r="C80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D80" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" s="4">
         <v>639262</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4125,21 +4319,23 @@
       <c r="B81" s="4">
         <v>3</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D81" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G81" s="4">
         <v>702073</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4149,21 +4345,23 @@
       <c r="B82" s="4">
         <v>3</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D82" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G82" s="4">
         <v>771056</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4173,21 +4371,23 @@
       <c r="B83" s="4">
         <v>3</v>
       </c>
-      <c r="C83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D83" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G83" s="4">
         <v>846817</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4197,21 +4397,23 @@
       <c r="B84" s="4">
         <v>3</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D84" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G84" s="4">
         <v>930022</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4221,21 +4423,23 @@
       <c r="B85" s="4">
         <v>3</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D85" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G85" s="4">
         <v>1021402</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4245,21 +4449,23 @@
       <c r="B86" s="4">
         <v>3</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D86" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" s="4">
         <v>1121761</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4269,21 +4475,23 @@
       <c r="B87" s="4">
         <v>3</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D87" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G87" s="4">
         <v>1231981</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4293,21 +4501,23 @@
       <c r="B88" s="4">
         <v>3</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D88" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G88" s="4">
         <v>1353031</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4317,21 +4527,23 @@
       <c r="B89" s="4">
         <v>3</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D89" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G89" s="4">
         <v>1485975</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4341,21 +4553,23 @@
       <c r="B90" s="4">
         <v>3</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D90" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G90" s="4">
         <v>1631981</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4365,21 +4579,23 @@
       <c r="B91" s="4">
         <v>3</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D91" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G91" s="4">
         <v>1792333</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4389,21 +4605,23 @@
       <c r="B92" s="4">
         <v>3</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D92" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G92" s="4">
         <v>1968441</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4413,21 +4631,23 @@
       <c r="B93" s="4">
         <v>3</v>
       </c>
-      <c r="C93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D93" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G93" s="4">
         <v>2161852</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4437,21 +4657,23 @@
       <c r="B94" s="4">
         <v>3</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D94" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G94" s="4">
         <v>2374272</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4461,26 +4683,29 @@
       <c r="B95" s="1">
         <v>4</v>
       </c>
+      <c r="C95" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D95" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G95" s="1">
         <v>804024</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J95" s="1">
         <v>401</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4490,26 +4715,29 @@
       <c r="B96" s="1">
         <v>4</v>
       </c>
+      <c r="C96" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D96" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G96" s="1">
         <v>886722</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J96" s="1">
         <v>402</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4519,26 +4747,29 @@
       <c r="B97" s="1">
         <v>4</v>
       </c>
+      <c r="C97" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D97" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G97" s="1">
         <v>977926</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J97" s="1">
         <v>403</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4548,20 +4779,23 @@
       <c r="B98" s="1">
         <v>4</v>
       </c>
+      <c r="C98" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D98" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G98" s="1">
         <v>1078511</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4571,20 +4805,23 @@
       <c r="B99" s="1">
         <v>4</v>
       </c>
+      <c r="C99" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D99" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G99" s="1">
         <v>1189442</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4594,20 +4831,23 @@
       <c r="B100" s="1">
         <v>4</v>
       </c>
+      <c r="C100" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D100" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G100" s="1">
         <v>1311782</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4617,20 +4857,23 @@
       <c r="B101" s="1">
         <v>4</v>
       </c>
+      <c r="C101" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D101" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G101" s="1">
         <v>1446706</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4640,20 +4883,23 @@
       <c r="B102" s="1">
         <v>4</v>
       </c>
+      <c r="C102" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D102" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G102" s="1">
         <v>1595507</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4663,20 +4909,23 @@
       <c r="B103" s="1">
         <v>4</v>
       </c>
+      <c r="C103" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D103" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G103" s="1">
         <v>1759613</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4686,20 +4935,23 @@
       <c r="B104" s="1">
         <v>4</v>
       </c>
+      <c r="C104" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D104" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G104" s="1">
         <v>1940598</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4709,20 +4961,23 @@
       <c r="B105" s="1">
         <v>4</v>
       </c>
+      <c r="C105" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D105" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G105" s="1">
         <v>2140199</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4732,20 +4987,23 @@
       <c r="B106" s="1">
         <v>4</v>
       </c>
+      <c r="C106" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D106" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G106" s="1">
         <v>2360330</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4755,20 +5013,23 @@
       <c r="B107" s="1">
         <v>4</v>
       </c>
+      <c r="C107" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G107" s="1">
         <v>2603102</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4778,20 +5039,23 @@
       <c r="B108" s="1">
         <v>4</v>
       </c>
+      <c r="C108" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D108" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G108" s="1">
         <v>2870845</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4801,20 +5065,23 @@
       <c r="B109" s="1">
         <v>4</v>
       </c>
+      <c r="C109" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D109" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G109" s="1">
         <v>3166127</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4824,20 +5091,23 @@
       <c r="B110" s="1">
         <v>4</v>
       </c>
+      <c r="C110" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D110" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G110" s="1">
         <v>3491780</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4847,20 +5117,23 @@
       <c r="B111" s="1">
         <v>4</v>
       </c>
+      <c r="C111" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D111" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G111" s="1">
         <v>3850928</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4870,20 +5143,23 @@
       <c r="B112" s="1">
         <v>4</v>
       </c>
+      <c r="C112" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D112" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G112" s="1">
         <v>4247016</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4893,20 +5169,23 @@
       <c r="B113" s="1">
         <v>4</v>
       </c>
+      <c r="C113" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D113" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G113" s="1">
         <v>4683844</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4916,20 +5195,23 @@
       <c r="B114" s="1">
         <v>4</v>
       </c>
+      <c r="C114" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D114" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G114" s="1">
         <v>5165602</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4939,20 +5221,23 @@
       <c r="B115" s="1">
         <v>4</v>
       </c>
+      <c r="C115" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D115" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G115" s="1">
         <v>5696911</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4962,20 +5247,23 @@
       <c r="B116" s="1">
         <v>4</v>
       </c>
+      <c r="C116" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D116" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G116" s="1">
         <v>6282868</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4985,20 +5273,23 @@
       <c r="B117" s="1">
         <v>4</v>
       </c>
+      <c r="C117" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D117" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G117" s="1">
         <v>6929094</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5008,20 +5299,23 @@
       <c r="B118" s="1">
         <v>4</v>
       </c>
+      <c r="C118" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D118" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G118" s="1">
         <v>7641788</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5031,20 +5325,23 @@
       <c r="B119" s="1">
         <v>4</v>
       </c>
+      <c r="C119" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D119" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G119" s="1">
         <v>8427786</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5054,20 +5351,23 @@
       <c r="B120" s="1">
         <v>4</v>
       </c>
+      <c r="C120" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D120" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G120" s="1">
         <v>9294628</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5077,20 +5377,23 @@
       <c r="B121" s="1">
         <v>4</v>
       </c>
+      <c r="C121" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D121" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G121" s="1">
         <v>10250629</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5100,20 +5403,23 @@
       <c r="B122" s="1">
         <v>4</v>
       </c>
+      <c r="C122" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D122" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G122" s="1">
         <v>11304960</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5123,20 +5429,23 @@
       <c r="B123" s="1">
         <v>4</v>
       </c>
+      <c r="C123" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D123" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G123" s="1">
         <v>12467735</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5146,20 +5455,23 @@
       <c r="B124" s="1">
         <v>4</v>
       </c>
+      <c r="C124" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D124" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G124" s="1">
         <v>13750110</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5169,27 +5481,29 @@
       <c r="B125" s="4">
         <v>5</v>
       </c>
-      <c r="C125" s="4"/>
+      <c r="C125" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D125" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G125" s="4">
         <v>4071073</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J125" s="1">
         <v>501</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5199,27 +5513,29 @@
       <c r="B126" s="4">
         <v>5</v>
       </c>
-      <c r="C126" s="4"/>
+      <c r="C126" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D126" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G126" s="4">
         <v>4586600</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J126" s="1">
         <v>502</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5229,27 +5545,29 @@
       <c r="B127" s="4">
         <v>5</v>
       </c>
-      <c r="C127" s="4"/>
+      <c r="C127" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D127" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G127" s="4">
         <v>5167409</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J127" s="1">
         <v>503</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5259,27 +5577,29 @@
       <c r="B128" s="4">
         <v>5</v>
       </c>
-      <c r="C128" s="4"/>
+      <c r="C128" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D128" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G128" s="4">
         <v>5821767</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J128" s="1">
         <v>504</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5289,27 +5609,29 @@
       <c r="B129" s="4">
         <v>5</v>
       </c>
-      <c r="C129" s="4"/>
+      <c r="C129" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D129" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G129" s="4">
         <v>6558988</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J129" s="1">
         <v>505</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5319,21 +5641,23 @@
       <c r="B130" s="4">
         <v>5</v>
       </c>
-      <c r="C130" s="4"/>
+      <c r="C130" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D130" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G130" s="4">
         <v>7389564</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5343,21 +5667,23 @@
       <c r="B131" s="4">
         <v>5</v>
       </c>
-      <c r="C131" s="4"/>
+      <c r="C131" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D131" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G131" s="4">
         <v>8325318</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5367,21 +5693,23 @@
       <c r="B132" s="4">
         <v>5</v>
       </c>
-      <c r="C132" s="4"/>
+      <c r="C132" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D132" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G132" s="4">
         <v>9379568</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5391,21 +5719,23 @@
       <c r="B133" s="4">
         <v>5</v>
       </c>
-      <c r="C133" s="4"/>
+      <c r="C133" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D133" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G133" s="4">
         <v>10567320</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5415,21 +5745,23 @@
       <c r="B134" s="4">
         <v>5</v>
       </c>
-      <c r="C134" s="4"/>
+      <c r="C134" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D134" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G134" s="4">
         <v>11905479</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5439,21 +5771,23 @@
       <c r="B135" s="4">
         <v>5</v>
       </c>
-      <c r="C135" s="4"/>
+      <c r="C135" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D135" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G135" s="4">
         <v>13413091</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5463,21 +5797,23 @@
       <c r="B136" s="4">
         <v>5</v>
       </c>
-      <c r="C136" s="4"/>
+      <c r="C136" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D136" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G136" s="4">
         <v>15111615</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5487,21 +5823,23 @@
       <c r="B137" s="4">
         <v>5</v>
       </c>
-      <c r="C137" s="4"/>
+      <c r="C137" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D137" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G137" s="4">
         <v>17025226</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5511,21 +5849,23 @@
       <c r="B138" s="4">
         <v>5</v>
       </c>
-      <c r="C138" s="4"/>
+      <c r="C138" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D138" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G138" s="4">
         <v>19181161</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5535,21 +5875,23 @@
       <c r="B139" s="4">
         <v>5</v>
       </c>
-      <c r="C139" s="4"/>
+      <c r="C139" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D139" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G139" s="4">
         <v>21610106</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5559,21 +5901,23 @@
       <c r="B140" s="4">
         <v>5</v>
       </c>
-      <c r="C140" s="4"/>
+      <c r="C140" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D140" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G140" s="4">
         <v>24346633</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5583,21 +5927,23 @@
       <c r="B141" s="4">
         <v>5</v>
       </c>
-      <c r="C141" s="4"/>
+      <c r="C141" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D141" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G141" s="4">
         <v>27429691</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5607,21 +5953,23 @@
       <c r="B142" s="4">
         <v>5</v>
       </c>
-      <c r="C142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D142" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G142" s="4">
         <v>30903162</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5631,21 +5979,23 @@
       <c r="B143" s="4">
         <v>5</v>
       </c>
-      <c r="C143" s="4"/>
+      <c r="C143" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D143" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G143" s="4">
         <v>34816485</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5655,21 +6005,23 @@
       <c r="B144" s="4">
         <v>5</v>
       </c>
-      <c r="C144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D144" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G144" s="4">
         <v>39225359</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5679,21 +6031,23 @@
       <c r="B145" s="4">
         <v>5</v>
       </c>
-      <c r="C145" s="4"/>
+      <c r="C145" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D145" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G145" s="4">
         <v>44192537</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5703,21 +6057,23 @@
       <c r="B146" s="4">
         <v>5</v>
       </c>
-      <c r="C146" s="4"/>
+      <c r="C146" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D146" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G146" s="4">
         <v>49788717</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5727,21 +6083,23 @@
       <c r="B147" s="4">
         <v>5</v>
       </c>
-      <c r="C147" s="4"/>
+      <c r="C147" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D147" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G147" s="4">
         <v>56093552</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5751,21 +6109,23 @@
       <c r="B148" s="4">
         <v>5</v>
       </c>
-      <c r="C148" s="4"/>
+      <c r="C148" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D148" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G148" s="4">
         <v>63196779</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5775,21 +6135,23 @@
       <c r="B149" s="4">
         <v>5</v>
       </c>
-      <c r="C149" s="4"/>
+      <c r="C149" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D149" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G149" s="4">
         <v>71199501</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5799,21 +6161,23 @@
       <c r="B150" s="4">
         <v>5</v>
       </c>
-      <c r="C150" s="4"/>
+      <c r="C150" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D150" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G150" s="4">
         <v>80215622</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5823,21 +6187,23 @@
       <c r="B151" s="4">
         <v>5</v>
       </c>
-      <c r="C151" s="4"/>
+      <c r="C151" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D151" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G151" s="4">
         <v>90373470</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5847,21 +6213,23 @@
       <c r="B152" s="4">
         <v>5</v>
       </c>
-      <c r="C152" s="4"/>
+      <c r="C152" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D152" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G152" s="4">
         <v>101817625</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5873,19 +6241,19 @@
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G153" s="4">
         <v>114710974</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5897,19 +6265,19 @@
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G154" s="4">
         <v>129237041</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5920,25 +6288,25 @@
         <v>6</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G155" s="1">
         <v>34764433</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J155" s="1">
         <v>601</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5949,25 +6317,25 @@
         <v>6</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G156" s="1">
         <v>39010876</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J156" s="1">
         <v>602</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5978,25 +6346,25 @@
         <v>6</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G157" s="1">
         <v>43776018</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J157" s="1">
         <v>603</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -6007,25 +6375,25 @@
         <v>6</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G158" s="1">
         <v>49123218</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J158" s="1">
         <v>604</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -6036,25 +6404,25 @@
         <v>6</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G159" s="1">
         <v>55123573</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J159" s="1">
         <v>605</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6065,19 +6433,19 @@
         <v>6</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G160" s="1">
         <v>61856866</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6088,19 +6456,19 @@
         <v>6</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G161" s="1">
         <v>69412624</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6111,19 +6479,19 @@
         <v>6</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G162" s="1">
         <v>77891311</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6134,19 +6502,19 @@
         <v>6</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G163" s="1">
         <v>87405662</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6157,19 +6525,19 @@
         <v>6</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G164" s="1">
         <v>98082182</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6180,19 +6548,19 @@
         <v>6</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G165" s="1">
         <v>110062829</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6203,19 +6571,19 @@
         <v>6</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G166" s="1">
         <v>123506901</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6226,19 +6594,19 @@
         <v>6</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G167" s="1">
         <v>138593153</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6249,19 +6617,19 @@
         <v>6</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G168" s="1">
         <v>155522177</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6272,19 +6640,19 @@
         <v>6</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G169" s="1">
         <v>174519065</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6295,19 +6663,19 @@
         <v>6</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G170" s="1">
         <v>195836405</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6318,19 +6686,19 @@
         <v>6</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G171" s="1">
         <v>219757638</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6341,19 +6709,19 @@
         <v>6</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G172" s="1">
         <v>246600828</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6364,19 +6732,19 @@
         <v>6</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G173" s="1">
         <v>276722888</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6387,19 +6755,19 @@
         <v>6</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G174" s="1">
         <v>310524330</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6410,19 +6778,19 @@
         <v>6</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G175" s="1">
         <v>348454586</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6433,19 +6801,19 @@
         <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G176" s="1">
         <v>391017987</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6456,19 +6824,19 @@
         <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G177" s="1">
         <v>438780468</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6479,19 +6847,19 @@
         <v>6</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G178" s="1">
         <v>492377091</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6502,19 +6870,19 @@
         <v>6</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G179" s="1">
         <v>552520492</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6525,19 +6893,19 @@
         <v>6</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G180" s="1">
         <v>620010353</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6548,19 +6916,19 @@
         <v>6</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G181" s="1">
         <v>695744037</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6571,19 +6939,19 @@
         <v>6</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G182" s="1">
         <v>780728520</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6594,19 +6962,19 @@
         <v>6</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G183" s="1">
         <v>876093778</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6617,19 +6985,19 @@
         <v>6</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G184" s="1">
         <v>983107799</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6641,25 +7009,25 @@
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G185" s="4">
         <v>244987714</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J185" s="1">
         <v>701</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6671,25 +7039,25 @@
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G186" s="4">
         <v>286101462</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J186" s="1">
         <v>702</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6701,25 +7069,25 @@
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G187" s="4">
         <v>334114904</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J187" s="1">
         <v>703</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6731,25 +7099,25 @@
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G188" s="4">
         <v>390185944</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J188" s="1">
         <v>704</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6761,25 +7129,25 @@
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G189" s="4">
         <v>455666806</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J189" s="1">
         <v>705</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6791,25 +7159,25 @@
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G190" s="4">
         <v>532136642</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J190" s="1">
         <v>706</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6821,19 +7189,19 @@
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G191" s="4">
         <v>621439618</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6845,19 +7213,19 @@
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G192" s="4">
         <v>725729386</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6869,19 +7237,19 @@
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G193" s="4">
         <v>847521025</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6893,19 +7261,19 @@
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G194" s="4">
         <v>989751692</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6917,19 +7285,19 @@
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G195" s="4">
         <v>1155851457</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6941,19 +7309,19 @@
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G196" s="4">
         <v>1349826024</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6965,19 +7333,19 @@
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G197" s="4">
         <v>1576353332</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6989,19 +7357,19 @@
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G198" s="4">
         <v>1840896369</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7013,19 +7381,19 @@
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G199" s="4">
         <v>2149834922</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7037,19 +7405,19 @@
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G200" s="4">
         <v>2510619429</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7061,19 +7429,19 @@
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G201" s="4">
         <v>2931950660</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7085,19 +7453,19 @@
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G202" s="4">
         <v>3423989543</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7109,19 +7477,19 @@
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G203" s="4">
         <v>3998602211</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7133,19 +7501,19 @@
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G204" s="4">
         <v>4669646166</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7157,19 +7525,19 @@
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G205" s="4">
         <v>5453304471</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7181,19 +7549,19 @@
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G206" s="4">
         <v>6368476025</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7205,19 +7573,19 @@
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G207" s="4">
         <v>7437231333</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7229,19 +7597,19 @@
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G208" s="4">
         <v>8685344764</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7253,19 +7621,19 @@
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G209" s="4">
         <v>10142916133</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7277,19 +7645,19 @@
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G210" s="4">
         <v>11845096593</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7301,19 +7669,19 @@
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G211" s="4">
         <v>13832936353</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7325,19 +7693,19 @@
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G212" s="4">
         <v>16154374652</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7349,19 +7717,19 @@
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G213" s="4">
         <v>18865395873</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7373,19 +7741,19 @@
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G214" s="4">
         <v>22031379738</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7396,25 +7764,25 @@
         <v>8</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G215" s="1">
         <v>4992188542</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J215" s="1">
         <v>801</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7425,25 +7793,25 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G216" s="1">
         <v>5831661910</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J216" s="1">
         <v>802</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7454,25 +7822,25 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G217" s="1">
         <v>6812298924</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J217" s="1">
         <v>803</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7483,25 +7851,25 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G218" s="1">
         <v>7957837294</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J218" s="1">
         <v>804</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -7512,25 +7880,25 @@
         <v>8</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G219" s="1">
         <v>9296006400</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="J219" s="1">
         <v>805</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -7541,25 +7909,25 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G220" s="1">
         <v>10859198523</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J220" s="1">
         <v>806</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7570,19 +7938,19 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G221" s="1">
         <v>12685252945</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7593,19 +7961,19 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G222" s="1">
         <v>14818371902</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7616,19 +7984,19 @@
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G223" s="1">
         <v>17310190564</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7639,19 +8007,19 @@
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G224" s="1">
         <v>20221026935</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7662,19 +8030,19 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G225" s="1">
         <v>23621341937</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7685,19 +8053,19 @@
         <v>8</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G226" s="1">
         <v>27593445016</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7708,19 +8076,19 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G227" s="1">
         <v>32233486560</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7731,19 +8099,19 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G228" s="1">
         <v>37653785354</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7754,19 +8122,19 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G229" s="1">
         <v>43985547416</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7777,19 +8145,19 @@
         <v>8</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G230" s="1">
         <v>51382042026</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7800,19 +8168,19 @@
         <v>8</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G231" s="1">
         <v>60022311824</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7823,19 +8191,19 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G232" s="1">
         <v>70115506793</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7846,19 +8214,19 @@
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G233" s="1">
         <v>81905947029</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7869,19 +8237,19 @@
         <v>8</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G234" s="1">
         <v>95679036857</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7892,19 +8260,19 @@
         <v>8</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G235" s="1">
         <v>111768173448</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7915,19 +8283,19 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G236" s="1">
         <v>130562817167</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7938,19 +8306,19 @@
         <v>8</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G237" s="1">
         <v>152517919016</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7961,19 +8329,19 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G238" s="1">
         <v>178164933369</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7984,19 +8352,19 @@
         <v>8</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G239" s="1">
         <v>208124682576</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8007,19 +8375,19 @@
         <v>8</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G240" s="1">
         <v>243122384851</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8030,19 +8398,19 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G241" s="1">
         <v>284005209204</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8053,19 +8421,19 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G242" s="1">
         <v>331762782372</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8076,19 +8444,19 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G243" s="1">
         <v>387551144134</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8099,19 +8467,19 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G244" s="1">
         <v>452720730825</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8133,11 +8501,11 @@
       <selection activeCell="A22" sqref="A22:B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="79.875" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="4.37272727272727" customWidth="1"/>
+    <col min="2" max="2" width="79.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="8.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8145,10 +8513,10 @@
         <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8156,10 +8524,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8167,10 +8535,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8178,10 +8546,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8189,10 +8557,10 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8200,10 +8568,10 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8211,10 +8579,10 @@
         <v>201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8222,10 +8590,10 @@
         <v>202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8233,10 +8601,10 @@
         <v>203</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8244,10 +8612,10 @@
         <v>204</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8255,10 +8623,10 @@
         <v>205</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8266,10 +8634,10 @@
         <v>206</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8277,10 +8645,10 @@
         <v>301</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8288,10 +8656,10 @@
         <v>302</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8299,10 +8667,10 @@
         <v>303</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8310,10 +8678,10 @@
         <v>304</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8321,10 +8689,10 @@
         <v>305</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8332,10 +8700,10 @@
         <v>306</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8343,10 +8711,10 @@
         <v>401</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8354,10 +8722,10 @@
         <v>402</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8365,10 +8733,10 @@
         <v>403</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8376,10 +8744,10 @@
         <v>501</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8387,10 +8755,10 @@
         <v>502</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8398,10 +8766,10 @@
         <v>503</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8409,10 +8777,10 @@
         <v>504</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8420,10 +8788,10 @@
         <v>505</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8431,10 +8799,10 @@
         <v>601</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8442,10 +8810,10 @@
         <v>602</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8453,10 +8821,10 @@
         <v>603</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8464,10 +8832,10 @@
         <v>604</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8475,10 +8843,10 @@
         <v>605</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8486,10 +8854,10 @@
         <v>701</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8497,10 +8865,10 @@
         <v>702</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8508,10 +8876,10 @@
         <v>703</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8519,10 +8887,10 @@
         <v>704</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8530,10 +8898,10 @@
         <v>705</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8541,10 +8909,10 @@
         <v>706</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8552,10 +8920,10 @@
         <v>801</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8563,10 +8931,10 @@
         <v>802</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8574,10 +8942,10 @@
         <v>803</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8585,10 +8953,10 @@
         <v>804</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8596,10 +8964,10 @@
         <v>805</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8607,10 +8975,10 @@
         <v>806</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B782C-A4BD-44CE-9882-FC1F72ACF892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F16BE3-53E8-4821-9851-80DD80B53E72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="612">
   <si>
     <t>ID</t>
   </si>
@@ -1063,575 +1063,550 @@
   </si>
   <si>
     <t>丐帮乃天下第一大帮，初次挑战一定要取胜。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>打狗棒法!上来就亮绝学，要加倍小心。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>丐帮弟子卷土重来，准备应战。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>头顶的匾额上写着大忠分舵四个字，几个丐帮弟子正在里边等着你们。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>见一人自大堂走出来，丐帮众人左右让路，双手抱拳唤一身陈舵主。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>突然一个大汉站在你面前，一场战斗似乎在所难免。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>得到一本武功秘籍，不过这帮人肯定不会善罢甘休。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“大孝分舵”管它的，进去探个究竟！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>丐帮看似散乱，管理却井井有条，切莫小看。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌人越来越难缠了，让他们看看我们的本事。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>几场打斗后弟子们虽有些疲惫，却丝毫不敢怠慢，继续战斗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>听落败的那人说，大孝分舵舵主就在前面。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大勇分舵，听起来很厉害的样子。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>打狗阵难缠至极，需尽快想出破解之法。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>丐帮弟子败下阵来，弟子们似乎端详出了阵法玄机。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>双方打斗正酣，一度进入僵持状态。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弟子们信心满满，正准备暴揍这帮叫花子。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>打狗阵破，丐帮弟子四散而逃留下一句：有本事别跑。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大勇分舵被打的落花流水，听闻丐帮派了更厉害的人来对付我们。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>还有什么功夫尽管使出来，要是我们打不过…那就再打一次。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前边又有几个小叫花子叫阵，还等什么？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>树荫下几个丐帮弟子正在小憩，一人坐起朝着我们大叫：菜鸡止步。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>师父说丐帮人喜欢吹牛皮，果然不假。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弟子埋头探路之际，忽而一道黑影掠过。好厉害的轻功！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“不怕挨揍的往前站”弟子试图用气势吓退敌人，但效果并不理想。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日暮时分，弟子们看见了不远处的丐帮总舵，还有眼前这一群拦路乞丐。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总舵的守卫弟子将我们团团围住，看来闯进丐帮老窝了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>见一老翁席地而坐，树下独酌，想必一定是醉丐苏花子。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>石峰矗立，烟云缭绕。前方就是五毒教老巢五毒岭。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五仙教是使毒的行家，切莫大意。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>好一招千蛛万毒手，得尽快想出破解之法。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五毒曰：蛇、蜈蚣、蝎子、蜘蛛和蟾蜍，所制毒药可使人当场毙命。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五十年前，百药门和五毒教发生一起冲突，后来就再也没有百药门了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鞭子上竟然还有毒气，怪不得这山都光秃秃的，可没少祸害。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>天空隆隆作响，一场大雨正在酝酿，弟子们加快脚步，却被一群五毒弟子拦住去路</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弟子们避雨之际，看到前面有一五毒教头目。想起前日丐帮之事，上前打探一番。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“谁得罪了五毒教，我定让他死无全尸”，隔着五百米就闻到了杀气。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五毒教下属分支组织松散，常年自主研发毒药。想查清此事还得逐个击破。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>只听得咻的一声，一条软鞭打弟子们头顶上穿过。弟子躲闪不及，被打翻在地。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>见师弟被暗器所伤，众人怒气冲天，一场恶斗在所难免。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五毒教众人被我方弟子吓破了胆，乘胜追击！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>此处刚是山脚，看来少林卧虎藏龙。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前方便是大雄宝殿，须记得不要失了礼数。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>少林名动天下，切不可轻敌。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>少林七十二绝技，此次不知能见识几招！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>少林方丈内力浑厚如斯，居然能平地浮空？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三拳两脚撂倒看管僧，借几本秘籍回去。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>打了个小光头，来了个大光头。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不愧是少林正宗，小辈弟子英才辈出。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小辈弟子有了师傅在场指点，小心应对。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>看来少林也开始认真应对了，我们全力以赴！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>少林弟子果真招招精妙，不虚此行。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>这次竟有玄字高僧出来督战，可不能弱了气势。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>看来玄字高僧要亲自出手了，却不知是哪一位神僧。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>玄字高僧果然厉害，这次和弟子一同结阵，棘手棘手。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前面就是少林藏经阁了，听说法藏无数，定不能空手而回。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>糟糕，藏经阁里的小和尚追出来了，快走。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前方大和尚拦路，定是小和尚去报的信，出手！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>没想到藏经阁内居然有玄字僧坐镇，看来难以轻取，只得严阵以待。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>咦，长眉长须手按扫帚，这是哪一位，莫非是传说的...?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>扫地僧果然厉害，不过看起来力未全尽，少林果然深不可测。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>到手，向大雄宝殿去，先解决拦路的。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小和尚们得了扫地僧的教导，厉害了很多，不可轻慢。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前面的大和尚背锅带勺，莫不是个厨子？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>兀那和尚，恁的了得，再战过！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暮鼓擂响，正是少林晚课集结时分，少林好手怕是都在前方。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>玄字高僧带着小辈翘楚，是一番好战。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五位玄字僧尽皆下场，我派也不能示弱，叫少林高僧们知道手腕。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前方便是魔教山门所在，警惕妖人邪法。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>黄沙漫漫，千万小心，恐四处皆敌。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小心第二次袭击，刚刚只是试探。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前方敌人越来越多，我们离目标很近了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>偷袭不成，只好正面进攻了吗，我派可也不是吃素的。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教众以西域人为主，乍一看都是帅哥美女。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教众不使汉话，莫下重手，说不定在求饶。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教众分日月星三部，有三大法王统领，实力超绝。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教中人竟练出阴阳互济的刀阵，不可小觑。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>黑发虬髯，铁腕金刀，背生红日，莫不是日轮法王。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>来人手腕均有六芒星纹饰，想来是星部众。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教人人舞一轮弯刀，刀法奇诡，甚是古怪。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日轮法王指挥星部众来此，击败他们，去会一会日轮法王的宝刀。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日部众加入战阵，气势暴涨，尽力抵挡，待其气竭一举拿下。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前方寒气蠢蠢，月华清冷，月部众就在前方。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>月部众彻底摆开阵势，清影横浮，不可冒进。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日月星，法三光；天地人，合三才。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一道寒光，一袭红衣，月影飘碎，是月轮法王。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>凌空日月，小心，日月法王要同时出手了，却不知星轮法王所在何处。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>长生天泣，日月无光。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教教主霹雳手段，尽力一战，此战必能使我派扬名天下！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日月轮转，生生不息。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>星月相环，江河辉映。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教关押了许多武林正派，尽力将他们救出去。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教在身法中混入了胡旋舞的脚步，煞是好看。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武林同道竟然功力全失，将看守弟子打倒，一问究竟。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>竟是魔教吸人功力，有违天理，将他们尽皆除去吧。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>此番征伐魔教路途太远，干粮不够了，夺些酒食先。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>听说月部众只收美女，师兄弟们此次能一饱眼福了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日部众体格壮硕，却不是好惹的。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>101|1|20;104|1|15;105|1|15;105|1|15;106|1|15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌人配置，格式ID|数量|功力;…</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>106|1|15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>九牛二虎之力，终于看见逍遥派的山门了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前方山下竟有山贼作恶，路见不平拔刀相助！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>好山贼，居然见势不妙逃了，快追！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>山贼喽喽请来了山贼头领，一网打尽。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>山贼之中竟有一名白衣人混在其中，形式不明，多加小心！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>白衣人是逍遥派的弃徒，他一定知道逍遥派所在，抓住他。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥派门下出手不像武功，倒像道法了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥派上下竟是依靠回环山峰之间的锁链，向那小山先去。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>找对地方了，这里果然有逍遥弟子在守卫。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>这些逍遥派的掌握了合击之术，聚多人功力御敌，快阻止他们。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥派功法真是奇特，真气外放，三丈外也能击中敌人。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“仙鹤”居然是锁链上的白布，装神弄鬼，再战他一合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥派的精英居然乘鹤而来，真无愧逍遥二字啊，较量一下。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>他们竟然追着一拥而上了，看来是乱了阵脚了，我们乘胜追击。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>山门内果然精英弟子聚集，我们严阵以待。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥弟子招收弟子以俊美为标准，怎么会有胖哥儿弟子？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>胖弟子好强的实力，再去过过招，将底细探查清楚。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>看来他们要亮真招了，我们避其锋芒，再攻其软肋。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>咦，这次居然真骑了仙鹤过来，还是个童子。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>好厉害的仙童，竟强于一般弟子许多，千万不能小看了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>先是仙童，尔后是仙女，这逍遥派莫非真成了神仙庙不成。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>这玄女已经白日飞天了，难道真是天上神仙下凡？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥子比起仙童玄女更似真仙，头顶灵光，脚踩浮云，如此强敌，前所未有。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管他真假仙人，今天都要在我派手下跌落凡尘。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他弟子将功力聚于胖弟子身上，端的生猛。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥派弟子尽出，真气激荡，须得看清真气流动，再做反应。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最后一阵，师兄弟尽管出手，掌门人随后就到。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一阵青光照过，逍遥派众弟子竟然恢复如初，又是一场恶战</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥派弟子刚刚去报信了，我们解决这里，好生休息，强敌一会就来。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shaolin1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>204|1|15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小和尚一脸傲气，再叫他尝尝厉害。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shaolin2</t>
   </si>
   <si>
     <t>shaolin3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>shaolin1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;shaolin2;shaolin3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shaolin2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shaolin1;shaolin2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>saodiseng</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shaolin1;saodiseng</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1648,15 +1623,15 @@
       </rPr>
       <t>uotouseng</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>试探结束，怕是要现真招了，我们上。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>xuankongfangzhang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1673,11 +1648,7 @@
       </rPr>
       <t>haolin2</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shaolin1;shaolin3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1694,7 +1665,7 @@
       </rPr>
       <t>haolin3</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1711,15 +1682,15 @@
       </rPr>
       <t>ojiao2</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>mojiao2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>mojiao3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1736,53 +1707,15 @@
       </rPr>
       <t>ojiao3</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ojiao2;mojiao3;mojiao1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>mojiao1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>rilunfawang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rilunfawang;mojiao2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ilunfawang;mojiao3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1799,58 +1732,7 @@
       </rPr>
       <t>ojiao1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ojiao1;mojiao2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ojiao1;mojiao3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ilunfawang;yuelunfawang</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1867,7 +1749,7 @@
       </rPr>
       <t>uelunfawang</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1884,15 +1766,15 @@
       </rPr>
       <t>iaozhu</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jiaozhu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥派地处绝壁之上，不知方法难以到达，什么人？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1909,28 +1791,11 @@
       </rPr>
       <t>hanzei1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shanzei2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hanzei1;shanzei2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1947,11 +1812,7 @@
       </rPr>
       <t>hanzeiboss</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanzei1;shanzei2;shanzeiboss;xiaoyao1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1968,7 +1829,7 @@
       </rPr>
       <t>iaoyao1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1985,24 +1846,7 @@
       </rPr>
       <t>iaoyao2</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iaoyao1;xiaoyao2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2019,11 +1863,7 @@
       </rPr>
       <t>iaoyao3</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoyao1;xiaoyao2;xiaoyao3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2040,7 +1880,7 @@
       </rPr>
       <t>iantong</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2057,7 +1897,7 @@
       </rPr>
       <t>uannv</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2074,519 +1914,453 @@
       </rPr>
       <t>iaoyaozi</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaibang1;gaibang2;gaibang3;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaibang2;gaibang3;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaibang1;gaibang2;;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaibang1;gaibang2;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaibang1;gaibang3;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>suhuazi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>hongqi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>qiaobangzhu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一手持玉竹制打狗棒，一手端破碗，是洪七长老没错了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一声龙吟响彻天地，乔帮主终于现身！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wudang1;wudang3;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>yixian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>zangdaoren</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>zhangzhenren</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武当武技，暗含太极、阴阳、五行、八卦。主修内功，自成一家。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>北少林，南武当。内家拳法果然了得，小心为妙。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>纯阳无极功乃是武当上乘内功。此功需修炼者保持男童之体，因此学的人越来越少了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一众武当弟子盘坐于禅垫之上，嘴里念念有词，像是在练功。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>太极拳讲究太极圆转，用意而不用力，是集道家武学之大成的拳法。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武当七侠石希灵，练得一手武当绵掌，武功在七侠当中虽不算翘楚，却勇猛过人。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大五行剑阵，二十五位道人分成五组，密不透风威力无穷。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方弟子来势汹汹，我们当沉着冷静，逐个击破。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五人结为一阵，长剑剑横扫而过。众人举剑抵挡，却是为时过晚。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>观其形，锁其力，唯心一势，断其翼，则剑阵可破。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武当弟子已是疲于招架，乘胜追击！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武当六侠郭希明，七侠中知识最为渊博，素来喜爱研究兵书阵法。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“掬润弄明月，长啸倚青松。青松剑客夏微正来也。”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>我方弟子不满武当派弟子出招过于缓慢，向比武仲裁会提出申诉。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“要打便真打，老是拆拳化掌，算什么武林北斗？”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“谁敢在我武当山出言不逊！”嗤的一声，竹林划出一道口子，一个黑影来到身前。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武当山卧虎藏龙，还是不要乱说话的好…</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>此人便是武当派卢五侠，为人豪爽，喜欢结识江湖上的英雄好汉。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>真武七截阵，是一仙道人的得意功夫，武当绝技之一。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>七截阵中，武当弟子一改柔和打法，剑剑往人死穴刺来。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三人蹬地而起，使出一招仙人指路。我方弟子以龙爪手还击，互不相让。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方弟子坚守不退，我们该如何是好？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“哈哈，来见识见识武当的太极拳！”糟糕，闯进人老窝里来了…</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武当邵三侠，传闻是一仙道人的侄子。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一路坎坷，终于来到了玉虚宫前。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>冲出来一队道士，再次将弟子们围住。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>手持“仙人指路”幡，身穿明黄色太极图案道袍，此人便是一仙道人。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一手提着酒壶，一手提着鸡腿。莫非是隐退江湖数十年的脏道人！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前面便是武当派开山始祖——张真人。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>emei</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>dubi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shitai</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“一树开五花，五花八叶扶”说的便是峨眉武功。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>青莲女神剑不容小觑，严阵以待。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>缠斗之际，峨眉弟子使出一招清风袭月，众人无不叹绝。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方弟子风头正盛，我们当避其锋芒，逐个击破。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“若再无人应战，我们便要捉几个女弟子回去了。”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>峨嵋派下属八派，此次前来的是僧门弟子清净。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>白蟒鞭灵动有力，跟五毒教的鞭法大不一样。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>峨眉剑法虚实结合，难以预料，当小心为是。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>峨眉弟子正在败退，赶紧追!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“峨嵋派打架的功夫不咋滴，耍剑的本事倒是不赖！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前面此人便是峨眉会门弟子清迦，会门讲究观师默像，念咒语，颇为神秘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>双方弟子互不相让，场面一度十分混乱。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弟子们打激战正酣，一度进入僵持状态。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前方一阵骚乱，弟子们加快脚步，准备一探究竟。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>双方话不投机半句多，见面就出招厮打起来。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>树林中冲出一众尼姑，将弟子团团围住。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>化门弟子清照，三十六闭手如春蚕吐丝，绵绵不断，紧封敌手，使其动弹不得。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“贼众休跑，敢伤我门人，今日叫你们有来无回！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“何人敢闯我峨眉净地，定叫你们有来无回！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>峨眉弟子节节败退，不过一介女流之辈。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>糟糕，被暗算了…下次话不能说太满。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“好一招大雁啼沙，看我的无影脚！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>此人岳门弟子清虚，一看就是身子虚。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>听得嗖得一声，一道白光闪过，好强的剑气！准备战斗。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“贼众留步！”突见人影一闪，几人前后合围，挡住了去路。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方弟子卷土重来，继续揍他们！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>峨眉弟子已是疲于招架，乘胜追击！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>冲虚观，进去瞧瞧。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前面就是峨眉掌门绝绝师太，去会会她。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>华山奇拔峻秀，真乃人间仙境。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>华山剑术精妙绝伦，弟子们切莫大意轻敌。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>华山派内部有剑宗气宗之分，两派水火不容，争斗不休。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“你们这剑倒是耍的不赖，就是不知道是花拳绣腿还是徒有虚名。”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>华山弟子气急，使出一招白虹贯日，只朝人脸上劈来…</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前面那人唤作乔光升，是剑宗大师山不羊的关门弟子。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“贼众休跑，敢伤我师弟，今日叫你们有来无回！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>华山剑法看似简单，却招招制敌，这正是它的厉害之处。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“明月松间照，清泉石上流，华山六弟子来也！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>斗罢老六，弟子们往山涧处走去，一众华山弟子已再次等候多时。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“听说你们华山剑法有一招无边落木，可杀人于弹指，你们几个可使的出来？”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>华山五弟子陈大冲正在林中练剑，十年前的那场“剑气之战”他是为数不多的幸存者。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“你们华山打人的功夫不咋滴，耍剑的本事倒是不赖！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>强敌来犯，众弟子小心！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“好险，差点就交代在这，既然这帮人不留情面，我们也不必客气了。”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>似有似无，似实似虚，似变未变。记得师父说华山剑法是这样的。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“华山三弟子应光和，前来比武”，未见其人先闻其声，好强的内功。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>时值正午，熟睡的弟子们被嘈杂的叫嚷声吵醒。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“剑宗气宗合起来对付我们？还等啥，一起收拾了！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>竹林内瑟瑟作响，像是有人在此设伏。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一群落单的，还等什么？往死里打！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前面那位就是华山二弟子，此人急躁易怒，出手狠辣，经常棋下输了就急眼，打伤多人。</t>
   </si>
   <si>
     <t>华山大弟子于大通，伤我几位师弟，绝不跟你们善罢甘休！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>紫云洞：师祖清修，弟子不得入内</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弟子不得入内，为啥还有这么多弟子，还是女的？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“何人敢闯我紫云洞”这一声雄浑有力，真震得众人怔在原地。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>华山掌门丘不君就在前面，跟这老家伙较量较量。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>看来这帮人也不是等闲之辈，是时候把真功夫拿出来了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“五毒教的听着，把五仙大补药酒拿出来给爷爷们尝尝，就饶你们一条狗命”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弟子们抓住一个落败敌人，据交代青蛇堂离这里不远了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>见一人盘坐青莲之上，两随从侍奉左右，相比此人就是堂主。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一阵邪风刮过，想必又是五毒教的人搞的鬼。</t>
   </si>
   <si>
     <t>许多年后，几个弟子将会回想起他们在五毒教比武累到吐的那个下午。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“快看!丐帮的密信被卷走了，追！”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“刚才那小子去哪了？老实交代，不然揍得你妈都认不出来。”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>教主下令取走了密信？此事必有蹊跷。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弟子们赶奔五毒山顶，更狠毒的地敌人在等着他们。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一发飞镖扎在树上，上面字条上写着“我们有毒”。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方弟子来势汹汹，我们当冷静应对，找出他们的破绽。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>又是一发暗器，真是阴险。敢不敢真刀真枪较量较量！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五毒弟子卷土重来，准备战斗!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>此人就是使毒击退华山掌门丘不君的五毒教左护法，此人诡秘奇特，极难对付。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>教主就在殿内，冲进去干他！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uashan1;huashan2;huashan3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>huashan1;huashan3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uashan1;huashan2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>huashan1;huashan2;huashan3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2603,7 +2377,7 @@
       </rPr>
       <t>iubujun</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2620,7 +2394,7 @@
       </rPr>
       <t>udushenjun</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2637,48 +2411,170 @@
       </rPr>
       <t>ongyao</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wudu1;wuduang2;</t>
-  </si>
-  <si>
-    <t>wuduang2;wudu3;</t>
-  </si>
-  <si>
-    <t>wudu1;wudu3;</t>
-  </si>
-  <si>
-    <t>wudu1;wuduang2;wudu3;</t>
-  </si>
-  <si>
-    <t>wudu1;wudu2;wudu3;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wudang1;wudang2;wudang3;</t>
-  </si>
-  <si>
-    <t>wudang1;wudang2;</t>
-  </si>
-  <si>
-    <t>wudang2;wudang3;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方丈莫不是已经成了罗汉得了果位，竟如此了得，当今武林也只有武当张真人是其敌手。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>106|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>104|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>105|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaibang1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaibang2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaibang3;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaibang3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoyao1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoyao2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoyao3</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilunfawang</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoyao3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ojiao1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wudu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wudu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wudu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huashan1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huashan3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uashan1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>huashan2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wudang1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wudang3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wudang2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2788,22 +2684,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3108,11 +3004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K244"/>
+  <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3120,15 +3016,15 @@
     <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="79.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3180,7 +3076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3206,7 +3102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -3232,7 +3128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>101</v>
       </c>
@@ -3240,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>487</v>
+        <v>592</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>411</v>
@@ -3257,14 +3153,23 @@
       <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="T5" s="1">
         <v>101</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>102</v>
       </c>
@@ -3272,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>592</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>312</v>
@@ -3289,14 +3194,23 @@
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="T6" s="1">
         <v>102</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>103</v>
       </c>
@@ -3304,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
@@ -3321,14 +3235,20 @@
       <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="T7" s="1">
         <v>103</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>104</v>
       </c>
@@ -3336,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>489</v>
+        <v>592</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>18</v>
@@ -3353,14 +3273,20 @@
       <c r="H8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="T8" s="1">
         <v>104</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>105</v>
       </c>
@@ -3368,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
@@ -3385,14 +3311,20 @@
       <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="T9" s="1">
         <v>105</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>106</v>
       </c>
@@ -3400,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
@@ -3417,14 +3349,14 @@
       <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="1">
+      <c r="T10" s="1">
         <v>106</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>107</v>
       </c>
@@ -3432,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
@@ -3450,7 +3382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>108</v>
       </c>
@@ -3458,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
@@ -3476,7 +3408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>109</v>
       </c>
@@ -3484,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>592</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>319</v>
@@ -3502,7 +3434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>110</v>
       </c>
@@ -3510,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>18</v>
@@ -3528,7 +3460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>111</v>
       </c>
@@ -3536,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
@@ -3554,7 +3486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>112</v>
       </c>
@@ -3562,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>487</v>
+        <v>594</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
@@ -3588,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>18</v>
@@ -3614,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>18</v>
@@ -3640,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -3666,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>409</v>
@@ -3692,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -3718,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>487</v>
+        <v>592</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
@@ -3744,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -3770,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
@@ -3796,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -3822,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
@@ -3848,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
@@ -3874,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>18</v>
@@ -3900,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>18</v>
@@ -3926,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>18</v>
@@ -3952,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>18</v>
@@ -3978,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>18</v>
@@ -3996,7 +3928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>129</v>
       </c>
@@ -4004,13 +3936,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>19</v>
@@ -4022,7 +3954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>130</v>
       </c>
@@ -4030,13 +3962,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>19</v>
@@ -4048,7 +3980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>201</v>
       </c>
@@ -4073,14 +4005,14 @@
       <c r="H35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="1">
+      <c r="T35" s="1">
         <v>201</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="U35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>202</v>
       </c>
@@ -4105,14 +4037,14 @@
       <c r="H36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="1">
+      <c r="T36" s="1">
         <v>202</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>203</v>
       </c>
@@ -4137,14 +4069,14 @@
       <c r="H37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="1">
+      <c r="T37" s="1">
         <v>203</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>204</v>
       </c>
@@ -4169,14 +4101,14 @@
       <c r="H38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="1">
+      <c r="T38" s="1">
         <v>204</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="U38" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -4184,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
@@ -4201,14 +4133,14 @@
       <c r="H39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="1">
+      <c r="T39" s="1">
         <v>205</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="U39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>206</v>
       </c>
@@ -4216,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>18</v>
@@ -4233,14 +4165,14 @@
       <c r="H40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="1">
+      <c r="T40" s="1">
         <v>206</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>207</v>
       </c>
@@ -4248,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
@@ -4266,7 +4198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>208</v>
       </c>
@@ -4274,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>18</v>
@@ -4292,7 +4224,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>209</v>
       </c>
@@ -4300,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>18</v>
@@ -4318,7 +4250,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>210</v>
       </c>
@@ -4344,7 +4276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>211</v>
       </c>
@@ -4352,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>18</v>
@@ -4370,7 +4302,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>212</v>
       </c>
@@ -4396,7 +4328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>213</v>
       </c>
@@ -4422,7 +4354,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>214</v>
       </c>
@@ -4430,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>18</v>
@@ -4508,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
@@ -4560,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>18</v>
@@ -4586,7 +4518,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>18</v>
@@ -4612,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>18</v>
@@ -4638,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>18</v>
@@ -4664,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>18</v>
@@ -4690,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>18</v>
@@ -4716,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>18</v>
@@ -4742,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>18</v>
@@ -4768,13 +4700,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>19</v>
@@ -4820,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>18</v>
@@ -4846,13 +4778,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>19</v>
@@ -4864,7 +4796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>301</v>
       </c>
@@ -4872,13 +4804,13 @@
         <v>3</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>19</v>
@@ -4889,14 +4821,14 @@
       <c r="H65" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J65" s="1">
+      <c r="T65" s="1">
         <v>301</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="U65" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>302</v>
       </c>
@@ -4904,13 +4836,13 @@
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>19</v>
@@ -4921,14 +4853,14 @@
       <c r="H66" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J66" s="1">
+      <c r="T66" s="1">
         <v>302</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="U66" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>303</v>
       </c>
@@ -4936,13 +4868,13 @@
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>19</v>
@@ -4953,14 +4885,14 @@
       <c r="H67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J67" s="1">
+      <c r="T67" s="1">
         <v>303</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="U67" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>304</v>
       </c>
@@ -4968,13 +4900,13 @@
         <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>497</v>
+        <v>609</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>19</v>
@@ -4985,14 +4917,14 @@
       <c r="H68" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J68" s="1">
+      <c r="T68" s="1">
         <v>304</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="U68" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>305</v>
       </c>
@@ -5000,13 +4932,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>19</v>
@@ -5017,14 +4949,14 @@
       <c r="H69" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J69" s="1">
+      <c r="T69" s="1">
         <v>305</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="U69" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>306</v>
       </c>
@@ -5032,13 +4964,13 @@
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>19</v>
@@ -5049,14 +4981,14 @@
       <c r="H70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J70" s="1">
+      <c r="T70" s="1">
         <v>306</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="U70" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>307</v>
       </c>
@@ -5064,13 +4996,13 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>19</v>
@@ -5082,7 +5014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>308</v>
       </c>
@@ -5090,13 +5022,13 @@
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>497</v>
+        <v>611</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>19</v>
@@ -5108,7 +5040,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>309</v>
       </c>
@@ -5116,13 +5048,13 @@
         <v>3</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>19</v>
@@ -5134,7 +5066,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>310</v>
       </c>
@@ -5142,13 +5074,13 @@
         <v>3</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>19</v>
@@ -5160,7 +5092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>311</v>
       </c>
@@ -5168,13 +5100,13 @@
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>19</v>
@@ -5186,7 +5118,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>312</v>
       </c>
@@ -5194,13 +5126,13 @@
         <v>3</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>19</v>
@@ -5212,7 +5144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>313</v>
       </c>
@@ -5220,13 +5152,13 @@
         <v>3</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>497</v>
+        <v>609</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>19</v>
@@ -5238,7 +5170,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>314</v>
       </c>
@@ -5246,13 +5178,13 @@
         <v>3</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>19</v>
@@ -5264,7 +5196,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>315</v>
       </c>
@@ -5272,13 +5204,13 @@
         <v>3</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>497</v>
+        <v>610</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>19</v>
@@ -5290,7 +5222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>316</v>
       </c>
@@ -5298,13 +5230,13 @@
         <v>3</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>19</v>
@@ -5316,7 +5248,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>317</v>
       </c>
@@ -5324,13 +5256,13 @@
         <v>3</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>19</v>
@@ -5342,7 +5274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>318</v>
       </c>
@@ -5350,13 +5282,13 @@
         <v>3</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>19</v>
@@ -5368,7 +5300,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>319</v>
       </c>
@@ -5376,13 +5308,13 @@
         <v>3</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>19</v>
@@ -5394,7 +5326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>320</v>
       </c>
@@ -5402,13 +5334,13 @@
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>19</v>
@@ -5420,7 +5352,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>321</v>
       </c>
@@ -5428,13 +5360,13 @@
         <v>3</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>497</v>
+        <v>610</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>19</v>
@@ -5446,7 +5378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>322</v>
       </c>
@@ -5454,13 +5386,13 @@
         <v>3</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>19</v>
@@ -5472,7 +5404,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>323</v>
       </c>
@@ -5480,13 +5412,13 @@
         <v>3</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>19</v>
@@ -5498,7 +5430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>324</v>
       </c>
@@ -5506,13 +5438,13 @@
         <v>3</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>497</v>
+        <v>610</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>19</v>
@@ -5524,7 +5456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>325</v>
       </c>
@@ -5532,13 +5464,13 @@
         <v>3</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>19</v>
@@ -5550,7 +5482,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>326</v>
       </c>
@@ -5558,13 +5490,13 @@
         <v>3</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>19</v>
@@ -5576,7 +5508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>327</v>
       </c>
@@ -5584,7 +5516,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>18</v>
@@ -5602,7 +5534,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>328</v>
       </c>
@@ -5610,13 +5542,13 @@
         <v>3</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>19</v>
@@ -5628,7 +5560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>329</v>
       </c>
@@ -5636,13 +5568,13 @@
         <v>3</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>19</v>
@@ -5654,7 +5586,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>330</v>
       </c>
@@ -5662,13 +5594,13 @@
         <v>3</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>19</v>
@@ -5680,7 +5612,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>401</v>
       </c>
@@ -5688,13 +5620,13 @@
         <v>4</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>19</v>
@@ -5705,14 +5637,14 @@
       <c r="H95" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J95" s="1">
+      <c r="T95" s="1">
         <v>401</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="U95" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>402</v>
       </c>
@@ -5720,13 +5652,13 @@
         <v>4</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>19</v>
@@ -5737,14 +5669,14 @@
       <c r="H96" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J96" s="1">
+      <c r="T96" s="1">
         <v>402</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="U96" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>403</v>
       </c>
@@ -5752,13 +5684,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>19</v>
@@ -5769,14 +5701,14 @@
       <c r="H97" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J97" s="1">
+      <c r="T97" s="1">
         <v>403</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="U97" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>404</v>
       </c>
@@ -5784,13 +5716,13 @@
         <v>4</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>19</v>
@@ -5802,7 +5734,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>405</v>
       </c>
@@ -5810,13 +5742,13 @@
         <v>4</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>19</v>
@@ -5828,7 +5760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>406</v>
       </c>
@@ -5836,13 +5768,13 @@
         <v>4</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>19</v>
@@ -5854,7 +5786,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>407</v>
       </c>
@@ -5862,13 +5794,13 @@
         <v>4</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>19</v>
@@ -5880,7 +5812,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>408</v>
       </c>
@@ -5888,7 +5820,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>18</v>
@@ -5906,7 +5838,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>409</v>
       </c>
@@ -5914,13 +5846,13 @@
         <v>4</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>19</v>
@@ -5932,7 +5864,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>410</v>
       </c>
@@ -5940,13 +5872,13 @@
         <v>4</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>19</v>
@@ -5958,7 +5890,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>411</v>
       </c>
@@ -5966,13 +5898,13 @@
         <v>4</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>19</v>
@@ -5984,7 +5916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>412</v>
       </c>
@@ -5992,13 +5924,13 @@
         <v>4</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>19</v>
@@ -6010,7 +5942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>413</v>
       </c>
@@ -6018,13 +5950,13 @@
         <v>4</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>19</v>
@@ -6036,7 +5968,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>414</v>
       </c>
@@ -6044,13 +5976,13 @@
         <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>19</v>
@@ -6062,7 +5994,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>415</v>
       </c>
@@ -6070,13 +6002,13 @@
         <v>4</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>19</v>
@@ -6088,7 +6020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>416</v>
       </c>
@@ -6096,13 +6028,13 @@
         <v>4</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>19</v>
@@ -6114,7 +6046,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>417</v>
       </c>
@@ -6122,13 +6054,13 @@
         <v>4</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>19</v>
@@ -6140,7 +6072,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>418</v>
       </c>
@@ -6148,13 +6080,13 @@
         <v>4</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>19</v>
@@ -6166,7 +6098,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>419</v>
       </c>
@@ -6174,13 +6106,13 @@
         <v>4</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>19</v>
@@ -6192,7 +6124,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>420</v>
       </c>
@@ -6200,13 +6132,13 @@
         <v>4</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>19</v>
@@ -6218,7 +6150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>421</v>
       </c>
@@ -6226,13 +6158,13 @@
         <v>4</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>19</v>
@@ -6244,7 +6176,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>422</v>
       </c>
@@ -6252,13 +6184,13 @@
         <v>4</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>19</v>
@@ -6270,7 +6202,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>423</v>
       </c>
@@ -6278,13 +6210,13 @@
         <v>4</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>19</v>
@@ -6296,7 +6228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>424</v>
       </c>
@@ -6304,13 +6236,13 @@
         <v>4</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>19</v>
@@ -6322,7 +6254,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>425</v>
       </c>
@@ -6330,13 +6262,13 @@
         <v>4</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>19</v>
@@ -6348,7 +6280,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>426</v>
       </c>
@@ -6356,13 +6288,13 @@
         <v>4</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>19</v>
@@ -6374,7 +6306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>427</v>
       </c>
@@ -6382,13 +6314,13 @@
         <v>4</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>19</v>
@@ -6400,7 +6332,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>428</v>
       </c>
@@ -6408,13 +6340,13 @@
         <v>4</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>19</v>
@@ -6426,7 +6358,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>429</v>
       </c>
@@ -6434,13 +6366,13 @@
         <v>4</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>19</v>
@@ -6452,7 +6384,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>430</v>
       </c>
@@ -6460,13 +6392,13 @@
         <v>4</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>19</v>
@@ -6478,7 +6410,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>501</v>
       </c>
@@ -6486,13 +6418,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>19</v>
@@ -6503,14 +6435,14 @@
       <c r="H125" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J125" s="1">
+      <c r="T125" s="1">
         <v>501</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="U125" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>502</v>
       </c>
@@ -6524,7 +6456,7 @@
         <v>409</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>19</v>
@@ -6535,14 +6467,14 @@
       <c r="H126" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J126" s="1">
+      <c r="T126" s="1">
         <v>502</v>
       </c>
-      <c r="K126" s="1" t="s">
+      <c r="U126" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>503</v>
       </c>
@@ -6550,13 +6482,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>19</v>
@@ -6567,14 +6499,14 @@
       <c r="H127" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J127" s="1">
+      <c r="T127" s="1">
         <v>503</v>
       </c>
-      <c r="K127" s="1" t="s">
+      <c r="U127" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>504</v>
       </c>
@@ -6588,7 +6520,7 @@
         <v>18</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>19</v>
@@ -6599,14 +6531,14 @@
       <c r="H128" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J128" s="1">
+      <c r="T128" s="1">
         <v>504</v>
       </c>
-      <c r="K128" s="1" t="s">
+      <c r="U128" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>505</v>
       </c>
@@ -6614,13 +6546,13 @@
         <v>5</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>19</v>
@@ -6631,14 +6563,14 @@
       <c r="H129" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J129" s="1">
+      <c r="T129" s="1">
         <v>505</v>
       </c>
-      <c r="K129" s="1" t="s">
+      <c r="U129" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>506</v>
       </c>
@@ -6652,7 +6584,7 @@
         <v>18</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>19</v>
@@ -6664,7 +6596,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>507</v>
       </c>
@@ -6672,13 +6604,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>19</v>
@@ -6690,7 +6622,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>508</v>
       </c>
@@ -6704,7 +6636,7 @@
         <v>18</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>19</v>
@@ -6716,7 +6648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>509</v>
       </c>
@@ -6724,13 +6656,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>19</v>
@@ -6742,7 +6674,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>510</v>
       </c>
@@ -6756,7 +6688,7 @@
         <v>18</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>19</v>
@@ -6768,7 +6700,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>511</v>
       </c>
@@ -6776,13 +6708,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>19</v>
@@ -6794,7 +6726,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>512</v>
       </c>
@@ -6808,7 +6740,7 @@
         <v>18</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>19</v>
@@ -6820,7 +6752,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>513</v>
       </c>
@@ -6834,7 +6766,7 @@
         <v>18</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>19</v>
@@ -6846,7 +6778,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>514</v>
       </c>
@@ -6854,13 +6786,13 @@
         <v>5</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>19</v>
@@ -6872,7 +6804,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>515</v>
       </c>
@@ -6886,7 +6818,7 @@
         <v>18</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>19</v>
@@ -6898,7 +6830,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>516</v>
       </c>
@@ -6906,13 +6838,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>19</v>
@@ -6924,7 +6856,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>517</v>
       </c>
@@ -6938,7 +6870,7 @@
         <v>18</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>19</v>
@@ -6950,7 +6882,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>518</v>
       </c>
@@ -6958,13 +6890,13 @@
         <v>5</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>19</v>
@@ -6976,7 +6908,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>519</v>
       </c>
@@ -6984,13 +6916,13 @@
         <v>5</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>19</v>
@@ -7002,7 +6934,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>520</v>
       </c>
@@ -7010,13 +6942,13 @@
         <v>5</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>19</v>
@@ -7028,7 +6960,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>521</v>
       </c>
@@ -7036,13 +6968,13 @@
         <v>5</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>19</v>
@@ -7054,7 +6986,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>522</v>
       </c>
@@ -7062,13 +6994,13 @@
         <v>5</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>19</v>
@@ -7080,7 +7012,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>523</v>
       </c>
@@ -7094,7 +7026,7 @@
         <v>18</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>19</v>
@@ -7106,7 +7038,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>524</v>
       </c>
@@ -7114,13 +7046,13 @@
         <v>5</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>19</v>
@@ -7132,7 +7064,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>525</v>
       </c>
@@ -7140,13 +7072,13 @@
         <v>5</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>19</v>
@@ -7158,7 +7090,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>526</v>
       </c>
@@ -7166,13 +7098,13 @@
         <v>5</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>19</v>
@@ -7184,7 +7116,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>527</v>
       </c>
@@ -7192,13 +7124,13 @@
         <v>5</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>19</v>
@@ -7210,7 +7142,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>528</v>
       </c>
@@ -7218,13 +7150,13 @@
         <v>5</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>19</v>
@@ -7236,7 +7168,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>529</v>
       </c>
@@ -7244,13 +7176,13 @@
         <v>5</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>19</v>
@@ -7262,7 +7194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>530</v>
       </c>
@@ -7270,13 +7202,13 @@
         <v>5</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>19</v>
@@ -7288,15 +7220,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>601</v>
       </c>
       <c r="B155" s="1">
         <v>6</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>616</v>
+      <c r="C155" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>18</v>
@@ -7313,22 +7245,22 @@
       <c r="H155" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J155" s="1">
+      <c r="T155" s="1">
         <v>601</v>
       </c>
-      <c r="K155" s="1" t="s">
+      <c r="U155" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>602</v>
       </c>
       <c r="B156" s="1">
         <v>6</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>612</v>
+      <c r="C156" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>18</v>
@@ -7345,22 +7277,22 @@
       <c r="H156" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J156" s="1">
+      <c r="T156" s="1">
         <v>602</v>
       </c>
-      <c r="K156" s="1" t="s">
+      <c r="U156" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>603</v>
       </c>
       <c r="B157" s="1">
         <v>6</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>613</v>
+      <c r="C157" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>18</v>
@@ -7377,22 +7309,22 @@
       <c r="H157" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J157" s="1">
+      <c r="T157" s="1">
         <v>603</v>
       </c>
-      <c r="K157" s="1" t="s">
+      <c r="U157" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>604</v>
       </c>
       <c r="B158" s="1">
         <v>6</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>614</v>
+      <c r="C158" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>18</v>
@@ -7409,22 +7341,22 @@
       <c r="H158" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J158" s="1">
+      <c r="T158" s="1">
         <v>604</v>
       </c>
-      <c r="K158" s="1" t="s">
+      <c r="U158" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>605</v>
       </c>
       <c r="B159" s="1">
         <v>6</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>613</v>
+      <c r="C159" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>18</v>
@@ -7441,22 +7373,22 @@
       <c r="H159" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J159" s="1">
+      <c r="T159" s="1">
         <v>605</v>
       </c>
-      <c r="K159" s="1" t="s">
+      <c r="U159" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>606</v>
       </c>
       <c r="B160" s="1">
         <v>6</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>613</v>
+      <c r="C160" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>18</v>
@@ -7481,8 +7413,8 @@
       <c r="B161" s="1">
         <v>6</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>612</v>
+      <c r="C161" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>18</v>
@@ -7507,8 +7439,8 @@
       <c r="B162" s="1">
         <v>6</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>614</v>
+      <c r="C162" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>18</v>
@@ -7533,8 +7465,8 @@
       <c r="B163" s="1">
         <v>6</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>615</v>
+      <c r="C163" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>18</v>
@@ -7559,8 +7491,8 @@
       <c r="B164" s="1">
         <v>6</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>612</v>
+      <c r="C164" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>18</v>
@@ -7585,8 +7517,8 @@
       <c r="B165" s="1">
         <v>6</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>613</v>
+      <c r="C165" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>18</v>
@@ -7611,8 +7543,8 @@
       <c r="B166" s="1">
         <v>6</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>612</v>
+      <c r="C166" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>18</v>
@@ -7637,8 +7569,8 @@
       <c r="B167" s="1">
         <v>6</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>614</v>
+      <c r="C167" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>18</v>
@@ -7663,14 +7595,14 @@
       <c r="B168" s="1">
         <v>6</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>615</v>
+      <c r="C168" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>19</v>
@@ -7689,14 +7621,14 @@
       <c r="B169" s="1">
         <v>6</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>614</v>
+      <c r="C169" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>19</v>
@@ -7715,14 +7647,14 @@
       <c r="B170" s="1">
         <v>6</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>613</v>
+      <c r="C170" s="6" t="s">
+        <v>604</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>19</v>
@@ -7741,14 +7673,14 @@
       <c r="B171" s="1">
         <v>6</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>612</v>
+      <c r="C171" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>19</v>
@@ -7767,14 +7699,14 @@
       <c r="B172" s="1">
         <v>6</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>615</v>
+      <c r="C172" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>19</v>
@@ -7793,14 +7725,14 @@
       <c r="B173" s="1">
         <v>6</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>615</v>
+      <c r="C173" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>19</v>
@@ -7819,14 +7751,14 @@
       <c r="B174" s="1">
         <v>6</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>612</v>
+      <c r="C174" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>19</v>
@@ -7845,14 +7777,14 @@
       <c r="B175" s="1">
         <v>6</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>614</v>
+      <c r="C175" s="6" t="s">
+        <v>604</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>19</v>
@@ -7871,14 +7803,14 @@
       <c r="B176" s="1">
         <v>6</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>613</v>
+      <c r="C176" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>19</v>
@@ -7890,21 +7822,21 @@
         <v>222</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>623</v>
       </c>
       <c r="B177" s="1">
         <v>6</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>612</v>
+      <c r="C177" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>19</v>
@@ -7916,21 +7848,21 @@
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>624</v>
       </c>
       <c r="B178" s="1">
         <v>6</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>614</v>
+      <c r="C178" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>19</v>
@@ -7942,21 +7874,21 @@
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>625</v>
       </c>
       <c r="B179" s="1">
         <v>6</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>615</v>
+      <c r="C179" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>19</v>
@@ -7968,21 +7900,21 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>626</v>
       </c>
       <c r="B180" s="1">
         <v>6</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>613</v>
+      <c r="C180" s="6" t="s">
+        <v>604</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>19</v>
@@ -7994,21 +7926,21 @@
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>627</v>
       </c>
       <c r="B181" s="1">
         <v>6</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>612</v>
+      <c r="C181" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>19</v>
@@ -8020,21 +7952,21 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>628</v>
       </c>
       <c r="B182" s="1">
         <v>6</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>615</v>
+      <c r="C182" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>19</v>
@@ -8046,7 +7978,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>629</v>
       </c>
@@ -8054,13 +7986,13 @@
         <v>6</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>19</v>
@@ -8072,7 +8004,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>630</v>
       </c>
@@ -8080,13 +8012,13 @@
         <v>6</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>19</v>
@@ -8098,7 +8030,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>701</v>
       </c>
@@ -8106,7 +8038,7 @@
         <v>7</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>18</v>
@@ -8123,14 +8055,14 @@
       <c r="H185" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J185" s="1">
+      <c r="T185" s="1">
         <v>701</v>
       </c>
-      <c r="K185" s="1" t="s">
+      <c r="U185" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>702</v>
       </c>
@@ -8138,7 +8070,7 @@
         <v>7</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>18</v>
@@ -8155,14 +8087,14 @@
       <c r="H186" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="J186" s="1">
+      <c r="T186" s="1">
         <v>702</v>
       </c>
-      <c r="K186" s="1" t="s">
+      <c r="U186" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>703</v>
       </c>
@@ -8170,7 +8102,7 @@
         <v>7</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>18</v>
@@ -8187,14 +8119,14 @@
       <c r="H187" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J187" s="1">
+      <c r="T187" s="1">
         <v>703</v>
       </c>
-      <c r="K187" s="1" t="s">
+      <c r="U187" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>704</v>
       </c>
@@ -8202,7 +8134,7 @@
         <v>7</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>18</v>
@@ -8219,14 +8151,14 @@
       <c r="H188" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J188" s="1">
+      <c r="T188" s="1">
         <v>704</v>
       </c>
-      <c r="K188" s="1" t="s">
+      <c r="U188" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>705</v>
       </c>
@@ -8234,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>18</v>
@@ -8251,14 +8183,14 @@
       <c r="H189" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J189" s="1">
+      <c r="T189" s="1">
         <v>705</v>
       </c>
-      <c r="K189" s="1" t="s">
+      <c r="U189" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>706</v>
       </c>
@@ -8266,7 +8198,7 @@
         <v>7</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>18</v>
@@ -8283,14 +8215,14 @@
       <c r="H190" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J190" s="1">
+      <c r="T190" s="1">
         <v>706</v>
       </c>
-      <c r="K190" s="1" t="s">
+      <c r="U190" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>707</v>
       </c>
@@ -8298,7 +8230,7 @@
         <v>7</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>461</v>
+        <v>600</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>18</v>
@@ -8316,7 +8248,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>708</v>
       </c>
@@ -8324,7 +8256,7 @@
         <v>7</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>18</v>
@@ -8350,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>18</v>
@@ -8376,7 +8308,7 @@
         <v>7</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>461</v>
+        <v>600</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>18</v>
@@ -8402,7 +8334,7 @@
         <v>7</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>461</v>
+        <v>601</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>18</v>
@@ -8428,7 +8360,7 @@
         <v>7</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>18</v>
@@ -8454,7 +8386,7 @@
         <v>7</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>18</v>
@@ -8480,7 +8412,7 @@
         <v>7</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>18</v>
@@ -8506,7 +8438,7 @@
         <v>7</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>18</v>
@@ -8532,7 +8464,7 @@
         <v>7</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>18</v>
@@ -8558,7 +8490,7 @@
         <v>7</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>18</v>
@@ -8584,7 +8516,7 @@
         <v>7</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>18</v>
@@ -8610,7 +8542,7 @@
         <v>7</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>18</v>
@@ -8636,7 +8568,7 @@
         <v>7</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>18</v>
@@ -8662,7 +8594,7 @@
         <v>7</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>465</v>
+        <v>599</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>18</v>
@@ -8688,7 +8620,7 @@
         <v>7</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>18</v>
@@ -8714,7 +8646,7 @@
         <v>7</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>18</v>
@@ -8740,7 +8672,7 @@
         <v>7</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>18</v>
@@ -8758,7 +8690,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>725</v>
       </c>
@@ -8766,7 +8698,7 @@
         <v>7</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>18</v>
@@ -8784,7 +8716,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>726</v>
       </c>
@@ -8792,7 +8724,7 @@
         <v>7</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>18</v>
@@ -8810,7 +8742,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>727</v>
       </c>
@@ -8818,7 +8750,7 @@
         <v>7</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>18</v>
@@ -8836,7 +8768,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>728</v>
       </c>
@@ -8844,7 +8776,7 @@
         <v>7</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>469</v>
+        <v>599</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>18</v>
@@ -8862,7 +8794,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>729</v>
       </c>
@@ -8870,7 +8802,7 @@
         <v>7</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>18</v>
@@ -8888,7 +8820,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>730</v>
       </c>
@@ -8896,7 +8828,7 @@
         <v>7</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>18</v>
@@ -8914,7 +8846,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>801</v>
       </c>
@@ -8922,13 +8854,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>19</v>
@@ -8939,14 +8871,14 @@
       <c r="H215" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J215" s="1">
+      <c r="T215" s="1">
         <v>801</v>
       </c>
-      <c r="K215" s="1" t="s">
+      <c r="U215" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>802</v>
       </c>
@@ -8954,7 +8886,7 @@
         <v>8</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>18</v>
@@ -8971,14 +8903,14 @@
       <c r="H216" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J216" s="1">
+      <c r="T216" s="1">
         <v>802</v>
       </c>
-      <c r="K216" s="1" t="s">
+      <c r="U216" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>803</v>
       </c>
@@ -8986,7 +8918,7 @@
         <v>8</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>18</v>
@@ -9003,14 +8935,14 @@
       <c r="H217" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J217" s="1">
+      <c r="T217" s="1">
         <v>803</v>
       </c>
-      <c r="K217" s="1" t="s">
+      <c r="U217" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>804</v>
       </c>
@@ -9018,7 +8950,7 @@
         <v>8</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>18</v>
@@ -9035,14 +8967,14 @@
       <c r="H218" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J218" s="1">
+      <c r="T218" s="1">
         <v>804</v>
       </c>
-      <c r="K218" s="1" t="s">
+      <c r="U218" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>805</v>
       </c>
@@ -9050,7 +8982,7 @@
         <v>8</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>478</v>
+        <v>596</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>18</v>
@@ -9067,14 +8999,14 @@
       <c r="H219" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J219" s="1">
+      <c r="T219" s="1">
         <v>805</v>
       </c>
-      <c r="K219" s="1" t="s">
+      <c r="U219" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>806</v>
       </c>
@@ -9082,7 +9014,7 @@
         <v>8</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>18</v>
@@ -9099,14 +9031,14 @@
       <c r="H220" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="J220" s="1">
+      <c r="T220" s="1">
         <v>806</v>
       </c>
-      <c r="K220" s="1" t="s">
+      <c r="U220" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>807</v>
       </c>
@@ -9114,7 +9046,7 @@
         <v>8</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>18</v>
@@ -9132,7 +9064,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>808</v>
       </c>
@@ -9140,7 +9072,7 @@
         <v>8</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>18</v>
@@ -9158,7 +9090,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>809</v>
       </c>
@@ -9166,7 +9098,7 @@
         <v>8</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>18</v>
@@ -9184,7 +9116,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>810</v>
       </c>
@@ -9192,7 +9124,7 @@
         <v>8</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>18</v>
@@ -9218,7 +9150,7 @@
         <v>8</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>481</v>
+        <v>596</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>18</v>
@@ -9244,7 +9176,7 @@
         <v>8</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>481</v>
+        <v>597</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>18</v>
@@ -9270,7 +9202,7 @@
         <v>8</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>481</v>
+        <v>598</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>18</v>
@@ -9296,7 +9228,7 @@
         <v>8</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>481</v>
+        <v>596</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>18</v>
@@ -9322,7 +9254,7 @@
         <v>8</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>481</v>
+        <v>597</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>18</v>
@@ -9348,7 +9280,7 @@
         <v>8</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>481</v>
+        <v>598</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>18</v>
@@ -9374,7 +9306,7 @@
         <v>8</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>18</v>
@@ -9400,7 +9332,7 @@
         <v>8</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>18</v>
@@ -9426,7 +9358,7 @@
         <v>8</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>18</v>
@@ -9452,7 +9384,7 @@
         <v>8</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>483</v>
+        <v>596</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>18</v>
@@ -9478,7 +9410,7 @@
         <v>8</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>483</v>
+        <v>597</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>18</v>
@@ -9504,7 +9436,7 @@
         <v>8</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>483</v>
+        <v>598</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>18</v>
@@ -9530,7 +9462,7 @@
         <v>8</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>483</v>
+        <v>596</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>18</v>
@@ -9556,7 +9488,7 @@
         <v>8</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>483</v>
+        <v>597</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>18</v>
@@ -9582,7 +9514,7 @@
         <v>8</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>18</v>
@@ -9608,7 +9540,7 @@
         <v>8</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>18</v>
@@ -9634,7 +9566,7 @@
         <v>8</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>18</v>
@@ -9660,7 +9592,7 @@
         <v>8</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>18</v>
@@ -9686,7 +9618,7 @@
         <v>8</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>18</v>
@@ -9712,7 +9644,7 @@
         <v>8</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>18</v>
@@ -9734,7 +9666,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10229,7 +10161,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Level\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3541B8A7-F6C8-409D-AE99-D61BC759F6B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4752AE-0E57-4FDB-945E-555FB9060A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5592" yWindow="0" windowWidth="13116" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="737">
   <si>
     <t>ID</t>
   </si>
@@ -3464,6 +3464,27 @@
         <scheme val="minor"/>
       </rPr>
       <t>01|1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日暮时分，弟子们看见了不远处的丐帮总舵，还有眼前这一群拦路乞丐。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06|2</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3945,11 +3966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q244"/>
+  <dimension ref="A1:Q245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J244" sqref="J244"/>
+      <pane ySplit="4" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4922,164 +4943,155 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="4">
-        <v>58155</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="J30" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>613</v>
+      <c r="K30" s="6" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>470</v>
+        <v>589</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="4">
-        <v>61547</v>
+        <v>58155</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>609</v>
+      <c r="K31" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>473</v>
+        <v>335</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="4">
-        <v>65136</v>
+        <v>61547</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4">
+        <v>65136</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>130</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4">
         <v>68933</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>201</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="1">
-        <v>36278</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="O34" s="1">
-        <v>201</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -5091,65 +5103,65 @@
         <v>439</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>440</v>
+        <v>351</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="1">
-        <v>39361</v>
+        <v>36278</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O35" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>438</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="1">
-        <v>42706</v>
+        <v>39361</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="O36" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -5161,132 +5173,138 @@
         <v>17</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="1">
-        <v>46336</v>
+        <v>42706</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="O37" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="1">
-        <v>50274</v>
+        <v>46336</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O38" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="1">
-        <v>54547</v>
+        <v>50274</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O39" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="1">
-        <v>59183</v>
+        <v>54547</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="O40" s="1">
+        <v>206</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -5298,51 +5316,48 @@
         <v>17</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="1">
-        <v>64213</v>
+        <v>59183</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="1">
-        <v>69670</v>
+        <v>64213</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>619</v>
@@ -5350,60 +5365,60 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>442</v>
+      <c r="C43" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="1">
-        <v>75591</v>
+        <v>69670</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>624</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>449</v>
+      <c r="C44" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="1">
-        <v>82015</v>
+        <v>75591</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>624</v>
@@ -5414,129 +5429,132 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="1">
-        <v>88985</v>
+        <v>82015</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>628</v>
+        <v>624</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="1">
-        <v>96548</v>
+        <v>88985</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="L46" s="6" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="1">
-        <v>104753</v>
+        <v>96548</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>629</v>
+        <v>621</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="1">
-        <v>113656</v>
+        <v>104753</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -5548,111 +5566,111 @@
         <v>17</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="1">
-        <v>123315</v>
+        <v>113656</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="1">
-        <v>133795</v>
+        <v>123315</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="1">
-        <v>145166</v>
+        <v>133795</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="1">
-        <v>157503</v>
+        <v>145166</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
@@ -5664,24 +5682,24 @@
         <v>17</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="1">
-        <v>170889</v>
+        <v>157503</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
@@ -5693,16 +5711,16 @@
         <v>17</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="1">
-        <v>185413</v>
+        <v>170889</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>634</v>
@@ -5710,39 +5728,36 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="1">
-        <v>201171</v>
+        <v>185413</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="K55" s="6" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B56" s="1">
         <v>2</v>
@@ -5754,45 +5769,48 @@
         <v>17</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="1">
-        <v>218268</v>
+        <v>201171</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>635</v>
+        <v>629</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="1">
-        <v>236818</v>
+        <v>218268</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>635</v>
@@ -5800,63 +5818,57 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B58" s="1">
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="1">
-        <v>256945</v>
+        <v>236818</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B59" s="1">
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="1">
-        <v>278782</v>
+        <v>256945</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" s="6" t="s">
         <v>621</v>
@@ -5870,28 +5882,28 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>446</v>
+        <v>374</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="1">
-        <v>302475</v>
+        <v>278782</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J60" s="6" t="s">
         <v>621</v>
@@ -5905,28 +5917,28 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="1">
         <v>2</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>375</v>
+        <v>446</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="1">
-        <v>328182</v>
+        <v>302475</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>621</v>
@@ -5940,36 +5952,42 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="1">
-        <v>356074</v>
+        <v>328182</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>636</v>
+        <v>621</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" s="1">
         <v>2</v>
@@ -5981,45 +5999,45 @@
         <v>17</v>
       </c>
       <c r="E63" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="1">
+        <v>356074</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>230</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="1">
+      <c r="F64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="1">
         <v>386340</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>301</v>
-      </c>
-      <c r="B64" s="4">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="4">
-        <v>156720</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>637</v>
@@ -6027,556 +6045,553 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="4">
-        <v>172119</v>
+        <v>156720</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="N65" s="1">
-        <v>301</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>91</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B66" s="4">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="4">
-        <v>189031</v>
+        <v>172119</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>639</v>
       </c>
+      <c r="L66" s="6" t="s">
+        <v>640</v>
+      </c>
       <c r="N66" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="4">
-        <v>207604</v>
+        <v>189031</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N67" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="4">
-        <v>228002</v>
+        <v>207604</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>640</v>
       </c>
       <c r="N68" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B69" s="4">
         <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="4">
-        <v>250405</v>
+        <v>228002</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>640</v>
       </c>
       <c r="N69" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B70" s="4">
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="4">
-        <v>275009</v>
+        <v>250405</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>640</v>
       </c>
       <c r="N70" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="4">
-        <v>302030</v>
+        <v>275009</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
+      </c>
+      <c r="N71" s="1">
+        <v>306</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B72" s="4">
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="4">
-        <v>331706</v>
+        <v>302030</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>645</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="4">
-        <v>364298</v>
+        <v>331706</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="L73" s="6" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74" s="4">
         <v>3</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="4">
-        <v>400093</v>
+        <v>364298</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B75" s="4">
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="4">
-        <v>439405</v>
+        <v>400093</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B76" s="4">
         <v>3</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="4">
-        <v>482579</v>
+        <v>439405</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B77" s="4">
         <v>3</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="4">
-        <v>529995</v>
+        <v>482579</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>645</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B78" s="4">
         <v>3</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="4">
-        <v>582070</v>
+        <v>529995</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="L78" s="6" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B79" s="4">
         <v>3</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G79" s="4">
-        <v>639262</v>
+        <v>582070</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>647</v>
+        <v>641</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B80" s="4">
         <v>3</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="4">
-        <v>702073</v>
+        <v>639262</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>647</v>
@@ -6584,101 +6599,98 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B81" s="4">
         <v>3</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G81" s="4">
-        <v>771056</v>
+        <v>702073</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B82" s="4">
         <v>3</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G82" s="4">
-        <v>846817</v>
+        <v>771056</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>643</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B83" s="4">
         <v>3</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="4">
-        <v>930022</v>
+        <v>846817</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>640</v>
@@ -6686,95 +6698,98 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="4">
-        <v>1021402</v>
+        <v>930022</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>641</v>
       </c>
+      <c r="L84" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B85" s="4">
         <v>3</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="4">
-        <v>1121761</v>
+        <v>1021402</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>643</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B86" s="4">
         <v>3</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="4">
-        <v>1231981</v>
+        <v>1121761</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>648</v>
@@ -6782,257 +6797,260 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="4">
         <v>3</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G87" s="4">
-        <v>1353031</v>
+        <v>1231981</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B88" s="4">
         <v>3</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="4">
-        <v>1485975</v>
+        <v>1353031</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>642</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B89" s="4">
         <v>3</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="4">
-        <v>1631981</v>
+        <v>1485975</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>642</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B90" s="4">
         <v>3</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>318</v>
+        <v>503</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="4">
-        <v>1792333</v>
+        <v>1631981</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J90" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="K90" s="6" t="s">
-        <v>650</v>
+      <c r="L90" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B91" s="4">
         <v>3</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>475</v>
+        <v>607</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>504</v>
+        <v>318</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="4">
-        <v>1968441</v>
+        <v>1792333</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B92" s="4">
         <v>3</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="4">
-        <v>2161852</v>
+        <v>1968441</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>652</v>
+        <v>642</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B93" s="4">
         <v>3</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="4">
+        <v>2161852</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>330</v>
+      </c>
+      <c r="B94" s="4">
+        <v>3</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="5" t="s">
+      <c r="D94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="4">
+      <c r="F94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="4">
         <v>2374272</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H94" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="J94" s="6" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>401</v>
-      </c>
-      <c r="B94" s="1">
-        <v>4</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="1">
-        <v>804024</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B95" s="1">
         <v>4</v>
@@ -7043,31 +7061,25 @@
       <c r="D95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>511</v>
+      <c r="E95" s="8" t="s">
+        <v>510</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G95" s="1">
-        <v>886722</v>
+        <v>804024</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="N95" s="1">
-        <v>401</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B96" s="1">
         <v>4</v>
@@ -7079,30 +7091,30 @@
         <v>17</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G96" s="1">
-        <v>977926</v>
+        <v>886722</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>655</v>
       </c>
       <c r="N96" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B97" s="1">
         <v>4</v>
@@ -7114,30 +7126,30 @@
         <v>17</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="1">
-        <v>1078511</v>
+        <v>977926</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N97" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B98" s="1">
         <v>4</v>
@@ -7149,24 +7161,30 @@
         <v>17</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="1">
-        <v>1189442</v>
+        <v>1078511</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>656</v>
       </c>
+      <c r="N98" s="1">
+        <v>403</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -7178,24 +7196,24 @@
         <v>17</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="1">
-        <v>1311782</v>
+        <v>1189442</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -7207,16 +7225,16 @@
         <v>17</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G100" s="1">
-        <v>1446706</v>
+        <v>1311782</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>657</v>
@@ -7224,7 +7242,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B101" s="1">
         <v>4</v>
@@ -7236,24 +7254,24 @@
         <v>17</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>318</v>
+        <v>516</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="1">
-        <v>1595507</v>
+        <v>1446706</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B102" s="1">
         <v>4</v>
@@ -7265,16 +7283,16 @@
         <v>17</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>517</v>
+        <v>318</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="1">
-        <v>1759613</v>
+        <v>1595507</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>658</v>
@@ -7282,7 +7300,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B103" s="1">
         <v>4</v>
@@ -7294,24 +7312,24 @@
         <v>17</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="1">
-        <v>1940598</v>
+        <v>1759613</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B104" s="1">
         <v>4</v>
@@ -7323,16 +7341,16 @@
         <v>17</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="1">
-        <v>2140199</v>
+        <v>1940598</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>659</v>
@@ -7340,7 +7358,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B105" s="1">
         <v>4</v>
@@ -7352,24 +7370,24 @@
         <v>17</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="1">
-        <v>2360330</v>
+        <v>2140199</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B106" s="1">
         <v>4</v>
@@ -7381,16 +7399,16 @@
         <v>17</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="1">
-        <v>2603102</v>
+        <v>2360330</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>655</v>
@@ -7398,7 +7416,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B107" s="1">
         <v>4</v>
@@ -7410,24 +7428,24 @@
         <v>17</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="1">
-        <v>2870845</v>
+        <v>2603102</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B108" s="1">
         <v>4</v>
@@ -7439,16 +7457,16 @@
         <v>17</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="1">
-        <v>3166127</v>
+        <v>2870845</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>656</v>
@@ -7456,7 +7474,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B109" s="1">
         <v>4</v>
@@ -7468,24 +7486,24 @@
         <v>17</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="1">
-        <v>3491780</v>
+        <v>3166127</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B110" s="1">
         <v>4</v>
@@ -7497,16 +7515,16 @@
         <v>17</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G110" s="1">
-        <v>3850928</v>
+        <v>3491780</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>657</v>
@@ -7514,7 +7532,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B111" s="1">
         <v>4</v>
@@ -7526,24 +7544,24 @@
         <v>17</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="1">
-        <v>4247016</v>
+        <v>3850928</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B112" s="1">
         <v>4</v>
@@ -7555,16 +7573,16 @@
         <v>17</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G112" s="1">
-        <v>4683844</v>
+        <v>4247016</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>658</v>
@@ -7572,7 +7590,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B113" s="1">
         <v>4</v>
@@ -7584,24 +7602,24 @@
         <v>17</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="1">
-        <v>5165602</v>
+        <v>4683844</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B114" s="1">
         <v>4</v>
@@ -7613,16 +7631,16 @@
         <v>17</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="1">
-        <v>5696911</v>
+        <v>5165602</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>659</v>
@@ -7630,7 +7648,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B115" s="1">
         <v>4</v>
@@ -7642,24 +7660,24 @@
         <v>17</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="1">
-        <v>6282868</v>
+        <v>5696911</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B116" s="1">
         <v>4</v>
@@ -7671,16 +7689,16 @@
         <v>17</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="1">
-        <v>6929094</v>
+        <v>6282868</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>655</v>
@@ -7688,7 +7706,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B117" s="1">
         <v>4</v>
@@ -7700,24 +7718,24 @@
         <v>17</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="1">
-        <v>7641788</v>
+        <v>6929094</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B118" s="1">
         <v>4</v>
@@ -7729,16 +7747,16 @@
         <v>17</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="1">
-        <v>8427786</v>
+        <v>7641788</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>656</v>
@@ -7746,7 +7764,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B119" s="1">
         <v>4</v>
@@ -7758,24 +7776,24 @@
         <v>17</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G119" s="1">
-        <v>9294628</v>
+        <v>8427786</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B120" s="1">
         <v>4</v>
@@ -7787,16 +7805,16 @@
         <v>17</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="1">
-        <v>10250629</v>
+        <v>9294628</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>657</v>
@@ -7804,7 +7822,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B121" s="1">
         <v>4</v>
@@ -7816,45 +7834,45 @@
         <v>17</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G121" s="1">
-        <v>11304960</v>
+        <v>10250629</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B122" s="1">
         <v>4</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="1">
-        <v>12467735</v>
+        <v>11304960</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>658</v>
@@ -7862,121 +7880,118 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B123" s="1">
         <v>4</v>
       </c>
       <c r="C123" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="1">
+        <v>12467735</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>430</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="6" t="s">
+      <c r="D124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" s="1">
+      <c r="F124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="1">
         <v>13750110</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="J124" s="1" t="s">
         <v>660</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>501</v>
-      </c>
-      <c r="B124" s="4">
-        <v>5</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="4">
-        <v>4071073</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B125" s="4">
         <v>5</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>406</v>
+        <v>602</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G125" s="4">
-        <v>4586600</v>
+        <v>4071073</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B126" s="4">
         <v>5</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>17</v>
+        <v>603</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G126" s="4">
-        <v>5167409</v>
+        <v>4586600</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>663</v>
@@ -7984,253 +7999,253 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B127" s="4">
         <v>5</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G127" s="4">
-        <v>5821767</v>
+        <v>5167409</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="N127" s="1">
-        <v>501</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B128" s="4">
         <v>5</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="4">
-        <v>6558988</v>
+        <v>5821767</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>663</v>
       </c>
       <c r="N128" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B129" s="4">
         <v>5</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G129" s="4">
-        <v>7389564</v>
+        <v>6558988</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="N129" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B130" s="4">
         <v>5</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G130" s="4">
-        <v>8325318</v>
+        <v>7389564</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>667</v>
       </c>
       <c r="N130" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B131" s="4">
         <v>5</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G131" s="4">
-        <v>9379568</v>
+        <v>8325318</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>667</v>
       </c>
       <c r="N131" s="1">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B132" s="4">
         <v>5</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="4">
-        <v>10567320</v>
+        <v>9379568</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
+      </c>
+      <c r="N132" s="1">
+        <v>505</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B133" s="4">
         <v>5</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="4">
-        <v>11905479</v>
+        <v>10567320</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>668</v>
@@ -8238,223 +8253,223 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B134" s="4">
         <v>5</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G134" s="4">
-        <v>13413091</v>
+        <v>11905479</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B135" s="4">
         <v>5</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G135" s="4">
-        <v>15111615</v>
+        <v>13413091</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B136" s="4">
         <v>5</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="4">
-        <v>17025226</v>
+        <v>15111615</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B137" s="4">
         <v>5</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G137" s="4">
-        <v>19181161</v>
+        <v>17025226</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B138" s="4">
         <v>5</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="4">
-        <v>21610106</v>
+        <v>19181161</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B139" s="4">
         <v>5</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G139" s="4">
-        <v>24346633</v>
+        <v>21610106</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B140" s="4">
         <v>5</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="4">
-        <v>27429691</v>
+        <v>24346633</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>668</v>
@@ -8462,194 +8477,191 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B141" s="4">
         <v>5</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="4">
-        <v>30903162</v>
+        <v>27429691</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B142" s="4">
         <v>5</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="4">
-        <v>34816485</v>
+        <v>30903162</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B143" s="4">
         <v>5</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="4">
-        <v>39225359</v>
+        <v>34816485</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B144" s="4">
         <v>5</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="4">
-        <v>44192537</v>
+        <v>39225359</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B145" s="4">
         <v>5</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="4">
-        <v>49788717</v>
+        <v>44192537</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="K145" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>663</v>
+        <v>671</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B146" s="4">
         <v>5</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="4">
-        <v>56093552</v>
+        <v>49788717</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K146" s="6" t="s">
         <v>674</v>
@@ -8660,31 +8672,31 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B147" s="4">
         <v>5</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="4">
-        <v>63196779</v>
+        <v>56093552</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K147" s="6" t="s">
         <v>674</v>
@@ -8695,31 +8707,31 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B148" s="4">
         <v>5</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>560</v>
+      <c r="E148" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="4">
-        <v>71199501</v>
+        <v>63196779</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="K148" s="6" t="s">
         <v>674</v>
@@ -8730,34 +8742,34 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B149" s="4">
         <v>5</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>561</v>
+      <c r="E149" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="4">
-        <v>80215622</v>
+        <v>71199501</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>662</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>663</v>
@@ -8765,34 +8777,34 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B150" s="4">
         <v>5</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="4">
-        <v>90373470</v>
+        <v>80215622</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>662</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>663</v>
@@ -8800,34 +8812,34 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B151" s="4">
         <v>5</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="4">
-        <v>101817625</v>
+        <v>90373470</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>663</v>
@@ -8835,63 +8847,63 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B152" s="4">
         <v>5</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="4">
-        <v>114710974</v>
+        <v>101817625</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="L152" s="6" t="s">
-        <v>667</v>
+        <v>671</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B153" s="4">
         <v>5</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="4">
-        <v>129237041</v>
+        <v>114710974</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>662</v>
@@ -8900,41 +8912,47 @@
         <v>674</v>
       </c>
       <c r="L153" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>530</v>
+      </c>
+      <c r="B154" s="4">
+        <v>5</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="4">
+        <v>129237041</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="L154" s="6" t="s">
         <v>668</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>601</v>
-      </c>
-      <c r="B154" s="1">
-        <v>6</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" s="1">
-        <v>34764433</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B155" s="1">
         <v>6</v>
@@ -8946,150 +8964,141 @@
         <v>17</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="1">
-        <v>39010876</v>
+        <v>34764433</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L155" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="N155" s="1">
-        <v>601</v>
-      </c>
-      <c r="O155" s="1" t="s">
-        <v>195</v>
+        <v>673</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B156" s="1">
         <v>6</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="1">
-        <v>43776018</v>
+        <v>39010876</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>675</v>
       </c>
+      <c r="L156" s="6" t="s">
+        <v>677</v>
+      </c>
       <c r="N156" s="1">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B157" s="1">
         <v>6</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G157" s="1">
-        <v>49123218</v>
+        <v>43776018</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N157" s="1">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B158" s="1">
         <v>6</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="1">
-        <v>55123573</v>
+        <v>49123218</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="K158" s="6" t="s">
         <v>677</v>
       </c>
       <c r="N158" s="1">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B159" s="1">
         <v>6</v>
@@ -9101,65 +9110,71 @@
         <v>17</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G159" s="1">
-        <v>61856866</v>
+        <v>55123573</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K159" s="6" t="s">
         <v>677</v>
       </c>
       <c r="N159" s="1">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B160" s="1">
         <v>6</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G160" s="1">
-        <v>69412624</v>
+        <v>61856866</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K160" s="6" t="s">
         <v>677</v>
       </c>
+      <c r="N160" s="1">
+        <v>605</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B161" s="1">
         <v>6</v>
@@ -9171,190 +9186,190 @@
         <v>17</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G161" s="1">
-        <v>77891311</v>
+        <v>69412624</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B162" s="1">
         <v>6</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="1">
-        <v>87405662</v>
+        <v>77891311</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B163" s="1">
         <v>6</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="1">
-        <v>98082182</v>
+        <v>87405662</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L163" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B164" s="1">
         <v>6</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="1">
-        <v>110062829</v>
+        <v>98082182</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J164" s="6" t="s">
         <v>682</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B165" s="1">
         <v>6</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G165" s="1">
-        <v>123506901</v>
+        <v>110062829</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B166" s="1">
         <v>6</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G166" s="1">
-        <v>138593153</v>
+        <v>123506901</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B167" s="1">
         <v>6</v>
@@ -9366,118 +9381,118 @@
         <v>17</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>566</v>
+        <v>345</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G167" s="1">
-        <v>155522177</v>
+        <v>138593153</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>683</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B168" s="1">
         <v>6</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G168" s="1">
-        <v>174519065</v>
+        <v>155522177</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="L168" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B169" s="1">
         <v>6</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G169" s="1">
-        <v>195836405</v>
+        <v>174519065</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>688</v>
+        <v>676</v>
+      </c>
+      <c r="L169" s="6" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B170" s="1">
         <v>6</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G170" s="1">
-        <v>219757638</v>
+        <v>195836405</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="K170" s="6" t="s">
         <v>688</v>
@@ -9485,39 +9500,39 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B171" s="1">
         <v>6</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G171" s="1">
-        <v>246600828</v>
+        <v>219757638</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B172" s="1">
         <v>6</v>
@@ -9528,154 +9543,154 @@
       <c r="D172" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>570</v>
+      <c r="E172" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G172" s="1">
-        <v>276722888</v>
+        <v>246600828</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K172" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="L172" s="6" t="s">
-        <v>677</v>
-      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B173" s="1">
         <v>6</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>571</v>
+      <c r="E173" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G173" s="1">
-        <v>310524330</v>
+        <v>276722888</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B174" s="1">
         <v>6</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G174" s="1">
-        <v>348454586</v>
+        <v>310524330</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>690</v>
+        <v>675</v>
+      </c>
+      <c r="L174" s="6" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B175" s="1">
         <v>6</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G175" s="1">
-        <v>391017987</v>
+        <v>348454586</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B176" s="1">
         <v>6</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G176" s="1">
-        <v>438780468</v>
+        <v>391017987</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="K176" s="6" t="s">
         <v>691</v>
@@ -9683,39 +9698,39 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B177" s="1">
         <v>6</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G177" s="1">
-        <v>492377091</v>
+        <v>438780468</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B178" s="1">
         <v>6</v>
@@ -9727,118 +9742,118 @@
         <v>17</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G178" s="1">
-        <v>552520492</v>
+        <v>492377091</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B179" s="1">
         <v>6</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G179" s="1">
-        <v>620010353</v>
+        <v>552520492</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J179" s="6" t="s">
         <v>680</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L179" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B180" s="1">
         <v>6</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G180" s="1">
-        <v>695744037</v>
+        <v>620010353</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>691</v>
+        <v>675</v>
+      </c>
+      <c r="L180" s="6" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B181" s="1">
         <v>6</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G181" s="1">
-        <v>780728520</v>
+        <v>695744037</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K181" s="6" t="s">
         <v>691</v>
@@ -9846,305 +9861,296 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B182" s="1">
         <v>6</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G182" s="1">
-        <v>876093778</v>
+        <v>780728520</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L182" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B183" s="1">
         <v>6</v>
       </c>
       <c r="C183" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="1">
+        <v>876093778</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="K183" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="L183" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>630</v>
+      </c>
+      <c r="B184" s="1">
+        <v>6</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E183" s="6" t="s">
+      <c r="D184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" s="1">
+      <c r="F184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" s="1">
         <v>983107799</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J183" s="6" t="s">
+      <c r="J184" s="6" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
-        <v>701</v>
-      </c>
-      <c r="B184" s="4">
-        <v>7</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" s="4">
-        <v>244987714</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J184" s="6" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B185" s="4">
         <v>7</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G185" s="4">
-        <v>286101462</v>
+        <v>244987714</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="N185" s="1">
-        <v>701</v>
-      </c>
-      <c r="O185" s="1" t="s">
-        <v>230</v>
+        <v>693</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B186" s="4">
         <v>7</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="4">
-        <v>334114904</v>
+        <v>286101462</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N186" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B187" s="4">
         <v>7</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G187" s="4">
-        <v>390185944</v>
+        <v>334114904</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N187" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B188" s="4">
         <v>7</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>593</v>
+        <v>453</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G188" s="4">
-        <v>455666806</v>
+        <v>390185944</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N188" s="1">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B189" s="4">
         <v>7</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G189" s="4">
-        <v>532136642</v>
+        <v>455666806</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="K189" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="L189" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N189" s="1">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B190" s="4">
         <v>7</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="4">
-        <v>621439618</v>
+        <v>532136642</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="K190" s="6" t="s">
         <v>696</v>
@@ -10153,39 +10159,39 @@
         <v>698</v>
       </c>
       <c r="N190" s="1">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B191" s="4">
         <v>7</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G191" s="4">
-        <v>725729386</v>
+        <v>621439618</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K191" s="6" t="s">
         <v>696</v>
@@ -10193,37 +10199,43 @@
       <c r="L191" s="6" t="s">
         <v>698</v>
       </c>
+      <c r="N191" s="1">
+        <v>706</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B192" s="4">
         <v>7</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="4">
-        <v>847521025</v>
+        <v>725729386</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L192" s="6" t="s">
         <v>698</v>
@@ -10231,34 +10243,34 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B193" s="4">
         <v>7</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G193" s="4">
-        <v>989751692</v>
+        <v>847521025</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J193" s="6" t="s">
         <v>694</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L193" s="6" t="s">
         <v>698</v>
@@ -10266,63 +10278,63 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B194" s="4">
         <v>7</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G194" s="4">
-        <v>1155851457</v>
+        <v>989751692</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>694</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B195" s="4">
         <v>7</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G195" s="4">
-        <v>1349826024</v>
+        <v>1155851457</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J195" s="6" t="s">
         <v>694</v>
@@ -10331,99 +10343,105 @@
         <v>702</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B196" s="4">
         <v>7</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G196" s="4">
-        <v>1576353332</v>
+        <v>1349826024</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>705</v>
+        <v>694</v>
+      </c>
+      <c r="K196" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="L196" s="6" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B197" s="4">
         <v>7</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G197" s="4">
-        <v>1840896369</v>
+        <v>1576353332</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B198" s="4">
         <v>7</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G198" s="4">
-        <v>2149834922</v>
+        <v>1840896369</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B199" s="4">
         <v>7</v>
@@ -10435,30 +10453,24 @@
         <v>17</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G199" s="4">
-        <v>2510619429</v>
+        <v>2149834922</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="K199" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="L199" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B200" s="4">
         <v>7</v>
@@ -10470,19 +10482,19 @@
         <v>17</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G200" s="4">
-        <v>2931950660</v>
+        <v>2510619429</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K200" s="6" t="s">
         <v>696</v>
@@ -10493,7 +10505,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B201" s="4">
         <v>7</v>
@@ -10504,23 +10516,23 @@
       <c r="D201" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E201" s="4" t="s">
-        <v>376</v>
+      <c r="E201" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G201" s="4">
-        <v>3423989543</v>
+        <v>2931950660</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L201" s="6" t="s">
         <v>698</v>
@@ -10528,34 +10540,34 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B202" s="4">
         <v>7</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E202" s="5" t="s">
-        <v>385</v>
+      <c r="E202" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G202" s="4">
-        <v>3998602211</v>
+        <v>3423989543</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J202" s="6" t="s">
         <v>694</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L202" s="6" t="s">
         <v>698</v>
@@ -10563,7 +10575,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B203" s="4">
         <v>7</v>
@@ -10575,88 +10587,91 @@
         <v>17</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G203" s="4">
-        <v>4669646166</v>
+        <v>3998602211</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>708</v>
+        <v>694</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="L203" s="6" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B204" s="4">
         <v>7</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>596</v>
+        <v>455</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G204" s="4">
-        <v>5453304471</v>
+        <v>4669646166</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J204" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="K204" s="6" t="s">
-        <v>701</v>
-      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B205" s="4">
         <v>7</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>456</v>
+        <v>596</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G205" s="4">
-        <v>6368476025</v>
+        <v>5453304471</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J205" s="6" t="s">
         <v>708</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B206" s="4">
         <v>7</v>
@@ -10668,24 +10683,27 @@
         <v>17</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G206" s="4">
-        <v>7437231333</v>
+        <v>6368476025</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>704</v>
+        <v>708</v>
+      </c>
+      <c r="K206" s="6" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B207" s="4">
         <v>7</v>
@@ -10697,24 +10715,24 @@
         <v>17</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G207" s="4">
-        <v>8685344764</v>
+        <v>7437231333</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B208" s="4">
         <v>7</v>
@@ -10726,205 +10744,205 @@
         <v>17</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G208" s="4">
-        <v>10142916133</v>
+        <v>8685344764</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="K208" s="6" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B209" s="4">
         <v>7</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G209" s="4">
-        <v>11845096593</v>
+        <v>10142916133</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J209" s="6" t="s">
         <v>703</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B210" s="4">
         <v>7</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G210" s="4">
-        <v>13832936353</v>
+        <v>11845096593</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="L210" s="6" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B211" s="4">
         <v>7</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>596</v>
+        <v>457</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G211" s="4">
-        <v>16154374652</v>
+        <v>13832936353</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>711</v>
+        <v>694</v>
+      </c>
+      <c r="K211" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L211" s="6" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B212" s="4">
         <v>7</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>458</v>
+        <v>596</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="4">
-        <v>18865395873</v>
+        <v>16154374652</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J212" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="K212" s="6" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B213" s="4">
         <v>7</v>
       </c>
       <c r="C213" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="4">
+        <v>18865395873</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="K213" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>730</v>
+      </c>
+      <c r="B214" s="4">
+        <v>7</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E213" s="5" t="s">
+      <c r="D214" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F213" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" s="4">
+      <c r="F214" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="4">
         <v>22031379738</v>
       </c>
-      <c r="H213" s="4" t="s">
+      <c r="H214" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="J213" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>801</v>
-      </c>
-      <c r="B214" s="1">
-        <v>8</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" s="1">
-        <v>4992188542</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="J214" s="6" t="s">
         <v>712</v>
@@ -10932,194 +10950,179 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B215" s="1">
         <v>8</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G215" s="1">
-        <v>5831661910</v>
+        <v>4992188542</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="O215" s="1">
-        <v>801</v>
-      </c>
-      <c r="P215" s="1" t="s">
-        <v>266</v>
+        <v>712</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B216" s="1">
         <v>8</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G216" s="1">
-        <v>6812298924</v>
+        <v>5831661910</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O216" s="1">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B217" s="1">
         <v>8</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G217" s="1">
-        <v>7957837294</v>
+        <v>6812298924</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="K217" s="6" t="s">
         <v>716</v>
       </c>
       <c r="O217" s="1">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B218" s="1">
         <v>8</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>593</v>
+        <v>463</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G218" s="1">
-        <v>9296006400</v>
+        <v>7957837294</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
+      </c>
+      <c r="K218" s="6" t="s">
+        <v>716</v>
       </c>
       <c r="O218" s="1">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B219" s="1">
         <v>8</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>464</v>
+        <v>593</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G219" s="1">
-        <v>10859198523</v>
+        <v>9296006400</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J219" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="K219" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="L219" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="M219" s="6" t="s">
-        <v>718</v>
-      </c>
       <c r="O219" s="1">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B220" s="1">
         <v>8</v>
@@ -11131,30 +11134,39 @@
         <v>17</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G220" s="1">
-        <v>12685252945</v>
+        <v>10859198523</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J220" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="K220" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="L220" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="M220" s="6" t="s">
         <v>718</v>
       </c>
       <c r="O220" s="1">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B221" s="1">
         <v>8</v>
@@ -11166,65 +11178,65 @@
         <v>17</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G221" s="1">
-        <v>14818371902</v>
+        <v>12685252945</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J221" s="6" t="s">
         <v>718</v>
       </c>
       <c r="O221" s="1">
-        <v>9901</v>
+        <v>806</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>713</v>
+        <v>276</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B222" s="1">
         <v>8</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G222" s="1">
-        <v>17310190564</v>
+        <v>14818371902</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="O222" s="1">
-        <v>9902</v>
+        <v>9901</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B223" s="1">
         <v>8</v>
@@ -11236,22 +11248,22 @@
         <v>17</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G223" s="1">
-        <v>20221026935</v>
+        <v>17310190564</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O223" s="1">
-        <v>9903</v>
+        <v>9902</v>
       </c>
       <c r="P223" s="1" t="s">
         <v>714</v>
@@ -11259,92 +11271,95 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B224" s="1">
         <v>8</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>593</v>
+        <v>465</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G224" s="1">
-        <v>23621341937</v>
+        <v>20221026935</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J224" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
+      </c>
+      <c r="O224" s="1">
+        <v>9903</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B225" s="1">
         <v>8</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G225" s="1">
-        <v>27593445016</v>
+        <v>23621341937</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="K225" s="6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B226" s="1">
         <v>8</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G226" s="1">
-        <v>32233486560</v>
+        <v>27593445016</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="K226" s="6" t="s">
         <v>721</v>
@@ -11352,31 +11367,31 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B227" s="1">
         <v>8</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G227" s="1">
-        <v>37653785354</v>
+        <v>32233486560</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="K227" s="6" t="s">
         <v>721</v>
@@ -11384,31 +11399,31 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B228" s="1">
         <v>8</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G228" s="1">
-        <v>43985547416</v>
+        <v>37653785354</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="K228" s="6" t="s">
         <v>721</v>
@@ -11416,63 +11431,63 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B229" s="1">
         <v>8</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G229" s="1">
-        <v>51382042026</v>
+        <v>43985547416</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B230" s="1">
         <v>8</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>466</v>
+        <v>595</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G230" s="1">
-        <v>60022311824</v>
+        <v>51382042026</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K230" s="6" t="s">
         <v>722</v>
@@ -11480,7 +11495,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B231" s="1">
         <v>8</v>
@@ -11492,25 +11507,27 @@
         <v>17</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G231" s="1">
-        <v>70115506793</v>
+        <v>60022311824</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="K231" s="6"/>
+        <v>727</v>
+      </c>
+      <c r="K231" s="6" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B232" s="1">
         <v>8</v>
@@ -11522,112 +11539,107 @@
         <v>17</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G232" s="1">
-        <v>81905947029</v>
+        <v>70115506793</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J232" s="6" t="s">
         <v>728</v>
       </c>
+      <c r="K232" s="6"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B233" s="1">
         <v>8</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G233" s="1">
-        <v>95679036857</v>
+        <v>81905947029</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B234" s="1">
         <v>8</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G234" s="1">
-        <v>111768173448</v>
+        <v>95679036857</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="K234" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="L234" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B235" s="1">
         <v>8</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G235" s="1">
-        <v>130562817167</v>
+        <v>111768173448</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="K235" s="6" t="s">
         <v>721</v>
@@ -11638,31 +11650,31 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B236" s="1">
         <v>8</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G236" s="1">
-        <v>152517919016</v>
+        <v>130562817167</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="K236" s="6" t="s">
         <v>721</v>
@@ -11673,34 +11685,34 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B237" s="1">
         <v>8</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G237" s="1">
-        <v>178164933369</v>
+        <v>152517919016</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K237" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L237" s="6" t="s">
         <v>730</v>
@@ -11708,34 +11720,34 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B238" s="1">
         <v>8</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>467</v>
+        <v>594</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G238" s="1">
-        <v>208124682576</v>
+        <v>178164933369</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J238" s="6" t="s">
         <v>718</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="L238" s="6" t="s">
         <v>730</v>
@@ -11743,7 +11755,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B239" s="1">
         <v>8</v>
@@ -11755,45 +11767,51 @@
         <v>17</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G239" s="1">
-        <v>243122384851</v>
+        <v>208124682576</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>732</v>
+        <v>718</v>
+      </c>
+      <c r="K239" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="L239" s="6" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B240" s="1">
         <v>8</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G240" s="1">
-        <v>284005209204</v>
+        <v>243122384851</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J240" s="6" t="s">
         <v>732</v>
@@ -11801,7 +11819,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B241" s="1">
         <v>8</v>
@@ -11813,45 +11831,45 @@
         <v>17</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G241" s="1">
-        <v>331762782372</v>
+        <v>284005209204</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B242" s="1">
         <v>8</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G242" s="1">
-        <v>387551144134</v>
+        <v>331762782372</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J242" s="6" t="s">
         <v>733</v>
@@ -11859,7 +11877,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B243" s="1">
         <v>8</v>
@@ -11871,23 +11889,52 @@
         <v>17</v>
       </c>
       <c r="E243" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G243" s="1">
+        <v>387551144134</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J243" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>830</v>
+      </c>
+      <c r="B244" s="1">
+        <v>8</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" s="1">
+      <c r="F244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="1">
         <v>452720730825</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J243" s="6" t="s">
+      <c r="J244" s="6" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J244" s="6" t="s">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J245" s="6" t="s">
         <v>734</v>
       </c>
     </row>
@@ -11899,10 +11946,10 @@
   <conditionalFormatting sqref="J24:K24">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:K31">
+  <conditionalFormatting sqref="J32:K32">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J90:K90">
+  <conditionalFormatting sqref="J91:K91">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4752AE-0E57-4FDB-945E-555FB9060A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD82D8E-FB89-47DF-BDAB-A79CBAEABF14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5592" yWindow="0" windowWidth="13116" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="747">
   <si>
     <t>ID</t>
   </si>
@@ -1264,10 +1264,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>看来玄字高僧要亲自出手了，却不知是哪一位神僧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>玄字高僧果然厉害，这次和弟子一同结阵，棘手棘手。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2409,10 +2405,6 @@
   </si>
   <si>
     <t>106|1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104|1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2607,40 +2599,6 @@
   </si>
   <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01|1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>204</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>2</t>
     </r>
     <r>
@@ -2653,23 +2611,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>05|1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>05|2</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2749,10 +2690,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>205|3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>204|4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2778,10 +2715,6 @@
   </si>
   <si>
     <t>201|1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>304|1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2901,22 +2834,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>403|1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>403|2</t>
-  </si>
-  <si>
-    <t>403|3</t>
-  </si>
-  <si>
-    <t>403|4</t>
-  </si>
-  <si>
-    <t>403|5</t>
-  </si>
-  <si>
     <t>402|1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3104,23 +3021,6 @@
   </si>
   <si>
     <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01|1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>7</t>
     </r>
     <r>
@@ -3135,32 +3035,6 @@
       <t>05|1</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>05|2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <r>
@@ -3285,10 +3159,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>706|3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>706|2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3308,10 +3178,6 @@
   </si>
   <si>
     <t>9902|1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9903|1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3390,13 +3256,6 @@
     </r>
   </si>
   <si>
-    <t>806|1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>806|2</t>
-  </si>
-  <si>
     <r>
       <t>8</t>
     </r>
@@ -3486,6 +3345,130 @@
       </rPr>
       <t>06|2</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>106|3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>205|5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>204|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来玄字高僧要亲自出手了，却不知是神僧手段。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>206|4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>403|5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>403|4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>503|2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>504|2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>503|3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>505|3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>505|4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01|1</t>
+    </r>
+  </si>
+  <si>
+    <t>704|4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>704|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>705|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9902|5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9903|5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9902|2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9903|3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9903|2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>804|5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>805|5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>804|4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>805|3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>805|4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>806|5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>806|2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3966,11 +3949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q245"/>
+  <dimension ref="A1:Q244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O239" sqref="O239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3997,10 +3980,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -4098,10 +4081,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>309</v>
@@ -4116,13 +4099,13 @@
         <v>19</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P5" s="1">
         <v>101</v>
@@ -4139,10 +4122,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>310</v>
@@ -4157,13 +4140,13 @@
         <v>21</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P6" s="1">
         <v>102</v>
@@ -4180,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
@@ -4198,10 +4181,10 @@
         <v>23</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="P7" s="1">
         <v>103</v>
@@ -4218,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -4236,10 +4219,10 @@
         <v>25</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="P8" s="1">
         <v>104</v>
@@ -4256,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>17</v>
@@ -4274,10 +4257,10 @@
         <v>27</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="P9" s="1">
         <v>105</v>
@@ -4294,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -4312,10 +4295,10 @@
         <v>29</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>586</v>
+        <v>607</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>719</v>
       </c>
       <c r="P10" s="1">
         <v>106</v>
@@ -4332,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>17</v>
@@ -4350,10 +4333,10 @@
         <v>31</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>586</v>
+        <v>608</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4364,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>17</v>
@@ -4382,10 +4365,10 @@
         <v>32</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>586</v>
+        <v>607</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4396,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>317</v>
@@ -4414,10 +4397,10 @@
         <v>33</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4428,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>17</v>
@@ -4446,10 +4429,10 @@
         <v>34</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4460,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>17</v>
@@ -4478,10 +4461,10 @@
         <v>35</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4492,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>17</v>
@@ -4510,13 +4493,13 @@
         <v>36</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -4527,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>17</v>
@@ -4545,10 +4528,10 @@
         <v>37</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4559,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
@@ -4577,10 +4560,10 @@
         <v>38</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4591,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>17</v>
@@ -4609,10 +4592,10 @@
         <v>39</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4623,10 +4606,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>324</v>
@@ -4641,10 +4624,10 @@
         <v>40</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4655,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
@@ -4673,10 +4656,10 @@
         <v>41</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4687,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>17</v>
@@ -4705,13 +4688,13 @@
         <v>42</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4722,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>17</v>
@@ -4740,10 +4723,10 @@
         <v>43</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4754,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>17</v>
@@ -4772,10 +4755,10 @@
         <v>44</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4786,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>17</v>
@@ -4804,10 +4787,10 @@
         <v>45</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4818,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>17</v>
@@ -4836,10 +4819,10 @@
         <v>46</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4850,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>17</v>
@@ -4868,10 +4851,10 @@
         <v>47</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4882,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>17</v>
@@ -4900,13 +4883,13 @@
         <v>48</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4917,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>17</v>
@@ -4935,10 +4918,10 @@
         <v>49</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4949,22 +4932,22 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="J30" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4975,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>17</v>
@@ -4993,10 +4976,10 @@
         <v>50</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -5007,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>17</v>
@@ -5025,10 +5008,10 @@
         <v>51</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -5039,13 +5022,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>18</v>
@@ -5057,7 +5040,16 @@
         <v>52</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -5068,13 +5060,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>18</v>
@@ -5086,7 +5078,16 @@
         <v>53</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -5097,10 +5098,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>351</v>
@@ -5115,7 +5116,7 @@
         <v>54</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="O35" s="1">
         <v>201</v>
@@ -5132,13 +5133,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>18</v>
@@ -5150,7 +5151,7 @@
         <v>56</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="O36" s="1">
         <v>202</v>
@@ -5167,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>17</v>
@@ -5185,7 +5186,10 @@
         <v>58</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>624</v>
       </c>
       <c r="O37" s="1">
         <v>203</v>
@@ -5202,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>17</v>
@@ -5220,7 +5224,7 @@
         <v>60</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>619</v>
+        <v>720</v>
       </c>
       <c r="O38" s="1">
         <v>204</v>
@@ -5237,7 +5241,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>17</v>
@@ -5255,7 +5259,10 @@
         <v>62</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>620</v>
+        <v>626</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>721</v>
       </c>
       <c r="O39" s="1">
         <v>205</v>
@@ -5272,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>17</v>
@@ -5290,10 +5297,10 @@
         <v>64</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O40" s="1">
         <v>206</v>
@@ -5310,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>17</v>
@@ -5328,7 +5335,10 @@
         <v>66</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>623</v>
+        <v>616</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -5339,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>17</v>
@@ -5357,10 +5367,10 @@
         <v>67</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -5371,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>17</v>
@@ -5389,10 +5399,10 @@
         <v>68</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -5403,7 +5413,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>17</v>
@@ -5421,10 +5431,10 @@
         <v>69</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -5435,13 +5445,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>361</v>
+        <v>722</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>18</v>
@@ -5453,10 +5463,10 @@
         <v>70</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -5467,13 +5477,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>18</v>
@@ -5485,7 +5495,7 @@
         <v>71</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -5496,13 +5506,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>18</v>
@@ -5514,13 +5524,13 @@
         <v>72</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -5531,7 +5541,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
@@ -5549,7 +5559,7 @@
         <v>73</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5560,13 +5570,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>18</v>
@@ -5578,7 +5588,7 @@
         <v>74</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5589,13 +5599,13 @@
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>18</v>
@@ -5607,7 +5617,7 @@
         <v>75</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5618,13 +5628,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>18</v>
@@ -5636,7 +5646,7 @@
         <v>76</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5647,13 +5657,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>18</v>
@@ -5665,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>632</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -5676,13 +5686,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>18</v>
@@ -5694,7 +5704,7 @@
         <v>78</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -5705,13 +5715,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>18</v>
@@ -5723,7 +5733,13 @@
         <v>79</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5734,13 +5750,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>18</v>
@@ -5752,7 +5768,13 @@
         <v>80</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -5763,13 +5785,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>18</v>
@@ -5781,10 +5803,10 @@
         <v>81</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5795,13 +5817,13 @@
         <v>2</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>18</v>
@@ -5813,7 +5835,10 @@
         <v>82</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>635</v>
+        <v>629</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -5824,7 +5849,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
@@ -5842,7 +5867,10 @@
         <v>83</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>635</v>
+        <v>629</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5853,13 +5881,13 @@
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>18</v>
@@ -5871,13 +5899,13 @@
         <v>84</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5888,13 +5916,13 @@
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>18</v>
@@ -5906,13 +5934,13 @@
         <v>85</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -5923,13 +5951,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>18</v>
@@ -5941,13 +5969,13 @@
         <v>86</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5958,13 +5986,13 @@
         <v>2</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>18</v>
@@ -5976,13 +6004,7 @@
         <v>87</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5993,7 +6015,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>17</v>
@@ -6011,7 +6033,10 @@
         <v>88</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>636</v>
+        <v>631</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -6022,13 +6047,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>18</v>
@@ -6040,7 +6065,10 @@
         <v>89</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>637</v>
+        <v>631</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -6051,13 +6079,13 @@
         <v>3</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>18</v>
@@ -6069,7 +6097,13 @@
         <v>90</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -6080,13 +6114,13 @@
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>18</v>
@@ -6098,13 +6132,10 @@
         <v>92</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="N66" s="1">
         <v>301</v>
@@ -6121,13 +6152,13 @@
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>18</v>
@@ -6139,10 +6170,10 @@
         <v>94</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N67" s="1">
         <v>302</v>
@@ -6159,13 +6190,13 @@
         <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>18</v>
@@ -6177,7 +6208,7 @@
         <v>96</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>640</v>
@@ -6197,13 +6228,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>18</v>
@@ -6215,7 +6246,7 @@
         <v>98</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>640</v>
@@ -6235,13 +6266,13 @@
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>18</v>
@@ -6253,7 +6284,7 @@
         <v>100</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>640</v>
@@ -6273,13 +6304,13 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>18</v>
@@ -6291,10 +6322,10 @@
         <v>102</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="N71" s="1">
         <v>306</v>
@@ -6311,13 +6342,13 @@
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>18</v>
@@ -6329,10 +6360,10 @@
         <v>103</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -6343,13 +6374,13 @@
         <v>3</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>18</v>
@@ -6361,10 +6392,13 @@
         <v>104</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>640</v>
+        <v>634</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -6375,13 +6409,13 @@
         <v>3</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>18</v>
@@ -6393,13 +6427,10 @@
         <v>105</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -6410,13 +6441,13 @@
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>18</v>
@@ -6428,10 +6459,10 @@
         <v>106</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -6442,13 +6473,13 @@
         <v>3</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>18</v>
@@ -6460,10 +6491,10 @@
         <v>107</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -6474,13 +6505,13 @@
         <v>3</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>18</v>
@@ -6492,10 +6523,10 @@
         <v>108</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -6506,13 +6537,13 @@
         <v>3</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>18</v>
@@ -6524,10 +6555,13 @@
         <v>109</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>640</v>
+        <v>634</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -6538,13 +6572,13 @@
         <v>3</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>18</v>
@@ -6556,12 +6590,9 @@
         <v>110</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="L79" s="6" t="s">
         <v>640</v>
       </c>
     </row>
@@ -6573,13 +6604,13 @@
         <v>3</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>18</v>
@@ -6591,10 +6622,10 @@
         <v>111</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -6605,13 +6636,13 @@
         <v>3</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>18</v>
@@ -6623,10 +6654,10 @@
         <v>112</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -6637,13 +6668,13 @@
         <v>3</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>18</v>
@@ -6655,10 +6686,13 @@
         <v>113</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>641</v>
+        <v>632</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -6669,13 +6703,13 @@
         <v>3</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>18</v>
@@ -6687,13 +6721,13 @@
         <v>114</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -6704,13 +6738,13 @@
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>18</v>
@@ -6722,13 +6756,10 @@
         <v>115</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -6739,13 +6770,13 @@
         <v>3</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>18</v>
@@ -6757,7 +6788,7 @@
         <v>116</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>641</v>
@@ -6771,13 +6802,13 @@
         <v>3</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>18</v>
@@ -6789,10 +6820,10 @@
         <v>117</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -6803,13 +6834,13 @@
         <v>3</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>18</v>
@@ -6821,10 +6852,10 @@
         <v>118</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -6835,13 +6866,13 @@
         <v>3</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>18</v>
@@ -6853,10 +6884,10 @@
         <v>119</v>
       </c>
       <c r="J88" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="K88" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -6867,13 +6898,13 @@
         <v>3</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>18</v>
@@ -6885,10 +6916,13 @@
         <v>120</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>649</v>
+        <v>634</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -6899,13 +6933,13 @@
         <v>3</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>18</v>
@@ -6917,13 +6951,10 @@
         <v>121</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -6934,7 +6965,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>17</v>
@@ -6952,10 +6983,10 @@
         <v>122</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -6966,13 +6997,13 @@
         <v>3</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>18</v>
@@ -6984,10 +7015,13 @@
         <v>123</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>651</v>
+        <v>635</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -6998,13 +7032,13 @@
         <v>3</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>18</v>
@@ -7016,7 +7050,13 @@
         <v>124</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -7027,13 +7067,13 @@
         <v>3</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>18</v>
@@ -7045,7 +7085,13 @@
         <v>125</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -7056,13 +7102,13 @@
         <v>4</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>18</v>
@@ -7074,7 +7120,7 @@
         <v>126</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -7085,13 +7131,13 @@
         <v>4</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>18</v>
@@ -7102,8 +7148,8 @@
       <c r="H96" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>655</v>
+      <c r="J96" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="N96" s="1">
         <v>401</v>
@@ -7120,13 +7166,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>18</v>
@@ -7137,8 +7183,8 @@
       <c r="H97" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>655</v>
+      <c r="J97" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="N97" s="1">
         <v>402</v>
@@ -7155,13 +7201,13 @@
         <v>4</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>18</v>
@@ -7172,8 +7218,8 @@
       <c r="H98" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>656</v>
+      <c r="J98" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="N98" s="1">
         <v>403</v>
@@ -7190,13 +7236,13 @@
         <v>4</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>18</v>
@@ -7207,8 +7253,8 @@
       <c r="H99" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>656</v>
+      <c r="J99" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -7219,13 +7265,13 @@
         <v>4</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>18</v>
@@ -7236,8 +7282,8 @@
       <c r="H100" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>657</v>
+      <c r="J100" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -7248,13 +7294,13 @@
         <v>4</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>18</v>
@@ -7265,8 +7311,8 @@
       <c r="H101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>657</v>
+      <c r="J101" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -7277,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>17</v>
@@ -7294,8 +7340,8 @@
       <c r="H102" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>658</v>
+      <c r="J102" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -7306,13 +7352,13 @@
         <v>4</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>18</v>
@@ -7323,8 +7369,8 @@
       <c r="H103" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>658</v>
+      <c r="J103" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -7335,13 +7381,13 @@
         <v>4</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>18</v>
@@ -7352,8 +7398,8 @@
       <c r="H104" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>659</v>
+      <c r="J104" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -7364,13 +7410,13 @@
         <v>4</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>18</v>
@@ -7381,8 +7427,8 @@
       <c r="H105" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>659</v>
+      <c r="J105" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -7393,13 +7439,13 @@
         <v>4</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>18</v>
@@ -7410,8 +7456,8 @@
       <c r="H106" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>655</v>
+      <c r="J106" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -7422,13 +7468,13 @@
         <v>4</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>18</v>
@@ -7439,8 +7485,8 @@
       <c r="H107" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>655</v>
+      <c r="J107" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -7451,13 +7497,13 @@
         <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>18</v>
@@ -7468,8 +7514,8 @@
       <c r="H108" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>656</v>
+      <c r="J108" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -7480,13 +7526,13 @@
         <v>4</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>18</v>
@@ -7497,8 +7543,8 @@
       <c r="H109" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>656</v>
+      <c r="J109" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -7509,13 +7555,13 @@
         <v>4</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>18</v>
@@ -7526,8 +7572,8 @@
       <c r="H110" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>657</v>
+      <c r="J110" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -7538,13 +7584,13 @@
         <v>4</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>18</v>
@@ -7555,8 +7601,8 @@
       <c r="H111" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>657</v>
+      <c r="J111" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -7567,13 +7613,13 @@
         <v>4</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>18</v>
@@ -7584,8 +7630,8 @@
       <c r="H112" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>658</v>
+      <c r="J112" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -7596,13 +7642,13 @@
         <v>4</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>18</v>
@@ -7613,8 +7659,8 @@
       <c r="H113" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>658</v>
+      <c r="J113" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -7625,13 +7671,13 @@
         <v>4</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>18</v>
@@ -7642,8 +7688,8 @@
       <c r="H114" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>659</v>
+      <c r="J114" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -7654,13 +7700,13 @@
         <v>4</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>18</v>
@@ -7671,8 +7717,8 @@
       <c r="H115" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>659</v>
+      <c r="J115" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -7683,13 +7729,13 @@
         <v>4</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>18</v>
@@ -7700,8 +7746,8 @@
       <c r="H116" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>655</v>
+      <c r="J116" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -7712,13 +7758,13 @@
         <v>4</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>18</v>
@@ -7729,8 +7775,8 @@
       <c r="H117" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>655</v>
+      <c r="J117" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -7741,13 +7787,13 @@
         <v>4</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>18</v>
@@ -7758,8 +7804,8 @@
       <c r="H118" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>656</v>
+      <c r="J118" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -7770,13 +7816,13 @@
         <v>4</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>18</v>
@@ -7787,8 +7833,8 @@
       <c r="H119" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>656</v>
+      <c r="J119" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -7799,13 +7845,13 @@
         <v>4</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>18</v>
@@ -7816,8 +7862,8 @@
       <c r="H120" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>657</v>
+      <c r="J120" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -7828,13 +7874,13 @@
         <v>4</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>18</v>
@@ -7845,8 +7891,8 @@
       <c r="H121" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>657</v>
+      <c r="J121" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -7857,13 +7903,13 @@
         <v>4</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>18</v>
@@ -7874,8 +7920,8 @@
       <c r="H122" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J122" s="1" t="s">
-        <v>658</v>
+      <c r="J122" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -7886,13 +7932,13 @@
         <v>4</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>18</v>
@@ -7904,7 +7950,10 @@
         <v>157</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -7915,13 +7964,13 @@
         <v>4</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>18</v>
@@ -7933,7 +7982,10 @@
         <v>158</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -7944,13 +7996,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>18</v>
@@ -7961,8 +8013,14 @@
       <c r="H125" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>661</v>
+      <c r="J125" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -7973,13 +8031,13 @@
         <v>5</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>18</v>
@@ -7990,11 +8048,11 @@
       <c r="H126" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>663</v>
+      <c r="J126" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -8005,13 +8063,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>18</v>
@@ -8022,11 +8080,11 @@
       <c r="H127" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J127" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>663</v>
+      <c r="J127" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -8037,13 +8095,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>18</v>
@@ -8055,10 +8113,10 @@
         <v>165</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="N128" s="1">
         <v>501</v>
@@ -8075,13 +8133,13 @@
         <v>5</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>18</v>
@@ -8093,10 +8151,10 @@
         <v>167</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>663</v>
+        <v>650</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>730</v>
       </c>
       <c r="N129" s="1">
         <v>502</v>
@@ -8113,13 +8171,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>18</v>
@@ -8131,10 +8189,10 @@
         <v>169</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>667</v>
+        <v>652</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>730</v>
       </c>
       <c r="N130" s="1">
         <v>503</v>
@@ -8151,13 +8209,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>18</v>
@@ -8169,10 +8227,10 @@
         <v>170</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="N131" s="1">
         <v>504</v>
@@ -8189,13 +8247,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>18</v>
@@ -8207,10 +8265,10 @@
         <v>171</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>667</v>
+        <v>650</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>730</v>
       </c>
       <c r="N132" s="1">
         <v>505</v>
@@ -8227,13 +8285,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>18</v>
@@ -8245,10 +8303,10 @@
         <v>172</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -8259,13 +8317,13 @@
         <v>5</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>18</v>
@@ -8277,10 +8335,10 @@
         <v>173</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -8291,13 +8349,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>18</v>
@@ -8309,10 +8367,10 @@
         <v>174</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -8323,13 +8381,13 @@
         <v>5</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>18</v>
@@ -8341,10 +8399,10 @@
         <v>175</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -8355,13 +8413,13 @@
         <v>5</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>18</v>
@@ -8373,10 +8431,10 @@
         <v>176</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -8387,13 +8445,13 @@
         <v>5</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>18</v>
@@ -8405,10 +8463,10 @@
         <v>177</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -8419,13 +8477,13 @@
         <v>5</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>18</v>
@@ -8437,10 +8495,10 @@
         <v>178</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -8451,13 +8509,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>18</v>
@@ -8469,10 +8527,10 @@
         <v>179</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -8483,13 +8541,13 @@
         <v>5</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>18</v>
@@ -8501,10 +8559,10 @@
         <v>180</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -8515,13 +8573,13 @@
         <v>5</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>18</v>
@@ -8533,10 +8591,10 @@
         <v>181</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -8547,13 +8605,13 @@
         <v>5</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>18</v>
@@ -8565,10 +8623,10 @@
         <v>182</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -8579,13 +8637,13 @@
         <v>5</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>18</v>
@@ -8597,10 +8655,10 @@
         <v>183</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -8611,13 +8669,13 @@
         <v>5</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>18</v>
@@ -8628,11 +8686,11 @@
       <c r="H145" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J145" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>668</v>
+      <c r="J145" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
@@ -8643,13 +8701,13 @@
         <v>5</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>18</v>
@@ -8661,13 +8719,13 @@
         <v>185</v>
       </c>
       <c r="J146" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K146" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K146" s="6" t="s">
-        <v>674</v>
-      </c>
       <c r="L146" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
@@ -8678,13 +8736,13 @@
         <v>5</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>18</v>
@@ -8696,13 +8754,13 @@
         <v>186</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -8713,13 +8771,13 @@
         <v>5</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>18</v>
@@ -8731,13 +8789,13 @@
         <v>187</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -8748,13 +8806,13 @@
         <v>5</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>18</v>
@@ -8766,13 +8824,13 @@
         <v>188</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -8783,13 +8841,13 @@
         <v>5</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>18</v>
@@ -8801,13 +8859,13 @@
         <v>189</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -8818,13 +8876,13 @@
         <v>5</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>18</v>
@@ -8836,13 +8894,13 @@
         <v>190</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
@@ -8853,13 +8911,13 @@
         <v>5</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>18</v>
@@ -8871,13 +8929,13 @@
         <v>191</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -8888,13 +8946,13 @@
         <v>5</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>18</v>
@@ -8906,13 +8964,13 @@
         <v>192</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -8923,13 +8981,13 @@
         <v>5</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>18</v>
@@ -8940,14 +8998,14 @@
       <c r="H154" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J154" s="1" t="s">
-        <v>662</v>
+      <c r="J154" s="6" t="s">
+        <v>661</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -8958,7 +9016,7 @@
         <v>6</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>17</v>
@@ -8976,7 +9034,13 @@
         <v>194</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -8987,7 +9051,7 @@
         <v>6</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>17</v>
@@ -9005,13 +9069,10 @@
         <v>196</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L156" s="6" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="N156" s="1">
         <v>601</v>
@@ -9028,7 +9089,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>17</v>
@@ -9046,10 +9107,10 @@
         <v>198</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N157" s="1">
         <v>602</v>
@@ -9066,7 +9127,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>17</v>
@@ -9084,10 +9145,10 @@
         <v>200</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="N158" s="1">
         <v>603</v>
@@ -9104,7 +9165,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>17</v>
@@ -9122,10 +9183,10 @@
         <v>202</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="N159" s="1">
         <v>604</v>
@@ -9142,7 +9203,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>17</v>
@@ -9160,10 +9221,10 @@
         <v>204</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="N160" s="1">
         <v>605</v>
@@ -9180,7 +9241,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>17</v>
@@ -9198,10 +9259,10 @@
         <v>205</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -9212,7 +9273,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>17</v>
@@ -9230,10 +9291,10 @@
         <v>206</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -9244,7 +9305,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>17</v>
@@ -9262,10 +9323,13 @@
         <v>207</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>679</v>
+        <v>664</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -9276,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>17</v>
@@ -9294,13 +9358,10 @@
         <v>208</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L164" s="6" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -9311,7 +9372,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>17</v>
@@ -9329,10 +9390,10 @@
         <v>209</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -9343,7 +9404,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>17</v>
@@ -9361,10 +9422,10 @@
         <v>210</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -9375,7 +9436,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>17</v>
@@ -9393,10 +9454,10 @@
         <v>211</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -9407,13 +9468,13 @@
         <v>6</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>18</v>
@@ -9425,10 +9486,13 @@
         <v>212</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>679</v>
+        <v>664</v>
+      </c>
+      <c r="L168" s="6" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -9439,13 +9503,13 @@
         <v>6</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>18</v>
@@ -9457,13 +9521,10 @@
         <v>213</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="K169" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="L169" s="6" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -9474,13 +9535,13 @@
         <v>6</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>18</v>
@@ -9492,10 +9553,10 @@
         <v>214</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -9506,13 +9567,13 @@
         <v>6</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>18</v>
@@ -9524,10 +9585,10 @@
         <v>215</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -9538,13 +9599,13 @@
         <v>6</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>18</v>
@@ -9556,10 +9617,13 @@
         <v>216</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>684</v>
+        <v>672</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -9570,13 +9634,13 @@
         <v>6</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>18</v>
@@ -9588,13 +9652,13 @@
         <v>217</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -9605,13 +9669,13 @@
         <v>6</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>18</v>
@@ -9623,12 +9687,9 @@
         <v>218</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L174" s="6" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9640,13 +9701,13 @@
         <v>6</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>18</v>
@@ -9658,10 +9719,10 @@
         <v>219</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -9672,13 +9733,13 @@
         <v>6</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>18</v>
@@ -9690,10 +9751,10 @@
         <v>220</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -9704,13 +9765,13 @@
         <v>6</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>18</v>
@@ -9722,10 +9783,10 @@
         <v>221</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
@@ -9736,13 +9797,13 @@
         <v>6</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>18</v>
@@ -9754,10 +9815,10 @@
         <v>222</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
@@ -9768,13 +9829,13 @@
         <v>6</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>18</v>
@@ -9786,10 +9847,13 @@
         <v>223</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>691</v>
+        <v>663</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -9800,13 +9864,13 @@
         <v>6</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>18</v>
@@ -9818,13 +9882,10 @@
         <v>224</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L180" s="6" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -9835,13 +9896,13 @@
         <v>6</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>18</v>
@@ -9853,10 +9914,10 @@
         <v>225</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
@@ -9867,13 +9928,13 @@
         <v>6</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>18</v>
@@ -9885,10 +9946,13 @@
         <v>226</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>691</v>
+        <v>663</v>
+      </c>
+      <c r="L182" s="6" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -9899,13 +9963,13 @@
         <v>6</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>18</v>
@@ -9920,10 +9984,10 @@
         <v>680</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
@@ -9934,13 +9998,13 @@
         <v>6</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>18</v>
@@ -9952,7 +10016,13 @@
         <v>228</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>692</v>
+        <v>731</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L184" s="6" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -9963,13 +10033,13 @@
         <v>7</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>18</v>
@@ -9981,7 +10051,7 @@
         <v>229</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
@@ -9992,13 +10062,13 @@
         <v>7</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>18</v>
@@ -10010,7 +10080,7 @@
         <v>231</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="N186" s="1">
         <v>701</v>
@@ -10027,13 +10097,13 @@
         <v>7</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>18</v>
@@ -10045,7 +10115,7 @@
         <v>233</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N187" s="1">
         <v>702</v>
@@ -10062,13 +10132,13 @@
         <v>7</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>18</v>
@@ -10080,7 +10150,7 @@
         <v>235</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="N188" s="1">
         <v>703</v>
@@ -10097,13 +10167,13 @@
         <v>7</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>18</v>
@@ -10115,7 +10185,13 @@
         <v>237</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>697</v>
+        <v>687</v>
+      </c>
+      <c r="K189" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="L189" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="N189" s="1">
         <v>704</v>
@@ -10132,13 +10208,13 @@
         <v>7</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>18</v>
@@ -10150,13 +10226,13 @@
         <v>239</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L190" s="6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="N190" s="1">
         <v>705</v>
@@ -10173,13 +10249,13 @@
         <v>7</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>18</v>
@@ -10191,13 +10267,13 @@
         <v>241</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="N191" s="1">
         <v>706</v>
@@ -10214,13 +10290,13 @@
         <v>7</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>18</v>
@@ -10232,13 +10308,13 @@
         <v>242</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -10249,13 +10325,13 @@
         <v>7</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>18</v>
@@ -10267,13 +10343,13 @@
         <v>243</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -10284,13 +10360,13 @@
         <v>7</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>18</v>
@@ -10302,13 +10378,13 @@
         <v>244</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -10319,13 +10395,13 @@
         <v>7</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>18</v>
@@ -10337,13 +10413,13 @@
         <v>245</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -10354,13 +10430,13 @@
         <v>7</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>18</v>
@@ -10372,13 +10448,7 @@
         <v>246</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="K196" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="L196" s="6" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -10389,13 +10459,13 @@
         <v>7</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>18</v>
@@ -10407,7 +10477,7 @@
         <v>247</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -10418,13 +10488,13 @@
         <v>7</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>18</v>
@@ -10436,7 +10506,7 @@
         <v>248</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -10447,13 +10517,13 @@
         <v>7</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>18</v>
@@ -10465,7 +10535,13 @@
         <v>249</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>707</v>
+        <v>686</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -10476,13 +10552,13 @@
         <v>7</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>18</v>
@@ -10494,13 +10570,13 @@
         <v>250</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -10511,13 +10587,13 @@
         <v>7</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>18</v>
@@ -10529,13 +10605,13 @@
         <v>251</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -10546,13 +10622,13 @@
         <v>7</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>18</v>
@@ -10564,13 +10640,13 @@
         <v>252</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -10581,13 +10657,13 @@
         <v>7</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>18</v>
@@ -10602,10 +10678,10 @@
         <v>694</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -10616,13 +10692,13 @@
         <v>7</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>18</v>
@@ -10634,7 +10710,13 @@
         <v>254</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>708</v>
+        <v>694</v>
+      </c>
+      <c r="K204" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="L204" s="6" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -10645,13 +10727,13 @@
         <v>7</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>18</v>
@@ -10663,10 +10745,13 @@
         <v>255</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>701</v>
+        <v>695</v>
+      </c>
+      <c r="L205" s="6" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -10677,13 +10762,13 @@
         <v>7</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>18</v>
@@ -10695,10 +10780,7 @@
         <v>256</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="K206" s="6" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -10709,13 +10791,13 @@
         <v>7</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>18</v>
@@ -10727,7 +10809,7 @@
         <v>257</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -10738,13 +10820,13 @@
         <v>7</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>18</v>
@@ -10756,7 +10838,10 @@
         <v>258</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>706</v>
+        <v>689</v>
+      </c>
+      <c r="K208" s="6" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
@@ -10767,13 +10852,13 @@
         <v>7</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>18</v>
@@ -10785,10 +10870,10 @@
         <v>259</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
@@ -10799,13 +10884,13 @@
         <v>7</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>18</v>
@@ -10817,10 +10902,13 @@
         <v>260</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>710</v>
+        <v>695</v>
+      </c>
+      <c r="L210" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
@@ -10831,13 +10919,13 @@
         <v>7</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>18</v>
@@ -10849,13 +10937,10 @@
         <v>261</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="L211" s="6" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
@@ -10866,13 +10951,13 @@
         <v>7</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>18</v>
@@ -10884,7 +10969,19 @@
         <v>262</v>
       </c>
       <c r="J212" s="6" t="s">
-        <v>711</v>
+        <v>694</v>
+      </c>
+      <c r="K212" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L212" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="M212" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="N212" s="6" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
@@ -10895,13 +10992,13 @@
         <v>7</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>18</v>
@@ -10913,10 +11010,16 @@
         <v>263</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="K213" s="6" t="s">
-        <v>711</v>
+        <v>689</v>
+      </c>
+      <c r="L213" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="M213" s="6" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
@@ -10927,13 +11030,13 @@
         <v>7</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>18</v>
@@ -10945,7 +11048,19 @@
         <v>264</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>712</v>
+        <v>697</v>
+      </c>
+      <c r="K214" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="L214" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="M214" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="N214" s="6" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
@@ -10956,13 +11071,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>18</v>
@@ -10974,7 +11089,7 @@
         <v>265</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
@@ -10985,13 +11100,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>18</v>
@@ -11003,7 +11118,7 @@
         <v>267</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="O216" s="1">
         <v>801</v>
@@ -11020,13 +11135,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>18</v>
@@ -11038,7 +11153,10 @@
         <v>269</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>716</v>
+        <v>737</v>
+      </c>
+      <c r="K217" s="6" t="s">
+        <v>738</v>
       </c>
       <c r="O217" s="1">
         <v>802</v>
@@ -11055,13 +11173,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>18</v>
@@ -11073,10 +11191,13 @@
         <v>271</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="K218" s="6" t="s">
-        <v>716</v>
+        <v>737</v>
+      </c>
+      <c r="L218" s="6" t="s">
+        <v>739</v>
       </c>
       <c r="O218" s="1">
         <v>803</v>
@@ -11093,13 +11214,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>18</v>
@@ -11111,7 +11232,16 @@
         <v>273</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>717</v>
+        <v>701</v>
+      </c>
+      <c r="K219" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="L219" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="M219" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="O219" s="1">
         <v>804</v>
@@ -11128,13 +11258,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>18</v>
@@ -11146,16 +11276,13 @@
         <v>275</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="L220" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="M220" s="6" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="O220" s="1">
         <v>805</v>
@@ -11172,13 +11299,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>18</v>
@@ -11190,7 +11317,16 @@
         <v>277</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>718</v>
+        <v>702</v>
+      </c>
+      <c r="K221" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="L221" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="M221" s="6" t="s">
+        <v>739</v>
       </c>
       <c r="O221" s="1">
         <v>806</v>
@@ -11207,13 +11343,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>18</v>
@@ -11225,13 +11361,13 @@
         <v>278</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="O222" s="1">
         <v>9901</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
@@ -11242,13 +11378,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>18</v>
@@ -11260,13 +11396,13 @@
         <v>279</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="O223" s="1">
         <v>9902</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
@@ -11277,13 +11413,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>18</v>
@@ -11295,13 +11431,16 @@
         <v>280</v>
       </c>
       <c r="J224" s="6" t="s">
-        <v>721</v>
+        <v>704</v>
+      </c>
+      <c r="K224" s="6" t="s">
+        <v>707</v>
       </c>
       <c r="O224" s="1">
         <v>9903</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -11312,13 +11451,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>18</v>
@@ -11330,7 +11469,10 @@
         <v>281</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>723</v>
+        <v>742</v>
+      </c>
+      <c r="K225" s="6" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -11341,13 +11483,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>18</v>
@@ -11359,10 +11501,10 @@
         <v>282</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -11373,13 +11515,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>18</v>
@@ -11391,10 +11533,10 @@
         <v>283</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -11405,13 +11547,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>18</v>
@@ -11423,10 +11565,10 @@
         <v>284</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -11437,13 +11579,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>18</v>
@@ -11455,10 +11597,10 @@
         <v>285</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -11469,13 +11611,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>18</v>
@@ -11487,10 +11629,10 @@
         <v>286</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -11501,13 +11643,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>18</v>
@@ -11519,11 +11661,9 @@
         <v>287</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="K231" s="6" t="s">
-        <v>722</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="K231" s="6"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
@@ -11533,13 +11673,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>18</v>
@@ -11551,9 +11691,8 @@
         <v>288</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="K232" s="6"/>
+        <v>745</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
@@ -11563,13 +11702,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>18</v>
@@ -11581,7 +11720,7 @@
         <v>289</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -11592,13 +11731,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>18</v>
@@ -11610,7 +11749,13 @@
         <v>290</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>729</v>
+        <v>702</v>
+      </c>
+      <c r="K234" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="L234" s="6" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -11621,13 +11766,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>18</v>
@@ -11639,13 +11784,13 @@
         <v>291</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="L235" s="6" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -11656,13 +11801,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>18</v>
@@ -11674,13 +11819,13 @@
         <v>292</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="L236" s="6" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -11691,13 +11836,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>18</v>
@@ -11709,13 +11854,13 @@
         <v>293</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="K237" s="6" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="L237" s="6" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -11726,13 +11871,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>18</v>
@@ -11744,13 +11889,13 @@
         <v>294</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="L238" s="6" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -11761,13 +11906,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>18</v>
@@ -11779,13 +11924,13 @@
         <v>295</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="L239" s="6" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -11796,13 +11941,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>18</v>
@@ -11814,10 +11959,16 @@
         <v>296</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="K240" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="L240" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>827</v>
       </c>
@@ -11825,13 +11976,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>18</v>
@@ -11843,10 +11994,16 @@
         <v>297</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="K241" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="L241" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>828</v>
       </c>
@@ -11854,13 +12011,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>18</v>
@@ -11872,10 +12029,16 @@
         <v>298</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="K242" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="L242" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>829</v>
       </c>
@@ -11883,13 +12046,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>18</v>
@@ -11901,10 +12064,16 @@
         <v>299</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+      <c r="K243" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="L243" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>830</v>
       </c>
@@ -11912,13 +12081,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>18</v>
@@ -11930,12 +12099,13 @@
         <v>300</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J245" s="6" t="s">
-        <v>734</v>
+        <v>716</v>
+      </c>
+      <c r="K244" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="L244" s="6" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -11949,7 +12119,7 @@
   <conditionalFormatting sqref="J32:K32">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J91:K91">
+  <conditionalFormatting sqref="J90:K90">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="970">
   <si>
     <t>ID</t>
   </si>
@@ -309,7 +309,7 @@
     <t>丐帮切磋11</t>
   </si>
   <si>
-    <t>gaibang3;</t>
+    <t>gaibang3</t>
   </si>
   <si>
     <t>104|2|4970;105|2|4970;106|1|4970</t>
@@ -420,9 +420,6 @@
     <t>丐帮切磋23</t>
   </si>
   <si>
-    <t>gaibang3</t>
-  </si>
-  <si>
     <t>104|2|9812;105|2|9812;106|1|9812</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>日暮时分，弟子们看见了不远处的丐帮总舵，还有眼前这一群拦路乞丐。</t>
+  </si>
+  <si>
+    <t>丐帮切磋26</t>
   </si>
   <si>
     <r>
@@ -3961,12 +3961,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3983,39 +3983,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4027,14 +4003,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4056,7 +4032,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4071,17 +4055,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4095,8 +4070,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4110,8 +4100,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4125,15 +4116,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4150,7 +4143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4177,7 +4170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4189,25 +4188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4219,7 +4200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4243,7 +4230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4255,7 +4242,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4273,43 +4320,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4321,43 +4344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4420,22 +4407,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4458,17 +4439,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4489,10 +4476,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4501,137 +4488,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4645,16 +4632,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5020,26 +5004,26 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.33333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.3727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1272727272727" style="1" customWidth="1"/>
     <col min="9" max="14" width="9" style="1"/>
     <col min="16" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="93.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="93.7545454545455" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5065,7 +5049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -5091,7 +5075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -5117,7 +5101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="14.25" spans="1:19">
+    <row r="4" s="3" customFormat="1" ht="13.5" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -5171,13 +5155,13 @@
       <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="1">
@@ -5186,7 +5170,7 @@
       <c r="Q5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="7" t="str">
+      <c r="S5" s="6" t="str">
         <f>J5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(K5="","",";"&amp;K5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(L5="","",";"&amp;L5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(M5="","",";"&amp;M5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(N5="","",";"&amp;N5&amp;"|"&amp;ROUND(G5/5,0)))))</f>
         <v>104|3|2664;105|1|2664;106|1|2664</v>
       </c>
@@ -5216,13 +5200,13 @@
       <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="1">
@@ -5231,7 +5215,7 @@
       <c r="Q6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="7" t="str">
+      <c r="S6" s="6" t="str">
         <f t="shared" ref="S6:S69" si="0">J6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(K6="","",";"&amp;K6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(L6="","",";"&amp;L6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(M6="","",";"&amp;M6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(N6="","",";"&amp;N6&amp;"|"&amp;ROUND(G6/5,0)))))</f>
         <v>104|3|2820;105|1|2820;106|1|2820</v>
       </c>
@@ -5261,10 +5245,10 @@
       <c r="H7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="1">
@@ -5273,7 +5257,7 @@
       <c r="Q7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="7" t="str">
+      <c r="S7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|3|2984;106|2|2984</v>
       </c>
@@ -5303,10 +5287,10 @@
       <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="1">
@@ -5315,7 +5299,7 @@
       <c r="Q8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S8" s="7" t="str">
+      <c r="S8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|3158;105|2|3158</v>
       </c>
@@ -5345,10 +5329,10 @@
       <c r="H9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P9" s="1">
@@ -5357,7 +5341,7 @@
       <c r="Q9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="7" t="str">
+      <c r="S9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|3342;105|2|3342</v>
       </c>
@@ -5387,10 +5371,10 @@
       <c r="H10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P10" s="1">
@@ -5399,7 +5383,7 @@
       <c r="Q10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S10" s="7" t="str">
+      <c r="S10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|2|3537;106|3|3537</v>
       </c>
@@ -5429,13 +5413,13 @@
       <c r="H11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="7" t="str">
+      <c r="S11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|2|3743;106|3|3743</v>
       </c>
@@ -5465,13 +5449,13 @@
       <c r="H12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="7" t="str">
+      <c r="S12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|2|3962;106|3|3962</v>
       </c>
@@ -5501,13 +5485,13 @@
       <c r="H13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S13" s="7" t="str">
+      <c r="S13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|2|4193;105|3|4193</v>
       </c>
@@ -5537,13 +5521,13 @@
       <c r="H14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="7" t="str">
+      <c r="S14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|4|4437;106|1|4437</v>
       </c>
@@ -5573,13 +5557,13 @@
       <c r="H15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="7" t="str">
+      <c r="S15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|4696;105|2|4696</v>
       </c>
@@ -5609,16 +5593,16 @@
       <c r="H16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="7" t="str">
+      <c r="S16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|2|4970;105|2|4970;106|1|4970</v>
       </c>
@@ -5648,13 +5632,13 @@
       <c r="H17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="7" t="str">
+      <c r="S17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|3|5260;106|2|5260</v>
       </c>
@@ -5684,13 +5668,13 @@
       <c r="H18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="7" t="str">
+      <c r="S18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|5567;106|2|5567</v>
       </c>
@@ -5720,13 +5704,13 @@
       <c r="H19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="7" t="str">
+      <c r="S19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|5891;105|2|5891</v>
       </c>
@@ -5756,13 +5740,13 @@
       <c r="H20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="7" t="str">
+      <c r="S20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|6235;106|2|6235</v>
       </c>
@@ -5792,13 +5776,13 @@
       <c r="H21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="7" t="str">
+      <c r="S21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|3|6598;106|2|6598</v>
       </c>
@@ -5828,16 +5812,16 @@
       <c r="H22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="7" t="str">
+      <c r="S22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|2|6983;105|2|6983;106|1|6983</v>
       </c>
@@ -5867,13 +5851,13 @@
       <c r="H23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="7" t="str">
+      <c r="S23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|3|7390;106|2|7390</v>
       </c>
@@ -5903,13 +5887,13 @@
       <c r="H24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="7" t="str">
+      <c r="S24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|7821;105|2|7821</v>
       </c>
@@ -5939,13 +5923,13 @@
       <c r="H25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S25" s="7" t="str">
+      <c r="S25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|8278;106|2|8278</v>
       </c>
@@ -5975,13 +5959,13 @@
       <c r="H26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S26" s="7" t="str">
+      <c r="S26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|3|8760;106|2|8760</v>
       </c>
@@ -6011,13 +5995,13 @@
       <c r="H27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S27" s="7" t="str">
+      <c r="S27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|9271;105|2|9271</v>
       </c>
@@ -6030,13 +6014,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>23</v>
@@ -6045,18 +6029,18 @@
         <v>49061</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S28" s="7" t="str">
+      <c r="S28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|2|9812;105|2|9812;106|1|9812</v>
       </c>
@@ -6072,10 +6056,10 @@
         <v>33</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>23</v>
@@ -6084,15 +6068,15 @@
         <v>51922</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S29" s="7" t="str">
+      <c r="S29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>105|3|10384;106|2|10384</v>
       </c>
@@ -6105,26 +6089,32 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="4">
+        <v>51922</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="S30" s="7" t="str">
+      <c r="S30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|0;106|2|0</v>
+        <v>104|3|10384;106|2|10384</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -6152,13 +6142,13 @@
       <c r="H31" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="7" t="str">
+      <c r="S31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|11631;106|2|11631</v>
       </c>
@@ -6188,13 +6178,13 @@
       <c r="H32" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S32" s="7" t="str">
+      <c r="S32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>104|3|12309;105|2|12309</v>
       </c>
@@ -6224,19 +6214,19 @@
       <c r="H33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S33" s="7" t="str">
+      <c r="S33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>103|1|13027;104|2|13027;105|1|13027;106|1|13027</v>
       </c>
@@ -6266,19 +6256,19 @@
       <c r="H34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S34" s="7" t="str">
+      <c r="S34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>102|1|13787;104|2|13787;105|1|13787;106|1|13787</v>
       </c>
@@ -6290,13 +6280,13 @@
       <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -6308,7 +6298,7 @@
       <c r="H35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="2" t="s">
         <v>139</v>
       </c>
       <c r="P35" s="1">
@@ -6317,7 +6307,7 @@
       <c r="Q35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="S35" s="7" t="str">
+      <c r="S35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|5|7256</v>
       </c>
@@ -6329,13 +6319,13 @@
       <c r="B36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -6347,7 +6337,7 @@
       <c r="H36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="2" t="s">
         <v>139</v>
       </c>
       <c r="P36" s="1">
@@ -6356,7 +6346,7 @@
       <c r="Q36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S36" s="7" t="str">
+      <c r="S36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|5|7872</v>
       </c>
@@ -6368,13 +6358,13 @@
       <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -6386,10 +6376,10 @@
       <c r="H37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="2" t="s">
         <v>150</v>
       </c>
       <c r="P37" s="1">
@@ -6398,7 +6388,7 @@
       <c r="Q37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="S37" s="7" t="str">
+      <c r="S37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>205|2|8541;204|3|8541</v>
       </c>
@@ -6410,13 +6400,13 @@
       <c r="B38" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -6428,7 +6418,7 @@
       <c r="H38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="2" t="s">
         <v>155</v>
       </c>
       <c r="P38" s="1">
@@ -6437,7 +6427,7 @@
       <c r="Q38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S38" s="7" t="str">
+      <c r="S38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>205|5|9267</v>
       </c>
@@ -6449,13 +6439,13 @@
       <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -6467,10 +6457,10 @@
       <c r="H39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="2" t="s">
         <v>161</v>
       </c>
       <c r="P39" s="1">
@@ -6479,7 +6469,7 @@
       <c r="Q39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S39" s="7" t="str">
+      <c r="S39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>205|4|10055;204|1|10055</v>
       </c>
@@ -6491,13 +6481,13 @@
       <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -6509,10 +6499,10 @@
       <c r="H40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="2" t="s">
         <v>168</v>
       </c>
       <c r="P40" s="1">
@@ -6521,7 +6511,7 @@
       <c r="Q40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="S40" s="7" t="str">
+      <c r="S40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|4|10909;206|1|10909</v>
       </c>
@@ -6533,13 +6523,13 @@
       <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -6551,13 +6541,13 @@
       <c r="H41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="S41" s="7" t="str">
+      <c r="S41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|2|11837;205|3|11837</v>
       </c>
@@ -6569,13 +6559,13 @@
       <c r="B42" s="1">
         <v>2</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -6587,13 +6577,13 @@
       <c r="H42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="S42" s="7" t="str">
+      <c r="S42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|4|12843;205|1|12843</v>
       </c>
@@ -6605,13 +6595,13 @@
       <c r="B43" s="1">
         <v>2</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -6623,13 +6613,13 @@
       <c r="H43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="S43" s="7" t="str">
+      <c r="S43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|3|13934;205|2|13934</v>
       </c>
@@ -6647,7 +6637,7 @@
       <c r="D44" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -6659,13 +6649,13 @@
       <c r="H44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="S44" s="7" t="str">
+      <c r="S44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|3|15118;205|2|15118</v>
       </c>
@@ -6677,13 +6667,13 @@
       <c r="B45" s="1">
         <v>2</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -6695,13 +6685,13 @@
       <c r="H45" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="S45" s="7" t="str">
+      <c r="S45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|3|16403;205|2|16403</v>
       </c>
@@ -6713,13 +6703,13 @@
       <c r="B46" s="1">
         <v>2</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -6731,10 +6721,10 @@
       <c r="H46" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S46" s="7" t="str">
+      <c r="S46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>206|5|17797</v>
       </c>
@@ -6746,13 +6736,13 @@
       <c r="B47" s="1">
         <v>2</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -6764,16 +6754,16 @@
       <c r="H47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="S47" s="7" t="str">
+      <c r="S47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|2|19310;205|2|19310;206|1|19310</v>
       </c>
@@ -6785,13 +6775,13 @@
       <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -6803,10 +6793,10 @@
       <c r="H48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S48" s="7" t="str">
+      <c r="S48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|5|20951</v>
       </c>
@@ -6818,13 +6808,13 @@
       <c r="B49" s="1">
         <v>2</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -6836,10 +6826,10 @@
       <c r="H49" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="S49" s="7" t="str">
+      <c r="S49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>205|5|22731</v>
       </c>
@@ -6851,13 +6841,13 @@
       <c r="B50" s="1">
         <v>2</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -6869,10 +6859,10 @@
       <c r="H50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S50" s="7" t="str">
+      <c r="S50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|5|24663</v>
       </c>
@@ -6884,13 +6874,13 @@
       <c r="B51" s="1">
         <v>2</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -6902,10 +6892,10 @@
       <c r="H51" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S51" s="7" t="str">
+      <c r="S51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|5|26759</v>
       </c>
@@ -6917,13 +6907,13 @@
       <c r="B52" s="1">
         <v>2</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -6935,10 +6925,10 @@
       <c r="H52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="S52" s="7" t="str">
+      <c r="S52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>205|5|29033</v>
       </c>
@@ -6950,13 +6940,13 @@
       <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -6968,10 +6958,10 @@
       <c r="H53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S53" s="7" t="str">
+      <c r="S53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>206|5|31501</v>
       </c>
@@ -6983,13 +6973,13 @@
       <c r="B54" s="1">
         <v>2</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -7001,16 +6991,16 @@
       <c r="H54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="S54" s="7" t="str">
+      <c r="S54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>203|1|34178;204|2|34178;205|2|34178</v>
       </c>
@@ -7022,13 +7012,13 @@
       <c r="B55" s="1">
         <v>2</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -7040,16 +7030,16 @@
       <c r="H55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K55" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="S55" s="7" t="str">
+      <c r="S55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>203|1|37083;205|2|37083;206|2|37083</v>
       </c>
@@ -7061,13 +7051,13 @@
       <c r="B56" s="1">
         <v>2</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -7079,13 +7069,13 @@
       <c r="H56" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="S56" s="7" t="str">
+      <c r="S56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|4|40234;203|1|40234</v>
       </c>
@@ -7097,13 +7087,13 @@
       <c r="B57" s="1">
         <v>2</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -7115,13 +7105,13 @@
       <c r="H57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="S57" s="7" t="str">
+      <c r="S57" s="6" t="str">
         <f t="shared" si="0"/>
         <v>202|1|43654;204|4|43654</v>
       </c>
@@ -7133,13 +7123,13 @@
       <c r="B58" s="1">
         <v>2</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -7151,13 +7141,13 @@
       <c r="H58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K58" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S58" s="7" t="str">
+      <c r="S58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>202|1|47364;205|4|47364</v>
       </c>
@@ -7169,13 +7159,13 @@
       <c r="B59" s="1">
         <v>2</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -7187,16 +7177,16 @@
       <c r="H59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="S59" s="7" t="str">
+      <c r="S59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|2|51389;205|2|51389;206|1|51389</v>
       </c>
@@ -7208,13 +7198,13 @@
       <c r="B60" s="1">
         <v>2</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -7226,16 +7216,16 @@
       <c r="H60" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K60" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L60" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="S60" s="7" t="str">
+      <c r="S60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|2|55756;205|2|55756;206|1|55756</v>
       </c>
@@ -7247,13 +7237,13 @@
       <c r="B61" s="1">
         <v>2</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -7265,16 +7255,16 @@
       <c r="H61" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K61" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L61" s="6" t="s">
+      <c r="L61" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="S61" s="7" t="str">
+      <c r="S61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>204|2|60495;205|2|60495;206|1|60495</v>
       </c>
@@ -7286,13 +7276,13 @@
       <c r="B62" s="1">
         <v>2</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -7304,10 +7294,10 @@
       <c r="H62" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S62" s="7" t="str">
+      <c r="S62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>206|5|65636</v>
       </c>
@@ -7319,13 +7309,13 @@
       <c r="B63" s="1">
         <v>2</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -7337,13 +7327,13 @@
       <c r="H63" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="K63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S63" s="7" t="str">
+      <c r="S63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>201|1|71215;205|4|71215</v>
       </c>
@@ -7355,13 +7345,13 @@
       <c r="B64" s="1">
         <v>2</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -7373,13 +7363,13 @@
       <c r="H64" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K64" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S64" s="7" t="str">
+      <c r="S64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>201|1|77268;206|4|77268</v>
       </c>
@@ -7409,16 +7399,16 @@
       <c r="H65" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="K65" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L65" s="6" t="s">
+      <c r="L65" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S65" s="7" t="str">
+      <c r="S65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>304|2|31344;305|2|31344;306|1|31344</v>
       </c>
@@ -7448,10 +7438,10 @@
       <c r="H66" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K66" s="6" t="s">
+      <c r="K66" s="2" t="s">
         <v>263</v>
       </c>
       <c r="P66" s="1">
@@ -7460,7 +7450,7 @@
       <c r="Q66" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="S66" s="7" t="str">
+      <c r="S66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>304|3|34424;305|2|34424</v>
       </c>
@@ -7490,10 +7480,10 @@
       <c r="H67" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K67" s="2" t="s">
         <v>276</v>
       </c>
       <c r="P67" s="1">
@@ -7502,7 +7492,7 @@
       <c r="Q67" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="S67" s="7" t="str">
+      <c r="S67" s="6" t="str">
         <f t="shared" si="0"/>
         <v>305|3|37806;306|2|37806</v>
       </c>
@@ -7532,10 +7522,10 @@
       <c r="H68" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K68" s="2" t="s">
         <v>276</v>
       </c>
       <c r="P68" s="1">
@@ -7544,7 +7534,7 @@
       <c r="Q68" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="S68" s="7" t="str">
+      <c r="S68" s="6" t="str">
         <f t="shared" si="0"/>
         <v>304|3|41521;306|2|41521</v>
       </c>
@@ -7574,10 +7564,10 @@
       <c r="H69" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="J69" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" s="2" t="s">
         <v>276</v>
       </c>
       <c r="P69" s="1">
@@ -7586,7 +7576,7 @@
       <c r="Q69" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="S69" s="7" t="str">
+      <c r="S69" s="6" t="str">
         <f t="shared" si="0"/>
         <v>305|3|45600;306|2|45600</v>
       </c>
@@ -7616,10 +7606,10 @@
       <c r="H70" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="2" t="s">
         <v>276</v>
       </c>
       <c r="P70" s="1">
@@ -7628,7 +7618,7 @@
       <c r="Q70" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="S70" s="7" t="str">
+      <c r="S70" s="6" t="str">
         <f t="shared" ref="S70:S133" si="1">J70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(K70="","",";"&amp;K70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(L70="","",";"&amp;L70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(M70="","",";"&amp;M70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(N70="","",";"&amp;N70&amp;"|"&amp;ROUND(G70/5,0)))))</f>
         <v>305|3|50081;306|2|50081</v>
       </c>
@@ -7658,10 +7648,10 @@
       <c r="H71" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J71" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="2" t="s">
         <v>294</v>
       </c>
       <c r="P71" s="1">
@@ -7670,7 +7660,7 @@
       <c r="Q71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="S71" s="7" t="str">
+      <c r="S71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|4|55002;305|1|55002</v>
       </c>
@@ -7700,13 +7690,13 @@
       <c r="H72" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J72" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S72" s="7" t="str">
+      <c r="S72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|4|60406;306|1|60406</v>
       </c>
@@ -7736,16 +7726,16 @@
       <c r="H73" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J73" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L73" s="6" t="s">
+      <c r="L73" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S73" s="7" t="str">
+      <c r="S73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|2|66341;305|2|66341;306|1|66341</v>
       </c>
@@ -7775,13 +7765,13 @@
       <c r="H74" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J74" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="K74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="S74" s="7" t="str">
+      <c r="S74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|4|72860;305|1|72860</v>
       </c>
@@ -7811,13 +7801,13 @@
       <c r="H75" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S75" s="7" t="str">
+      <c r="S75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>305|4|80019;306|1|80019</v>
       </c>
@@ -7847,13 +7837,13 @@
       <c r="H76" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J76" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K76" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="S76" s="7" t="str">
+      <c r="S76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|4|87881;305|1|87881</v>
       </c>
@@ -7883,13 +7873,13 @@
       <c r="H77" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J77" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="K77" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S77" s="7" t="str">
+      <c r="S77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|4|96516;306|1|96516</v>
       </c>
@@ -7919,16 +7909,16 @@
       <c r="H78" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="J78" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K78" s="6" t="s">
+      <c r="K78" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L78" s="6" t="s">
+      <c r="L78" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S78" s="7" t="str">
+      <c r="S78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|2|105999;305|2|105999;306|1|105999</v>
       </c>
@@ -7958,13 +7948,13 @@
       <c r="H79" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J79" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="6" t="s">
+      <c r="K79" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="S79" s="7" t="str">
+      <c r="S79" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|3|116414;306|2|116414</v>
       </c>
@@ -7994,13 +7984,13 @@
       <c r="H80" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J80" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K80" s="6" t="s">
+      <c r="K80" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="S80" s="7" t="str">
+      <c r="S80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>305|3|127852;306|2|127852</v>
       </c>
@@ -8030,13 +8020,13 @@
       <c r="H81" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="J81" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K81" s="6" t="s">
+      <c r="K81" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S81" s="7" t="str">
+      <c r="S81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|3|140415;305|2|140415</v>
       </c>
@@ -8066,16 +8056,16 @@
       <c r="H82" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="J82" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K82" s="6" t="s">
+      <c r="K82" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L82" s="6" t="s">
+      <c r="L82" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S82" s="7" t="str">
+      <c r="S82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|3|154211;305|1|154211;306|1|154211</v>
       </c>
@@ -8105,16 +8095,16 @@
       <c r="H83" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="J83" s="6" t="s">
+      <c r="J83" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K83" s="6" t="s">
+      <c r="K83" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L83" s="6" t="s">
+      <c r="L83" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S83" s="7" t="str">
+      <c r="S83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|2|169363;305|2|169363;306|1|169363</v>
       </c>
@@ -8144,13 +8134,13 @@
       <c r="H84" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J84" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K84" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S84" s="7" t="str">
+      <c r="S84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|3|186004;305|2|186004</v>
       </c>
@@ -8180,13 +8170,13 @@
       <c r="H85" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J85" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="K85" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="S85" s="7" t="str">
+      <c r="S85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|3|204280;306|2|204280</v>
       </c>
@@ -8216,13 +8206,13 @@
       <c r="H86" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="K86" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="S86" s="7" t="str">
+      <c r="S86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>305|3|224352;306|2|224352</v>
       </c>
@@ -8252,13 +8242,13 @@
       <c r="H87" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="J87" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K87" s="6" t="s">
+      <c r="K87" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="S87" s="7" t="str">
+      <c r="S87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|2|246396;305|3|246396</v>
       </c>
@@ -8288,13 +8278,13 @@
       <c r="H88" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="J88" s="6" t="s">
+      <c r="J88" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K88" s="6" t="s">
+      <c r="K88" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="S88" s="7" t="str">
+      <c r="S88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|2|270606;306|3|270606</v>
       </c>
@@ -8324,16 +8314,16 @@
       <c r="H89" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="J89" s="6" t="s">
+      <c r="J89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K89" s="6" t="s">
+      <c r="K89" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L89" s="6" t="s">
+      <c r="L89" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S89" s="7" t="str">
+      <c r="S89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|2|297195;305|2|297195;306|1|297195</v>
       </c>
@@ -8363,13 +8353,13 @@
       <c r="H90" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="J90" s="6" t="s">
+      <c r="J90" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K90" s="6" t="s">
+      <c r="K90" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="S90" s="7" t="str">
+      <c r="S90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>305|2|326396;306|3|326396</v>
       </c>
@@ -8399,13 +8389,13 @@
       <c r="H91" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="J91" s="6" t="s">
+      <c r="J91" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K91" s="6" t="s">
+      <c r="K91" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="S91" s="7" t="str">
+      <c r="S91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>304|2|358467;305|3|358467</v>
       </c>
@@ -8435,16 +8425,16 @@
       <c r="H92" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="J92" s="6" t="s">
+      <c r="J92" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="K92" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L92" s="6" t="s">
+      <c r="L92" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S92" s="7" t="str">
+      <c r="S92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>303|1|393688;304|2|393688;305|2|393688</v>
       </c>
@@ -8474,16 +8464,16 @@
       <c r="H93" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="J93" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K93" s="6" t="s">
+      <c r="K93" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L93" s="6" t="s">
+      <c r="L93" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="S93" s="7" t="str">
+      <c r="S93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>302|1|432370;305|2|432370;306|2|432370</v>
       </c>
@@ -8513,16 +8503,16 @@
       <c r="H94" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="J94" s="6" t="s">
+      <c r="J94" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K94" s="6" t="s">
+      <c r="K94" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L94" s="6" t="s">
+      <c r="L94" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="S94" s="7" t="str">
+      <c r="S94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>301|1|474854;304|2|474854;306|2|474854</v>
       </c>
@@ -8534,13 +8524,13 @@
       <c r="B95" s="1">
         <v>4</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="7" t="s">
         <v>377</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -8552,10 +8542,10 @@
       <c r="H95" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J95" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S95" s="7" t="str">
+      <c r="S95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|160805</v>
       </c>
@@ -8567,13 +8557,13 @@
       <c r="B96" s="1">
         <v>4</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="2" t="s">
         <v>381</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -8585,7 +8575,7 @@
       <c r="H96" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J96" s="6" t="s">
+      <c r="J96" s="2" t="s">
         <v>379</v>
       </c>
       <c r="P96" s="1">
@@ -8594,7 +8584,7 @@
       <c r="Q96" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="S96" s="7" t="str">
+      <c r="S96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|177344</v>
       </c>
@@ -8606,13 +8596,13 @@
       <c r="B97" s="1">
         <v>4</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="2" t="s">
         <v>385</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -8624,7 +8614,7 @@
       <c r="H97" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J97" s="6" t="s">
+      <c r="J97" s="2" t="s">
         <v>379</v>
       </c>
       <c r="P97" s="1">
@@ -8633,7 +8623,7 @@
       <c r="Q97" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="S97" s="7" t="str">
+      <c r="S97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|195585</v>
       </c>
@@ -8645,13 +8635,13 @@
       <c r="B98" s="1">
         <v>4</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="2" t="s">
         <v>389</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -8663,7 +8653,7 @@
       <c r="H98" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J98" s="2" t="s">
         <v>379</v>
       </c>
       <c r="P98" s="1">
@@ -8672,7 +8662,7 @@
       <c r="Q98" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="S98" s="7" t="str">
+      <c r="S98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|215702</v>
       </c>
@@ -8684,13 +8674,13 @@
       <c r="B99" s="1">
         <v>4</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="2" t="s">
         <v>393</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -8702,10 +8692,10 @@
       <c r="H99" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J99" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S99" s="7" t="str">
+      <c r="S99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|237888</v>
       </c>
@@ -8717,13 +8707,13 @@
       <c r="B100" s="1">
         <v>4</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="2" t="s">
         <v>396</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -8735,10 +8725,10 @@
       <c r="H100" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S100" s="7" t="str">
+      <c r="S100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|262356</v>
       </c>
@@ -8750,13 +8740,13 @@
       <c r="B101" s="1">
         <v>4</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="2" t="s">
         <v>399</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -8768,10 +8758,10 @@
       <c r="H101" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J101" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S101" s="7" t="str">
+      <c r="S101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|289341</v>
       </c>
@@ -8783,13 +8773,13 @@
       <c r="B102" s="1">
         <v>4</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -8801,10 +8791,10 @@
       <c r="H102" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S102" s="7" t="str">
+      <c r="S102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|319101</v>
       </c>
@@ -8816,13 +8806,13 @@
       <c r="B103" s="1">
         <v>4</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="2" t="s">
         <v>404</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -8834,10 +8824,10 @@
       <c r="H103" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="J103" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S103" s="7" t="str">
+      <c r="S103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|351923</v>
       </c>
@@ -8849,13 +8839,13 @@
       <c r="B104" s="1">
         <v>4</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="2" t="s">
         <v>407</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -8867,10 +8857,10 @@
       <c r="H104" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J104" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S104" s="7" t="str">
+      <c r="S104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|388120</v>
       </c>
@@ -8882,13 +8872,13 @@
       <c r="B105" s="1">
         <v>4</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="2" t="s">
         <v>410</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -8900,10 +8890,10 @@
       <c r="H105" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J105" s="6" t="s">
+      <c r="J105" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S105" s="7" t="str">
+      <c r="S105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|428040</v>
       </c>
@@ -8915,13 +8905,13 @@
       <c r="B106" s="1">
         <v>4</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="2" t="s">
         <v>413</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -8933,10 +8923,10 @@
       <c r="H106" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="J106" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S106" s="7" t="str">
+      <c r="S106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|472066</v>
       </c>
@@ -8948,13 +8938,13 @@
       <c r="B107" s="1">
         <v>4</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="2" t="s">
         <v>416</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -8966,10 +8956,10 @@
       <c r="H107" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S107" s="7" t="str">
+      <c r="S107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|520620</v>
       </c>
@@ -8981,13 +8971,13 @@
       <c r="B108" s="1">
         <v>4</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="2" t="s">
         <v>419</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -8999,10 +8989,10 @@
       <c r="H108" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S108" s="7" t="str">
+      <c r="S108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|574169</v>
       </c>
@@ -9014,13 +9004,13 @@
       <c r="B109" s="1">
         <v>4</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="2" t="s">
         <v>422</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -9032,10 +9022,10 @@
       <c r="H109" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S109" s="7" t="str">
+      <c r="S109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|633225</v>
       </c>
@@ -9047,13 +9037,13 @@
       <c r="B110" s="1">
         <v>4</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="2" t="s">
         <v>425</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -9065,10 +9055,10 @@
       <c r="H110" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J110" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S110" s="7" t="str">
+      <c r="S110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|698356</v>
       </c>
@@ -9080,13 +9070,13 @@
       <c r="B111" s="1">
         <v>4</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="2" t="s">
         <v>428</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -9098,10 +9088,10 @@
       <c r="H111" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J111" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S111" s="7" t="str">
+      <c r="S111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|770186</v>
       </c>
@@ -9113,13 +9103,13 @@
       <c r="B112" s="1">
         <v>4</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -9131,10 +9121,10 @@
       <c r="H112" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J112" s="6" t="s">
+      <c r="J112" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S112" s="7" t="str">
+      <c r="S112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|849403</v>
       </c>
@@ -9146,13 +9136,13 @@
       <c r="B113" s="1">
         <v>4</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="2" t="s">
         <v>434</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -9164,10 +9154,10 @@
       <c r="H113" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J113" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S113" s="7" t="str">
+      <c r="S113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|936769</v>
       </c>
@@ -9179,13 +9169,13 @@
       <c r="B114" s="1">
         <v>4</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -9197,10 +9187,10 @@
       <c r="H114" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J114" s="6" t="s">
+      <c r="J114" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S114" s="7" t="str">
+      <c r="S114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|1033120</v>
       </c>
@@ -9212,13 +9202,13 @@
       <c r="B115" s="1">
         <v>4</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="2" t="s">
         <v>440</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -9230,10 +9220,10 @@
       <c r="H115" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J115" s="6" t="s">
+      <c r="J115" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S115" s="7" t="str">
+      <c r="S115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|1139382</v>
       </c>
@@ -9245,13 +9235,13 @@
       <c r="B116" s="1">
         <v>4</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="2" t="s">
         <v>443</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -9263,10 +9253,10 @@
       <c r="H116" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="J116" s="6" t="s">
+      <c r="J116" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S116" s="7" t="str">
+      <c r="S116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|1256574</v>
       </c>
@@ -9278,13 +9268,13 @@
       <c r="B117" s="1">
         <v>4</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="2" t="s">
         <v>446</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -9296,10 +9286,10 @@
       <c r="H117" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J117" s="6" t="s">
+      <c r="J117" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S117" s="7" t="str">
+      <c r="S117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|1385819</v>
       </c>
@@ -9311,13 +9301,13 @@
       <c r="B118" s="1">
         <v>4</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="2" t="s">
         <v>449</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -9329,10 +9319,10 @@
       <c r="H118" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="J118" s="6" t="s">
+      <c r="J118" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S118" s="7" t="str">
+      <c r="S118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|1528358</v>
       </c>
@@ -9344,13 +9334,13 @@
       <c r="B119" s="1">
         <v>4</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="2" t="s">
         <v>452</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -9362,10 +9352,10 @@
       <c r="H119" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="J119" s="6" t="s">
+      <c r="J119" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S119" s="7" t="str">
+      <c r="S119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|1685557</v>
       </c>
@@ -9377,13 +9367,13 @@
       <c r="B120" s="1">
         <v>4</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="2" t="s">
         <v>455</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -9395,10 +9385,10 @@
       <c r="H120" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="J120" s="6" t="s">
+      <c r="J120" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S120" s="7" t="str">
+      <c r="S120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|1858926</v>
       </c>
@@ -9410,13 +9400,13 @@
       <c r="B121" s="1">
         <v>4</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="2" t="s">
         <v>458</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -9428,10 +9418,10 @@
       <c r="H121" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J121" s="6" t="s">
+      <c r="J121" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S121" s="7" t="str">
+      <c r="S121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|2050126</v>
       </c>
@@ -9443,13 +9433,13 @@
       <c r="B122" s="1">
         <v>4</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="2" t="s">
         <v>461</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -9461,10 +9451,10 @@
       <c r="H122" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J122" s="6" t="s">
+      <c r="J122" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S122" s="7" t="str">
+      <c r="S122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>403|5|2260992</v>
       </c>
@@ -9476,13 +9466,13 @@
       <c r="B123" s="1">
         <v>4</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="2" t="s">
         <v>463</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="2" t="s">
         <v>465</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -9497,10 +9487,10 @@
       <c r="J123" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="K123" s="6" t="s">
+      <c r="K123" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="S123" s="7" t="str">
+      <c r="S123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>402|1|2493547;403|4|2493547</v>
       </c>
@@ -9512,13 +9502,13 @@
       <c r="B124" s="1">
         <v>4</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="2" t="s">
         <v>469</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="2" t="s">
         <v>471</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -9533,10 +9523,10 @@
       <c r="J124" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="K124" s="6" t="s">
+      <c r="K124" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="S124" s="7" t="str">
+      <c r="S124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>401|1|2750022;403|4|2750022</v>
       </c>
@@ -9566,16 +9556,16 @@
       <c r="H125" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="J125" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="K125" s="6" t="s">
+      <c r="K125" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L125" s="6" t="s">
+      <c r="L125" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="S125" s="7" t="str">
+      <c r="S125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|2|814215;504|2|814215;505|1|814215</v>
       </c>
@@ -9605,13 +9595,13 @@
       <c r="H126" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="K126" s="6" t="s">
+      <c r="K126" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="S126" s="7" t="str">
+      <c r="S126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|3|917320;505|2|917320</v>
       </c>
@@ -9641,13 +9631,13 @@
       <c r="H127" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="K127" s="6" t="s">
+      <c r="K127" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="S127" s="7" t="str">
+      <c r="S127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|2|1033482;505|3|1033482</v>
       </c>
@@ -9689,7 +9679,7 @@
       <c r="Q128" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="S128" s="7" t="str">
+      <c r="S128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|4|1164353;505|1|1164353</v>
       </c>
@@ -9722,7 +9712,7 @@
       <c r="J129" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K129" s="6" t="s">
+      <c r="K129" s="2" t="s">
         <v>500</v>
       </c>
       <c r="P129" s="1">
@@ -9731,7 +9721,7 @@
       <c r="Q129" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="S129" s="7" t="str">
+      <c r="S129" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|1|1311798;505|4|1311798</v>
       </c>
@@ -9764,7 +9754,7 @@
       <c r="J130" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K130" s="6" t="s">
+      <c r="K130" s="2" t="s">
         <v>500</v>
       </c>
       <c r="P130" s="1">
@@ -9773,7 +9763,7 @@
       <c r="Q130" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="S130" s="7" t="str">
+      <c r="S130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|2|1477913;505|4|1477913</v>
       </c>
@@ -9815,7 +9805,7 @@
       <c r="Q131" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="S131" s="7" t="str">
+      <c r="S131" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|3|1665064;505|2|1665064</v>
       </c>
@@ -9848,7 +9838,7 @@
       <c r="J132" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K132" s="6" t="s">
+      <c r="K132" s="2" t="s">
         <v>500</v>
       </c>
       <c r="P132" s="1">
@@ -9857,7 +9847,7 @@
       <c r="Q132" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="S132" s="7" t="str">
+      <c r="S132" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|1|1875914;505|4|1875914</v>
       </c>
@@ -9893,7 +9883,7 @@
       <c r="K133" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="S133" s="7" t="str">
+      <c r="S133" s="6" t="str">
         <f t="shared" si="1"/>
         <v>503|2|2113464;505|3|2113464</v>
       </c>
@@ -9929,7 +9919,7 @@
       <c r="K134" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S134" s="7" t="str">
+      <c r="S134" s="6" t="str">
         <f t="shared" ref="S134:S197" si="2">J134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(K134="","",";"&amp;K134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(L134="","",";"&amp;L134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(M134="","",";"&amp;M134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(N134="","",";"&amp;N134&amp;"|"&amp;ROUND(G134/5,0)))))</f>
         <v>503|4|2381096;505|1|2381096</v>
       </c>
@@ -9965,7 +9955,7 @@
       <c r="K135" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="S135" s="7" t="str">
+      <c r="S135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|3|2682618;505|2|2682618</v>
       </c>
@@ -10001,7 +9991,7 @@
       <c r="K136" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S136" s="7" t="str">
+      <c r="S136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|4|3022323;505|1|3022323</v>
       </c>
@@ -10037,7 +10027,7 @@
       <c r="K137" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="S137" s="7" t="str">
+      <c r="S137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|2|3405045;505|3|3405045</v>
       </c>
@@ -10073,7 +10063,7 @@
       <c r="K138" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="S138" s="7" t="str">
+      <c r="S138" s="6" t="str">
         <f t="shared" si="2"/>
         <v>504|3|3836232;505|2|3836232</v>
       </c>
@@ -10106,10 +10096,10 @@
       <c r="J139" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K139" s="6" t="s">
+      <c r="K139" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="S139" s="7" t="str">
+      <c r="S139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>504|1|4322021;505|4|4322021</v>
       </c>
@@ -10145,7 +10135,7 @@
       <c r="K140" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="S140" s="7" t="str">
+      <c r="S140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>504|2|4869327;505|3|4869327</v>
       </c>
@@ -10181,7 +10171,7 @@
       <c r="K141" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S141" s="7" t="str">
+      <c r="S141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>504|4|5485938;505|1|5485938</v>
       </c>
@@ -10217,7 +10207,7 @@
       <c r="K142" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="S142" s="7" t="str">
+      <c r="S142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>504|3|6180632;505|2|6180632</v>
       </c>
@@ -10253,7 +10243,7 @@
       <c r="K143" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S143" s="7" t="str">
+      <c r="S143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>504|4|6963297;505|1|6963297</v>
       </c>
@@ -10289,7 +10279,7 @@
       <c r="K144" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="S144" s="7" t="str">
+      <c r="S144" s="6" t="str">
         <f t="shared" si="2"/>
         <v>504|2|7845072;505|3|7845072</v>
       </c>
@@ -10319,13 +10309,13 @@
       <c r="H145" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="J145" s="6" t="s">
+      <c r="J145" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="K145" s="6" t="s">
+      <c r="K145" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="S145" s="7" t="str">
+      <c r="S145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|3|8838507;504|2|8838507</v>
       </c>
@@ -10358,13 +10348,13 @@
       <c r="J146" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K146" s="6" t="s">
+      <c r="K146" s="2" t="s">
         <v>537</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S146" s="7" t="str">
+      <c r="S146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|2|9957743;504|1|9957743;505|1|9957743</v>
       </c>
@@ -10397,13 +10387,13 @@
       <c r="J147" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K147" s="6" t="s">
+      <c r="K147" s="2" t="s">
         <v>537</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S147" s="7" t="str">
+      <c r="S147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|3|11218710;504|1|11218710;505|1|11218710</v>
       </c>
@@ -10436,13 +10426,13 @@
       <c r="J148" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K148" s="6" t="s">
+      <c r="K148" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="L148" s="6" t="s">
+      <c r="L148" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="S148" s="7" t="str">
+      <c r="S148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|1|12639356;504|1|12639356;505|3|12639356</v>
       </c>
@@ -10475,13 +10465,13 @@
       <c r="J149" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K149" s="6" t="s">
+      <c r="K149" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L149" s="6" t="s">
+      <c r="L149" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="S149" s="7" t="str">
+      <c r="S149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|1|14239900;504|2|14239900;505|2|14239900</v>
       </c>
@@ -10514,13 +10504,13 @@
       <c r="J150" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K150" s="6" t="s">
+      <c r="K150" s="2" t="s">
         <v>533</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S150" s="7" t="str">
+      <c r="S150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|1|16043124;504|3|16043124;505|1|16043124</v>
       </c>
@@ -10553,13 +10543,13 @@
       <c r="J151" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K151" s="6" t="s">
+      <c r="K151" s="2" t="s">
         <v>479</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S151" s="7" t="str">
+      <c r="S151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|2|18074694;504|2|18074694;505|1|18074694</v>
       </c>
@@ -10592,13 +10582,13 @@
       <c r="J152" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K152" s="6" t="s">
+      <c r="K152" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="L152" s="6" t="s">
+      <c r="L152" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="S152" s="7" t="str">
+      <c r="S152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|1|20363525;504|1|20363525;505|3|20363525</v>
       </c>
@@ -10631,13 +10621,13 @@
       <c r="J153" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K153" s="6" t="s">
+      <c r="K153" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L153" s="6" t="s">
+      <c r="L153" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="S153" s="7" t="str">
+      <c r="S153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>503|1|22942195;504|2|22942195;505|2|22942195</v>
       </c>
@@ -10667,16 +10657,16 @@
       <c r="H154" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="J154" s="6" t="s">
+      <c r="J154" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="K154" s="6" t="s">
+      <c r="K154" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L154" s="6" t="s">
+      <c r="L154" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="S154" s="7" t="str">
+      <c r="S154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>501|1|25847408;504|2|25847408;505|2|25847408</v>
       </c>
@@ -10688,13 +10678,13 @@
       <c r="B155" s="1">
         <v>6</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="2" t="s">
         <v>586</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -10706,16 +10696,16 @@
       <c r="H155" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="J155" s="6" t="s">
+      <c r="J155" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="K155" s="6" t="s">
+      <c r="K155" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="L155" s="6" t="s">
+      <c r="L155" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="S155" s="7" t="str">
+      <c r="S155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|2|6952887;604|2|6952887;605|1|6952887</v>
       </c>
@@ -10727,13 +10717,13 @@
       <c r="B156" s="1">
         <v>6</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E156" s="2" t="s">
         <v>592</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -10745,10 +10735,10 @@
       <c r="H156" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="J156" s="6" t="s">
+      <c r="J156" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="K156" s="6" t="s">
+      <c r="K156" s="2" t="s">
         <v>594</v>
       </c>
       <c r="P156" s="1">
@@ -10757,7 +10747,7 @@
       <c r="Q156" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="S156" s="7" t="str">
+      <c r="S156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|2|7802175;604|3|7802175</v>
       </c>
@@ -10769,13 +10759,13 @@
       <c r="B157" s="1">
         <v>6</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="2" t="s">
         <v>598</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -10787,10 +10777,10 @@
       <c r="H157" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J157" s="6" t="s">
+      <c r="J157" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="K157" s="6" t="s">
+      <c r="K157" s="2" t="s">
         <v>600</v>
       </c>
       <c r="P157" s="1">
@@ -10799,7 +10789,7 @@
       <c r="Q157" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="S157" s="7" t="str">
+      <c r="S157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>604|2|8755204;605|3|8755204</v>
       </c>
@@ -10811,13 +10801,13 @@
       <c r="B158" s="1">
         <v>6</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="2" t="s">
         <v>603</v>
       </c>
       <c r="F158" s="1" t="s">
@@ -10829,10 +10819,10 @@
       <c r="H158" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="J158" s="6" t="s">
+      <c r="J158" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="K158" s="6" t="s">
+      <c r="K158" s="2" t="s">
         <v>606</v>
       </c>
       <c r="P158" s="1">
@@ -10841,7 +10831,7 @@
       <c r="Q158" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="S158" s="7" t="str">
+      <c r="S158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|3|9824644;605|2|9824644</v>
       </c>
@@ -10853,13 +10843,13 @@
       <c r="B159" s="1">
         <v>6</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E159" s="2" t="s">
         <v>609</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -10871,10 +10861,10 @@
       <c r="H159" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="J159" s="6" t="s">
+      <c r="J159" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="K159" s="6" t="s">
+      <c r="K159" s="2" t="s">
         <v>606</v>
       </c>
       <c r="P159" s="1">
@@ -10883,7 +10873,7 @@
       <c r="Q159" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="S159" s="7" t="str">
+      <c r="S159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>604|3|11024715;605|2|11024715</v>
       </c>
@@ -10895,13 +10885,13 @@
       <c r="B160" s="1">
         <v>6</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E160" s="2" t="s">
         <v>613</v>
       </c>
       <c r="F160" s="1" t="s">
@@ -10913,10 +10903,10 @@
       <c r="H160" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="J160" s="6" t="s">
+      <c r="J160" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="K160" s="6" t="s">
+      <c r="K160" s="2" t="s">
         <v>590</v>
       </c>
       <c r="P160" s="1">
@@ -10925,7 +10915,7 @@
       <c r="Q160" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="S160" s="7" t="str">
+      <c r="S160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>604|4|12371373;605|1|12371373</v>
       </c>
@@ -10937,13 +10927,13 @@
       <c r="B161" s="1">
         <v>6</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="2" t="s">
         <v>618</v>
       </c>
       <c r="F161" s="1" t="s">
@@ -10955,13 +10945,13 @@
       <c r="H161" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="J161" s="6" t="s">
+      <c r="J161" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="K161" s="6" t="s">
+      <c r="K161" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="S161" s="7" t="str">
+      <c r="S161" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|4|13882525;604|1|13882525</v>
       </c>
@@ -10973,13 +10963,13 @@
       <c r="B162" s="1">
         <v>6</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="2" t="s">
         <v>623</v>
       </c>
       <c r="F162" s="1" t="s">
@@ -10991,13 +10981,13 @@
       <c r="H162" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J162" s="6" t="s">
+      <c r="J162" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="K162" s="6" t="s">
+      <c r="K162" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="S162" s="7" t="str">
+      <c r="S162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>604|3|15578262;605|2|15578262</v>
       </c>
@@ -11009,13 +10999,13 @@
       <c r="B163" s="1">
         <v>6</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E163" s="2" t="s">
         <v>626</v>
       </c>
       <c r="F163" s="1" t="s">
@@ -11027,16 +11017,16 @@
       <c r="H163" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="J163" s="6" t="s">
+      <c r="J163" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="K163" s="6" t="s">
+      <c r="K163" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="L163" s="6" t="s">
+      <c r="L163" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="S163" s="7" t="str">
+      <c r="S163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|2|17481132;604|2|17481132;605|1|17481132</v>
       </c>
@@ -11048,13 +11038,13 @@
       <c r="B164" s="1">
         <v>6</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E164" s="2" t="s">
         <v>629</v>
       </c>
       <c r="F164" s="1" t="s">
@@ -11066,13 +11056,13 @@
       <c r="H164" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="J164" s="6" t="s">
+      <c r="J164" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="K164" s="6" t="s">
+      <c r="K164" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="S164" s="7" t="str">
+      <c r="S164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|2|19616436;604|3|19616436</v>
       </c>
@@ -11084,13 +11074,13 @@
       <c r="B165" s="1">
         <v>6</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E165" s="2" t="s">
         <v>632</v>
       </c>
       <c r="F165" s="1" t="s">
@@ -11102,13 +11092,13 @@
       <c r="H165" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="J165" s="6" t="s">
+      <c r="J165" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="K165" s="6" t="s">
+      <c r="K165" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="S165" s="7" t="str">
+      <c r="S165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>604|3|22012566;605|2|22012566</v>
       </c>
@@ -11120,13 +11110,13 @@
       <c r="B166" s="1">
         <v>6</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="2" t="s">
         <v>635</v>
       </c>
       <c r="F166" s="1" t="s">
@@ -11138,13 +11128,13 @@
       <c r="H166" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="J166" s="6" t="s">
+      <c r="J166" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="K166" s="6" t="s">
+      <c r="K166" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="S166" s="7" t="str">
+      <c r="S166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|3|24701380;604|2|24701380</v>
       </c>
@@ -11156,13 +11146,13 @@
       <c r="B167" s="1">
         <v>6</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E167" s="2" t="s">
         <v>638</v>
       </c>
       <c r="F167" s="1" t="s">
@@ -11174,13 +11164,13 @@
       <c r="H167" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J167" s="6" t="s">
+      <c r="J167" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="K167" s="6" t="s">
+      <c r="K167" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="S167" s="7" t="str">
+      <c r="S167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|3|27718631;605|2|27718631</v>
       </c>
@@ -11192,13 +11182,13 @@
       <c r="B168" s="1">
         <v>6</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="2" t="s">
         <v>641</v>
       </c>
       <c r="F168" s="1" t="s">
@@ -11210,16 +11200,16 @@
       <c r="H168" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="J168" s="6" t="s">
+      <c r="J168" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="K168" s="6" t="s">
+      <c r="K168" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="L168" s="6" t="s">
+      <c r="L168" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="S168" s="7" t="str">
+      <c r="S168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|2|31104435;604|2|31104435;605|1|31104435</v>
       </c>
@@ -11231,13 +11221,13 @@
       <c r="B169" s="1">
         <v>6</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E169" s="2" t="s">
         <v>416</v>
       </c>
       <c r="F169" s="1" t="s">
@@ -11249,13 +11239,13 @@
       <c r="H169" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="J169" s="6" t="s">
+      <c r="J169" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="K169" s="6" t="s">
+      <c r="K169" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="S169" s="7" t="str">
+      <c r="S169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|2|34903813;605|3|34903813</v>
       </c>
@@ -11267,13 +11257,13 @@
       <c r="B170" s="1">
         <v>6</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="2" t="s">
         <v>645</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E170" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F170" s="1" t="s">
@@ -11285,13 +11275,13 @@
       <c r="H170" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="J170" s="6" t="s">
+      <c r="J170" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="K170" s="6" t="s">
+      <c r="K170" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="S170" s="7" t="str">
+      <c r="S170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>604|2|39167281;605|3|39167281</v>
       </c>
@@ -11303,13 +11293,13 @@
       <c r="B171" s="1">
         <v>6</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="E171" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F171" s="1" t="s">
@@ -11321,13 +11311,13 @@
       <c r="H171" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J171" s="6" t="s">
+      <c r="J171" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="K171" s="6" t="s">
+      <c r="K171" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="S171" s="7" t="str">
+      <c r="S171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|2|43951528;604|3|43951528</v>
       </c>
@@ -11339,13 +11329,13 @@
       <c r="B172" s="1">
         <v>6</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E172" s="2" t="s">
         <v>653</v>
       </c>
       <c r="F172" s="1" t="s">
@@ -11357,16 +11347,16 @@
       <c r="H172" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="J172" s="6" t="s">
+      <c r="J172" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="K172" s="6" t="s">
+      <c r="K172" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="L172" s="6" t="s">
+      <c r="L172" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="S172" s="7" t="str">
+      <c r="S172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|1|49320166;604|3|49320166;605|1|49320166</v>
       </c>
@@ -11378,7 +11368,7 @@
       <c r="B173" s="1">
         <v>6</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -11396,16 +11386,16 @@
       <c r="H173" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="J173" s="6" t="s">
+      <c r="J173" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="K173" s="6" t="s">
+      <c r="K173" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="L173" s="6" t="s">
+      <c r="L173" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="S173" s="7" t="str">
+      <c r="S173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|2|55344578;604|1|55344578;605|2|55344578</v>
       </c>
@@ -11417,13 +11407,13 @@
       <c r="B174" s="1">
         <v>6</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E174" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F174" s="1" t="s">
@@ -11435,13 +11425,13 @@
       <c r="H174" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="J174" s="6" t="s">
+      <c r="J174" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="K174" s="6" t="s">
+      <c r="K174" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="S174" s="7" t="str">
+      <c r="S174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|1|62104866;604|4|62104866</v>
       </c>
@@ -11453,13 +11443,13 @@
       <c r="B175" s="1">
         <v>6</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="2" t="s">
         <v>645</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E175" s="2" t="s">
         <v>666</v>
       </c>
       <c r="F175" s="1" t="s">
@@ -11471,13 +11461,13 @@
       <c r="H175" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="J175" s="6" t="s">
+      <c r="J175" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="K175" s="6" t="s">
+      <c r="K175" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="S175" s="7" t="str">
+      <c r="S175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|1|69690917;605|4|69690917</v>
       </c>
@@ -11489,13 +11479,13 @@
       <c r="B176" s="1">
         <v>6</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E176" s="2" t="s">
         <v>670</v>
       </c>
       <c r="F176" s="1" t="s">
@@ -11507,13 +11497,13 @@
       <c r="H176" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="J176" s="6" t="s">
+      <c r="J176" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="K176" s="6" t="s">
+      <c r="K176" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="S176" s="7" t="str">
+      <c r="S176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>604|1|78203597;605|4|78203597</v>
       </c>
@@ -11525,13 +11515,13 @@
       <c r="B177" s="1">
         <v>6</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E177" s="2" t="s">
         <v>673</v>
       </c>
       <c r="F177" s="1" t="s">
@@ -11543,13 +11533,13 @@
       <c r="H177" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="J177" s="6" t="s">
+      <c r="J177" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="K177" s="6" t="s">
+      <c r="K177" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="S177" s="7" t="str">
+      <c r="S177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|1|87756094;604|4|87756094</v>
       </c>
@@ -11561,13 +11551,13 @@
       <c r="B178" s="1">
         <v>6</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E178" s="2" t="s">
         <v>676</v>
       </c>
       <c r="F178" s="1" t="s">
@@ -11579,13 +11569,13 @@
       <c r="H178" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="J178" s="6" t="s">
+      <c r="J178" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="K178" s="6" t="s">
+      <c r="K178" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="S178" s="7" t="str">
+      <c r="S178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|1|98475418;605|4|98475418</v>
       </c>
@@ -11597,13 +11587,13 @@
       <c r="B179" s="1">
         <v>6</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="E179" s="2" t="s">
         <v>679</v>
       </c>
       <c r="F179" s="1" t="s">
@@ -11615,16 +11605,16 @@
       <c r="H179" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="J179" s="6" t="s">
+      <c r="J179" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="K179" s="6" t="s">
+      <c r="K179" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="L179" s="6" t="s">
+      <c r="L179" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="S179" s="7" t="str">
+      <c r="S179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|1|110504098;604|1|110504098;605|3|110504098</v>
       </c>
@@ -11636,13 +11626,13 @@
       <c r="B180" s="1">
         <v>6</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="2" t="s">
         <v>645</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="E180" s="2" t="s">
         <v>682</v>
       </c>
       <c r="F180" s="1" t="s">
@@ -11654,13 +11644,13 @@
       <c r="H180" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="J180" s="6" t="s">
+      <c r="J180" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="K180" s="6" t="s">
+      <c r="K180" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="S180" s="7" t="str">
+      <c r="S180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>604|1|124002071;605|4|124002071</v>
       </c>
@@ -11672,13 +11662,13 @@
       <c r="B181" s="1">
         <v>6</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="E181" s="2" t="s">
         <v>685</v>
       </c>
       <c r="F181" s="1" t="s">
@@ -11690,13 +11680,13 @@
       <c r="H181" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="J181" s="6" t="s">
+      <c r="J181" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="K181" s="6" t="s">
+      <c r="K181" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="S181" s="7" t="str">
+      <c r="S181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|1|139148807;605|4|139148807</v>
       </c>
@@ -11708,13 +11698,13 @@
       <c r="B182" s="1">
         <v>6</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E182" s="2" t="s">
         <v>688</v>
       </c>
       <c r="F182" s="1" t="s">
@@ -11726,16 +11716,16 @@
       <c r="H182" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="J182" s="6" t="s">
+      <c r="J182" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="K182" s="6" t="s">
+      <c r="K182" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="L182" s="6" t="s">
+      <c r="L182" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="S182" s="7" t="str">
+      <c r="S182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>603|1|156145704;604|1|156145704;605|3|156145704</v>
       </c>
@@ -11747,13 +11737,13 @@
       <c r="B183" s="1">
         <v>6</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="2" t="s">
         <v>690</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E183" s="2" t="s">
         <v>692</v>
       </c>
       <c r="F183" s="1" t="s">
@@ -11765,16 +11755,16 @@
       <c r="H183" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="J183" s="6" t="s">
+      <c r="J183" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="K183" s="6" t="s">
+      <c r="K183" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="L183" s="6" t="s">
+      <c r="L183" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="S183" s="7" t="str">
+      <c r="S183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>602|1|175218756;603|2|175218756;604|2|175218756</v>
       </c>
@@ -11786,13 +11776,13 @@
       <c r="B184" s="1">
         <v>6</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="2" t="s">
         <v>695</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="E184" s="2" t="s">
         <v>697</v>
       </c>
       <c r="F184" s="1" t="s">
@@ -11804,16 +11794,16 @@
       <c r="H184" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="J184" s="6" t="s">
+      <c r="J184" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="K184" s="6" t="s">
+      <c r="K184" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="L184" s="6" t="s">
+      <c r="L184" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="S184" s="7" t="str">
+      <c r="S184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>601|1|196621560;604|2|196621560;605|2|196621560</v>
       </c>
@@ -11843,10 +11833,10 @@
       <c r="H185" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="J185" s="6" t="s">
+      <c r="J185" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="S185" s="7" t="str">
+      <c r="S185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|5|48997543</v>
       </c>
@@ -11876,7 +11866,7 @@
       <c r="H186" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="J186" s="6" t="s">
+      <c r="J186" s="2" t="s">
         <v>704</v>
       </c>
       <c r="P186" s="1">
@@ -11885,7 +11875,7 @@
       <c r="Q186" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="S186" s="7" t="str">
+      <c r="S186" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|5|57220292</v>
       </c>
@@ -11915,7 +11905,7 @@
       <c r="H187" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="J187" s="6" t="s">
+      <c r="J187" s="2" t="s">
         <v>714</v>
       </c>
       <c r="P187" s="1">
@@ -11924,7 +11914,7 @@
       <c r="Q187" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="S187" s="7" t="str">
+      <c r="S187" s="6" t="str">
         <f t="shared" si="2"/>
         <v>706|5|66822981</v>
       </c>
@@ -11954,7 +11944,7 @@
       <c r="H188" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="J188" s="6" t="s">
+      <c r="J188" s="2" t="s">
         <v>714</v>
       </c>
       <c r="P188" s="1">
@@ -11963,7 +11953,7 @@
       <c r="Q188" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="S188" s="7" t="str">
+      <c r="S188" s="6" t="str">
         <f t="shared" si="2"/>
         <v>706|5|78037189</v>
       </c>
@@ -11993,13 +11983,13 @@
       <c r="H189" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="J189" s="6" t="s">
+      <c r="J189" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="K189" s="6" t="s">
+      <c r="K189" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="L189" s="6" t="s">
+      <c r="L189" s="2" t="s">
         <v>727</v>
       </c>
       <c r="P189" s="1">
@@ -12008,7 +11998,7 @@
       <c r="Q189" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="S189" s="7" t="str">
+      <c r="S189" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|3|91133361;706|1|91133361;704|1|91133361</v>
       </c>
@@ -12038,13 +12028,13 @@
       <c r="H190" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="J190" s="6" t="s">
+      <c r="J190" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="K190" s="6" t="s">
+      <c r="K190" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="L190" s="6" t="s">
+      <c r="L190" s="2" t="s">
         <v>727</v>
       </c>
       <c r="P190" s="1">
@@ -12053,7 +12043,7 @@
       <c r="Q190" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="S190" s="7" t="str">
+      <c r="S190" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|2|106427328;706|2|106427328;704|1|106427328</v>
       </c>
@@ -12083,13 +12073,13 @@
       <c r="H191" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="J191" s="6" t="s">
+      <c r="J191" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="K191" s="6" t="s">
+      <c r="K191" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="L191" s="6" t="s">
+      <c r="L191" s="2" t="s">
         <v>727</v>
       </c>
       <c r="P191" s="1">
@@ -12098,7 +12088,7 @@
       <c r="Q191" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="S191" s="7" t="str">
+      <c r="S191" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|3|124287924;706|1|124287924;704|1|124287924</v>
       </c>
@@ -12128,16 +12118,16 @@
       <c r="H192" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="J192" s="6" t="s">
+      <c r="J192" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="K192" s="6" t="s">
+      <c r="K192" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="L192" s="6" t="s">
+      <c r="L192" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="S192" s="7" t="str">
+      <c r="S192" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|2|145145877;706|2|145145877;704|1|145145877</v>
       </c>
@@ -12167,16 +12157,16 @@
       <c r="H193" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="J193" s="6" t="s">
+      <c r="J193" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="K193" s="6" t="s">
+      <c r="K193" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="L193" s="6" t="s">
+      <c r="L193" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="S193" s="7" t="str">
+      <c r="S193" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|1|169504205;706|3|169504205;704|1|169504205</v>
       </c>
@@ -12206,16 +12196,16 @@
       <c r="H194" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="J194" s="6" t="s">
+      <c r="J194" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="K194" s="6" t="s">
+      <c r="K194" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="L194" s="6" t="s">
+      <c r="L194" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="S194" s="7" t="str">
+      <c r="S194" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|1|197950338;706|2|197950338;704|2|197950338</v>
       </c>
@@ -12245,16 +12235,16 @@
       <c r="H195" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="J195" s="6" t="s">
+      <c r="J195" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="K195" s="6" t="s">
+      <c r="K195" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="L195" s="6" t="s">
+      <c r="L195" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="S195" s="7" t="str">
+      <c r="S195" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|1|231170291;706|1|231170291;704|3|231170291</v>
       </c>
@@ -12284,10 +12274,10 @@
       <c r="H196" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="J196" s="6" t="s">
+      <c r="J196" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="S196" s="7" t="str">
+      <c r="S196" s="6" t="str">
         <f t="shared" si="2"/>
         <v>705|5|269965205</v>
       </c>
@@ -12317,10 +12307,10 @@
       <c r="H197" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="J197" s="6" t="s">
+      <c r="J197" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="S197" s="7" t="str">
+      <c r="S197" s="6" t="str">
         <f t="shared" si="2"/>
         <v>704|5|315270666</v>
       </c>
@@ -12350,10 +12340,10 @@
       <c r="H198" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="J198" s="6" t="s">
+      <c r="J198" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="S198" s="7" t="str">
+      <c r="S198" s="6" t="str">
         <f t="shared" ref="S198:S244" si="3">J198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(K198="","",";"&amp;K198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(L198="","",";"&amp;L198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(M198="","",";"&amp;M198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(N198="","",";"&amp;N198&amp;"|"&amp;ROUND(G198/5,0)))))</f>
         <v>706|5|368179274</v>
       </c>
@@ -12383,16 +12373,16 @@
       <c r="H199" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="J199" s="6" t="s">
+      <c r="J199" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="K199" s="6" t="s">
+      <c r="K199" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="L199" s="6" t="s">
+      <c r="L199" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="S199" s="7" t="str">
+      <c r="S199" s="6" t="str">
         <f t="shared" si="3"/>
         <v>705|2|429966984;706|1|429966984;704|1|429966984</v>
       </c>
@@ -12422,16 +12412,16 @@
       <c r="H200" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="J200" s="6" t="s">
+      <c r="J200" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="K200" s="6" t="s">
+      <c r="K200" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="L200" s="6" t="s">
+      <c r="L200" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="S200" s="7" t="str">
+      <c r="S200" s="6" t="str">
         <f t="shared" si="3"/>
         <v>705|3|502123886;706|1|502123886;704|1|502123886</v>
       </c>
@@ -12461,16 +12451,16 @@
       <c r="H201" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="J201" s="6" t="s">
+      <c r="J201" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="K201" s="6" t="s">
+      <c r="K201" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="L201" s="6" t="s">
+      <c r="L201" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="S201" s="7" t="str">
+      <c r="S201" s="6" t="str">
         <f t="shared" si="3"/>
         <v>705|1|586390132;706|2|586390132;704|1|586390132</v>
       </c>
@@ -12500,16 +12490,16 @@
       <c r="H202" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="J202" s="6" t="s">
+      <c r="J202" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="K202" s="6" t="s">
+      <c r="K202" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="L202" s="6" t="s">
+      <c r="L202" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="S202" s="7" t="str">
+      <c r="S202" s="6" t="str">
         <f t="shared" si="3"/>
         <v>705|1|684797909;706|3|684797909;704|1|684797909</v>
       </c>
@@ -12539,16 +12529,16 @@
       <c r="H203" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="J203" s="6" t="s">
+      <c r="J203" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="K203" s="6" t="s">
+      <c r="K203" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="L203" s="6" t="s">
+      <c r="L203" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="S203" s="7" t="str">
+      <c r="S203" s="6" t="str">
         <f t="shared" si="3"/>
         <v>702|1|799720442;706|2|799720442;704|2|799720442</v>
       </c>
@@ -12578,16 +12568,16 @@
       <c r="H204" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="J204" s="6" t="s">
+      <c r="J204" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="K204" s="6" t="s">
+      <c r="K204" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="L204" s="6" t="s">
+      <c r="L204" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="S204" s="7" t="str">
+      <c r="S204" s="6" t="str">
         <f t="shared" si="3"/>
         <v>702|1|933929233;705|2|933929233;706|2|933929233</v>
       </c>
@@ -12617,16 +12607,16 @@
       <c r="H205" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="J205" s="6" t="s">
+      <c r="J205" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="K205" s="6" t="s">
+      <c r="K205" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="L205" s="6" t="s">
+      <c r="L205" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="S205" s="7" t="str">
+      <c r="S205" s="6" t="str">
         <f t="shared" si="3"/>
         <v>702|1|1090660894;706|2|1090660894;704|2|1090660894</v>
       </c>
@@ -12656,10 +12646,10 @@
       <c r="H206" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="J206" s="6" t="s">
+      <c r="J206" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="S206" s="7" t="str">
+      <c r="S206" s="6" t="str">
         <f t="shared" si="3"/>
         <v>704|5|1273695205</v>
       </c>
@@ -12689,10 +12679,10 @@
       <c r="H207" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="J207" s="6" t="s">
+      <c r="J207" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="S207" s="7" t="str">
+      <c r="S207" s="6" t="str">
         <f t="shared" si="3"/>
         <v>704|5|1487446267</v>
       </c>
@@ -12722,13 +12712,13 @@
       <c r="H208" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="J208" s="6" t="s">
+      <c r="J208" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="K208" s="6" t="s">
+      <c r="K208" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="S208" s="7" t="str">
+      <c r="S208" s="6" t="str">
         <f t="shared" si="3"/>
         <v>704|2|1737068953;705|3|1737068953</v>
       </c>
@@ -12758,13 +12748,13 @@
       <c r="H209" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="J209" s="6" t="s">
+      <c r="J209" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="K209" s="6" t="s">
+      <c r="K209" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="S209" s="7" t="str">
+      <c r="S209" s="6" t="str">
         <f t="shared" si="3"/>
         <v>704|3|2028583227;706|2|2028583227</v>
       </c>
@@ -12794,16 +12784,16 @@
       <c r="H210" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="J210" s="6" t="s">
+      <c r="J210" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="K210" s="6" t="s">
+      <c r="K210" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="L210" s="6" t="s">
+      <c r="L210" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="S210" s="7" t="str">
+      <c r="S210" s="6" t="str">
         <f t="shared" si="3"/>
         <v>705|2|2369019319;706|2|2369019319;704|1|2369019319</v>
       </c>
@@ -12833,13 +12823,13 @@
       <c r="H211" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="J211" s="6" t="s">
+      <c r="J211" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="K211" s="6" t="s">
+      <c r="K211" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="S211" s="7" t="str">
+      <c r="S211" s="6" t="str">
         <f t="shared" si="3"/>
         <v>703|1|2766587271;704|4|2766587271</v>
       </c>
@@ -12869,22 +12859,22 @@
       <c r="H212" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="J212" s="6" t="s">
+      <c r="J212" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="K212" s="6" t="s">
+      <c r="K212" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="L212" s="6" t="s">
+      <c r="L212" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="M212" s="6" t="s">
+      <c r="M212" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="N212" s="6" t="s">
+      <c r="N212" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="S212" s="7" t="str">
+      <c r="S212" s="6" t="str">
         <f t="shared" si="3"/>
         <v>702|1|3230874930;703|1|3230874930;704|1|3230874930;705|1|3230874930;706|1|3230874930</v>
       </c>
@@ -12914,19 +12904,19 @@
       <c r="H213" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="J213" s="6" t="s">
+      <c r="J213" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="K213" s="6" t="s">
+      <c r="K213" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="L213" s="6" t="s">
+      <c r="L213" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="M213" s="6" t="s">
+      <c r="M213" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="S213" s="7" t="str">
+      <c r="S213" s="6" t="str">
         <f t="shared" si="3"/>
         <v>701|1|3773079175;704|2|3773079175;705|1|3773079175;706|1|3773079175</v>
       </c>
@@ -12956,22 +12946,22 @@
       <c r="H214" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="J214" s="6" t="s">
+      <c r="J214" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="K214" s="6" t="s">
+      <c r="K214" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="L214" s="6" t="s">
+      <c r="L214" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="M214" s="6" t="s">
+      <c r="M214" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="N214" s="6" t="s">
+      <c r="N214" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="S214" s="7" t="str">
+      <c r="S214" s="6" t="str">
         <f t="shared" si="3"/>
         <v>701|1|4406275948;702|1|4406275948;703|1|4406275948;704|1|4406275948;705|1|4406275948</v>
       </c>
@@ -12983,13 +12973,13 @@
       <c r="B215" s="1">
         <v>8</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="2" t="s">
         <v>830</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="2" t="s">
         <v>832</v>
       </c>
       <c r="F215" s="1" t="s">
@@ -13001,10 +12991,10 @@
       <c r="H215" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="J215" s="6" t="s">
+      <c r="J215" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="S215" s="7" t="str">
+      <c r="S215" s="6" t="str">
         <f t="shared" si="3"/>
         <v>9902|5|998437708</v>
       </c>
@@ -13016,13 +13006,13 @@
       <c r="B216" s="1">
         <v>8</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" s="2" t="s">
         <v>835</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E216" s="2" t="s">
         <v>837</v>
       </c>
       <c r="F216" s="1" t="s">
@@ -13034,7 +13024,7 @@
       <c r="H216" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="J216" s="6" t="s">
+      <c r="J216" s="2" t="s">
         <v>839</v>
       </c>
       <c r="P216" s="1">
@@ -13043,7 +13033,7 @@
       <c r="Q216" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="S216" s="7" t="str">
+      <c r="S216" s="6" t="str">
         <f t="shared" si="3"/>
         <v>9903|5|1166332382</v>
       </c>
@@ -13055,13 +13045,13 @@
       <c r="B217" s="1">
         <v>8</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="2" t="s">
         <v>830</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="E217" s="2" t="s">
         <v>842</v>
       </c>
       <c r="F217" s="1" t="s">
@@ -13073,10 +13063,10 @@
       <c r="H217" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="J217" s="6" t="s">
+      <c r="J217" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="K217" s="6" t="s">
+      <c r="K217" s="2" t="s">
         <v>845</v>
       </c>
       <c r="P217" s="1">
@@ -13085,7 +13075,7 @@
       <c r="Q217" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="S217" s="7" t="str">
+      <c r="S217" s="6" t="str">
         <f t="shared" si="3"/>
         <v>9902|2|1362459785;9903|3|1362459785</v>
       </c>
@@ -13097,13 +13087,13 @@
       <c r="B218" s="1">
         <v>8</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" s="2" t="s">
         <v>847</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="E218" s="2" t="s">
         <v>849</v>
       </c>
       <c r="F218" s="1" t="s">
@@ -13115,13 +13105,13 @@
       <c r="H218" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="J218" s="6" t="s">
+      <c r="J218" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="K218" s="6" t="s">
+      <c r="K218" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="L218" s="6" t="s">
+      <c r="L218" s="2" t="s">
         <v>852</v>
       </c>
       <c r="P218" s="1">
@@ -13130,7 +13120,7 @@
       <c r="Q218" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="S218" s="7" t="str">
+      <c r="S218" s="6" t="str">
         <f t="shared" si="3"/>
         <v>9901|1|1591567459;9902|2|1591567459;9903|2|1591567459</v>
       </c>
@@ -13142,13 +13132,13 @@
       <c r="B219" s="1">
         <v>8</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" s="2" t="s">
         <v>721</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E219" s="6" t="s">
+      <c r="E219" s="2" t="s">
         <v>855</v>
       </c>
       <c r="F219" s="1" t="s">
@@ -13160,16 +13150,16 @@
       <c r="H219" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="J219" s="6" t="s">
+      <c r="J219" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="K219" s="6" t="s">
+      <c r="K219" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="L219" s="6" t="s">
+      <c r="L219" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="M219" s="6" t="s">
+      <c r="M219" s="2" t="s">
         <v>858</v>
       </c>
       <c r="P219" s="1">
@@ -13178,7 +13168,7 @@
       <c r="Q219" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="S219" s="7" t="str">
+      <c r="S219" s="6" t="str">
         <f t="shared" si="3"/>
         <v>9901|1|1859201280;9902|1|1859201280;9903|2|1859201280;804|1|1859201280</v>
       </c>
@@ -13190,13 +13180,13 @@
       <c r="B220" s="1">
         <v>8</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="2" t="s">
         <v>860</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="E220" s="2" t="s">
         <v>862</v>
       </c>
       <c r="F220" s="1" t="s">
@@ -13208,13 +13198,13 @@
       <c r="H220" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J220" s="6" t="s">
+      <c r="J220" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="K220" s="6" t="s">
+      <c r="K220" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="L220" s="6" t="s">
+      <c r="L220" s="2" t="s">
         <v>852</v>
       </c>
       <c r="P220" s="1">
@@ -13223,7 +13213,7 @@
       <c r="Q220" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="S220" s="7" t="str">
+      <c r="S220" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|1|2171839705;9902|2|2171839705;9903|2|2171839705</v>
       </c>
@@ -13235,13 +13225,13 @@
       <c r="B221" s="1">
         <v>8</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" s="2" t="s">
         <v>860</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E221" s="6" t="s">
+      <c r="E221" s="2" t="s">
         <v>866</v>
       </c>
       <c r="F221" s="1" t="s">
@@ -13253,16 +13243,16 @@
       <c r="H221" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="J221" s="6" t="s">
+      <c r="J221" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="K221" s="6" t="s">
+      <c r="K221" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="L221" s="6" t="s">
+      <c r="L221" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="M221" s="6" t="s">
+      <c r="M221" s="2" t="s">
         <v>852</v>
       </c>
       <c r="P221" s="1">
@@ -13271,7 +13261,7 @@
       <c r="Q221" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="S221" s="7" t="str">
+      <c r="S221" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|1|2537050589;9901|1|2537050589;9902|1|2537050589;9903|2|2537050589</v>
       </c>
@@ -13283,13 +13273,13 @@
       <c r="B222" s="1">
         <v>8</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" s="2" t="s">
         <v>860</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="E222" s="2" t="s">
         <v>870</v>
       </c>
       <c r="F222" s="1" t="s">
@@ -13301,7 +13291,7 @@
       <c r="H222" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="J222" s="6" t="s">
+      <c r="J222" s="2" t="s">
         <v>872</v>
       </c>
       <c r="P222" s="1">
@@ -13310,7 +13300,7 @@
       <c r="Q222" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="S222" s="7" t="str">
+      <c r="S222" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|5|2963674380</v>
       </c>
@@ -13322,13 +13312,13 @@
       <c r="B223" s="1">
         <v>8</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C223" s="2" t="s">
         <v>874</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="E223" s="2" t="s">
         <v>876</v>
       </c>
       <c r="F223" s="1" t="s">
@@ -13340,7 +13330,7 @@
       <c r="H223" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="J223" s="6" t="s">
+      <c r="J223" s="2" t="s">
         <v>878</v>
       </c>
       <c r="P223" s="1">
@@ -13349,7 +13339,7 @@
       <c r="Q223" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="S223" s="7" t="str">
+      <c r="S223" s="6" t="str">
         <f t="shared" si="3"/>
         <v>805|5|3462038113</v>
       </c>
@@ -13361,13 +13351,13 @@
       <c r="B224" s="1">
         <v>8</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C224" s="2" t="s">
         <v>874</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E224" s="6" t="s">
+      <c r="E224" s="2" t="s">
         <v>881</v>
       </c>
       <c r="F224" s="1" t="s">
@@ -13379,10 +13369,10 @@
       <c r="H224" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="J224" s="6" t="s">
+      <c r="J224" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="K224" s="6" t="s">
+      <c r="K224" s="2" t="s">
         <v>884</v>
       </c>
       <c r="P224" s="1">
@@ -13391,7 +13381,7 @@
       <c r="Q224" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="S224" s="7" t="str">
+      <c r="S224" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|3|4044205387;805|2|4044205387</v>
       </c>
@@ -13403,13 +13393,13 @@
       <c r="B225" s="1">
         <v>8</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C225" s="2" t="s">
         <v>721</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="E225" s="6" t="s">
+      <c r="E225" s="2" t="s">
         <v>886</v>
       </c>
       <c r="F225" s="1" t="s">
@@ -13421,13 +13411,13 @@
       <c r="H225" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="J225" s="6" t="s">
+      <c r="J225" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="K225" s="6" t="s">
+      <c r="K225" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="S225" s="7" t="str">
+      <c r="S225" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|4|4724268387;805|1|4724268387</v>
       </c>
@@ -13439,13 +13429,13 @@
       <c r="B226" s="1">
         <v>8</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C226" s="2" t="s">
         <v>729</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E226" s="6" t="s">
+      <c r="E226" s="2" t="s">
         <v>891</v>
       </c>
       <c r="F226" s="1" t="s">
@@ -13457,13 +13447,13 @@
       <c r="H226" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="J226" s="6" t="s">
+      <c r="J226" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="K226" s="6" t="s">
+      <c r="K226" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="S226" s="7" t="str">
+      <c r="S226" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|2|5518689003;805|3|5518689003</v>
       </c>
@@ -13475,13 +13465,13 @@
       <c r="B227" s="1">
         <v>8</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C227" s="2" t="s">
         <v>736</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="E227" s="2" t="s">
         <v>896</v>
       </c>
       <c r="F227" s="1" t="s">
@@ -13493,13 +13483,13 @@
       <c r="H227" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="J227" s="6" t="s">
+      <c r="J227" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="K227" s="6" t="s">
+      <c r="K227" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="S227" s="7" t="str">
+      <c r="S227" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|3|6446697312;805|2|6446697312</v>
       </c>
@@ -13511,13 +13501,13 @@
       <c r="B228" s="1">
         <v>8</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C228" s="2" t="s">
         <v>721</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="E228" s="2" t="s">
         <v>899</v>
       </c>
       <c r="F228" s="1" t="s">
@@ -13529,13 +13519,13 @@
       <c r="H228" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="J228" s="6" t="s">
+      <c r="J228" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="K228" s="6" t="s">
+      <c r="K228" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="S228" s="7" t="str">
+      <c r="S228" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|4|7530757071;805|1|7530757071</v>
       </c>
@@ -13547,13 +13537,13 @@
       <c r="B229" s="1">
         <v>8</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C229" s="2" t="s">
         <v>729</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="E229" s="2" t="s">
         <v>902</v>
       </c>
       <c r="F229" s="1" t="s">
@@ -13565,13 +13555,13 @@
       <c r="H229" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="J229" s="6" t="s">
+      <c r="J229" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="K229" s="6" t="s">
+      <c r="K229" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="S229" s="7" t="str">
+      <c r="S229" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|1|8797109483;805|4|8797109483</v>
       </c>
@@ -13583,13 +13573,13 @@
       <c r="B230" s="1">
         <v>8</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C230" s="2" t="s">
         <v>736</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="E230" s="2" t="s">
         <v>907</v>
       </c>
       <c r="F230" s="1" t="s">
@@ -13601,13 +13591,13 @@
       <c r="H230" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="J230" s="6" t="s">
+      <c r="J230" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="K230" s="6" t="s">
+      <c r="K230" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="S230" s="7" t="str">
+      <c r="S230" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|2|10276408405;805|3|10276408405</v>
       </c>
@@ -13619,13 +13609,13 @@
       <c r="B231" s="1">
         <v>8</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="2" t="s">
         <v>910</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="E231" s="2" t="s">
         <v>912</v>
       </c>
       <c r="F231" s="1" t="s">
@@ -13637,11 +13627,11 @@
       <c r="H231" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="J231" s="6" t="s">
+      <c r="J231" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K231" s="6"/>
-      <c r="S231" s="7" t="str">
+      <c r="K231" s="2"/>
+      <c r="S231" s="6" t="str">
         <f t="shared" si="3"/>
         <v>806|5|12004462365</v>
       </c>
@@ -13653,13 +13643,13 @@
       <c r="B232" s="1">
         <v>8</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C232" s="2" t="s">
         <v>910</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="E232" s="2" t="s">
         <v>916</v>
       </c>
       <c r="F232" s="1" t="s">
@@ -13671,10 +13661,10 @@
       <c r="H232" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="J232" s="6" t="s">
+      <c r="J232" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="S232" s="7" t="str">
+      <c r="S232" s="6" t="str">
         <f t="shared" si="3"/>
         <v>806|5|14023101359</v>
       </c>
@@ -13686,13 +13676,13 @@
       <c r="B233" s="1">
         <v>8</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C233" s="2" t="s">
         <v>910</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="E233" s="6" t="s">
+      <c r="E233" s="2" t="s">
         <v>919</v>
       </c>
       <c r="F233" s="1" t="s">
@@ -13704,10 +13694,10 @@
       <c r="H233" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="J233" s="6" t="s">
+      <c r="J233" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="S233" s="7" t="str">
+      <c r="S233" s="6" t="str">
         <f t="shared" si="3"/>
         <v>806|5|16381189406</v>
       </c>
@@ -13719,13 +13709,13 @@
       <c r="B234" s="1">
         <v>8</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C234" s="2" t="s">
         <v>721</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="E234" s="2" t="s">
         <v>922</v>
       </c>
       <c r="F234" s="1" t="s">
@@ -13737,16 +13727,16 @@
       <c r="H234" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="J234" s="6" t="s">
+      <c r="J234" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="K234" s="6" t="s">
+      <c r="K234" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="L234" s="6" t="s">
+      <c r="L234" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="S234" s="7" t="str">
+      <c r="S234" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|1|19135807371;805|3|19135807371;806|1|19135807371</v>
       </c>
@@ -13758,13 +13748,13 @@
       <c r="B235" s="1">
         <v>8</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C235" s="2" t="s">
         <v>729</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="E235" s="2" t="s">
         <v>926</v>
       </c>
       <c r="F235" s="1" t="s">
@@ -13776,16 +13766,16 @@
       <c r="H235" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="J235" s="6" t="s">
+      <c r="J235" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="K235" s="6" t="s">
+      <c r="K235" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="L235" s="6" t="s">
+      <c r="L235" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="S235" s="7" t="str">
+      <c r="S235" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|2|22353634690;805|2|22353634690;806|1|22353634690</v>
       </c>
@@ -13797,13 +13787,13 @@
       <c r="B236" s="1">
         <v>8</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C236" s="2" t="s">
         <v>736</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="E236" s="2" t="s">
         <v>929</v>
       </c>
       <c r="F236" s="1" t="s">
@@ -13815,16 +13805,16 @@
       <c r="H236" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="J236" s="6" t="s">
+      <c r="J236" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="K236" s="6" t="s">
+      <c r="K236" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="L236" s="6" t="s">
+      <c r="L236" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="S236" s="7" t="str">
+      <c r="S236" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|3|26112563433;805|1|26112563433;806|1|26112563433</v>
       </c>
@@ -13836,13 +13826,13 @@
       <c r="B237" s="1">
         <v>8</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C237" s="2" t="s">
         <v>721</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="E237" s="6" t="s">
+      <c r="E237" s="2" t="s">
         <v>932</v>
       </c>
       <c r="F237" s="1" t="s">
@@ -13854,16 +13844,16 @@
       <c r="H237" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="J237" s="6" t="s">
+      <c r="J237" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="K237" s="6" t="s">
+      <c r="K237" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="L237" s="6" t="s">
+      <c r="L237" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="S237" s="7" t="str">
+      <c r="S237" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|1|30503583803;805|2|30503583803;806|2|30503583803</v>
       </c>
@@ -13875,13 +13865,13 @@
       <c r="B238" s="1">
         <v>8</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="2" t="s">
         <v>729</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="E238" s="6" t="s">
+      <c r="E238" s="2" t="s">
         <v>936</v>
       </c>
       <c r="F238" s="1" t="s">
@@ -13893,16 +13883,16 @@
       <c r="H238" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="J238" s="6" t="s">
+      <c r="J238" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="K238" s="6" t="s">
+      <c r="K238" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="L238" s="6" t="s">
+      <c r="L238" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="S238" s="7" t="str">
+      <c r="S238" s="6" t="str">
         <f t="shared" si="3"/>
         <v>804|1|35632986674;805|3|35632986674;806|1|35632986674</v>
       </c>
@@ -13914,13 +13904,13 @@
       <c r="B239" s="1">
         <v>8</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C239" s="2" t="s">
         <v>938</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="E239" s="6" t="s">
+      <c r="E239" s="2" t="s">
         <v>940</v>
       </c>
       <c r="F239" s="1" t="s">
@@ -13932,16 +13922,16 @@
       <c r="H239" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="J239" s="6" t="s">
+      <c r="J239" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="K239" s="6" t="s">
+      <c r="K239" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="L239" s="6" t="s">
+      <c r="L239" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="S239" s="7" t="str">
+      <c r="S239" s="6" t="str">
         <f t="shared" si="3"/>
         <v>802|1|41624936515;804|2|41624936515;805|2|41624936515</v>
       </c>
@@ -13953,13 +13943,13 @@
       <c r="B240" s="1">
         <v>8</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C240" s="2" t="s">
         <v>938</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="E240" s="6" t="s">
+      <c r="E240" s="2" t="s">
         <v>944</v>
       </c>
       <c r="F240" s="1" t="s">
@@ -13971,16 +13961,16 @@
       <c r="H240" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="J240" s="6" t="s">
+      <c r="J240" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="K240" s="6" t="s">
+      <c r="K240" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="L240" s="6" t="s">
+      <c r="L240" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="S240" s="7" t="str">
+      <c r="S240" s="6" t="str">
         <f t="shared" si="3"/>
         <v>802|1|48624476970;805|2|48624476970;806|2|48624476970</v>
       </c>
@@ -13992,13 +13982,13 @@
       <c r="B241" s="1">
         <v>8</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="C241" s="2" t="s">
         <v>946</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="E241" s="2" t="s">
         <v>948</v>
       </c>
       <c r="F241" s="1" t="s">
@@ -14010,16 +14000,16 @@
       <c r="H241" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="J241" s="6" t="s">
+      <c r="J241" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="K241" s="6" t="s">
+      <c r="K241" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="L241" s="6" t="s">
+      <c r="L241" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="S241" s="7" t="str">
+      <c r="S241" s="6" t="str">
         <f t="shared" si="3"/>
         <v>803|1|56801041841;804|2|56801041841;805|2|56801041841</v>
       </c>
@@ -14031,13 +14021,13 @@
       <c r="B242" s="1">
         <v>8</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C242" s="2" t="s">
         <v>946</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="E242" s="6" t="s">
+      <c r="E242" s="2" t="s">
         <v>952</v>
       </c>
       <c r="F242" s="1" t="s">
@@ -14049,16 +14039,16 @@
       <c r="H242" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="J242" s="6" t="s">
+      <c r="J242" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="K242" s="6" t="s">
+      <c r="K242" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="L242" s="6" t="s">
+      <c r="L242" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="S242" s="7" t="str">
+      <c r="S242" s="6" t="str">
         <f t="shared" si="3"/>
         <v>803|1|66352556474;805|2|66352556474;806|2|66352556474</v>
       </c>
@@ -14070,13 +14060,13 @@
       <c r="B243" s="1">
         <v>8</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C243" s="2" t="s">
         <v>954</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="E243" s="6" t="s">
+      <c r="E243" s="2" t="s">
         <v>956</v>
       </c>
       <c r="F243" s="1" t="s">
@@ -14088,16 +14078,16 @@
       <c r="H243" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="J243" s="6" t="s">
+      <c r="J243" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K243" s="6" t="s">
+      <c r="K243" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="L243" s="6" t="s">
+      <c r="L243" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="S243" s="7" t="str">
+      <c r="S243" s="6" t="str">
         <f t="shared" si="3"/>
         <v>801|1|77510228827;804|2|77510228827;805|2|77510228827</v>
       </c>
@@ -14109,13 +14099,13 @@
       <c r="B244" s="1">
         <v>8</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C244" s="2" t="s">
         <v>954</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="E244" s="6" t="s">
+      <c r="E244" s="2" t="s">
         <v>960</v>
       </c>
       <c r="F244" s="1" t="s">
@@ -14127,16 +14117,16 @@
       <c r="H244" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="J244" s="6" t="s">
+      <c r="J244" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K244" s="6" t="s">
+      <c r="K244" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="L244" s="6" t="s">
+      <c r="L244" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="S244" s="7" t="str">
+      <c r="S244" s="6" t="str">
         <f t="shared" si="3"/>
         <v>801|1|90544146165;805|2|90544146165;806|2|90544146165</v>
       </c>
@@ -14169,11 +14159,11 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="4.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="79.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="4.33636363636364" customWidth="1"/>
+    <col min="2" max="2" width="79.8818181818182" customWidth="1"/>
+    <col min="3" max="3" width="8.33636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -3962,9 +3962,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3989,20 +3989,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4010,107 +3996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4129,6 +4015,120 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4170,43 +4170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4224,19 +4194,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4248,19 +4224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4272,25 +4248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4308,7 +4266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4320,7 +4278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4332,19 +4296,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4374,54 +4374,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4441,6 +4393,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4470,16 +4437,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4488,133 +4488,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5004,7 +5004,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5095,7 +5095,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -174,7 +174,7 @@
     <t>丐帮乃天下第一大帮，初次挑战一定要取胜。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|250;Exp_Kongfu|80</t>
+    <t>Coin|50;Exp_Role|250;Exp_Kongfu|80</t>
   </si>
   <si>
     <t>丐帮切磋1</t>
@@ -198,7 +198,7 @@
     <t>打狗棒法!上来就亮绝学，要加倍小心。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|255;Exp_Kongfu|81</t>
+    <t>Coin|50;Exp_Role|255;Exp_Kongfu|81</t>
   </si>
   <si>
     <t>丐帮切磋2</t>
@@ -216,7 +216,7 @@
     <t>丐帮弟子卷土重来，准备应战。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|260;Exp_Kongfu|82</t>
+    <t>Coin|50;Exp_Role|260;Exp_Kongfu|82</t>
   </si>
   <si>
     <t>丐帮切磋3</t>
@@ -237,7 +237,7 @@
     <t>一个大汉站在你面前，战斗似乎在所难免。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|265;Exp_Kongfu|83</t>
+    <t>Coin|50;Exp_Role|265;Exp_Kongfu|83</t>
   </si>
   <si>
     <t>丐帮切磋4</t>
@@ -255,7 +255,7 @@
     <t>只见头顶的匾额上写着大忠分舵四个大字。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|270;Exp_Kongfu|84</t>
+    <t>Coin|50;Exp_Role|270;Exp_Kongfu|84</t>
   </si>
   <si>
     <t>丐帮切磋5</t>
@@ -270,7 +270,7 @@
     <t>见一人自大堂走出来，丐帮众人左右让路，</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|275;Exp_Kongfu|85</t>
+    <t>Coin|50;Exp_Role|275;Exp_Kongfu|85</t>
   </si>
   <si>
     <t>丐帮切磋6</t>
@@ -288,7 +288,7 @@
     <t>一本武功秘籍，想必此事不会如此简单。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|280;Exp_Kongfu|86</t>
+    <t>Coin|50;Exp_Role|280;Exp_Kongfu|86</t>
   </si>
   <si>
     <t>丐帮切磋7</t>
@@ -303,7 +303,7 @@
     <t>“大孝分舵”管它的，进去探个究竟！</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|285;Exp_Kongfu|87</t>
+    <t>Coin|50;Exp_Role|285;Exp_Kongfu|87</t>
   </si>
   <si>
     <t>丐帮切磋8</t>
@@ -315,7 +315,7 @@
     <t>丐帮看似散乱，管理却井井有条，切莫小看。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|290;Exp_Kongfu|88</t>
+    <t>Coin|50;Exp_Role|290;Exp_Kongfu|88</t>
   </si>
   <si>
     <t>丐帮切磋9</t>
@@ -327,7 +327,7 @@
     <t>敌人越来越难缠了，让他们看看我们的本事。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|295;Exp_Kongfu|89</t>
+    <t>Coin|50;Exp_Role|295;Exp_Kongfu|89</t>
   </si>
   <si>
     <t>丐帮切磋10</t>
@@ -342,7 +342,7 @@
     <t>几场打斗后弟子们逐渐摸清了丐帮路数。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|300;Exp_Kongfu|90</t>
+    <t>Coin|50;Exp_Role|300;Exp_Kongfu|90</t>
   </si>
   <si>
     <t>丐帮切磋11</t>
@@ -357,7 +357,7 @@
     <t>听落败的那人说，大孝分舵舵主就在前面。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|305;Exp_Kongfu|91</t>
+    <t>Coin|50;Exp_Role|305;Exp_Kongfu|91</t>
   </si>
   <si>
     <t>丐帮切磋12</t>
@@ -369,7 +369,7 @@
     <t>大勇分舵，听起来很厉害的样子。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|310;Exp_Kongfu|92</t>
+    <t>Coin|50;Exp_Role|310;Exp_Kongfu|92</t>
   </si>
   <si>
     <t>丐帮切磋13</t>
@@ -381,7 +381,7 @@
     <t>打狗阵难缠至极，需尽快想出破解之法。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|315;Exp_Kongfu|93</t>
+    <t>Coin|50;Exp_Role|315;Exp_Kongfu|93</t>
   </si>
   <si>
     <t>丐帮切磋14</t>
@@ -393,7 +393,7 @@
     <t>丐帮弟子败下阵来，弟子们端详出了阵法玄机。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|320;Exp_Kongfu|94</t>
+    <t>Coin|50;Exp_Role|320;Exp_Kongfu|94</t>
   </si>
   <si>
     <t>丐帮切磋15</t>
@@ -405,7 +405,7 @@
     <t>双方打斗正酣，一度进入僵持状态。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|325;Exp_Kongfu|95</t>
+    <t>Coin|50;Exp_Role|325;Exp_Kongfu|95</t>
   </si>
   <si>
     <t>丐帮切磋16</t>
@@ -417,7 +417,7 @@
     <t>弟子们信心满满，正准备暴揍这帮叫花子。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|330;Exp_Kongfu|96</t>
+    <t>Coin|50;Exp_Role|330;Exp_Kongfu|96</t>
   </si>
   <si>
     <t>丐帮切磋17</t>
@@ -429,7 +429,7 @@
     <t>丐帮弟子四散而逃并留下一句：有本事别跑。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|335;Exp_Kongfu|97</t>
+    <t>Coin|50;Exp_Role|335;Exp_Kongfu|97</t>
   </si>
   <si>
     <t>丐帮切磋18</t>
@@ -441,7 +441,7 @@
     <t>大勇分舵被打的落花流水，屁滚尿流。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|340;Exp_Kongfu|98</t>
+    <t>Coin|50;Exp_Role|340;Exp_Kongfu|98</t>
   </si>
   <si>
     <t>丐帮切磋19</t>
@@ -453,7 +453,7 @@
     <t>前边又有几个小叫花子叫阵，还等什么？</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|345;Exp_Kongfu|99</t>
+    <t>Coin|50;Exp_Role|345;Exp_Kongfu|99</t>
   </si>
   <si>
     <t>丐帮切磋20</t>
@@ -465,7 +465,7 @@
     <t>还有什么功夫尽管使出来!</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|350;Exp_Kongfu|100</t>
+    <t>Coin|50;Exp_Role|350;Exp_Kongfu|100</t>
   </si>
   <si>
     <t>丐帮切磋21</t>
@@ -477,7 +477,7 @@
     <t>树林中一声大叫：菜鸡止步。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|355;Exp_Kongfu|102</t>
+    <t>Coin|50;Exp_Role|355;Exp_Kongfu|102</t>
   </si>
   <si>
     <t>丐帮切磋22</t>
@@ -489,7 +489,7 @@
     <t>师父说丐帮人喜欢吹牛皮，果然不假。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|360;Exp_Kongfu|104</t>
+    <t>Coin|50;Exp_Role|360;Exp_Kongfu|104</t>
   </si>
   <si>
     <t>丐帮切磋23</t>
@@ -501,7 +501,7 @@
     <t>弟子埋头赶路之际，忽而一道黑影掠过。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|365;Exp_Kongfu|106</t>
+    <t>Coin|50;Exp_Role|365;Exp_Kongfu|106</t>
   </si>
   <si>
     <t>丐帮切磋24</t>
@@ -513,7 +513,7 @@
     <t>“不怕挨揍的往前站！”</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|370;Exp_Kongfu|108</t>
+    <t>Coin|50;Exp_Role|370;Exp_Kongfu|108</t>
   </si>
   <si>
     <t>丐帮切磋25</t>
@@ -525,7 +525,7 @@
     <t>日暮时分，弟子们看见了不远处的丐帮总舵.</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|375;Exp_Kongfu|110</t>
+    <t>Coin|50;Exp_Role|375;Exp_Kongfu|110</t>
   </si>
   <si>
     <t>丐帮切磋26</t>
@@ -559,7 +559,7 @@
     <t>总舵的守卫弟子将我们团团围住，不妙！</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|380;Exp_Kongfu|112</t>
+    <t>Coin|50;Exp_Role|380;Exp_Kongfu|112</t>
   </si>
   <si>
     <t>丐帮切磋27</t>
@@ -574,7 +574,7 @@
     <t>前面一老翁席地而坐，正在树下独酌。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|385;Exp_Kongfu|114</t>
+    <t>Coin|50;Exp_Role|385;Exp_Kongfu|114</t>
   </si>
   <si>
     <t>丐帮切磋28</t>
@@ -589,7 +589,7 @@
     <t>手持打狗棒，是洪七长老没错了。</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|390;Exp_Kongfu|116</t>
+    <t>Coin|50;Exp_Role|390;Exp_Kongfu|116</t>
   </si>
   <si>
     <t>丐帮切磋29</t>
@@ -626,7 +626,7 @@
     <t>一声龙吟响彻天地，乔帮主终于现身！</t>
   </si>
   <si>
-    <t>Coin|100;Exp_Role|395;Exp_Kongfu|118</t>
+    <t>Coin|50;Exp_Role|395;Exp_Kongfu|118</t>
   </si>
   <si>
     <t>丐帮切磋30</t>
@@ -663,7 +663,7 @@
     <t>少林名动天下，切不可轻敌。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|400;Exp_Kongfu|120</t>
+    <t>Coin|100;Exp_Role|400;Exp_Kongfu|120</t>
   </si>
   <si>
     <t>少林切磋1</t>
@@ -681,7 +681,7 @@
     <t>小和尚一脸傲气，再叫他尝尝厉害。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|410;Exp_Kongfu|122</t>
+    <t>Coin|100;Exp_Role|410;Exp_Kongfu|122</t>
   </si>
   <si>
     <t>少林切磋2</t>
@@ -699,7 +699,7 @@
     <t>打了个小光头，来了个大光头。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|420;Exp_Kongfu|124</t>
+    <t>Coin|100;Exp_Role|420;Exp_Kongfu|124</t>
   </si>
   <si>
     <t>少林切磋3</t>
@@ -720,7 +720,7 @@
     <t>不愧是少林正宗，小辈弟子英才辈出。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|430;Exp_Kongfu|126</t>
+    <t>Coin|100;Exp_Role|430;Exp_Kongfu|126</t>
   </si>
   <si>
     <t>少林切磋4</t>
@@ -738,7 +738,7 @@
     <t>小辈弟子有了师傅在场指点，小心应对。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|440;Exp_Kongfu|128</t>
+    <t>Coin|100;Exp_Role|440;Exp_Kongfu|128</t>
   </si>
   <si>
     <t>少林切磋5</t>
@@ -781,7 +781,7 @@
     <t>此处刚是山脚，看来少林卧虎藏龙。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|450;Exp_Kongfu|130</t>
+    <t>Coin|100;Exp_Role|450;Exp_Kongfu|130</t>
   </si>
   <si>
     <t>少林切磋6</t>
@@ -821,7 +821,7 @@
     <t>看来少林也开始认真应对了，我们全力以赴！</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|460;Exp_Kongfu|132</t>
+    <t>Coin|100;Exp_Role|460;Exp_Kongfu|132</t>
   </si>
   <si>
     <t>少林切磋7</t>
@@ -858,7 +858,7 @@
     <t>少林弟子果真招招精妙，不虚此行。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|470;Exp_Kongfu|134</t>
+    <t>Coin|100;Exp_Role|470;Exp_Kongfu|134</t>
   </si>
   <si>
     <t>少林切磋8</t>
@@ -892,7 +892,7 @@
     <t>少林七十二绝技，此次不知能见识几招！</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|480;Exp_Kongfu|136</t>
+    <t>Coin|100;Exp_Role|480;Exp_Kongfu|136</t>
   </si>
   <si>
     <t>少林切磋9</t>
@@ -929,7 +929,7 @@
     <t>竟有玄字高僧出来督战，可不能弱了气势。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|490;Exp_Kongfu|138</t>
+    <t>Coin|100;Exp_Role|490;Exp_Kongfu|138</t>
   </si>
   <si>
     <t>少林切磋10</t>
@@ -963,7 +963,7 @@
     <t>玄字高僧要亲自出手了，却不知是何手段。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|500;Exp_Kongfu|140</t>
+    <t>Coin|100;Exp_Role|500;Exp_Kongfu|140</t>
   </si>
   <si>
     <t>少林切磋11</t>
@@ -975,7 +975,7 @@
     <t>玄字高僧和弟子一同结阵，棘手棘手。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|520;Exp_Kongfu|142</t>
+    <t>Coin|100;Exp_Role|520;Exp_Kongfu|142</t>
   </si>
   <si>
     <t>少林切磋12</t>
@@ -990,7 +990,7 @@
     <t>听说少林藏经阁法藏无数，定不能空手而回。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|540;Exp_Kongfu|144</t>
+    <t>Coin|100;Exp_Role|540;Exp_Kongfu|144</t>
   </si>
   <si>
     <t>少林切磋13</t>
@@ -1005,7 +1005,7 @@
     <t>三拳两脚撂倒看管僧，借几本秘籍回去。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|560;Exp_Kongfu|146</t>
+    <t>Coin|100;Exp_Role|560;Exp_Kongfu|146</t>
   </si>
   <si>
     <t>少林切磋14</t>
@@ -1017,7 +1017,7 @@
     <t>到手，向大雄宝殿去，先解决拦路的。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|580;Exp_Kongfu|148</t>
+    <t>Coin|100;Exp_Role|580;Exp_Kongfu|148</t>
   </si>
   <si>
     <t>少林切磋15</t>
@@ -1029,7 +1029,7 @@
     <t>糟糕，藏经阁里的小和尚追出来了，快走。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|600;Exp_Kongfu|150</t>
+    <t>Coin|100;Exp_Role|600;Exp_Kongfu|150</t>
   </si>
   <si>
     <t>少林切磋16</t>
@@ -1041,7 +1041,7 @@
     <t>前方大和尚拦路，定是小和尚报的信，出手！</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|620;Exp_Kongfu|152</t>
+    <t>Coin|100;Exp_Role|620;Exp_Kongfu|152</t>
   </si>
   <si>
     <t>少林切磋17</t>
@@ -1053,7 +1053,7 @@
     <t>没想藏经阁内居然有玄字僧坐镇，严阵以待。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|640;Exp_Kongfu|154</t>
+    <t>Coin|100;Exp_Role|640;Exp_Kongfu|154</t>
   </si>
   <si>
     <t>少林切磋18</t>
@@ -1068,7 +1068,7 @@
     <t>咦，长眉须执扫帚，莫非是传说中的...?</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|660;Exp_Kongfu|156</t>
+    <t>Coin|100;Exp_Role|660;Exp_Kongfu|156</t>
   </si>
   <si>
     <t>少林切磋19</t>
@@ -1080,7 +1080,7 @@
     <t>扫地僧力未全尽，少林果然深不可测。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|680;Exp_Kongfu|158</t>
+    <t>Coin|100;Exp_Role|680;Exp_Kongfu|158</t>
   </si>
   <si>
     <t>少林切磋20</t>
@@ -1095,7 +1095,7 @@
     <t>小和尚们得了扫地僧的教导，强了许多。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|700;Exp_Kongfu|160</t>
+    <t>Coin|100;Exp_Role|700;Exp_Kongfu|160</t>
   </si>
   <si>
     <t>少林切磋21</t>
@@ -1132,7 +1132,7 @@
     <t>前面的大和尚背锅带勺，莫不是个厨子？</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|720;Exp_Kongfu|162</t>
+    <t>Coin|100;Exp_Role|720;Exp_Kongfu|162</t>
   </si>
   <si>
     <t>少林切磋22</t>
@@ -1144,7 +1144,7 @@
     <t>兀那和尚，恁的了得，再战过！</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|740;Exp_Kongfu|164</t>
+    <t>Coin|100;Exp_Role|740;Exp_Kongfu|164</t>
   </si>
   <si>
     <t>少林切磋23</t>
@@ -1159,7 +1159,7 @@
     <t>前方便是大雄宝殿，须记得不要失了礼数。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|760;Exp_Kongfu|166</t>
+    <t>Coin|100;Exp_Role|760;Exp_Kongfu|166</t>
   </si>
   <si>
     <t>少林切磋24</t>
@@ -1171,7 +1171,7 @@
     <t>暮鼓擂响，少林晚课时分，好手都在前方。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|780;Exp_Kongfu|168</t>
+    <t>Coin|100;Exp_Role|780;Exp_Kongfu|168</t>
   </si>
   <si>
     <t>少林切磋25</t>
@@ -1183,7 +1183,7 @@
     <t>玄字高僧带着小辈翘楚，是一番好战。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|800;Exp_Kongfu|170</t>
+    <t>Coin|100;Exp_Role|800;Exp_Kongfu|170</t>
   </si>
   <si>
     <t>少林切磋26</t>
@@ -1195,7 +1195,7 @@
     <t>试探结束，怕是要现真招了，我们上。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|820;Exp_Kongfu|172</t>
+    <t>Coin|100;Exp_Role|820;Exp_Kongfu|172</t>
   </si>
   <si>
     <t>少林切磋27</t>
@@ -1207,7 +1207,7 @@
     <t>五位玄字僧尽皆下场，我派也不能示弱。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|840;Exp_Kongfu|174</t>
+    <t>Coin|100;Exp_Role|840;Exp_Kongfu|174</t>
   </si>
   <si>
     <t>少林切磋28</t>
@@ -1222,7 +1222,7 @@
     <t>少林方丈内力浑厚如斯，居然能平地浮空？</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|860;Exp_Kongfu|176</t>
+    <t>Coin|100;Exp_Role|860;Exp_Kongfu|176</t>
   </si>
   <si>
     <t>少林切磋29</t>
@@ -1237,7 +1237,7 @@
     <t>方丈怕已经成了罗汉得了果位，竟如此了得。</t>
   </si>
   <si>
-    <t>Coin|200;Exp_Role|880;Exp_Kongfu|178</t>
+    <t>Coin|100;Exp_Role|880;Exp_Kongfu|178</t>
   </si>
   <si>
     <t>少林切磋30</t>
@@ -1255,7 +1255,7 @@
     <t>武当功夫自成一家，深不可测。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|900;Exp_Kongfu|180</t>
+    <t>Coin|150;Exp_Role|900;Exp_Kongfu|180</t>
   </si>
   <si>
     <t>武当切磋1</t>
@@ -1279,7 +1279,7 @@
     <t>北少林，南武当。今日一见名不虚传。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|950;Exp_Kongfu|182</t>
+    <t>Coin|150;Exp_Role|950;Exp_Kongfu|182</t>
   </si>
   <si>
     <t>武当切磋2</t>
@@ -1300,7 +1300,7 @@
     <t>纯阳无极功果然了得，小心为是。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1000;Exp_Kongfu|184</t>
+    <t>Coin|150;Exp_Role|1000;Exp_Kongfu|184</t>
   </si>
   <si>
     <t>武当切磋3</t>
@@ -1321,7 +1321,7 @@
     <t>一众武当弟子盘坐于禅垫之上，像是在练功。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1050;Exp_Kongfu|186</t>
+    <t>Coin|150;Exp_Role|1050;Exp_Kongfu|186</t>
   </si>
   <si>
     <t>武当切磋4</t>
@@ -1336,7 +1336,7 @@
     <t>知己知彼，方能百战不殆。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1100;Exp_Kongfu|188</t>
+    <t>Coin|150;Exp_Role|1100;Exp_Kongfu|188</t>
   </si>
   <si>
     <t>武当切磋5</t>
@@ -1351,7 +1351,7 @@
     <t>武当七侠石希灵，勇猛过人，剑法精妙。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1150;Exp_Kongfu|190</t>
+    <t>Coin|150;Exp_Role|1150;Exp_Kongfu|190</t>
   </si>
   <si>
     <t>武当切磋6</t>
@@ -1366,7 +1366,7 @@
     <t>二十五个道士分成五组，莫非是大五行剑阵！</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1200;Exp_Kongfu|192</t>
+    <t>Coin|150;Exp_Role|1200;Exp_Kongfu|192</t>
   </si>
   <si>
     <t>武当切磋7</t>
@@ -1387,7 +1387,7 @@
     <t>敌方弟子来势汹汹，我们当沉着应对。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1250;Exp_Kongfu|194</t>
+    <t>Coin|150;Exp_Role|1250;Exp_Kongfu|194</t>
   </si>
   <si>
     <t>武当切磋8</t>
@@ -1399,7 +1399,7 @@
     <t>长剑剑横扫而过。众人举剑抵挡。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1300;Exp_Kongfu|196</t>
+    <t>Coin|150;Exp_Role|1300;Exp_Kongfu|196</t>
   </si>
   <si>
     <t>武当切磋9</t>
@@ -1411,7 +1411,7 @@
     <t>观其形，锁其力，唯心一势，则剑阵可破。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1350;Exp_Kongfu|198</t>
+    <t>Coin|150;Exp_Role|1350;Exp_Kongfu|198</t>
   </si>
   <si>
     <t>武当切磋10</t>
@@ -1423,7 +1423,7 @@
     <t>武当弟子已是疲于招架，乘胜追击！</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1400;Exp_Kongfu|200</t>
+    <t>Coin|150;Exp_Role|1400;Exp_Kongfu|200</t>
   </si>
   <si>
     <t>武当切磋11</t>
@@ -1438,7 +1438,7 @@
     <t>武当六侠郭希明，七侠中知识最为渊博的</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1450;Exp_Kongfu|202</t>
+    <t>Coin|150;Exp_Role|1450;Exp_Kongfu|202</t>
   </si>
   <si>
     <t>武当切磋12</t>
@@ -1450,7 +1450,7 @@
     <t>掬润弄明月，长啸倚青松。青松剑客来也。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1500;Exp_Kongfu|204</t>
+    <t>Coin|150;Exp_Role|1500;Exp_Kongfu|204</t>
   </si>
   <si>
     <t>武当切磋13</t>
@@ -1462,7 +1462,7 @@
     <t>双方缠斗在一起，场面十分混乱。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1550;Exp_Kongfu|206</t>
+    <t>Coin|150;Exp_Role|1550;Exp_Kongfu|206</t>
   </si>
   <si>
     <t>武当切磋14</t>
@@ -1474,7 +1474,7 @@
     <t>“要打便真打，老是拆拳化掌，算什么武林北斗？”</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1600;Exp_Kongfu|208</t>
+    <t>Coin|150;Exp_Role|1600;Exp_Kongfu|208</t>
   </si>
   <si>
     <t>武当切磋15</t>
@@ -1486,7 +1486,7 @@
     <t>嗤一声，竹林划出一道口子，一个黑影来到身前。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1650;Exp_Kongfu|210</t>
+    <t>Coin|150;Exp_Role|1650;Exp_Kongfu|210</t>
   </si>
   <si>
     <t>武当切磋16</t>
@@ -1498,7 +1498,7 @@
     <t>武当山卧虎藏龙，还是不要乱说话的好…</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1700;Exp_Kongfu|212</t>
+    <t>Coin|150;Exp_Role|1700;Exp_Kongfu|212</t>
   </si>
   <si>
     <t>武当切磋17</t>
@@ -1510,7 +1510,7 @@
     <t>此人便是武当派卢五侠，为人豪爽，脾气暴躁。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1750;Exp_Kongfu|214</t>
+    <t>Coin|150;Exp_Role|1750;Exp_Kongfu|214</t>
   </si>
   <si>
     <t>武当切磋18</t>
@@ -1522,7 +1522,7 @@
     <t>真武七截阵，一仙道人的得意功夫。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1800;Exp_Kongfu|216</t>
+    <t>Coin|150;Exp_Role|1800;Exp_Kongfu|216</t>
   </si>
   <si>
     <t>武当切磋19</t>
@@ -1534,7 +1534,7 @@
     <t>武当弟子一改打法，剑剑往人死穴刺来。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1850;Exp_Kongfu|218</t>
+    <t>Coin|150;Exp_Role|1850;Exp_Kongfu|218</t>
   </si>
   <si>
     <t>武当切磋20</t>
@@ -1546,7 +1546,7 @@
     <t>三人蹬地而起，使出一招仙人指路。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1900;Exp_Kongfu|220</t>
+    <t>Coin|150;Exp_Role|1900;Exp_Kongfu|220</t>
   </si>
   <si>
     <t>武当切磋21</t>
@@ -1580,7 +1580,7 @@
     <t>敌方弟子坚守不退，我们该如何是好？</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|1950;Exp_Kongfu|222</t>
+    <t>Coin|150;Exp_Role|1950;Exp_Kongfu|222</t>
   </si>
   <si>
     <t>武当切磋22</t>
@@ -1592,7 +1592,7 @@
     <t>“哈哈，来见识见识武当的太极拳！”</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|2000;Exp_Kongfu|224</t>
+    <t>Coin|150;Exp_Role|2000;Exp_Kongfu|224</t>
   </si>
   <si>
     <t>武当切磋23</t>
@@ -1604,7 +1604,7 @@
     <t>武当邵三侠，传闻是一仙道人的侄子。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|2050;Exp_Kongfu|226</t>
+    <t>Coin|150;Exp_Role|2050;Exp_Kongfu|226</t>
   </si>
   <si>
     <t>武当切磋24</t>
@@ -1638,7 +1638,7 @@
     <t>一路坎坷，终于来到了玉虚宫前。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|2100;Exp_Kongfu|228</t>
+    <t>Coin|150;Exp_Role|2100;Exp_Kongfu|228</t>
   </si>
   <si>
     <t>武当切磋25</t>
@@ -1650,7 +1650,7 @@
     <t>冲出来一队道士，再次将弟子们围住。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|2150;Exp_Kongfu|230</t>
+    <t>Coin|150;Exp_Role|2150;Exp_Kongfu|230</t>
   </si>
   <si>
     <t>武当切磋26</t>
@@ -1662,7 +1662,7 @@
     <t>304|2|29712;305|3|29712</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|2200;Exp_Kongfu|232</t>
+    <t>Coin|150;Exp_Role|2200;Exp_Kongfu|232</t>
   </si>
   <si>
     <t>武当切磋27</t>
@@ -1699,7 +1699,7 @@
     <t>手持“仙人指路”幡，此人便是一仙道人。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|2250;Exp_Kongfu|234</t>
+    <t>Coin|150;Exp_Role|2250;Exp_Kongfu|234</t>
   </si>
   <si>
     <t>武当切磋28</t>
@@ -1717,7 +1717,7 @@
     <t>鸡腿配酒，莫非是隐退江湖的脏道人！</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|2300;Exp_Kongfu|236</t>
+    <t>Coin|150;Exp_Role|2300;Exp_Kongfu|236</t>
   </si>
   <si>
     <t>武当切磋29</t>
@@ -1735,7 +1735,7 @@
     <t>前面便是武当派开山始祖——张真人。</t>
   </si>
   <si>
-    <t>Coin|500;Exp_Role|2350;Exp_Kongfu|238</t>
+    <t>Coin|150;Exp_Role|2350;Exp_Kongfu|238</t>
   </si>
   <si>
     <t>武当切磋30</t>
@@ -1772,7 +1772,7 @@
     <t>“一树开五花，五花八叶扶”说的便是峨眉武功。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2400;Exp_Kongfu|240</t>
+    <t>Coin|200;Exp_Role|2400;Exp_Kongfu|240</t>
   </si>
   <si>
     <t>峨眉切磋1</t>
@@ -1787,7 +1787,7 @@
     <t>青莲女神剑不容小觑，严阵以待。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2450;Exp_Kongfu|242</t>
+    <t>Coin|200;Exp_Role|2450;Exp_Kongfu|242</t>
   </si>
   <si>
     <t>峨眉切磋2</t>
@@ -1802,7 +1802,7 @@
     <t>缠斗之际，峨眉弟子使出一招清风袭月。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2500;Exp_Kongfu|244</t>
+    <t>Coin|200;Exp_Role|2500;Exp_Kongfu|244</t>
   </si>
   <si>
     <t>峨眉切磋3</t>
@@ -1817,7 +1817,7 @@
     <t>敌方弟子风头正盛，我们当尽快找出破绽。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2550;Exp_Kongfu|246</t>
+    <t>Coin|200;Exp_Role|2550;Exp_Kongfu|246</t>
   </si>
   <si>
     <t>峨眉切磋4</t>
@@ -1832,7 +1832,7 @@
     <t>五花观，听着想卖肉的，进去瞧瞧。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2600;Exp_Kongfu|248</t>
+    <t>Coin|200;Exp_Role|2600;Exp_Kongfu|248</t>
   </si>
   <si>
     <t>峨眉切磋5</t>
@@ -1844,7 +1844,7 @@
     <t>峨嵋派下属八派，这便是僧门弟子清净。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2650;Exp_Kongfu|250</t>
+    <t>Coin|200;Exp_Role|2650;Exp_Kongfu|250</t>
   </si>
   <si>
     <t>峨眉切磋6</t>
@@ -1856,7 +1856,7 @@
     <t>白蟒鞭灵动有力，跟五毒教的鞭法大不一样。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2700;Exp_Kongfu|252</t>
+    <t>Coin|200;Exp_Role|2700;Exp_Kongfu|252</t>
   </si>
   <si>
     <t>峨眉切磋7</t>
@@ -1865,7 +1865,7 @@
     <t>403|5|28000</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2750;Exp_Kongfu|254</t>
+    <t>Coin|200;Exp_Role|2750;Exp_Kongfu|254</t>
   </si>
   <si>
     <t>峨眉切磋8</t>
@@ -1877,7 +1877,7 @@
     <t>峨眉剑法虚实结合，难以预料，当小心为是。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2800;Exp_Kongfu|256</t>
+    <t>Coin|200;Exp_Role|2800;Exp_Kongfu|256</t>
   </si>
   <si>
     <t>峨眉切磋9</t>
@@ -1889,7 +1889,7 @@
     <t>峨眉弟子正在败退，赶紧追!</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2850;Exp_Kongfu|258</t>
+    <t>Coin|200;Exp_Role|2850;Exp_Kongfu|258</t>
   </si>
   <si>
     <t>峨眉切磋10</t>
@@ -1901,7 +1901,7 @@
     <t>不好，中埋伏了。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2900;Exp_Kongfu|260</t>
+    <t>Coin|200;Exp_Role|2900;Exp_Kongfu|260</t>
   </si>
   <si>
     <t>峨眉切磋11</t>
@@ -1913,7 +1913,7 @@
     <t>会门弟子清迦，讲究观师默像，念咒语，颇为神秘</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|2950;Exp_Kongfu|262</t>
+    <t>Coin|200;Exp_Role|2950;Exp_Kongfu|262</t>
   </si>
   <si>
     <t>峨眉切磋12</t>
@@ -1925,7 +1925,7 @@
     <t>双方弟子互不相让，场面一度十分混乱。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3000;Exp_Kongfu|264</t>
+    <t>Coin|200;Exp_Role|3000;Exp_Kongfu|264</t>
   </si>
   <si>
     <t>峨眉切磋13</t>
@@ -1937,7 +1937,7 @@
     <t>弟子们打激战正酣，一度进入僵持状态。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3050;Exp_Kongfu|266</t>
+    <t>Coin|200;Exp_Role|3050;Exp_Kongfu|266</t>
   </si>
   <si>
     <t>峨眉切磋14</t>
@@ -1949,7 +1949,7 @@
     <t>前方一阵骚乱，弟子们加快脚步，准备一探究竟。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3100;Exp_Kongfu|268</t>
+    <t>Coin|200;Exp_Role|3100;Exp_Kongfu|268</t>
   </si>
   <si>
     <t>峨眉切磋15</t>
@@ -1961,7 +1961,7 @@
     <t>双方话不投机半句多，见面就出招厮打起来。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3150;Exp_Kongfu|270</t>
+    <t>Coin|200;Exp_Role|3150;Exp_Kongfu|270</t>
   </si>
   <si>
     <t>峨眉切磋16</t>
@@ -1973,7 +1973,7 @@
     <t>树林中冲出一众尼姑，将弟子团团围住。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3200;Exp_Kongfu|272</t>
+    <t>Coin|200;Exp_Role|3200;Exp_Kongfu|272</t>
   </si>
   <si>
     <t>峨眉切磋17</t>
@@ -1985,7 +1985,7 @@
     <t>化门弟子清照，使得三十六闭手甚是厉害</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3250;Exp_Kongfu|274</t>
+    <t>Coin|200;Exp_Role|3250;Exp_Kongfu|274</t>
   </si>
   <si>
     <t>峨眉切磋18</t>
@@ -1997,7 +1997,7 @@
     <t>“贼众休跑，伤我门人，叫你们有来无回！”</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3300;Exp_Kongfu|276</t>
+    <t>Coin|200;Exp_Role|3300;Exp_Kongfu|276</t>
   </si>
   <si>
     <t>峨眉切磋19</t>
@@ -2009,7 +2009,7 @@
     <t>“何人敢闯我峨眉净地,跪下！”</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3350;Exp_Kongfu|278</t>
+    <t>Coin|200;Exp_Role|3350;Exp_Kongfu|278</t>
   </si>
   <si>
     <t>峨眉切磋20</t>
@@ -2021,7 +2021,7 @@
     <t>峨眉弟子败下阵来，追！</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3400;Exp_Kongfu|280</t>
+    <t>Coin|200;Exp_Role|3400;Exp_Kongfu|280</t>
   </si>
   <si>
     <t>峨眉切磋21</t>
@@ -2033,7 +2033,7 @@
     <t>不妙！又被包围了，揍她丫的。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3450;Exp_Kongfu|282</t>
+    <t>Coin|200;Exp_Role|3450;Exp_Kongfu|282</t>
   </si>
   <si>
     <t>峨眉切磋22</t>
@@ -2045,7 +2045,7 @@
     <t>“好一招大雁啼沙，看我的无影脚！”</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3500;Exp_Kongfu|284</t>
+    <t>Coin|200;Exp_Role|3500;Exp_Kongfu|284</t>
   </si>
   <si>
     <t>峨眉切磋23</t>
@@ -2057,7 +2057,7 @@
     <t>此人岳门弟子清虚，一看就是身子虚。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3550;Exp_Kongfu|286</t>
+    <t>Coin|200;Exp_Role|3550;Exp_Kongfu|286</t>
   </si>
   <si>
     <t>峨眉切磋24</t>
@@ -2069,7 +2069,7 @@
     <t>听得嗖得一声，一道白光闪过，好强的剑气！</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3600;Exp_Kongfu|288</t>
+    <t>Coin|200;Exp_Role|3600;Exp_Kongfu|288</t>
   </si>
   <si>
     <t>峨眉切磋25</t>
@@ -2081,7 +2081,7 @@
     <t>突见人影一闪，几人前后合围，挡住了去路。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3650;Exp_Kongfu|290</t>
+    <t>Coin|200;Exp_Role|3650;Exp_Kongfu|290</t>
   </si>
   <si>
     <t>峨眉切磋26</t>
@@ -2093,7 +2093,7 @@
     <t>敌方弟子卷土重来，继续揍他们！</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3700;Exp_Kongfu|292</t>
+    <t>Coin|200;Exp_Role|3700;Exp_Kongfu|292</t>
   </si>
   <si>
     <t>峨眉切磋27</t>
@@ -2105,7 +2105,7 @@
     <t>峨眉弟子已是疲于招架，乘胜追击！</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3750;Exp_Kongfu|294</t>
+    <t>Coin|200;Exp_Role|3750;Exp_Kongfu|294</t>
   </si>
   <si>
     <t>峨眉切磋28</t>
@@ -2120,7 +2120,7 @@
     <t>冲虚观，进去瞧瞧。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3800;Exp_Kongfu|296</t>
+    <t>Coin|200;Exp_Role|3800;Exp_Kongfu|296</t>
   </si>
   <si>
     <t>峨眉切磋29</t>
@@ -2141,7 +2141,7 @@
     <t>前面就是峨眉掌门绝绝师太，去会会她。</t>
   </si>
   <si>
-    <t>Coin|800;Exp_Role|3850;Exp_Kongfu|298</t>
+    <t>Coin|200;Exp_Role|3850;Exp_Kongfu|298</t>
   </si>
   <si>
     <t>峨眉切磋30</t>
@@ -2159,7 +2159,7 @@
     <t>华山奇拔峻秀，真乃人间仙境。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|3900;Exp_Kongfu|300</t>
+    <t>Coin|250;Exp_Role|3900;Exp_Kongfu|300</t>
   </si>
   <si>
     <t>华山切磋1</t>
@@ -2183,7 +2183,7 @@
     <t>华山剑术精妙绝伦，弟子们切莫大意轻敌。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|3950;Exp_Kongfu|302</t>
+    <t>Coin|250;Exp_Role|3950;Exp_Kongfu|302</t>
   </si>
   <si>
     <t>华山切磋2</t>
@@ -2198,7 +2198,7 @@
     <t>503|2|82455;505|3|82455</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4000;Exp_Kongfu|304</t>
+    <t>Coin|250;Exp_Role|4000;Exp_Kongfu|304</t>
   </si>
   <si>
     <t>华山切磋3</t>
@@ -2213,7 +2213,7 @@
     <t>功夫不赖，是花拳绣腿还是徒有虚名呀？</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4050;Exp_Kongfu|306</t>
+    <t>Coin|250;Exp_Role|4050;Exp_Kongfu|306</t>
   </si>
   <si>
     <t>华山切磋4</t>
@@ -2231,7 +2231,7 @@
     <t>华山弟子气急，一招白虹贯日，朝人脸上劈来。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4100;Exp_Kongfu|308</t>
+    <t>Coin|250;Exp_Role|4100;Exp_Kongfu|308</t>
   </si>
   <si>
     <t>华山切磋5</t>
@@ -2252,7 +2252,7 @@
     <t>前面就是乔光升，是山不羊的关门弟子。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4150;Exp_Kongfu|310</t>
+    <t>Coin|250;Exp_Role|4150;Exp_Kongfu|310</t>
   </si>
   <si>
     <t>华山切磋6</t>
@@ -2267,7 +2267,7 @@
     <t>“贼众休跑，休要伤我师弟！”</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4200;Exp_Kongfu|312</t>
+    <t>Coin|250;Exp_Role|4200;Exp_Kongfu|312</t>
   </si>
   <si>
     <t>华山切磋7</t>
@@ -2282,7 +2282,7 @@
     <t>华山剑法干净利落招招制敌，。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4250;Exp_Kongfu|314</t>
+    <t>Coin|250;Exp_Role|4250;Exp_Kongfu|314</t>
   </si>
   <si>
     <t>华山切磋8</t>
@@ -2297,7 +2297,7 @@
     <t>明月松间照，清泉石上流，华山六弟子来也！</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4300;Exp_Kongfu|316</t>
+    <t>Coin|250;Exp_Role|4300;Exp_Kongfu|316</t>
   </si>
   <si>
     <t>华山切磋9</t>
@@ -2309,7 +2309,7 @@
     <t>弟子们急忙赶路，一众华山弟子挡住了去路。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4350;Exp_Kongfu|318</t>
+    <t>Coin|250;Exp_Role|4350;Exp_Kongfu|318</t>
   </si>
   <si>
     <t>华山切磋10</t>
@@ -2321,7 +2321,7 @@
     <t>听说你们有一招无边落木，耍出来给爷瞧瞧。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4400;Exp_Kongfu|320</t>
+    <t>Coin|250;Exp_Role|4400;Exp_Kongfu|320</t>
   </si>
   <si>
     <t>华山切磋11</t>
@@ -2333,7 +2333,7 @@
     <t>此人就是华山五弟子陈大冲，脾气冲。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4450;Exp_Kongfu|322</t>
+    <t>Coin|250;Exp_Role|4450;Exp_Kongfu|322</t>
   </si>
   <si>
     <t>华山切磋12</t>
@@ -2364,7 +2364,7 @@
     <t>503|2|302228;505|3|302228</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4500;Exp_Kongfu|324</t>
+    <t>Coin|250;Exp_Role|4500;Exp_Kongfu|324</t>
   </si>
   <si>
     <t>华山切磋13</t>
@@ -2379,7 +2379,7 @@
     <t>又是你们，怕是上次被揍的不够狠吧</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4600;Exp_Kongfu|326</t>
+    <t>Coin|250;Exp_Role|4600;Exp_Kongfu|326</t>
   </si>
   <si>
     <t>华山切磋14</t>
@@ -2394,7 +2394,7 @@
     <t>强敌来犯，众弟子小心！</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4700;Exp_Kongfu|328</t>
+    <t>Coin|250;Exp_Role|4700;Exp_Kongfu|328</t>
   </si>
   <si>
     <t>华山切磋15</t>
@@ -2409,7 +2409,7 @@
     <t>既然这帮人不留情面，我们也不必客气了。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4800;Exp_Kongfu|330</t>
+    <t>Coin|250;Exp_Role|4800;Exp_Kongfu|330</t>
   </si>
   <si>
     <t>华山切磋16</t>
@@ -2421,7 +2421,7 @@
     <t>似有似无，似实似虚，华山剑法名不虚传。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|4900;Exp_Kongfu|332</t>
+    <t>Coin|250;Exp_Role|4900;Exp_Kongfu|332</t>
   </si>
   <si>
     <t>华山切磋17</t>
@@ -2436,7 +2436,7 @@
     <t>“华山三弟子应光和，前来比武。”</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5000;Exp_Kongfu|334</t>
+    <t>Coin|250;Exp_Role|5000;Exp_Kongfu|334</t>
   </si>
   <si>
     <t>华山切磋18</t>
@@ -2448,7 +2448,7 @@
     <t>时值正午，熟睡的弟子们被嘈杂的叫嚷声吵醒。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5100;Exp_Kongfu|336</t>
+    <t>Coin|250;Exp_Role|5100;Exp_Kongfu|336</t>
   </si>
   <si>
     <t>华山切磋19</t>
@@ -2460,7 +2460,7 @@
     <t>剑宗气宗合起来对付我们？一起收拾！</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5200;Exp_Kongfu|338</t>
+    <t>Coin|250;Exp_Role|5200;Exp_Kongfu|338</t>
   </si>
   <si>
     <t>华山切磋20</t>
@@ -2472,7 +2472,7 @@
     <t>竹林内瑟瑟作响，像是有人在此设伏。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5300;Exp_Kongfu|340</t>
+    <t>Coin|250;Exp_Role|5300;Exp_Kongfu|340</t>
   </si>
   <si>
     <t>华山切磋21</t>
@@ -2484,7 +2484,7 @@
     <t>“小贼留步！”突见人影一闪，几人前后合围。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5400;Exp_Kongfu|342</t>
+    <t>Coin|250;Exp_Role|5400;Exp_Kongfu|342</t>
   </si>
   <si>
     <t>华山切磋22</t>
@@ -2493,7 +2493,7 @@
     <t>503|3|1107779;504|1|1107779;505|1|1107779</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5500;Exp_Kongfu|344</t>
+    <t>Coin|250;Exp_Role|5500;Exp_Kongfu|344</t>
   </si>
   <si>
     <t>华山切磋23</t>
@@ -2505,7 +2505,7 @@
     <t>一群落单的，还等什么？往死里打！</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5600;Exp_Kongfu|346</t>
+    <t>Coin|250;Exp_Role|5600;Exp_Kongfu|346</t>
   </si>
   <si>
     <t>华山切磋24</t>
@@ -2517,7 +2517,7 @@
     <t>前面就是华山二弟子，此人心狠手辣，注意防范。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5700;Exp_Kongfu|348</t>
+    <t>Coin|250;Exp_Role|5700;Exp_Kongfu|348</t>
   </si>
   <si>
     <t>华山切磋25</t>
@@ -2529,7 +2529,7 @@
     <t>我乃华山大弟子于大通，伤我师弟，找打！</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5800;Exp_Kongfu|350</t>
+    <t>Coin|250;Exp_Role|5800;Exp_Kongfu|350</t>
   </si>
   <si>
     <t>华山切磋26</t>
@@ -2541,7 +2541,7 @@
     <t>紫云洞：师祖清修，弟子不得入内</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|5900;Exp_Kongfu|352</t>
+    <t>Coin|250;Exp_Role|5900;Exp_Kongfu|352</t>
   </si>
   <si>
     <t>华山切磋27</t>
@@ -2553,7 +2553,7 @@
     <t>“弟子不得入内”这就进去看看。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|6000;Exp_Kongfu|354</t>
+    <t>Coin|250;Exp_Role|6000;Exp_Kongfu|354</t>
   </si>
   <si>
     <t>华山切磋28</t>
@@ -2565,7 +2565,7 @@
     <t>“何人敢闯我紫云洞”这一声雄浑有力。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|6250;Exp_Kongfu|356</t>
+    <t>Coin|250;Exp_Role|6250;Exp_Kongfu|356</t>
   </si>
   <si>
     <t>华山切磋29</t>
@@ -2599,7 +2599,7 @@
     <t>见华山掌门丘不君盘坐一青莲之上。</t>
   </si>
   <si>
-    <t>Coin|1200;Exp_Role|6500;Exp_Kongfu|358</t>
+    <t>Coin|250;Exp_Role|6500;Exp_Kongfu|358</t>
   </si>
   <si>
     <t>华山切磋30</t>
@@ -2617,7 +2617,7 @@
     <t>石峰矗立，烟云缭绕，五毒岭到了。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|6750;Exp_Kongfu|360</t>
+    <t>Coin|300;Exp_Role|6750;Exp_Kongfu|360</t>
   </si>
   <si>
     <t>五毒教切磋1</t>
@@ -2638,7 +2638,7 @@
     <t>五仙教是使毒的行家，切莫大意。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|7000;Exp_Kongfu|380</t>
+    <t>Coin|300;Exp_Role|7000;Exp_Kongfu|380</t>
   </si>
   <si>
     <t>五毒教切磋2</t>
@@ -2659,7 +2659,7 @@
     <t>好一招千蛛万毒手，得尽快想出破解之法。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|7250;Exp_Kongfu|400</t>
+    <t>Coin|300;Exp_Role|7250;Exp_Kongfu|400</t>
   </si>
   <si>
     <t>五毒教切磋3</t>
@@ -2677,7 +2677,7 @@
     <t>五毒教所制毒药可使人当场毙命，小心为是。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|7500;Exp_Kongfu|420</t>
+    <t>Coin|300;Exp_Role|7500;Exp_Kongfu|420</t>
   </si>
   <si>
     <t>五毒教切磋4</t>
@@ -2698,7 +2698,7 @@
     <t>大门四开，怕不是有埋伏吧。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|7750;Exp_Kongfu|440</t>
+    <t>Coin|300;Exp_Role|7750;Exp_Kongfu|440</t>
   </si>
   <si>
     <t>五毒教切磋5</t>
@@ -2713,7 +2713,7 @@
     <t>这山都光秃秃的，可没少被祸害。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|8000;Exp_Kongfu|460</t>
+    <t>Coin|300;Exp_Role|8000;Exp_Kongfu|460</t>
   </si>
   <si>
     <t>五毒教切磋6</t>
@@ -2731,7 +2731,7 @@
     <t>“谁得罪了五毒教，我定让他死无全尸。”</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|8500;Exp_Kongfu|480</t>
+    <t>Coin|300;Exp_Role|8500;Exp_Kongfu|480</t>
   </si>
   <si>
     <t>五毒教切磋7</t>
@@ -2768,7 +2768,7 @@
     <t>只听得咻的一声，一条软鞭打弟子们头顶上穿过。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|9000;Exp_Kongfu|500</t>
+    <t>Coin|300;Exp_Role|9000;Exp_Kongfu|500</t>
   </si>
   <si>
     <t>五毒教切磋8</t>
@@ -2780,7 +2780,7 @@
     <t>众人怒气冲天，一场恶斗在所难免。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|9500;Exp_Kongfu|520</t>
+    <t>Coin|300;Exp_Role|9500;Exp_Kongfu|520</t>
   </si>
   <si>
     <t>五毒教切磋9</t>
@@ -2792,7 +2792,7 @@
     <t>五毒教众人被我方弟子吓破了胆，乘胜追击！</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|10000;Exp_Kongfu|540</t>
+    <t>Coin|300;Exp_Role|10000;Exp_Kongfu|540</t>
   </si>
   <si>
     <t>五毒教切磋10</t>
@@ -2804,7 +2804,7 @@
     <t>弟子们加快脚步，却被一群五毒弟子拦住去路</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|11000;Exp_Kongfu|560</t>
+    <t>Coin|300;Exp_Role|11000;Exp_Kongfu|560</t>
   </si>
   <si>
     <t>五毒教切磋11</t>
@@ -2816,7 +2816,7 @@
     <t>弟子们避雨之际，看到前面有一五毒教头目。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|12000;Exp_Kongfu|580</t>
+    <t>Coin|300;Exp_Role|12000;Exp_Kongfu|580</t>
   </si>
   <si>
     <t>五毒教切磋12</t>
@@ -2828,7 +2828,7 @@
     <t>五毒教下属分支组织松散，还得逐个击破。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|13000;Exp_Kongfu|600</t>
+    <t>Coin|300;Exp_Role|13000;Exp_Kongfu|600</t>
   </si>
   <si>
     <t>五毒教切磋13</t>
@@ -2840,7 +2840,7 @@
     <t>看来这帮人绝非等闲之辈，严阵以待。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|14000;Exp_Kongfu|620</t>
+    <t>Coin|300;Exp_Role|14000;Exp_Kongfu|620</t>
   </si>
   <si>
     <t>五毒教切磋14</t>
@@ -2849,7 +2849,7 @@
     <t>603|2|11510671;605|3|11510671</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|15000;Exp_Kongfu|640</t>
+    <t>Coin|300;Exp_Role|15000;Exp_Kongfu|640</t>
   </si>
   <si>
     <t>五毒教切磋15</t>
@@ -2864,7 +2864,7 @@
     <t>“赶紧把五仙大补药酒拿出来给爷爷们尝尝。”</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|16000;Exp_Kongfu|660</t>
+    <t>Coin|300;Exp_Role|16000;Exp_Kongfu|660</t>
   </si>
   <si>
     <t>五毒教切磋16</t>
@@ -2876,7 +2876,7 @@
     <t>抓获的俘虏交代青蛇堂离这里不远了。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|18000;Exp_Kongfu|680</t>
+    <t>Coin|300;Exp_Role|18000;Exp_Kongfu|680</t>
   </si>
   <si>
     <t>五毒教切磋17</t>
@@ -2888,7 +2888,7 @@
     <t>见一人盘坐青莲之上，想必此人就是堂主。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|20000;Exp_Kongfu|700</t>
+    <t>Coin|300;Exp_Role|20000;Exp_Kongfu|700</t>
   </si>
   <si>
     <t>五毒教切磋18</t>
@@ -2903,7 +2903,7 @@
     <t>一阵阴风刮过，又是五毒教的人搞的鬼。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|22000;Exp_Kongfu|720</t>
+    <t>Coin|300;Exp_Role|22000;Exp_Kongfu|720</t>
   </si>
   <si>
     <t>五毒教切磋19</t>
@@ -2918,7 +2918,7 @@
     <t>敌人落荒而逃，到底是无胆鼠辈。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|24000;Exp_Kongfu|740</t>
+    <t>Coin|300;Exp_Role|24000;Exp_Kongfu|740</t>
   </si>
   <si>
     <t>五毒教切磋20</t>
@@ -2974,7 +2974,7 @@
     <t>“快看!丐帮的密信被卷走了，追！”</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|26000;Exp_Kongfu|760</t>
+    <t>Coin|300;Exp_Role|26000;Exp_Kongfu|760</t>
   </si>
   <si>
     <t>五毒教切磋21</t>
@@ -3008,7 +3008,7 @@
     <t>“老实交代情况，不然揍得你妈都认不出来。”</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|28000;Exp_Kongfu|780</t>
+    <t>Coin|300;Exp_Role|28000;Exp_Kongfu|780</t>
   </si>
   <si>
     <t>五毒教切磋22</t>
@@ -3020,7 +3020,7 @@
     <t>教主下令取走了密信？此事必有蹊跷。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|30000;Exp_Kongfu|800</t>
+    <t>Coin|300;Exp_Role|30000;Exp_Kongfu|800</t>
   </si>
   <si>
     <t>五毒教切磋23</t>
@@ -3032,7 +3032,7 @@
     <t>弟子们赶奔五毒山顶，更狠毒的地敌人在等着他们。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|32000;Exp_Kongfu|820</t>
+    <t>Coin|300;Exp_Role|32000;Exp_Kongfu|820</t>
   </si>
   <si>
     <t>五毒教切磋24</t>
@@ -3044,7 +3044,7 @@
     <t>一发飞镖扎在树上，字条上写着“我们有毒”。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|34000;Exp_Kongfu|840</t>
+    <t>Coin|300;Exp_Role|34000;Exp_Kongfu|840</t>
   </si>
   <si>
     <t>五毒教切磋25</t>
@@ -3056,7 +3056,7 @@
     <t>敌方弟子来势汹汹，我们当冷静应对。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|36000;Exp_Kongfu|860</t>
+    <t>Coin|300;Exp_Role|36000;Exp_Kongfu|860</t>
   </si>
   <si>
     <t>五毒教切磋26</t>
@@ -3068,7 +3068,7 @@
     <t>又是一发暗器，真是阴险。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|38000;Exp_Kongfu|880</t>
+    <t>Coin|300;Exp_Role|38000;Exp_Kongfu|880</t>
   </si>
   <si>
     <t>五毒教切磋27</t>
@@ -3080,7 +3080,7 @@
     <t>五毒弟子卷土重来，准备战斗!</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|40000;Exp_Kongfu|900</t>
+    <t>Coin|300;Exp_Role|40000;Exp_Kongfu|900</t>
   </si>
   <si>
     <t>五毒教切磋28</t>
@@ -3114,7 +3114,7 @@
     <t>此人就是左护法，诡秘奇特，极难对付。</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|42000;Exp_Kongfu|920</t>
+    <t>Coin|300;Exp_Role|42000;Exp_Kongfu|920</t>
   </si>
   <si>
     <t>五毒教切磋29</t>
@@ -3170,7 +3170,7 @@
     <t>教主就在殿内，冲进去干他！</t>
   </si>
   <si>
-    <t>Coin|5000;Exp_Role|44000;Exp_Kongfu|940</t>
+    <t>Coin|300;Exp_Role|44000;Exp_Kongfu|940</t>
   </si>
   <si>
     <t>五毒教切磋30</t>
@@ -3226,7 +3226,7 @@
     <t>黄沙漫漫，千万小心，恐四处皆敌。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|46000;Exp_Kongfu|960</t>
+    <t>Coin|350;Exp_Role|46000;Exp_Kongfu|960</t>
   </si>
   <si>
     <t>明教切磋1</t>
@@ -3244,7 +3244,7 @@
     <t>小心第二次袭击，刚刚只是试探。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|48000;Exp_Kongfu|980</t>
+    <t>Coin|350;Exp_Role|48000;Exp_Kongfu|980</t>
   </si>
   <si>
     <t>明教切磋2</t>
@@ -3262,7 +3262,7 @@
     <t>无耻小贼，居然偷袭，我派可也不是吃素的。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|50000;Exp_Kongfu|1000</t>
+    <t>Coin|350;Exp_Role|50000;Exp_Kongfu|1000</t>
   </si>
   <si>
     <t>明教切磋3</t>
@@ -3302,7 +3302,7 @@
     <t>前方敌人越来越多，我们离目标很近了。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|52000;Exp_Kongfu|1020</t>
+    <t>Coin|350;Exp_Role|52000;Exp_Kongfu|1020</t>
   </si>
   <si>
     <t>明教切磋4</t>
@@ -3320,7 +3320,7 @@
     <t>魔教众以西域人为主，乍一看都是帅哥美女。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|54000;Exp_Kongfu|1040</t>
+    <t>Coin|350;Exp_Role|54000;Exp_Kongfu|1040</t>
   </si>
   <si>
     <t>明教切磋5</t>
@@ -3385,7 +3385,7 @@
     <t>魔教人人舞一轮弯刀，刀法奇诡，甚是古怪。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|56000;Exp_Kongfu|1060</t>
+    <t>Coin|350;Exp_Role|56000;Exp_Kongfu|1060</t>
   </si>
   <si>
     <t>明教切磋6</t>
@@ -3409,7 +3409,7 @@
     <t>魔教中人竟练出阴阳互济的刀阵，不可小觑。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|58000;Exp_Kongfu|1080</t>
+    <t>Coin|350;Exp_Role|58000;Exp_Kongfu|1080</t>
   </si>
   <si>
     <t>明教切磋7</t>
@@ -3424,7 +3424,7 @@
     <t>魔教在身法中混入胡旋舞的脚步，煞是好看。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|60000;Exp_Kongfu|1100</t>
+    <t>Coin|350;Exp_Role|60000;Exp_Kongfu|1100</t>
   </si>
   <si>
     <t>明教切磋8</t>
@@ -3458,7 +3458,7 @@
     <t>魔教众不使汉话，莫下重手，说不定在求饶。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|63000;Exp_Kongfu|1120</t>
+    <t>Coin|350;Exp_Role|63000;Exp_Kongfu|1120</t>
   </si>
   <si>
     <t>明教切磋9</t>
@@ -3514,7 +3514,7 @@
     <t>征伐魔教路途太远，干粮不够，夺些酒食先。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|66000;Exp_Kongfu|1140</t>
+    <t>Coin|350;Exp_Role|66000;Exp_Kongfu|1140</t>
   </si>
   <si>
     <t>明教切磋10</t>
@@ -3551,7 +3551,7 @@
     <t>魔教众分日月星三部，有三大法王统领。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|69000;Exp_Kongfu|1160</t>
+    <t>Coin|350;Exp_Role|69000;Exp_Kongfu|1160</t>
   </si>
   <si>
     <t>明教切磋11</t>
@@ -3569,7 +3569,7 @@
     <t>来人手腕均有六芒星纹饰，想来是星部众。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|72000;Exp_Kongfu|1180</t>
+    <t>Coin|350;Exp_Role|72000;Exp_Kongfu|1180</t>
   </si>
   <si>
     <t>明教切磋12</t>
@@ -3584,7 +3584,7 @@
     <t>听说月部众只收美女，师兄弟能一饱眼福了。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|75000;Exp_Kongfu|1200</t>
+    <t>Coin|350;Exp_Role|75000;Exp_Kongfu|1200</t>
   </si>
   <si>
     <t>明教切磋13</t>
@@ -3599,7 +3599,7 @@
     <t>日部众体格壮硕，却不是好惹的。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|78000;Exp_Kongfu|1220</t>
+    <t>Coin|350;Exp_Role|78000;Exp_Kongfu|1220</t>
   </si>
   <si>
     <t>明教切磋14</t>
@@ -3611,7 +3611,7 @@
     <t>魔教关押了许多武林正派，尽力将他们救出。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|81000;Exp_Kongfu|1240</t>
+    <t>Coin|350;Exp_Role|81000;Exp_Kongfu|1240</t>
   </si>
   <si>
     <t>明教切磋15</t>
@@ -3623,7 +3623,7 @@
     <t>武林同道竟然功力全失，快去一探究竟。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|84000;Exp_Kongfu|1260</t>
+    <t>Coin|350;Exp_Role|84000;Exp_Kongfu|1260</t>
   </si>
   <si>
     <t>明教切磋16</t>
@@ -3635,7 +3635,7 @@
     <t>魔教吸人功力，有违天理，将他们尽皆除去。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|87000;Exp_Kongfu|1280</t>
+    <t>Coin|350;Exp_Role|87000;Exp_Kongfu|1280</t>
   </si>
   <si>
     <t>明教切磋17</t>
@@ -3647,7 +3647,7 @@
     <t>前方便是魔教山门所在，警惕妖人邪法。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|90000;Exp_Kongfu|1300</t>
+    <t>Coin|350;Exp_Role|90000;Exp_Kongfu|1300</t>
   </si>
   <si>
     <t>明教切磋18</t>
@@ -3662,7 +3662,7 @@
     <t>黑发虬髯，铁腕金刀，背悬红日，日轮昭昭！</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|93000;Exp_Kongfu|1320</t>
+    <t>Coin|350;Exp_Role|93000;Exp_Kongfu|1320</t>
   </si>
   <si>
     <t>明教切磋19</t>
@@ -3677,7 +3677,7 @@
     <t>日轮法王指挥星部众来此，击败他们！</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|96000;Exp_Kongfu|1340</t>
+    <t>Coin|350;Exp_Role|96000;Exp_Kongfu|1340</t>
   </si>
   <si>
     <t>明教切磋20</t>
@@ -3711,7 +3711,7 @@
     <t>日部众加入战阵，气势暴涨，尽力抵挡。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|99000;Exp_Kongfu|1360</t>
+    <t>Coin|350;Exp_Role|99000;Exp_Kongfu|1360</t>
   </si>
   <si>
     <t>明教切磋21</t>
@@ -3723,7 +3723,7 @@
     <t>前方寒气蠢蠢，月华清冷，月部众就在前方。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|102000;Exp_Kongfu|1380</t>
+    <t>Coin|350;Exp_Role|102000;Exp_Kongfu|1380</t>
   </si>
   <si>
     <t>明教切磋22</t>
@@ -3735,7 +3735,7 @@
     <t>月部众彻底摆开阵势，清影横浮，不可冒进。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|105000;Exp_Kongfu|1400</t>
+    <t>Coin|350;Exp_Role|105000;Exp_Kongfu|1400</t>
   </si>
   <si>
     <t>明教切磋23</t>
@@ -3747,7 +3747,7 @@
     <t>星月相环，江河辉映。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|108000;Exp_Kongfu|1420</t>
+    <t>Coin|350;Exp_Role|108000;Exp_Kongfu|1420</t>
   </si>
   <si>
     <t>明教切磋24</t>
@@ -3759,7 +3759,7 @@
     <t>日月轮转，生生不息。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|111000;Exp_Kongfu|1440</t>
+    <t>Coin|350;Exp_Role|111000;Exp_Kongfu|1440</t>
   </si>
   <si>
     <t>明教切磋25</t>
@@ -3771,7 +3771,7 @@
     <t>日月星，法三光；天地人，合三才。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|114000;Exp_Kongfu|1460</t>
+    <t>Coin|350;Exp_Role|114000;Exp_Kongfu|1460</t>
   </si>
   <si>
     <t>明教切磋26</t>
@@ -3805,7 +3805,7 @@
     <t>红衣曼舞，青纱摇摇，寒影飘碎，月轮皎皎。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|117000;Exp_Kongfu|1480</t>
+    <t>Coin|350;Exp_Role|117000;Exp_Kongfu|1480</t>
   </si>
   <si>
     <t>明教切磋27</t>
@@ -3823,7 +3823,7 @@
     <t>凌空日月，日月法王要同时出手了！</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|120000;Exp_Kongfu|1500</t>
+    <t>Coin|350;Exp_Role|120000;Exp_Kongfu|1500</t>
   </si>
   <si>
     <t>明教切磋28</t>
@@ -3863,7 +3863,7 @@
     <t>长生天泣，日月无光。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|123000;Exp_Kongfu|1550</t>
+    <t>Coin|350;Exp_Role|123000;Exp_Kongfu|1550</t>
   </si>
   <si>
     <t>明教切磋29</t>
@@ -3881,7 +3881,7 @@
     <t>魔教教主霹雳手段，此战我派必能扬名天下！</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|126000;Exp_Kongfu|1600</t>
+    <t>Coin|350;Exp_Role|126000;Exp_Kongfu|1600</t>
   </si>
   <si>
     <t>明教切磋30</t>
@@ -3915,7 +3915,7 @@
     <t>逍遥派地处绝壁，不知方法难以到达。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|129000;Exp_Kongfu|1650</t>
+    <t>Coin|400;Exp_Role|129000;Exp_Kongfu|1650</t>
   </si>
   <si>
     <t>逍遥切磋1</t>
@@ -3962,7 +3962,7 @@
     <t>前方山下竟有山贼作恶，路见不平拔刀相助！</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|132000;Exp_Kongfu|1700</t>
+    <t>Coin|400;Exp_Role|132000;Exp_Kongfu|1700</t>
   </si>
   <si>
     <t>逍遥切磋2</t>
@@ -4009,7 +4009,7 @@
     <t>好山贼，居然见势不妙逃了，快追！</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|135000;Exp_Kongfu|1750</t>
+    <t>Coin|400;Exp_Role|135000;Exp_Kongfu|1750</t>
   </si>
   <si>
     <t>逍遥切磋3</t>
@@ -4110,7 +4110,7 @@
     <t>山贼喽喽请来了山贼头领，一网打尽。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|138000;Exp_Kongfu|1800</t>
+    <t>Coin|400;Exp_Role|138000;Exp_Kongfu|1800</t>
   </si>
   <si>
     <t>逍遥切磋4</t>
@@ -4189,7 +4189,7 @@
     <t>山贼之中竟有一名白衣人，多加小心！</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|141000;Exp_Kongfu|1850</t>
+    <t>Coin|400;Exp_Role|141000;Exp_Kongfu|1850</t>
   </si>
   <si>
     <t>逍遥切磋5</t>
@@ -4261,7 +4261,7 @@
     <t>白衣人是逍遥派的弃徒，抓住问出逍遥所在。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|144000;Exp_Kongfu|1900</t>
+    <t>Coin|400;Exp_Role|144000;Exp_Kongfu|1900</t>
   </si>
   <si>
     <t>逍遥切磋6</t>
@@ -4276,7 +4276,7 @@
     <t>逍遥派门下出手不像武功，倒像道法了。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|147000;Exp_Kongfu|1950</t>
+    <t>Coin|400;Exp_Role|147000;Exp_Kongfu|1950</t>
   </si>
   <si>
     <t>逍遥切磋7</t>
@@ -4291,7 +4291,7 @@
     <t>逍遥派竟是依靠悬索上下山，向那小山先去。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|150000;Exp_Kongfu|2000</t>
+    <t>Coin|400;Exp_Role|150000;Exp_Kongfu|2000</t>
   </si>
   <si>
     <t>逍遥切磋8</t>
@@ -4331,7 +4331,7 @@
     <t>找对地方了，这里果然有逍遥弟子在守卫。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|153000;Exp_Kongfu|2050</t>
+    <t>Coin|400;Exp_Role|153000;Exp_Kongfu|2050</t>
   </si>
   <si>
     <t>逍遥切磋9</t>
@@ -4349,7 +4349,7 @@
     <t>逍遥派掌握了合击之术，聚多人功力御敌。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|156000;Exp_Kongfu|2100</t>
+    <t>Coin|400;Exp_Role|156000;Exp_Kongfu|2100</t>
   </si>
   <si>
     <t>逍遥切磋10</t>
@@ -4367,7 +4367,7 @@
     <t>逍遥派功法奇特，真气外放，三丈外御敌。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|159000;Exp_Kongfu|2150</t>
+    <t>Coin|400;Exp_Role|159000;Exp_Kongfu|2150</t>
   </si>
   <si>
     <t>逍遥切磋11</t>
@@ -4385,7 +4385,7 @@
     <t>他们一拥而上，看来是乱了阵脚，乘胜追击。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|162000;Exp_Kongfu|2200</t>
+    <t>Coin|400;Exp_Role|162000;Exp_Kongfu|2200</t>
   </si>
   <si>
     <t>逍遥切磋12</t>
@@ -4403,7 +4403,7 @@
     <t>逍遥派的精英居然乘鹤而来，无愧逍遥。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|165000;Exp_Kongfu|2250</t>
+    <t>Coin|400;Exp_Role|165000;Exp_Kongfu|2250</t>
   </si>
   <si>
     <t>逍遥切磋13</t>
@@ -4415,7 +4415,7 @@
     <t>“仙鹤”居然是锁链上的白布，装神弄鬼。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|168000;Exp_Kongfu|2300</t>
+    <t>Coin|400;Exp_Role|168000;Exp_Kongfu|2300</t>
   </si>
   <si>
     <t>逍遥切磋14</t>
@@ -4427,7 +4427,7 @@
     <t>九牛二虎之力，终于看见逍遥派的山门了。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|171000;Exp_Kongfu|2350</t>
+    <t>Coin|400;Exp_Role|171000;Exp_Kongfu|2350</t>
   </si>
   <si>
     <t>逍遥切磋15</t>
@@ -4464,7 +4464,7 @@
     <t>山门内果然精英弟子聚集，我们严阵以待。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|174000;Exp_Kongfu|2400</t>
+    <t>Coin|400;Exp_Role|174000;Exp_Kongfu|2400</t>
   </si>
   <si>
     <t>逍遥切磋16</t>
@@ -4520,7 +4520,7 @@
     <t>逍遥弟子招收弟子以美为标准，怎有胖哥儿？</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|177000;Exp_Kongfu|2450</t>
+    <t>Coin|400;Exp_Role|177000;Exp_Kongfu|2450</t>
   </si>
   <si>
     <t>逍遥切磋17</t>
@@ -4535,7 +4535,7 @@
     <t>胖弟子好强，再去过过招，将底细探查清楚。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|180000;Exp_Kongfu|2500</t>
+    <t>Coin|400;Exp_Role|180000;Exp_Kongfu|2500</t>
   </si>
   <si>
     <t>逍遥切磋18</t>
@@ -4547,7 +4547,7 @@
     <t>看来他们要亮真招了，速速避其锋芒。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|183000;Exp_Kongfu|2550</t>
+    <t>Coin|400;Exp_Role|183000;Exp_Kongfu|2550</t>
   </si>
   <si>
     <t>逍遥切磋19</t>
@@ -4559,7 +4559,7 @@
     <t>其他弟子将功力聚于胖弟子身上，端的生猛。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|186000;Exp_Kongfu|2600</t>
+    <t>Coin|400;Exp_Role|186000;Exp_Kongfu|2600</t>
   </si>
   <si>
     <t>逍遥切磋20</t>
@@ -4593,7 +4593,7 @@
     <t>逍遥派弟子真气激荡，要看清真气流动。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|189000;Exp_Kongfu|2650</t>
+    <t>Coin|400;Exp_Role|189000;Exp_Kongfu|2650</t>
   </si>
   <si>
     <t>逍遥切磋21</t>
@@ -4605,7 +4605,7 @@
     <t>最后一阵，师兄弟尽管出手，掌门随后就到。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|192000;Exp_Kongfu|2700</t>
+    <t>Coin|400;Exp_Role|192000;Exp_Kongfu|2700</t>
   </si>
   <si>
     <t>逍遥切磋22</t>
@@ -4617,7 +4617,7 @@
     <t>一阵青光照过，逍遥派弟子恢复如初。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|195000;Exp_Kongfu|2750</t>
+    <t>Coin|400;Exp_Role|195000;Exp_Kongfu|2750</t>
   </si>
   <si>
     <t>逍遥切磋23</t>
@@ -4632,7 +4632,7 @@
     <t>我们好生休息，强敌一会就来。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|198000;Exp_Kongfu|2800</t>
+    <t>Coin|400;Exp_Role|198000;Exp_Kongfu|2800</t>
   </si>
   <si>
     <t>逍遥切磋24</t>
@@ -4666,7 +4666,7 @@
     <t>咦，这次居然真骑了仙鹤过来，还是个童子。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|201000;Exp_Kongfu|2850</t>
+    <t>Coin|400;Exp_Role|201000;Exp_Kongfu|2850</t>
   </si>
   <si>
     <t>逍遥切磋25</t>
@@ -4700,7 +4700,7 @@
     <t>好厉害的仙童，千万不能小看了。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|204000;Exp_Kongfu|2900</t>
+    <t>Coin|400;Exp_Role|204000;Exp_Kongfu|2900</t>
   </si>
   <si>
     <t>逍遥切磋26</t>
@@ -4734,7 +4734,7 @@
     <t>先是仙童，尔后是仙女，莫非真是神仙庙？</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|207000;Exp_Kongfu|2950</t>
+    <t>Coin|400;Exp_Role|207000;Exp_Kongfu|2950</t>
   </si>
   <si>
     <t>逍遥切磋27</t>
@@ -4768,7 +4768,7 @@
     <t>这玄女白日飞天了，难道真是天上神仙下凡？</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|210000;Exp_Kongfu|3000</t>
+    <t>Coin|400;Exp_Role|210000;Exp_Kongfu|3000</t>
   </si>
   <si>
     <t>逍遥切磋28</t>
@@ -4802,7 +4802,7 @@
     <t>逍遥子头顶灵光脚踩浮云，真神仙也。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|213000;Exp_Kongfu|3050</t>
+    <t>Coin|400;Exp_Role|213000;Exp_Kongfu|3050</t>
   </si>
   <si>
     <t>逍遥切磋29</t>
@@ -4836,7 +4836,7 @@
     <t>管他真假仙人，都要在我派手下跌落凡尘。</t>
   </si>
   <si>
-    <t>Coin|8000;Exp_Role|216000;Exp_Kongfu|3100</t>
+    <t>Coin|400;Exp_Role|216000;Exp_Kongfu|3100</t>
   </si>
   <si>
     <t>逍遥切磋30</t>
@@ -4890,11 +4890,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -4919,7 +4919,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4932,11 +4970,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4965,14 +5025,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4986,59 +5047,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -5048,26 +5056,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5106,97 +5106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5214,7 +5124,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5226,13 +5154,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5244,7 +5178,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5256,25 +5238,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5306,8 +5306,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5331,22 +5355,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5376,40 +5400,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5418,133 +5418,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5943,7 +5943,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6106,7 +6106,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1">
         <v>250</v>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" ref="M5:M68" si="0">"Coin|"&amp;J5&amp;";Exp_Role|"&amp;K5&amp;";Exp_Kongfu|"&amp;L5</f>
-        <v>Coin|100;Exp_Role|250;Exp_Kongfu|80</v>
+        <v>Coin|50;Exp_Role|250;Exp_Kongfu|80</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>28</v>
@@ -6164,7 +6164,7 @@
         <v>35</v>
       </c>
       <c r="J6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1">
         <v>255</v>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|255;Exp_Kongfu|81</v>
+        <v>Coin|50;Exp_Role|255;Exp_Kongfu|81</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>28</v>
@@ -6222,7 +6222,7 @@
         <v>41</v>
       </c>
       <c r="J7" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1">
         <v>260</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|260;Exp_Kongfu|82</v>
+        <v>Coin|50;Exp_Role|260;Exp_Kongfu|82</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>42</v>
@@ -6277,7 +6277,7 @@
         <v>48</v>
       </c>
       <c r="J8" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1">
         <v>265</v>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|265;Exp_Kongfu|83</v>
+        <v>Coin|50;Exp_Role|265;Exp_Kongfu|83</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>28</v>
@@ -6332,7 +6332,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" s="1">
         <v>270</v>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|270;Exp_Kongfu|84</v>
+        <v>Coin|50;Exp_Role|270;Exp_Kongfu|84</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>28</v>
@@ -6387,7 +6387,7 @@
         <v>59</v>
       </c>
       <c r="J10" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1">
         <v>275</v>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|275;Exp_Kongfu|85</v>
+        <v>Coin|50;Exp_Role|275;Exp_Kongfu|85</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>49</v>
@@ -6442,7 +6442,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K11" s="1">
         <v>280</v>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|280;Exp_Kongfu|86</v>
+        <v>Coin|50;Exp_Role|280;Exp_Kongfu|86</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>66</v>
@@ -6491,7 +6491,7 @@
         <v>70</v>
       </c>
       <c r="J12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K12" s="1">
         <v>285</v>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|285;Exp_Kongfu|87</v>
+        <v>Coin|50;Exp_Role|285;Exp_Kongfu|87</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>49</v>
@@ -6540,7 +6540,7 @@
         <v>74</v>
       </c>
       <c r="J13" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K13" s="1">
         <v>290</v>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|290;Exp_Kongfu|88</v>
+        <v>Coin|50;Exp_Role|290;Exp_Kongfu|88</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>66</v>
@@ -6589,7 +6589,7 @@
         <v>78</v>
       </c>
       <c r="J14" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K14" s="1">
         <v>295</v>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|295;Exp_Kongfu|89</v>
+        <v>Coin|50;Exp_Role|295;Exp_Kongfu|89</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>79</v>
@@ -6638,7 +6638,7 @@
         <v>83</v>
       </c>
       <c r="J15" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K15" s="1">
         <v>300</v>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|300;Exp_Kongfu|90</v>
+        <v>Coin|50;Exp_Role|300;Exp_Kongfu|90</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>28</v>
@@ -6687,7 +6687,7 @@
         <v>88</v>
       </c>
       <c r="J16" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1">
         <v>305</v>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|305;Exp_Kongfu|91</v>
+        <v>Coin|50;Exp_Role|305;Exp_Kongfu|91</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>66</v>
@@ -6739,7 +6739,7 @@
         <v>92</v>
       </c>
       <c r="J17" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K17" s="1">
         <v>310</v>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|310;Exp_Kongfu|92</v>
+        <v>Coin|50;Exp_Role|310;Exp_Kongfu|92</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>42</v>
@@ -6788,7 +6788,7 @@
         <v>96</v>
       </c>
       <c r="J18" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K18" s="1">
         <v>315</v>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|315;Exp_Kongfu|93</v>
+        <v>Coin|50;Exp_Role|315;Exp_Kongfu|93</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>28</v>
@@ -6837,7 +6837,7 @@
         <v>100</v>
       </c>
       <c r="J19" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K19" s="1">
         <v>320</v>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|320;Exp_Kongfu|94</v>
+        <v>Coin|50;Exp_Role|320;Exp_Kongfu|94</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>28</v>
@@ -6886,7 +6886,7 @@
         <v>104</v>
       </c>
       <c r="J20" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K20" s="1">
         <v>325</v>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|325;Exp_Kongfu|95</v>
+        <v>Coin|50;Exp_Role|325;Exp_Kongfu|95</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>28</v>
@@ -6935,7 +6935,7 @@
         <v>108</v>
       </c>
       <c r="J21" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K21" s="1">
         <v>330</v>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|330;Exp_Kongfu|96</v>
+        <v>Coin|50;Exp_Role|330;Exp_Kongfu|96</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>42</v>
@@ -6984,7 +6984,7 @@
         <v>112</v>
       </c>
       <c r="J22" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K22" s="1">
         <v>335</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|335;Exp_Kongfu|97</v>
+        <v>Coin|50;Exp_Role|335;Exp_Kongfu|97</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>66</v>
@@ -7036,7 +7036,7 @@
         <v>116</v>
       </c>
       <c r="J23" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K23" s="1">
         <v>340</v>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|340;Exp_Kongfu|98</v>
+        <v>Coin|50;Exp_Role|340;Exp_Kongfu|98</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>42</v>
@@ -7085,7 +7085,7 @@
         <v>120</v>
       </c>
       <c r="J24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K24" s="1">
         <v>345</v>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|345;Exp_Kongfu|99</v>
+        <v>Coin|50;Exp_Role|345;Exp_Kongfu|99</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>28</v>
@@ -7134,7 +7134,7 @@
         <v>124</v>
       </c>
       <c r="J25" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K25" s="1">
         <v>350</v>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|350;Exp_Kongfu|100</v>
+        <v>Coin|50;Exp_Role|350;Exp_Kongfu|100</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>28</v>
@@ -7183,7 +7183,7 @@
         <v>128</v>
       </c>
       <c r="J26" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K26" s="1">
         <v>355</v>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="M26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|355;Exp_Kongfu|102</v>
+        <v>Coin|50;Exp_Role|355;Exp_Kongfu|102</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>42</v>
@@ -7232,7 +7232,7 @@
         <v>132</v>
       </c>
       <c r="J27" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K27" s="1">
         <v>360</v>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="M27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|360;Exp_Kongfu|104</v>
+        <v>Coin|50;Exp_Role|360;Exp_Kongfu|104</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>28</v>
@@ -7281,7 +7281,7 @@
         <v>136</v>
       </c>
       <c r="J28" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K28" s="1">
         <v>365</v>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="M28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|365;Exp_Kongfu|106</v>
+        <v>Coin|50;Exp_Role|365;Exp_Kongfu|106</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>66</v>
@@ -7333,7 +7333,7 @@
         <v>140</v>
       </c>
       <c r="J29" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K29" s="1">
         <v>370</v>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="M29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|370;Exp_Kongfu|108</v>
+        <v>Coin|50;Exp_Role|370;Exp_Kongfu|108</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>42</v>
@@ -7382,7 +7382,7 @@
         <v>144</v>
       </c>
       <c r="J30" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K30" s="1">
         <v>375</v>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="M30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|375;Exp_Kongfu|110</v>
+        <v>Coin|50;Exp_Role|375;Exp_Kongfu|110</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>28</v>
@@ -7431,7 +7431,7 @@
         <v>149</v>
       </c>
       <c r="J31" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K31" s="1">
         <v>380</v>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|380;Exp_Kongfu|112</v>
+        <v>Coin|50;Exp_Role|380;Exp_Kongfu|112</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>28</v>
@@ -7480,7 +7480,7 @@
         <v>154</v>
       </c>
       <c r="J32" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K32" s="1">
         <v>385</v>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="M32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|385;Exp_Kongfu|114</v>
+        <v>Coin|50;Exp_Role|385;Exp_Kongfu|114</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>28</v>
@@ -7529,7 +7529,7 @@
         <v>159</v>
       </c>
       <c r="J33" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K33" s="1">
         <v>390</v>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="M33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|390;Exp_Kongfu|116</v>
+        <v>Coin|50;Exp_Role|390;Exp_Kongfu|116</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>160</v>
@@ -7584,7 +7584,7 @@
         <v>165</v>
       </c>
       <c r="J34" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K34" s="1">
         <v>395</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|100;Exp_Role|395;Exp_Kongfu|118</v>
+        <v>Coin|50;Exp_Role|395;Exp_Kongfu|118</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>166</v>
@@ -7639,7 +7639,7 @@
         <v>171</v>
       </c>
       <c r="J35" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K35" s="1">
         <v>400</v>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|400;Exp_Kongfu|120</v>
+        <v>Coin|100;Exp_Role|400;Exp_Kongfu|120</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>172</v>
@@ -7691,7 +7691,7 @@
         <v>177</v>
       </c>
       <c r="J36" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K36" s="1">
         <v>410</v>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="M36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|410;Exp_Kongfu|122</v>
+        <v>Coin|100;Exp_Role|410;Exp_Kongfu|122</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>172</v>
@@ -7743,7 +7743,7 @@
         <v>183</v>
       </c>
       <c r="J37" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K37" s="1">
         <v>420</v>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="M37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|420;Exp_Kongfu|124</v>
+        <v>Coin|100;Exp_Role|420;Exp_Kongfu|124</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>184</v>
@@ -7798,7 +7798,7 @@
         <v>190</v>
       </c>
       <c r="J38" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K38" s="1">
         <v>430</v>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="M38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|430;Exp_Kongfu|126</v>
+        <v>Coin|100;Exp_Role|430;Exp_Kongfu|126</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>191</v>
@@ -7850,7 +7850,7 @@
         <v>196</v>
       </c>
       <c r="J39" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K39" s="1">
         <v>440</v>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="M39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|440;Exp_Kongfu|128</v>
+        <v>Coin|100;Exp_Role|440;Exp_Kongfu|128</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>197</v>
@@ -7905,7 +7905,7 @@
         <v>204</v>
       </c>
       <c r="J40" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K40" s="1">
         <v>450</v>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="M40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|450;Exp_Kongfu|130</v>
+        <v>Coin|100;Exp_Role|450;Exp_Kongfu|130</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>205</v>
@@ -7960,7 +7960,7 @@
         <v>211</v>
       </c>
       <c r="J41" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="1">
         <v>460</v>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|460;Exp_Kongfu|132</v>
+        <v>Coin|100;Exp_Role|460;Exp_Kongfu|132</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>212</v>
@@ -8009,7 +8009,7 @@
         <v>217</v>
       </c>
       <c r="J42" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K42" s="1">
         <v>470</v>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="M42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|470;Exp_Kongfu|134</v>
+        <v>Coin|100;Exp_Role|470;Exp_Kongfu|134</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>205</v>
@@ -8058,7 +8058,7 @@
         <v>222</v>
       </c>
       <c r="J43" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="1">
         <v>480</v>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="M43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|480;Exp_Kongfu|136</v>
+        <v>Coin|100;Exp_Role|480;Exp_Kongfu|136</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>223</v>
@@ -8107,7 +8107,7 @@
         <v>228</v>
       </c>
       <c r="J44" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="1">
         <v>490</v>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="M44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|490;Exp_Kongfu|138</v>
+        <v>Coin|100;Exp_Role|490;Exp_Kongfu|138</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>223</v>
@@ -8156,7 +8156,7 @@
         <v>233</v>
       </c>
       <c r="J45" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="1">
         <v>500</v>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="M45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|500;Exp_Kongfu|140</v>
+        <v>Coin|100;Exp_Role|500;Exp_Kongfu|140</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>223</v>
@@ -8205,7 +8205,7 @@
         <v>237</v>
       </c>
       <c r="J46" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="1">
         <v>520</v>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="M46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|520;Exp_Kongfu|142</v>
+        <v>Coin|100;Exp_Role|520;Exp_Kongfu|142</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>238</v>
@@ -8251,7 +8251,7 @@
         <v>242</v>
       </c>
       <c r="J47" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K47" s="1">
         <v>540</v>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="M47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|540;Exp_Kongfu|144</v>
+        <v>Coin|100;Exp_Role|540;Exp_Kongfu|144</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>212</v>
@@ -8303,7 +8303,7 @@
         <v>247</v>
       </c>
       <c r="J48" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="1">
         <v>560</v>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="M48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|560;Exp_Kongfu|146</v>
+        <v>Coin|100;Exp_Role|560;Exp_Kongfu|146</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>172</v>
@@ -8349,7 +8349,7 @@
         <v>251</v>
       </c>
       <c r="J49" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="1">
         <v>580</v>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="M49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|580;Exp_Kongfu|148</v>
+        <v>Coin|100;Exp_Role|580;Exp_Kongfu|148</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>191</v>
@@ -8395,7 +8395,7 @@
         <v>255</v>
       </c>
       <c r="J50" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K50" s="1">
         <v>600</v>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="M50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|600;Exp_Kongfu|150</v>
+        <v>Coin|100;Exp_Role|600;Exp_Kongfu|150</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>172</v>
@@ -8441,7 +8441,7 @@
         <v>259</v>
       </c>
       <c r="J51" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K51" s="1">
         <v>620</v>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="M51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|620;Exp_Kongfu|152</v>
+        <v>Coin|100;Exp_Role|620;Exp_Kongfu|152</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>172</v>
@@ -8487,7 +8487,7 @@
         <v>263</v>
       </c>
       <c r="J52" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K52" s="1">
         <v>640</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="M52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|640;Exp_Kongfu|154</v>
+        <v>Coin|100;Exp_Role|640;Exp_Kongfu|154</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>191</v>
@@ -8533,7 +8533,7 @@
         <v>268</v>
       </c>
       <c r="J53" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K53" s="1">
         <v>660</v>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="M53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|660;Exp_Kongfu|156</v>
+        <v>Coin|100;Exp_Role|660;Exp_Kongfu|156</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>238</v>
@@ -8579,7 +8579,7 @@
         <v>272</v>
       </c>
       <c r="J54" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="1">
         <v>680</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="M54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|680;Exp_Kongfu|158</v>
+        <v>Coin|100;Exp_Role|680;Exp_Kongfu|158</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>273</v>
@@ -8631,7 +8631,7 @@
         <v>277</v>
       </c>
       <c r="J55" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K55" s="1">
         <v>700</v>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="M55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|700;Exp_Kongfu|160</v>
+        <v>Coin|100;Exp_Role|700;Exp_Kongfu|160</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>273</v>
@@ -8683,7 +8683,7 @@
         <v>283</v>
       </c>
       <c r="J56" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K56" s="1">
         <v>720</v>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="M56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|720;Exp_Kongfu|162</v>
+        <v>Coin|100;Exp_Role|720;Exp_Kongfu|162</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>205</v>
@@ -8732,7 +8732,7 @@
         <v>287</v>
       </c>
       <c r="J57" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="1">
         <v>740</v>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="M57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|740;Exp_Kongfu|164</v>
+        <v>Coin|100;Exp_Role|740;Exp_Kongfu|164</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>288</v>
@@ -8781,7 +8781,7 @@
         <v>292</v>
       </c>
       <c r="J58" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K58" s="1">
         <v>760</v>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="M58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|760;Exp_Kongfu|166</v>
+        <v>Coin|100;Exp_Role|760;Exp_Kongfu|166</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>288</v>
@@ -8830,7 +8830,7 @@
         <v>296</v>
       </c>
       <c r="J59" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="1">
         <v>780</v>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="M59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|780;Exp_Kongfu|168</v>
+        <v>Coin|100;Exp_Role|780;Exp_Kongfu|168</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>212</v>
@@ -8882,7 +8882,7 @@
         <v>300</v>
       </c>
       <c r="J60" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="1">
         <v>800</v>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="M60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|800;Exp_Kongfu|170</v>
+        <v>Coin|100;Exp_Role|800;Exp_Kongfu|170</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>212</v>
@@ -8934,7 +8934,7 @@
         <v>304</v>
       </c>
       <c r="J61" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="1">
         <v>820</v>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="M61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|820;Exp_Kongfu|172</v>
+        <v>Coin|100;Exp_Role|820;Exp_Kongfu|172</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>212</v>
@@ -8986,7 +8986,7 @@
         <v>308</v>
       </c>
       <c r="J62" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="1">
         <v>840</v>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="M62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|840;Exp_Kongfu|174</v>
+        <v>Coin|100;Exp_Role|840;Exp_Kongfu|174</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>238</v>
@@ -9032,7 +9032,7 @@
         <v>313</v>
       </c>
       <c r="J63" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K63" s="1">
         <v>860</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="M63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|860;Exp_Kongfu|176</v>
+        <v>Coin|100;Exp_Role|860;Exp_Kongfu|176</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>314</v>
@@ -9081,7 +9081,7 @@
         <v>318</v>
       </c>
       <c r="J64" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K64" s="1">
         <v>880</v>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="M64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|200;Exp_Role|880;Exp_Kongfu|178</v>
+        <v>Coin|100;Exp_Role|880;Exp_Kongfu|178</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>314</v>
@@ -9130,7 +9130,7 @@
         <v>324</v>
       </c>
       <c r="J65" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K65" s="1">
         <v>900</v>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="M65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|500;Exp_Role|900;Exp_Kongfu|180</v>
+        <v>Coin|150;Exp_Role|900;Exp_Kongfu|180</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>325</v>
@@ -9182,7 +9182,7 @@
         <v>332</v>
       </c>
       <c r="J66" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K66" s="1">
         <v>950</v>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="M66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|500;Exp_Role|950;Exp_Kongfu|182</v>
+        <v>Coin|150;Exp_Role|950;Exp_Kongfu|182</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>333</v>
@@ -9237,7 +9237,7 @@
         <v>339</v>
       </c>
       <c r="J67" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K67" s="1">
         <v>1000</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="M67" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|500;Exp_Role|1000;Exp_Kongfu|184</v>
+        <v>Coin|150;Exp_Role|1000;Exp_Kongfu|184</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>340</v>
@@ -9292,7 +9292,7 @@
         <v>346</v>
       </c>
       <c r="J68" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K68" s="1">
         <v>1050</v>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="M68" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coin|500;Exp_Role|1050;Exp_Kongfu|186</v>
+        <v>Coin|150;Exp_Role|1050;Exp_Kongfu|186</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>333</v>
@@ -9347,7 +9347,7 @@
         <v>351</v>
       </c>
       <c r="J69" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K69" s="1">
         <v>1100</v>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="M69" s="1" t="str">
         <f t="shared" ref="M69:M132" si="2">"Coin|"&amp;J69&amp;";Exp_Role|"&amp;K69&amp;";Exp_Kongfu|"&amp;L69</f>
-        <v>Coin|500;Exp_Role|1100;Exp_Kongfu|188</v>
+        <v>Coin|150;Exp_Role|1100;Exp_Kongfu|188</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>340</v>
@@ -9402,7 +9402,7 @@
         <v>356</v>
       </c>
       <c r="J70" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K70" s="1">
         <v>1150</v>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="M70" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1150;Exp_Kongfu|190</v>
+        <v>Coin|150;Exp_Role|1150;Exp_Kongfu|190</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>340</v>
@@ -9457,7 +9457,7 @@
         <v>361</v>
       </c>
       <c r="J71" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K71" s="1">
         <v>1200</v>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="M71" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1200;Exp_Kongfu|192</v>
+        <v>Coin|150;Exp_Role|1200;Exp_Kongfu|192</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>362</v>
@@ -9512,7 +9512,7 @@
         <v>368</v>
       </c>
       <c r="J72" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K72" s="1">
         <v>1250</v>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="M72" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1250;Exp_Kongfu|194</v>
+        <v>Coin|150;Exp_Role|1250;Exp_Kongfu|194</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>362</v>
@@ -9561,7 +9561,7 @@
         <v>372</v>
       </c>
       <c r="J73" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K73" s="1">
         <v>1300</v>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="M73" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1300;Exp_Kongfu|196</v>
+        <v>Coin|150;Exp_Role|1300;Exp_Kongfu|196</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>325</v>
@@ -9613,7 +9613,7 @@
         <v>376</v>
       </c>
       <c r="J74" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K74" s="1">
         <v>1350</v>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="M74" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1350;Exp_Kongfu|198</v>
+        <v>Coin|150;Exp_Role|1350;Exp_Kongfu|198</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>362</v>
@@ -9662,7 +9662,7 @@
         <v>380</v>
       </c>
       <c r="J75" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K75" s="1">
         <v>1400</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="M75" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1400;Exp_Kongfu|200</v>
+        <v>Coin|150;Exp_Role|1400;Exp_Kongfu|200</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>381</v>
@@ -9711,7 +9711,7 @@
         <v>385</v>
       </c>
       <c r="J76" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K76" s="1">
         <v>1450</v>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="M76" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1450;Exp_Kongfu|202</v>
+        <v>Coin|150;Exp_Role|1450;Exp_Kongfu|202</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>362</v>
@@ -9760,7 +9760,7 @@
         <v>389</v>
       </c>
       <c r="J77" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K77" s="1">
         <v>1500</v>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="M77" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1500;Exp_Kongfu|204</v>
+        <v>Coin|150;Exp_Role|1500;Exp_Kongfu|204</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>362</v>
@@ -9809,7 +9809,7 @@
         <v>393</v>
       </c>
       <c r="J78" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K78" s="1">
         <v>1550</v>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="M78" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1550;Exp_Kongfu|206</v>
+        <v>Coin|150;Exp_Role|1550;Exp_Kongfu|206</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>325</v>
@@ -9861,7 +9861,7 @@
         <v>397</v>
       </c>
       <c r="J79" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K79" s="1">
         <v>1600</v>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="M79" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1600;Exp_Kongfu|208</v>
+        <v>Coin|150;Exp_Role|1600;Exp_Kongfu|208</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>333</v>
@@ -9910,7 +9910,7 @@
         <v>401</v>
       </c>
       <c r="J80" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K80" s="1">
         <v>1650</v>
@@ -9920,7 +9920,7 @@
       </c>
       <c r="M80" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1650;Exp_Kongfu|210</v>
+        <v>Coin|150;Exp_Role|1650;Exp_Kongfu|210</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>340</v>
@@ -9959,7 +9959,7 @@
         <v>405</v>
       </c>
       <c r="J81" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K81" s="1">
         <v>1700</v>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="M81" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1700;Exp_Kongfu|212</v>
+        <v>Coin|150;Exp_Role|1700;Exp_Kongfu|212</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>333</v>
@@ -10008,7 +10008,7 @@
         <v>409</v>
       </c>
       <c r="J82" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K82" s="1">
         <v>1750</v>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="M82" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1750;Exp_Kongfu|214</v>
+        <v>Coin|150;Exp_Role|1750;Exp_Kongfu|214</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>333</v>
@@ -10060,7 +10060,7 @@
         <v>413</v>
       </c>
       <c r="J83" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K83" s="1">
         <v>1800</v>
@@ -10070,7 +10070,7 @@
       </c>
       <c r="M83" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1800;Exp_Kongfu|216</v>
+        <v>Coin|150;Exp_Role|1800;Exp_Kongfu|216</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>325</v>
@@ -10112,7 +10112,7 @@
         <v>417</v>
       </c>
       <c r="J84" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K84" s="1">
         <v>1850</v>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="M84" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1850;Exp_Kongfu|218</v>
+        <v>Coin|150;Exp_Role|1850;Exp_Kongfu|218</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>333</v>
@@ -10161,7 +10161,7 @@
         <v>421</v>
       </c>
       <c r="J85" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K85" s="1">
         <v>1900</v>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="M85" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1900;Exp_Kongfu|220</v>
+        <v>Coin|150;Exp_Role|1900;Exp_Kongfu|220</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>333</v>
@@ -10210,7 +10210,7 @@
         <v>426</v>
       </c>
       <c r="J86" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K86" s="1">
         <v>1950</v>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="M86" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|1950;Exp_Kongfu|222</v>
+        <v>Coin|150;Exp_Role|1950;Exp_Kongfu|222</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>340</v>
@@ -10259,7 +10259,7 @@
         <v>430</v>
       </c>
       <c r="J87" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K87" s="1">
         <v>2000</v>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="M87" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|2000;Exp_Kongfu|224</v>
+        <v>Coin|150;Exp_Role|2000;Exp_Kongfu|224</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>325</v>
@@ -10308,7 +10308,7 @@
         <v>434</v>
       </c>
       <c r="J88" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K88" s="1">
         <v>2050</v>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="M88" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|2050;Exp_Kongfu|226</v>
+        <v>Coin|150;Exp_Role|2050;Exp_Kongfu|226</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>325</v>
@@ -10357,7 +10357,7 @@
         <v>439</v>
       </c>
       <c r="J89" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K89" s="1">
         <v>2100</v>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="M89" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|2100;Exp_Kongfu|228</v>
+        <v>Coin|150;Exp_Role|2100;Exp_Kongfu|228</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>325</v>
@@ -10409,7 +10409,7 @@
         <v>443</v>
       </c>
       <c r="J90" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K90" s="1">
         <v>2150</v>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="M90" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|2150;Exp_Kongfu|230</v>
+        <v>Coin|150;Exp_Role|2150;Exp_Kongfu|230</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>326</v>
@@ -10458,7 +10458,7 @@
         <v>447</v>
       </c>
       <c r="J91" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K91" s="1">
         <v>2200</v>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="M91" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|2200;Exp_Kongfu|232</v>
+        <v>Coin|150;Exp_Role|2200;Exp_Kongfu|232</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>325</v>
@@ -10507,7 +10507,7 @@
         <v>453</v>
       </c>
       <c r="J92" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K92" s="1">
         <v>2250</v>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="M92" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|2250;Exp_Kongfu|234</v>
+        <v>Coin|150;Exp_Role|2250;Exp_Kongfu|234</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>454</v>
@@ -10559,7 +10559,7 @@
         <v>459</v>
       </c>
       <c r="J93" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K93" s="1">
         <v>2300</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="M93" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|2300;Exp_Kongfu|236</v>
+        <v>Coin|150;Exp_Role|2300;Exp_Kongfu|236</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>460</v>
@@ -10611,7 +10611,7 @@
         <v>465</v>
       </c>
       <c r="J94" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K94" s="1">
         <v>2350</v>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="M94" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|500;Exp_Role|2350;Exp_Kongfu|238</v>
+        <v>Coin|150;Exp_Role|2350;Exp_Kongfu|238</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>466</v>
@@ -10663,7 +10663,7 @@
         <v>471</v>
       </c>
       <c r="J95" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K95" s="1">
         <v>2400</v>
@@ -10673,7 +10673,7 @@
       </c>
       <c r="M95" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2400;Exp_Kongfu|240</v>
+        <v>Coin|200;Exp_Role|2400;Exp_Kongfu|240</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>472</v>
@@ -10709,7 +10709,7 @@
         <v>476</v>
       </c>
       <c r="J96" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K96" s="1">
         <v>2450</v>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="M96" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2450;Exp_Kongfu|242</v>
+        <v>Coin|200;Exp_Role|2450;Exp_Kongfu|242</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>472</v>
@@ -10761,7 +10761,7 @@
         <v>481</v>
       </c>
       <c r="J97" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K97" s="1">
         <v>2500</v>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="M97" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2500;Exp_Kongfu|244</v>
+        <v>Coin|200;Exp_Role|2500;Exp_Kongfu|244</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>472</v>
@@ -10813,7 +10813,7 @@
         <v>486</v>
       </c>
       <c r="J98" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K98" s="1">
         <v>2550</v>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="M98" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2550;Exp_Kongfu|246</v>
+        <v>Coin|200;Exp_Role|2550;Exp_Kongfu|246</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>472</v>
@@ -10865,7 +10865,7 @@
         <v>491</v>
       </c>
       <c r="J99" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K99" s="1">
         <v>2600</v>
@@ -10875,7 +10875,7 @@
       </c>
       <c r="M99" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2600;Exp_Kongfu|248</v>
+        <v>Coin|200;Exp_Role|2600;Exp_Kongfu|248</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>472</v>
@@ -10911,7 +10911,7 @@
         <v>495</v>
       </c>
       <c r="J100" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K100" s="1">
         <v>2650</v>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="M100" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2650;Exp_Kongfu|250</v>
+        <v>Coin|200;Exp_Role|2650;Exp_Kongfu|250</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>472</v>
@@ -10957,7 +10957,7 @@
         <v>499</v>
       </c>
       <c r="J101" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K101" s="1">
         <v>2700</v>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="M101" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2700;Exp_Kongfu|252</v>
+        <v>Coin|200;Exp_Role|2700;Exp_Kongfu|252</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>472</v>
@@ -11003,7 +11003,7 @@
         <v>502</v>
       </c>
       <c r="J102" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K102" s="1">
         <v>2750</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="M102" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2750;Exp_Kongfu|254</v>
+        <v>Coin|200;Exp_Role|2750;Exp_Kongfu|254</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>472</v>
@@ -11049,7 +11049,7 @@
         <v>506</v>
       </c>
       <c r="J103" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K103" s="1">
         <v>2800</v>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="M103" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2800;Exp_Kongfu|256</v>
+        <v>Coin|200;Exp_Role|2800;Exp_Kongfu|256</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>472</v>
@@ -11095,7 +11095,7 @@
         <v>510</v>
       </c>
       <c r="J104" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K104" s="1">
         <v>2850</v>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="M104" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2850;Exp_Kongfu|258</v>
+        <v>Coin|200;Exp_Role|2850;Exp_Kongfu|258</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>472</v>
@@ -11141,7 +11141,7 @@
         <v>514</v>
       </c>
       <c r="J105" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K105" s="1">
         <v>2900</v>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="M105" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2900;Exp_Kongfu|260</v>
+        <v>Coin|200;Exp_Role|2900;Exp_Kongfu|260</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>472</v>
@@ -11187,7 +11187,7 @@
         <v>518</v>
       </c>
       <c r="J106" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K106" s="1">
         <v>2950</v>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="M106" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|2950;Exp_Kongfu|262</v>
+        <v>Coin|200;Exp_Role|2950;Exp_Kongfu|262</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>472</v>
@@ -11233,7 +11233,7 @@
         <v>522</v>
       </c>
       <c r="J107" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K107" s="1">
         <v>3000</v>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="M107" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3000;Exp_Kongfu|264</v>
+        <v>Coin|200;Exp_Role|3000;Exp_Kongfu|264</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>472</v>
@@ -11279,7 +11279,7 @@
         <v>526</v>
       </c>
       <c r="J108" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K108" s="1">
         <v>3050</v>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="M108" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3050;Exp_Kongfu|266</v>
+        <v>Coin|200;Exp_Role|3050;Exp_Kongfu|266</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>472</v>
@@ -11325,7 +11325,7 @@
         <v>530</v>
       </c>
       <c r="J109" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K109" s="1">
         <v>3100</v>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="M109" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3100;Exp_Kongfu|268</v>
+        <v>Coin|200;Exp_Role|3100;Exp_Kongfu|268</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>472</v>
@@ -11371,7 +11371,7 @@
         <v>534</v>
       </c>
       <c r="J110" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K110" s="1">
         <v>3150</v>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="M110" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3150;Exp_Kongfu|270</v>
+        <v>Coin|200;Exp_Role|3150;Exp_Kongfu|270</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>472</v>
@@ -11417,7 +11417,7 @@
         <v>538</v>
       </c>
       <c r="J111" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K111" s="1">
         <v>3200</v>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="M111" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3200;Exp_Kongfu|272</v>
+        <v>Coin|200;Exp_Role|3200;Exp_Kongfu|272</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>472</v>
@@ -11463,7 +11463,7 @@
         <v>542</v>
       </c>
       <c r="J112" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K112" s="1">
         <v>3250</v>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="M112" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3250;Exp_Kongfu|274</v>
+        <v>Coin|200;Exp_Role|3250;Exp_Kongfu|274</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>472</v>
@@ -11509,7 +11509,7 @@
         <v>546</v>
       </c>
       <c r="J113" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K113" s="1">
         <v>3300</v>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="M113" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3300;Exp_Kongfu|276</v>
+        <v>Coin|200;Exp_Role|3300;Exp_Kongfu|276</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>472</v>
@@ -11555,7 +11555,7 @@
         <v>550</v>
       </c>
       <c r="J114" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K114" s="1">
         <v>3350</v>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="M114" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3350;Exp_Kongfu|278</v>
+        <v>Coin|200;Exp_Role|3350;Exp_Kongfu|278</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>472</v>
@@ -11601,7 +11601,7 @@
         <v>554</v>
       </c>
       <c r="J115" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K115" s="1">
         <v>3400</v>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="M115" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3400;Exp_Kongfu|280</v>
+        <v>Coin|200;Exp_Role|3400;Exp_Kongfu|280</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>472</v>
@@ -11647,7 +11647,7 @@
         <v>558</v>
       </c>
       <c r="J116" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K116" s="1">
         <v>3450</v>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="M116" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3450;Exp_Kongfu|282</v>
+        <v>Coin|200;Exp_Role|3450;Exp_Kongfu|282</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>472</v>
@@ -11693,7 +11693,7 @@
         <v>562</v>
       </c>
       <c r="J117" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K117" s="1">
         <v>3500</v>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="M117" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3500;Exp_Kongfu|284</v>
+        <v>Coin|200;Exp_Role|3500;Exp_Kongfu|284</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>472</v>
@@ -11739,7 +11739,7 @@
         <v>566</v>
       </c>
       <c r="J118" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K118" s="1">
         <v>3550</v>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="M118" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3550;Exp_Kongfu|286</v>
+        <v>Coin|200;Exp_Role|3550;Exp_Kongfu|286</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>472</v>
@@ -11785,7 +11785,7 @@
         <v>570</v>
       </c>
       <c r="J119" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K119" s="1">
         <v>3600</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="M119" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3600;Exp_Kongfu|288</v>
+        <v>Coin|200;Exp_Role|3600;Exp_Kongfu|288</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>472</v>
@@ -11831,7 +11831,7 @@
         <v>574</v>
       </c>
       <c r="J120" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K120" s="1">
         <v>3650</v>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="M120" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3650;Exp_Kongfu|290</v>
+        <v>Coin|200;Exp_Role|3650;Exp_Kongfu|290</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>472</v>
@@ -11877,7 +11877,7 @@
         <v>578</v>
       </c>
       <c r="J121" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K121" s="1">
         <v>3700</v>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="M121" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3700;Exp_Kongfu|292</v>
+        <v>Coin|200;Exp_Role|3700;Exp_Kongfu|292</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>472</v>
@@ -11923,7 +11923,7 @@
         <v>582</v>
       </c>
       <c r="J122" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K122" s="1">
         <v>3750</v>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="M122" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3750;Exp_Kongfu|294</v>
+        <v>Coin|200;Exp_Role|3750;Exp_Kongfu|294</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>472</v>
@@ -11969,7 +11969,7 @@
         <v>587</v>
       </c>
       <c r="J123" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K123" s="1">
         <v>3800</v>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="M123" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3800;Exp_Kongfu|296</v>
+        <v>Coin|200;Exp_Role|3800;Exp_Kongfu|296</v>
       </c>
       <c r="O123" s="1" t="s">
         <v>588</v>
@@ -12018,7 +12018,7 @@
         <v>594</v>
       </c>
       <c r="J124" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K124" s="1">
         <v>3850</v>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="M124" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|800;Exp_Role|3850;Exp_Kongfu|298</v>
+        <v>Coin|200;Exp_Role|3850;Exp_Kongfu|298</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>595</v>
@@ -12067,7 +12067,7 @@
         <v>600</v>
       </c>
       <c r="J125" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K125" s="1">
         <v>3900</v>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="M125" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|1200;Exp_Role|3900;Exp_Kongfu|300</v>
+        <v>Coin|250;Exp_Role|3900;Exp_Kongfu|300</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>601</v>
@@ -12119,7 +12119,7 @@
         <v>608</v>
       </c>
       <c r="J126" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K126" s="1">
         <v>3950</v>
@@ -12129,7 +12129,7 @@
       </c>
       <c r="M126" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|1200;Exp_Role|3950;Exp_Kongfu|302</v>
+        <v>Coin|250;Exp_Role|3950;Exp_Kongfu|302</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>609</v>
@@ -12168,7 +12168,7 @@
         <v>613</v>
       </c>
       <c r="J127" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K127" s="1">
         <v>4000</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="M127" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|1200;Exp_Role|4000;Exp_Kongfu|304</v>
+        <v>Coin|250;Exp_Role|4000;Exp_Kongfu|304</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>601</v>
@@ -12217,7 +12217,7 @@
         <v>618</v>
       </c>
       <c r="J128" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K128" s="1">
         <v>4050</v>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="M128" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|1200;Exp_Role|4050;Exp_Kongfu|306</v>
+        <v>Coin|250;Exp_Role|4050;Exp_Kongfu|306</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>619</v>
@@ -12272,7 +12272,7 @@
         <v>624</v>
       </c>
       <c r="J129" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K129" s="1">
         <v>4100</v>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="M129" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|1200;Exp_Role|4100;Exp_Kongfu|308</v>
+        <v>Coin|250;Exp_Role|4100;Exp_Kongfu|308</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>625</v>
@@ -12327,7 +12327,7 @@
         <v>631</v>
       </c>
       <c r="J130" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K130" s="1">
         <v>4150</v>
@@ -12337,7 +12337,7 @@
       </c>
       <c r="M130" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|1200;Exp_Role|4150;Exp_Kongfu|310</v>
+        <v>Coin|250;Exp_Role|4150;Exp_Kongfu|310</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>601</v>
@@ -12382,7 +12382,7 @@
         <v>636</v>
       </c>
       <c r="J131" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K131" s="1">
         <v>4200</v>
@@ -12392,7 +12392,7 @@
       </c>
       <c r="M131" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|1200;Exp_Role|4200;Exp_Kongfu|312</v>
+        <v>Coin|250;Exp_Role|4200;Exp_Kongfu|312</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>609</v>
@@ -12437,7 +12437,7 @@
         <v>641</v>
       </c>
       <c r="J132" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K132" s="1">
         <v>4250</v>
@@ -12447,7 +12447,7 @@
       </c>
       <c r="M132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Coin|1200;Exp_Role|4250;Exp_Kongfu|314</v>
+        <v>Coin|250;Exp_Role|4250;Exp_Kongfu|314</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>625</v>
@@ -12492,7 +12492,7 @@
         <v>646</v>
       </c>
       <c r="J133" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K133" s="1">
         <v>4300</v>
@@ -12502,7 +12502,7 @@
       </c>
       <c r="M133" s="1" t="str">
         <f t="shared" ref="M133:M196" si="4">"Coin|"&amp;J133&amp;";Exp_Role|"&amp;K133&amp;";Exp_Kongfu|"&amp;L133</f>
-        <v>Coin|1200;Exp_Role|4300;Exp_Kongfu|316</v>
+        <v>Coin|250;Exp_Role|4300;Exp_Kongfu|316</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>601</v>
@@ -12541,7 +12541,7 @@
         <v>650</v>
       </c>
       <c r="J134" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K134" s="1">
         <v>4350</v>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="M134" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|4350;Exp_Kongfu|318</v>
+        <v>Coin|250;Exp_Role|4350;Exp_Kongfu|318</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>619</v>
@@ -12590,7 +12590,7 @@
         <v>654</v>
       </c>
       <c r="J135" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K135" s="1">
         <v>4400</v>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="M135" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|4400;Exp_Kongfu|320</v>
+        <v>Coin|250;Exp_Role|4400;Exp_Kongfu|320</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>609</v>
@@ -12639,7 +12639,7 @@
         <v>658</v>
       </c>
       <c r="J136" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K136" s="1">
         <v>4450</v>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="M136" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|4450;Exp_Kongfu|322</v>
+        <v>Coin|250;Exp_Role|4450;Exp_Kongfu|322</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>619</v>
@@ -12688,7 +12688,7 @@
         <v>662</v>
       </c>
       <c r="J137" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K137" s="1">
         <v>4500</v>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="M137" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|4500;Exp_Kongfu|324</v>
+        <v>Coin|250;Exp_Role|4500;Exp_Kongfu|324</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>601</v>
@@ -12737,7 +12737,7 @@
         <v>667</v>
       </c>
       <c r="J138" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K138" s="1">
         <v>4600</v>
@@ -12747,7 +12747,7 @@
       </c>
       <c r="M138" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|4600;Exp_Kongfu|326</v>
+        <v>Coin|250;Exp_Role|4600;Exp_Kongfu|326</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>668</v>
@@ -12786,7 +12786,7 @@
         <v>672</v>
       </c>
       <c r="J139" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K139" s="1">
         <v>4700</v>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="M139" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|4700;Exp_Kongfu|328</v>
+        <v>Coin|250;Exp_Role|4700;Exp_Kongfu|328</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>673</v>
@@ -12835,7 +12835,7 @@
         <v>677</v>
       </c>
       <c r="J140" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K140" s="1">
         <v>4800</v>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="M140" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|4800;Exp_Kongfu|330</v>
+        <v>Coin|250;Exp_Role|4800;Exp_Kongfu|330</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>602</v>
@@ -12884,7 +12884,7 @@
         <v>681</v>
       </c>
       <c r="J141" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K141" s="1">
         <v>4900</v>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="M141" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|4900;Exp_Kongfu|332</v>
+        <v>Coin|250;Exp_Role|4900;Exp_Kongfu|332</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>682</v>
@@ -12933,7 +12933,7 @@
         <v>686</v>
       </c>
       <c r="J142" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K142" s="1">
         <v>5000</v>
@@ -12943,7 +12943,7 @@
       </c>
       <c r="M142" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5000;Exp_Kongfu|334</v>
+        <v>Coin|250;Exp_Role|5000;Exp_Kongfu|334</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>668</v>
@@ -12982,7 +12982,7 @@
         <v>690</v>
       </c>
       <c r="J143" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K143" s="1">
         <v>5100</v>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="M143" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5100;Exp_Kongfu|336</v>
+        <v>Coin|250;Exp_Role|5100;Exp_Kongfu|336</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>682</v>
@@ -13031,7 +13031,7 @@
         <v>694</v>
       </c>
       <c r="J144" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K144" s="1">
         <v>5200</v>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="M144" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5200;Exp_Kongfu|338</v>
+        <v>Coin|250;Exp_Role|5200;Exp_Kongfu|338</v>
       </c>
       <c r="O144" s="1" t="s">
         <v>602</v>
@@ -13080,7 +13080,7 @@
         <v>698</v>
       </c>
       <c r="J145" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K145" s="1">
         <v>5300</v>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="M145" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5300;Exp_Kongfu|340</v>
+        <v>Coin|250;Exp_Role|5300;Exp_Kongfu|340</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>609</v>
@@ -13129,7 +13129,7 @@
         <v>702</v>
       </c>
       <c r="J146" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K146" s="1">
         <v>5400</v>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="M146" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5400;Exp_Kongfu|342</v>
+        <v>Coin|250;Exp_Role|5400;Exp_Kongfu|342</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>601</v>
@@ -13181,7 +13181,7 @@
         <v>705</v>
       </c>
       <c r="J147" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K147" s="1">
         <v>5500</v>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="M147" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5500;Exp_Kongfu|344</v>
+        <v>Coin|250;Exp_Role|5500;Exp_Kongfu|344</v>
       </c>
       <c r="O147" s="1" t="s">
         <v>609</v>
@@ -13233,7 +13233,7 @@
         <v>709</v>
       </c>
       <c r="J148" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K148" s="1">
         <v>5600</v>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="M148" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5600;Exp_Kongfu|346</v>
+        <v>Coin|250;Exp_Role|5600;Exp_Kongfu|346</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>625</v>
@@ -13285,7 +13285,7 @@
         <v>713</v>
       </c>
       <c r="J149" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K149" s="1">
         <v>5700</v>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="M149" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5700;Exp_Kongfu|348</v>
+        <v>Coin|250;Exp_Role|5700;Exp_Kongfu|348</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>625</v>
@@ -13337,7 +13337,7 @@
         <v>717</v>
       </c>
       <c r="J150" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K150" s="1">
         <v>5800</v>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="M150" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5800;Exp_Kongfu|350</v>
+        <v>Coin|250;Exp_Role|5800;Exp_Kongfu|350</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>625</v>
@@ -13389,7 +13389,7 @@
         <v>721</v>
       </c>
       <c r="J151" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K151" s="1">
         <v>5900</v>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="M151" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|5900;Exp_Kongfu|352</v>
+        <v>Coin|250;Exp_Role|5900;Exp_Kongfu|352</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>601</v>
@@ -13441,7 +13441,7 @@
         <v>725</v>
       </c>
       <c r="J152" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K152" s="1">
         <v>6000</v>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="M152" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|6000;Exp_Kongfu|354</v>
+        <v>Coin|250;Exp_Role|6000;Exp_Kongfu|354</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>625</v>
@@ -13493,7 +13493,7 @@
         <v>729</v>
       </c>
       <c r="J153" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K153" s="1">
         <v>6250</v>
@@ -13503,7 +13503,7 @@
       </c>
       <c r="M153" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|6250;Exp_Kongfu|356</v>
+        <v>Coin|250;Exp_Role|6250;Exp_Kongfu|356</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>625</v>
@@ -13545,7 +13545,7 @@
         <v>734</v>
       </c>
       <c r="J154" s="1">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K154" s="1">
         <v>6500</v>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="M154" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|1200;Exp_Role|6500;Exp_Kongfu|358</v>
+        <v>Coin|250;Exp_Role|6500;Exp_Kongfu|358</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>735</v>
@@ -13597,7 +13597,7 @@
         <v>740</v>
       </c>
       <c r="J155" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K155" s="1">
         <v>6750</v>
@@ -13607,7 +13607,7 @@
       </c>
       <c r="M155" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|6750;Exp_Kongfu|360</v>
+        <v>Coin|300;Exp_Role|6750;Exp_Kongfu|360</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>741</v>
@@ -13649,7 +13649,7 @@
         <v>747</v>
       </c>
       <c r="J156" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K156" s="1">
         <v>7000</v>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="M156" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|7000;Exp_Kongfu|380</v>
+        <v>Coin|300;Exp_Role|7000;Exp_Kongfu|380</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>741</v>
@@ -13704,7 +13704,7 @@
         <v>754</v>
       </c>
       <c r="J157" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K157" s="1">
         <v>7250</v>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="M157" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|7250;Exp_Kongfu|400</v>
+        <v>Coin|300;Exp_Role|7250;Exp_Kongfu|400</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>742</v>
@@ -13759,7 +13759,7 @@
         <v>760</v>
       </c>
       <c r="J158" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K158" s="1">
         <v>7500</v>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="M158" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|7500;Exp_Kongfu|420</v>
+        <v>Coin|300;Exp_Role|7500;Exp_Kongfu|420</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>761</v>
@@ -13814,7 +13814,7 @@
         <v>767</v>
       </c>
       <c r="J159" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K159" s="1">
         <v>7750</v>
@@ -13824,7 +13824,7 @@
       </c>
       <c r="M159" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|7750;Exp_Kongfu|440</v>
+        <v>Coin|300;Exp_Role|7750;Exp_Kongfu|440</v>
       </c>
       <c r="O159" s="2" t="s">
         <v>748</v>
@@ -13869,7 +13869,7 @@
         <v>772</v>
       </c>
       <c r="J160" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K160" s="1">
         <v>8000</v>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="M160" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|8000;Exp_Kongfu|460</v>
+        <v>Coin|300;Exp_Role|8000;Exp_Kongfu|460</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>773</v>
@@ -13924,7 +13924,7 @@
         <v>778</v>
       </c>
       <c r="J161" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K161" s="1">
         <v>8500</v>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="M161" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|8500;Exp_Kongfu|480</v>
+        <v>Coin|300;Exp_Role|8500;Exp_Kongfu|480</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>779</v>
@@ -13973,7 +13973,7 @@
         <v>784</v>
       </c>
       <c r="J162" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K162" s="1">
         <v>9000</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="M162" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|9000;Exp_Kongfu|500</v>
+        <v>Coin|300;Exp_Role|9000;Exp_Kongfu|500</v>
       </c>
       <c r="O162" s="2" t="s">
         <v>748</v>
@@ -14022,7 +14022,7 @@
         <v>788</v>
       </c>
       <c r="J163" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K163" s="1">
         <v>9500</v>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="M163" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|9500;Exp_Kongfu|520</v>
+        <v>Coin|300;Exp_Role|9500;Exp_Kongfu|520</v>
       </c>
       <c r="O163" s="2" t="s">
         <v>741</v>
@@ -14074,7 +14074,7 @@
         <v>792</v>
       </c>
       <c r="J164" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K164" s="1">
         <v>10000</v>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="M164" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|10000;Exp_Kongfu|540</v>
+        <v>Coin|300;Exp_Role|10000;Exp_Kongfu|540</v>
       </c>
       <c r="O164" s="2" t="s">
         <v>741</v>
@@ -14123,7 +14123,7 @@
         <v>796</v>
       </c>
       <c r="J165" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K165" s="1">
         <v>11000</v>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="M165" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|11000;Exp_Kongfu|560</v>
+        <v>Coin|300;Exp_Role|11000;Exp_Kongfu|560</v>
       </c>
       <c r="O165" s="2" t="s">
         <v>748</v>
@@ -14172,7 +14172,7 @@
         <v>800</v>
       </c>
       <c r="J166" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K166" s="1">
         <v>12000</v>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="M166" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|12000;Exp_Kongfu|580</v>
+        <v>Coin|300;Exp_Role|12000;Exp_Kongfu|580</v>
       </c>
       <c r="O166" s="2" t="s">
         <v>761</v>
@@ -14221,7 +14221,7 @@
         <v>804</v>
       </c>
       <c r="J167" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K167" s="1">
         <v>13000</v>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="M167" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|13000;Exp_Kongfu|600</v>
+        <v>Coin|300;Exp_Role|13000;Exp_Kongfu|600</v>
       </c>
       <c r="O167" s="2" t="s">
         <v>761</v>
@@ -14270,7 +14270,7 @@
         <v>808</v>
       </c>
       <c r="J168" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K168" s="1">
         <v>14000</v>
@@ -14280,7 +14280,7 @@
       </c>
       <c r="M168" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|14000;Exp_Kongfu|620</v>
+        <v>Coin|300;Exp_Role|14000;Exp_Kongfu|620</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>741</v>
@@ -14322,7 +14322,7 @@
         <v>811</v>
       </c>
       <c r="J169" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K169" s="1">
         <v>15000</v>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="M169" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|15000;Exp_Kongfu|640</v>
+        <v>Coin|300;Exp_Role|15000;Exp_Kongfu|640</v>
       </c>
       <c r="O169" s="2" t="s">
         <v>741</v>
@@ -14371,7 +14371,7 @@
         <v>816</v>
       </c>
       <c r="J170" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K170" s="1">
         <v>16000</v>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="M170" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|16000;Exp_Kongfu|660</v>
+        <v>Coin|300;Exp_Role|16000;Exp_Kongfu|660</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>742</v>
@@ -14420,7 +14420,7 @@
         <v>820</v>
       </c>
       <c r="J171" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K171" s="1">
         <v>18000</v>
@@ -14430,7 +14430,7 @@
       </c>
       <c r="M171" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|18000;Exp_Kongfu|680</v>
+        <v>Coin|300;Exp_Role|18000;Exp_Kongfu|680</v>
       </c>
       <c r="O171" s="2" t="s">
         <v>741</v>
@@ -14469,7 +14469,7 @@
         <v>824</v>
       </c>
       <c r="J172" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K172" s="1">
         <v>20000</v>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="M172" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|20000;Exp_Kongfu|700</v>
+        <v>Coin|300;Exp_Role|20000;Exp_Kongfu|700</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>825</v>
@@ -14521,7 +14521,7 @@
         <v>829</v>
       </c>
       <c r="J173" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K173" s="1">
         <v>22000</v>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="M173" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|22000;Exp_Kongfu|720</v>
+        <v>Coin|300;Exp_Role|22000;Exp_Kongfu|720</v>
       </c>
       <c r="O173" s="2" t="s">
         <v>741</v>
@@ -14573,7 +14573,7 @@
         <v>834</v>
       </c>
       <c r="J174" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K174" s="1">
         <v>24000</v>
@@ -14583,7 +14583,7 @@
       </c>
       <c r="M174" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|24000;Exp_Kongfu|740</v>
+        <v>Coin|300;Exp_Role|24000;Exp_Kongfu|740</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>835</v>
@@ -14622,7 +14622,7 @@
         <v>840</v>
       </c>
       <c r="J175" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K175" s="1">
         <v>26000</v>
@@ -14632,7 +14632,7 @@
       </c>
       <c r="M175" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|26000;Exp_Kongfu|760</v>
+        <v>Coin|300;Exp_Role|26000;Exp_Kongfu|760</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>825</v>
@@ -14671,7 +14671,7 @@
         <v>845</v>
       </c>
       <c r="J176" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K176" s="1">
         <v>28000</v>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="M176" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|28000;Exp_Kongfu|780</v>
+        <v>Coin|300;Exp_Role|28000;Exp_Kongfu|780</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>830</v>
@@ -14720,7 +14720,7 @@
         <v>849</v>
       </c>
       <c r="J177" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K177" s="1">
         <v>30000</v>
@@ -14730,7 +14730,7 @@
       </c>
       <c r="M177" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|30000;Exp_Kongfu|800</v>
+        <v>Coin|300;Exp_Role|30000;Exp_Kongfu|800</v>
       </c>
       <c r="O177" s="2" t="s">
         <v>835</v>
@@ -14769,7 +14769,7 @@
         <v>853</v>
       </c>
       <c r="J178" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K178" s="1">
         <v>32000</v>
@@ -14779,7 +14779,7 @@
       </c>
       <c r="M178" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|32000;Exp_Kongfu|820</v>
+        <v>Coin|300;Exp_Role|32000;Exp_Kongfu|820</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>825</v>
@@ -14818,7 +14818,7 @@
         <v>857</v>
       </c>
       <c r="J179" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K179" s="1">
         <v>34000</v>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="M179" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|34000;Exp_Kongfu|840</v>
+        <v>Coin|300;Exp_Role|34000;Exp_Kongfu|840</v>
       </c>
       <c r="O179" s="2" t="s">
         <v>825</v>
@@ -14870,7 +14870,7 @@
         <v>861</v>
       </c>
       <c r="J180" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K180" s="1">
         <v>36000</v>
@@ -14880,7 +14880,7 @@
       </c>
       <c r="M180" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|36000;Exp_Kongfu|860</v>
+        <v>Coin|300;Exp_Role|36000;Exp_Kongfu|860</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>780</v>
@@ -14919,7 +14919,7 @@
         <v>865</v>
       </c>
       <c r="J181" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K181" s="1">
         <v>38000</v>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="M181" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|38000;Exp_Kongfu|880</v>
+        <v>Coin|300;Exp_Role|38000;Exp_Kongfu|880</v>
       </c>
       <c r="O181" s="2" t="s">
         <v>835</v>
@@ -14968,7 +14968,7 @@
         <v>869</v>
       </c>
       <c r="J182" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K182" s="1">
         <v>40000</v>
@@ -14978,7 +14978,7 @@
       </c>
       <c r="M182" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|40000;Exp_Kongfu|900</v>
+        <v>Coin|300;Exp_Role|40000;Exp_Kongfu|900</v>
       </c>
       <c r="O182" s="2" t="s">
         <v>825</v>
@@ -15020,7 +15020,7 @@
         <v>874</v>
       </c>
       <c r="J183" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K183" s="1">
         <v>42000</v>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="M183" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|42000;Exp_Kongfu|920</v>
+        <v>Coin|300;Exp_Role|42000;Exp_Kongfu|920</v>
       </c>
       <c r="O183" s="2" t="s">
         <v>875</v>
@@ -15072,7 +15072,7 @@
         <v>880</v>
       </c>
       <c r="J184" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="K184" s="1">
         <v>44000</v>
@@ -15082,7 +15082,7 @@
       </c>
       <c r="M184" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|5000;Exp_Role|44000;Exp_Kongfu|940</v>
+        <v>Coin|300;Exp_Role|44000;Exp_Kongfu|940</v>
       </c>
       <c r="O184" s="2" t="s">
         <v>881</v>
@@ -15124,7 +15124,7 @@
         <v>886</v>
       </c>
       <c r="J185" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K185" s="1">
         <v>46000</v>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="M185" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|46000;Exp_Kongfu|960</v>
+        <v>Coin|350;Exp_Role|46000;Exp_Kongfu|960</v>
       </c>
       <c r="O185" s="2" t="s">
         <v>887</v>
@@ -15170,7 +15170,7 @@
         <v>892</v>
       </c>
       <c r="J186" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K186" s="1">
         <v>48000</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="M186" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|48000;Exp_Kongfu|980</v>
+        <v>Coin|350;Exp_Role|48000;Exp_Kongfu|980</v>
       </c>
       <c r="O186" s="2" t="s">
         <v>887</v>
@@ -15222,7 +15222,7 @@
         <v>898</v>
       </c>
       <c r="J187" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K187" s="1">
         <v>50000</v>
@@ -15232,7 +15232,7 @@
       </c>
       <c r="M187" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|50000;Exp_Kongfu|1000</v>
+        <v>Coin|350;Exp_Role|50000;Exp_Kongfu|1000</v>
       </c>
       <c r="O187" s="2" t="s">
         <v>899</v>
@@ -15274,7 +15274,7 @@
         <v>905</v>
       </c>
       <c r="J188" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K188" s="1">
         <v>52000</v>
@@ -15284,7 +15284,7 @@
       </c>
       <c r="M188" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|52000;Exp_Kongfu|1020</v>
+        <v>Coin|350;Exp_Role|52000;Exp_Kongfu|1020</v>
       </c>
       <c r="O188" s="2" t="s">
         <v>899</v>
@@ -15326,7 +15326,7 @@
         <v>911</v>
       </c>
       <c r="J189" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K189" s="1">
         <v>54000</v>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="M189" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|54000;Exp_Kongfu|1040</v>
+        <v>Coin|350;Exp_Role|54000;Exp_Kongfu|1040</v>
       </c>
       <c r="O189" s="2" t="s">
         <v>912</v>
@@ -15384,7 +15384,7 @@
         <v>920</v>
       </c>
       <c r="J190" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K190" s="1">
         <v>56000</v>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="M190" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|56000;Exp_Kongfu|1060</v>
+        <v>Coin|350;Exp_Role|56000;Exp_Kongfu|1060</v>
       </c>
       <c r="O190" s="2" t="s">
         <v>921</v>
@@ -15442,7 +15442,7 @@
         <v>928</v>
       </c>
       <c r="J191" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K191" s="1">
         <v>58000</v>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="M191" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|58000;Exp_Kongfu|1080</v>
+        <v>Coin|350;Exp_Role|58000;Exp_Kongfu|1080</v>
       </c>
       <c r="O191" s="2" t="s">
         <v>912</v>
@@ -15500,7 +15500,7 @@
         <v>933</v>
       </c>
       <c r="J192" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K192" s="1">
         <v>60000</v>
@@ -15510,7 +15510,7 @@
       </c>
       <c r="M192" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|60000;Exp_Kongfu|1100</v>
+        <v>Coin|350;Exp_Role|60000;Exp_Kongfu|1100</v>
       </c>
       <c r="O192" s="2" t="s">
         <v>921</v>
@@ -15552,7 +15552,7 @@
         <v>938</v>
       </c>
       <c r="J193" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K193" s="1">
         <v>63000</v>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="M193" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|63000;Exp_Kongfu|1120</v>
+        <v>Coin|350;Exp_Role|63000;Exp_Kongfu|1120</v>
       </c>
       <c r="O193" s="2" t="s">
         <v>939</v>
@@ -15604,7 +15604,7 @@
         <v>944</v>
       </c>
       <c r="J194" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K194" s="1">
         <v>66000</v>
@@ -15614,7 +15614,7 @@
       </c>
       <c r="M194" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|66000;Exp_Kongfu|1140</v>
+        <v>Coin|350;Exp_Role|66000;Exp_Kongfu|1140</v>
       </c>
       <c r="O194" s="2" t="s">
         <v>939</v>
@@ -15656,7 +15656,7 @@
         <v>950</v>
       </c>
       <c r="J195" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K195" s="1">
         <v>69000</v>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="M195" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|69000;Exp_Kongfu|1160</v>
+        <v>Coin|350;Exp_Role|69000;Exp_Kongfu|1160</v>
       </c>
       <c r="O195" s="2" t="s">
         <v>939</v>
@@ -15708,7 +15708,7 @@
         <v>956</v>
       </c>
       <c r="J196" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K196" s="1">
         <v>72000</v>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="M196" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Coin|8000;Exp_Role|72000;Exp_Kongfu|1180</v>
+        <v>Coin|350;Exp_Role|72000;Exp_Kongfu|1180</v>
       </c>
       <c r="O196" s="2" t="s">
         <v>887</v>
@@ -15754,7 +15754,7 @@
         <v>961</v>
       </c>
       <c r="J197" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K197" s="1">
         <v>75000</v>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="M197" s="1" t="str">
         <f t="shared" ref="M197:M244" si="6">"Coin|"&amp;J197&amp;";Exp_Role|"&amp;K197&amp;";Exp_Kongfu|"&amp;L197</f>
-        <v>Coin|8000;Exp_Role|75000;Exp_Kongfu|1200</v>
+        <v>Coin|350;Exp_Role|75000;Exp_Kongfu|1200</v>
       </c>
       <c r="O197" s="2" t="s">
         <v>962</v>
@@ -15800,7 +15800,7 @@
         <v>966</v>
       </c>
       <c r="J198" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K198" s="1">
         <v>78000</v>
@@ -15810,7 +15810,7 @@
       </c>
       <c r="M198" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|78000;Exp_Kongfu|1220</v>
+        <v>Coin|350;Exp_Role|78000;Exp_Kongfu|1220</v>
       </c>
       <c r="O198" s="2" t="s">
         <v>899</v>
@@ -15846,7 +15846,7 @@
         <v>970</v>
       </c>
       <c r="J199" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K199" s="1">
         <v>81000</v>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="M199" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|81000;Exp_Kongfu|1240</v>
+        <v>Coin|350;Exp_Role|81000;Exp_Kongfu|1240</v>
       </c>
       <c r="O199" s="2" t="s">
         <v>921</v>
@@ -15898,7 +15898,7 @@
         <v>974</v>
       </c>
       <c r="J200" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K200" s="1">
         <v>84000</v>
@@ -15908,7 +15908,7 @@
       </c>
       <c r="M200" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|84000;Exp_Kongfu|1260</v>
+        <v>Coin|350;Exp_Role|84000;Exp_Kongfu|1260</v>
       </c>
       <c r="O200" s="2" t="s">
         <v>912</v>
@@ -15950,7 +15950,7 @@
         <v>978</v>
       </c>
       <c r="J201" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K201" s="1">
         <v>87000</v>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="M201" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|87000;Exp_Kongfu|1280</v>
+        <v>Coin|350;Exp_Role|87000;Exp_Kongfu|1280</v>
       </c>
       <c r="O201" s="2" t="s">
         <v>939</v>
@@ -16002,7 +16002,7 @@
         <v>982</v>
       </c>
       <c r="J202" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K202" s="1">
         <v>90000</v>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="M202" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|90000;Exp_Kongfu|1300</v>
+        <v>Coin|350;Exp_Role|90000;Exp_Kongfu|1300</v>
       </c>
       <c r="O202" s="2" t="s">
         <v>939</v>
@@ -16054,7 +16054,7 @@
         <v>987</v>
       </c>
       <c r="J203" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K203" s="1">
         <v>93000</v>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="M203" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|93000;Exp_Kongfu|1320</v>
+        <v>Coin|350;Exp_Role|93000;Exp_Kongfu|1320</v>
       </c>
       <c r="O203" s="2" t="s">
         <v>988</v>
@@ -16106,7 +16106,7 @@
         <v>992</v>
       </c>
       <c r="J204" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K204" s="1">
         <v>96000</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="M204" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|96000;Exp_Kongfu|1340</v>
+        <v>Coin|350;Exp_Role|96000;Exp_Kongfu|1340</v>
       </c>
       <c r="O204" s="2" t="s">
         <v>988</v>
@@ -16158,7 +16158,7 @@
         <v>997</v>
       </c>
       <c r="J205" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K205" s="1">
         <v>99000</v>
@@ -16168,7 +16168,7 @@
       </c>
       <c r="M205" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|99000;Exp_Kongfu|1360</v>
+        <v>Coin|350;Exp_Role|99000;Exp_Kongfu|1360</v>
       </c>
       <c r="O205" s="2" t="s">
         <v>988</v>
@@ -16210,7 +16210,7 @@
         <v>1001</v>
       </c>
       <c r="J206" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K206" s="1">
         <v>102000</v>
@@ -16220,7 +16220,7 @@
       </c>
       <c r="M206" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|102000;Exp_Kongfu|1380</v>
+        <v>Coin|350;Exp_Role|102000;Exp_Kongfu|1380</v>
       </c>
       <c r="O206" s="2" t="s">
         <v>962</v>
@@ -16256,7 +16256,7 @@
         <v>1005</v>
       </c>
       <c r="J207" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K207" s="1">
         <v>105000</v>
@@ -16266,7 +16266,7 @@
       </c>
       <c r="M207" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|105000;Exp_Kongfu|1400</v>
+        <v>Coin|350;Exp_Role|105000;Exp_Kongfu|1400</v>
       </c>
       <c r="O207" s="2" t="s">
         <v>962</v>
@@ -16302,7 +16302,7 @@
         <v>1009</v>
       </c>
       <c r="J208" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K208" s="1">
         <v>108000</v>
@@ -16312,7 +16312,7 @@
       </c>
       <c r="M208" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|108000;Exp_Kongfu|1420</v>
+        <v>Coin|350;Exp_Role|108000;Exp_Kongfu|1420</v>
       </c>
       <c r="O208" s="2" t="s">
         <v>945</v>
@@ -16351,7 +16351,7 @@
         <v>1013</v>
       </c>
       <c r="J209" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K209" s="1">
         <v>111000</v>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="M209" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|111000;Exp_Kongfu|1440</v>
+        <v>Coin|350;Exp_Role|111000;Exp_Kongfu|1440</v>
       </c>
       <c r="O209" s="2" t="s">
         <v>952</v>
@@ -16400,7 +16400,7 @@
         <v>1017</v>
       </c>
       <c r="J210" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K210" s="1">
         <v>114000</v>
@@ -16410,7 +16410,7 @@
       </c>
       <c r="M210" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|114000;Exp_Kongfu|1460</v>
+        <v>Coin|350;Exp_Role|114000;Exp_Kongfu|1460</v>
       </c>
       <c r="O210" s="2" t="s">
         <v>921</v>
@@ -16452,7 +16452,7 @@
         <v>1022</v>
       </c>
       <c r="J211" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K211" s="1">
         <v>117000</v>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="M211" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|117000;Exp_Kongfu|1480</v>
+        <v>Coin|350;Exp_Role|117000;Exp_Kongfu|1480</v>
       </c>
       <c r="O211" s="2" t="s">
         <v>1023</v>
@@ -16501,7 +16501,7 @@
         <v>1028</v>
       </c>
       <c r="J212" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K212" s="1">
         <v>120000</v>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="M212" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|120000;Exp_Kongfu|1500</v>
+        <v>Coin|350;Exp_Role|120000;Exp_Kongfu|1500</v>
       </c>
       <c r="O212" s="2" t="s">
         <v>988</v>
@@ -16559,7 +16559,7 @@
         <v>1035</v>
       </c>
       <c r="J213" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K213" s="1">
         <v>123000</v>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="M213" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|123000;Exp_Kongfu|1550</v>
+        <v>Coin|350;Exp_Role|123000;Exp_Kongfu|1550</v>
       </c>
       <c r="O213" s="2" t="s">
         <v>1036</v>
@@ -16614,7 +16614,7 @@
         <v>1041</v>
       </c>
       <c r="J214" s="1">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="K214" s="1">
         <v>126000</v>
@@ -16624,7 +16624,7 @@
       </c>
       <c r="M214" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|126000;Exp_Kongfu|1600</v>
+        <v>Coin|350;Exp_Role|126000;Exp_Kongfu|1600</v>
       </c>
       <c r="O214" s="2" t="s">
         <v>1036</v>
@@ -16672,7 +16672,7 @@
         <v>1046</v>
       </c>
       <c r="J215" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K215" s="1">
         <v>129000</v>
@@ -16682,7 +16682,7 @@
       </c>
       <c r="M215" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|129000;Exp_Kongfu|1650</v>
+        <v>Coin|400;Exp_Role|129000;Exp_Kongfu|1650</v>
       </c>
       <c r="O215" s="2" t="s">
         <v>1047</v>
@@ -16718,7 +16718,7 @@
         <v>1052</v>
       </c>
       <c r="J216" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K216" s="1">
         <v>132000</v>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="M216" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|132000;Exp_Kongfu|1700</v>
+        <v>Coin|400;Exp_Role|132000;Exp_Kongfu|1700</v>
       </c>
       <c r="O216" s="2" t="s">
         <v>1053</v>
@@ -16770,7 +16770,7 @@
         <v>1058</v>
       </c>
       <c r="J217" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K217" s="1">
         <v>135000</v>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="M217" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|135000;Exp_Kongfu|1750</v>
+        <v>Coin|400;Exp_Role|135000;Exp_Kongfu|1750</v>
       </c>
       <c r="O217" s="2" t="s">
         <v>1059</v>
@@ -16825,7 +16825,7 @@
         <v>1066</v>
       </c>
       <c r="J218" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K218" s="1">
         <v>138000</v>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="M218" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|138000;Exp_Kongfu|1800</v>
+        <v>Coin|400;Exp_Role|138000;Exp_Kongfu|1800</v>
       </c>
       <c r="O218" s="2" t="s">
         <v>1067</v>
@@ -16883,7 +16883,7 @@
         <v>1073</v>
       </c>
       <c r="J219" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K219" s="1">
         <v>141000</v>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="M219" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|141000;Exp_Kongfu|1850</v>
+        <v>Coin|400;Exp_Role|141000;Exp_Kongfu|1850</v>
       </c>
       <c r="O219" s="2" t="s">
         <v>1067</v>
@@ -16944,7 +16944,7 @@
         <v>1081</v>
       </c>
       <c r="J220" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K220" s="1">
         <v>144000</v>
@@ -16954,7 +16954,7 @@
       </c>
       <c r="M220" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|144000;Exp_Kongfu|1900</v>
+        <v>Coin|400;Exp_Role|144000;Exp_Kongfu|1900</v>
       </c>
       <c r="O220" s="2" t="s">
         <v>1075</v>
@@ -17002,7 +17002,7 @@
         <v>1086</v>
       </c>
       <c r="J221" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K221" s="1">
         <v>147000</v>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="M221" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|147000;Exp_Kongfu|1950</v>
+        <v>Coin|400;Exp_Role|147000;Exp_Kongfu|1950</v>
       </c>
       <c r="O221" s="2" t="s">
         <v>1075</v>
@@ -17063,7 +17063,7 @@
         <v>1091</v>
       </c>
       <c r="J222" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K222" s="1">
         <v>150000</v>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="M222" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|150000;Exp_Kongfu|2000</v>
+        <v>Coin|400;Exp_Role|150000;Exp_Kongfu|2000</v>
       </c>
       <c r="O222" s="2" t="s">
         <v>1092</v>
@@ -17115,7 +17115,7 @@
         <v>1098</v>
       </c>
       <c r="J223" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K223" s="1">
         <v>153000</v>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="M223" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|153000;Exp_Kongfu|2050</v>
+        <v>Coin|400;Exp_Role|153000;Exp_Kongfu|2050</v>
       </c>
       <c r="O223" s="2" t="s">
         <v>1099</v>
@@ -17167,7 +17167,7 @@
         <v>1104</v>
       </c>
       <c r="J224" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K224" s="1">
         <v>156000</v>
@@ -17177,7 +17177,7 @@
       </c>
       <c r="M224" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|156000;Exp_Kongfu|2100</v>
+        <v>Coin|400;Exp_Role|156000;Exp_Kongfu|2100</v>
       </c>
       <c r="O224" s="2" t="s">
         <v>1105</v>
@@ -17222,7 +17222,7 @@
         <v>1110</v>
       </c>
       <c r="J225" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K225" s="1">
         <v>159000</v>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="M225" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|159000;Exp_Kongfu|2150</v>
+        <v>Coin|400;Exp_Role|159000;Exp_Kongfu|2150</v>
       </c>
       <c r="O225" s="2" t="s">
         <v>1111</v>
@@ -17271,7 +17271,7 @@
         <v>1116</v>
       </c>
       <c r="J226" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K226" s="1">
         <v>162000</v>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="M226" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|162000;Exp_Kongfu|2200</v>
+        <v>Coin|400;Exp_Role|162000;Exp_Kongfu|2200</v>
       </c>
       <c r="O226" s="2" t="s">
         <v>1117</v>
@@ -17320,7 +17320,7 @@
         <v>1122</v>
       </c>
       <c r="J227" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K227" s="1">
         <v>165000</v>
@@ -17330,7 +17330,7 @@
       </c>
       <c r="M227" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|165000;Exp_Kongfu|2250</v>
+        <v>Coin|400;Exp_Role|165000;Exp_Kongfu|2250</v>
       </c>
       <c r="O227" s="2" t="s">
         <v>1105</v>
@@ -17369,7 +17369,7 @@
         <v>1126</v>
       </c>
       <c r="J228" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K228" s="1">
         <v>168000</v>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="M228" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|168000;Exp_Kongfu|2300</v>
+        <v>Coin|400;Exp_Role|168000;Exp_Kongfu|2300</v>
       </c>
       <c r="O228" s="2" t="s">
         <v>1111</v>
@@ -17418,7 +17418,7 @@
         <v>1130</v>
       </c>
       <c r="J229" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K229" s="1">
         <v>171000</v>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="M229" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|171000;Exp_Kongfu|2350</v>
+        <v>Coin|400;Exp_Role|171000;Exp_Kongfu|2350</v>
       </c>
       <c r="O229" s="2" t="s">
         <v>1131</v>
@@ -17467,7 +17467,7 @@
         <v>1136</v>
       </c>
       <c r="J230" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K230" s="1">
         <v>174000</v>
@@ -17477,7 +17477,7 @@
       </c>
       <c r="M230" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|174000;Exp_Kongfu|2400</v>
+        <v>Coin|400;Exp_Role|174000;Exp_Kongfu|2400</v>
       </c>
       <c r="O230" s="2" t="s">
         <v>1137</v>
@@ -17516,7 +17516,7 @@
         <v>1142</v>
       </c>
       <c r="J231" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K231" s="1">
         <v>177000</v>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="M231" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|177000;Exp_Kongfu|2450</v>
+        <v>Coin|400;Exp_Role|177000;Exp_Kongfu|2450</v>
       </c>
       <c r="O231" s="2" t="s">
         <v>1143</v>
@@ -17563,7 +17563,7 @@
         <v>1147</v>
       </c>
       <c r="J232" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K232" s="1">
         <v>180000</v>
@@ -17573,7 +17573,7 @@
       </c>
       <c r="M232" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|180000;Exp_Kongfu|2500</v>
+        <v>Coin|400;Exp_Role|180000;Exp_Kongfu|2500</v>
       </c>
       <c r="O232" s="2" t="s">
         <v>1143</v>
@@ -17609,7 +17609,7 @@
         <v>1151</v>
       </c>
       <c r="J233" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K233" s="1">
         <v>183000</v>
@@ -17619,7 +17619,7 @@
       </c>
       <c r="M233" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|183000;Exp_Kongfu|2550</v>
+        <v>Coin|400;Exp_Role|183000;Exp_Kongfu|2550</v>
       </c>
       <c r="O233" s="2" t="s">
         <v>1143</v>
@@ -17655,7 +17655,7 @@
         <v>1155</v>
       </c>
       <c r="J234" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K234" s="1">
         <v>186000</v>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="M234" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|186000;Exp_Kongfu|2600</v>
+        <v>Coin|400;Exp_Role|186000;Exp_Kongfu|2600</v>
       </c>
       <c r="O234" s="2" t="s">
         <v>1075</v>
@@ -17707,7 +17707,7 @@
         <v>1160</v>
       </c>
       <c r="J235" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K235" s="1">
         <v>189000</v>
@@ -17717,7 +17717,7 @@
       </c>
       <c r="M235" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|189000;Exp_Kongfu|2650</v>
+        <v>Coin|400;Exp_Role|189000;Exp_Kongfu|2650</v>
       </c>
       <c r="O235" s="2" t="s">
         <v>1117</v>
@@ -17759,7 +17759,7 @@
         <v>1164</v>
       </c>
       <c r="J236" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K236" s="1">
         <v>192000</v>
@@ -17769,7 +17769,7 @@
       </c>
       <c r="M236" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|192000;Exp_Kongfu|2700</v>
+        <v>Coin|400;Exp_Role|192000;Exp_Kongfu|2700</v>
       </c>
       <c r="O236" s="2" t="s">
         <v>1105</v>
@@ -17811,7 +17811,7 @@
         <v>1168</v>
       </c>
       <c r="J237" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K237" s="1">
         <v>195000</v>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="M237" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|195000;Exp_Kongfu|2750</v>
+        <v>Coin|400;Exp_Role|195000;Exp_Kongfu|2750</v>
       </c>
       <c r="O237" s="2" t="s">
         <v>1075</v>
@@ -17863,7 +17863,7 @@
         <v>1173</v>
       </c>
       <c r="J238" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K238" s="1">
         <v>198000</v>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="M238" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|198000;Exp_Kongfu|2800</v>
+        <v>Coin|400;Exp_Role|198000;Exp_Kongfu|2800</v>
       </c>
       <c r="O238" s="2" t="s">
         <v>1075</v>
@@ -17915,7 +17915,7 @@
         <v>1178</v>
       </c>
       <c r="J239" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K239" s="1">
         <v>201000</v>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="M239" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|201000;Exp_Kongfu|2850</v>
+        <v>Coin|400;Exp_Role|201000;Exp_Kongfu|2850</v>
       </c>
       <c r="O239" s="2" t="s">
         <v>1179</v>
@@ -17967,7 +17967,7 @@
         <v>1183</v>
       </c>
       <c r="J240" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K240" s="1">
         <v>204000</v>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="M240" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|204000;Exp_Kongfu|2900</v>
+        <v>Coin|400;Exp_Role|204000;Exp_Kongfu|2900</v>
       </c>
       <c r="O240" s="2" t="s">
         <v>1179</v>
@@ -18019,7 +18019,7 @@
         <v>1188</v>
       </c>
       <c r="J241" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K241" s="1">
         <v>207000</v>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="M241" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|207000;Exp_Kongfu|2950</v>
+        <v>Coin|400;Exp_Role|207000;Exp_Kongfu|2950</v>
       </c>
       <c r="O241" s="2" t="s">
         <v>1189</v>
@@ -18071,7 +18071,7 @@
         <v>1193</v>
       </c>
       <c r="J242" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K242" s="1">
         <v>210000</v>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="M242" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|210000;Exp_Kongfu|3000</v>
+        <v>Coin|400;Exp_Role|210000;Exp_Kongfu|3000</v>
       </c>
       <c r="O242" s="2" t="s">
         <v>1189</v>
@@ -18123,7 +18123,7 @@
         <v>1198</v>
       </c>
       <c r="J243" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K243" s="1">
         <v>213000</v>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="M243" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|213000;Exp_Kongfu|3050</v>
+        <v>Coin|400;Exp_Role|213000;Exp_Kongfu|3050</v>
       </c>
       <c r="O243" s="2" t="s">
         <v>1199</v>
@@ -18175,7 +18175,7 @@
         <v>1203</v>
       </c>
       <c r="J244" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="K244" s="1">
         <v>216000</v>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="M244" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Coin|8000;Exp_Role|216000;Exp_Kongfu|3100</v>
+        <v>Coin|400;Exp_Role|216000;Exp_Kongfu|3100</v>
       </c>
       <c r="O244" s="2" t="s">
         <v>1199</v>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -1832,7 +1832,7 @@
     <t>五花观，听着想卖肉的，进去瞧瞧。</t>
   </si>
   <si>
-    <t>Kongfu|2003;Exp_Role|2600;Exp_Kongfu|248</t>
+    <t>Kongfu|2003|1;Exp_Role|2600;Exp_Kongfu|248</t>
   </si>
   <si>
     <t>峨眉切磋5</t>
@@ -1889,7 +1889,7 @@
     <t>峨眉弟子正在败退，赶紧追!</t>
   </si>
   <si>
-    <t>Item|2002;Exp_Role|2850;Exp_Kongfu|258</t>
+    <t>Item|2002|1;Exp_Role|2850;Exp_Kongfu|258</t>
   </si>
   <si>
     <t>峨眉切磋10</t>
@@ -1949,7 +1949,7 @@
     <t>前方一阵骚乱，弟子们加快脚步，准备一探究竟。</t>
   </si>
   <si>
-    <t>Kongfu|2004;Exp_Role|3100;Exp_Kongfu|268</t>
+    <t>Kongfu|2004|1;Exp_Role|3100;Exp_Kongfu|268</t>
   </si>
   <si>
     <t>峨眉切磋15</t>
@@ -2009,7 +2009,7 @@
     <t>“何人敢闯我峨眉净地,跪下！”</t>
   </si>
   <si>
-    <t>Equipment|601;Exp_Role|3350;Exp_Kongfu|278</t>
+    <t>Equipment|601|1;Exp_Role|3350;Exp_Kongfu|278</t>
   </si>
   <si>
     <t>峨眉切磋20</t>
@@ -2069,7 +2069,7 @@
     <t>听得嗖得一声，一道白光闪过，好强的剑气！</t>
   </si>
   <si>
-    <t>Item|2002;Exp_Role|3600;Exp_Kongfu|288</t>
+    <t>Item|2002|1;Exp_Role|3600;Exp_Kongfu|288</t>
   </si>
   <si>
     <t>峨眉切磋25</t>
@@ -2141,7 +2141,7 @@
     <t>前面就是峨眉掌门绝绝师太，去会会她。</t>
   </si>
   <si>
-    <t>Kongfu|3003;Exp_Role|3850;Exp_Kongfu|298</t>
+    <t>Kongfu|3003|1;Exp_Role|3850;Exp_Kongfu|298</t>
   </si>
   <si>
     <t>峨眉切磋30</t>
@@ -2231,7 +2231,7 @@
     <t>华山弟子气急，一招白虹贯日，朝人脸上劈来。</t>
   </si>
   <si>
-    <t>Kongfu|2005;Exp_Role|4100;Exp_Kongfu|308</t>
+    <t>Kongfu|2005|1;Exp_Role|4100;Exp_Kongfu|308</t>
   </si>
   <si>
     <t>华山切磋5</t>
@@ -2309,7 +2309,7 @@
     <t>弟子们急忙赶路，一众华山弟子挡住了去路。</t>
   </si>
   <si>
-    <t>Item|2001;Exp_Role|4350;Exp_Kongfu|318</t>
+    <t>Item|2001|1;Exp_Role|4350;Exp_Kongfu|318</t>
   </si>
   <si>
     <t>华山切磋10</t>
@@ -2394,7 +2394,7 @@
     <t>强敌来犯，众弟子小心！</t>
   </si>
   <si>
-    <t>Kongfu|2006;Exp_Role|4700;Exp_Kongfu|328</t>
+    <t>Kongfu|2006|1;Exp_Role|4700;Exp_Kongfu|328</t>
   </si>
   <si>
     <t>华山切磋15</t>
@@ -2460,7 +2460,7 @@
     <t>剑宗气宗合起来对付我们？一起收拾！</t>
   </si>
   <si>
-    <t>Equipment|202;Exp_Role|5200;Exp_Kongfu|338</t>
+    <t>Equipment|202|1;Exp_Role|5200;Exp_Kongfu|338</t>
   </si>
   <si>
     <t>华山切磋20</t>
@@ -2517,7 +2517,7 @@
     <t>前面就是华山二弟子，此人心狠手辣，注意防范。</t>
   </si>
   <si>
-    <t>Item|2002;Exp_Role|5700;Exp_Kongfu|348</t>
+    <t>Item|2002|1;Exp_Role|5700;Exp_Kongfu|348</t>
   </si>
   <si>
     <t>华山切磋25</t>
@@ -2599,7 +2599,7 @@
     <t>见华山掌门丘不君盘坐一青莲之上。</t>
   </si>
   <si>
-    <t>Kongfu|3004;Exp_Role|6500;Exp_Kongfu|358</t>
+    <t>Kongfu|3004|1;Exp_Role|6500;Exp_Kongfu|358</t>
   </si>
   <si>
     <t>华山切磋30</t>
@@ -2698,7 +2698,7 @@
     <t>大门四开，怕不是有埋伏吧。</t>
   </si>
   <si>
-    <t>Kongfu|3003;Exp_Role|7750;Exp_Kongfu|440</t>
+    <t>Kongfu|3003|1;Exp_Role|7750;Exp_Kongfu|440</t>
   </si>
   <si>
     <t>五毒教切磋5</t>
@@ -2792,7 +2792,7 @@
     <t>五毒教众人被我方弟子吓破了胆，乘胜追击！</t>
   </si>
   <si>
-    <t>Item|2001;Exp_Role|10000;Exp_Kongfu|540</t>
+    <t>Item|2001|1;Exp_Role|10000;Exp_Kongfu|540</t>
   </si>
   <si>
     <t>五毒教切磋10</t>
@@ -2849,7 +2849,7 @@
     <t>603|2|2807868;605|3|2807868</t>
   </si>
   <si>
-    <t>Kongfu|3005;Exp_Role|15000;Exp_Kongfu|640</t>
+    <t>Kongfu|3005|1;Exp_Role|15000;Exp_Kongfu|640</t>
   </si>
   <si>
     <t>五毒教切磋15</t>
@@ -2918,7 +2918,7 @@
     <t>敌人落荒而逃，到底是无胆鼠辈。</t>
   </si>
   <si>
-    <t>Medicine|101;Exp_Role|24000;Exp_Kongfu|740</t>
+    <t>Equipment|203|1;Exp_Role|24000;Exp_Kongfu|740</t>
   </si>
   <si>
     <t>五毒教切磋20</t>
@@ -3044,7 +3044,7 @@
     <t>一发飞镖扎在树上，字条上写着“我们有毒”。</t>
   </si>
   <si>
-    <t>Item|2002;Exp_Role|34000;Exp_Kongfu|840</t>
+    <t>Item|2002|1;Exp_Role|34000;Exp_Kongfu|840</t>
   </si>
   <si>
     <t>五毒教切磋25</t>
@@ -3170,7 +3170,7 @@
     <t>教主就在殿内，冲进去干他！</t>
   </si>
   <si>
-    <t>Kongfu|3006;Exp_Role|44000;Exp_Kongfu|940</t>
+    <t>Equipment|301|1;Exp_Role|44000;Exp_Kongfu|940</t>
   </si>
   <si>
     <t>五毒教切磋30</t>
@@ -3320,7 +3320,7 @@
     <t>魔教众以西域人为主，乍一看都是帅哥美女。</t>
   </si>
   <si>
-    <t>Coin|350;Exp_Role|54000;Exp_Kongfu|1040</t>
+    <t>Kongfu|3007|1;Exp_Role|54000;Exp_Kongfu|1040</t>
   </si>
   <si>
     <t>明教切磋5</t>
@@ -3514,7 +3514,7 @@
     <t>征伐魔教路途太远，干粮不够，夺些酒食先。</t>
   </si>
   <si>
-    <t>Food|20;Exp_Role|66000;Exp_Kongfu|1140</t>
+    <t>Item|2002|1;Exp_Role|66000;Exp_Kongfu|1140</t>
   </si>
   <si>
     <t>明教切磋10</t>
@@ -3611,7 +3611,7 @@
     <t>魔教关押了许多武林正派，尽力将他们救出。</t>
   </si>
   <si>
-    <t>Coin|350;Exp_Role|81000;Exp_Kongfu|1240</t>
+    <t>Kongfu|3008|1;Exp_Role|81000;Exp_Kongfu|1240</t>
   </si>
   <si>
     <t>明教切磋15</t>
@@ -3677,7 +3677,7 @@
     <t>日轮法王指挥星部众来此，击败他们！</t>
   </si>
   <si>
-    <t>Food|20;Exp_Role|96000;Exp_Kongfu|1340</t>
+    <t>Equipment|204|1;Exp_Role|96000;Exp_Kongfu|1340</t>
   </si>
   <si>
     <t>明教切磋20</t>
@@ -3759,7 +3759,7 @@
     <t>日月轮转，生生不息。</t>
   </si>
   <si>
-    <t>Coin|350;Exp_Role|111000;Exp_Kongfu|1440</t>
+    <t>Item|2002|2;Exp_Role|111000;Exp_Kongfu|1440</t>
   </si>
   <si>
     <t>明教切磋25</t>
@@ -3881,7 +3881,7 @@
     <t>魔教教主霹雳手段，此战我派必能扬名天下！</t>
   </si>
   <si>
-    <t>Food|20;Exp_Role|126000;Exp_Kongfu|1600</t>
+    <t>Equipment|701|1;Exp_Role|126000;Exp_Kongfu|1600</t>
   </si>
   <si>
     <t>明教切磋30</t>
@@ -4189,7 +4189,7 @@
     <t>山贼之中竟有一名白衣人，多加小心！</t>
   </si>
   <si>
-    <t>Coin|400;Exp_Role|141000;Exp_Kongfu|1850</t>
+    <t>Kongfu|3009|1;Exp_Role|141000;Exp_Kongfu|1850</t>
   </si>
   <si>
     <t>逍遥切磋5</t>
@@ -4349,7 +4349,7 @@
     <t>逍遥派掌握了合击之术，聚多人功力御敌。</t>
   </si>
   <si>
-    <t>Food|20;Exp_Role|156000;Exp_Kongfu|2100</t>
+    <t>Item|2002|1;Exp_Role|156000;Exp_Kongfu|2100</t>
   </si>
   <si>
     <t>逍遥切磋10</t>
@@ -4427,7 +4427,7 @@
     <t>九牛二虎之力，终于看见逍遥派的山门了。</t>
   </si>
   <si>
-    <t>Coin|400;Exp_Role|171000;Exp_Kongfu|2350</t>
+    <t>Equipment|302|1;Exp_Role|171000;Exp_Kongfu|2350</t>
   </si>
   <si>
     <t>逍遥切磋15</t>
@@ -4559,7 +4559,7 @@
     <t>其他弟子将功力聚于胖弟子身上，端的生猛。</t>
   </si>
   <si>
-    <t>Food|20;Exp_Role|186000;Exp_Kongfu|2600</t>
+    <t>Item|2002|2;Exp_Role|186000;Exp_Kongfu|2600</t>
   </si>
   <si>
     <t>逍遥切磋20</t>
@@ -4666,7 +4666,7 @@
     <t>咦，这次居然真骑了仙鹤过来，还是个童子。</t>
   </si>
   <si>
-    <t>Coin|400;Exp_Role|201000;Exp_Kongfu|2850</t>
+    <t>Equipment|303|1;Exp_Role|201000;Exp_Kongfu|2850</t>
   </si>
   <si>
     <t>逍遥切磋25</t>
@@ -4836,7 +4836,7 @@
     <t>管他真假仙人，都要在我派手下跌落凡尘。</t>
   </si>
   <si>
-    <t>Food|20;Exp_Role|216000;Exp_Kongfu|3100</t>
+    <t>Equipment|304|1;Exp_Role|216000;Exp_Kongfu|3100</t>
   </si>
   <si>
     <t>逍遥切磋30</t>
@@ -6088,9 +6088,9 @@
   <dimension ref="A1:X244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6100,7 +6100,7 @@
     <col min="3" max="3" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.775" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.1083333333333" style="1" customWidth="1"/>
     <col min="9" max="12" width="9" style="1"/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -453,7 +453,7 @@
     <t>前边又有几个小叫花子叫阵，还等什么？</t>
   </si>
   <si>
-    <t>Equipment|101|1;Exp_Role|345;Exp_Kongfu|99</t>
+    <t>Arms|101|1;Exp_Role|345;Exp_Kongfu|99</t>
   </si>
   <si>
     <t>丐帮切磋20</t>
@@ -1080,7 +1080,7 @@
     <t>扫地僧力未全尽，少林果然深不可测。</t>
   </si>
   <si>
-    <t>Equipment|501|1;Exp_Role|680;Exp_Kongfu|158</t>
+    <t>Armor|501|1;Exp_Role|680;Exp_Kongfu|158</t>
   </si>
   <si>
     <t>少林切磋20</t>
@@ -1534,7 +1534,7 @@
     <t>武当弟子一改打法，剑剑往人死穴刺来。</t>
   </si>
   <si>
-    <t>Equipment|201|1;Exp_Role|1850;Exp_Kongfu|218</t>
+    <t>Arms|201|1;Exp_Role|1850;Exp_Kongfu|218</t>
   </si>
   <si>
     <t>武当切磋20</t>
@@ -2009,7 +2009,7 @@
     <t>“何人敢闯我峨眉净地,跪下！”</t>
   </si>
   <si>
-    <t>Equipment|601|1;Exp_Role|3350;Exp_Kongfu|278</t>
+    <t>Armor|601|1;Exp_Role|3350;Exp_Kongfu|278</t>
   </si>
   <si>
     <t>峨眉切磋20</t>
@@ -2460,7 +2460,7 @@
     <t>剑宗气宗合起来对付我们？一起收拾！</t>
   </si>
   <si>
-    <t>Equipment|202|1;Exp_Role|5200;Exp_Kongfu|338</t>
+    <t>Arms|202|1;Exp_Role|5200;Exp_Kongfu|338</t>
   </si>
   <si>
     <t>华山切磋20</t>
@@ -2918,7 +2918,7 @@
     <t>敌人落荒而逃，到底是无胆鼠辈。</t>
   </si>
   <si>
-    <t>Equipment|203|1;Exp_Role|24000;Exp_Kongfu|740</t>
+    <t>Arms|203|1;Exp_Role|24000;Exp_Kongfu|740</t>
   </si>
   <si>
     <t>五毒教切磋20</t>
@@ -3170,7 +3170,7 @@
     <t>教主就在殿内，冲进去干他！</t>
   </si>
   <si>
-    <t>Equipment|301|1;Exp_Role|44000;Exp_Kongfu|940</t>
+    <t>Arms|301|1;Exp_Role|44000;Exp_Kongfu|940</t>
   </si>
   <si>
     <t>五毒教切磋30</t>
@@ -3677,7 +3677,7 @@
     <t>日轮法王指挥星部众来此，击败他们！</t>
   </si>
   <si>
-    <t>Equipment|204|1;Exp_Role|96000;Exp_Kongfu|1340</t>
+    <t>Arms|204|1;Exp_Role|96000;Exp_Kongfu|1340</t>
   </si>
   <si>
     <t>明教切磋20</t>
@@ -3881,7 +3881,7 @@
     <t>魔教教主霹雳手段，此战我派必能扬名天下！</t>
   </si>
   <si>
-    <t>Equipment|701|1;Exp_Role|126000;Exp_Kongfu|1600</t>
+    <t>Armor|701|1;Exp_Role|126000;Exp_Kongfu|1600</t>
   </si>
   <si>
     <t>明教切磋30</t>
@@ -4427,7 +4427,7 @@
     <t>九牛二虎之力，终于看见逍遥派的山门了。</t>
   </si>
   <si>
-    <t>Equipment|302|1;Exp_Role|171000;Exp_Kongfu|2350</t>
+    <t>Arms|302|1;Exp_Role|171000;Exp_Kongfu|2350</t>
   </si>
   <si>
     <t>逍遥切磋15</t>
@@ -4666,7 +4666,7 @@
     <t>咦，这次居然真骑了仙鹤过来，还是个童子。</t>
   </si>
   <si>
-    <t>Equipment|303|1;Exp_Role|201000;Exp_Kongfu|2850</t>
+    <t>Arms|303|1;Exp_Role|201000;Exp_Kongfu|2850</t>
   </si>
   <si>
     <t>逍遥切磋25</t>
@@ -4836,7 +4836,7 @@
     <t>管他真假仙人，都要在我派手下跌落凡尘。</t>
   </si>
   <si>
-    <t>Equipment|304|1;Exp_Role|216000;Exp_Kongfu|3100</t>
+    <t>Arms|304|1;Exp_Role|216000;Exp_Kongfu|3100</t>
   </si>
   <si>
     <t>逍遥切磋30</t>
@@ -5037,10 +5037,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
@@ -5066,7 +5066,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5075,80 +5075,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5163,15 +5089,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5187,7 +5126,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5201,11 +5180,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5253,19 +5253,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5277,79 +5295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5367,7 +5319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5379,7 +5337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5391,7 +5379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5403,13 +5391,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5421,7 +5421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5450,17 +5450,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5480,48 +5498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5533,6 +5509,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5553,10 +5553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5565,133 +5565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6088,16 +6088,16 @@
   <dimension ref="A1:X244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.33333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.375" style="1" customWidth="1"/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -168,7 +168,7 @@
     <t>gaibang1</t>
   </si>
   <si>
-    <t>104|3|416;105|1|416;106|1|416</t>
+    <t>104|3|208;105|1|208;106|1|208</t>
   </si>
   <si>
     <t>丐帮乃天下第一大帮，初次挑战一定要取胜。</t>
@@ -192,7 +192,7 @@
     <t>乔帮主</t>
   </si>
   <si>
-    <t>104|3|432;105|1|432;106|1|432</t>
+    <t>104|3|220;105|1|220;106|1|220</t>
   </si>
   <si>
     <t>打狗棒法!上来就亮绝学，要加倍小心。</t>
@@ -210,7 +210,7 @@
     <t>gaibang2</t>
   </si>
   <si>
-    <t>105|3|450;106|2|450</t>
+    <t>105|3|232;106|2|232</t>
   </si>
   <si>
     <t>丐帮弟子卷土重来，准备应战。</t>
@@ -231,7 +231,7 @@
     <t>醉丐苏花子</t>
   </si>
   <si>
-    <t>104|3|468;105|2|468</t>
+    <t>104|3|246;105|2|246</t>
   </si>
   <si>
     <t>一个大汉站在你面前，战斗似乎在所难免。</t>
@@ -249,7 +249,7 @@
     <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
   </si>
   <si>
-    <t>104|3|487;105|2|487</t>
+    <t>104|3|260;105|2|260</t>
   </si>
   <si>
     <t>只见头顶的匾额上写着大忠分舵四个大字。</t>
@@ -264,7 +264,7 @@
     <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
   </si>
   <si>
-    <t>105|2|506;106|3|506</t>
+    <t>105|2|274;106|3|274</t>
   </si>
   <si>
     <t>见一人自大堂走出来，丐帮众人左右让路，</t>
@@ -282,7 +282,7 @@
     <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
   </si>
   <si>
-    <t>104|2|526;106|3|526</t>
+    <t>104|2|290;106|3|290</t>
   </si>
   <si>
     <t>一本武功秘籍，想必此事不会如此简单。</t>
@@ -297,7 +297,7 @@
     <t>104|2</t>
   </si>
   <si>
-    <t>105|2|548;106|3|548</t>
+    <t>105|2|307;106|3|307</t>
   </si>
   <si>
     <t>“大孝分舵”管它的，进去探个究竟！</t>
@@ -309,7 +309,7 @@
     <t>丐帮切磋8</t>
   </si>
   <si>
-    <t>104|2|570;105|3|570</t>
+    <t>104|2|324;105|3|324</t>
   </si>
   <si>
     <t>丐帮看似散乱，管理却井井有条，切莫小看。</t>
@@ -321,13 +321,13 @@
     <t>丐帮切磋9</t>
   </si>
   <si>
-    <t>105|4|592;106|1|592</t>
+    <t>105|4|342;106|1|342</t>
   </si>
   <si>
     <t>敌人越来越难缠了，让他们看看我们的本事。</t>
   </si>
   <si>
-    <t>Item|2001|1;Exp_Role|295;Exp_Kongfu|89</t>
+    <t>Arms|101|1;Exp_Role|295;Exp_Kongfu|89</t>
   </si>
   <si>
     <t>丐帮切磋10</t>
@@ -336,7 +336,7 @@
     <t>105|4</t>
   </si>
   <si>
-    <t>104|3|616;105|2|616</t>
+    <t>104|3|362;105|2|362</t>
   </si>
   <si>
     <t>几场打斗后弟子们逐渐摸清了丐帮路数。</t>
@@ -351,7 +351,7 @@
     <t>gaibang3</t>
   </si>
   <si>
-    <t>104|2|641;105|2|641;106|1|641</t>
+    <t>104|2|383;105|2|383;106|1|383</t>
   </si>
   <si>
     <t>听落败的那人说，大孝分舵舵主就在前面。</t>
@@ -363,7 +363,7 @@
     <t>丐帮切磋12</t>
   </si>
   <si>
-    <t>105|3|667;106|2|667</t>
+    <t>105|3|404;106|2|404</t>
   </si>
   <si>
     <t>大勇分舵，听起来很厉害的样子。</t>
@@ -375,7 +375,7 @@
     <t>丐帮切磋13</t>
   </si>
   <si>
-    <t>104|3|693;106|2|693</t>
+    <t>104|3|427;106|2|427</t>
   </si>
   <si>
     <t>打狗阵难缠至极，需尽快想出破解之法。</t>
@@ -387,19 +387,19 @@
     <t>丐帮切磋14</t>
   </si>
   <si>
-    <t>104|3|721;105|2|721</t>
+    <t>104|3|452;105|2|452</t>
   </si>
   <si>
     <t>丐帮弟子败下阵来，弟子们端详出了阵法玄机。</t>
   </si>
   <si>
-    <t>Kongfu|1002|1;Exp_Role|320;Exp_Kongfu|94</t>
+    <t>Item|2001|1;Exp_Role|320;Exp_Kongfu|94</t>
   </si>
   <si>
     <t>丐帮切磋15</t>
   </si>
   <si>
-    <t>104|3|750;106|2|750</t>
+    <t>104|3|478;106|2|478</t>
   </si>
   <si>
     <t>双方打斗正酣，一度进入僵持状态。</t>
@@ -411,7 +411,7 @@
     <t>丐帮切磋16</t>
   </si>
   <si>
-    <t>105|3|780;106|2|780</t>
+    <t>105|3|505;106|2|505</t>
   </si>
   <si>
     <t>弟子们信心满满，正准备暴揍这帮叫花子。</t>
@@ -423,7 +423,7 @@
     <t>丐帮切磋17</t>
   </si>
   <si>
-    <t>104|2|811;105|2|811;106|1|811</t>
+    <t>104|2|534;105|2|534;106|1|534</t>
   </si>
   <si>
     <t>丐帮弟子四散而逃并留下一句：有本事别跑。</t>
@@ -435,7 +435,7 @@
     <t>丐帮切磋18</t>
   </si>
   <si>
-    <t>105|3|844;106|2|844</t>
+    <t>105|3|564;106|2|564</t>
   </si>
   <si>
     <t>大勇分舵被打的落花流水，屁滚尿流。</t>
@@ -447,19 +447,19 @@
     <t>丐帮切磋19</t>
   </si>
   <si>
-    <t>104|3|878;105|2|878</t>
+    <t>104|3|596;105|2|596</t>
   </si>
   <si>
     <t>前边又有几个小叫花子叫阵，还等什么？</t>
   </si>
   <si>
-    <t>Arms|101|1;Exp_Role|345;Exp_Kongfu|99</t>
+    <t>Kongfu|1002|1;Exp_Role|345;Exp_Kongfu|99</t>
   </si>
   <si>
     <t>丐帮切磋20</t>
   </si>
   <si>
-    <t>104|3|913;106|2|913</t>
+    <t>104|3|630;106|2|630</t>
   </si>
   <si>
     <t>还有什么功夫尽管使出来!</t>
@@ -471,7 +471,7 @@
     <t>丐帮切磋21</t>
   </si>
   <si>
-    <t>105|3|950;106|2|950</t>
+    <t>105|3|666;106|2|666</t>
   </si>
   <si>
     <t>树林中一声大叫：菜鸡止步。</t>
@@ -483,7 +483,7 @@
     <t>丐帮切磋22</t>
   </si>
   <si>
-    <t>104|3|988;105|2|988</t>
+    <t>104|3|704;105|2|704</t>
   </si>
   <si>
     <t>师父说丐帮人喜欢吹牛皮，果然不假。</t>
@@ -495,7 +495,7 @@
     <t>丐帮切磋23</t>
   </si>
   <si>
-    <t>104|2|1027;105|2|1027;106|1|1027</t>
+    <t>104|2|744;105|2|744;106|1|744</t>
   </si>
   <si>
     <t>弟子埋头赶路之际，忽而一道黑影掠过。</t>
@@ -507,7 +507,7 @@
     <t>丐帮切磋24</t>
   </si>
   <si>
-    <t>105|3|1068;106|2|1068</t>
+    <t>105|3|787;106|2|787</t>
   </si>
   <si>
     <t>“不怕挨揍的往前站！”</t>
@@ -519,7 +519,7 @@
     <t>丐帮切磋25</t>
   </si>
   <si>
-    <t>104|3|1111;106|2|1111</t>
+    <t>104|3|832;106|2|832</t>
   </si>
   <si>
     <t>日暮时分，弟子们看见了不远处的丐帮总舵.</t>
@@ -553,7 +553,7 @@
     </r>
   </si>
   <si>
-    <t>104|3|1156;106|2|1156</t>
+    <t>104|3|879;106|2|879</t>
   </si>
   <si>
     <t>总舵的守卫弟子将我们团团围住，不妙！</t>
@@ -568,7 +568,7 @@
     <t>suhuazi</t>
   </si>
   <si>
-    <t>104|3|1202;105|2|1202</t>
+    <t>104|3|929;105|2|929</t>
   </si>
   <si>
     <t>前面一老翁席地而坐，正在树下独酌。</t>
@@ -583,7 +583,7 @@
     <t>hongqi</t>
   </si>
   <si>
-    <t>103|1|1250;104|2|1250;105|1|1250;106|1|1250</t>
+    <t>103|1|982;104|2|982;105|1|982;106|1|982</t>
   </si>
   <si>
     <t>手持打狗棒，是洪七长老没错了。</t>
@@ -620,7 +620,7 @@
     <t>qiaobangzhu</t>
   </si>
   <si>
-    <t>102|1|1300;104|2|1300;105|1|1300;106|1|1300</t>
+    <t>102|1|1040;104|2|1040;105|1|1040;106|1|1040</t>
   </si>
   <si>
     <t>一声龙吟响彻天地，乔帮主终于现身！</t>
@@ -657,7 +657,7 @@
     <t>shaolin1</t>
   </si>
   <si>
-    <t>204|5|927</t>
+    <t>204|5|649</t>
   </si>
   <si>
     <t>少林名动天下，切不可轻敌。</t>
@@ -675,7 +675,7 @@
     <t>玄空方丈</t>
   </si>
   <si>
-    <t>204|5|978</t>
+    <t>204|5|693</t>
   </si>
   <si>
     <t>小和尚一脸傲气，再叫他尝尝厉害。</t>
@@ -693,7 +693,7 @@
     <t>shaolin2</t>
   </si>
   <si>
-    <t>205|2|1031;204|3|1031</t>
+    <t>205|2|740;204|3|740</t>
   </si>
   <si>
     <t>打了个小光头，来了个大光头。</t>
@@ -714,7 +714,7 @@
     <t>扫地僧</t>
   </si>
   <si>
-    <t>205|5|1088</t>
+    <t>205|5|790</t>
   </si>
   <si>
     <t>不愧是少林正宗，小辈弟子英才辈出。</t>
@@ -732,7 +732,7 @@
     <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
   </si>
   <si>
-    <t>205|4|1148;204|1|1148</t>
+    <t>205|4|844;204|1|844</t>
   </si>
   <si>
     <t>小辈弟子有了师傅在场指点，小心应对。</t>
@@ -775,7 +775,7 @@
     </r>
   </si>
   <si>
-    <t>204|4|1211;206|1|1211</t>
+    <t>204|4|901;206|1|901</t>
   </si>
   <si>
     <t>此处刚是山脚，看来少林卧虎藏龙。</t>
@@ -815,7 +815,7 @@
     <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
   </si>
   <si>
-    <t>204|2|1277;205|3|1277</t>
+    <t>204|2|962;205|3|962</t>
   </si>
   <si>
     <t>看来少林也开始认真应对了，我们全力以赴！</t>
@@ -852,7 +852,7 @@
     </r>
   </si>
   <si>
-    <t>204|4|1347;205|1|1347</t>
+    <t>204|4|1028;205|1|1028</t>
   </si>
   <si>
     <t>少林弟子果真招招精妙，不虚此行。</t>
@@ -886,7 +886,7 @@
     </r>
   </si>
   <si>
-    <t>204|3|1421;205|2|1421</t>
+    <t>204|3|1097;205|2|1097</t>
   </si>
   <si>
     <t>少林七十二绝技，此次不知能见识几招！</t>
@@ -923,7 +923,7 @@
     <t>shaolin3</t>
   </si>
   <si>
-    <t>204|3|1499;205|2|1499</t>
+    <t>204|3|1172;205|2|1172</t>
   </si>
   <si>
     <t>竟有玄字高僧出来督战，可不能弱了气势。</t>
@@ -957,7 +957,7 @@
     </r>
   </si>
   <si>
-    <t>204|3|1581;205|2|1581</t>
+    <t>204|3|1252;205|2|1252</t>
   </si>
   <si>
     <t>玄字高僧要亲自出手了，却不知是何手段。</t>
@@ -969,7 +969,7 @@
     <t>少林切磋11</t>
   </si>
   <si>
-    <t>206|5|1668</t>
+    <t>206|5|1337</t>
   </si>
   <si>
     <t>玄字高僧和弟子一同结阵，棘手棘手。</t>
@@ -984,7 +984,7 @@
     <t>206|5</t>
   </si>
   <si>
-    <t>204|2|1760;205|2|1760;206|1|1760</t>
+    <t>204|2|1427;205|2|1427;206|1|1427</t>
   </si>
   <si>
     <t>听说少林藏经阁法藏无数，定不能空手而回。</t>
@@ -999,7 +999,7 @@
     <t>206|1</t>
   </si>
   <si>
-    <t>204|5|1856</t>
+    <t>204|5|1524</t>
   </si>
   <si>
     <t>三拳两脚撂倒看管僧，借几本秘籍回去。</t>
@@ -1011,7 +1011,7 @@
     <t>少林切磋14</t>
   </si>
   <si>
-    <t>205|5|1958</t>
+    <t>205|5|1628</t>
   </si>
   <si>
     <t>到手，向大雄宝殿去，先解决拦路的。</t>
@@ -1023,7 +1023,7 @@
     <t>少林切磋15</t>
   </si>
   <si>
-    <t>204|5|2066</t>
+    <t>204|5|1739</t>
   </si>
   <si>
     <t>糟糕，藏经阁里的小和尚追出来了，快走。</t>
@@ -1035,7 +1035,7 @@
     <t>少林切磋16</t>
   </si>
   <si>
-    <t>204|5|2179</t>
+    <t>204|5|1857</t>
   </si>
   <si>
     <t>前方大和尚拦路，定是小和尚报的信，出手！</t>
@@ -1047,7 +1047,7 @@
     <t>少林切磋17</t>
   </si>
   <si>
-    <t>205|5|2299</t>
+    <t>205|5|1983</t>
   </si>
   <si>
     <t>没想藏经阁内居然有玄字僧坐镇，严阵以待。</t>
@@ -1062,7 +1062,7 @@
     <t>saodiseng</t>
   </si>
   <si>
-    <t>206|5|2425</t>
+    <t>206|5|2118</t>
   </si>
   <si>
     <t>咦，长眉须执扫帚，莫非是传说中的...?</t>
@@ -1074,7 +1074,7 @@
     <t>少林切磋19</t>
   </si>
   <si>
-    <t>203|1|2558;204|2|2558;205|2|2558</t>
+    <t>203|1|2262;204|2|2262;205|2|2262</t>
   </si>
   <si>
     <t>扫地僧力未全尽，少林果然深不可测。</t>
@@ -1089,7 +1089,7 @@
     <t>203|1</t>
   </si>
   <si>
-    <t>203|1|2698;205|2|2698;206|2|2698</t>
+    <t>203|1|2415;205|2|2415;206|2|2415</t>
   </si>
   <si>
     <t>小和尚们得了扫地僧的教导，强了许多。</t>
@@ -1126,7 +1126,7 @@
     </r>
   </si>
   <si>
-    <t>204|4|2846;203|1|2846</t>
+    <t>204|4|2579;203|1|2579</t>
   </si>
   <si>
     <t>前面的大和尚背锅带勺，莫不是个厨子？</t>
@@ -1138,7 +1138,7 @@
     <t>少林切磋22</t>
   </si>
   <si>
-    <t>202|1|3002;204|4|3002</t>
+    <t>202|1|2754;204|4|2754</t>
   </si>
   <si>
     <t>兀那和尚，恁的了得，再战过！</t>
@@ -1153,7 +1153,7 @@
     <t>202|1</t>
   </si>
   <si>
-    <t>202|1|3167;205|4|3167</t>
+    <t>202|1|2942;205|4|2942</t>
   </si>
   <si>
     <t>前方便是大雄宝殿，须记得不要失了礼数。</t>
@@ -1165,7 +1165,7 @@
     <t>少林切磋24</t>
   </si>
   <si>
-    <t>204|2|3341;205|2|3341;206|1|3341</t>
+    <t>204|2|3141;205|2|3141;206|1|3141</t>
   </si>
   <si>
     <t>暮鼓擂响，少林晚课时分，好手都在前方。</t>
@@ -1177,7 +1177,7 @@
     <t>少林切磋25</t>
   </si>
   <si>
-    <t>204|2|3524;205|2|3524;206|1|3524</t>
+    <t>204|2|3355;205|2|3355;206|1|3355</t>
   </si>
   <si>
     <t>玄字高僧带着小辈翘楚，是一番好战。</t>
@@ -1189,7 +1189,7 @@
     <t>少林切磋26</t>
   </si>
   <si>
-    <t>204|2|3718;205|2|3718;206|1|3718</t>
+    <t>204|2|3583;205|2|3583;206|1|3583</t>
   </si>
   <si>
     <t>试探结束，怕是要现真招了，我们上。</t>
@@ -1201,7 +1201,7 @@
     <t>少林切磋27</t>
   </si>
   <si>
-    <t>206|5|3922</t>
+    <t>206|5|3826</t>
   </si>
   <si>
     <t>五位玄字僧尽皆下场，我派也不能示弱。</t>
@@ -1216,7 +1216,7 @@
     <t>xuankongfangzhang</t>
   </si>
   <si>
-    <t>201|1|4137;205|4|4137</t>
+    <t>201|1|4086;205|4|4086</t>
   </si>
   <si>
     <t>少林方丈内力浑厚如斯，居然能平地浮空？</t>
@@ -1249,7 +1249,7 @@
     <t>wudang1</t>
   </si>
   <si>
-    <t>304|2|2538;305|2|2538;306|1|2538</t>
+    <t>304|2|2284;305|2|2284;306|1|2284</t>
   </si>
   <si>
     <t>武当功夫自成一家，深不可测。</t>
@@ -1273,7 +1273,7 @@
     <t>wudang2</t>
   </si>
   <si>
-    <t>304|3|2788;305|2|2788</t>
+    <t>304|3|2518;305|2|2518</t>
   </si>
   <si>
     <t>北少林，南武当。今日一见名不虚传。</t>
@@ -1294,7 +1294,7 @@
     <t>wudang3</t>
   </si>
   <si>
-    <t>305|3|3063;306|2|3063</t>
+    <t>305|3|2776;306|2|2776</t>
   </si>
   <si>
     <t>纯阳无极功果然了得，小心为是。</t>
@@ -1315,7 +1315,7 @@
     <t>脏道人</t>
   </si>
   <si>
-    <t>304|3|3365;306|2|3365</t>
+    <t>304|3|3061;306|2|3061</t>
   </si>
   <si>
     <t>一众武当弟子盘坐于禅垫之上，像是在练功。</t>
@@ -1330,7 +1330,7 @@
     <t>一仙道长</t>
   </si>
   <si>
-    <t>305|3|3696;306|2|3696</t>
+    <t>305|3|3375;306|2|3375</t>
   </si>
   <si>
     <t>知己知彼，方能百战不殆。</t>
@@ -1345,7 +1345,7 @@
     <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
   </si>
   <si>
-    <t>305|3|4061;306|2|4061</t>
+    <t>305|3|3721;306|2|3721</t>
   </si>
   <si>
     <t>武当七侠石希灵，勇猛过人，剑法精妙。</t>
@@ -1360,7 +1360,7 @@
     <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
   </si>
   <si>
-    <t>304|4|4461;305|1|4461</t>
+    <t>304|4|4103;305|1|4103</t>
   </si>
   <si>
     <t>二十五个道士分成五组，莫非是大五行剑阵！</t>
@@ -1381,7 +1381,7 @@
     <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
   </si>
   <si>
-    <t>304|4|4901;306|1|4901</t>
+    <t>304|4|4524;306|1|4524</t>
   </si>
   <si>
     <t>敌方弟子来势汹汹，我们当沉着应对。</t>
@@ -1393,7 +1393,7 @@
     <t>武当切磋8</t>
   </si>
   <si>
-    <t>304|2|5384;305|2|5384;306|1|5384</t>
+    <t>304|2|4988;305|2|4988;306|1|4988</t>
   </si>
   <si>
     <t>长剑剑横扫而过。众人举剑抵挡。</t>
@@ -1405,7 +1405,7 @@
     <t>武当切磋9</t>
   </si>
   <si>
-    <t>304|4|5915;305|1|5915</t>
+    <t>304|4|5500;305|1|5500</t>
   </si>
   <si>
     <t>观其形，锁其力，唯心一势，则剑阵可破。</t>
@@ -1417,7 +1417,7 @@
     <t>武当切磋10</t>
   </si>
   <si>
-    <t>305|4|6498;306|1|6498</t>
+    <t>305|4|6064;306|1|6064</t>
   </si>
   <si>
     <t>武当弟子已是疲于招架，乘胜追击！</t>
@@ -1432,7 +1432,7 @@
     <t>305|4</t>
   </si>
   <si>
-    <t>304|4|7139;305|1|7139</t>
+    <t>304|4|6687;305|1|6687</t>
   </si>
   <si>
     <t>武当六侠郭希明，七侠中知识最为渊博的</t>
@@ -1444,7 +1444,7 @@
     <t>武当切磋12</t>
   </si>
   <si>
-    <t>304|4|7843;306|1|7843</t>
+    <t>304|4|7373;306|1|7373</t>
   </si>
   <si>
     <t>掬润弄明月，长啸倚青松。青松剑客来也。</t>
@@ -1456,7 +1456,7 @@
     <t>武当切磋13</t>
   </si>
   <si>
-    <t>304|2|8616;305|2|8616;306|1|8616</t>
+    <t>304|2|8129;305|2|8129;306|1|8129</t>
   </si>
   <si>
     <t>双方缠斗在一起，场面十分混乱。</t>
@@ -1468,7 +1468,7 @@
     <t>武当切磋14</t>
   </si>
   <si>
-    <t>304|3|9465;306|2|9465</t>
+    <t>304|3|8963;306|2|8963</t>
   </si>
   <si>
     <t>“要打便真打，老是拆拳化掌，算什么武林北斗？”</t>
@@ -1480,7 +1480,7 @@
     <t>武当切磋15</t>
   </si>
   <si>
-    <t>305|3|10398;306|2|10398</t>
+    <t>305|3|9883;306|2|9883</t>
   </si>
   <si>
     <t>嗤一声，竹林划出一道口子，一个黑影来到身前。</t>
@@ -1492,7 +1492,7 @@
     <t>武当切磋16</t>
   </si>
   <si>
-    <t>304|3|11424;305|2|11424</t>
+    <t>304|3|10896;305|2|10896</t>
   </si>
   <si>
     <t>武当山卧虎藏龙，还是不要乱说话的好…</t>
@@ -1504,7 +1504,7 @@
     <t>武当切磋17</t>
   </si>
   <si>
-    <t>304|3|12550;305|1|12550;306|1|12550</t>
+    <t>304|3|12014;305|1|12014;306|1|12014</t>
   </si>
   <si>
     <t>此人便是武当派卢五侠，为人豪爽，脾气暴躁。</t>
@@ -1516,7 +1516,7 @@
     <t>武当切磋18</t>
   </si>
   <si>
-    <t>304|2|13787;305|2|13787;306|1|13787</t>
+    <t>304|2|13247;305|2|13247;306|1|13247</t>
   </si>
   <si>
     <t>真武七截阵，一仙道人的得意功夫。</t>
@@ -1528,7 +1528,7 @@
     <t>武当切磋19</t>
   </si>
   <si>
-    <t>304|3|15147;305|2|15147</t>
+    <t>304|3|14606;305|2|14606</t>
   </si>
   <si>
     <t>武当弟子一改打法，剑剑往人死穴刺来。</t>
@@ -1540,7 +1540,7 @@
     <t>武当切磋20</t>
   </si>
   <si>
-    <t>304|3|16640;306|2|16640</t>
+    <t>304|3|16104;306|2|16104</t>
   </si>
   <si>
     <t>三人蹬地而起，使出一招仙人指路。</t>
@@ -1574,7 +1574,7 @@
     </r>
   </si>
   <si>
-    <t>305|3|18281;306|2|18281</t>
+    <t>305|3|17756;306|2|17756</t>
   </si>
   <si>
     <t>敌方弟子坚守不退，我们该如何是好？</t>
@@ -1586,7 +1586,7 @@
     <t>武当切磋22</t>
   </si>
   <si>
-    <t>304|2|20083;305|3|20083</t>
+    <t>304|2|19578;305|3|19578</t>
   </si>
   <si>
     <t>“哈哈，来见识见识武当的太极拳！”</t>
@@ -1598,7 +1598,7 @@
     <t>武当切磋23</t>
   </si>
   <si>
-    <t>304|2|22063;306|3|22063</t>
+    <t>304|2|21587;306|3|21587</t>
   </si>
   <si>
     <t>武当邵三侠，传闻是一仙道人的侄子。</t>
@@ -1632,7 +1632,7 @@
     </r>
   </si>
   <si>
-    <t>304|2|24238;305|2|24238;306|1|24238</t>
+    <t>304|2|23801;305|2|23801;306|1|23801</t>
   </si>
   <si>
     <t>一路坎坷，终于来到了玉虚宫前。</t>
@@ -1644,7 +1644,7 @@
     <t>武当切磋25</t>
   </si>
   <si>
-    <t>305|2|26628;306|3|26628</t>
+    <t>305|2|26243;306|3|26243</t>
   </si>
   <si>
     <t>冲出来一队道士，再次将弟子们围住。</t>
@@ -1659,7 +1659,7 @@
     <t>306|3</t>
   </si>
   <si>
-    <t>304|2|29253;305|3|29253</t>
+    <t>304|2|28935;305|3|28935</t>
   </si>
   <si>
     <t>Food|20;Exp_Role|2200;Exp_Kongfu|232</t>
@@ -1693,7 +1693,7 @@
     <t>yixian</t>
   </si>
   <si>
-    <t>303|1|32138;304|2|32138;305|2|32138</t>
+    <t>303|1|31904;304|2|31904;305|2|31904</t>
   </si>
   <si>
     <t>手持“仙人指路”幡，此人便是一仙道人。</t>
@@ -1711,7 +1711,7 @@
     <t>zangdaoren</t>
   </si>
   <si>
-    <t>302|1|35306;305|2|35306;306|2|35306</t>
+    <t>302|1|35177;305|2|35177;306|2|35177</t>
   </si>
   <si>
     <t>鸡腿配酒，莫非是隐退江湖的脏道人！</t>
@@ -1781,7 +1781,7 @@
     <t>403|5</t>
   </si>
   <si>
-    <t>403|5|17090</t>
+    <t>403|5|17536</t>
   </si>
   <si>
     <t>青莲女神剑不容小觑，严阵以待。</t>
@@ -1796,7 +1796,7 @@
     <t>绝绝师太</t>
   </si>
   <si>
-    <t>403|5|18620</t>
+    <t>403|5|19604</t>
   </si>
   <si>
     <t>缠斗之际，峨眉弟子使出一招清风袭月。</t>
@@ -1811,7 +1811,7 @@
     <t>独臂女冠</t>
   </si>
   <si>
-    <t>403|5|20287</t>
+    <t>403|5|21917</t>
   </si>
   <si>
     <t>敌方弟子风头正盛，我们当尽快找出破绽。</t>
@@ -1826,7 +1826,7 @@
     <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
   </si>
   <si>
-    <t>403|5|22104</t>
+    <t>403|5|24502</t>
   </si>
   <si>
     <t>五花观，听着想卖肉的，进去瞧瞧。</t>
@@ -1838,7 +1838,7 @@
     <t>峨眉切磋5</t>
   </si>
   <si>
-    <t>403|5|24083</t>
+    <t>403|5|27392</t>
   </si>
   <si>
     <t>峨嵋派下属八派，这便是僧门弟子清净。</t>
@@ -1850,7 +1850,7 @@
     <t>峨眉切磋6</t>
   </si>
   <si>
-    <t>403|5|26239</t>
+    <t>403|5|30623</t>
   </si>
   <si>
     <t>白蟒鞭灵动有力，跟五毒教的鞭法大不一样。</t>
@@ -1862,7 +1862,7 @@
     <t>峨眉切磋7</t>
   </si>
   <si>
-    <t>403|5|28588</t>
+    <t>403|5|34235</t>
   </si>
   <si>
     <t>Food|20;Exp_Role|2750;Exp_Kongfu|254</t>
@@ -1871,7 +1871,7 @@
     <t>峨眉切磋8</t>
   </si>
   <si>
-    <t>403|5|31148</t>
+    <t>403|5|38273</t>
   </si>
   <si>
     <t>峨眉剑法虚实结合，难以预料，当小心为是。</t>
@@ -1883,7 +1883,7 @@
     <t>峨眉切磋9</t>
   </si>
   <si>
-    <t>403|5|33937</t>
+    <t>403|5|42788</t>
   </si>
   <si>
     <t>峨眉弟子正在败退，赶紧追!</t>
@@ -1895,7 +1895,7 @@
     <t>峨眉切磋10</t>
   </si>
   <si>
-    <t>403|5|36975</t>
+    <t>403|5|47835</t>
   </si>
   <si>
     <t>不好，中埋伏了。</t>
@@ -1907,7 +1907,7 @@
     <t>峨眉切磋11</t>
   </si>
   <si>
-    <t>403|5|40286</t>
+    <t>403|5|53477</t>
   </si>
   <si>
     <t>会门弟子清迦，讲究观师默像，念咒语，颇为神秘</t>
@@ -1919,7 +1919,7 @@
     <t>峨眉切磋12</t>
   </si>
   <si>
-    <t>403|5|43893</t>
+    <t>403|5|59785</t>
   </si>
   <si>
     <t>双方弟子互不相让，场面一度十分混乱。</t>
@@ -1931,7 +1931,7 @@
     <t>峨眉切磋13</t>
   </si>
   <si>
-    <t>403|5|47822</t>
+    <t>403|5|66837</t>
   </si>
   <si>
     <t>弟子们打激战正酣，一度进入僵持状态。</t>
@@ -1943,7 +1943,7 @@
     <t>峨眉切磋14</t>
   </si>
   <si>
-    <t>403|5|52104</t>
+    <t>403|5|74721</t>
   </si>
   <si>
     <t>前方一阵骚乱，弟子们加快脚步，准备一探究竟。</t>
@@ -1955,7 +1955,7 @@
     <t>峨眉切磋15</t>
   </si>
   <si>
-    <t>403|5|56769</t>
+    <t>403|5|83535</t>
   </si>
   <si>
     <t>双方话不投机半句多，见面就出招厮打起来。</t>
@@ -1967,7 +1967,7 @@
     <t>峨眉切磋16</t>
   </si>
   <si>
-    <t>403|5|61852</t>
+    <t>403|5|93388</t>
   </si>
   <si>
     <t>树林中冲出一众尼姑，将弟子团团围住。</t>
@@ -1979,7 +1979,7 @@
     <t>峨眉切磋17</t>
   </si>
   <si>
-    <t>403|5|67390</t>
+    <t>403|5|104404</t>
   </si>
   <si>
     <t>化门弟子清照，使得三十六闭手甚是厉害</t>
@@ -1991,7 +1991,7 @@
     <t>峨眉切磋18</t>
   </si>
   <si>
-    <t>403|5|73423</t>
+    <t>403|5|116719</t>
   </si>
   <si>
     <t>“贼众休跑，伤我门人，叫你们有来无回！”</t>
@@ -2003,7 +2003,7 @@
     <t>峨眉切磋19</t>
   </si>
   <si>
-    <t>403|5|79997</t>
+    <t>403|5|130487</t>
   </si>
   <si>
     <t>“何人敢闯我峨眉净地,跪下！”</t>
@@ -2015,7 +2015,7 @@
     <t>峨眉切磋20</t>
   </si>
   <si>
-    <t>403|5|87160</t>
+    <t>403|5|145878</t>
   </si>
   <si>
     <t>峨眉弟子败下阵来，追！</t>
@@ -2027,7 +2027,7 @@
     <t>峨眉切磋21</t>
   </si>
   <si>
-    <t>403|5|94963</t>
+    <t>403|5|163085</t>
   </si>
   <si>
     <t>不妙！又被包围了，揍她丫的。</t>
@@ -2039,7 +2039,7 @@
     <t>峨眉切磋22</t>
   </si>
   <si>
-    <t>403|5|103466</t>
+    <t>403|5|182322</t>
   </si>
   <si>
     <t>“好一招大雁啼沙，看我的无影脚！”</t>
@@ -2051,7 +2051,7 @@
     <t>峨眉切磋23</t>
   </si>
   <si>
-    <t>403|5|112729</t>
+    <t>403|5|203828</t>
   </si>
   <si>
     <t>此人岳门弟子清虚，一看就是身子虚。</t>
@@ -2063,7 +2063,7 @@
     <t>峨眉切磋24</t>
   </si>
   <si>
-    <t>403|5|122822</t>
+    <t>403|5|227870</t>
   </si>
   <si>
     <t>听得嗖得一声，一道白光闪过，好强的剑气！</t>
@@ -2075,7 +2075,7 @@
     <t>峨眉切磋25</t>
   </si>
   <si>
-    <t>403|5|133819</t>
+    <t>403|5|254748</t>
   </si>
   <si>
     <t>突见人影一闪，几人前后合围，挡住了去路。</t>
@@ -2087,7 +2087,7 @@
     <t>峨眉切磋26</t>
   </si>
   <si>
-    <t>403|5|145801</t>
+    <t>403|5|284797</t>
   </si>
   <si>
     <t>敌方弟子卷土重来，继续揍他们！</t>
@@ -2099,7 +2099,7 @@
     <t>峨眉切磋27</t>
   </si>
   <si>
-    <t>403|5|158855</t>
+    <t>403|5|318390</t>
   </si>
   <si>
     <t>峨眉弟子已是疲于招架，乘胜追击！</t>
@@ -2114,7 +2114,7 @@
     <t>dubi</t>
   </si>
   <si>
-    <t>402|1|173077;403|4|173077</t>
+    <t>402|1|355946;403|4|355946</t>
   </si>
   <si>
     <t>冲虚观，进去瞧瞧。</t>
@@ -2135,7 +2135,7 @@
     <t>shitai</t>
   </si>
   <si>
-    <t>401|1|188574;403|4|188574</t>
+    <t>401|1|397928;403|4|397928</t>
   </si>
   <si>
     <t>前面就是峨眉掌门绝绝师太，去会会她。</t>
@@ -2153,7 +2153,7 @@
     <t>huashan1</t>
   </si>
   <si>
-    <t>503|2|62607;504|2|62607;505|1|62607</t>
+    <t>503|2|116414;504|2|116414;505|1|116414</t>
   </si>
   <si>
     <t>华山奇拔峻秀，真乃人间仙境。</t>
@@ -2177,7 +2177,7 @@
     <t>huashan3</t>
   </si>
   <si>
-    <t>503|3|69698;505|2|69698</t>
+    <t>503|3|132037;505|2|132037</t>
   </si>
   <si>
     <t>华山剑术精妙绝伦，弟子们切莫大意轻敌。</t>
@@ -2195,7 +2195,7 @@
     <t>505|2</t>
   </si>
   <si>
-    <t>503|2|77591;505|3|77591</t>
+    <t>503|2|149757;505|3|149757</t>
   </si>
   <si>
     <t>Coin|250;Exp_Role|4000;Exp_Kongfu|304</t>
@@ -2207,7 +2207,7 @@
     <t>505|3</t>
   </si>
   <si>
-    <t>503|4|86379;505|1|86379</t>
+    <t>503|4|169856;505|1|169856</t>
   </si>
   <si>
     <t>功夫不赖，是花拳绣腿还是徒有虚名呀？</t>
@@ -2225,7 +2225,7 @@
     <t>丘不君</t>
   </si>
   <si>
-    <t>503|1|96162;505|4|96162</t>
+    <t>503|1|192651;505|4|192651</t>
   </si>
   <si>
     <t>华山弟子气急，一招白虹贯日，朝人脸上劈来。</t>
@@ -2246,7 +2246,7 @@
     <t>山不羊</t>
   </si>
   <si>
-    <t>503|2|107053;505|4|107053</t>
+    <t>503|2|218506;505|4|218506</t>
   </si>
   <si>
     <t>前面就是乔光升，是山不羊的关门弟子。</t>
@@ -2261,7 +2261,7 @@
     <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
   </si>
   <si>
-    <t>503|3|119178;505|2|119178</t>
+    <t>503|3|247831;505|2|247831</t>
   </si>
   <si>
     <t>“贼众休跑，休要伤我师弟！”</t>
@@ -2276,7 +2276,7 @@
     <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
   </si>
   <si>
-    <t>503|1|132675;505|4|132675</t>
+    <t>503|1|281091;505|4|281091</t>
   </si>
   <si>
     <t>华山剑法干净利落招招制敌，。</t>
@@ -2291,7 +2291,7 @@
     <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
   </si>
   <si>
-    <t>503|2|147702;505|3|147702</t>
+    <t>503|2|318816;505|3|318816</t>
   </si>
   <si>
     <t>明月松间照，清泉石上流，华山六弟子来也！</t>
@@ -2303,7 +2303,7 @@
     <t>华山切磋9</t>
   </si>
   <si>
-    <t>503|4|164430;505|1|164430</t>
+    <t>503|4|361603;505|1|361603</t>
   </si>
   <si>
     <t>弟子们急忙赶路，一众华山弟子挡住了去路。</t>
@@ -2315,7 +2315,7 @@
     <t>华山切磋10</t>
   </si>
   <si>
-    <t>503|3|183053;505|2|183053</t>
+    <t>503|3|410132;505|2|410132</t>
   </si>
   <si>
     <t>听说你们有一招无边落木，耍出来给爷瞧瞧。</t>
@@ -2327,7 +2327,7 @@
     <t>华山切磋11</t>
   </si>
   <si>
-    <t>503|4|203785;505|1|203785</t>
+    <t>503|4|465174;505|1|465174</t>
   </si>
   <si>
     <t>此人就是华山五弟子陈大冲，脾气冲。</t>
@@ -2361,7 +2361,7 @@
     </r>
   </si>
   <si>
-    <t>503|2|226865;505|3|226865</t>
+    <t>503|2|527603;505|3|527603</t>
   </si>
   <si>
     <t>Coin|250;Exp_Role|4500;Exp_Kongfu|324</t>
@@ -2373,7 +2373,7 @@
     <t>huashan2</t>
   </si>
   <si>
-    <t>504|3|252559;505|2|252559</t>
+    <t>504|3|598411;505|2|598411</t>
   </si>
   <si>
     <t>又是你们，怕是上次被揍的不够狠吧</t>
@@ -2388,7 +2388,7 @@
     <t>504|3</t>
   </si>
   <si>
-    <t>504|1|281163;505|4|281163</t>
+    <t>504|1|678721;505|4|678721</t>
   </si>
   <si>
     <t>强敌来犯，众弟子小心！</t>
@@ -2403,7 +2403,7 @@
     <t>504|1</t>
   </si>
   <si>
-    <t>504|2|313006;505|3|313006</t>
+    <t>504|2|769810;505|3|769810</t>
   </si>
   <si>
     <t>既然这帮人不留情面，我们也不必客气了。</t>
@@ -2415,7 +2415,7 @@
     <t>华山切磋16</t>
   </si>
   <si>
-    <t>504|4|348456;505|1|348456</t>
+    <t>504|4|873123;505|1|873123</t>
   </si>
   <si>
     <t>似有似无，似实似虚，华山剑法名不虚传。</t>
@@ -2430,7 +2430,7 @@
     <t>504|4</t>
   </si>
   <si>
-    <t>504|3|387921;505|2|387921</t>
+    <t>504|3|990302;505|2|990302</t>
   </si>
   <si>
     <t>“华山三弟子应光和，前来比武。”</t>
@@ -2442,7 +2442,7 @@
     <t>华山切磋18</t>
   </si>
   <si>
-    <t>504|4|431856;505|1|431856</t>
+    <t>504|4|1123206;505|1|1123206</t>
   </si>
   <si>
     <t>时值正午，熟睡的弟子们被嘈杂的叫嚷声吵醒。</t>
@@ -2454,7 +2454,7 @@
     <t>华山切磋19</t>
   </si>
   <si>
-    <t>504|2|480766;505|3|480766</t>
+    <t>504|2|1273948;505|3|1273948</t>
   </si>
   <si>
     <t>剑宗气宗合起来对付我们？一起收拾！</t>
@@ -2466,7 +2466,7 @@
     <t>华山切磋20</t>
   </si>
   <si>
-    <t>503|3|535216;504|2|535216</t>
+    <t>503|3|1444919;504|2|1444919</t>
   </si>
   <si>
     <t>竹林内瑟瑟作响，像是有人在此设伏。</t>
@@ -2478,7 +2478,7 @@
     <t>华山切磋21</t>
   </si>
   <si>
-    <t>503|2|595833;504|1|595833;505|1|595833</t>
+    <t>503|2|1638836;504|1|1638836;505|1|1638836</t>
   </si>
   <si>
     <t>“小贼留步！”突见人影一闪，几人前后合围。</t>
@@ -2490,7 +2490,7 @@
     <t>华山切磋22</t>
   </si>
   <si>
-    <t>503|3|663315;504|1|663315;505|1|663315</t>
+    <t>503|3|1858778;504|1|1858778;505|1|1858778</t>
   </si>
   <si>
     <t>Coin|250;Exp_Role|5500;Exp_Kongfu|344</t>
@@ -2499,7 +2499,7 @@
     <t>华山切磋23</t>
   </si>
   <si>
-    <t>503|1|738440;504|1|738440;505|3|738440</t>
+    <t>503|1|2108238;504|1|2108238;505|3|2108238</t>
   </si>
   <si>
     <t>一群落单的，还等什么？往死里打！</t>
@@ -2511,7 +2511,7 @@
     <t>华山切磋24</t>
   </si>
   <si>
-    <t>503|1|822074;504|2|822074;505|2|822074</t>
+    <t>503|1|2391177;504|2|2391177;505|2|2391177</t>
   </si>
   <si>
     <t>前面就是华山二弟子，此人心狠手辣，注意防范。</t>
@@ -2523,7 +2523,7 @@
     <t>华山切磋25</t>
   </si>
   <si>
-    <t>503|1|915179;504|3|915179;505|1|915179</t>
+    <t>503|1|2712087;504|3|2712087;505|1|2712087</t>
   </si>
   <si>
     <t>我乃华山大弟子于大通，伤我师弟，找打！</t>
@@ -2535,7 +2535,7 @@
     <t>华山切磋26</t>
   </si>
   <si>
-    <t>503|2|1018829;504|2|1018829;505|1|1018829</t>
+    <t>503|2|3076066;504|2|3076066;505|1|3076066</t>
   </si>
   <si>
     <t>紫云洞：师祖清修，弟子不得入内</t>
@@ -2547,7 +2547,7 @@
     <t>华山切磋27</t>
   </si>
   <si>
-    <t>503|1|1134219;504|1|1134219;505|3|1134219</t>
+    <t>503|1|3488894;504|1|3488894;505|3|3488894</t>
   </si>
   <si>
     <t>“弟子不得入内”这就进去看看。</t>
@@ -2559,7 +2559,7 @@
     <t>华山切磋28</t>
   </si>
   <si>
-    <t>503|1|1262677;504|2|1262677;505|2|1262677</t>
+    <t>503|1|3957125;504|2|3957125;505|2|3957125</t>
   </si>
   <si>
     <t>“何人敢闯我紫云洞”这一声雄浑有力。</t>
@@ -2593,7 +2593,7 @@
     </r>
   </si>
   <si>
-    <t>501|1|1405684;504|2|1405684;505|2|1405684</t>
+    <t>501|1|4488201;504|2|4488201;505|2|4488201</t>
   </si>
   <si>
     <t>见华山掌门丘不君盘坐一青莲之上。</t>
@@ -2611,7 +2611,7 @@
     <t>wudu1</t>
   </si>
   <si>
-    <t>603|2|427851;604|2|427851;605|1|427851</t>
+    <t>603|2|1134978;604|2|1134978;605|1|1134978</t>
   </si>
   <si>
     <t>石峰矗立，烟云缭绕，五毒岭到了。</t>
@@ -2632,7 +2632,7 @@
     <t>605|1</t>
   </si>
   <si>
-    <t>603|2|489391;604|3|489391</t>
+    <t>603|2|1322099;604|3|1322099</t>
   </si>
   <si>
     <t>五仙教是使毒的行家，切莫大意。</t>
@@ -2653,7 +2653,7 @@
     <t>wudu3</t>
   </si>
   <si>
-    <t>604|2|559782;605|3|559782</t>
+    <t>604|2|1540070;605|3|1540070</t>
   </si>
   <si>
     <t>好一招千蛛万毒手，得尽快想出破解之法。</t>
@@ -2671,7 +2671,7 @@
     <t>红药</t>
   </si>
   <si>
-    <t>603|3|640298;605|2|640298</t>
+    <t>603|3|1793978;605|2|1793978</t>
   </si>
   <si>
     <t>五毒教所制毒药可使人当场毙命，小心为是。</t>
@@ -2692,7 +2692,7 @@
     <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
   </si>
   <si>
-    <t>604|3|732394;605|2|732394</t>
+    <t>604|3|2089747;605|2|2089747</t>
   </si>
   <si>
     <t>大门四开，怕不是有埋伏吧。</t>
@@ -2707,7 +2707,7 @@
     <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
   </si>
   <si>
-    <t>604|4|837738;605|1|837738</t>
+    <t>604|4|2434279;605|1|2434279</t>
   </si>
   <si>
     <t>这山都光秃秃的，可没少被祸害。</t>
@@ -2725,7 +2725,7 @@
     <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
   </si>
   <si>
-    <t>603|4|958234;604|1|958234</t>
+    <t>603|4|2835613;604|1|2835613</t>
   </si>
   <si>
     <t>“谁得罪了五毒教，我定让他死无全尸。”</t>
@@ -2762,7 +2762,7 @@
     </r>
   </si>
   <si>
-    <t>604|3|1096061;605|2|1096061</t>
+    <t>604|3|3303114;605|2|3303114</t>
   </si>
   <si>
     <t>只听得咻的一声，一条软鞭打弟子们头顶上穿过。</t>
@@ -2774,7 +2774,7 @@
     <t>五毒教切磋8</t>
   </si>
   <si>
-    <t>603|2|1253712;604|2|1253712;605|1|1253712</t>
+    <t>603|2|3847691;604|2|3847691;605|1|3847691</t>
   </si>
   <si>
     <t>众人怒气冲天，一场恶斗在所难免。</t>
@@ -2786,7 +2786,7 @@
     <t>五毒教切磋9</t>
   </si>
   <si>
-    <t>603|2|1434039;604|3|1434039</t>
+    <t>603|2|4482051;604|3|4482051</t>
   </si>
   <si>
     <t>五毒教众人被我方弟子吓破了胆，乘胜追击！</t>
@@ -2798,7 +2798,7 @@
     <t>五毒教切磋10</t>
   </si>
   <si>
-    <t>604|3|1640303;605|2|1640303</t>
+    <t>604|3|5220996;605|2|5220996</t>
   </si>
   <si>
     <t>弟子们加快脚步，却被一群五毒弟子拦住去路</t>
@@ -2810,7 +2810,7 @@
     <t>五毒教切磋11</t>
   </si>
   <si>
-    <t>603|3|1876235;604|2|1876235</t>
+    <t>603|3|6081770;604|2|6081770</t>
   </si>
   <si>
     <t>弟子们避雨之际，看到前面有一五毒教头目。</t>
@@ -2822,7 +2822,7 @@
     <t>五毒教切磋12</t>
   </si>
   <si>
-    <t>603|3|2146102;605|2|2146102</t>
+    <t>603|3|7084458;605|2|7084458</t>
   </si>
   <si>
     <t>五毒教下属分支组织松散，还得逐个击破。</t>
@@ -2834,7 +2834,7 @@
     <t>五毒教切磋13</t>
   </si>
   <si>
-    <t>603|2|2454786;604|2|2454786;605|1|2454786</t>
+    <t>603|2|8252456;604|2|8252456;605|1|8252456</t>
   </si>
   <si>
     <t>看来这帮人绝非等闲之辈，严阵以待。</t>
@@ -2846,7 +2846,7 @@
     <t>五毒教切磋14</t>
   </si>
   <si>
-    <t>603|2|2807868;605|3|2807868</t>
+    <t>603|2|9613020;605|3|9613020</t>
   </si>
   <si>
     <t>Kongfu|3005|1;Exp_Role|15000;Exp_Kongfu|640</t>
@@ -2858,7 +2858,7 @@
     <t>wudu2</t>
   </si>
   <si>
-    <t>604|2|3211736;605|3|3211736</t>
+    <t>604|2|11197896;605|3|11197896</t>
   </si>
   <si>
     <t>“赶紧把五仙大补药酒拿出来给爷爷们尝尝。”</t>
@@ -2870,7 +2870,7 @@
     <t>五毒教切磋16</t>
   </si>
   <si>
-    <t>603|2|3673694;604|3|3673694</t>
+    <t>603|2|13044068;604|3|13044068</t>
   </si>
   <si>
     <t>抓获的俘虏交代青蛇堂离这里不远了。</t>
@@ -2882,7 +2882,7 @@
     <t>五毒教切磋17</t>
   </si>
   <si>
-    <t>603|1|4202098;604|3|4202098;605|1|4202098</t>
+    <t>603|1|15194614;604|3|15194614;605|1|15194614</t>
   </si>
   <si>
     <t>见一人盘坐青莲之上，想必此人就是堂主。</t>
@@ -2897,7 +2897,7 @@
     <t>603|1</t>
   </si>
   <si>
-    <t>603|2|4806504;604|1|4806504;605|2|4806504</t>
+    <t>603|2|17699715;604|1|17699715;605|2|17699715</t>
   </si>
   <si>
     <t>一阵阴风刮过，又是五毒教的人搞的鬼。</t>
@@ -2912,7 +2912,7 @@
     <t>604|1</t>
   </si>
   <si>
-    <t>603|1|5497845;604|4|5497845</t>
+    <t>603|1|20617826;604|4|20617826</t>
   </si>
   <si>
     <t>敌人落荒而逃，到底是无胆鼠辈。</t>
@@ -2968,7 +2968,7 @@
     </r>
   </si>
   <si>
-    <t>603|1|6288625;605|4|6288625</t>
+    <t>603|1|24017040;605|4|24017040</t>
   </si>
   <si>
     <t>“快看!丐帮的密信被卷走了，追！”</t>
@@ -3002,7 +3002,7 @@
     </r>
   </si>
   <si>
-    <t>604|1|7193145;605|4|7193145</t>
+    <t>604|1|27976675;605|4|27976675</t>
   </si>
   <si>
     <t>“老实交代情况，不然揍得你妈都认不出来。”</t>
@@ -3014,7 +3014,7 @@
     <t>五毒教切磋22</t>
   </si>
   <si>
-    <t>603|1|8227767;604|4|8227767</t>
+    <t>603|1|32589126;604|4|32589126</t>
   </si>
   <si>
     <t>教主下令取走了密信？此事必有蹊跷。</t>
@@ -3026,7 +3026,7 @@
     <t>五毒教切磋23</t>
   </si>
   <si>
-    <t>603|1|9411203;605|4|9411203</t>
+    <t>603|1|37962020;605|4|37962020</t>
   </si>
   <si>
     <t>弟子们赶奔五毒山顶，更狠毒的地敌人在等着他们。</t>
@@ -3038,7 +3038,7 @@
     <t>五毒教切磋24</t>
   </si>
   <si>
-    <t>603|1|10764858;604|1|10764858;605|3|10764858</t>
+    <t>603|1|44220732;604|1|44220732;605|3|44220732</t>
   </si>
   <si>
     <t>一发飞镖扎在树上，字条上写着“我们有毒”。</t>
@@ -3050,7 +3050,7 @@
     <t>五毒教切磋25</t>
   </si>
   <si>
-    <t>604|1|12313215;605|4|12313215</t>
+    <t>604|1|51511303;605|4|51511303</t>
   </si>
   <si>
     <t>敌方弟子来势汹汹，我们当冷静应对。</t>
@@ -3062,7 +3062,7 @@
     <t>五毒教切磋26</t>
   </si>
   <si>
-    <t>603|1|14084279;605|4|14084279</t>
+    <t>603|1|60003854;605|4|60003854</t>
   </si>
   <si>
     <t>又是一发暗器，真是阴险。</t>
@@ -3074,7 +3074,7 @@
     <t>五毒教切磋27</t>
   </si>
   <si>
-    <t>603|1|16110083;604|1|16110083;605|3|16110083</t>
+    <t>603|1|69896553;604|1|69896553;605|3|69896553</t>
   </si>
   <si>
     <t>五毒弟子卷土重来，准备战斗!</t>
@@ -3108,7 +3108,7 @@
     </r>
   </si>
   <si>
-    <t>602|1|18427267;603|2|18427267;604|2|18427267</t>
+    <t>602|1|81420238;603|2|81420238;604|2|81420238</t>
   </si>
   <si>
     <t>此人就是左护法，诡秘奇特，极难对付。</t>
@@ -3164,7 +3164,7 @@
     </r>
   </si>
   <si>
-    <t>601|1|21077747;604|2|21077747;605|2|21077747</t>
+    <t>601|1|94843826;604|2|94843826;605|2|94843826</t>
   </si>
   <si>
     <t>教主就在殿内，冲进去干他！</t>
@@ -3220,7 +3220,7 @@
     </r>
   </si>
   <si>
-    <t>705|5|4873304</t>
+    <t>705|5|23331896</t>
   </si>
   <si>
     <t>黄沙漫漫，千万小心，恐四处皆敌。</t>
@@ -3238,7 +3238,7 @@
     <t>mojiao2</t>
   </si>
   <si>
-    <t>705|5|5500978</t>
+    <t>705|5|27215315</t>
   </si>
   <si>
     <t>小心第二次袭击，刚刚只是试探。</t>
@@ -3256,7 +3256,7 @@
     <t>mojiao3</t>
   </si>
   <si>
-    <t>706|5|6209495</t>
+    <t>706|5|31745101</t>
   </si>
   <si>
     <t>无耻小贼，居然偷袭，我派可也不是吃素的。</t>
@@ -3296,7 +3296,7 @@
     </r>
   </si>
   <si>
-    <t>706|5|7009268</t>
+    <t>706|5|37028835</t>
   </si>
   <si>
     <t>前方敌人越来越多，我们离目标很近了。</t>
@@ -3314,7 +3314,7 @@
     <t>xiaoyao1</t>
   </si>
   <si>
-    <t>705|3|7912051;706|1|7912051;704|1|7912051</t>
+    <t>705|3|43192008;706|1|43192008;704|1|43192008</t>
   </si>
   <si>
     <t>魔教众以西域人为主，乍一看都是帅哥美女。</t>
@@ -3379,7 +3379,7 @@
     <t>xiaoyao2</t>
   </si>
   <si>
-    <t>705|2|8931111;706|2|8931111;704|1|8931111</t>
+    <t>705|2|50380995;706|2|50380995;704|1|50380995</t>
   </si>
   <si>
     <t>魔教人人舞一轮弯刀，刀法奇诡，甚是古怪。</t>
@@ -3403,7 +3403,7 @@
     <t>xiaoyao3</t>
   </si>
   <si>
-    <t>705|3|10081424;706|1|10081424;704|1|10081424</t>
+    <t>705|3|58766534;706|1|58766534;704|1|58766534</t>
   </si>
   <si>
     <t>魔教中人竟练出阴阳互济的刀阵，不可小觑。</t>
@@ -3418,7 +3418,7 @@
     <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
   </si>
   <si>
-    <t>705|2|11379895;706|2|11379895;704|1|11379895</t>
+    <t>705|2|68547784;706|2|68547784;704|1|68547784</t>
   </si>
   <si>
     <t>魔教在身法中混入胡旋舞的脚步，煞是好看。</t>
@@ -3452,7 +3452,7 @@
     </r>
   </si>
   <si>
-    <t>705|1|12845608;706|3|12845608;704|1|12845608</t>
+    <t>705|1|79957050;706|3|79957050;704|1|79957050</t>
   </si>
   <si>
     <t>魔教众不使汉话，莫下重手，说不定在求饶。</t>
@@ -3508,7 +3508,7 @@
     </r>
   </si>
   <si>
-    <t>705|1|14500102;706|2|14500102;704|2|14500102</t>
+    <t>705|1|93265302;706|2|93265302;704|2|93265302</t>
   </si>
   <si>
     <t>征伐魔教路途太远，干粮不够，夺些酒食先。</t>
@@ -3545,7 +3545,7 @@
     </r>
   </si>
   <si>
-    <t>705|1|16367692;706|1|16367692;704|3|16367692</t>
+    <t>705|1|108788614;706|1|108788614;704|3|108788614</t>
   </si>
   <si>
     <t>魔教众分日月星三部，有三大法王统领。</t>
@@ -3563,7 +3563,7 @@
     <t>704|3</t>
   </si>
   <si>
-    <t>705|5|18475825</t>
+    <t>705|5|126895664</t>
   </si>
   <si>
     <t>来人手腕均有六芒星纹饰，想来是星部众。</t>
@@ -3578,7 +3578,7 @@
     <t>mojiao1</t>
   </si>
   <si>
-    <t>704|5|20855483</t>
+    <t>704|5|148016498</t>
   </si>
   <si>
     <t>听说月部众只收美女，师兄弟能一饱眼福了。</t>
@@ -3593,7 +3593,7 @@
     <t>704|5</t>
   </si>
   <si>
-    <t>706|5|23541636</t>
+    <t>706|5|172652737</t>
   </si>
   <si>
     <t>日部众体格壮硕，却不是好惹的。</t>
@@ -3605,7 +3605,7 @@
     <t>明教切磋14</t>
   </si>
   <si>
-    <t>705|2|26573762;706|1|26573762;704|1|26573762</t>
+    <t>705|2|201389493;706|1|201389493;704|1|201389493</t>
   </si>
   <si>
     <t>魔教关押了许多武林正派，尽力将他们救出。</t>
@@ -3617,7 +3617,7 @@
     <t>明教切磋15</t>
   </si>
   <si>
-    <t>705|3|29996420;706|1|29996420;704|1|29996420</t>
+    <t>705|3|234909267;706|1|234909267;704|1|234909267</t>
   </si>
   <si>
     <t>武林同道竟然功力全失，快去一探究竟。</t>
@@ -3629,7 +3629,7 @@
     <t>明教切磋16</t>
   </si>
   <si>
-    <t>705|1|33859912;706|2|33859912;704|1|33859912</t>
+    <t>705|1|274008156;706|2|274008156;704|1|274008156</t>
   </si>
   <si>
     <t>魔教吸人功力，有违天理，将他们尽皆除去。</t>
@@ -3641,7 +3641,7 @@
     <t>明教切磋17</t>
   </si>
   <si>
-    <t>705|1|38221015;706|3|38221015;704|1|38221015</t>
+    <t>705|1|319614763;706|3|319614763;704|1|319614763</t>
   </si>
   <si>
     <t>前方便是魔教山门所在，警惕妖人邪法。</t>
@@ -3656,7 +3656,7 @@
     <t>rilunfawang</t>
   </si>
   <si>
-    <t>702|1|43143822;706|2|43143822;704|2|43143822</t>
+    <t>702|1|372812248;706|2|372812248;704|2|372812248</t>
   </si>
   <si>
     <t>黑发虬髯，铁腕金刀，背悬红日，日轮昭昭！</t>
@@ -3671,7 +3671,7 @@
     <t>702|1</t>
   </si>
   <si>
-    <t>702|1|48700678;705|2|48700678;706|2|48700678</t>
+    <t>702|1|434864057;705|2|434864057;706|2|434864057</t>
   </si>
   <si>
     <t>日轮法王指挥星部众来此，击败他们！</t>
@@ -3705,7 +3705,7 @@
     </r>
   </si>
   <si>
-    <t>702|1|54973249;706|2|54973249;704|2|54973249</t>
+    <t>702|1|507243925;706|2|507243925;704|2|507243925</t>
   </si>
   <si>
     <t>日部众加入战阵，气势暴涨，尽力抵挡。</t>
@@ -3717,7 +3717,7 @@
     <t>明教切磋21</t>
   </si>
   <si>
-    <t>704|5|62053717</t>
+    <t>704|5|591670881</t>
   </si>
   <si>
     <t>前方寒气蠢蠢，月华清冷，月部众就在前方。</t>
@@ -3729,7 +3729,7 @@
     <t>明教切磋22</t>
   </si>
   <si>
-    <t>704|5|70046138</t>
+    <t>704|5|690150071</t>
   </si>
   <si>
     <t>月部众彻底摆开阵势，清影横浮，不可冒进。</t>
@@ -3741,7 +3741,7 @@
     <t>明教切磋23</t>
   </si>
   <si>
-    <t>704|2|79067971;705|3|79067971</t>
+    <t>704|2|805020385;705|3|805020385</t>
   </si>
   <si>
     <t>星月相环，江河辉映。</t>
@@ -3753,7 +3753,7 @@
     <t>明教切磋24</t>
   </si>
   <si>
-    <t>704|3|89251801;706|2|89251801</t>
+    <t>704|3|939010004;706|2|939010004</t>
   </si>
   <si>
     <t>日月轮转，生生不息。</t>
@@ -3765,7 +3765,7 @@
     <t>明教切磋25</t>
   </si>
   <si>
-    <t>705|2|100747293;706|2|100747293;704|1|100747293</t>
+    <t>705|2|1095301192;706|2|1095301192;704|1|1095301192</t>
   </si>
   <si>
     <t>日月星，法三光；天地人，合三才。</t>
@@ -3799,7 +3799,7 @@
     </r>
   </si>
   <si>
-    <t>703|1|113723385;704|4|113723385</t>
+    <t>703|1|1277605879;704|4|1277605879</t>
   </si>
   <si>
     <t>红衣曼舞，青纱摇摇，寒影飘碎，月轮皎皎。</t>
@@ -3817,7 +3817,7 @@
     <t>704|4</t>
   </si>
   <si>
-    <t>702|1|128370778;703|1|128370778;704|1|128370778;705|1|128370778;706|1|128370778</t>
+    <t>702|1|1490253817;703|1|1490253817;704|1|1490253817;705|1|1490253817;706|1|1490253817</t>
   </si>
   <si>
     <t>凌空日月，日月法王要同时出手了！</t>
@@ -3857,7 +3857,7 @@
     </r>
   </si>
   <si>
-    <t>701|1|144904733;704|2|144904733;705|1|144904733;706|1|144904733</t>
+    <t>701|1|1738295412;704|2|1738295412;705|1|1738295412;706|1|1738295412</t>
   </si>
   <si>
     <t>长生天泣，日月无光。</t>
@@ -3875,7 +3875,7 @@
     <t>jiaozhu</t>
   </si>
   <si>
-    <t>701|1|163568235;702|1|163568235;703|1|163568235;704|1|163568235;705|1|163568235</t>
+    <t>701|1|2027621678;702|1|2027621678;703|1|2027621678;704|1|2027621678;705|1|2027621678</t>
   </si>
   <si>
     <t>魔教教主霹雳手段，此战我派必能扬名天下！</t>
@@ -3909,7 +3909,7 @@
     </r>
   </si>
   <si>
-    <t>9702|5|40011421</t>
+    <t>9702|5|407817084</t>
   </si>
   <si>
     <t>逍遥派地处绝壁，不知方法难以到达。</t>
@@ -3956,7 +3956,7 @@
     <t>shanzei2</t>
   </si>
   <si>
-    <t>9703|5|45811054</t>
+    <t>9703|5|455542632</t>
   </si>
   <si>
     <t>前方山下竟有山贼作恶，路见不平拔刀相助！</t>
@@ -4003,7 +4003,7 @@
     <t>逍遥子</t>
   </si>
   <si>
-    <t>9702|2|52451340;9703|3|52451340</t>
+    <t>9702|2|508853351;9703|3|508853351</t>
   </si>
   <si>
     <t>好山贼，居然见势不妙逃了，快追！</t>
@@ -4104,7 +4104,7 @@
     </r>
   </si>
   <si>
-    <t>9701|1|60054133;9702|2|60054133;9703|2|60054133</t>
+    <t>9701|1|568402856;9702|2|568402856;9703|2|568402856</t>
   </si>
   <si>
     <t>山贼喽喽请来了山贼头领，一网打尽。</t>
@@ -4183,7 +4183,7 @@
     <t>玄女</t>
   </si>
   <si>
-    <t>9701|1|68758946;9702|1|68758946;9703|2|68758946;804|1|68758946</t>
+    <t>9701|1|634921251;9702|1|634921251;9703|2|634921251;804|1|634921251</t>
   </si>
   <si>
     <t>山贼之中竟有一名白衣人，多加小心！</t>
@@ -4255,7 +4255,7 @@
     </r>
   </si>
   <si>
-    <t>804|1|78725516;9702|2|78725516;9703|2|78725516</t>
+    <t>804|1|709224085;9702|2|709224085;9703|2|709224085</t>
   </si>
   <si>
     <t>白衣人是逍遥派的弃徒，抓住问出逍遥所在。</t>
@@ -4270,7 +4270,7 @@
     <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
   </si>
   <si>
-    <t>804|1|90136736;9701|1|90136736;9702|1|90136736;9703|2|90136736</t>
+    <t>804|1|792222345;9701|1|792222345;9702|1|792222345;9703|2|792222345</t>
   </si>
   <si>
     <t>逍遥派门下出手不像武功，倒像道法了。</t>
@@ -4285,7 +4285,7 @@
     <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
   </si>
   <si>
-    <t>804|5|103202005</t>
+    <t>804|5|884933630</t>
   </si>
   <si>
     <t>逍遥派竟是依靠悬索上下山，向那小山先去。</t>
@@ -4325,7 +4325,7 @@
     </r>
   </si>
   <si>
-    <t>805|5|118161078</t>
+    <t>805|5|988494624</t>
   </si>
   <si>
     <t>找对地方了，这里果然有逍遥弟子在守卫。</t>
@@ -4343,7 +4343,7 @@
     <t>山贼喽啰</t>
   </si>
   <si>
-    <t>804|3|135288460;805|2|135288460</t>
+    <t>804|3|1104175036;805|2|1104175036</t>
   </si>
   <si>
     <t>逍遥派掌握了合击之术，聚多人功力御敌。</t>
@@ -4361,7 +4361,7 @@
     <t>805|2</t>
   </si>
   <si>
-    <t>804|4|154898446;805|1|154898446</t>
+    <t>804|4|1233393161;805|1|1233393161</t>
   </si>
   <si>
     <t>逍遥派功法奇特，真气外放，三丈外御敌。</t>
@@ -4379,7 +4379,7 @@
     <t>805|1</t>
   </si>
   <si>
-    <t>804|2|177350889;805|3|177350889</t>
+    <t>804|2|1377733277;805|3|1377733277</t>
   </si>
   <si>
     <t>他们一拥而上，看来是乱了阵脚，乘胜追击。</t>
@@ -4397,7 +4397,7 @@
     <t>805|3</t>
   </si>
   <si>
-    <t>804|3|203057801;805|2|203057801</t>
+    <t>804|3|1538965061;805|2|1538965061</t>
   </si>
   <si>
     <t>逍遥派的精英居然乘鹤而来，无愧逍遥。</t>
@@ -4409,7 +4409,7 @@
     <t>逍遥切磋13</t>
   </si>
   <si>
-    <t>804|4|232490915;805|1|232490915</t>
+    <t>804|4|1719065293;805|1|1719065293</t>
   </si>
   <si>
     <t>“仙鹤”居然是锁链上的白布，装神弄鬼。</t>
@@ -4421,7 +4421,7 @@
     <t>逍遥切磋14</t>
   </si>
   <si>
-    <t>804|1|266190343;805|4|266190343</t>
+    <t>804|1|1920242088;805|4|1920242088</t>
   </si>
   <si>
     <t>九牛二虎之力，终于看见逍遥派的山门了。</t>
@@ -4458,7 +4458,7 @@
     <t>805|4</t>
   </si>
   <si>
-    <t>804|2|304774484;805|3|304774484</t>
+    <t>804|2|2144961970;805|3|2144961970</t>
   </si>
   <si>
     <t>山门内果然精英弟子聚集，我们严阵以待。</t>
@@ -4514,7 +4514,7 @@
     </r>
   </si>
   <si>
-    <t>806|5|348951374</t>
+    <t>806|5|2395980111</t>
   </si>
   <si>
     <t>逍遥弟子招收弟子以美为标准，怎有胖哥儿？</t>
@@ -4529,7 +4529,7 @@
     <t>806|5</t>
   </si>
   <si>
-    <t>806|5|399531680</t>
+    <t>806|5|2676374114</t>
   </si>
   <si>
     <t>胖弟子好强，再去过过招，将底细探查清楚。</t>
@@ -4541,7 +4541,7 @@
     <t>逍遥切磋18</t>
   </si>
   <si>
-    <t>806|5|457443573</t>
+    <t>806|5|2989581744</t>
   </si>
   <si>
     <t>看来他们要亮真招了，速速避其锋芒。</t>
@@ -4553,7 +4553,7 @@
     <t>逍遥切磋19</t>
   </si>
   <si>
-    <t>804|1|523749762;805|3|523749762;806|1|523749762</t>
+    <t>804|1|3339443076;805|3|3339443076;806|1|3339443076</t>
   </si>
   <si>
     <t>其他弟子将功力聚于胖弟子身上，端的生猛。</t>
@@ -4587,7 +4587,7 @@
     </r>
   </si>
   <si>
-    <t>804|2|599666997;805|2|599666997;806|1|599666997</t>
+    <t>804|2|3730247577;805|2|3730247577;806|1|3730247577</t>
   </si>
   <si>
     <t>逍遥派弟子真气激荡，要看清真气流动。</t>
@@ -4599,7 +4599,7 @@
     <t>逍遥切磋21</t>
   </si>
   <si>
-    <t>804|3|686588392;805|1|686588392;806|1|686588392</t>
+    <t>804|3|4166786698;805|1|4166786698;806|1|4166786698</t>
   </si>
   <si>
     <t>最后一阵，师兄弟尽管出手，掌门随后就到。</t>
@@ -4611,7 +4611,7 @@
     <t>逍遥切磋22</t>
   </si>
   <si>
-    <t>804|1|786108994;805|2|786108994;806|2|786108994</t>
+    <t>804|1|4654412617;805|2|4654412617;806|2|4654412617</t>
   </si>
   <si>
     <t>一阵青光照过，逍遥派弟子恢复如初。</t>
@@ -4626,7 +4626,7 @@
     <t>806|2</t>
   </si>
   <si>
-    <t>804|1|900055052;805|3|900055052;806|1|900055052</t>
+    <t>804|1|5199103860;805|3|5199103860;806|1|5199103860</t>
   </si>
   <si>
     <t>我们好生休息，强敌一会就来。</t>
@@ -4660,7 +4660,7 @@
     </r>
   </si>
   <si>
-    <t>802|1|1030517527;804|2|1030517527;805|2|1030517527</t>
+    <t>802|1|5807538604;804|2|5807538604;805|2|5807538604</t>
   </si>
   <si>
     <t>咦，这次居然真骑了仙鹤过来，还是个童子。</t>
@@ -4694,7 +4694,7 @@
     </r>
   </si>
   <si>
-    <t>802|1|1179890464;805|2|1179890464;806|2|1179890464</t>
+    <t>802|1|6487176549;805|2|6487176549;806|2|6487176549</t>
   </si>
   <si>
     <t>好厉害的仙童，千万不能小看了。</t>
@@ -4728,7 +4728,7 @@
     </r>
   </si>
   <si>
-    <t>803|1|1350914925;804|2|1350914925;805|2|1350914925</t>
+    <t>803|1|7246350381;804|2|7246350381;805|2|7246350381</t>
   </si>
   <si>
     <t>先是仙童，尔后是仙女，莫非真是神仙庙？</t>
@@ -4762,7 +4762,7 @@
     </r>
   </si>
   <si>
-    <t>803|1|1546729286;805|2|1546729286;806|2|1546729286</t>
+    <t>803|1|8094367934;805|2|8094367934;806|2|8094367934</t>
   </si>
   <si>
     <t>这玄女白日飞天了，难道真是天上神仙下凡？</t>
@@ -4796,7 +4796,7 @@
     </r>
   </si>
   <si>
-    <t>801|1|1770926829;804|2|1770926829;805|2|1770926829</t>
+    <t>801|1|9041626310;804|2|9041626310;805|2|9041626310</t>
   </si>
   <si>
     <t>逍遥子头顶灵光脚踩浮云，真神仙也。</t>
@@ -4830,7 +4830,7 @@
     </r>
   </si>
   <si>
-    <t>801|1|2027621678;805|2|2027621678;806|2|2027621678</t>
+    <t>801|1|10099739348;805|2|10099739348;806|2|10099739348</t>
   </si>
   <si>
     <t>管他真假仙人，都要在我派手下跌落凡尘。</t>
@@ -5037,11 +5037,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -5065,10 +5065,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5089,7 +5098,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5103,29 +5134,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5141,38 +5172,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -5180,10 +5179,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5194,16 +5194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5253,13 +5253,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5271,37 +5319,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5319,31 +5349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5355,19 +5373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5385,7 +5391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5397,7 +5403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5409,19 +5421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5446,30 +5446,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5499,16 +5475,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5523,6 +5499,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5553,10 +5553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5565,133 +5565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6088,9 +6088,9 @@
   <dimension ref="A1:X244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F232" sqref="F232"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6247,7 +6247,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="7">
-        <v>2079</v>
+        <v>1040</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>27</v>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="X5" s="9" t="str">
         <f>O5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(P5="","",";"&amp;P5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(Q5="","",";"&amp;Q5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(R5="","",";"&amp;R5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(S5="","",";"&amp;S5&amp;"|"&amp;ROUND(G5/5,0)))))</f>
-        <v>104|3|416;105|1|416;106|1|416</v>
+        <v>104|3|208;105|1|208;106|1|208</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -6305,7 +6305,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7">
-        <v>2162</v>
+        <v>1099</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="X6" s="9" t="str">
         <f t="shared" ref="X6:X69" si="0">O6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(P6="","",";"&amp;P6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(Q6="","",";"&amp;Q6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(R6="","",";"&amp;R6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(S6="","",";"&amp;S6&amp;"|"&amp;ROUND(G6/5,0)))))</f>
-        <v>104|3|432;105|1|432;106|1|432</v>
+        <v>104|3|220;105|1|220;106|1|220</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -6363,7 +6363,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7">
-        <v>2249</v>
+        <v>1162</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>41</v>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="X7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|450;106|2|450</v>
+        <v>105|3|232;106|2|232</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -6418,7 +6418,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="7">
-        <v>2339</v>
+        <v>1228</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>48</v>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="X8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|468;105|2|468</v>
+        <v>104|3|246;105|2|246</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -6473,7 +6473,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7">
-        <v>2433</v>
+        <v>1298</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>54</v>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="X9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|487;105|2|487</v>
+        <v>104|3|260;105|2|260</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -6528,7 +6528,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="7">
-        <v>2531</v>
+        <v>1372</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>59</v>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="X10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|2|506;106|3|506</v>
+        <v>105|2|274;106|3|274</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -6583,7 +6583,7 @@
         <v>64</v>
       </c>
       <c r="G11" s="7">
-        <v>2632</v>
+        <v>1450</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>65</v>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="X11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|526;106|3|526</v>
+        <v>104|2|290;106|3|290</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -6632,7 +6632,7 @@
         <v>69</v>
       </c>
       <c r="G12" s="7">
-        <v>2738</v>
+        <v>1533</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>70</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="X12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|2|548;106|3|548</v>
+        <v>105|2|307;106|3|307</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -6681,7 +6681,7 @@
         <v>73</v>
       </c>
       <c r="G13" s="7">
-        <v>2848</v>
+        <v>1620</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>74</v>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="X13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|570;105|3|570</v>
+        <v>104|2|324;105|3|324</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -6730,7 +6730,7 @@
         <v>77</v>
       </c>
       <c r="G14" s="7">
-        <v>2962</v>
+        <v>1712</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>78</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="X14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|4|592;106|1|592</v>
+        <v>105|4|342;106|1|342</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -6779,7 +6779,7 @@
         <v>82</v>
       </c>
       <c r="G15" s="7">
-        <v>3081</v>
+        <v>1810</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>83</v>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="X15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|616;105|2|616</v>
+        <v>104|3|362;105|2|362</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -6828,7 +6828,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="7">
-        <v>3205</v>
+        <v>1913</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>88</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="X16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|641;105|2|641;106|1|641</v>
+        <v>104|2|383;105|2|383;106|1|383</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -6880,7 +6880,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="7">
-        <v>3333</v>
+        <v>2022</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>92</v>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="X17" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|667;106|2|667</v>
+        <v>105|3|404;106|2|404</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -6929,7 +6929,7 @@
         <v>95</v>
       </c>
       <c r="G18" s="7">
-        <v>3467</v>
+        <v>2137</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>96</v>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="X18" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|693;106|2|693</v>
+        <v>104|3|427;106|2|427</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -6978,7 +6978,7 @@
         <v>99</v>
       </c>
       <c r="G19" s="7">
-        <v>3606</v>
+        <v>2259</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>100</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="X19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|721;105|2|721</v>
+        <v>104|3|452;105|2|452</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -7027,7 +7027,7 @@
         <v>103</v>
       </c>
       <c r="G20" s="7">
-        <v>3751</v>
+        <v>2388</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>104</v>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="X20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|750;106|2|750</v>
+        <v>104|3|478;106|2|478</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -7076,7 +7076,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="7">
-        <v>3901</v>
+        <v>2524</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>108</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="X21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|780;106|2|780</v>
+        <v>105|3|505;106|2|505</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -7125,7 +7125,7 @@
         <v>111</v>
       </c>
       <c r="G22" s="7">
-        <v>4057</v>
+        <v>2668</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>112</v>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="X22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|811;105|2|811;106|1|811</v>
+        <v>104|2|534;105|2|534;106|1|534</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -7177,7 +7177,7 @@
         <v>115</v>
       </c>
       <c r="G23" s="7">
-        <v>4220</v>
+        <v>2820</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>116</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="X23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|844;106|2|844</v>
+        <v>105|3|564;106|2|564</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -7226,7 +7226,7 @@
         <v>119</v>
       </c>
       <c r="G24" s="7">
-        <v>4389</v>
+        <v>2981</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>120</v>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="X24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|878;105|2|878</v>
+        <v>104|3|596;105|2|596</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -7275,7 +7275,7 @@
         <v>123</v>
       </c>
       <c r="G25" s="7">
-        <v>4565</v>
+        <v>3151</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>124</v>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="X25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|913;106|2|913</v>
+        <v>104|3|630;106|2|630</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -7324,7 +7324,7 @@
         <v>127</v>
       </c>
       <c r="G26" s="7">
-        <v>4748</v>
+        <v>3331</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>128</v>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="X26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|950;106|2|950</v>
+        <v>105|3|666;106|2|666</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -7373,7 +7373,7 @@
         <v>131</v>
       </c>
       <c r="G27" s="7">
-        <v>4938</v>
+        <v>3521</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>132</v>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="X27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|988;105|2|988</v>
+        <v>104|3|704;105|2|704</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -7422,7 +7422,7 @@
         <v>135</v>
       </c>
       <c r="G28" s="7">
-        <v>5136</v>
+        <v>3722</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>136</v>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="X28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|1027;105|2|1027;106|1|1027</v>
+        <v>104|2|744;105|2|744;106|1|744</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -7474,7 +7474,7 @@
         <v>139</v>
       </c>
       <c r="G29" s="7">
-        <v>5342</v>
+        <v>3934</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>140</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="X29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|1068;106|2|1068</v>
+        <v>105|3|787;106|2|787</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -7523,7 +7523,7 @@
         <v>143</v>
       </c>
       <c r="G30" s="7">
-        <v>5556</v>
+        <v>4159</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>144</v>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="X30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|1111;106|2|1111</v>
+        <v>104|3|832;106|2|832</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -7572,7 +7572,7 @@
         <v>148</v>
       </c>
       <c r="G31" s="7">
-        <v>5779</v>
+        <v>4396</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>149</v>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="X31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|1156;106|2|1156</v>
+        <v>104|3|879;106|2|879</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -7621,7 +7621,7 @@
         <v>153</v>
       </c>
       <c r="G32" s="7">
-        <v>6011</v>
+        <v>4647</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>154</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="X32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|1202;105|2|1202</v>
+        <v>104|3|929;105|2|929</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -7670,7 +7670,7 @@
         <v>158</v>
       </c>
       <c r="G33" s="7">
-        <v>6252</v>
+        <v>4912</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>159</v>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="X33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>103|1|1250;104|2|1250;105|1|1250;106|1|1250</v>
+        <v>103|1|982;104|2|982;105|1|982;106|1|982</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -7725,7 +7725,7 @@
         <v>164</v>
       </c>
       <c r="G34" s="7">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>165</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="X34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>102|1|1300;104|2|1300;105|1|1300;106|1|1300</v>
+        <v>102|1|1040;104|2|1040;105|1|1040;106|1|1040</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -7780,7 +7780,7 @@
         <v>170</v>
       </c>
       <c r="G35" s="8">
-        <v>4635</v>
+        <v>3244</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>171</v>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="X35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|927</v>
+        <v>204|5|649</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -7832,7 +7832,7 @@
         <v>176</v>
       </c>
       <c r="G36" s="8">
-        <v>4889</v>
+        <v>3464</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>177</v>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="X36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|978</v>
+        <v>204|5|693</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -7884,7 +7884,7 @@
         <v>182</v>
       </c>
       <c r="G37" s="8">
-        <v>5157</v>
+        <v>3699</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>183</v>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="X37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|2|1031;204|3|1031</v>
+        <v>205|2|740;204|3|740</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -7939,7 +7939,7 @@
         <v>189</v>
       </c>
       <c r="G38" s="8">
-        <v>5440</v>
+        <v>3950</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>190</v>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="X38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|5|1088</v>
+        <v>205|5|790</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -7991,7 +7991,7 @@
         <v>195</v>
       </c>
       <c r="G39" s="8">
-        <v>5739</v>
+        <v>4218</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>196</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="X39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|4|1148;204|1|1148</v>
+        <v>205|4|844;204|1|844</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -8046,7 +8046,7 @@
         <v>203</v>
       </c>
       <c r="G40" s="8">
-        <v>6054</v>
+        <v>4505</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>204</v>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="X40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|4|1211;206|1|1211</v>
+        <v>204|4|901;206|1|901</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -8101,7 +8101,7 @@
         <v>210</v>
       </c>
       <c r="G41" s="8">
-        <v>6386</v>
+        <v>4811</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>211</v>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="X41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|1277;205|3|1277</v>
+        <v>204|2|962;205|3|962</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -8150,7 +8150,7 @@
         <v>216</v>
       </c>
       <c r="G42" s="8">
-        <v>6736</v>
+        <v>5138</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>217</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="X42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|4|1347;205|1|1347</v>
+        <v>204|4|1028;205|1|1028</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -8199,7 +8199,7 @@
         <v>221</v>
       </c>
       <c r="G43" s="8">
-        <v>7106</v>
+        <v>5487</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>222</v>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="X43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|3|1421;205|2|1421</v>
+        <v>204|3|1097;205|2|1097</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -8248,7 +8248,7 @@
         <v>227</v>
       </c>
       <c r="G44" s="8">
-        <v>7496</v>
+        <v>5860</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>228</v>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="X44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|3|1499;205|2|1499</v>
+        <v>204|3|1172;205|2|1172</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -8297,7 +8297,7 @@
         <v>232</v>
       </c>
       <c r="G45" s="8">
-        <v>7907</v>
+        <v>6258</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>233</v>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="X45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|3|1581;205|2|1581</v>
+        <v>204|3|1252;205|2|1252</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -8346,7 +8346,7 @@
         <v>236</v>
       </c>
       <c r="G46" s="8">
-        <v>8341</v>
+        <v>6683</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>237</v>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="X46" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>206|5|1668</v>
+        <v>206|5|1337</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -8392,7 +8392,7 @@
         <v>241</v>
       </c>
       <c r="G47" s="8">
-        <v>8799</v>
+        <v>7137</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>242</v>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="X47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|1760;205|2|1760;206|1|1760</v>
+        <v>204|2|1427;205|2|1427;206|1|1427</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -8444,7 +8444,7 @@
         <v>246</v>
       </c>
       <c r="G48" s="8">
-        <v>9282</v>
+        <v>7622</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>247</v>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="X48" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|1856</v>
+        <v>204|5|1524</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -8490,7 +8490,7 @@
         <v>250</v>
       </c>
       <c r="G49" s="8">
-        <v>9791</v>
+        <v>8140</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>251</v>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="X49" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|5|1958</v>
+        <v>205|5|1628</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -8536,7 +8536,7 @@
         <v>254</v>
       </c>
       <c r="G50" s="8">
-        <v>10328</v>
+        <v>8693</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>255</v>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="X50" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|2066</v>
+        <v>204|5|1739</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -8582,7 +8582,7 @@
         <v>258</v>
       </c>
       <c r="G51" s="8">
-        <v>10895</v>
+        <v>9284</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>259</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="X51" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|2179</v>
+        <v>204|5|1857</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -8628,7 +8628,7 @@
         <v>262</v>
       </c>
       <c r="G52" s="8">
-        <v>11493</v>
+        <v>9915</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>263</v>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="X52" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|5|2299</v>
+        <v>205|5|1983</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -8674,7 +8674,7 @@
         <v>267</v>
       </c>
       <c r="G53" s="8">
-        <v>12124</v>
+        <v>10589</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>268</v>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="X53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>206|5|2425</v>
+        <v>206|5|2118</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -8720,7 +8720,7 @@
         <v>271</v>
       </c>
       <c r="G54" s="8">
-        <v>12789</v>
+        <v>11308</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>272</v>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="X54" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>203|1|2558;204|2|2558;205|2|2558</v>
+        <v>203|1|2262;204|2|2262;205|2|2262</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -8772,7 +8772,7 @@
         <v>276</v>
       </c>
       <c r="G55" s="8">
-        <v>13491</v>
+        <v>12076</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>277</v>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="X55" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>203|1|2698;205|2|2698;206|2|2698</v>
+        <v>203|1|2415;205|2|2415;206|2|2415</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -8824,7 +8824,7 @@
         <v>282</v>
       </c>
       <c r="G56" s="8">
-        <v>14231</v>
+        <v>12896</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>283</v>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="X56" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|4|2846;203|1|2846</v>
+        <v>204|4|2579;203|1|2579</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -8873,7 +8873,7 @@
         <v>286</v>
       </c>
       <c r="G57" s="8">
-        <v>15012</v>
+        <v>13772</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>287</v>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="X57" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>202|1|3002;204|4|3002</v>
+        <v>202|1|2754;204|4|2754</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -8922,7 +8922,7 @@
         <v>291</v>
       </c>
       <c r="G58" s="8">
-        <v>15836</v>
+        <v>14708</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>292</v>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="X58" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>202|1|3167;205|4|3167</v>
+        <v>202|1|2942;205|4|2942</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -8971,7 +8971,7 @@
         <v>295</v>
       </c>
       <c r="G59" s="8">
-        <v>16705</v>
+        <v>15707</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>296</v>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="X59" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|3341;205|2|3341;206|1|3341</v>
+        <v>204|2|3141;205|2|3141;206|1|3141</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -9023,7 +9023,7 @@
         <v>299</v>
       </c>
       <c r="G60" s="8">
-        <v>17622</v>
+        <v>16774</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>300</v>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="X60" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|3524;205|2|3524;206|1|3524</v>
+        <v>204|2|3355;205|2|3355;206|1|3355</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -9075,7 +9075,7 @@
         <v>303</v>
       </c>
       <c r="G61" s="8">
-        <v>18589</v>
+        <v>17914</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>304</v>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="X61" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|3718;205|2|3718;206|1|3718</v>
+        <v>204|2|3583;205|2|3583;206|1|3583</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -9127,7 +9127,7 @@
         <v>307</v>
       </c>
       <c r="G62" s="8">
-        <v>19609</v>
+        <v>19131</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>308</v>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="X62" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>206|5|3922</v>
+        <v>206|5|3826</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -9173,7 +9173,7 @@
         <v>312</v>
       </c>
       <c r="G63" s="8">
-        <v>20685</v>
+        <v>20431</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>313</v>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="X63" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>201|1|4137;205|4|4137</v>
+        <v>201|1|4086;205|4|4086</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -9271,7 +9271,7 @@
         <v>323</v>
       </c>
       <c r="G65" s="7">
-        <v>12688</v>
+        <v>11419</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>324</v>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="X65" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>304|2|2538;305|2|2538;306|1|2538</v>
+        <v>304|2|2284;305|2|2284;306|1|2284</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -9323,7 +9323,7 @@
         <v>331</v>
       </c>
       <c r="G66" s="7">
-        <v>13939</v>
+        <v>12590</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>332</v>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="X66" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>304|3|2788;305|2|2788</v>
+        <v>304|3|2518;305|2|2518</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -9378,7 +9378,7 @@
         <v>338</v>
       </c>
       <c r="G67" s="7">
-        <v>15313</v>
+        <v>13882</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>339</v>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="X67" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>305|3|3063;306|2|3063</v>
+        <v>305|3|2776;306|2|2776</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -9433,7 +9433,7 @@
         <v>345</v>
       </c>
       <c r="G68" s="7">
-        <v>16823</v>
+        <v>15306</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>346</v>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="X68" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>304|3|3365;306|2|3365</v>
+        <v>304|3|3061;306|2|3061</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -9488,7 +9488,7 @@
         <v>350</v>
       </c>
       <c r="G69" s="7">
-        <v>18482</v>
+        <v>16876</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>351</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="X69" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>305|3|3696;306|2|3696</v>
+        <v>305|3|3375;306|2|3375</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -9543,7 +9543,7 @@
         <v>355</v>
       </c>
       <c r="G70" s="7">
-        <v>20304</v>
+        <v>18607</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>356</v>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="X70" s="9" t="str">
         <f t="shared" ref="X70:X133" si="1">O70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(P70="","",";"&amp;P70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(Q70="","",";"&amp;Q70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(R70="","",";"&amp;R70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(S70="","",";"&amp;S70&amp;"|"&amp;ROUND(G70/5,0)))))</f>
-        <v>305|3|4061;306|2|4061</v>
+        <v>305|3|3721;306|2|3721</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -9598,7 +9598,7 @@
         <v>360</v>
       </c>
       <c r="G71" s="7">
-        <v>22306</v>
+        <v>20516</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>361</v>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="X71" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|4461;305|1|4461</v>
+        <v>304|4|4103;305|1|4103</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -9653,7 +9653,7 @@
         <v>367</v>
       </c>
       <c r="G72" s="7">
-        <v>24505</v>
+        <v>22621</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>368</v>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="X72" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|4901;306|1|4901</v>
+        <v>304|4|4524;306|1|4524</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -9702,7 +9702,7 @@
         <v>371</v>
       </c>
       <c r="G73" s="7">
-        <v>26921</v>
+        <v>24942</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>372</v>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="X73" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|5384;305|2|5384;306|1|5384</v>
+        <v>304|2|4988;305|2|4988;306|1|4988</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -9754,7 +9754,7 @@
         <v>375</v>
       </c>
       <c r="G74" s="7">
-        <v>29575</v>
+        <v>27501</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>376</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="X74" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|5915;305|1|5915</v>
+        <v>304|4|5500;305|1|5500</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -9803,7 +9803,7 @@
         <v>379</v>
       </c>
       <c r="G75" s="7">
-        <v>32491</v>
+        <v>30322</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>380</v>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="X75" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>305|4|6498;306|1|6498</v>
+        <v>305|4|6064;306|1|6064</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -9852,7 +9852,7 @@
         <v>384</v>
       </c>
       <c r="G76" s="7">
-        <v>35694</v>
+        <v>33433</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>385</v>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="X76" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|7139;305|1|7139</v>
+        <v>304|4|6687;305|1|6687</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -9901,7 +9901,7 @@
         <v>388</v>
       </c>
       <c r="G77" s="7">
-        <v>39213</v>
+        <v>36863</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>389</v>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="X77" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|7843;306|1|7843</v>
+        <v>304|4|7373;306|1|7373</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -9950,7 +9950,7 @@
         <v>392</v>
       </c>
       <c r="G78" s="7">
-        <v>43079</v>
+        <v>40645</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>393</v>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="X78" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|8616;305|2|8616;306|1|8616</v>
+        <v>304|2|8129;305|2|8129;306|1|8129</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -10002,7 +10002,7 @@
         <v>396</v>
       </c>
       <c r="G79" s="7">
-        <v>47326</v>
+        <v>44815</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>397</v>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="X79" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|9465;306|2|9465</v>
+        <v>304|3|8963;306|2|8963</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -10051,7 +10051,7 @@
         <v>400</v>
       </c>
       <c r="G80" s="7">
-        <v>51992</v>
+        <v>49413</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>401</v>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="X80" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>305|3|10398;306|2|10398</v>
+        <v>305|3|9883;306|2|9883</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -10100,7 +10100,7 @@
         <v>404</v>
       </c>
       <c r="G81" s="7">
-        <v>57118</v>
+        <v>54482</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>405</v>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="X81" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|11424;305|2|11424</v>
+        <v>304|3|10896;305|2|10896</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -10149,7 +10149,7 @@
         <v>408</v>
       </c>
       <c r="G82" s="7">
-        <v>62749</v>
+        <v>60071</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>409</v>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="X82" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|12550;305|1|12550;306|1|12550</v>
+        <v>304|3|12014;305|1|12014;306|1|12014</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -10201,7 +10201,7 @@
         <v>412</v>
       </c>
       <c r="G83" s="7">
-        <v>68936</v>
+        <v>66234</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>413</v>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="X83" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|13787;305|2|13787;306|1|13787</v>
+        <v>304|2|13247;305|2|13247;306|1|13247</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -10253,7 +10253,7 @@
         <v>416</v>
       </c>
       <c r="G84" s="7">
-        <v>75733</v>
+        <v>73029</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>417</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="X84" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|15147;305|2|15147</v>
+        <v>304|3|14606;305|2|14606</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -10302,7 +10302,7 @@
         <v>420</v>
       </c>
       <c r="G85" s="7">
-        <v>83200</v>
+        <v>80521</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>421</v>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="X85" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|16640;306|2|16640</v>
+        <v>304|3|16104;306|2|16104</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -10351,7 +10351,7 @@
         <v>425</v>
       </c>
       <c r="G86" s="7">
-        <v>91403</v>
+        <v>88782</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>426</v>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="X86" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>305|3|18281;306|2|18281</v>
+        <v>305|3|17756;306|2|17756</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -10400,7 +10400,7 @@
         <v>429</v>
       </c>
       <c r="G87" s="7">
-        <v>100415</v>
+        <v>97890</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>430</v>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="X87" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|20083;305|3|20083</v>
+        <v>304|2|19578;305|3|19578</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -10449,7 +10449,7 @@
         <v>433</v>
       </c>
       <c r="G88" s="7">
-        <v>110315</v>
+        <v>107933</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>434</v>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="X88" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|22063;306|3|22063</v>
+        <v>304|2|21587;306|3|21587</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -10498,7 +10498,7 @@
         <v>438</v>
       </c>
       <c r="G89" s="7">
-        <v>121191</v>
+        <v>119006</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>439</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="X89" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|24238;305|2|24238;306|1|24238</v>
+        <v>304|2|23801;305|2|23801;306|1|23801</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -10550,7 +10550,7 @@
         <v>442</v>
       </c>
       <c r="G90" s="7">
-        <v>133140</v>
+        <v>131215</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>443</v>
@@ -10576,7 +10576,7 @@
       </c>
       <c r="X90" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>305|2|26628;306|3|26628</v>
+        <v>305|2|26243;306|3|26243</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -10599,7 +10599,7 @@
         <v>446</v>
       </c>
       <c r="G91" s="7">
-        <v>146267</v>
+        <v>144677</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>447</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="X91" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|29253;305|3|29253</v>
+        <v>304|2|28935;305|3|28935</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -10648,7 +10648,7 @@
         <v>452</v>
       </c>
       <c r="G92" s="7">
-        <v>160688</v>
+        <v>159520</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>453</v>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="X92" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>303|1|32138;304|2|32138;305|2|32138</v>
+        <v>303|1|31904;304|2|31904;305|2|31904</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -10700,7 +10700,7 @@
         <v>458</v>
       </c>
       <c r="G93" s="7">
-        <v>176531</v>
+        <v>175885</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>459</v>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="X93" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>302|1|35306;305|2|35306;306|2|35306</v>
+        <v>302|1|35177;305|2|35177;306|2|35177</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -10850,7 +10850,7 @@
         <v>475</v>
       </c>
       <c r="G96" s="8">
-        <v>85450</v>
+        <v>87679</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>476</v>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="X96" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|17090</v>
+        <v>403|5|17536</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -10902,7 +10902,7 @@
         <v>480</v>
       </c>
       <c r="G97" s="8">
-        <v>93101</v>
+        <v>98021</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>481</v>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="X97" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|18620</v>
+        <v>403|5|19604</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -10954,7 +10954,7 @@
         <v>485</v>
       </c>
       <c r="G98" s="8">
-        <v>101437</v>
+        <v>109583</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>486</v>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="X98" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|20287</v>
+        <v>403|5|21917</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -11006,7 +11006,7 @@
         <v>490</v>
       </c>
       <c r="G99" s="8">
-        <v>110519</v>
+        <v>122509</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>491</v>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="X99" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|22104</v>
+        <v>403|5|24502</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -11052,7 +11052,7 @@
         <v>494</v>
       </c>
       <c r="G100" s="8">
-        <v>120414</v>
+        <v>136960</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>495</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="X100" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|24083</v>
+        <v>403|5|27392</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -11098,7 +11098,7 @@
         <v>498</v>
       </c>
       <c r="G101" s="8">
-        <v>131195</v>
+        <v>153115</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>499</v>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="X101" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|26239</v>
+        <v>403|5|30623</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -11144,7 +11144,7 @@
         <v>501</v>
       </c>
       <c r="G102" s="8">
-        <v>142941</v>
+        <v>171176</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>502</v>
@@ -11167,7 +11167,7 @@
       </c>
       <c r="X102" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|28588</v>
+        <v>403|5|34235</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -11190,7 +11190,7 @@
         <v>505</v>
       </c>
       <c r="G103" s="8">
-        <v>155739</v>
+        <v>191367</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>506</v>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="X103" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|31148</v>
+        <v>403|5|38273</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -11236,7 +11236,7 @@
         <v>509</v>
       </c>
       <c r="G104" s="8">
-        <v>169683</v>
+        <v>213940</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>510</v>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="X104" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|33937</v>
+        <v>403|5|42788</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -11282,7 +11282,7 @@
         <v>513</v>
       </c>
       <c r="G105" s="8">
-        <v>184875</v>
+        <v>239175</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>514</v>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="X105" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|36975</v>
+        <v>403|5|47835</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -11328,7 +11328,7 @@
         <v>517</v>
       </c>
       <c r="G106" s="8">
-        <v>201428</v>
+        <v>267387</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>518</v>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="X106" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|40286</v>
+        <v>403|5|53477</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -11374,7 +11374,7 @@
         <v>521</v>
       </c>
       <c r="G107" s="8">
-        <v>219463</v>
+        <v>298927</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>522</v>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="X107" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|43893</v>
+        <v>403|5|59785</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -11420,7 +11420,7 @@
         <v>525</v>
       </c>
       <c r="G108" s="8">
-        <v>239112</v>
+        <v>334187</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>526</v>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="X108" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|47822</v>
+        <v>403|5|66837</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -11466,7 +11466,7 @@
         <v>529</v>
       </c>
       <c r="G109" s="8">
-        <v>260521</v>
+        <v>373606</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>530</v>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="X109" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|52104</v>
+        <v>403|5|74721</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -11512,7 +11512,7 @@
         <v>533</v>
       </c>
       <c r="G110" s="8">
-        <v>283846</v>
+        <v>417675</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>534</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="X110" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|56769</v>
+        <v>403|5|83535</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -11558,7 +11558,7 @@
         <v>537</v>
       </c>
       <c r="G111" s="8">
-        <v>309260</v>
+        <v>466942</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>538</v>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="X111" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|61852</v>
+        <v>403|5|93388</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -11604,7 +11604,7 @@
         <v>541</v>
       </c>
       <c r="G112" s="8">
-        <v>336949</v>
+        <v>522020</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>542</v>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="X112" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|67390</v>
+        <v>403|5|104404</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -11650,7 +11650,7 @@
         <v>545</v>
       </c>
       <c r="G113" s="8">
-        <v>367117</v>
+        <v>583595</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>546</v>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="X113" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|73423</v>
+        <v>403|5|116719</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -11696,7 +11696,7 @@
         <v>549</v>
       </c>
       <c r="G114" s="8">
-        <v>399986</v>
+        <v>652433</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>550</v>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="X114" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|79997</v>
+        <v>403|5|130487</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -11742,7 +11742,7 @@
         <v>553</v>
       </c>
       <c r="G115" s="8">
-        <v>435798</v>
+        <v>729391</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>554</v>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="X115" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|87160</v>
+        <v>403|5|145878</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -11788,7 +11788,7 @@
         <v>557</v>
       </c>
       <c r="G116" s="8">
-        <v>474817</v>
+        <v>815426</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>558</v>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="X116" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|94963</v>
+        <v>403|5|163085</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -11834,7 +11834,7 @@
         <v>561</v>
       </c>
       <c r="G117" s="8">
-        <v>517329</v>
+        <v>911609</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>562</v>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="X117" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|103466</v>
+        <v>403|5|182322</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -11880,7 +11880,7 @@
         <v>565</v>
       </c>
       <c r="G118" s="8">
-        <v>563647</v>
+        <v>1019138</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>566</v>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="X118" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|112729</v>
+        <v>403|5|203828</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -11926,7 +11926,7 @@
         <v>569</v>
       </c>
       <c r="G119" s="8">
-        <v>614112</v>
+        <v>1139350</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>570</v>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="X119" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|122822</v>
+        <v>403|5|227870</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -11972,7 +11972,7 @@
         <v>573</v>
       </c>
       <c r="G120" s="8">
-        <v>669096</v>
+        <v>1273742</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>574</v>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="X120" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|133819</v>
+        <v>403|5|254748</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -12018,7 +12018,7 @@
         <v>577</v>
       </c>
       <c r="G121" s="8">
-        <v>729003</v>
+        <v>1423986</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>578</v>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="X121" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|145801</v>
+        <v>403|5|284797</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -12064,7 +12064,7 @@
         <v>581</v>
       </c>
       <c r="G122" s="8">
-        <v>794273</v>
+        <v>1591952</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>582</v>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="X122" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|158855</v>
+        <v>403|5|318390</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -12110,7 +12110,7 @@
         <v>586</v>
       </c>
       <c r="G123" s="8">
-        <v>865387</v>
+        <v>1779730</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>587</v>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="X123" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>402|1|173077;403|4|173077</v>
+        <v>402|1|355946;403|4|355946</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -12159,7 +12159,7 @@
         <v>593</v>
       </c>
       <c r="G124" s="8">
-        <v>942870</v>
+        <v>1989638</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>594</v>
@@ -12185,7 +12185,7 @@
       </c>
       <c r="X124" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>401|1|188574;403|4|188574</v>
+        <v>401|1|397928;403|4|397928</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -12208,7 +12208,7 @@
         <v>599</v>
       </c>
       <c r="G125" s="7">
-        <v>313035</v>
+        <v>582068</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>600</v>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="X125" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|2|62607;504|2|62607;505|1|62607</v>
+        <v>503|2|116414;504|2|116414;505|1|116414</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -12260,7 +12260,7 @@
         <v>607</v>
       </c>
       <c r="G126" s="7">
-        <v>348488</v>
+        <v>660185</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>608</v>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="X126" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|3|69698;505|2|69698</v>
+        <v>503|3|132037;505|2|132037</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -12309,7 +12309,7 @@
         <v>612</v>
       </c>
       <c r="G127" s="7">
-        <v>387957</v>
+        <v>748786</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>613</v>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="X127" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|2|77591;505|3|77591</v>
+        <v>503|2|149757;505|3|149757</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -12358,7 +12358,7 @@
         <v>617</v>
       </c>
       <c r="G128" s="7">
-        <v>431896</v>
+        <v>849278</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>618</v>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="X128" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|4|86379;505|1|86379</v>
+        <v>503|4|169856;505|1|169856</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -12413,7 +12413,7 @@
         <v>623</v>
       </c>
       <c r="G129" s="7">
-        <v>480811</v>
+        <v>963256</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>624</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="X129" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|1|96162;505|4|96162</v>
+        <v>503|1|192651;505|4|192651</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -12468,7 +12468,7 @@
         <v>630</v>
       </c>
       <c r="G130" s="7">
-        <v>535266</v>
+        <v>1092531</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>631</v>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="X130" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|2|107053;505|4|107053</v>
+        <v>503|2|218506;505|4|218506</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -12523,7 +12523,7 @@
         <v>635</v>
       </c>
       <c r="G131" s="7">
-        <v>595888</v>
+        <v>1239155</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>636</v>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="X131" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|3|119178;505|2|119178</v>
+        <v>503|3|247831;505|2|247831</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -12578,7 +12578,7 @@
         <v>640</v>
       </c>
       <c r="G132" s="7">
-        <v>663376</v>
+        <v>1405457</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>641</v>
@@ -12610,7 +12610,7 @@
       </c>
       <c r="X132" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|1|132675;505|4|132675</v>
+        <v>503|1|281091;505|4|281091</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -12633,7 +12633,7 @@
         <v>645</v>
       </c>
       <c r="G133" s="7">
-        <v>738508</v>
+        <v>1594078</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>646</v>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="X133" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|2|147702;505|3|147702</v>
+        <v>503|2|318816;505|3|318816</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -12682,7 +12682,7 @@
         <v>649</v>
       </c>
       <c r="G134" s="7">
-        <v>822149</v>
+        <v>1808013</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>650</v>
@@ -12708,7 +12708,7 @@
       </c>
       <c r="X134" s="9" t="str">
         <f t="shared" ref="X134:X197" si="2">O134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(P134="","",";"&amp;P134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(Q134="","",";"&amp;Q134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(R134="","",";"&amp;R134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(S134="","",";"&amp;S134&amp;"|"&amp;ROUND(G134/5,0)))))</f>
-        <v>503|4|164430;505|1|164430</v>
+        <v>503|4|361603;505|1|361603</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -12731,7 +12731,7 @@
         <v>653</v>
       </c>
       <c r="G135" s="7">
-        <v>915263</v>
+        <v>2050660</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>654</v>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="X135" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|3|183053;505|2|183053</v>
+        <v>503|3|410132;505|2|410132</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -12780,7 +12780,7 @@
         <v>657</v>
       </c>
       <c r="G136" s="7">
-        <v>1018923</v>
+        <v>2325871</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>658</v>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="X136" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|4|203785;505|1|203785</v>
+        <v>503|4|465174;505|1|465174</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -12829,7 +12829,7 @@
         <v>661</v>
       </c>
       <c r="G137" s="7">
-        <v>1134323</v>
+        <v>2638017</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>662</v>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="X137" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|2|226865;505|3|226865</v>
+        <v>503|2|527603;505|3|527603</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -12878,7 +12878,7 @@
         <v>666</v>
       </c>
       <c r="G138" s="7">
-        <v>1262793</v>
+        <v>2992055</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>667</v>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="X138" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|3|252559;505|2|252559</v>
+        <v>504|3|598411;505|2|598411</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -12927,7 +12927,7 @@
         <v>671</v>
       </c>
       <c r="G139" s="7">
-        <v>1405813</v>
+        <v>3393607</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>672</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="X139" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|1|281163;505|4|281163</v>
+        <v>504|1|678721;505|4|678721</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -12976,7 +12976,7 @@
         <v>676</v>
       </c>
       <c r="G140" s="7">
-        <v>1565031</v>
+        <v>3849050</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>677</v>
@@ -13002,7 +13002,7 @@
       </c>
       <c r="X140" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|2|313006;505|3|313006</v>
+        <v>504|2|769810;505|3|769810</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -13025,7 +13025,7 @@
         <v>680</v>
       </c>
       <c r="G141" s="7">
-        <v>1742281</v>
+        <v>4365616</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>681</v>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="X141" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|4|348456;505|1|348456</v>
+        <v>504|4|873123;505|1|873123</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -13074,7 +13074,7 @@
         <v>685</v>
       </c>
       <c r="G142" s="7">
-        <v>1939606</v>
+        <v>4951509</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>686</v>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="X142" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|3|387921;505|2|387921</v>
+        <v>504|3|990302;505|2|990302</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -13123,7 +13123,7 @@
         <v>689</v>
       </c>
       <c r="G143" s="7">
-        <v>2159279</v>
+        <v>5616032</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>690</v>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="X143" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|4|431856;505|1|431856</v>
+        <v>504|4|1123206;505|1|1123206</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -13172,7 +13172,7 @@
         <v>693</v>
       </c>
       <c r="G144" s="7">
-        <v>2403832</v>
+        <v>6369738</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>694</v>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="X144" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|2|480766;505|3|480766</v>
+        <v>504|2|1273948;505|3|1273948</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -13221,7 +13221,7 @@
         <v>697</v>
       </c>
       <c r="G145" s="7">
-        <v>2676082</v>
+        <v>7224596</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>698</v>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="X145" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|3|535216;504|2|535216</v>
+        <v>503|3|1444919;504|2|1444919</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -13270,7 +13270,7 @@
         <v>701</v>
       </c>
       <c r="G146" s="7">
-        <v>2979166</v>
+        <v>8194182</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>702</v>
@@ -13299,7 +13299,7 @@
       </c>
       <c r="X146" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|2|595833;504|1|595833;505|1|595833</v>
+        <v>503|2|1638836;504|1|1638836;505|1|1638836</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -13322,7 +13322,7 @@
         <v>704</v>
       </c>
       <c r="G147" s="7">
-        <v>3316577</v>
+        <v>9293892</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>705</v>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="X147" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|3|663315;504|1|663315;505|1|663315</v>
+        <v>503|3|1858778;504|1|1858778;505|1|1858778</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -13374,7 +13374,7 @@
         <v>708</v>
       </c>
       <c r="G148" s="7">
-        <v>3692202</v>
+        <v>10541190</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>709</v>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="X148" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|738440;504|1|738440;505|3|738440</v>
+        <v>503|1|2108238;504|1|2108238;505|3|2108238</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -13426,7 +13426,7 @@
         <v>712</v>
       </c>
       <c r="G149" s="7">
-        <v>4110369</v>
+        <v>11955883</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>713</v>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="X149" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|822074;504|2|822074;505|2|822074</v>
+        <v>503|1|2391177;504|2|2391177;505|2|2391177</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -13478,7 +13478,7 @@
         <v>716</v>
       </c>
       <c r="G150" s="7">
-        <v>4575896</v>
+        <v>13560437</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>717</v>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="X150" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|915179;504|3|915179;505|1|915179</v>
+        <v>503|1|2712087;504|3|2712087;505|1|2712087</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -13530,7 +13530,7 @@
         <v>720</v>
       </c>
       <c r="G151" s="7">
-        <v>5094147</v>
+        <v>15380332</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>721</v>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="X151" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|2|1018829;504|2|1018829;505|1|1018829</v>
+        <v>503|2|3076066;504|2|3076066;505|1|3076066</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -13582,7 +13582,7 @@
         <v>724</v>
       </c>
       <c r="G152" s="7">
-        <v>5671094</v>
+        <v>17444468</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>725</v>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="X152" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|1134219;504|1|1134219;505|3|1134219</v>
+        <v>503|1|3488894;504|1|3488894;505|3|3488894</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -13634,7 +13634,7 @@
         <v>728</v>
       </c>
       <c r="G153" s="7">
-        <v>6313384</v>
+        <v>19785624</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>729</v>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="X153" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|1262677;504|2|1262677;505|2|1262677</v>
+        <v>503|1|3957125;504|2|3957125;505|2|3957125</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -13686,7 +13686,7 @@
         <v>733</v>
       </c>
       <c r="G154" s="7">
-        <v>7028421</v>
+        <v>22441003</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>734</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="X154" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>501|1|1405684;504|2|1405684;505|2|1405684</v>
+        <v>501|1|4488201;504|2|4488201;505|2|4488201</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -13738,7 +13738,7 @@
         <v>739</v>
       </c>
       <c r="G155" s="8">
-        <v>2139255</v>
+        <v>5674889</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>740</v>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="X155" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|427851;604|2|427851;605|1|427851</v>
+        <v>603|2|1134978;604|2|1134978;605|1|1134978</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -13790,7 +13790,7 @@
         <v>746</v>
       </c>
       <c r="G156" s="8">
-        <v>2446953</v>
+        <v>6610495</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>747</v>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="X156" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|489391;604|3|489391</v>
+        <v>603|2|1322099;604|3|1322099</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -13845,7 +13845,7 @@
         <v>753</v>
       </c>
       <c r="G157" s="8">
-        <v>2798909</v>
+        <v>7700352</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>754</v>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="X157" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|2|559782;605|3|559782</v>
+        <v>604|2|1540070;605|3|1540070</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -13900,7 +13900,7 @@
         <v>759</v>
       </c>
       <c r="G158" s="8">
-        <v>3201488</v>
+        <v>8969891</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>760</v>
@@ -13932,7 +13932,7 @@
       </c>
       <c r="X158" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|3|640298;605|2|640298</v>
+        <v>603|3|1793978;605|2|1793978</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -13955,7 +13955,7 @@
         <v>766</v>
       </c>
       <c r="G159" s="8">
-        <v>3661972</v>
+        <v>10448736</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>767</v>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="X159" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|3|732394;605|2|732394</v>
+        <v>604|3|2089747;605|2|2089747</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -14010,7 +14010,7 @@
         <v>771</v>
       </c>
       <c r="G160" s="8">
-        <v>4188690</v>
+        <v>12171395</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>772</v>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="X160" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|4|837738;605|1|837738</v>
+        <v>604|4|2434279;605|1|2434279</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -14065,7 +14065,7 @@
         <v>777</v>
       </c>
       <c r="G161" s="8">
-        <v>4791168</v>
+        <v>14178065</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>778</v>
@@ -14091,7 +14091,7 @@
       </c>
       <c r="X161" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|4|958234;604|1|958234</v>
+        <v>603|4|2835613;604|1|2835613</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -14114,7 +14114,7 @@
         <v>783</v>
       </c>
       <c r="G162" s="8">
-        <v>5480303</v>
+        <v>16515570</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>784</v>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="X162" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|3|1096061;605|2|1096061</v>
+        <v>604|3|3303114;605|2|3303114</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -14163,7 +14163,7 @@
         <v>787</v>
       </c>
       <c r="G163" s="8">
-        <v>6268559</v>
+        <v>19238454</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>788</v>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="X163" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|1253712;604|2|1253712;605|1|1253712</v>
+        <v>603|2|3847691;604|2|3847691;605|1|3847691</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -14215,7 +14215,7 @@
         <v>791</v>
       </c>
       <c r="G164" s="8">
-        <v>7170194</v>
+        <v>22410254</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>792</v>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="X164" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|1434039;604|3|1434039</v>
+        <v>603|2|4482051;604|3|4482051</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -14264,7 +14264,7 @@
         <v>795</v>
       </c>
       <c r="G165" s="8">
-        <v>8201515</v>
+        <v>26104981</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>796</v>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="X165" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|3|1640303;605|2|1640303</v>
+        <v>604|3|5220996;605|2|5220996</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -14313,7 +14313,7 @@
         <v>799</v>
       </c>
       <c r="G166" s="8">
-        <v>9381175</v>
+        <v>30408850</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>800</v>
@@ -14339,7 +14339,7 @@
       </c>
       <c r="X166" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|3|1876235;604|2|1876235</v>
+        <v>603|3|6081770;604|2|6081770</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -14362,7 +14362,7 @@
         <v>803</v>
       </c>
       <c r="G167" s="8">
-        <v>10730511</v>
+        <v>35422288</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>804</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="X167" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|3|2146102;605|2|2146102</v>
+        <v>603|3|7084458;605|2|7084458</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -14411,7 +14411,7 @@
         <v>807</v>
       </c>
       <c r="G168" s="8">
-        <v>12273928</v>
+        <v>41262280</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>808</v>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="X168" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|2454786;604|2|2454786;605|1|2454786</v>
+        <v>603|2|8252456;604|2|8252456;605|1|8252456</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -14463,7 +14463,7 @@
         <v>810</v>
       </c>
       <c r="G169" s="8">
-        <v>14039341</v>
+        <v>48065098</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>811</v>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="X169" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|2807868;605|3|2807868</v>
+        <v>603|2|9613020;605|3|9613020</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -14512,7 +14512,7 @@
         <v>815</v>
       </c>
       <c r="G170" s="8">
-        <v>16058681</v>
+        <v>55989481</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>816</v>
@@ -14538,7 +14538,7 @@
       </c>
       <c r="X170" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|2|3211736;605|3|3211736</v>
+        <v>604|2|11197896;605|3|11197896</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -14561,7 +14561,7 @@
         <v>819</v>
       </c>
       <c r="G171" s="8">
-        <v>18368472</v>
+        <v>65220339</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>820</v>
@@ -14587,7 +14587,7 @@
       </c>
       <c r="X171" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|3673694;604|3|3673694</v>
+        <v>603|2|13044068;604|3|13044068</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -14610,7 +14610,7 @@
         <v>823</v>
       </c>
       <c r="G172" s="8">
-        <v>21010490</v>
+        <v>75973068</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>824</v>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="X172" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|4202098;604|3|4202098;605|1|4202098</v>
+        <v>603|1|15194614;604|3|15194614;605|1|15194614</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -14662,7 +14662,7 @@
         <v>828</v>
       </c>
       <c r="G173" s="8">
-        <v>24032522</v>
+        <v>88498574</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>829</v>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="X173" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|4806504;604|1|4806504;605|2|4806504</v>
+        <v>603|2|17699715;604|1|17699715;605|2|17699715</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -14714,7 +14714,7 @@
         <v>833</v>
       </c>
       <c r="G174" s="8">
-        <v>27489226</v>
+        <v>103089132</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>834</v>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="X174" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|5497845;604|4|5497845</v>
+        <v>603|1|20617826;604|4|20617826</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -14763,7 +14763,7 @@
         <v>839</v>
       </c>
       <c r="G175" s="8">
-        <v>31443123</v>
+        <v>120085202</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>840</v>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="X175" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|6288625;605|4|6288625</v>
+        <v>603|1|24017040;605|4|24017040</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -14812,7 +14812,7 @@
         <v>844</v>
       </c>
       <c r="G176" s="8">
-        <v>35965726</v>
+        <v>139883375</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>845</v>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="X176" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|1|7193145;605|4|7193145</v>
+        <v>604|1|27976675;605|4|27976675</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -14861,7 +14861,7 @@
         <v>848</v>
       </c>
       <c r="G177" s="8">
-        <v>41138835</v>
+        <v>162945628</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>849</v>
@@ -14887,7 +14887,7 @@
       </c>
       <c r="X177" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|8227767;604|4|8227767</v>
+        <v>603|1|32589126;604|4|32589126</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -14910,7 +14910,7 @@
         <v>852</v>
       </c>
       <c r="G178" s="8">
-        <v>47056015</v>
+        <v>189810102</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>853</v>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="X178" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|9411203;605|4|9411203</v>
+        <v>603|1|37962020;605|4|37962020</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -14959,7 +14959,7 @@
         <v>856</v>
       </c>
       <c r="G179" s="8">
-        <v>53824289</v>
+        <v>221103661</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>857</v>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="X179" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|10764858;604|1|10764858;605|3|10764858</v>
+        <v>603|1|44220732;604|1|44220732;605|3|44220732</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -15011,7 +15011,7 @@
         <v>860</v>
       </c>
       <c r="G180" s="8">
-        <v>61566074</v>
+        <v>257556517</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>861</v>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="X180" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|1|12313215;605|4|12313215</v>
+        <v>604|1|51511303;605|4|51511303</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -15060,7 +15060,7 @@
         <v>864</v>
       </c>
       <c r="G181" s="8">
-        <v>70421394</v>
+        <v>300019272</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>865</v>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="X181" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|14084279;605|4|14084279</v>
+        <v>603|1|60003854;605|4|60003854</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -15109,7 +15109,7 @@
         <v>868</v>
       </c>
       <c r="G182" s="8">
-        <v>80550414</v>
+        <v>349482765</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>869</v>
@@ -15138,7 +15138,7 @@
       </c>
       <c r="X182" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|16110083;604|1|16110083;605|3|16110083</v>
+        <v>603|1|69896553;604|1|69896553;605|3|69896553</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -15161,7 +15161,7 @@
         <v>873</v>
       </c>
       <c r="G183" s="8">
-        <v>92136336</v>
+        <v>407101191</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>874</v>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="X183" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>602|1|18427267;603|2|18427267;604|2|18427267</v>
+        <v>602|1|81420238;603|2|81420238;604|2|81420238</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -15213,7 +15213,7 @@
         <v>879</v>
       </c>
       <c r="G184" s="8">
-        <v>105388736</v>
+        <v>474219128</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>880</v>
@@ -15242,7 +15242,7 @@
       </c>
       <c r="X184" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>601|1|21077747;604|2|21077747;605|2|21077747</v>
+        <v>601|1|94843826;604|2|94843826;605|2|94843826</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -15265,7 +15265,7 @@
         <v>885</v>
       </c>
       <c r="G185" s="7">
-        <v>24366520</v>
+        <v>116659480</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>886</v>
@@ -15288,7 +15288,7 @@
       </c>
       <c r="X185" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|5|4873304</v>
+        <v>705|5|23331896</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -15311,7 +15311,7 @@
         <v>891</v>
       </c>
       <c r="G186" s="7">
-        <v>27504889</v>
+        <v>136076577</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>892</v>
@@ -15340,7 +15340,7 @@
       </c>
       <c r="X186" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|5|5500978</v>
+        <v>705|5|27215315</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -15363,7 +15363,7 @@
         <v>897</v>
       </c>
       <c r="G187" s="7">
-        <v>31047475</v>
+        <v>158725505</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>898</v>
@@ -15392,7 +15392,7 @@
       </c>
       <c r="X187" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>706|5|6209495</v>
+        <v>706|5|31745101</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -15415,7 +15415,7 @@
         <v>904</v>
       </c>
       <c r="G188" s="7">
-        <v>35046341</v>
+        <v>185144177</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>905</v>
@@ -15444,7 +15444,7 @@
       </c>
       <c r="X188" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>706|5|7009268</v>
+        <v>706|5|37028835</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -15467,7 +15467,7 @@
         <v>910</v>
       </c>
       <c r="G189" s="7">
-        <v>39560255</v>
+        <v>215960040</v>
       </c>
       <c r="H189" s="4" t="s">
         <v>911</v>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="X189" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|3|7912051;706|1|7912051;704|1|7912051</v>
+        <v>705|3|43192008;706|1|43192008;704|1|43192008</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -15525,7 +15525,7 @@
         <v>919</v>
       </c>
       <c r="G190" s="7">
-        <v>44655554</v>
+        <v>251904973</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>920</v>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="X190" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|2|8931111;706|2|8931111;704|1|8931111</v>
+        <v>705|2|50380995;706|2|50380995;704|1|50380995</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -15583,7 +15583,7 @@
         <v>927</v>
       </c>
       <c r="G191" s="7">
-        <v>50407119</v>
+        <v>293832671</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>928</v>
@@ -15618,7 +15618,7 @@
       </c>
       <c r="X191" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|3|10081424;706|1|10081424;704|1|10081424</v>
+        <v>705|3|58766534;706|1|58766534;704|1|58766534</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -15641,7 +15641,7 @@
         <v>932</v>
       </c>
       <c r="G192" s="7">
-        <v>56899477</v>
+        <v>342738920</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>933</v>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="X192" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|2|11379895;706|2|11379895;704|1|11379895</v>
+        <v>705|2|68547784;706|2|68547784;704|1|68547784</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -15693,7 +15693,7 @@
         <v>937</v>
       </c>
       <c r="G193" s="7">
-        <v>64228040</v>
+        <v>399785248</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>938</v>
@@ -15722,7 +15722,7 @@
       </c>
       <c r="X193" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|1|12845608;706|3|12845608;704|1|12845608</v>
+        <v>705|1|79957050;706|3|79957050;704|1|79957050</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -15745,7 +15745,7 @@
         <v>943</v>
       </c>
       <c r="G194" s="7">
-        <v>72500510</v>
+        <v>466326511</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>944</v>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="X194" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|1|14500102;706|2|14500102;704|2|14500102</v>
+        <v>705|1|93265302;706|2|93265302;704|2|93265302</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -15797,7 +15797,7 @@
         <v>949</v>
       </c>
       <c r="G195" s="7">
-        <v>81838462</v>
+        <v>543943069</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>950</v>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="X195" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|1|16367692;706|1|16367692;704|3|16367692</v>
+        <v>705|1|108788614;706|1|108788614;704|3|108788614</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -15849,7 +15849,7 @@
         <v>955</v>
       </c>
       <c r="G196" s="7">
-        <v>92379127</v>
+        <v>634478322</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>956</v>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="X196" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|5|18475825</v>
+        <v>705|5|126895664</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -15895,7 +15895,7 @@
         <v>960</v>
       </c>
       <c r="G197" s="7">
-        <v>104277413</v>
+        <v>740082491</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>961</v>
@@ -15918,7 +15918,7 @@
       </c>
       <c r="X197" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>704|5|20855483</v>
+        <v>704|5|148016498</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -15941,7 +15941,7 @@
         <v>965</v>
       </c>
       <c r="G198" s="7">
-        <v>117708180</v>
+        <v>863263683</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>966</v>
@@ -15964,7 +15964,7 @@
       </c>
       <c r="X198" s="9" t="str">
         <f t="shared" ref="X198:X244" si="3">O198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(P198="","",";"&amp;P198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(Q198="","",";"&amp;Q198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(R198="","",";"&amp;R198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(S198="","",";"&amp;S198&amp;"|"&amp;ROUND(G198/5,0)))))</f>
-        <v>706|5|23541636</v>
+        <v>706|5|172652737</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -15987,7 +15987,7 @@
         <v>969</v>
       </c>
       <c r="G199" s="7">
-        <v>132868808</v>
+        <v>1006947463</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>970</v>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="X199" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|2|26573762;706|1|26573762;704|1|26573762</v>
+        <v>705|2|201389493;706|1|201389493;704|1|201389493</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -16039,7 +16039,7 @@
         <v>973</v>
       </c>
       <c r="G200" s="7">
-        <v>149982101</v>
+        <v>1174546333</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>974</v>
@@ -16068,7 +16068,7 @@
       </c>
       <c r="X200" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|3|29996420;706|1|29996420;704|1|29996420</v>
+        <v>705|3|234909267;706|1|234909267;704|1|234909267</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -16091,7 +16091,7 @@
         <v>977</v>
       </c>
       <c r="G201" s="7">
-        <v>169299560</v>
+        <v>1370040780</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>978</v>
@@ -16120,7 +16120,7 @@
       </c>
       <c r="X201" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|1|33859912;706|2|33859912;704|1|33859912</v>
+        <v>705|1|274008156;706|2|274008156;704|1|274008156</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -16143,7 +16143,7 @@
         <v>981</v>
       </c>
       <c r="G202" s="7">
-        <v>191105077</v>
+        <v>1598073815</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>982</v>
@@ -16172,7 +16172,7 @@
       </c>
       <c r="X202" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|1|38221015;706|3|38221015;704|1|38221015</v>
+        <v>705|1|319614763;706|3|319614763;704|1|319614763</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -16195,7 +16195,7 @@
         <v>986</v>
       </c>
       <c r="G203" s="7">
-        <v>215719110</v>
+        <v>1864061242</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>987</v>
@@ -16224,7 +16224,7 @@
       </c>
       <c r="X203" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>702|1|43143822;706|2|43143822;704|2|43143822</v>
+        <v>702|1|372812248;706|2|372812248;704|2|372812248</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -16247,7 +16247,7 @@
         <v>991</v>
       </c>
       <c r="G204" s="7">
-        <v>243503392</v>
+        <v>2174320286</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>992</v>
@@ -16276,7 +16276,7 @@
       </c>
       <c r="X204" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>702|1|48700678;705|2|48700678;706|2|48700678</v>
+        <v>702|1|434864057;705|2|434864057;706|2|434864057</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -16299,7 +16299,7 @@
         <v>996</v>
       </c>
       <c r="G205" s="7">
-        <v>274866246</v>
+        <v>2536219626</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>997</v>
@@ -16328,7 +16328,7 @@
       </c>
       <c r="X205" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>702|1|54973249;706|2|54973249;704|2|54973249</v>
+        <v>702|1|507243925;706|2|507243925;704|2|507243925</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -16351,7 +16351,7 @@
         <v>1000</v>
       </c>
       <c r="G206" s="7">
-        <v>310268586</v>
+        <v>2958354403</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>1001</v>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="X206" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>704|5|62053717</v>
+        <v>704|5|591670881</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -16397,7 +16397,7 @@
         <v>1004</v>
       </c>
       <c r="G207" s="7">
-        <v>350230692</v>
+        <v>3450750354</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>1005</v>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="X207" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>704|5|70046138</v>
+        <v>704|5|690150071</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -16443,7 +16443,7 @@
         <v>1008</v>
       </c>
       <c r="G208" s="7">
-        <v>395339854</v>
+        <v>4025101927</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>1009</v>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="X208" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>704|2|79067971;705|3|79067971</v>
+        <v>704|2|805020385;705|3|805020385</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -16492,7 +16492,7 @@
         <v>1012</v>
       </c>
       <c r="G209" s="7">
-        <v>446259005</v>
+        <v>4695050021</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>1013</v>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="X209" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>704|3|89251801;706|2|89251801</v>
+        <v>704|3|939010004;706|2|939010004</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -16541,7 +16541,7 @@
         <v>1016</v>
       </c>
       <c r="G210" s="7">
-        <v>503736463</v>
+        <v>5476505962</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>1017</v>
@@ -16570,7 +16570,7 @@
       </c>
       <c r="X210" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|2|100747293;706|2|100747293;704|1|100747293</v>
+        <v>705|2|1095301192;706|2|1095301192;704|1|1095301192</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -16593,7 +16593,7 @@
         <v>1021</v>
       </c>
       <c r="G211" s="7">
-        <v>568616927</v>
+        <v>6388029396</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>1022</v>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="X211" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>703|1|113723385;704|4|113723385</v>
+        <v>703|1|1277605879;704|4|1277605879</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -16642,7 +16642,7 @@
         <v>1027</v>
       </c>
       <c r="G212" s="7">
-        <v>641853892</v>
+        <v>7451269084</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>1028</v>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="X212" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>702|1|128370778;703|1|128370778;704|1|128370778;705|1|128370778;706|1|128370778</v>
+        <v>702|1|1490253817;703|1|1490253817;704|1|1490253817;705|1|1490253817;706|1|1490253817</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -16700,7 +16700,7 @@
         <v>1034</v>
       </c>
       <c r="G213" s="7">
-        <v>724523663</v>
+        <v>8691477061</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>1035</v>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="X213" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>701|1|144904733;704|2|144904733;705|1|144904733;706|1|144904733</v>
+        <v>701|1|1738295412;704|2|1738295412;705|1|1738295412;706|1|1738295412</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -16755,7 +16755,7 @@
         <v>1040</v>
       </c>
       <c r="G214" s="7">
-        <v>817841176</v>
+        <v>10138108390</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>1041</v>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="X214" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>701|1|163568235;702|1|163568235;703|1|163568235;704|1|163568235;705|1|163568235</v>
+        <v>701|1|2027621678;702|1|2027621678;703|1|2027621678;704|1|2027621678;705|1|2027621678</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -16813,7 +16813,7 @@
         <v>1045</v>
       </c>
       <c r="G215" s="8">
-        <v>200057104</v>
+        <v>2039085420</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>1046</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="X215" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9702|5|40011421</v>
+        <v>9702|5|407817084</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -16859,7 +16859,7 @@
         <v>1051</v>
       </c>
       <c r="G216" s="8">
-        <v>229055269</v>
+        <v>2277713162</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>1052</v>
@@ -16888,7 +16888,7 @@
       </c>
       <c r="X216" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9703|5|45811054</v>
+        <v>9703|5|455542632</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -16911,7 +16911,7 @@
         <v>1057</v>
       </c>
       <c r="G217" s="8">
-        <v>262256702</v>
+        <v>2544266757</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>1058</v>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="X217" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9702|2|52451340;9703|3|52451340</v>
+        <v>9702|2|508853351;9703|3|508853351</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -16966,7 +16966,7 @@
         <v>1065</v>
       </c>
       <c r="G218" s="8">
-        <v>300270664</v>
+        <v>2842014279</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>1066</v>
@@ -17001,7 +17001,7 @@
       </c>
       <c r="X218" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9701|1|60054133;9702|2|60054133;9703|2|60054133</v>
+        <v>9701|1|568402856;9702|2|568402856;9703|2|568402856</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -17024,7 +17024,7 @@
         <v>1072</v>
       </c>
       <c r="G219" s="8">
-        <v>343794728</v>
+        <v>3174606256</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>1073</v>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="X219" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9701|1|68758946;9702|1|68758946;9703|2|68758946;804|1|68758946</v>
+        <v>9701|1|634921251;9702|1|634921251;9703|2|634921251;804|1|634921251</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17085,7 +17085,7 @@
         <v>1080</v>
       </c>
       <c r="G220" s="8">
-        <v>393627581</v>
+        <v>3546120424</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>1081</v>
@@ -17120,7 +17120,7 @@
       </c>
       <c r="X220" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|78725516;9702|2|78725516;9703|2|78725516</v>
+        <v>804|1|709224085;9702|2|709224085;9703|2|709224085</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -17143,7 +17143,7 @@
         <v>1085</v>
       </c>
       <c r="G221" s="8">
-        <v>450683678</v>
+        <v>3961111724</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>1086</v>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="X221" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|90136736;9701|1|90136736;9702|1|90136736;9703|2|90136736</v>
+        <v>804|1|792222345;9701|1|792222345;9702|1|792222345;9703|2|792222345</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -17204,7 +17204,7 @@
         <v>1090</v>
       </c>
       <c r="G222" s="8">
-        <v>516010024</v>
+        <v>4424668149</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>1091</v>
@@ -17233,7 +17233,7 @@
       </c>
       <c r="X222" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|5|103202005</v>
+        <v>804|5|884933630</v>
       </c>
     </row>
     <row r="223" spans="1:24">
@@ -17256,7 +17256,7 @@
         <v>1097</v>
       </c>
       <c r="G223" s="8">
-        <v>590805388</v>
+        <v>4942473121</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>1098</v>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="X223" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>805|5|118161078</v>
+        <v>805|5|988494624</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -17308,7 +17308,7 @@
         <v>1103</v>
       </c>
       <c r="G224" s="8">
-        <v>676442298</v>
+        <v>5520875178</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>1104</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="X224" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|3|135288460;805|2|135288460</v>
+        <v>804|3|1104175036;805|2|1104175036</v>
       </c>
     </row>
     <row r="225" spans="1:24">
@@ -17363,7 +17363,7 @@
         <v>1109</v>
       </c>
       <c r="G225" s="8">
-        <v>774492230</v>
+        <v>6166965805</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>1110</v>
@@ -17389,7 +17389,7 @@
       </c>
       <c r="X225" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|4|154898446;805|1|154898446</v>
+        <v>804|4|1233393161;805|1|1233393161</v>
       </c>
     </row>
     <row r="226" spans="1:24">
@@ -17412,7 +17412,7 @@
         <v>1115</v>
       </c>
       <c r="G226" s="8">
-        <v>886754444</v>
+        <v>6888666383</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>1116</v>
@@ -17438,7 +17438,7 @@
       </c>
       <c r="X226" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|2|177350889;805|3|177350889</v>
+        <v>804|2|1377733277;805|3|1377733277</v>
       </c>
     </row>
     <row r="227" spans="1:24">
@@ -17461,7 +17461,7 @@
         <v>1121</v>
       </c>
       <c r="G227" s="8">
-        <v>1015289003</v>
+        <v>7694825305</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>1122</v>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="X227" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|3|203057801;805|2|203057801</v>
+        <v>804|3|1538965061;805|2|1538965061</v>
       </c>
     </row>
     <row r="228" spans="1:24">
@@ -17510,7 +17510,7 @@
         <v>1125</v>
       </c>
       <c r="G228" s="8">
-        <v>1162454575</v>
+        <v>8595326466</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>1126</v>
@@ -17536,7 +17536,7 @@
       </c>
       <c r="X228" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|4|232490915;805|1|232490915</v>
+        <v>804|4|1719065293;805|1|1719065293</v>
       </c>
     </row>
     <row r="229" spans="1:24">
@@ -17559,7 +17559,7 @@
         <v>1129</v>
       </c>
       <c r="G229" s="8">
-        <v>1330951714</v>
+        <v>9601210441</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>1130</v>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="X229" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|266190343;805|4|266190343</v>
+        <v>804|1|1920242088;805|4|1920242088</v>
       </c>
     </row>
     <row r="230" spans="1:24">
@@ -17608,7 +17608,7 @@
         <v>1135</v>
       </c>
       <c r="G230" s="8">
-        <v>1523872418</v>
+        <v>10724809848</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>1136</v>
@@ -17634,7 +17634,7 @@
       </c>
       <c r="X230" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|2|304774484;805|3|304774484</v>
+        <v>804|2|2144961970;805|3|2144961970</v>
       </c>
     </row>
     <row r="231" spans="1:24">
@@ -17657,7 +17657,7 @@
         <v>1141</v>
       </c>
       <c r="G231" s="8">
-        <v>1744756870</v>
+        <v>11979900553</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>1142</v>
@@ -17681,7 +17681,7 @@
       <c r="P231" s="2"/>
       <c r="X231" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>806|5|348951374</v>
+        <v>806|5|2395980111</v>
       </c>
     </row>
     <row r="232" spans="1:24">
@@ -17704,7 +17704,7 @@
         <v>1146</v>
       </c>
       <c r="G232" s="8">
-        <v>1997658400</v>
+        <v>13381870569</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>1147</v>
@@ -17727,7 +17727,7 @@
       </c>
       <c r="X232" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>806|5|399531680</v>
+        <v>806|5|2676374114</v>
       </c>
     </row>
     <row r="233" spans="1:24">
@@ -17750,7 +17750,7 @@
         <v>1150</v>
       </c>
       <c r="G233" s="8">
-        <v>2287217865</v>
+        <v>14947908719</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>1151</v>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="X233" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>806|5|457443573</v>
+        <v>806|5|2989581744</v>
       </c>
     </row>
     <row r="234" spans="1:24">
@@ -17796,7 +17796,7 @@
         <v>1154</v>
       </c>
       <c r="G234" s="8">
-        <v>2618748812</v>
+        <v>16697215379</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>1155</v>
@@ -17825,7 +17825,7 @@
       </c>
       <c r="X234" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|523749762;805|3|523749762;806|1|523749762</v>
+        <v>804|1|3339443076;805|3|3339443076;806|1|3339443076</v>
       </c>
     </row>
     <row r="235" spans="1:24">
@@ -17848,7 +17848,7 @@
         <v>1159</v>
       </c>
       <c r="G235" s="8">
-        <v>2998334984</v>
+        <v>18651237886</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>1160</v>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="X235" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|2|599666997;805|2|599666997;806|1|599666997</v>
+        <v>804|2|3730247577;805|2|3730247577;806|1|3730247577</v>
       </c>
     </row>
     <row r="236" spans="1:24">
@@ -17900,7 +17900,7 @@
         <v>1163</v>
       </c>
       <c r="G236" s="8">
-        <v>3432941958</v>
+        <v>20833933490</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>1164</v>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="X236" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|3|686588392;805|1|686588392;806|1|686588392</v>
+        <v>804|3|4166786698;805|1|4166786698;806|1|4166786698</v>
       </c>
     </row>
     <row r="237" spans="1:24">
@@ -17952,7 +17952,7 @@
         <v>1167</v>
       </c>
       <c r="G237" s="8">
-        <v>3930544969</v>
+        <v>23272063084</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>1168</v>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="X237" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|786108994;805|2|786108994;806|2|786108994</v>
+        <v>804|1|4654412617;805|2|4654412617;806|2|4654412617</v>
       </c>
     </row>
     <row r="238" spans="1:24">
@@ -18004,7 +18004,7 @@
         <v>1172</v>
       </c>
       <c r="G238" s="8">
-        <v>4500275258</v>
+        <v>25995519302</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>1173</v>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="X238" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|900055052;805|3|900055052;806|1|900055052</v>
+        <v>804|1|5199103860;805|3|5199103860;806|1|5199103860</v>
       </c>
     </row>
     <row r="239" spans="1:24">
@@ -18056,7 +18056,7 @@
         <v>1177</v>
       </c>
       <c r="G239" s="8">
-        <v>5152587633</v>
+        <v>29037693020</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>1178</v>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="X239" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>802|1|1030517527;804|2|1030517527;805|2|1030517527</v>
+        <v>802|1|5807538604;804|2|5807538604;805|2|5807538604</v>
       </c>
     </row>
     <row r="240" spans="1:24">
@@ -18108,7 +18108,7 @@
         <v>1182</v>
       </c>
       <c r="G240" s="8">
-        <v>5899452321</v>
+        <v>32435882744</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>1183</v>
@@ -18137,7 +18137,7 @@
       </c>
       <c r="X240" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>802|1|1179890464;805|2|1179890464;806|2|1179890464</v>
+        <v>802|1|6487176549;805|2|6487176549;806|2|6487176549</v>
       </c>
     </row>
     <row r="241" spans="1:24">
@@ -18160,7 +18160,7 @@
         <v>1187</v>
       </c>
       <c r="G241" s="8">
-        <v>6754574626</v>
+        <v>36231751904</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>1188</v>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="X241" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>803|1|1350914925;804|2|1350914925;805|2|1350914925</v>
+        <v>803|1|7246350381;804|2|7246350381;805|2|7246350381</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -18212,7 +18212,7 @@
         <v>1192</v>
       </c>
       <c r="G242" s="8">
-        <v>7733646430</v>
+        <v>40471839672</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>1193</v>
@@ -18241,7 +18241,7 @@
       </c>
       <c r="X242" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>803|1|1546729286;805|2|1546729286;806|2|1546729286</v>
+        <v>803|1|8094367934;805|2|8094367934;806|2|8094367934</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -18264,7 +18264,7 @@
         <v>1197</v>
       </c>
       <c r="G243" s="8">
-        <v>8854634143</v>
+        <v>45208131552</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>1198</v>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="X243" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>801|1|1770926829;804|2|1770926829;805|2|1770926829</v>
+        <v>801|1|9041626310;804|2|9041626310;805|2|9041626310</v>
       </c>
     </row>
     <row r="244" spans="1:24">
@@ -18316,7 +18316,7 @@
         <v>1202</v>
       </c>
       <c r="G244" s="8">
-        <v>10138108390</v>
+        <v>50498696740</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>1203</v>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="X244" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>801|1|2027621678;805|2|2027621678;806|2|2027621678</v>
+        <v>801|1|10099739348;805|2|10099739348;806|2|10099739348</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -168,7 +168,7 @@
     <t>gaibang1</t>
   </si>
   <si>
-    <t>104|3|208;105|1|208;106|1|208</t>
+    <t>104|3|113;105|1|113;106|1|113</t>
   </si>
   <si>
     <t>丐帮乃天下第一大帮，初次挑战一定要取胜。</t>
@@ -192,7 +192,7 @@
     <t>乔帮主</t>
   </si>
   <si>
-    <t>104|3|220;105|1|220;106|1|220</t>
+    <t>104|3|121;105|1|121;106|1|121</t>
   </si>
   <si>
     <t>打狗棒法!上来就亮绝学，要加倍小心。</t>
@@ -210,7 +210,7 @@
     <t>gaibang2</t>
   </si>
   <si>
-    <t>105|3|232;106|2|232</t>
+    <t>105|3|129;106|2|129</t>
   </si>
   <si>
     <t>丐帮弟子卷土重来，准备应战。</t>
@@ -231,7 +231,7 @@
     <t>醉丐苏花子</t>
   </si>
   <si>
-    <t>104|3|246;105|2|246</t>
+    <t>104|3|138;105|2|138</t>
   </si>
   <si>
     <t>一个大汉站在你面前，战斗似乎在所难免。</t>
@@ -249,7 +249,7 @@
     <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
   </si>
   <si>
-    <t>104|3|260;105|2|260</t>
+    <t>104|3|147;105|2|147</t>
   </si>
   <si>
     <t>只见头顶的匾额上写着大忠分舵四个大字。</t>
@@ -264,7 +264,7 @@
     <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
   </si>
   <si>
-    <t>105|2|274;106|3|274</t>
+    <t>105|2|157;106|3|157</t>
   </si>
   <si>
     <t>见一人自大堂走出来，丐帮众人左右让路，</t>
@@ -282,7 +282,7 @@
     <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
   </si>
   <si>
-    <t>104|2|290;106|3|290</t>
+    <t>104|2|167;106|3|167</t>
   </si>
   <si>
     <t>一本武功秘籍，想必此事不会如此简单。</t>
@@ -297,7 +297,7 @@
     <t>104|2</t>
   </si>
   <si>
-    <t>105|2|307;106|3|307</t>
+    <t>105|2|178;106|3|178</t>
   </si>
   <si>
     <t>“大孝分舵”管它的，进去探个究竟！</t>
@@ -309,7 +309,7 @@
     <t>丐帮切磋8</t>
   </si>
   <si>
-    <t>104|2|324;105|3|324</t>
+    <t>104|2|190;105|3|190</t>
   </si>
   <si>
     <t>丐帮看似散乱，管理却井井有条，切莫小看。</t>
@@ -321,7 +321,7 @@
     <t>丐帮切磋9</t>
   </si>
   <si>
-    <t>105|4|342;106|1|342</t>
+    <t>105|4|203;106|1|203</t>
   </si>
   <si>
     <t>敌人越来越难缠了，让他们看看我们的本事。</t>
@@ -336,7 +336,7 @@
     <t>105|4</t>
   </si>
   <si>
-    <t>104|3|362;105|2|362</t>
+    <t>104|3|217;105|2|217</t>
   </si>
   <si>
     <t>几场打斗后弟子们逐渐摸清了丐帮路数。</t>
@@ -351,7 +351,7 @@
     <t>gaibang3</t>
   </si>
   <si>
-    <t>104|2|383;105|2|383;106|1|383</t>
+    <t>104|2|231;105|2|231;106|1|231</t>
   </si>
   <si>
     <t>听落败的那人说，大孝分舵舵主就在前面。</t>
@@ -363,7 +363,7 @@
     <t>丐帮切磋12</t>
   </si>
   <si>
-    <t>105|3|404;106|2|404</t>
+    <t>105|3|246;106|2|246</t>
   </si>
   <si>
     <t>大勇分舵，听起来很厉害的样子。</t>
@@ -375,7 +375,7 @@
     <t>丐帮切磋13</t>
   </si>
   <si>
-    <t>104|3|427;106|2|427</t>
+    <t>104|3|263;106|2|263</t>
   </si>
   <si>
     <t>打狗阵难缠至极，需尽快想出破解之法。</t>
@@ -387,7 +387,7 @@
     <t>丐帮切磋14</t>
   </si>
   <si>
-    <t>104|3|452;105|2|452</t>
+    <t>104|3|280;105|2|280</t>
   </si>
   <si>
     <t>丐帮弟子败下阵来，弟子们端详出了阵法玄机。</t>
@@ -399,7 +399,7 @@
     <t>丐帮切磋15</t>
   </si>
   <si>
-    <t>104|3|478;106|2|478</t>
+    <t>104|3|299;106|2|299</t>
   </si>
   <si>
     <t>双方打斗正酣，一度进入僵持状态。</t>
@@ -411,7 +411,7 @@
     <t>丐帮切磋16</t>
   </si>
   <si>
-    <t>105|3|505;106|2|505</t>
+    <t>105|3|319;106|2|319</t>
   </si>
   <si>
     <t>弟子们信心满满，正准备暴揍这帮叫花子。</t>
@@ -423,7 +423,7 @@
     <t>丐帮切磋17</t>
   </si>
   <si>
-    <t>104|2|534;105|2|534;106|1|534</t>
+    <t>104|2|341;105|2|341;106|1|341</t>
   </si>
   <si>
     <t>丐帮弟子四散而逃并留下一句：有本事别跑。</t>
@@ -435,7 +435,7 @@
     <t>丐帮切磋18</t>
   </si>
   <si>
-    <t>105|3|564;106|2|564</t>
+    <t>105|3|363;106|2|363</t>
   </si>
   <si>
     <t>大勇分舵被打的落花流水，屁滚尿流。</t>
@@ -447,7 +447,7 @@
     <t>丐帮切磋19</t>
   </si>
   <si>
-    <t>104|3|596;105|2|596</t>
+    <t>104|3|388;105|2|388</t>
   </si>
   <si>
     <t>前边又有几个小叫花子叫阵，还等什么？</t>
@@ -459,7 +459,7 @@
     <t>丐帮切磋20</t>
   </si>
   <si>
-    <t>104|3|630;106|2|630</t>
+    <t>104|3|414;106|2|414</t>
   </si>
   <si>
     <t>还有什么功夫尽管使出来!</t>
@@ -471,7 +471,7 @@
     <t>丐帮切磋21</t>
   </si>
   <si>
-    <t>105|3|666;106|2|666</t>
+    <t>105|3|441;106|2|441</t>
   </si>
   <si>
     <t>树林中一声大叫：菜鸡止步。</t>
@@ -483,7 +483,7 @@
     <t>丐帮切磋22</t>
   </si>
   <si>
-    <t>104|3|704;105|2|704</t>
+    <t>104|3|471;105|2|471</t>
   </si>
   <si>
     <t>师父说丐帮人喜欢吹牛皮，果然不假。</t>
@@ -495,7 +495,7 @@
     <t>丐帮切磋23</t>
   </si>
   <si>
-    <t>104|2|744;105|2|744;106|1|744</t>
+    <t>104|2|503;105|2|503;106|1|503</t>
   </si>
   <si>
     <t>弟子埋头赶路之际，忽而一道黑影掠过。</t>
@@ -507,7 +507,7 @@
     <t>丐帮切磋24</t>
   </si>
   <si>
-    <t>105|3|787;106|2|787</t>
+    <t>105|3|536;106|2|536</t>
   </si>
   <si>
     <t>“不怕挨揍的往前站！”</t>
@@ -519,7 +519,7 @@
     <t>丐帮切磋25</t>
   </si>
   <si>
-    <t>104|3|832;106|2|832</t>
+    <t>104|3|572;106|2|572</t>
   </si>
   <si>
     <t>日暮时分，弟子们看见了不远处的丐帮总舵.</t>
@@ -553,7 +553,7 @@
     </r>
   </si>
   <si>
-    <t>104|3|879;106|2|879</t>
+    <t>104|3|610;106|2|610</t>
   </si>
   <si>
     <t>总舵的守卫弟子将我们团团围住，不妙！</t>
@@ -568,7 +568,7 @@
     <t>suhuazi</t>
   </si>
   <si>
-    <t>104|3|929;105|2|929</t>
+    <t>104|3|651;105|2|651</t>
   </si>
   <si>
     <t>前面一老翁席地而坐，正在树下独酌。</t>
@@ -583,7 +583,7 @@
     <t>hongqi</t>
   </si>
   <si>
-    <t>103|1|982;104|2|982;105|1|982;106|1|982</t>
+    <t>103|1|695;104|2|695;105|1|695;106|1|695</t>
   </si>
   <si>
     <t>手持打狗棒，是洪七长老没错了。</t>
@@ -620,7 +620,7 @@
     <t>qiaobangzhu</t>
   </si>
   <si>
-    <t>102|1|1040;104|2|1040;105|1|1040;106|1|1040</t>
+    <t>102|1|742;104|2|742;105|1|742;106|1|742</t>
   </si>
   <si>
     <t>一声龙吟响彻天地，乔帮主终于现身！</t>
@@ -657,7 +657,7 @@
     <t>shaolin1</t>
   </si>
   <si>
-    <t>204|5|649</t>
+    <t>204|5|418</t>
   </si>
   <si>
     <t>少林名动天下，切不可轻敌。</t>
@@ -675,7 +675,7 @@
     <t>玄空方丈</t>
   </si>
   <si>
-    <t>204|5|693</t>
+    <t>204|5|448</t>
   </si>
   <si>
     <t>小和尚一脸傲气，再叫他尝尝厉害。</t>
@@ -693,7 +693,7 @@
     <t>shaolin2</t>
   </si>
   <si>
-    <t>205|2|740;204|3|740</t>
+    <t>205|2|480;204|3|480</t>
   </si>
   <si>
     <t>打了个小光头，来了个大光头。</t>
@@ -714,7 +714,7 @@
     <t>扫地僧</t>
   </si>
   <si>
-    <t>205|5|790</t>
+    <t>205|5|514</t>
   </si>
   <si>
     <t>不愧是少林正宗，小辈弟子英才辈出。</t>
@@ -732,7 +732,7 @@
     <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
   </si>
   <si>
-    <t>205|4|844;204|1|844</t>
+    <t>205|4|551;204|1|551</t>
   </si>
   <si>
     <t>小辈弟子有了师傅在场指点，小心应对。</t>
@@ -775,7 +775,7 @@
     </r>
   </si>
   <si>
-    <t>204|4|901;206|1|901</t>
+    <t>204|4|591;206|1|591</t>
   </si>
   <si>
     <t>此处刚是山脚，看来少林卧虎藏龙。</t>
@@ -815,7 +815,7 @@
     <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
   </si>
   <si>
-    <t>204|2|962;205|3|962</t>
+    <t>204|2|633;205|3|633</t>
   </si>
   <si>
     <t>看来少林也开始认真应对了，我们全力以赴！</t>
@@ -852,7 +852,7 @@
     </r>
   </si>
   <si>
-    <t>204|4|1028;205|1|1028</t>
+    <t>204|4|678;205|1|678</t>
   </si>
   <si>
     <t>少林弟子果真招招精妙，不虚此行。</t>
@@ -886,7 +886,7 @@
     </r>
   </si>
   <si>
-    <t>204|3|1097;205|2|1097</t>
+    <t>204|3|727;205|2|727</t>
   </si>
   <si>
     <t>少林七十二绝技，此次不知能见识几招！</t>
@@ -923,7 +923,7 @@
     <t>shaolin3</t>
   </si>
   <si>
-    <t>204|3|1172;205|2|1172</t>
+    <t>204|3|779;205|2|779</t>
   </si>
   <si>
     <t>竟有玄字高僧出来督战，可不能弱了气势。</t>
@@ -957,7 +957,7 @@
     </r>
   </si>
   <si>
-    <t>204|3|1252;205|2|1252</t>
+    <t>204|3|834;205|2|834</t>
   </si>
   <si>
     <t>玄字高僧要亲自出手了，却不知是何手段。</t>
@@ -969,7 +969,7 @@
     <t>少林切磋11</t>
   </si>
   <si>
-    <t>206|5|1337</t>
+    <t>206|5|894</t>
   </si>
   <si>
     <t>玄字高僧和弟子一同结阵，棘手棘手。</t>
@@ -984,7 +984,7 @@
     <t>206|5</t>
   </si>
   <si>
-    <t>204|2|1427;205|2|1427;206|1|1427</t>
+    <t>204|2|958;205|2|958;206|1|958</t>
   </si>
   <si>
     <t>听说少林藏经阁法藏无数，定不能空手而回。</t>
@@ -999,7 +999,7 @@
     <t>206|1</t>
   </si>
   <si>
-    <t>204|5|1524</t>
+    <t>204|5|1027</t>
   </si>
   <si>
     <t>三拳两脚撂倒看管僧，借几本秘籍回去。</t>
@@ -1011,7 +1011,7 @@
     <t>少林切磋14</t>
   </si>
   <si>
-    <t>205|5|1628</t>
+    <t>205|5|1100</t>
   </si>
   <si>
     <t>到手，向大雄宝殿去，先解决拦路的。</t>
@@ -1023,7 +1023,7 @@
     <t>少林切磋15</t>
   </si>
   <si>
-    <t>204|5|1739</t>
+    <t>204|5|1179</t>
   </si>
   <si>
     <t>糟糕，藏经阁里的小和尚追出来了，快走。</t>
@@ -1035,7 +1035,7 @@
     <t>少林切磋16</t>
   </si>
   <si>
-    <t>204|5|1857</t>
+    <t>204|5|1263</t>
   </si>
   <si>
     <t>前方大和尚拦路，定是小和尚报的信，出手！</t>
@@ -1047,7 +1047,7 @@
     <t>少林切磋17</t>
   </si>
   <si>
-    <t>205|5|1983</t>
+    <t>205|5|1354</t>
   </si>
   <si>
     <t>没想藏经阁内居然有玄字僧坐镇，严阵以待。</t>
@@ -1062,7 +1062,7 @@
     <t>saodiseng</t>
   </si>
   <si>
-    <t>206|5|2118</t>
+    <t>206|5|1451</t>
   </si>
   <si>
     <t>咦，长眉须执扫帚，莫非是传说中的...?</t>
@@ -1074,7 +1074,7 @@
     <t>少林切磋19</t>
   </si>
   <si>
-    <t>203|1|2262;204|2|2262;205|2|2262</t>
+    <t>203|1|1554;204|2|1554;205|2|1554</t>
   </si>
   <si>
     <t>扫地僧力未全尽，少林果然深不可测。</t>
@@ -1089,7 +1089,7 @@
     <t>203|1</t>
   </si>
   <si>
-    <t>203|1|2415;205|2|2415;206|2|2415</t>
+    <t>203|1|1666;205|2|1666;206|2|1666</t>
   </si>
   <si>
     <t>小和尚们得了扫地僧的教导，强了许多。</t>
@@ -1126,7 +1126,7 @@
     </r>
   </si>
   <si>
-    <t>204|4|2579;203|1|2579</t>
+    <t>204|4|1785;203|1|1785</t>
   </si>
   <si>
     <t>前面的大和尚背锅带勺，莫不是个厨子？</t>
@@ -1138,7 +1138,7 @@
     <t>少林切磋22</t>
   </si>
   <si>
-    <t>202|1|2754;204|4|2754</t>
+    <t>202|1|1913;204|4|1913</t>
   </si>
   <si>
     <t>兀那和尚，恁的了得，再战过！</t>
@@ -1153,7 +1153,7 @@
     <t>202|1</t>
   </si>
   <si>
-    <t>202|1|2942;205|4|2942</t>
+    <t>202|1|2049;205|4|2049</t>
   </si>
   <si>
     <t>前方便是大雄宝殿，须记得不要失了礼数。</t>
@@ -1165,7 +1165,7 @@
     <t>少林切磋24</t>
   </si>
   <si>
-    <t>204|2|3141;205|2|3141;206|1|3141</t>
+    <t>204|2|2196;205|2|2196;206|1|2196</t>
   </si>
   <si>
     <t>暮鼓擂响，少林晚课时分，好手都在前方。</t>
@@ -1177,7 +1177,7 @@
     <t>少林切磋25</t>
   </si>
   <si>
-    <t>204|2|3355;205|2|3355;206|1|3355</t>
+    <t>204|2|2353;205|2|2353;206|1|2353</t>
   </si>
   <si>
     <t>玄字高僧带着小辈翘楚，是一番好战。</t>
@@ -1189,7 +1189,7 @@
     <t>少林切磋26</t>
   </si>
   <si>
-    <t>204|2|3583;205|2|3583;206|1|3583</t>
+    <t>204|2|2522;205|2|2522;206|1|2522</t>
   </si>
   <si>
     <t>试探结束，怕是要现真招了，我们上。</t>
@@ -1201,7 +1201,7 @@
     <t>少林切磋27</t>
   </si>
   <si>
-    <t>206|5|3826</t>
+    <t>206|5|2702</t>
   </si>
   <si>
     <t>五位玄字僧尽皆下场，我派也不能示弱。</t>
@@ -1216,7 +1216,7 @@
     <t>xuankongfangzhang</t>
   </si>
   <si>
-    <t>201|1|4086;205|4|4086</t>
+    <t>201|1|2895;205|4|2895</t>
   </si>
   <si>
     <t>少林方丈内力浑厚如斯，居然能平地浮空？</t>
@@ -1231,7 +1231,7 @@
     <t>201|1</t>
   </si>
   <si>
-    <t>201|1|4365;206|4|4365</t>
+    <t>201|1|3103;206|4|3103</t>
   </si>
   <si>
     <t>方丈怕已经成了罗汉得了果位，竟如此了得。</t>
@@ -1249,7 +1249,7 @@
     <t>wudang1</t>
   </si>
   <si>
-    <t>304|2|2284;305|2|2284;306|1|2284</t>
+    <t>304|2|1444;305|2|1444;306|1|1444</t>
   </si>
   <si>
     <t>武当功夫自成一家，深不可测。</t>
@@ -1273,7 +1273,7 @@
     <t>wudang2</t>
   </si>
   <si>
-    <t>304|3|2518;305|2|2518</t>
+    <t>304|3|1575;305|2|1575</t>
   </si>
   <si>
     <t>北少林，南武当。今日一见名不虚传。</t>
@@ -1294,7 +1294,7 @@
     <t>wudang3</t>
   </si>
   <si>
-    <t>305|3|2776;306|2|2776</t>
+    <t>305|3|1719;306|2|1719</t>
   </si>
   <si>
     <t>纯阳无极功果然了得，小心为是。</t>
@@ -1315,7 +1315,7 @@
     <t>脏道人</t>
   </si>
   <si>
-    <t>304|3|3061;306|2|3061</t>
+    <t>304|3|1876;306|2|1876</t>
   </si>
   <si>
     <t>一众武当弟子盘坐于禅垫之上，像是在练功。</t>
@@ -1330,7 +1330,7 @@
     <t>一仙道长</t>
   </si>
   <si>
-    <t>305|3|3375;306|2|3375</t>
+    <t>305|3|2048;306|2|2048</t>
   </si>
   <si>
     <t>知己知彼，方能百战不殆。</t>
@@ -1345,7 +1345,7 @@
     <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
   </si>
   <si>
-    <t>305|3|3721;306|2|3721</t>
+    <t>305|3|2235;306|2|2235</t>
   </si>
   <si>
     <t>武当七侠石希灵，勇猛过人，剑法精妙。</t>
@@ -1360,7 +1360,7 @@
     <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
   </si>
   <si>
-    <t>304|4|4103;305|1|4103</t>
+    <t>304|4|2439;305|1|2439</t>
   </si>
   <si>
     <t>二十五个道士分成五组，莫非是大五行剑阵！</t>
@@ -1381,7 +1381,7 @@
     <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
   </si>
   <si>
-    <t>304|4|4524;306|1|4524</t>
+    <t>304|4|2662;306|1|2662</t>
   </si>
   <si>
     <t>敌方弟子来势汹汹，我们当沉着应对。</t>
@@ -1393,7 +1393,7 @@
     <t>武当切磋8</t>
   </si>
   <si>
-    <t>304|2|4988;305|2|4988;306|1|4988</t>
+    <t>304|2|2905;305|2|2905;306|1|2905</t>
   </si>
   <si>
     <t>长剑剑横扫而过。众人举剑抵挡。</t>
@@ -1405,7 +1405,7 @@
     <t>武当切磋9</t>
   </si>
   <si>
-    <t>304|4|5500;305|1|5500</t>
+    <t>304|4|3170;305|1|3170</t>
   </si>
   <si>
     <t>观其形，锁其力，唯心一势，则剑阵可破。</t>
@@ -1417,7 +1417,7 @@
     <t>武当切磋10</t>
   </si>
   <si>
-    <t>305|4|6064;306|1|6064</t>
+    <t>305|4|3460;306|1|3460</t>
   </si>
   <si>
     <t>武当弟子已是疲于招架，乘胜追击！</t>
@@ -1432,7 +1432,7 @@
     <t>305|4</t>
   </si>
   <si>
-    <t>304|4|6687;305|1|6687</t>
+    <t>304|4|3776;305|1|3776</t>
   </si>
   <si>
     <t>武当六侠郭希明，七侠中知识最为渊博的</t>
@@ -1444,7 +1444,7 @@
     <t>武当切磋12</t>
   </si>
   <si>
-    <t>304|4|7373;306|1|7373</t>
+    <t>304|4|4121;306|1|4121</t>
   </si>
   <si>
     <t>掬润弄明月，长啸倚青松。青松剑客来也。</t>
@@ -1456,7 +1456,7 @@
     <t>武当切磋13</t>
   </si>
   <si>
-    <t>304|2|8129;305|2|8129;306|1|8129</t>
+    <t>304|2|4497;305|2|4497;306|1|4497</t>
   </si>
   <si>
     <t>双方缠斗在一起，场面十分混乱。</t>
@@ -1468,7 +1468,7 @@
     <t>武当切磋14</t>
   </si>
   <si>
-    <t>304|3|8963;306|2|8963</t>
+    <t>304|3|4908;306|2|4908</t>
   </si>
   <si>
     <t>“要打便真打，老是拆拳化掌，算什么武林北斗？”</t>
@@ -1480,7 +1480,7 @@
     <t>武当切磋15</t>
   </si>
   <si>
-    <t>305|3|9883;306|2|9883</t>
+    <t>305|3|5357;306|2|5357</t>
   </si>
   <si>
     <t>嗤一声，竹林划出一道口子，一个黑影来到身前。</t>
@@ -1492,7 +1492,7 @@
     <t>武当切磋16</t>
   </si>
   <si>
-    <t>304|3|10896;305|2|10896</t>
+    <t>304|3|5846;305|2|5846</t>
   </si>
   <si>
     <t>武当山卧虎藏龙，还是不要乱说话的好…</t>
@@ -1504,7 +1504,7 @@
     <t>武当切磋17</t>
   </si>
   <si>
-    <t>304|3|12014;305|1|12014;306|1|12014</t>
+    <t>304|3|6380;305|1|6380;306|1|6380</t>
   </si>
   <si>
     <t>此人便是武当派卢五侠，为人豪爽，脾气暴躁。</t>
@@ -1516,7 +1516,7 @@
     <t>武当切磋18</t>
   </si>
   <si>
-    <t>304|2|13247;305|2|13247;306|1|13247</t>
+    <t>304|2|6963;305|2|6963;306|1|6963</t>
   </si>
   <si>
     <t>真武七截阵，一仙道人的得意功夫。</t>
@@ -1528,7 +1528,7 @@
     <t>武当切磋19</t>
   </si>
   <si>
-    <t>304|3|14606;305|2|14606</t>
+    <t>304|3|7599;305|2|7599</t>
   </si>
   <si>
     <t>武当弟子一改打法，剑剑往人死穴刺来。</t>
@@ -1540,7 +1540,7 @@
     <t>武当切磋20</t>
   </si>
   <si>
-    <t>304|3|16104;306|2|16104</t>
+    <t>304|3|8293;306|2|8293</t>
   </si>
   <si>
     <t>三人蹬地而起，使出一招仙人指路。</t>
@@ -1574,7 +1574,7 @@
     </r>
   </si>
   <si>
-    <t>305|3|17756;306|2|17756</t>
+    <t>305|3|9051;306|2|9051</t>
   </si>
   <si>
     <t>敌方弟子坚守不退，我们该如何是好？</t>
@@ -1586,7 +1586,7 @@
     <t>武当切磋22</t>
   </si>
   <si>
-    <t>304|2|19578;305|3|19578</t>
+    <t>304|2|9877;305|3|9877</t>
   </si>
   <si>
     <t>“哈哈，来见识见识武当的太极拳！”</t>
@@ -1598,7 +1598,7 @@
     <t>武当切磋23</t>
   </si>
   <si>
-    <t>304|2|21587;306|3|21587</t>
+    <t>304|2|10780;306|3|10780</t>
   </si>
   <si>
     <t>武当邵三侠，传闻是一仙道人的侄子。</t>
@@ -1632,7 +1632,7 @@
     </r>
   </si>
   <si>
-    <t>304|2|23801;305|2|23801;306|1|23801</t>
+    <t>304|2|11764;305|2|11764;306|1|11764</t>
   </si>
   <si>
     <t>一路坎坷，终于来到了玉虚宫前。</t>
@@ -1644,7 +1644,7 @@
     <t>武当切磋25</t>
   </si>
   <si>
-    <t>305|2|26243;306|3|26243</t>
+    <t>305|2|12839;306|3|12839</t>
   </si>
   <si>
     <t>冲出来一队道士，再次将弟子们围住。</t>
@@ -1659,7 +1659,7 @@
     <t>306|3</t>
   </si>
   <si>
-    <t>304|2|28935;305|3|28935</t>
+    <t>304|2|14012;305|3|14012</t>
   </si>
   <si>
     <t>Food|20;Exp_Role|2200;Exp_Kongfu|232</t>
@@ -1693,7 +1693,7 @@
     <t>yixian</t>
   </si>
   <si>
-    <t>303|1|31904;304|2|31904;305|2|31904</t>
+    <t>303|1|15292;304|2|15292;305|2|15292</t>
   </si>
   <si>
     <t>手持“仙人指路”幡，此人便是一仙道人。</t>
@@ -1711,7 +1711,7 @@
     <t>zangdaoren</t>
   </si>
   <si>
-    <t>302|1|35177;305|2|35177;306|2|35177</t>
+    <t>302|1|16688;305|2|16688;306|2|16688</t>
   </si>
   <si>
     <t>鸡腿配酒，莫非是隐退江湖的脏道人！</t>
@@ -1729,7 +1729,7 @@
     <t>zhangzhenren</t>
   </si>
   <si>
-    <t>301|1|38787;304|2|38787;306|2|38787</t>
+    <t>301|1|18213;304|2|18213;306|2|18213</t>
   </si>
   <si>
     <t>前面便是武当派开山始祖——张真人。</t>
@@ -1766,7 +1766,7 @@
     <t>emei</t>
   </si>
   <si>
-    <t>403|5|15686</t>
+    <t>403|5|8432</t>
   </si>
   <si>
     <t>“一树开五花，五花八叶扶”说的便是峨眉武功。</t>
@@ -1781,7 +1781,7 @@
     <t>403|5</t>
   </si>
   <si>
-    <t>403|5|17536</t>
+    <t>403|5|9386</t>
   </si>
   <si>
     <t>青莲女神剑不容小觑，严阵以待。</t>
@@ -1796,7 +1796,7 @@
     <t>绝绝师太</t>
   </si>
   <si>
-    <t>403|5|19604</t>
+    <t>403|5|10448</t>
   </si>
   <si>
     <t>缠斗之际，峨眉弟子使出一招清风袭月。</t>
@@ -1811,7 +1811,7 @@
     <t>独臂女冠</t>
   </si>
   <si>
-    <t>403|5|21917</t>
+    <t>403|5|11629</t>
   </si>
   <si>
     <t>敌方弟子风头正盛，我们当尽快找出破绽。</t>
@@ -1826,7 +1826,7 @@
     <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
   </si>
   <si>
-    <t>403|5|24502</t>
+    <t>403|5|12945</t>
   </si>
   <si>
     <t>五花观，听着想卖肉的，进去瞧瞧。</t>
@@ -1838,7 +1838,7 @@
     <t>峨眉切磋5</t>
   </si>
   <si>
-    <t>403|5|27392</t>
+    <t>403|5|14409</t>
   </si>
   <si>
     <t>峨嵋派下属八派，这便是僧门弟子清净。</t>
@@ -1850,7 +1850,7 @@
     <t>峨眉切磋6</t>
   </si>
   <si>
-    <t>403|5|30623</t>
+    <t>403|5|16038</t>
   </si>
   <si>
     <t>白蟒鞭灵动有力，跟五毒教的鞭法大不一样。</t>
@@ -1862,7 +1862,7 @@
     <t>峨眉切磋7</t>
   </si>
   <si>
-    <t>403|5|34235</t>
+    <t>403|5|17852</t>
   </si>
   <si>
     <t>Food|20;Exp_Role|2750;Exp_Kongfu|254</t>
@@ -1871,7 +1871,7 @@
     <t>峨眉切磋8</t>
   </si>
   <si>
-    <t>403|5|38273</t>
+    <t>403|5|19871</t>
   </si>
   <si>
     <t>峨眉剑法虚实结合，难以预料，当小心为是。</t>
@@ -1883,7 +1883,7 @@
     <t>峨眉切磋9</t>
   </si>
   <si>
-    <t>403|5|42788</t>
+    <t>403|5|22119</t>
   </si>
   <si>
     <t>峨眉弟子正在败退，赶紧追!</t>
@@ -1895,7 +1895,7 @@
     <t>峨眉切磋10</t>
   </si>
   <si>
-    <t>403|5|47835</t>
+    <t>403|5|24621</t>
   </si>
   <si>
     <t>不好，中埋伏了。</t>
@@ -1907,7 +1907,7 @@
     <t>峨眉切磋11</t>
   </si>
   <si>
-    <t>403|5|53477</t>
+    <t>403|5|27406</t>
   </si>
   <si>
     <t>会门弟子清迦，讲究观师默像，念咒语，颇为神秘</t>
@@ -1919,7 +1919,7 @@
     <t>峨眉切磋12</t>
   </si>
   <si>
-    <t>403|5|59785</t>
+    <t>403|5|30505</t>
   </si>
   <si>
     <t>双方弟子互不相让，场面一度十分混乱。</t>
@@ -1931,7 +1931,7 @@
     <t>峨眉切磋13</t>
   </si>
   <si>
-    <t>403|5|66837</t>
+    <t>403|5|33955</t>
   </si>
   <si>
     <t>弟子们打激战正酣，一度进入僵持状态。</t>
@@ -1943,7 +1943,7 @@
     <t>峨眉切磋14</t>
   </si>
   <si>
-    <t>403|5|74721</t>
+    <t>403|5|37796</t>
   </si>
   <si>
     <t>前方一阵骚乱，弟子们加快脚步，准备一探究竟。</t>
@@ -1955,7 +1955,7 @@
     <t>峨眉切磋15</t>
   </si>
   <si>
-    <t>403|5|83535</t>
+    <t>403|5|42071</t>
   </si>
   <si>
     <t>双方话不投机半句多，见面就出招厮打起来。</t>
@@ -1967,7 +1967,7 @@
     <t>峨眉切磋16</t>
   </si>
   <si>
-    <t>403|5|93388</t>
+    <t>403|5|46829</t>
   </si>
   <si>
     <t>树林中冲出一众尼姑，将弟子团团围住。</t>
@@ -1979,7 +1979,7 @@
     <t>峨眉切磋17</t>
   </si>
   <si>
-    <t>403|5|104404</t>
+    <t>403|5|52126</t>
   </si>
   <si>
     <t>化门弟子清照，使得三十六闭手甚是厉害</t>
@@ -1991,7 +1991,7 @@
     <t>峨眉切磋18</t>
   </si>
   <si>
-    <t>403|5|116719</t>
+    <t>403|5|58021</t>
   </si>
   <si>
     <t>“贼众休跑，伤我门人，叫你们有来无回！”</t>
@@ -2003,7 +2003,7 @@
     <t>峨眉切磋19</t>
   </si>
   <si>
-    <t>403|5|130487</t>
+    <t>403|5|64584</t>
   </si>
   <si>
     <t>“何人敢闯我峨眉净地,跪下！”</t>
@@ -2015,7 +2015,7 @@
     <t>峨眉切磋20</t>
   </si>
   <si>
-    <t>403|5|145878</t>
+    <t>403|5|71889</t>
   </si>
   <si>
     <t>峨眉弟子败下阵来，追！</t>
@@ -2027,7 +2027,7 @@
     <t>峨眉切磋21</t>
   </si>
   <si>
-    <t>403|5|163085</t>
+    <t>403|5|80020</t>
   </si>
   <si>
     <t>不妙！又被包围了，揍她丫的。</t>
@@ -2039,7 +2039,7 @@
     <t>峨眉切磋22</t>
   </si>
   <si>
-    <t>403|5|182322</t>
+    <t>403|5|89070</t>
   </si>
   <si>
     <t>“好一招大雁啼沙，看我的无影脚！”</t>
@@ -2051,7 +2051,7 @@
     <t>峨眉切磋23</t>
   </si>
   <si>
-    <t>403|5|203828</t>
+    <t>403|5|99144</t>
   </si>
   <si>
     <t>此人岳门弟子清虚，一看就是身子虚。</t>
@@ -2063,7 +2063,7 @@
     <t>峨眉切磋24</t>
   </si>
   <si>
-    <t>403|5|227870</t>
+    <t>403|5|110358</t>
   </si>
   <si>
     <t>听得嗖得一声，一道白光闪过，好强的剑气！</t>
@@ -2075,7 +2075,7 @@
     <t>峨眉切磋25</t>
   </si>
   <si>
-    <t>403|5|254748</t>
+    <t>403|5|122840</t>
   </si>
   <si>
     <t>突见人影一闪，几人前后合围，挡住了去路。</t>
@@ -2087,7 +2087,7 @@
     <t>峨眉切磋26</t>
   </si>
   <si>
-    <t>403|5|284797</t>
+    <t>403|5|136734</t>
   </si>
   <si>
     <t>敌方弟子卷土重来，继续揍他们！</t>
@@ -2099,7 +2099,7 @@
     <t>峨眉切磋27</t>
   </si>
   <si>
-    <t>403|5|318390</t>
+    <t>403|5|152199</t>
   </si>
   <si>
     <t>峨眉弟子已是疲于招架，乘胜追击！</t>
@@ -2114,7 +2114,7 @@
     <t>dubi</t>
   </si>
   <si>
-    <t>402|1|355946;403|4|355946</t>
+    <t>402|1|169413;403|4|169413</t>
   </si>
   <si>
     <t>冲虚观，进去瞧瞧。</t>
@@ -2135,7 +2135,7 @@
     <t>shitai</t>
   </si>
   <si>
-    <t>401|1|397928;403|4|397928</t>
+    <t>401|1|188574;403|4|188574</t>
   </si>
   <si>
     <t>前面就是峨眉掌门绝绝师太，去会会她。</t>
@@ -2153,7 +2153,7 @@
     <t>huashan1</t>
   </si>
   <si>
-    <t>503|2|116414;504|2|116414;505|1|116414</t>
+    <t>503|2|62607;504|2|62607;505|1|62607</t>
   </si>
   <si>
     <t>华山奇拔峻秀，真乃人间仙境。</t>
@@ -2177,7 +2177,7 @@
     <t>huashan3</t>
   </si>
   <si>
-    <t>503|3|132037;505|2|132037</t>
+    <t>503|3|69698;505|2|69698</t>
   </si>
   <si>
     <t>华山剑术精妙绝伦，弟子们切莫大意轻敌。</t>
@@ -2195,7 +2195,7 @@
     <t>505|2</t>
   </si>
   <si>
-    <t>503|2|149757;505|3|149757</t>
+    <t>503|2|77591;505|3|77591</t>
   </si>
   <si>
     <t>Coin|250;Exp_Role|4000;Exp_Kongfu|304</t>
@@ -2207,7 +2207,7 @@
     <t>505|3</t>
   </si>
   <si>
-    <t>503|4|169856;505|1|169856</t>
+    <t>503|4|86379;505|1|86379</t>
   </si>
   <si>
     <t>功夫不赖，是花拳绣腿还是徒有虚名呀？</t>
@@ -2225,7 +2225,7 @@
     <t>丘不君</t>
   </si>
   <si>
-    <t>503|1|192651;505|4|192651</t>
+    <t>503|1|96162;505|4|96162</t>
   </si>
   <si>
     <t>华山弟子气急，一招白虹贯日，朝人脸上劈来。</t>
@@ -2246,7 +2246,7 @@
     <t>山不羊</t>
   </si>
   <si>
-    <t>503|2|218506;505|4|218506</t>
+    <t>503|2|107053;505|4|107053</t>
   </si>
   <si>
     <t>前面就是乔光升，是山不羊的关门弟子。</t>
@@ -2261,7 +2261,7 @@
     <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
   </si>
   <si>
-    <t>503|3|247831;505|2|247831</t>
+    <t>503|3|119178;505|2|119178</t>
   </si>
   <si>
     <t>“贼众休跑，休要伤我师弟！”</t>
@@ -2276,7 +2276,7 @@
     <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
   </si>
   <si>
-    <t>503|1|281091;505|4|281091</t>
+    <t>503|1|132675;505|4|132675</t>
   </si>
   <si>
     <t>华山剑法干净利落招招制敌，。</t>
@@ -2291,7 +2291,7 @@
     <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
   </si>
   <si>
-    <t>503|2|318816;505|3|318816</t>
+    <t>503|2|147702;505|3|147702</t>
   </si>
   <si>
     <t>明月松间照，清泉石上流，华山六弟子来也！</t>
@@ -2303,7 +2303,7 @@
     <t>华山切磋9</t>
   </si>
   <si>
-    <t>503|4|361603;505|1|361603</t>
+    <t>503|4|164430;505|1|164430</t>
   </si>
   <si>
     <t>弟子们急忙赶路，一众华山弟子挡住了去路。</t>
@@ -2315,7 +2315,7 @@
     <t>华山切磋10</t>
   </si>
   <si>
-    <t>503|3|410132;505|2|410132</t>
+    <t>503|3|183053;505|2|183053</t>
   </si>
   <si>
     <t>听说你们有一招无边落木，耍出来给爷瞧瞧。</t>
@@ -2327,7 +2327,7 @@
     <t>华山切磋11</t>
   </si>
   <si>
-    <t>503|4|465174;505|1|465174</t>
+    <t>503|4|203785;505|1|203785</t>
   </si>
   <si>
     <t>此人就是华山五弟子陈大冲，脾气冲。</t>
@@ -2361,7 +2361,7 @@
     </r>
   </si>
   <si>
-    <t>503|2|527603;505|3|527603</t>
+    <t>503|2|226865;505|3|226865</t>
   </si>
   <si>
     <t>Coin|250;Exp_Role|4500;Exp_Kongfu|324</t>
@@ -2373,7 +2373,7 @@
     <t>huashan2</t>
   </si>
   <si>
-    <t>504|3|598411;505|2|598411</t>
+    <t>504|3|252559;505|2|252559</t>
   </si>
   <si>
     <t>又是你们，怕是上次被揍的不够狠吧</t>
@@ -2388,7 +2388,7 @@
     <t>504|3</t>
   </si>
   <si>
-    <t>504|1|678721;505|4|678721</t>
+    <t>504|1|281163;505|4|281163</t>
   </si>
   <si>
     <t>强敌来犯，众弟子小心！</t>
@@ -2403,7 +2403,7 @@
     <t>504|1</t>
   </si>
   <si>
-    <t>504|2|769810;505|3|769810</t>
+    <t>504|2|313006;505|3|313006</t>
   </si>
   <si>
     <t>既然这帮人不留情面，我们也不必客气了。</t>
@@ -2415,7 +2415,7 @@
     <t>华山切磋16</t>
   </si>
   <si>
-    <t>504|4|873123;505|1|873123</t>
+    <t>504|4|348456;505|1|348456</t>
   </si>
   <si>
     <t>似有似无，似实似虚，华山剑法名不虚传。</t>
@@ -2430,7 +2430,7 @@
     <t>504|4</t>
   </si>
   <si>
-    <t>504|3|990302;505|2|990302</t>
+    <t>504|3|387921;505|2|387921</t>
   </si>
   <si>
     <t>“华山三弟子应光和，前来比武。”</t>
@@ -2442,7 +2442,7 @@
     <t>华山切磋18</t>
   </si>
   <si>
-    <t>504|4|1123206;505|1|1123206</t>
+    <t>504|4|431856;505|1|431856</t>
   </si>
   <si>
     <t>时值正午，熟睡的弟子们被嘈杂的叫嚷声吵醒。</t>
@@ -2454,7 +2454,7 @@
     <t>华山切磋19</t>
   </si>
   <si>
-    <t>504|2|1273948;505|3|1273948</t>
+    <t>504|2|480766;505|3|480766</t>
   </si>
   <si>
     <t>剑宗气宗合起来对付我们？一起收拾！</t>
@@ -2466,7 +2466,7 @@
     <t>华山切磋20</t>
   </si>
   <si>
-    <t>503|3|1444919;504|2|1444919</t>
+    <t>503|3|535216;504|2|535216</t>
   </si>
   <si>
     <t>竹林内瑟瑟作响，像是有人在此设伏。</t>
@@ -2478,7 +2478,7 @@
     <t>华山切磋21</t>
   </si>
   <si>
-    <t>503|2|1638836;504|1|1638836;505|1|1638836</t>
+    <t>503|2|595833;504|1|595833;505|1|595833</t>
   </si>
   <si>
     <t>“小贼留步！”突见人影一闪，几人前后合围。</t>
@@ -2490,7 +2490,7 @@
     <t>华山切磋22</t>
   </si>
   <si>
-    <t>503|3|1858778;504|1|1858778;505|1|1858778</t>
+    <t>503|3|663315;504|1|663315;505|1|663315</t>
   </si>
   <si>
     <t>Coin|250;Exp_Role|5500;Exp_Kongfu|344</t>
@@ -2499,7 +2499,7 @@
     <t>华山切磋23</t>
   </si>
   <si>
-    <t>503|1|2108238;504|1|2108238;505|3|2108238</t>
+    <t>503|1|738440;504|1|738440;505|3|738440</t>
   </si>
   <si>
     <t>一群落单的，还等什么？往死里打！</t>
@@ -2511,7 +2511,7 @@
     <t>华山切磋24</t>
   </si>
   <si>
-    <t>503|1|2391177;504|2|2391177;505|2|2391177</t>
+    <t>503|1|822074;504|2|822074;505|2|822074</t>
   </si>
   <si>
     <t>前面就是华山二弟子，此人心狠手辣，注意防范。</t>
@@ -2523,7 +2523,7 @@
     <t>华山切磋25</t>
   </si>
   <si>
-    <t>503|1|2712087;504|3|2712087;505|1|2712087</t>
+    <t>503|1|915179;504|3|915179;505|1|915179</t>
   </si>
   <si>
     <t>我乃华山大弟子于大通，伤我师弟，找打！</t>
@@ -2535,7 +2535,7 @@
     <t>华山切磋26</t>
   </si>
   <si>
-    <t>503|2|3076066;504|2|3076066;505|1|3076066</t>
+    <t>503|2|1018829;504|2|1018829;505|1|1018829</t>
   </si>
   <si>
     <t>紫云洞：师祖清修，弟子不得入内</t>
@@ -2547,7 +2547,7 @@
     <t>华山切磋27</t>
   </si>
   <si>
-    <t>503|1|3488894;504|1|3488894;505|3|3488894</t>
+    <t>503|1|1134219;504|1|1134219;505|3|1134219</t>
   </si>
   <si>
     <t>“弟子不得入内”这就进去看看。</t>
@@ -2559,7 +2559,7 @@
     <t>华山切磋28</t>
   </si>
   <si>
-    <t>503|1|3957125;504|2|3957125;505|2|3957125</t>
+    <t>503|1|1262677;504|2|1262677;505|2|1262677</t>
   </si>
   <si>
     <t>“何人敢闯我紫云洞”这一声雄浑有力。</t>
@@ -2593,7 +2593,7 @@
     </r>
   </si>
   <si>
-    <t>501|1|4488201;504|2|4488201;505|2|4488201</t>
+    <t>501|1|1405684;504|2|1405684;505|2|1405684</t>
   </si>
   <si>
     <t>见华山掌门丘不君盘坐一青莲之上。</t>
@@ -2611,7 +2611,7 @@
     <t>wudu1</t>
   </si>
   <si>
-    <t>603|2|1134978;604|2|1134978;605|1|1134978</t>
+    <t>603|2|427851;604|2|427851;605|1|427851</t>
   </si>
   <si>
     <t>石峰矗立，烟云缭绕，五毒岭到了。</t>
@@ -2632,7 +2632,7 @@
     <t>605|1</t>
   </si>
   <si>
-    <t>603|2|1322099;604|3|1322099</t>
+    <t>603|2|501185;604|3|501185</t>
   </si>
   <si>
     <t>五仙教是使毒的行家，切莫大意。</t>
@@ -2653,7 +2653,7 @@
     <t>wudu3</t>
   </si>
   <si>
-    <t>604|2|1540070;605|3|1540070</t>
+    <t>604|2|587089;605|3|587089</t>
   </si>
   <si>
     <t>好一招千蛛万毒手，得尽快想出破解之法。</t>
@@ -2671,7 +2671,7 @@
     <t>红药</t>
   </si>
   <si>
-    <t>603|3|1793978;605|2|1793978</t>
+    <t>603|3|687717;605|2|687717</t>
   </si>
   <si>
     <t>五毒教所制毒药可使人当场毙命，小心为是。</t>
@@ -2692,7 +2692,7 @@
     <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
   </si>
   <si>
-    <t>604|3|2089747;605|2|2089747</t>
+    <t>604|3|805592;605|2|805592</t>
   </si>
   <si>
     <t>大门四开，怕不是有埋伏吧。</t>
@@ -2707,7 +2707,7 @@
     <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
   </si>
   <si>
-    <t>604|4|2434279;605|1|2434279</t>
+    <t>604|4|943672;605|1|943672</t>
   </si>
   <si>
     <t>这山都光秃秃的，可没少被祸害。</t>
@@ -2725,7 +2725,7 @@
     <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
   </si>
   <si>
-    <t>603|4|2835613;604|1|2835613</t>
+    <t>603|4|1105419;604|1|1105419</t>
   </si>
   <si>
     <t>“谁得罪了五毒教，我定让他死无全尸。”</t>
@@ -2762,7 +2762,7 @@
     </r>
   </si>
   <si>
-    <t>604|3|3303114;605|2|3303114</t>
+    <t>604|3|1294889;605|2|1294889</t>
   </si>
   <si>
     <t>只听得咻的一声，一条软鞭打弟子们头顶上穿过。</t>
@@ -2774,7 +2774,7 @@
     <t>五毒教切磋8</t>
   </si>
   <si>
-    <t>603|2|3847691;604|2|3847691;605|1|3847691</t>
+    <t>603|2|1516835;604|2|1516835;605|1|1516835</t>
   </si>
   <si>
     <t>众人怒气冲天，一场恶斗在所难免。</t>
@@ -2786,7 +2786,7 @@
     <t>五毒教切磋9</t>
   </si>
   <si>
-    <t>603|2|4482051;604|3|4482051</t>
+    <t>603|2|1776822;604|3|1776822</t>
   </si>
   <si>
     <t>五毒教众人被我方弟子吓破了胆，乘胜追击！</t>
@@ -2798,7 +2798,7 @@
     <t>五毒教切磋10</t>
   </si>
   <si>
-    <t>604|3|5220996;605|2|5220996</t>
+    <t>604|3|2081372;605|2|2081372</t>
   </si>
   <si>
     <t>弟子们加快脚步，却被一群五毒弟子拦住去路</t>
@@ -2810,7 +2810,7 @@
     <t>五毒教切磋11</t>
   </si>
   <si>
-    <t>603|3|6081770;604|2|6081770</t>
+    <t>603|3|2438122;604|2|2438122</t>
   </si>
   <si>
     <t>弟子们避雨之际，看到前面有一五毒教头目。</t>
@@ -2822,7 +2822,7 @@
     <t>五毒教切磋12</t>
   </si>
   <si>
-    <t>603|3|7084458;605|2|7084458</t>
+    <t>603|3|2856019;605|2|2856019</t>
   </si>
   <si>
     <t>五毒教下属分支组织松散，还得逐个击破。</t>
@@ -2834,7 +2834,7 @@
     <t>五毒教切磋13</t>
   </si>
   <si>
-    <t>603|2|8252456;604|2|8252456;605|1|8252456</t>
+    <t>603|2|3345545;604|2|3345545;605|1|3345545</t>
   </si>
   <si>
     <t>看来这帮人绝非等闲之辈，严阵以待。</t>
@@ -2846,7 +2846,7 @@
     <t>五毒教切磋14</t>
   </si>
   <si>
-    <t>603|2|9613020;605|3|9613020</t>
+    <t>603|2|3918976;605|3|3918976</t>
   </si>
   <si>
     <t>Kongfu|3005|1;Exp_Role|15000;Exp_Kongfu|640</t>
@@ -2858,7 +2858,7 @@
     <t>wudu2</t>
   </si>
   <si>
-    <t>604|2|11197896;605|3|11197896</t>
+    <t>604|2|4590694;605|3|4590694</t>
   </si>
   <si>
     <t>“赶紧把五仙大补药酒拿出来给爷爷们尝尝。”</t>
@@ -2870,7 +2870,7 @@
     <t>五毒教切磋16</t>
   </si>
   <si>
-    <t>603|2|13044068;604|3|13044068</t>
+    <t>603|2|5377545;604|3|5377545</t>
   </si>
   <si>
     <t>抓获的俘虏交代青蛇堂离这里不远了。</t>
@@ -2882,7 +2882,7 @@
     <t>五毒教切磋17</t>
   </si>
   <si>
-    <t>603|1|15194614;604|3|15194614;605|1|15194614</t>
+    <t>603|1|6299264;604|3|6299264;605|1|6299264</t>
   </si>
   <si>
     <t>见一人盘坐青莲之上，想必此人就是堂主。</t>
@@ -2897,7 +2897,7 @@
     <t>603|1</t>
   </si>
   <si>
-    <t>603|2|17699715;604|1|17699715;605|2|17699715</t>
+    <t>603|2|7378967;604|1|7378967;605|2|7378967</t>
   </si>
   <si>
     <t>一阵阴风刮过，又是五毒教的人搞的鬼。</t>
@@ -2912,7 +2912,7 @@
     <t>604|1</t>
   </si>
   <si>
-    <t>603|1|20617826;604|4|20617826</t>
+    <t>603|1|8643732;604|4|8643732</t>
   </si>
   <si>
     <t>敌人落荒而逃，到底是无胆鼠辈。</t>
@@ -2968,7 +2968,7 @@
     </r>
   </si>
   <si>
-    <t>603|1|24017040;605|4|24017040</t>
+    <t>603|1|10125280;605|4|10125280</t>
   </si>
   <si>
     <t>“快看!丐帮的密信被卷走了，追！”</t>
@@ -3002,7 +3002,7 @@
     </r>
   </si>
   <si>
-    <t>604|1|27976675;605|4|27976675</t>
+    <t>604|1|11860767;605|4|11860767</t>
   </si>
   <si>
     <t>“老实交代情况，不然揍得你妈都认不出来。”</t>
@@ -3014,7 +3014,7 @@
     <t>五毒教切磋22</t>
   </si>
   <si>
-    <t>603|1|32589126;604|4|32589126</t>
+    <t>603|1|13893718;604|4|13893718</t>
   </si>
   <si>
     <t>教主下令取走了密信？此事必有蹊跷。</t>
@@ -3026,7 +3026,7 @@
     <t>五毒教切磋23</t>
   </si>
   <si>
-    <t>603|1|37962020;605|4|37962020</t>
+    <t>603|1|16275121;605|4|16275121</t>
   </si>
   <si>
     <t>弟子们赶奔五毒山顶，更狠毒的地敌人在等着他们。</t>
@@ -3038,7 +3038,7 @@
     <t>五毒教切磋24</t>
   </si>
   <si>
-    <t>603|1|44220732;604|1|44220732;605|3|44220732</t>
+    <t>603|1|19064699;604|1|19064699;605|3|19064699</t>
   </si>
   <si>
     <t>一发飞镖扎在树上，字条上写着“我们有毒”。</t>
@@ -3050,7 +3050,7 @@
     <t>五毒教切磋25</t>
   </si>
   <si>
-    <t>604|1|51511303;605|4|51511303</t>
+    <t>604|1|22332415;605|4|22332415</t>
   </si>
   <si>
     <t>敌方弟子来势汹汹，我们当冷静应对。</t>
@@ -3062,7 +3062,7 @@
     <t>五毒教切磋26</t>
   </si>
   <si>
-    <t>603|1|60003854;605|4|60003854</t>
+    <t>603|1|26160222;605|4|26160222</t>
   </si>
   <si>
     <t>又是一发暗器，真是阴险。</t>
@@ -3074,7 +3074,7 @@
     <t>五毒教切磋27</t>
   </si>
   <si>
-    <t>603|1|69896553;604|1|69896553;605|3|69896553</t>
+    <t>603|1|30644120;604|1|30644120;605|3|30644120</t>
   </si>
   <si>
     <t>五毒弟子卷土重来，准备战斗!</t>
@@ -3108,7 +3108,7 @@
     </r>
   </si>
   <si>
-    <t>602|1|81420238;603|2|81420238;604|2|81420238</t>
+    <t>602|1|35896565;603|2|35896565;604|2|35896565</t>
   </si>
   <si>
     <t>此人就是左护法，诡秘奇特，极难对付。</t>
@@ -3164,7 +3164,7 @@
     </r>
   </si>
   <si>
-    <t>601|1|94843826;604|2|94843826;605|2|94843826</t>
+    <t>601|1|42049302;604|2|42049302;605|2|42049302</t>
   </si>
   <si>
     <t>教主就在殿内，冲进去干他！</t>
@@ -3220,7 +3220,7 @@
     </r>
   </si>
   <si>
-    <t>705|5|23331896</t>
+    <t>705|5|9722056</t>
   </si>
   <si>
     <t>黄沙漫漫，千万小心，恐四处皆敌。</t>
@@ -3238,7 +3238,7 @@
     <t>mojiao2</t>
   </si>
   <si>
-    <t>705|5|27215315</t>
+    <t>705|5|11433230</t>
   </si>
   <si>
     <t>小心第二次袭击，刚刚只是试探。</t>
@@ -3256,7 +3256,7 @@
     <t>mojiao3</t>
   </si>
   <si>
-    <t>706|5|31745101</t>
+    <t>706|5|13445587</t>
   </si>
   <si>
     <t>无耻小贼，居然偷袭，我派可也不是吃素的。</t>
@@ -3296,7 +3296,7 @@
     </r>
   </si>
   <si>
-    <t>706|5|37028835</t>
+    <t>706|5|15812139</t>
   </si>
   <si>
     <t>前方敌人越来越多，我们离目标很近了。</t>
@@ -3314,7 +3314,7 @@
     <t>xiaoyao1</t>
   </si>
   <si>
-    <t>705|3|43192008;706|1|43192008;704|1|43192008</t>
+    <t>705|3|18595225;706|1|18595225;704|1|18595225</t>
   </si>
   <si>
     <t>魔教众以西域人为主，乍一看都是帅哥美女。</t>
@@ -3379,7 +3379,7 @@
     <t>xiaoyao2</t>
   </si>
   <si>
-    <t>705|2|50380995;706|2|50380995;704|1|50380995</t>
+    <t>705|2|21868162;706|2|21868162;704|1|21868162</t>
   </si>
   <si>
     <t>魔教人人舞一轮弯刀，刀法奇诡，甚是古怪。</t>
@@ -3403,7 +3403,7 @@
     <t>xiaoyao3</t>
   </si>
   <si>
-    <t>705|3|58766534;706|1|58766534;704|1|58766534</t>
+    <t>705|3|25717166;706|1|25717166;704|1|25717166</t>
   </si>
   <si>
     <t>魔教中人竟练出阴阳互济的刀阵，不可小觑。</t>
@@ -3418,7 +3418,7 @@
     <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
   </si>
   <si>
-    <t>705|2|68547784;706|2|68547784;704|1|68547784</t>
+    <t>705|2|30243631;706|2|30243631;704|1|30243631</t>
   </si>
   <si>
     <t>魔教在身法中混入胡旋舞的脚步，煞是好看。</t>
@@ -3452,7 +3452,7 @@
     </r>
   </si>
   <si>
-    <t>705|1|79957050;706|3|79957050;704|1|79957050</t>
+    <t>705|1|35566798;706|3|35566798;704|1|35566798</t>
   </si>
   <si>
     <t>魔教众不使汉话，莫下重手，说不定在求饶。</t>
@@ -3508,7 +3508,7 @@
     </r>
   </si>
   <si>
-    <t>705|1|93265302;706|2|93265302;704|2|93265302</t>
+    <t>705|1|41826892;706|2|41826892;704|2|41826892</t>
   </si>
   <si>
     <t>征伐魔教路途太远，干粮不够，夺些酒食先。</t>
@@ -3545,7 +3545,7 @@
     </r>
   </si>
   <si>
-    <t>705|1|108788614;706|1|108788614;704|3|108788614</t>
+    <t>705|1|49188823;706|1|49188823;704|3|49188823</t>
   </si>
   <si>
     <t>魔教众分日月星三部，有三大法王统领。</t>
@@ -3563,7 +3563,7 @@
     <t>704|3</t>
   </si>
   <si>
-    <t>705|5|126895664</t>
+    <t>705|5|57846523</t>
   </si>
   <si>
     <t>来人手腕均有六芒星纹饰，想来是星部众。</t>
@@ -3578,7 +3578,7 @@
     <t>mojiao1</t>
   </si>
   <si>
-    <t>704|5|148016498</t>
+    <t>704|5|68028061</t>
   </si>
   <si>
     <t>听说月部众只收美女，师兄弟能一饱眼福了。</t>
@@ -3593,7 +3593,7 @@
     <t>704|5</t>
   </si>
   <si>
-    <t>706|5|172652737</t>
+    <t>706|5|80001646</t>
   </si>
   <si>
     <t>日部众体格壮硕，却不是好惹的。</t>
@@ -3605,7 +3605,7 @@
     <t>明教切磋14</t>
   </si>
   <si>
-    <t>705|2|201389493;706|1|201389493;704|1|201389493</t>
+    <t>705|2|94082696;706|1|94082696;704|1|94082696</t>
   </si>
   <si>
     <t>魔教关押了许多武林正派，尽力将他们救出。</t>
@@ -3617,7 +3617,7 @@
     <t>明教切磋15</t>
   </si>
   <si>
-    <t>705|3|234909267;706|1|234909267;704|1|234909267</t>
+    <t>705|3|110642145;706|1|110642145;704|1|110642145</t>
   </si>
   <si>
     <t>武林同道竟然功力全失，快去一探究竟。</t>
@@ -3629,7 +3629,7 @@
     <t>明教切磋16</t>
   </si>
   <si>
-    <t>705|1|274008156;706|2|274008156;704|1|274008156</t>
+    <t>705|1|130116214;706|2|130116214;704|1|130116214</t>
   </si>
   <si>
     <t>魔教吸人功力，有违天理，将他们尽皆除去。</t>
@@ -3641,7 +3641,7 @@
     <t>明教切磋17</t>
   </si>
   <si>
-    <t>705|1|319614763;706|3|319614763;704|1|319614763</t>
+    <t>705|1|153017904;706|3|153017904;704|1|153017904</t>
   </si>
   <si>
     <t>前方便是魔教山门所在，警惕妖人邪法。</t>
@@ -3656,7 +3656,7 @@
     <t>rilunfawang</t>
   </si>
   <si>
-    <t>702|1|372812248;706|2|372812248;704|2|372812248</t>
+    <t>702|1|179950510;706|2|179950510;704|2|179950510</t>
   </si>
   <si>
     <t>黑发虬髯，铁腕金刀，背悬红日，日轮昭昭！</t>
@@ -3671,7 +3671,7 @@
     <t>702|1</t>
   </si>
   <si>
-    <t>702|1|434864057;705|2|434864057;706|2|434864057</t>
+    <t>702|1|211623509;705|2|211623509;706|2|211623509</t>
   </si>
   <si>
     <t>日轮法王指挥星部众来此，击败他们！</t>
@@ -3705,7 +3705,7 @@
     </r>
   </si>
   <si>
-    <t>702|1|507243925;706|2|507243925;704|2|507243925</t>
+    <t>702|1|248871258;706|2|248871258;704|2|248871258</t>
   </si>
   <si>
     <t>日部众加入战阵，气势暴涨，尽力抵挡。</t>
@@ -3717,7 +3717,7 @@
     <t>明教切磋21</t>
   </si>
   <si>
-    <t>704|5|591670881</t>
+    <t>704|5|292674965</t>
   </si>
   <si>
     <t>前方寒气蠢蠢，月华清冷，月部众就在前方。</t>
@@ -3729,7 +3729,7 @@
     <t>明教切磋22</t>
   </si>
   <si>
-    <t>704|5|690150071</t>
+    <t>704|5|344188540</t>
   </si>
   <si>
     <t>月部众彻底摆开阵势，清影横浮，不可冒进。</t>
@@ -3741,7 +3741,7 @@
     <t>明教切磋23</t>
   </si>
   <si>
-    <t>704|2|805020385;705|3|805020385</t>
+    <t>704|2|404768994;705|3|404768994</t>
   </si>
   <si>
     <t>星月相环，江河辉映。</t>
@@ -3753,7 +3753,7 @@
     <t>明教切磋24</t>
   </si>
   <si>
-    <t>704|3|939010004;706|2|939010004</t>
+    <t>704|3|476012184;706|2|476012184</t>
   </si>
   <si>
     <t>日月轮转，生生不息。</t>
@@ -3765,7 +3765,7 @@
     <t>明教切磋25</t>
   </si>
   <si>
-    <t>705|2|1095301192;706|2|1095301192;704|1|1095301192</t>
+    <t>705|2|559794852;706|2|559794852;704|1|559794852</t>
   </si>
   <si>
     <t>日月星，法三光；天地人，合三才。</t>
@@ -3799,7 +3799,7 @@
     </r>
   </si>
   <si>
-    <t>703|1|1277605879;704|4|1277605879</t>
+    <t>703|1|658324065;704|4|658324065</t>
   </si>
   <si>
     <t>红衣曼舞，青纱摇摇，寒影飘碎，月轮皎皎。</t>
@@ -3817,7 +3817,7 @@
     <t>704|4</t>
   </si>
   <si>
-    <t>702|1|1490253817;703|1|1490253817;704|1|1490253817;705|1|1490253817;706|1|1490253817</t>
+    <t>702|1|774195357;703|1|774195357;704|1|774195357;705|1|774195357;706|1|774195357</t>
   </si>
   <si>
     <t>凌空日月，日月法王要同时出手了！</t>
@@ -3857,7 +3857,7 @@
     </r>
   </si>
   <si>
-    <t>701|1|1738295412;704|2|1738295412;705|1|1738295412;706|1|1738295412</t>
+    <t>701|1|910461098;704|2|910461098;705|1|910461098;706|1|910461098</t>
   </si>
   <si>
     <t>长生天泣，日月无光。</t>
@@ -3875,7 +3875,7 @@
     <t>jiaozhu</t>
   </si>
   <si>
-    <t>701|1|2027621678;702|1|2027621678;703|1|2027621678;704|1|2027621678;705|1|2027621678</t>
+    <t>701|1|1070710906;702|1|1070710906;703|1|1070710906;704|1|1070710906;705|1|1070710906</t>
   </si>
   <si>
     <t>魔教教主霹雳手段，此战我派必能扬名天下！</t>
@@ -3909,7 +3909,7 @@
     </r>
   </si>
   <si>
-    <t>9702|5|407817084</t>
+    <t>9702|5|216574178</t>
   </si>
   <si>
     <t>逍遥派地处绝壁，不知方法难以到达。</t>
@@ -3956,7 +3956,7 @@
     <t>shanzei2</t>
   </si>
   <si>
-    <t>9703|5|455542632</t>
+    <t>9703|5|244891809</t>
   </si>
   <si>
     <t>前方山下竟有山贼作恶，路见不平拔刀相助！</t>
@@ -4003,7 +4003,7 @@
     <t>逍遥子</t>
   </si>
   <si>
-    <t>9702|2|508853351;9703|3|508853351</t>
+    <t>9702|2|276912042;9703|3|276912042</t>
   </si>
   <si>
     <t>好山贼，居然见势不妙逃了，快追！</t>
@@ -4104,7 +4104,7 @@
     </r>
   </si>
   <si>
-    <t>9701|1|568402856;9702|2|568402856;9703|2|568402856</t>
+    <t>9701|1|313119004;9702|2|313119004;9703|2|313119004</t>
   </si>
   <si>
     <t>山贼喽喽请来了山贼头领，一网打尽。</t>
@@ -4183,7 +4183,7 @@
     <t>玄女</t>
   </si>
   <si>
-    <t>9701|1|634921251;9702|1|634921251;9703|2|634921251;804|1|634921251</t>
+    <t>9701|1|354060118;9702|1|354060118;9703|2|354060118;804|1|354060118</t>
   </si>
   <si>
     <t>山贼之中竟有一名白衣人，多加小心！</t>
@@ -4255,7 +4255,7 @@
     </r>
   </si>
   <si>
-    <t>804|1|709224085;9702|2|709224085;9703|2|709224085</t>
+    <t>804|1|400354389;9702|2|400354389;9703|2|400354389</t>
   </si>
   <si>
     <t>白衣人是逍遥派的弃徒，抓住问出逍遥所在。</t>
@@ -4270,7 +4270,7 @@
     <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
   </si>
   <si>
-    <t>804|1|792222345;9701|1|792222345;9702|1|792222345;9703|2|792222345</t>
+    <t>804|1|452701755;9701|1|452701755;9702|1|452701755;9703|2|452701755</t>
   </si>
   <si>
     <t>逍遥派门下出手不像武功，倒像道法了。</t>
@@ -4285,7 +4285,7 @@
     <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
   </si>
   <si>
-    <t>804|5|884933630</t>
+    <t>804|5|511893673</t>
   </si>
   <si>
     <t>逍遥派竟是依靠悬索上下山，向那小山先去。</t>
@@ -4325,7 +4325,7 @@
     </r>
   </si>
   <si>
-    <t>805|5|988494624</t>
+    <t>805|5|578825087</t>
   </si>
   <si>
     <t>找对地方了，这里果然有逍遥弟子在守卫。</t>
@@ -4343,7 +4343,7 @@
     <t>山贼喽啰</t>
   </si>
   <si>
-    <t>804|3|1104175036;805|2|1104175036</t>
+    <t>804|3|654507956;805|2|654507956</t>
   </si>
   <si>
     <t>逍遥派掌握了合击之术，聚多人功力御敌。</t>
@@ -4361,7 +4361,7 @@
     <t>805|2</t>
   </si>
   <si>
-    <t>804|4|1233393161;805|1|1233393161</t>
+    <t>804|4|740086554;805|1|740086554</t>
   </si>
   <si>
     <t>逍遥派功法奇特，真气外放，三丈外御敌。</t>
@@ -4379,7 +4379,7 @@
     <t>805|1</t>
   </si>
   <si>
-    <t>804|2|1377733277;805|3|1377733277</t>
+    <t>804|2|836854774;805|3|836854774</t>
   </si>
   <si>
     <t>他们一拥而上，看来是乱了阵脚，乘胜追击。</t>
@@ -4397,7 +4397,7 @@
     <t>805|3</t>
   </si>
   <si>
-    <t>804|3|1538965061;805|2|1538965061</t>
+    <t>804|3|946275687;805|2|946275687</t>
   </si>
   <si>
     <t>逍遥派的精英居然乘鹤而来，无愧逍遥。</t>
@@ -4409,7 +4409,7 @@
     <t>逍遥切磋13</t>
   </si>
   <si>
-    <t>804|4|1719065293;805|1|1719065293</t>
+    <t>804|4|1070003666;805|1|1070003666</t>
   </si>
   <si>
     <t>“仙鹤”居然是锁链上的白布，装神弄鬼。</t>
@@ -4421,7 +4421,7 @@
     <t>逍遥切磋14</t>
   </si>
   <si>
-    <t>804|1|1920242088;805|4|1920242088</t>
+    <t>804|1|1209909396;805|4|1209909396</t>
   </si>
   <si>
     <t>九牛二虎之力，终于看见逍遥派的山门了。</t>
@@ -4458,7 +4458,7 @@
     <t>805|4</t>
   </si>
   <si>
-    <t>804|2|2144961970;805|3|2144961970</t>
+    <t>804|2|1368108160;805|3|1368108160</t>
   </si>
   <si>
     <t>山门内果然精英弟子聚集，我们严阵以待。</t>
@@ -4514,7 +4514,7 @@
     </r>
   </si>
   <si>
-    <t>806|5|2395980111</t>
+    <t>806|5|1546991820</t>
   </si>
   <si>
     <t>逍遥弟子招收弟子以美为标准，怎有胖哥儿？</t>
@@ -4529,7 +4529,7 @@
     <t>806|5</t>
   </si>
   <si>
-    <t>806|5|2676374114</t>
+    <t>806|5|1749264978</t>
   </si>
   <si>
     <t>胖弟子好强，再去过过招，将底细探查清楚。</t>
@@ -4541,7 +4541,7 @@
     <t>逍遥切磋18</t>
   </si>
   <si>
-    <t>806|5|2989581744</t>
+    <t>806|5|1977985871</t>
   </si>
   <si>
     <t>看来他们要亮真招了，速速避其锋芒。</t>
@@ -4553,7 +4553,7 @@
     <t>逍遥切磋19</t>
   </si>
   <si>
-    <t>804|1|3339443076;805|3|3339443076;806|1|3339443076</t>
+    <t>804|1|2236612609;805|3|2236612609;806|1|2236612609</t>
   </si>
   <si>
     <t>其他弟子将功力聚于胖弟子身上，端的生猛。</t>
@@ -4587,7 +4587,7 @@
     </r>
   </si>
   <si>
-    <t>804|2|3730247577;805|2|3730247577;806|1|3730247577</t>
+    <t>804|2|2529055458;805|2|2529055458;806|1|2529055458</t>
   </si>
   <si>
     <t>逍遥派弟子真气激荡，要看清真气流动。</t>
@@ -4599,7 +4599,7 @@
     <t>逍遥切磋21</t>
   </si>
   <si>
-    <t>804|3|4166786698;805|1|4166786698;806|1|4166786698</t>
+    <t>804|3|2859735961;805|1|2859735961;806|1|2859735961</t>
   </si>
   <si>
     <t>最后一阵，师兄弟尽管出手，掌门随后就到。</t>
@@ -4611,7 +4611,7 @@
     <t>逍遥切磋22</t>
   </si>
   <si>
-    <t>804|1|4654412617;805|2|4654412617;806|2|4654412617</t>
+    <t>804|1|3233653791;805|2|3233653791;806|2|3233653791</t>
   </si>
   <si>
     <t>一阵青光照过，逍遥派弟子恢复如初。</t>
@@ -4626,7 +4626,7 @@
     <t>806|2</t>
   </si>
   <si>
-    <t>804|1|5199103860;805|3|5199103860;806|1|5199103860</t>
+    <t>804|1|3656462338;805|3|3656462338;806|1|3656462338</t>
   </si>
   <si>
     <t>我们好生休息，强敌一会就来。</t>
@@ -4660,7 +4660,7 @@
     </r>
   </si>
   <si>
-    <t>802|1|5807538604;804|2|5807538604;805|2|5807538604</t>
+    <t>802|1|4134554189;804|2|4134554189;805|2|4134554189</t>
   </si>
   <si>
     <t>咦，这次居然真骑了仙鹤过来，还是个童子。</t>
@@ -4694,7 +4694,7 @@
     </r>
   </si>
   <si>
-    <t>802|1|6487176549;805|2|6487176549;806|2|6487176549</t>
+    <t>802|1|4675157780;805|2|4675157780;806|2|4675157780</t>
   </si>
   <si>
     <t>好厉害的仙童，千万不能小看了。</t>
@@ -4728,7 +4728,7 @@
     </r>
   </si>
   <si>
-    <t>803|1|7246350381;804|2|7246350381;805|2|7246350381</t>
+    <t>803|1|5286446680;804|2|5286446680;805|2|5286446680</t>
   </si>
   <si>
     <t>先是仙童，尔后是仙女，莫非真是神仙庙？</t>
@@ -4762,7 +4762,7 @@
     </r>
   </si>
   <si>
-    <t>803|1|8094367934;805|2|8094367934;806|2|8094367934</t>
+    <t>803|1|5977663175;805|2|5977663175;806|2|5977663175</t>
   </si>
   <si>
     <t>这玄女白日飞天了，难道真是天上神仙下凡？</t>
@@ -4796,7 +4796,7 @@
     </r>
   </si>
   <si>
-    <t>801|1|9041626310;804|2|9041626310;805|2|9041626310</t>
+    <t>801|1|6759258004;804|2|6759258004;805|2|6759258004</t>
   </si>
   <si>
     <t>逍遥子头顶灵光脚踩浮云，真神仙也。</t>
@@ -4830,7 +4830,7 @@
     </r>
   </si>
   <si>
-    <t>801|1|10099739348;805|2|10099739348;806|2|10099739348</t>
+    <t>801|1|7643048364;805|2|7643048364;806|2|7643048364</t>
   </si>
   <si>
     <t>管他真假仙人，都要在我派手下跌落凡尘。</t>
@@ -5037,11 +5037,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -5067,23 +5067,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5098,14 +5134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5113,45 +5142,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5173,6 +5166,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5180,7 +5181,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5188,7 +5189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5201,9 +5202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5253,13 +5253,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5271,31 +5349,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5313,49 +5391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5367,61 +5415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5452,9 +5452,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5474,17 +5506,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5503,60 +5547,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5565,133 +5565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6090,7 +6090,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6247,7 +6247,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="7">
-        <v>1040</v>
+        <v>567</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>27</v>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="X5" s="9" t="str">
         <f>O5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(P5="","",";"&amp;P5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(Q5="","",";"&amp;Q5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(R5="","",";"&amp;R5&amp;"|"&amp;ROUND(G5/5,0)&amp;IF(S5="","",";"&amp;S5&amp;"|"&amp;ROUND(G5/5,0)))))</f>
-        <v>104|3|208;105|1|208;106|1|208</v>
+        <v>104|3|113;105|1|113;106|1|113</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -6305,7 +6305,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7">
-        <v>1099</v>
+        <v>605</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="X6" s="9" t="str">
         <f t="shared" ref="X6:X69" si="0">O6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(P6="","",";"&amp;P6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(Q6="","",";"&amp;Q6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(R6="","",";"&amp;R6&amp;"|"&amp;ROUND(G6/5,0)&amp;IF(S6="","",";"&amp;S6&amp;"|"&amp;ROUND(G6/5,0)))))</f>
-        <v>104|3|220;105|1|220;106|1|220</v>
+        <v>104|3|121;105|1|121;106|1|121</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -6363,7 +6363,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7">
-        <v>1162</v>
+        <v>645</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>41</v>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="X7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|232;106|2|232</v>
+        <v>105|3|129;106|2|129</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -6418,7 +6418,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="7">
-        <v>1228</v>
+        <v>688</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>48</v>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="X8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|246;105|2|246</v>
+        <v>104|3|138;105|2|138</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -6473,7 +6473,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7">
-        <v>1298</v>
+        <v>734</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>54</v>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="X9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|260;105|2|260</v>
+        <v>104|3|147;105|2|147</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -6528,7 +6528,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="7">
-        <v>1372</v>
+        <v>783</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>59</v>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="X10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|2|274;106|3|274</v>
+        <v>105|2|157;106|3|157</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -6583,7 +6583,7 @@
         <v>64</v>
       </c>
       <c r="G11" s="7">
-        <v>1450</v>
+        <v>835</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>65</v>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="X11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|290;106|3|290</v>
+        <v>104|2|167;106|3|167</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -6632,7 +6632,7 @@
         <v>69</v>
       </c>
       <c r="G12" s="7">
-        <v>1533</v>
+        <v>891</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>70</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="X12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|2|307;106|3|307</v>
+        <v>105|2|178;106|3|178</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -6681,7 +6681,7 @@
         <v>73</v>
       </c>
       <c r="G13" s="7">
-        <v>1620</v>
+        <v>951</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>74</v>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="X13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|324;105|3|324</v>
+        <v>104|2|190;105|3|190</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -6730,7 +6730,7 @@
         <v>77</v>
       </c>
       <c r="G14" s="7">
-        <v>1712</v>
+        <v>1015</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>78</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="X14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|4|342;106|1|342</v>
+        <v>105|4|203;106|1|203</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -6779,7 +6779,7 @@
         <v>82</v>
       </c>
       <c r="G15" s="7">
-        <v>1810</v>
+        <v>1083</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>83</v>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="X15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|362;105|2|362</v>
+        <v>104|3|217;105|2|217</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -6828,7 +6828,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="7">
-        <v>1913</v>
+        <v>1155</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>88</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="X16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|383;105|2|383;106|1|383</v>
+        <v>104|2|231;105|2|231;106|1|231</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -6880,7 +6880,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="7">
-        <v>2022</v>
+        <v>1232</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>92</v>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="X17" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|404;106|2|404</v>
+        <v>105|3|246;106|2|246</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -6929,7 +6929,7 @@
         <v>95</v>
       </c>
       <c r="G18" s="7">
-        <v>2137</v>
+        <v>1314</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>96</v>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="X18" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|427;106|2|427</v>
+        <v>104|3|263;106|2|263</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -6978,7 +6978,7 @@
         <v>99</v>
       </c>
       <c r="G19" s="7">
-        <v>2259</v>
+        <v>1402</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>100</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="X19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|452;105|2|452</v>
+        <v>104|3|280;105|2|280</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -7027,7 +7027,7 @@
         <v>103</v>
       </c>
       <c r="G20" s="7">
-        <v>2388</v>
+        <v>1496</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>104</v>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="X20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|478;106|2|478</v>
+        <v>104|3|299;106|2|299</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -7076,7 +7076,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="7">
-        <v>2524</v>
+        <v>1596</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>108</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="X21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|505;106|2|505</v>
+        <v>105|3|319;106|2|319</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -7125,7 +7125,7 @@
         <v>111</v>
       </c>
       <c r="G22" s="7">
-        <v>2668</v>
+        <v>1703</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>112</v>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="X22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|534;105|2|534;106|1|534</v>
+        <v>104|2|341;105|2|341;106|1|341</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -7177,7 +7177,7 @@
         <v>115</v>
       </c>
       <c r="G23" s="7">
-        <v>2820</v>
+        <v>1817</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>116</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="X23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|564;106|2|564</v>
+        <v>105|3|363;106|2|363</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -7226,7 +7226,7 @@
         <v>119</v>
       </c>
       <c r="G24" s="7">
-        <v>2981</v>
+        <v>1939</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>120</v>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="X24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|596;105|2|596</v>
+        <v>104|3|388;105|2|388</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -7275,7 +7275,7 @@
         <v>123</v>
       </c>
       <c r="G25" s="7">
-        <v>3151</v>
+        <v>2069</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>124</v>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="X25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|630;106|2|630</v>
+        <v>104|3|414;106|2|414</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -7324,7 +7324,7 @@
         <v>127</v>
       </c>
       <c r="G26" s="7">
-        <v>3331</v>
+        <v>2207</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>128</v>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="X26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|666;106|2|666</v>
+        <v>105|3|441;106|2|441</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -7373,7 +7373,7 @@
         <v>131</v>
       </c>
       <c r="G27" s="7">
-        <v>3521</v>
+        <v>2355</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>132</v>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="X27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|704;105|2|704</v>
+        <v>104|3|471;105|2|471</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -7422,7 +7422,7 @@
         <v>135</v>
       </c>
       <c r="G28" s="7">
-        <v>3722</v>
+        <v>2513</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>136</v>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="X28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|2|744;105|2|744;106|1|744</v>
+        <v>104|2|503;105|2|503;106|1|503</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -7474,7 +7474,7 @@
         <v>139</v>
       </c>
       <c r="G29" s="7">
-        <v>3934</v>
+        <v>2681</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>140</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="X29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>105|3|787;106|2|787</v>
+        <v>105|3|536;106|2|536</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -7523,7 +7523,7 @@
         <v>143</v>
       </c>
       <c r="G30" s="7">
-        <v>4159</v>
+        <v>2860</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>144</v>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="X30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|832;106|2|832</v>
+        <v>104|3|572;106|2|572</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -7572,7 +7572,7 @@
         <v>148</v>
       </c>
       <c r="G31" s="7">
-        <v>4396</v>
+        <v>3051</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>149</v>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="X31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|879;106|2|879</v>
+        <v>104|3|610;106|2|610</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -7621,7 +7621,7 @@
         <v>153</v>
       </c>
       <c r="G32" s="7">
-        <v>4647</v>
+        <v>3255</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>154</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="X32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>104|3|929;105|2|929</v>
+        <v>104|3|651;105|2|651</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -7670,7 +7670,7 @@
         <v>158</v>
       </c>
       <c r="G33" s="7">
-        <v>4912</v>
+        <v>3473</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>159</v>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="X33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>103|1|982;104|2|982;105|1|982;106|1|982</v>
+        <v>103|1|695;104|2|695;105|1|695;106|1|695</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -7725,7 +7725,7 @@
         <v>164</v>
       </c>
       <c r="G34" s="7">
-        <v>5200</v>
+        <v>3708</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>165</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="X34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>102|1|1040;104|2|1040;105|1|1040;106|1|1040</v>
+        <v>102|1|742;104|2|742;105|1|742;106|1|742</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -7780,7 +7780,7 @@
         <v>170</v>
       </c>
       <c r="G35" s="8">
-        <v>3244</v>
+        <v>2090</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>171</v>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="X35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|649</v>
+        <v>204|5|418</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -7832,7 +7832,7 @@
         <v>176</v>
       </c>
       <c r="G36" s="8">
-        <v>3464</v>
+        <v>2240</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>177</v>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="X36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|693</v>
+        <v>204|5|448</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -7884,7 +7884,7 @@
         <v>182</v>
       </c>
       <c r="G37" s="8">
-        <v>3699</v>
+        <v>2400</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>183</v>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="X37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|2|740;204|3|740</v>
+        <v>205|2|480;204|3|480</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -7939,7 +7939,7 @@
         <v>189</v>
       </c>
       <c r="G38" s="8">
-        <v>3950</v>
+        <v>2572</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>190</v>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="X38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|5|790</v>
+        <v>205|5|514</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -7991,7 +7991,7 @@
         <v>195</v>
       </c>
       <c r="G39" s="8">
-        <v>4218</v>
+        <v>2756</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>196</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="X39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|4|844;204|1|844</v>
+        <v>205|4|551;204|1|551</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -8046,7 +8046,7 @@
         <v>203</v>
       </c>
       <c r="G40" s="8">
-        <v>4505</v>
+        <v>2953</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>204</v>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="X40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|4|901;206|1|901</v>
+        <v>204|4|591;206|1|591</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -8101,7 +8101,7 @@
         <v>210</v>
       </c>
       <c r="G41" s="8">
-        <v>4811</v>
+        <v>3164</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>211</v>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="X41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|962;205|3|962</v>
+        <v>204|2|633;205|3|633</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -8150,7 +8150,7 @@
         <v>216</v>
       </c>
       <c r="G42" s="8">
-        <v>5138</v>
+        <v>3390</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>217</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="X42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|4|1028;205|1|1028</v>
+        <v>204|4|678;205|1|678</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -8199,7 +8199,7 @@
         <v>221</v>
       </c>
       <c r="G43" s="8">
-        <v>5487</v>
+        <v>3633</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>222</v>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="X43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|3|1097;205|2|1097</v>
+        <v>204|3|727;205|2|727</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -8248,7 +8248,7 @@
         <v>227</v>
       </c>
       <c r="G44" s="8">
-        <v>5860</v>
+        <v>3893</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>228</v>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="X44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|3|1172;205|2|1172</v>
+        <v>204|3|779;205|2|779</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -8297,7 +8297,7 @@
         <v>232</v>
       </c>
       <c r="G45" s="8">
-        <v>6258</v>
+        <v>4172</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>233</v>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="X45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|3|1252;205|2|1252</v>
+        <v>204|3|834;205|2|834</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -8346,7 +8346,7 @@
         <v>236</v>
       </c>
       <c r="G46" s="8">
-        <v>6683</v>
+        <v>4471</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>237</v>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="X46" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>206|5|1337</v>
+        <v>206|5|894</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -8392,7 +8392,7 @@
         <v>241</v>
       </c>
       <c r="G47" s="8">
-        <v>7137</v>
+        <v>4791</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>242</v>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="X47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|1427;205|2|1427;206|1|1427</v>
+        <v>204|2|958;205|2|958;206|1|958</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -8444,7 +8444,7 @@
         <v>246</v>
       </c>
       <c r="G48" s="8">
-        <v>7622</v>
+        <v>5134</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>247</v>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="X48" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|1524</v>
+        <v>204|5|1027</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -8490,7 +8490,7 @@
         <v>250</v>
       </c>
       <c r="G49" s="8">
-        <v>8140</v>
+        <v>5501</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>251</v>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="X49" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|5|1628</v>
+        <v>205|5|1100</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -8536,7 +8536,7 @@
         <v>254</v>
       </c>
       <c r="G50" s="8">
-        <v>8693</v>
+        <v>5895</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>255</v>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="X50" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|1739</v>
+        <v>204|5|1179</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -8582,7 +8582,7 @@
         <v>258</v>
       </c>
       <c r="G51" s="8">
-        <v>9284</v>
+        <v>6317</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>259</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="X51" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|5|1857</v>
+        <v>204|5|1263</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -8628,7 +8628,7 @@
         <v>262</v>
       </c>
       <c r="G52" s="8">
-        <v>9915</v>
+        <v>6769</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>263</v>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="X52" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>205|5|1983</v>
+        <v>205|5|1354</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -8674,7 +8674,7 @@
         <v>267</v>
       </c>
       <c r="G53" s="8">
-        <v>10589</v>
+        <v>7253</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>268</v>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="X53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>206|5|2118</v>
+        <v>206|5|1451</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -8720,7 +8720,7 @@
         <v>271</v>
       </c>
       <c r="G54" s="8">
-        <v>11308</v>
+        <v>7772</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>272</v>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="X54" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>203|1|2262;204|2|2262;205|2|2262</v>
+        <v>203|1|1554;204|2|1554;205|2|1554</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -8772,7 +8772,7 @@
         <v>276</v>
       </c>
       <c r="G55" s="8">
-        <v>12076</v>
+        <v>8328</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>277</v>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="X55" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>203|1|2415;205|2|2415;206|2|2415</v>
+        <v>203|1|1666;205|2|1666;206|2|1666</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -8824,7 +8824,7 @@
         <v>282</v>
       </c>
       <c r="G56" s="8">
-        <v>12896</v>
+        <v>8924</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>283</v>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="X56" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|4|2579;203|1|2579</v>
+        <v>204|4|1785;203|1|1785</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -8873,7 +8873,7 @@
         <v>286</v>
       </c>
       <c r="G57" s="8">
-        <v>13772</v>
+        <v>9563</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>287</v>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="X57" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>202|1|2754;204|4|2754</v>
+        <v>202|1|1913;204|4|1913</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -8922,7 +8922,7 @@
         <v>291</v>
       </c>
       <c r="G58" s="8">
-        <v>14708</v>
+        <v>10247</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>292</v>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="X58" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>202|1|2942;205|4|2942</v>
+        <v>202|1|2049;205|4|2049</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -8971,7 +8971,7 @@
         <v>295</v>
       </c>
       <c r="G59" s="8">
-        <v>15707</v>
+        <v>10980</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>296</v>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="X59" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|3141;205|2|3141;206|1|3141</v>
+        <v>204|2|2196;205|2|2196;206|1|2196</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -9023,7 +9023,7 @@
         <v>299</v>
       </c>
       <c r="G60" s="8">
-        <v>16774</v>
+        <v>11766</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>300</v>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="X60" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|3355;205|2|3355;206|1|3355</v>
+        <v>204|2|2353;205|2|2353;206|1|2353</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -9075,7 +9075,7 @@
         <v>303</v>
       </c>
       <c r="G61" s="8">
-        <v>17914</v>
+        <v>12608</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>304</v>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="X61" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>204|2|3583;205|2|3583;206|1|3583</v>
+        <v>204|2|2522;205|2|2522;206|1|2522</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -9127,7 +9127,7 @@
         <v>307</v>
       </c>
       <c r="G62" s="8">
-        <v>19131</v>
+        <v>13510</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>308</v>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="X62" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>206|5|3826</v>
+        <v>206|5|2702</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -9173,7 +9173,7 @@
         <v>312</v>
       </c>
       <c r="G63" s="8">
-        <v>20431</v>
+        <v>14477</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>313</v>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="X63" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>201|1|4086;205|4|4086</v>
+        <v>201|1|2895;205|4|2895</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -9222,7 +9222,7 @@
         <v>317</v>
       </c>
       <c r="G64" s="8">
-        <v>21827</v>
+        <v>15516</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>318</v>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="X64" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>201|1|4365;206|4|4365</v>
+        <v>201|1|3103;206|4|3103</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -9271,7 +9271,7 @@
         <v>323</v>
       </c>
       <c r="G65" s="7">
-        <v>11419</v>
+        <v>7218</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>324</v>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="X65" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>304|2|2284;305|2|2284;306|1|2284</v>
+        <v>304|2|1444;305|2|1444;306|1|1444</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -9323,7 +9323,7 @@
         <v>331</v>
       </c>
       <c r="G66" s="7">
-        <v>12590</v>
+        <v>7877</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>332</v>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="X66" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>304|3|2518;305|2|2518</v>
+        <v>304|3|1575;305|2|1575</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -9378,7 +9378,7 @@
         <v>338</v>
       </c>
       <c r="G67" s="7">
-        <v>13882</v>
+        <v>8597</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>339</v>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="X67" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>305|3|2776;306|2|2776</v>
+        <v>305|3|1719;306|2|1719</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -9433,7 +9433,7 @@
         <v>345</v>
       </c>
       <c r="G68" s="7">
-        <v>15306</v>
+        <v>9382</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>346</v>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="X68" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>304|3|3061;306|2|3061</v>
+        <v>304|3|1876;306|2|1876</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -9488,7 +9488,7 @@
         <v>350</v>
       </c>
       <c r="G69" s="7">
-        <v>16876</v>
+        <v>10239</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>351</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="X69" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>305|3|3375;306|2|3375</v>
+        <v>305|3|2048;306|2|2048</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -9543,7 +9543,7 @@
         <v>355</v>
       </c>
       <c r="G70" s="7">
-        <v>18607</v>
+        <v>11174</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>356</v>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="X70" s="9" t="str">
         <f t="shared" ref="X70:X133" si="1">O70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(P70="","",";"&amp;P70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(Q70="","",";"&amp;Q70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(R70="","",";"&amp;R70&amp;"|"&amp;ROUND(G70/5,0)&amp;IF(S70="","",";"&amp;S70&amp;"|"&amp;ROUND(G70/5,0)))))</f>
-        <v>305|3|3721;306|2|3721</v>
+        <v>305|3|2235;306|2|2235</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -9598,7 +9598,7 @@
         <v>360</v>
       </c>
       <c r="G71" s="7">
-        <v>20516</v>
+        <v>12195</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>361</v>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="X71" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|4103;305|1|4103</v>
+        <v>304|4|2439;305|1|2439</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -9653,7 +9653,7 @@
         <v>367</v>
       </c>
       <c r="G72" s="7">
-        <v>22621</v>
+        <v>13309</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>368</v>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="X72" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|4524;306|1|4524</v>
+        <v>304|4|2662;306|1|2662</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -9702,7 +9702,7 @@
         <v>371</v>
       </c>
       <c r="G73" s="7">
-        <v>24942</v>
+        <v>14525</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>372</v>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="X73" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|4988;305|2|4988;306|1|4988</v>
+        <v>304|2|2905;305|2|2905;306|1|2905</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -9754,7 +9754,7 @@
         <v>375</v>
       </c>
       <c r="G74" s="7">
-        <v>27501</v>
+        <v>15852</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>376</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="X74" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|5500;305|1|5500</v>
+        <v>304|4|3170;305|1|3170</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -9803,7 +9803,7 @@
         <v>379</v>
       </c>
       <c r="G75" s="7">
-        <v>30322</v>
+        <v>17300</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>380</v>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="X75" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>305|4|6064;306|1|6064</v>
+        <v>305|4|3460;306|1|3460</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -9852,7 +9852,7 @@
         <v>384</v>
       </c>
       <c r="G76" s="7">
-        <v>33433</v>
+        <v>18880</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>385</v>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="X76" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|6687;305|1|6687</v>
+        <v>304|4|3776;305|1|3776</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -9901,7 +9901,7 @@
         <v>388</v>
       </c>
       <c r="G77" s="7">
-        <v>36863</v>
+        <v>20605</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>389</v>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="X77" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|4|7373;306|1|7373</v>
+        <v>304|4|4121;306|1|4121</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -9950,7 +9950,7 @@
         <v>392</v>
       </c>
       <c r="G78" s="7">
-        <v>40645</v>
+        <v>22487</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>393</v>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="X78" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|8129;305|2|8129;306|1|8129</v>
+        <v>304|2|4497;305|2|4497;306|1|4497</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -10002,7 +10002,7 @@
         <v>396</v>
       </c>
       <c r="G79" s="7">
-        <v>44815</v>
+        <v>24541</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>397</v>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="X79" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|8963;306|2|8963</v>
+        <v>304|3|4908;306|2|4908</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -10051,7 +10051,7 @@
         <v>400</v>
       </c>
       <c r="G80" s="7">
-        <v>49413</v>
+        <v>26783</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>401</v>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="X80" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>305|3|9883;306|2|9883</v>
+        <v>305|3|5357;306|2|5357</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -10100,7 +10100,7 @@
         <v>404</v>
       </c>
       <c r="G81" s="7">
-        <v>54482</v>
+        <v>29230</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>405</v>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="X81" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|10896;305|2|10896</v>
+        <v>304|3|5846;305|2|5846</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -10149,7 +10149,7 @@
         <v>408</v>
       </c>
       <c r="G82" s="7">
-        <v>60071</v>
+        <v>31900</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>409</v>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="X82" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|12014;305|1|12014;306|1|12014</v>
+        <v>304|3|6380;305|1|6380;306|1|6380</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -10201,7 +10201,7 @@
         <v>412</v>
       </c>
       <c r="G83" s="7">
-        <v>66234</v>
+        <v>34814</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>413</v>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="X83" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|13247;305|2|13247;306|1|13247</v>
+        <v>304|2|6963;305|2|6963;306|1|6963</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -10253,7 +10253,7 @@
         <v>416</v>
       </c>
       <c r="G84" s="7">
-        <v>73029</v>
+        <v>37994</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>417</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="X84" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|14606;305|2|14606</v>
+        <v>304|3|7599;305|2|7599</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -10302,7 +10302,7 @@
         <v>420</v>
       </c>
       <c r="G85" s="7">
-        <v>80521</v>
+        <v>41465</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>421</v>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="X85" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|3|16104;306|2|16104</v>
+        <v>304|3|8293;306|2|8293</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -10351,7 +10351,7 @@
         <v>425</v>
       </c>
       <c r="G86" s="7">
-        <v>88782</v>
+        <v>45253</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>426</v>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="X86" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>305|3|17756;306|2|17756</v>
+        <v>305|3|9051;306|2|9051</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -10400,7 +10400,7 @@
         <v>429</v>
       </c>
       <c r="G87" s="7">
-        <v>97890</v>
+        <v>49387</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>430</v>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="X87" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|19578;305|3|19578</v>
+        <v>304|2|9877;305|3|9877</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -10449,7 +10449,7 @@
         <v>433</v>
       </c>
       <c r="G88" s="7">
-        <v>107933</v>
+        <v>53898</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>434</v>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="X88" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|21587;306|3|21587</v>
+        <v>304|2|10780;306|3|10780</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -10498,7 +10498,7 @@
         <v>438</v>
       </c>
       <c r="G89" s="7">
-        <v>119006</v>
+        <v>58821</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>439</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="X89" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|23801;305|2|23801;306|1|23801</v>
+        <v>304|2|11764;305|2|11764;306|1|11764</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -10550,7 +10550,7 @@
         <v>442</v>
       </c>
       <c r="G90" s="7">
-        <v>131215</v>
+        <v>64194</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>443</v>
@@ -10576,7 +10576,7 @@
       </c>
       <c r="X90" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>305|2|26243;306|3|26243</v>
+        <v>305|2|12839;306|3|12839</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -10599,7 +10599,7 @@
         <v>446</v>
       </c>
       <c r="G91" s="7">
-        <v>144677</v>
+        <v>70058</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>447</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="X91" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>304|2|28935;305|3|28935</v>
+        <v>304|2|14012;305|3|14012</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -10648,7 +10648,7 @@
         <v>452</v>
       </c>
       <c r="G92" s="7">
-        <v>159520</v>
+        <v>76458</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>453</v>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="X92" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>303|1|31904;304|2|31904;305|2|31904</v>
+        <v>303|1|15292;304|2|15292;305|2|15292</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -10700,7 +10700,7 @@
         <v>458</v>
       </c>
       <c r="G93" s="7">
-        <v>175885</v>
+        <v>83442</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>459</v>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="X93" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>302|1|35177;305|2|35177;306|2|35177</v>
+        <v>302|1|16688;305|2|16688;306|2|16688</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -10752,7 +10752,7 @@
         <v>464</v>
       </c>
       <c r="G94" s="7">
-        <v>193935</v>
+        <v>91063</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>465</v>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="X94" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>301|1|38787;304|2|38787;306|2|38787</v>
+        <v>301|1|18213;304|2|18213;306|2|18213</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -10804,7 +10804,7 @@
         <v>470</v>
       </c>
       <c r="G95" s="8">
-        <v>78428</v>
+        <v>42161</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>471</v>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="X95" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|15686</v>
+        <v>403|5|8432</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -10850,7 +10850,7 @@
         <v>475</v>
       </c>
       <c r="G96" s="8">
-        <v>87679</v>
+        <v>46930</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>476</v>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="X96" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|17536</v>
+        <v>403|5|9386</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -10902,7 +10902,7 @@
         <v>480</v>
       </c>
       <c r="G97" s="8">
-        <v>98021</v>
+        <v>52238</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>481</v>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="X97" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|19604</v>
+        <v>403|5|10448</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -10954,7 +10954,7 @@
         <v>485</v>
       </c>
       <c r="G98" s="8">
-        <v>109583</v>
+        <v>58146</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>486</v>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="X98" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|21917</v>
+        <v>403|5|11629</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -11006,7 +11006,7 @@
         <v>490</v>
       </c>
       <c r="G99" s="8">
-        <v>122509</v>
+        <v>64723</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>491</v>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="X99" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|24502</v>
+        <v>403|5|12945</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -11052,7 +11052,7 @@
         <v>494</v>
       </c>
       <c r="G100" s="8">
-        <v>136960</v>
+        <v>72043</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>495</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="X100" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|27392</v>
+        <v>403|5|14409</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -11098,7 +11098,7 @@
         <v>498</v>
       </c>
       <c r="G101" s="8">
-        <v>153115</v>
+        <v>80191</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>499</v>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="X101" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|30623</v>
+        <v>403|5|16038</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -11144,7 +11144,7 @@
         <v>501</v>
       </c>
       <c r="G102" s="8">
-        <v>171176</v>
+        <v>89261</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>502</v>
@@ -11167,7 +11167,7 @@
       </c>
       <c r="X102" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|34235</v>
+        <v>403|5|17852</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -11190,7 +11190,7 @@
         <v>505</v>
       </c>
       <c r="G103" s="8">
-        <v>191367</v>
+        <v>99357</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>506</v>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="X103" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|38273</v>
+        <v>403|5|19871</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -11236,7 +11236,7 @@
         <v>509</v>
       </c>
       <c r="G104" s="8">
-        <v>213940</v>
+        <v>110595</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>510</v>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="X104" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|42788</v>
+        <v>403|5|22119</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -11282,7 +11282,7 @@
         <v>513</v>
       </c>
       <c r="G105" s="8">
-        <v>239175</v>
+        <v>123104</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>514</v>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="X105" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|47835</v>
+        <v>403|5|24621</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -11328,7 +11328,7 @@
         <v>517</v>
       </c>
       <c r="G106" s="8">
-        <v>267387</v>
+        <v>137028</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>518</v>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="X106" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|53477</v>
+        <v>403|5|27406</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -11374,7 +11374,7 @@
         <v>521</v>
       </c>
       <c r="G107" s="8">
-        <v>298927</v>
+        <v>152526</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>522</v>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="X107" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|59785</v>
+        <v>403|5|30505</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -11420,7 +11420,7 @@
         <v>525</v>
       </c>
       <c r="G108" s="8">
-        <v>334187</v>
+        <v>169777</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>526</v>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="X108" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|66837</v>
+        <v>403|5|33955</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -11466,7 +11466,7 @@
         <v>529</v>
       </c>
       <c r="G109" s="8">
-        <v>373606</v>
+        <v>188980</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>530</v>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="X109" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|74721</v>
+        <v>403|5|37796</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -11512,7 +11512,7 @@
         <v>533</v>
       </c>
       <c r="G110" s="8">
-        <v>417675</v>
+        <v>210354</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>534</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="X110" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|83535</v>
+        <v>403|5|42071</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -11558,7 +11558,7 @@
         <v>537</v>
       </c>
       <c r="G111" s="8">
-        <v>466942</v>
+        <v>234146</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>538</v>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="X111" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|93388</v>
+        <v>403|5|46829</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -11604,7 +11604,7 @@
         <v>541</v>
       </c>
       <c r="G112" s="8">
-        <v>522020</v>
+        <v>260629</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>542</v>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="X112" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|104404</v>
+        <v>403|5|52126</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -11650,7 +11650,7 @@
         <v>545</v>
       </c>
       <c r="G113" s="8">
-        <v>583595</v>
+        <v>290107</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>546</v>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="X113" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|116719</v>
+        <v>403|5|58021</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -11696,7 +11696,7 @@
         <v>549</v>
       </c>
       <c r="G114" s="8">
-        <v>652433</v>
+        <v>322919</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>550</v>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="X114" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|130487</v>
+        <v>403|5|64584</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -11742,7 +11742,7 @@
         <v>553</v>
       </c>
       <c r="G115" s="8">
-        <v>729391</v>
+        <v>359443</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>554</v>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="X115" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|145878</v>
+        <v>403|5|71889</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -11788,7 +11788,7 @@
         <v>557</v>
       </c>
       <c r="G116" s="8">
-        <v>815426</v>
+        <v>400098</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>558</v>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="X116" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|163085</v>
+        <v>403|5|80020</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -11834,7 +11834,7 @@
         <v>561</v>
       </c>
       <c r="G117" s="8">
-        <v>911609</v>
+        <v>445351</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>562</v>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="X117" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|182322</v>
+        <v>403|5|89070</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -11880,7 +11880,7 @@
         <v>565</v>
       </c>
       <c r="G118" s="8">
-        <v>1019138</v>
+        <v>495722</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>566</v>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="X118" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|203828</v>
+        <v>403|5|99144</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -11926,7 +11926,7 @@
         <v>569</v>
       </c>
       <c r="G119" s="8">
-        <v>1139350</v>
+        <v>551790</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>570</v>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="X119" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|227870</v>
+        <v>403|5|110358</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -11972,7 +11972,7 @@
         <v>573</v>
       </c>
       <c r="G120" s="8">
-        <v>1273742</v>
+        <v>614200</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>574</v>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="X120" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|254748</v>
+        <v>403|5|122840</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -12018,7 +12018,7 @@
         <v>577</v>
       </c>
       <c r="G121" s="8">
-        <v>1423986</v>
+        <v>683669</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>578</v>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="X121" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|284797</v>
+        <v>403|5|136734</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -12064,7 +12064,7 @@
         <v>581</v>
       </c>
       <c r="G122" s="8">
-        <v>1591952</v>
+        <v>760995</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>582</v>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="X122" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>403|5|318390</v>
+        <v>403|5|152199</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -12110,7 +12110,7 @@
         <v>586</v>
       </c>
       <c r="G123" s="8">
-        <v>1779730</v>
+        <v>847067</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>587</v>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="X123" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>402|1|355946;403|4|355946</v>
+        <v>402|1|169413;403|4|169413</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -12159,7 +12159,7 @@
         <v>593</v>
       </c>
       <c r="G124" s="8">
-        <v>1989638</v>
+        <v>942870</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>594</v>
@@ -12185,7 +12185,7 @@
       </c>
       <c r="X124" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>401|1|397928;403|4|397928</v>
+        <v>401|1|188574;403|4|188574</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -12208,7 +12208,7 @@
         <v>599</v>
       </c>
       <c r="G125" s="7">
-        <v>582068</v>
+        <v>313035</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>600</v>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="X125" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|2|116414;504|2|116414;505|1|116414</v>
+        <v>503|2|62607;504|2|62607;505|1|62607</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -12260,7 +12260,7 @@
         <v>607</v>
       </c>
       <c r="G126" s="7">
-        <v>660185</v>
+        <v>348488</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>608</v>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="X126" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|3|132037;505|2|132037</v>
+        <v>503|3|69698;505|2|69698</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -12309,7 +12309,7 @@
         <v>612</v>
       </c>
       <c r="G127" s="7">
-        <v>748786</v>
+        <v>387957</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>613</v>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="X127" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|2|149757;505|3|149757</v>
+        <v>503|2|77591;505|3|77591</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -12358,7 +12358,7 @@
         <v>617</v>
       </c>
       <c r="G128" s="7">
-        <v>849278</v>
+        <v>431896</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>618</v>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="X128" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|4|169856;505|1|169856</v>
+        <v>503|4|86379;505|1|86379</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -12413,7 +12413,7 @@
         <v>623</v>
       </c>
       <c r="G129" s="7">
-        <v>963256</v>
+        <v>480811</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>624</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="X129" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|1|192651;505|4|192651</v>
+        <v>503|1|96162;505|4|96162</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -12468,7 +12468,7 @@
         <v>630</v>
       </c>
       <c r="G130" s="7">
-        <v>1092531</v>
+        <v>535266</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>631</v>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="X130" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|2|218506;505|4|218506</v>
+        <v>503|2|107053;505|4|107053</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -12523,7 +12523,7 @@
         <v>635</v>
       </c>
       <c r="G131" s="7">
-        <v>1239155</v>
+        <v>595888</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>636</v>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="X131" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|3|247831;505|2|247831</v>
+        <v>503|3|119178;505|2|119178</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -12578,7 +12578,7 @@
         <v>640</v>
       </c>
       <c r="G132" s="7">
-        <v>1405457</v>
+        <v>663376</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>641</v>
@@ -12610,7 +12610,7 @@
       </c>
       <c r="X132" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|1|281091;505|4|281091</v>
+        <v>503|1|132675;505|4|132675</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -12633,7 +12633,7 @@
         <v>645</v>
       </c>
       <c r="G133" s="7">
-        <v>1594078</v>
+        <v>738508</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>646</v>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="X133" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>503|2|318816;505|3|318816</v>
+        <v>503|2|147702;505|3|147702</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -12682,7 +12682,7 @@
         <v>649</v>
       </c>
       <c r="G134" s="7">
-        <v>1808013</v>
+        <v>822149</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>650</v>
@@ -12708,7 +12708,7 @@
       </c>
       <c r="X134" s="9" t="str">
         <f t="shared" ref="X134:X197" si="2">O134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(P134="","",";"&amp;P134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(Q134="","",";"&amp;Q134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(R134="","",";"&amp;R134&amp;"|"&amp;ROUND(G134/5,0)&amp;IF(S134="","",";"&amp;S134&amp;"|"&amp;ROUND(G134/5,0)))))</f>
-        <v>503|4|361603;505|1|361603</v>
+        <v>503|4|164430;505|1|164430</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -12731,7 +12731,7 @@
         <v>653</v>
       </c>
       <c r="G135" s="7">
-        <v>2050660</v>
+        <v>915263</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>654</v>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="X135" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|3|410132;505|2|410132</v>
+        <v>503|3|183053;505|2|183053</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -12780,7 +12780,7 @@
         <v>657</v>
       </c>
       <c r="G136" s="7">
-        <v>2325871</v>
+        <v>1018923</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>658</v>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="X136" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|4|465174;505|1|465174</v>
+        <v>503|4|203785;505|1|203785</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -12829,7 +12829,7 @@
         <v>661</v>
       </c>
       <c r="G137" s="7">
-        <v>2638017</v>
+        <v>1134323</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>662</v>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="X137" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|2|527603;505|3|527603</v>
+        <v>503|2|226865;505|3|226865</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -12878,7 +12878,7 @@
         <v>666</v>
       </c>
       <c r="G138" s="7">
-        <v>2992055</v>
+        <v>1262793</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>667</v>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="X138" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|3|598411;505|2|598411</v>
+        <v>504|3|252559;505|2|252559</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -12927,7 +12927,7 @@
         <v>671</v>
       </c>
       <c r="G139" s="7">
-        <v>3393607</v>
+        <v>1405813</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>672</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="X139" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|1|678721;505|4|678721</v>
+        <v>504|1|281163;505|4|281163</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -12976,7 +12976,7 @@
         <v>676</v>
       </c>
       <c r="G140" s="7">
-        <v>3849050</v>
+        <v>1565031</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>677</v>
@@ -13002,7 +13002,7 @@
       </c>
       <c r="X140" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|2|769810;505|3|769810</v>
+        <v>504|2|313006;505|3|313006</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -13025,7 +13025,7 @@
         <v>680</v>
       </c>
       <c r="G141" s="7">
-        <v>4365616</v>
+        <v>1742281</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>681</v>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="X141" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|4|873123;505|1|873123</v>
+        <v>504|4|348456;505|1|348456</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -13074,7 +13074,7 @@
         <v>685</v>
       </c>
       <c r="G142" s="7">
-        <v>4951509</v>
+        <v>1939606</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>686</v>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="X142" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|3|990302;505|2|990302</v>
+        <v>504|3|387921;505|2|387921</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -13123,7 +13123,7 @@
         <v>689</v>
       </c>
       <c r="G143" s="7">
-        <v>5616032</v>
+        <v>2159279</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>690</v>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="X143" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|4|1123206;505|1|1123206</v>
+        <v>504|4|431856;505|1|431856</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -13172,7 +13172,7 @@
         <v>693</v>
       </c>
       <c r="G144" s="7">
-        <v>6369738</v>
+        <v>2403832</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>694</v>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="X144" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>504|2|1273948;505|3|1273948</v>
+        <v>504|2|480766;505|3|480766</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -13221,7 +13221,7 @@
         <v>697</v>
       </c>
       <c r="G145" s="7">
-        <v>7224596</v>
+        <v>2676082</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>698</v>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="X145" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|3|1444919;504|2|1444919</v>
+        <v>503|3|535216;504|2|535216</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -13270,7 +13270,7 @@
         <v>701</v>
       </c>
       <c r="G146" s="7">
-        <v>8194182</v>
+        <v>2979166</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>702</v>
@@ -13299,7 +13299,7 @@
       </c>
       <c r="X146" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|2|1638836;504|1|1638836;505|1|1638836</v>
+        <v>503|2|595833;504|1|595833;505|1|595833</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -13322,7 +13322,7 @@
         <v>704</v>
       </c>
       <c r="G147" s="7">
-        <v>9293892</v>
+        <v>3316577</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>705</v>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="X147" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|3|1858778;504|1|1858778;505|1|1858778</v>
+        <v>503|3|663315;504|1|663315;505|1|663315</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -13374,7 +13374,7 @@
         <v>708</v>
       </c>
       <c r="G148" s="7">
-        <v>10541190</v>
+        <v>3692202</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>709</v>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="X148" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|2108238;504|1|2108238;505|3|2108238</v>
+        <v>503|1|738440;504|1|738440;505|3|738440</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -13426,7 +13426,7 @@
         <v>712</v>
       </c>
       <c r="G149" s="7">
-        <v>11955883</v>
+        <v>4110369</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>713</v>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="X149" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|2391177;504|2|2391177;505|2|2391177</v>
+        <v>503|1|822074;504|2|822074;505|2|822074</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -13478,7 +13478,7 @@
         <v>716</v>
       </c>
       <c r="G150" s="7">
-        <v>13560437</v>
+        <v>4575896</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>717</v>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="X150" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|2712087;504|3|2712087;505|1|2712087</v>
+        <v>503|1|915179;504|3|915179;505|1|915179</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -13530,7 +13530,7 @@
         <v>720</v>
       </c>
       <c r="G151" s="7">
-        <v>15380332</v>
+        <v>5094147</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>721</v>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="X151" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|2|3076066;504|2|3076066;505|1|3076066</v>
+        <v>503|2|1018829;504|2|1018829;505|1|1018829</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -13582,7 +13582,7 @@
         <v>724</v>
       </c>
       <c r="G152" s="7">
-        <v>17444468</v>
+        <v>5671094</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>725</v>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="X152" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|3488894;504|1|3488894;505|3|3488894</v>
+        <v>503|1|1134219;504|1|1134219;505|3|1134219</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -13634,7 +13634,7 @@
         <v>728</v>
       </c>
       <c r="G153" s="7">
-        <v>19785624</v>
+        <v>6313384</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>729</v>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="X153" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>503|1|3957125;504|2|3957125;505|2|3957125</v>
+        <v>503|1|1262677;504|2|1262677;505|2|1262677</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -13686,7 +13686,7 @@
         <v>733</v>
       </c>
       <c r="G154" s="7">
-        <v>22441003</v>
+        <v>7028421</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>734</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="X154" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>501|1|4488201;504|2|4488201;505|2|4488201</v>
+        <v>501|1|1405684;504|2|1405684;505|2|1405684</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -13738,7 +13738,7 @@
         <v>739</v>
       </c>
       <c r="G155" s="8">
-        <v>5674889</v>
+        <v>2139255</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>740</v>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="X155" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|1134978;604|2|1134978;605|1|1134978</v>
+        <v>603|2|427851;604|2|427851;605|1|427851</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -13790,7 +13790,7 @@
         <v>746</v>
       </c>
       <c r="G156" s="8">
-        <v>6610495</v>
+        <v>2505926</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>747</v>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="X156" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|1322099;604|3|1322099</v>
+        <v>603|2|501185;604|3|501185</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -13845,7 +13845,7 @@
         <v>753</v>
       </c>
       <c r="G157" s="8">
-        <v>7700352</v>
+        <v>2935445</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>754</v>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="X157" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|2|1540070;605|3|1540070</v>
+        <v>604|2|587089;605|3|587089</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -13900,7 +13900,7 @@
         <v>759</v>
       </c>
       <c r="G158" s="8">
-        <v>8969891</v>
+        <v>3438584</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>760</v>
@@ -13932,7 +13932,7 @@
       </c>
       <c r="X158" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|3|1793978;605|2|1793978</v>
+        <v>603|3|687717;605|2|687717</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -13955,7 +13955,7 @@
         <v>766</v>
       </c>
       <c r="G159" s="8">
-        <v>10448736</v>
+        <v>4027962</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>767</v>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="X159" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|3|2089747;605|2|2089747</v>
+        <v>604|3|805592;605|2|805592</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -14010,7 +14010,7 @@
         <v>771</v>
       </c>
       <c r="G160" s="8">
-        <v>12171395</v>
+        <v>4718360</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>772</v>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="X160" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|4|2434279;605|1|2434279</v>
+        <v>604|4|943672;605|1|943672</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -14065,7 +14065,7 @@
         <v>777</v>
       </c>
       <c r="G161" s="8">
-        <v>14178065</v>
+        <v>5527093</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>778</v>
@@ -14091,7 +14091,7 @@
       </c>
       <c r="X161" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|4|2835613;604|1|2835613</v>
+        <v>603|4|1105419;604|1|1105419</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -14114,7 +14114,7 @@
         <v>783</v>
       </c>
       <c r="G162" s="8">
-        <v>16515570</v>
+        <v>6474444</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>784</v>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="X162" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|3|3303114;605|2|3303114</v>
+        <v>604|3|1294889;605|2|1294889</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -14163,7 +14163,7 @@
         <v>787</v>
       </c>
       <c r="G163" s="8">
-        <v>19238454</v>
+        <v>7584173</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>788</v>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="X163" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|3847691;604|2|3847691;605|1|3847691</v>
+        <v>603|2|1516835;604|2|1516835;605|1|1516835</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -14215,7 +14215,7 @@
         <v>791</v>
       </c>
       <c r="G164" s="8">
-        <v>22410254</v>
+        <v>8884111</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>792</v>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="X164" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|4482051;604|3|4482051</v>
+        <v>603|2|1776822;604|3|1776822</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -14264,7 +14264,7 @@
         <v>795</v>
       </c>
       <c r="G165" s="8">
-        <v>26104981</v>
+        <v>10406860</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>796</v>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="X165" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|3|5220996;605|2|5220996</v>
+        <v>604|3|2081372;605|2|2081372</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -14313,7 +14313,7 @@
         <v>799</v>
       </c>
       <c r="G166" s="8">
-        <v>30408850</v>
+        <v>12190610</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>800</v>
@@ -14339,7 +14339,7 @@
       </c>
       <c r="X166" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|3|6081770;604|2|6081770</v>
+        <v>603|3|2438122;604|2|2438122</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -14362,7 +14362,7 @@
         <v>803</v>
       </c>
       <c r="G167" s="8">
-        <v>35422288</v>
+        <v>14280097</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>804</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="X167" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|3|7084458;605|2|7084458</v>
+        <v>603|3|2856019;605|2|2856019</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -14411,7 +14411,7 @@
         <v>807</v>
       </c>
       <c r="G168" s="8">
-        <v>41262280</v>
+        <v>16727725</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>808</v>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="X168" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|8252456;604|2|8252456;605|1|8252456</v>
+        <v>603|2|3345545;604|2|3345545;605|1|3345545</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -14463,7 +14463,7 @@
         <v>810</v>
       </c>
       <c r="G169" s="8">
-        <v>48065098</v>
+        <v>19594880</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>811</v>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="X169" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|9613020;605|3|9613020</v>
+        <v>603|2|3918976;605|3|3918976</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -14512,7 +14512,7 @@
         <v>815</v>
       </c>
       <c r="G170" s="8">
-        <v>55989481</v>
+        <v>22953470</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>816</v>
@@ -14538,7 +14538,7 @@
       </c>
       <c r="X170" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|2|11197896;605|3|11197896</v>
+        <v>604|2|4590694;605|3|4590694</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -14561,7 +14561,7 @@
         <v>819</v>
       </c>
       <c r="G171" s="8">
-        <v>65220339</v>
+        <v>26887727</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>820</v>
@@ -14587,7 +14587,7 @@
       </c>
       <c r="X171" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|13044068;604|3|13044068</v>
+        <v>603|2|5377545;604|3|5377545</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -14610,7 +14610,7 @@
         <v>823</v>
       </c>
       <c r="G172" s="8">
-        <v>75973068</v>
+        <v>31496321</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>824</v>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="X172" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|15194614;604|3|15194614;605|1|15194614</v>
+        <v>603|1|6299264;604|3|6299264;605|1|6299264</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -14662,7 +14662,7 @@
         <v>828</v>
       </c>
       <c r="G173" s="8">
-        <v>88498574</v>
+        <v>36894834</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>829</v>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="X173" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|2|17699715;604|1|17699715;605|2|17699715</v>
+        <v>603|2|7378967;604|1|7378967;605|2|7378967</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -14714,7 +14714,7 @@
         <v>833</v>
       </c>
       <c r="G174" s="8">
-        <v>103089132</v>
+        <v>43218660</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>834</v>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="X174" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|20617826;604|4|20617826</v>
+        <v>603|1|8643732;604|4|8643732</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -14763,7 +14763,7 @@
         <v>839</v>
       </c>
       <c r="G175" s="8">
-        <v>120085202</v>
+        <v>50626398</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>840</v>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="X175" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|24017040;605|4|24017040</v>
+        <v>603|1|10125280;605|4|10125280</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -14812,7 +14812,7 @@
         <v>844</v>
       </c>
       <c r="G176" s="8">
-        <v>139883375</v>
+        <v>59303833</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>845</v>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="X176" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|1|27976675;605|4|27976675</v>
+        <v>604|1|11860767;605|4|11860767</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -14861,7 +14861,7 @@
         <v>848</v>
       </c>
       <c r="G177" s="8">
-        <v>162945628</v>
+        <v>69468592</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>849</v>
@@ -14887,7 +14887,7 @@
       </c>
       <c r="X177" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|32589126;604|4|32589126</v>
+        <v>603|1|13893718;604|4|13893718</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -14910,7 +14910,7 @@
         <v>852</v>
       </c>
       <c r="G178" s="8">
-        <v>189810102</v>
+        <v>81375605</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>853</v>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="X178" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|37962020;605|4|37962020</v>
+        <v>603|1|16275121;605|4|16275121</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -14959,7 +14959,7 @@
         <v>856</v>
       </c>
       <c r="G179" s="8">
-        <v>221103661</v>
+        <v>95323496</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>857</v>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="X179" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|44220732;604|1|44220732;605|3|44220732</v>
+        <v>603|1|19064699;604|1|19064699;605|3|19064699</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -15011,7 +15011,7 @@
         <v>860</v>
       </c>
       <c r="G180" s="8">
-        <v>257556517</v>
+        <v>111662075</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>861</v>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="X180" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>604|1|51511303;605|4|51511303</v>
+        <v>604|1|22332415;605|4|22332415</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -15060,7 +15060,7 @@
         <v>864</v>
       </c>
       <c r="G181" s="8">
-        <v>300019272</v>
+        <v>130801109</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>865</v>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="X181" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|60003854;605|4|60003854</v>
+        <v>603|1|26160222;605|4|26160222</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -15109,7 +15109,7 @@
         <v>868</v>
       </c>
       <c r="G182" s="8">
-        <v>349482765</v>
+        <v>153220600</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>869</v>
@@ -15138,7 +15138,7 @@
       </c>
       <c r="X182" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>603|1|69896553;604|1|69896553;605|3|69896553</v>
+        <v>603|1|30644120;604|1|30644120;605|3|30644120</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -15161,7 +15161,7 @@
         <v>873</v>
       </c>
       <c r="G183" s="8">
-        <v>407101191</v>
+        <v>179482823</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>874</v>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="X183" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>602|1|81420238;603|2|81420238;604|2|81420238</v>
+        <v>602|1|35896565;603|2|35896565;604|2|35896565</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -15213,7 +15213,7 @@
         <v>879</v>
       </c>
       <c r="G184" s="8">
-        <v>474219128</v>
+        <v>210246512</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>880</v>
@@ -15242,7 +15242,7 @@
       </c>
       <c r="X184" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>601|1|94843826;604|2|94843826;605|2|94843826</v>
+        <v>601|1|42049302;604|2|42049302;605|2|42049302</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -15265,7 +15265,7 @@
         <v>885</v>
       </c>
       <c r="G185" s="7">
-        <v>116659480</v>
+        <v>48610280</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>886</v>
@@ -15288,7 +15288,7 @@
       </c>
       <c r="X185" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|5|23331896</v>
+        <v>705|5|9722056</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -15311,7 +15311,7 @@
         <v>891</v>
       </c>
       <c r="G186" s="7">
-        <v>136076577</v>
+        <v>57166151</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>892</v>
@@ -15340,7 +15340,7 @@
       </c>
       <c r="X186" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|5|27215315</v>
+        <v>705|5|11433230</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -15363,7 +15363,7 @@
         <v>897</v>
       </c>
       <c r="G187" s="7">
-        <v>158725505</v>
+        <v>67227937</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>898</v>
@@ -15392,7 +15392,7 @@
       </c>
       <c r="X187" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>706|5|31745101</v>
+        <v>706|5|13445587</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -15415,7 +15415,7 @@
         <v>904</v>
       </c>
       <c r="G188" s="7">
-        <v>185144177</v>
+        <v>79060693</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>905</v>
@@ -15444,7 +15444,7 @@
       </c>
       <c r="X188" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>706|5|37028835</v>
+        <v>706|5|15812139</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -15467,7 +15467,7 @@
         <v>910</v>
       </c>
       <c r="G189" s="7">
-        <v>215960040</v>
+        <v>92976126</v>
       </c>
       <c r="H189" s="4" t="s">
         <v>911</v>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="X189" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|3|43192008;706|1|43192008;704|1|43192008</v>
+        <v>705|3|18595225;706|1|18595225;704|1|18595225</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -15525,7 +15525,7 @@
         <v>919</v>
       </c>
       <c r="G190" s="7">
-        <v>251904973</v>
+        <v>109340808</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>920</v>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="X190" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|2|50380995;706|2|50380995;704|1|50380995</v>
+        <v>705|2|21868162;706|2|21868162;704|1|21868162</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -15583,7 +15583,7 @@
         <v>927</v>
       </c>
       <c r="G191" s="7">
-        <v>293832671</v>
+        <v>128585829</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>928</v>
@@ -15618,7 +15618,7 @@
       </c>
       <c r="X191" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|3|58766534;706|1|58766534;704|1|58766534</v>
+        <v>705|3|25717166;706|1|25717166;704|1|25717166</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -15641,7 +15641,7 @@
         <v>932</v>
       </c>
       <c r="G192" s="7">
-        <v>342738920</v>
+        <v>151218157</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>933</v>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="X192" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|2|68547784;706|2|68547784;704|1|68547784</v>
+        <v>705|2|30243631;706|2|30243631;704|1|30243631</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -15693,7 +15693,7 @@
         <v>937</v>
       </c>
       <c r="G193" s="7">
-        <v>399785248</v>
+        <v>177833990</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>938</v>
@@ -15722,7 +15722,7 @@
       </c>
       <c r="X193" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|1|79957050;706|3|79957050;704|1|79957050</v>
+        <v>705|1|35566798;706|3|35566798;704|1|35566798</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -15745,7 +15745,7 @@
         <v>943</v>
       </c>
       <c r="G194" s="7">
-        <v>466326511</v>
+        <v>209134462</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>944</v>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="X194" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|1|93265302;706|2|93265302;704|2|93265302</v>
+        <v>705|1|41826892;706|2|41826892;704|2|41826892</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -15797,7 +15797,7 @@
         <v>949</v>
       </c>
       <c r="G195" s="7">
-        <v>543943069</v>
+        <v>245944115</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>950</v>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="X195" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|1|108788614;706|1|108788614;704|3|108788614</v>
+        <v>705|1|49188823;706|1|49188823;704|3|49188823</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -15849,7 +15849,7 @@
         <v>955</v>
       </c>
       <c r="G196" s="7">
-        <v>634478322</v>
+        <v>289232617</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>956</v>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="X196" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>705|5|126895664</v>
+        <v>705|5|57846523</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -15895,7 +15895,7 @@
         <v>960</v>
       </c>
       <c r="G197" s="7">
-        <v>740082491</v>
+        <v>340140306</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>961</v>
@@ -15918,7 +15918,7 @@
       </c>
       <c r="X197" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>704|5|148016498</v>
+        <v>704|5|68028061</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -15941,7 +15941,7 @@
         <v>965</v>
       </c>
       <c r="G198" s="7">
-        <v>863263683</v>
+        <v>400008232</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>966</v>
@@ -15964,7 +15964,7 @@
       </c>
       <c r="X198" s="9" t="str">
         <f t="shared" ref="X198:X244" si="3">O198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(P198="","",";"&amp;P198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(Q198="","",";"&amp;Q198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(R198="","",";"&amp;R198&amp;"|"&amp;ROUND(G198/5,0)&amp;IF(S198="","",";"&amp;S198&amp;"|"&amp;ROUND(G198/5,0)))))</f>
-        <v>706|5|172652737</v>
+        <v>706|5|80001646</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -15987,7 +15987,7 @@
         <v>969</v>
       </c>
       <c r="G199" s="7">
-        <v>1006947463</v>
+        <v>470413482</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>970</v>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="X199" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|2|201389493;706|1|201389493;704|1|201389493</v>
+        <v>705|2|94082696;706|1|94082696;704|1|94082696</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -16039,7 +16039,7 @@
         <v>973</v>
       </c>
       <c r="G200" s="7">
-        <v>1174546333</v>
+        <v>553210725</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>974</v>
@@ -16068,7 +16068,7 @@
       </c>
       <c r="X200" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|3|234909267;706|1|234909267;704|1|234909267</v>
+        <v>705|3|110642145;706|1|110642145;704|1|110642145</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -16091,7 +16091,7 @@
         <v>977</v>
       </c>
       <c r="G201" s="7">
-        <v>1370040780</v>
+        <v>650581070</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>978</v>
@@ -16120,7 +16120,7 @@
       </c>
       <c r="X201" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|1|274008156;706|2|274008156;704|1|274008156</v>
+        <v>705|1|130116214;706|2|130116214;704|1|130116214</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -16143,7 +16143,7 @@
         <v>981</v>
       </c>
       <c r="G202" s="7">
-        <v>1598073815</v>
+        <v>765089521</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>982</v>
@@ -16172,7 +16172,7 @@
       </c>
       <c r="X202" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|1|319614763;706|3|319614763;704|1|319614763</v>
+        <v>705|1|153017904;706|3|153017904;704|1|153017904</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -16195,7 +16195,7 @@
         <v>986</v>
       </c>
       <c r="G203" s="7">
-        <v>1864061242</v>
+        <v>899752548</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>987</v>
@@ -16224,7 +16224,7 @@
       </c>
       <c r="X203" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>702|1|372812248;706|2|372812248;704|2|372812248</v>
+        <v>702|1|179950510;706|2|179950510;704|2|179950510</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -16247,7 +16247,7 @@
         <v>991</v>
       </c>
       <c r="G204" s="7">
-        <v>2174320286</v>
+        <v>1058117547</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>992</v>
@@ -16276,7 +16276,7 @@
       </c>
       <c r="X204" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>702|1|434864057;705|2|434864057;706|2|434864057</v>
+        <v>702|1|211623509;705|2|211623509;706|2|211623509</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -16299,7 +16299,7 @@
         <v>996</v>
       </c>
       <c r="G205" s="7">
-        <v>2536219626</v>
+        <v>1244356291</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>997</v>
@@ -16328,7 +16328,7 @@
       </c>
       <c r="X205" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>702|1|507243925;706|2|507243925;704|2|507243925</v>
+        <v>702|1|248871258;706|2|248871258;704|2|248871258</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -16351,7 +16351,7 @@
         <v>1000</v>
       </c>
       <c r="G206" s="7">
-        <v>2958354403</v>
+        <v>1463374824</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>1001</v>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="X206" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>704|5|591670881</v>
+        <v>704|5|292674965</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -16397,7 +16397,7 @@
         <v>1004</v>
       </c>
       <c r="G207" s="7">
-        <v>3450750354</v>
+        <v>1720942700</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>1005</v>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="X207" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>704|5|690150071</v>
+        <v>704|5|344188540</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -16443,7 +16443,7 @@
         <v>1008</v>
       </c>
       <c r="G208" s="7">
-        <v>4025101927</v>
+        <v>2023844970</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>1009</v>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="X208" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>704|2|805020385;705|3|805020385</v>
+        <v>704|2|404768994;705|3|404768994</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -16492,7 +16492,7 @@
         <v>1012</v>
       </c>
       <c r="G209" s="7">
-        <v>4695050021</v>
+        <v>2380060918</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>1013</v>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="X209" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>704|3|939010004;706|2|939010004</v>
+        <v>704|3|476012184;706|2|476012184</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -16541,7 +16541,7 @@
         <v>1016</v>
       </c>
       <c r="G210" s="7">
-        <v>5476505962</v>
+        <v>2798974258</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>1017</v>
@@ -16570,7 +16570,7 @@
       </c>
       <c r="X210" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>705|2|1095301192;706|2|1095301192;704|1|1095301192</v>
+        <v>705|2|559794852;706|2|559794852;704|1|559794852</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -16593,7 +16593,7 @@
         <v>1021</v>
       </c>
       <c r="G211" s="7">
-        <v>6388029396</v>
+        <v>3291620327</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>1022</v>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="X211" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>703|1|1277605879;704|4|1277605879</v>
+        <v>703|1|658324065;704|4|658324065</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -16642,7 +16642,7 @@
         <v>1027</v>
       </c>
       <c r="G212" s="7">
-        <v>7451269084</v>
+        <v>3870976786</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>1028</v>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="X212" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>702|1|1490253817;703|1|1490253817;704|1|1490253817;705|1|1490253817;706|1|1490253817</v>
+        <v>702|1|774195357;703|1|774195357;704|1|774195357;705|1|774195357;706|1|774195357</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -16700,7 +16700,7 @@
         <v>1034</v>
       </c>
       <c r="G213" s="7">
-        <v>8691477061</v>
+        <v>4552305488</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>1035</v>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="X213" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>701|1|1738295412;704|2|1738295412;705|1|1738295412;706|1|1738295412</v>
+        <v>701|1|910461098;704|2|910461098;705|1|910461098;706|1|910461098</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -16755,7 +16755,7 @@
         <v>1040</v>
       </c>
       <c r="G214" s="7">
-        <v>10138108390</v>
+        <v>5353554530</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>1041</v>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="X214" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>701|1|2027621678;702|1|2027621678;703|1|2027621678;704|1|2027621678;705|1|2027621678</v>
+        <v>701|1|1070710906;702|1|1070710906;703|1|1070710906;704|1|1070710906;705|1|1070710906</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -16813,7 +16813,7 @@
         <v>1045</v>
       </c>
       <c r="G215" s="8">
-        <v>2039085420</v>
+        <v>1082870890</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>1046</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="X215" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9702|5|407817084</v>
+        <v>9702|5|216574178</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -16859,7 +16859,7 @@
         <v>1051</v>
       </c>
       <c r="G216" s="8">
-        <v>2277713162</v>
+        <v>1224459043</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>1052</v>
@@ -16888,7 +16888,7 @@
       </c>
       <c r="X216" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9703|5|455542632</v>
+        <v>9703|5|244891809</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -16911,7 +16911,7 @@
         <v>1057</v>
       </c>
       <c r="G217" s="8">
-        <v>2544266757</v>
+        <v>1384560211</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>1058</v>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="X217" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9702|2|508853351;9703|3|508853351</v>
+        <v>9702|2|276912042;9703|3|276912042</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -16966,7 +16966,7 @@
         <v>1065</v>
       </c>
       <c r="G218" s="8">
-        <v>2842014279</v>
+        <v>1565595018</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>1066</v>
@@ -17001,7 +17001,7 @@
       </c>
       <c r="X218" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9701|1|568402856;9702|2|568402856;9703|2|568402856</v>
+        <v>9701|1|313119004;9702|2|313119004;9703|2|313119004</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -17024,7 +17024,7 @@
         <v>1072</v>
       </c>
       <c r="G219" s="8">
-        <v>3174606256</v>
+        <v>1770300592</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>1073</v>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="X219" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>9701|1|634921251;9702|1|634921251;9703|2|634921251;804|1|634921251</v>
+        <v>9701|1|354060118;9702|1|354060118;9703|2|354060118;804|1|354060118</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17085,7 +17085,7 @@
         <v>1080</v>
       </c>
       <c r="G220" s="8">
-        <v>3546120424</v>
+        <v>2001771946</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>1081</v>
@@ -17120,7 +17120,7 @@
       </c>
       <c r="X220" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|709224085;9702|2|709224085;9703|2|709224085</v>
+        <v>804|1|400354389;9702|2|400354389;9703|2|400354389</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -17143,7 +17143,7 @@
         <v>1085</v>
       </c>
       <c r="G221" s="8">
-        <v>3961111724</v>
+        <v>2263508775</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>1086</v>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="X221" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|792222345;9701|1|792222345;9702|1|792222345;9703|2|792222345</v>
+        <v>804|1|452701755;9701|1|452701755;9702|1|452701755;9703|2|452701755</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -17204,7 +17204,7 @@
         <v>1090</v>
       </c>
       <c r="G222" s="8">
-        <v>4424668149</v>
+        <v>2559468367</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>1091</v>
@@ -17233,7 +17233,7 @@
       </c>
       <c r="X222" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|5|884933630</v>
+        <v>804|5|511893673</v>
       </c>
     </row>
     <row r="223" spans="1:24">
@@ -17256,7 +17256,7 @@
         <v>1097</v>
       </c>
       <c r="G223" s="8">
-        <v>4942473121</v>
+        <v>2894125437</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>1098</v>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="X223" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>805|5|988494624</v>
+        <v>805|5|578825087</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -17308,7 +17308,7 @@
         <v>1103</v>
       </c>
       <c r="G224" s="8">
-        <v>5520875178</v>
+        <v>3272539779</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>1104</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="X224" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|3|1104175036;805|2|1104175036</v>
+        <v>804|3|654507956;805|2|654507956</v>
       </c>
     </row>
     <row r="225" spans="1:24">
@@ -17363,7 +17363,7 @@
         <v>1109</v>
       </c>
       <c r="G225" s="8">
-        <v>6166965805</v>
+        <v>3700432769</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>1110</v>
@@ -17389,7 +17389,7 @@
       </c>
       <c r="X225" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|4|1233393161;805|1|1233393161</v>
+        <v>804|4|740086554;805|1|740086554</v>
       </c>
     </row>
     <row r="226" spans="1:24">
@@ -17412,7 +17412,7 @@
         <v>1115</v>
       </c>
       <c r="G226" s="8">
-        <v>6888666383</v>
+        <v>4184273868</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>1116</v>
@@ -17438,7 +17438,7 @@
       </c>
       <c r="X226" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|2|1377733277;805|3|1377733277</v>
+        <v>804|2|836854774;805|3|836854774</v>
       </c>
     </row>
     <row r="227" spans="1:24">
@@ -17461,7 +17461,7 @@
         <v>1121</v>
       </c>
       <c r="G227" s="8">
-        <v>7694825305</v>
+        <v>4731378434</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>1122</v>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="X227" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|3|1538965061;805|2|1538965061</v>
+        <v>804|3|946275687;805|2|946275687</v>
       </c>
     </row>
     <row r="228" spans="1:24">
@@ -17510,7 +17510,7 @@
         <v>1125</v>
       </c>
       <c r="G228" s="8">
-        <v>8595326466</v>
+        <v>5350018329</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>1126</v>
@@ -17536,7 +17536,7 @@
       </c>
       <c r="X228" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|4|1719065293;805|1|1719065293</v>
+        <v>804|4|1070003666;805|1|1070003666</v>
       </c>
     </row>
     <row r="229" spans="1:24">
@@ -17559,7 +17559,7 @@
         <v>1129</v>
       </c>
       <c r="G229" s="8">
-        <v>9601210441</v>
+        <v>6049546981</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>1130</v>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="X229" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|1920242088;805|4|1920242088</v>
+        <v>804|1|1209909396;805|4|1209909396</v>
       </c>
     </row>
     <row r="230" spans="1:24">
@@ -17608,7 +17608,7 @@
         <v>1135</v>
       </c>
       <c r="G230" s="8">
-        <v>10724809848</v>
+        <v>6840540802</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>1136</v>
@@ -17634,7 +17634,7 @@
       </c>
       <c r="X230" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|2|2144961970;805|3|2144961970</v>
+        <v>804|2|1368108160;805|3|1368108160</v>
       </c>
     </row>
     <row r="231" spans="1:24">
@@ -17657,7 +17657,7 @@
         <v>1141</v>
       </c>
       <c r="G231" s="8">
-        <v>11979900553</v>
+        <v>7734959099</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>1142</v>
@@ -17681,7 +17681,7 @@
       <c r="P231" s="2"/>
       <c r="X231" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>806|5|2395980111</v>
+        <v>806|5|1546991820</v>
       </c>
     </row>
     <row r="232" spans="1:24">
@@ -17704,7 +17704,7 @@
         <v>1146</v>
       </c>
       <c r="G232" s="8">
-        <v>13381870569</v>
+        <v>8746324888</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>1147</v>
@@ -17727,7 +17727,7 @@
       </c>
       <c r="X232" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>806|5|2676374114</v>
+        <v>806|5|1749264978</v>
       </c>
     </row>
     <row r="233" spans="1:24">
@@ -17750,7 +17750,7 @@
         <v>1150</v>
       </c>
       <c r="G233" s="8">
-        <v>14947908719</v>
+        <v>9889929354</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>1151</v>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="X233" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>806|5|2989581744</v>
+        <v>806|5|1977985871</v>
       </c>
     </row>
     <row r="234" spans="1:24">
@@ -17796,7 +17796,7 @@
         <v>1154</v>
       </c>
       <c r="G234" s="8">
-        <v>16697215379</v>
+        <v>11183063045</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>1155</v>
@@ -17825,7 +17825,7 @@
       </c>
       <c r="X234" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|3339443076;805|3|3339443076;806|1|3339443076</v>
+        <v>804|1|2236612609;805|3|2236612609;806|1|2236612609</v>
       </c>
     </row>
     <row r="235" spans="1:24">
@@ -17848,7 +17848,7 @@
         <v>1159</v>
       </c>
       <c r="G235" s="8">
-        <v>18651237886</v>
+        <v>12645277290</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>1160</v>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="X235" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|2|3730247577;805|2|3730247577;806|1|3730247577</v>
+        <v>804|2|2529055458;805|2|2529055458;806|1|2529055458</v>
       </c>
     </row>
     <row r="236" spans="1:24">
@@ -17900,7 +17900,7 @@
         <v>1163</v>
       </c>
       <c r="G236" s="8">
-        <v>20833933490</v>
+        <v>14298679807</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>1164</v>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="X236" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|3|4166786698;805|1|4166786698;806|1|4166786698</v>
+        <v>804|3|2859735961;805|1|2859735961;806|1|2859735961</v>
       </c>
     </row>
     <row r="237" spans="1:24">
@@ -17952,7 +17952,7 @@
         <v>1167</v>
       </c>
       <c r="G237" s="8">
-        <v>23272063084</v>
+        <v>16168268954</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>1168</v>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="X237" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|4654412617;805|2|4654412617;806|2|4654412617</v>
+        <v>804|1|3233653791;805|2|3233653791;806|2|3233653791</v>
       </c>
     </row>
     <row r="238" spans="1:24">
@@ -18004,7 +18004,7 @@
         <v>1172</v>
       </c>
       <c r="G238" s="8">
-        <v>25995519302</v>
+        <v>18282311689</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>1173</v>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="X238" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>804|1|5199103860;805|3|5199103860;806|1|5199103860</v>
+        <v>804|1|3656462338;805|3|3656462338;806|1|3656462338</v>
       </c>
     </row>
     <row r="239" spans="1:24">
@@ -18056,7 +18056,7 @@
         <v>1177</v>
       </c>
       <c r="G239" s="8">
-        <v>29037693020</v>
+        <v>20672770947</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>1178</v>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="X239" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>802|1|5807538604;804|2|5807538604;805|2|5807538604</v>
+        <v>802|1|4134554189;804|2|4134554189;805|2|4134554189</v>
       </c>
     </row>
     <row r="240" spans="1:24">
@@ -18108,7 +18108,7 @@
         <v>1182</v>
       </c>
       <c r="G240" s="8">
-        <v>32435882744</v>
+        <v>23375788899</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>1183</v>
@@ -18137,7 +18137,7 @@
       </c>
       <c r="X240" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>802|1|6487176549;805|2|6487176549;806|2|6487176549</v>
+        <v>802|1|4675157780;805|2|4675157780;806|2|4675157780</v>
       </c>
     </row>
     <row r="241" spans="1:24">
@@ -18160,7 +18160,7 @@
         <v>1187</v>
       </c>
       <c r="G241" s="8">
-        <v>36231751904</v>
+        <v>26432233398</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>1188</v>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="X241" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>803|1|7246350381;804|2|7246350381;805|2|7246350381</v>
+        <v>803|1|5286446680;804|2|5286446680;805|2|5286446680</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -18212,7 +18212,7 @@
         <v>1192</v>
       </c>
       <c r="G242" s="8">
-        <v>40471839672</v>
+        <v>29888315873</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>1193</v>
@@ -18241,7 +18241,7 @@
       </c>
       <c r="X242" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>803|1|8094367934;805|2|8094367934;806|2|8094367934</v>
+        <v>803|1|5977663175;805|2|5977663175;806|2|5977663175</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -18264,7 +18264,7 @@
         <v>1197</v>
       </c>
       <c r="G243" s="8">
-        <v>45208131552</v>
+        <v>33796290018</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>1198</v>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="X243" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>801|1|9041626310;804|2|9041626310;805|2|9041626310</v>
+        <v>801|1|6759258004;804|2|6759258004;805|2|6759258004</v>
       </c>
     </row>
     <row r="244" spans="1:24">
@@ -18316,7 +18316,7 @@
         <v>1202</v>
       </c>
       <c r="G244" s="8">
-        <v>50498696740</v>
+        <v>38215241820</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>1203</v>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="X244" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>801|1|10099739348;805|2|10099739348;806|2|10099739348</v>
+        <v>801|1|7643048364;805|2|7643048364;806|2|7643048364</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68006A8E-C05B-4301-8FF3-9F0950E75D67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7665E5F3-ACA4-4C71-9415-8F4FD7556FFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="1812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="1813">
   <si>
     <t>ID</t>
   </si>
@@ -5951,18 +5951,6 @@
     <t>503|1|1134219;504|2|1134219;505|2|1134219</t>
   </si>
   <si>
-    <t>101|1</t>
-  </si>
-  <si>
-    <t>104|2|147;105|2|147;101|1|147</t>
-  </si>
-  <si>
-    <t>104|2|280;105|2|280;101|1|280</t>
-  </si>
-  <si>
-    <t>105|2|536;106|2|536;101|1|536</t>
-  </si>
-  <si>
     <t>304|2|3170;305|2|3170;301|1|3170</t>
   </si>
   <si>
@@ -5983,6 +5971,23 @@
   </si>
   <si>
     <t>101|1|742;104|2|742;105|1|742;106|1|742</t>
+  </si>
+  <si>
+    <t>suhuazi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>103|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>104|2|147;105|2|147;103|1|147</t>
+  </si>
+  <si>
+    <t>104|2|280;105|2|280;103|1|280</t>
+  </si>
+  <si>
+    <t>105|2|536;106|2|536;103|1|536</t>
   </si>
 </sst>
 </file>
@@ -6472,9 +6477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6883,10 +6888,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>162</v>
+        <v>1808</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>58</v>
@@ -6922,8 +6927,8 @@
       <c r="Q9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>1801</v>
+      <c r="R9" s="11" t="s">
+        <v>1809</v>
       </c>
       <c r="V9" s="1">
         <v>105</v>
@@ -6933,7 +6938,7 @@
       </c>
       <c r="Y9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>104|2|147;105|2|147;101|1|147</v>
+        <v>104|2|147;105|2|147;103|1|147</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -7161,7 +7166,7 @@
         <v>162</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>81</v>
@@ -7198,7 +7203,7 @@
         <v>1732</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="Y14" s="9" t="str">
         <f t="shared" si="1"/>
@@ -7424,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>162</v>
+        <v>1808</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>102</v>
@@ -7463,12 +7468,12 @@
       <c r="Q19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>1801</v>
+      <c r="R19" s="11" t="s">
+        <v>1809</v>
       </c>
       <c r="Y19" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>104|2|280;105|2|280;101|1|280</v>
+        <v>104|2|280;105|2|280;103|1|280</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -7693,7 +7698,7 @@
         <v>162</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>122</v>
@@ -7730,7 +7735,7 @@
         <v>36</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="Y24" s="9" t="str">
         <f t="shared" si="1"/>
@@ -7940,7 +7945,7 @@
       <c r="Q28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" s="11" t="s">
         <v>37</v>
       </c>
       <c r="Y28" s="9" t="str">
@@ -7956,10 +7961,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>162</v>
+        <v>1808</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>142</v>
@@ -7995,12 +8000,12 @@
       <c r="Q29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>1801</v>
+      <c r="R29" s="11" t="s">
+        <v>1809</v>
       </c>
       <c r="Y29" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>105|2|536;106|2|536;101|1|536</v>
+        <v>105|2|536;106|2|536;103|1|536</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -8170,7 +8175,7 @@
         <v>162</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>158</v>
@@ -8201,7 +8206,7 @@
         <v>Food|20;Exp_Role|156;Exp_Kongfu|58</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>35</v>
@@ -8228,7 +8233,7 @@
         <v>162</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>163</v>
@@ -8259,7 +8264,7 @@
         <v>Kongfu|2001|1;Exp_Role|158;Exp_Kongfu|59</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>35</v>
@@ -10395,7 +10400,7 @@
         <v>457</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>375</v>
@@ -10930,7 +10935,7 @@
         <v>457</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>416</v>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="942">
   <si>
     <t>ID</t>
   </si>
@@ -1810,10 +1810,7 @@
     <t>弟子们加快脚步，却被一群五毒弟子拦住去路</t>
   </si>
   <si>
-    <t>Arms|303|1;Exp_Role|4400;Exp_Kongfu|280</t>
-  </si>
-  <si>
-    <t>Arms|303|1</t>
+    <t>Armor|601|1;Exp_Role|4400;Exp_Kongfu|280</t>
   </si>
   <si>
     <t>wudu2</t>
@@ -2950,11 +2947,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2972,21 +2969,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3001,10 +2983,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3024,6 +3030,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3039,9 +3053,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3052,21 +3066,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3086,7 +3085,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3100,19 +3099,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3127,7 +3124,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3184,19 +3181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3214,6 +3205,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3226,7 +3253,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3238,37 +3331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3280,85 +3343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3410,9 +3401,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3428,26 +3454,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3475,31 +3481,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3508,19 +3499,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3529,112 +3520,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4029,11 +4020,11 @@
   <dimension ref="A1:W196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4248,7 +4239,7 @@
         <v>37</v>
       </c>
       <c r="O5" s="3" t="str">
-        <f>N5&amp;";Exp_Role|"&amp;L5&amp;";Exp_Kongfu|"&amp;M5</f>
+        <f t="shared" ref="O5:O46" si="0">N5&amp;";Exp_Role|"&amp;L5&amp;";Exp_Kongfu|"&amp;M5</f>
         <v>Item|1002|50;Exp_Role|100;Exp_Kongfu|40</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -4261,7 +4252,7 @@
         <v>40</v>
       </c>
       <c r="W5" s="16" t="str">
-        <f>Q5&amp;"|"&amp;ROUND(H5/5,0)&amp;IF(R5="","",";"&amp;R5&amp;"|"&amp;ROUND(H5/5,0)&amp;IF(S5="","",";"&amp;S5&amp;"|"&amp;ROUND(H5/5,0)&amp;IF(T5="","",";"&amp;T5&amp;"|"&amp;ROUND(H5/5,0)&amp;IF(U5="","",";"&amp;U5&amp;"|"&amp;ROUND(H5/5,0)))))</f>
+        <f t="shared" ref="W5:W46" si="1">Q5&amp;"|"&amp;ROUND(H5/5,0)&amp;IF(R5="","",";"&amp;R5&amp;"|"&amp;ROUND(H5/5,0)&amp;IF(S5="","",";"&amp;S5&amp;"|"&amp;ROUND(H5/5,0)&amp;IF(T5="","",";"&amp;T5&amp;"|"&amp;ROUND(H5/5,0)&amp;IF(U5="","",";"&amp;U5&amp;"|"&amp;ROUND(H5/5,0)))))</f>
         <v>104|2|113;105|2|113;106|1|113</v>
       </c>
     </row>
@@ -4306,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f>N6&amp;";Exp_Role|"&amp;L6&amp;";Exp_Kongfu|"&amp;M6</f>
+        <f t="shared" si="0"/>
         <v>Item|1001|50;Exp_Role|102;Exp_Kongfu|41</v>
       </c>
       <c r="Q6" s="4" t="s">
@@ -4319,7 +4310,7 @@
         <v>40</v>
       </c>
       <c r="W6" s="16" t="str">
-        <f>Q6&amp;"|"&amp;ROUND(H6/5,0)&amp;IF(R6="","",";"&amp;R6&amp;"|"&amp;ROUND(H6/5,0)&amp;IF(S6="","",";"&amp;S6&amp;"|"&amp;ROUND(H6/5,0)&amp;IF(T6="","",";"&amp;T6&amp;"|"&amp;ROUND(H6/5,0)&amp;IF(U6="","",";"&amp;U6&amp;"|"&amp;ROUND(H6/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|2|123;105|2|123;106|1|123</v>
       </c>
     </row>
@@ -4364,7 +4355,7 @@
         <v>50</v>
       </c>
       <c r="O7" s="7" t="str">
-        <f>N7&amp;";Exp_Role|"&amp;L7&amp;";Exp_Kongfu|"&amp;M7</f>
+        <f t="shared" si="0"/>
         <v>Kongfu|1008|1;Exp_Role|104;Exp_Kongfu|41</v>
       </c>
       <c r="P7" s="15"/>
@@ -4379,7 +4370,7 @@
       </c>
       <c r="V7" s="15"/>
       <c r="W7" s="7" t="str">
-        <f>Q7&amp;"|"&amp;ROUND(H7/5,0)&amp;IF(R7="","",";"&amp;R7&amp;"|"&amp;ROUND(H7/5,0)&amp;IF(S7="","",";"&amp;S7&amp;"|"&amp;ROUND(H7/5,0)&amp;IF(T7="","",";"&amp;T7&amp;"|"&amp;ROUND(H7/5,0)&amp;IF(U7="","",";"&amp;U7&amp;"|"&amp;ROUND(H7/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|2|133;105|2|133;103|1|133</v>
       </c>
     </row>
@@ -4425,7 +4416,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="3" t="str">
-        <f>N8&amp;";Exp_Role|"&amp;L8&amp;";Exp_Kongfu|"&amp;M8</f>
+        <f t="shared" si="0"/>
         <v>Coin|150;Exp_Role|108;Exp_Kongfu|42</v>
       </c>
       <c r="P8"/>
@@ -4440,7 +4431,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="15"/>
       <c r="W8" s="7" t="str">
-        <f>Q8&amp;"|"&amp;ROUND(H8/5,0)&amp;IF(R8="","",";"&amp;R8&amp;"|"&amp;ROUND(H8/5,0)&amp;IF(S8="","",";"&amp;S8&amp;"|"&amp;ROUND(H8/5,0)&amp;IF(T8="","",";"&amp;T8&amp;"|"&amp;ROUND(H8/5,0)&amp;IF(U8="","",";"&amp;U8&amp;"|"&amp;ROUND(H8/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>105|2|143;106|3|143</v>
       </c>
     </row>
@@ -4485,7 +4476,7 @@
         <v>61</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f>N9&amp;";Exp_Role|"&amp;L9&amp;";Exp_Kongfu|"&amp;M9</f>
+        <f t="shared" si="0"/>
         <v>Food|20;Exp_Role|110;Exp_Kongfu|43</v>
       </c>
       <c r="Q9" s="4" t="s">
@@ -4496,7 +4487,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="W9" s="16" t="str">
-        <f>Q9&amp;"|"&amp;ROUND(H9/5,0)&amp;IF(R9="","",";"&amp;R9&amp;"|"&amp;ROUND(H9/5,0)&amp;IF(S9="","",";"&amp;S9&amp;"|"&amp;ROUND(H9/5,0)&amp;IF(T9="","",";"&amp;T9&amp;"|"&amp;ROUND(H9/5,0)&amp;IF(U9="","",";"&amp;U9&amp;"|"&amp;ROUND(H9/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|2|155;106|3|155</v>
       </c>
     </row>
@@ -4542,7 +4533,7 @@
         <v>66</v>
       </c>
       <c r="O10" s="7" t="str">
-        <f>N10&amp;";Exp_Role|"&amp;L10&amp;";Exp_Kongfu|"&amp;M10</f>
+        <f t="shared" si="0"/>
         <v>Item|2001|1;Exp_Role|112;Exp_Kongfu|43</v>
       </c>
       <c r="P10" s="15"/>
@@ -4558,7 +4549,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="W10" s="16" t="str">
-        <f>Q10&amp;"|"&amp;ROUND(H10/5,0)&amp;IF(R10="","",";"&amp;R10&amp;"|"&amp;ROUND(H10/5,0)&amp;IF(S10="","",";"&amp;S10&amp;"|"&amp;ROUND(H10/5,0)&amp;IF(T10="","",";"&amp;T10&amp;"|"&amp;ROUND(H10/5,0)&amp;IF(U10="","",";"&amp;U10&amp;"|"&amp;ROUND(H10/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>105|2|168;106|2|168;101|1|168</v>
       </c>
     </row>
@@ -4603,7 +4594,7 @@
         <v>37</v>
       </c>
       <c r="O11" s="3" t="str">
-        <f>N11&amp;";Exp_Role|"&amp;L11&amp;";Exp_Kongfu|"&amp;M11</f>
+        <f t="shared" si="0"/>
         <v>Item|1002|50;Exp_Role|116;Exp_Kongfu|44</v>
       </c>
       <c r="Q11" s="4" t="s">
@@ -4614,7 +4605,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="W11" s="16" t="str">
-        <f>Q11&amp;"|"&amp;ROUND(H11/5,0)&amp;IF(R11="","",";"&amp;R11&amp;"|"&amp;ROUND(H11/5,0)&amp;IF(S11="","",";"&amp;S11&amp;"|"&amp;ROUND(H11/5,0)&amp;IF(T11="","",";"&amp;T11&amp;"|"&amp;ROUND(H11/5,0)&amp;IF(U11="","",";"&amp;U11&amp;"|"&amp;ROUND(H11/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|3|181;105|2|181</v>
       </c>
     </row>
@@ -4660,7 +4651,7 @@
         <v>44</v>
       </c>
       <c r="O12" s="3" t="str">
-        <f>N12&amp;";Exp_Role|"&amp;L12&amp;";Exp_Kongfu|"&amp;M12</f>
+        <f t="shared" si="0"/>
         <v>Item|1001|50;Exp_Role|118;Exp_Kongfu|45</v>
       </c>
       <c r="P12"/>
@@ -4677,7 +4668,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="15"/>
       <c r="W12" s="7" t="str">
-        <f>Q12&amp;"|"&amp;ROUND(H12/5,0)&amp;IF(R12="","",";"&amp;R12&amp;"|"&amp;ROUND(H12/5,0)&amp;IF(S12="","",";"&amp;S12&amp;"|"&amp;ROUND(H12/5,0)&amp;IF(T12="","",";"&amp;T12&amp;"|"&amp;ROUND(H12/5,0)&amp;IF(U12="","",";"&amp;U12&amp;"|"&amp;ROUND(H12/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|2|196;105|2|196;106|1|196</v>
       </c>
     </row>
@@ -4723,7 +4714,7 @@
         <v>80</v>
       </c>
       <c r="O13" s="7" t="str">
-        <f>N13&amp;";Exp_Role|"&amp;L13&amp;";Exp_Kongfu|"&amp;M13</f>
+        <f t="shared" si="0"/>
         <v>Kongfu|1011|1;Exp_Role|120;Exp_Kongfu|45</v>
       </c>
       <c r="P13" s="15"/>
@@ -4739,7 +4730,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="W13" s="16" t="str">
-        <f>Q13&amp;"|"&amp;ROUND(H13/5,0)&amp;IF(R13="","",";"&amp;R13&amp;"|"&amp;ROUND(H13/5,0)&amp;IF(S13="","",";"&amp;S13&amp;"|"&amp;ROUND(H13/5,0)&amp;IF(T13="","",";"&amp;T13&amp;"|"&amp;ROUND(H13/5,0)&amp;IF(U13="","",";"&amp;U13&amp;"|"&amp;ROUND(H13/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|2|212;105|2|212;103|1|212</v>
       </c>
     </row>
@@ -4784,7 +4775,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="3" t="str">
-        <f>N14&amp;";Exp_Role|"&amp;L14&amp;";Exp_Kongfu|"&amp;M14</f>
+        <f t="shared" si="0"/>
         <v>Coin|150;Exp_Role|124;Exp_Kongfu|46</v>
       </c>
       <c r="Q14" s="4" t="s">
@@ -4795,7 +4786,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="W14" s="16" t="str">
-        <f>Q14&amp;"|"&amp;ROUND(H14/5,0)&amp;IF(R14="","",";"&amp;R14&amp;"|"&amp;ROUND(H14/5,0)&amp;IF(S14="","",";"&amp;S14&amp;"|"&amp;ROUND(H14/5,0)&amp;IF(T14="","",";"&amp;T14&amp;"|"&amp;ROUND(H14/5,0)&amp;IF(U14="","",";"&amp;U14&amp;"|"&amp;ROUND(H14/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|3|229;106|2|229</v>
       </c>
     </row>
@@ -4840,7 +4831,7 @@
         <v>61</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f>N15&amp;";Exp_Role|"&amp;L15&amp;";Exp_Kongfu|"&amp;M15</f>
+        <f t="shared" si="0"/>
         <v>Food|20;Exp_Role|126;Exp_Kongfu|47</v>
       </c>
       <c r="Q15" s="4" t="s">
@@ -4851,7 +4842,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="W15" s="16" t="str">
-        <f>Q15&amp;"|"&amp;ROUND(H15/5,0)&amp;IF(R15="","",";"&amp;R15&amp;"|"&amp;ROUND(H15/5,0)&amp;IF(S15="","",";"&amp;S15&amp;"|"&amp;ROUND(H15/5,0)&amp;IF(T15="","",";"&amp;T15&amp;"|"&amp;ROUND(H15/5,0)&amp;IF(U15="","",";"&amp;U15&amp;"|"&amp;ROUND(H15/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>105|3|248;106|2|248</v>
       </c>
     </row>
@@ -4896,7 +4887,7 @@
         <v>91</v>
       </c>
       <c r="O16" s="7" t="str">
-        <f>N16&amp;";Exp_Role|"&amp;L16&amp;";Exp_Kongfu|"&amp;M16</f>
+        <f t="shared" si="0"/>
         <v>Arms|101|1;Exp_Role|128;Exp_Kongfu|47</v>
       </c>
       <c r="P16" s="15"/>
@@ -4911,7 +4902,7 @@
       </c>
       <c r="V16" s="15"/>
       <c r="W16" s="7" t="str">
-        <f>Q16&amp;"|"&amp;ROUND(H16/5,0)&amp;IF(R16="","",";"&amp;R16&amp;"|"&amp;ROUND(H16/5,0)&amp;IF(S16="","",";"&amp;S16&amp;"|"&amp;ROUND(H16/5,0)&amp;IF(T16="","",";"&amp;T16&amp;"|"&amp;ROUND(H16/5,0)&amp;IF(U16="","",";"&amp;U16&amp;"|"&amp;ROUND(H16/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|2|268;105|2|268;101|1|268</v>
       </c>
     </row>
@@ -4956,7 +4947,7 @@
         <v>37</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f>N17&amp;";Exp_Role|"&amp;L17&amp;";Exp_Kongfu|"&amp;M17</f>
+        <f t="shared" si="0"/>
         <v>Item|1002|50;Exp_Role|132;Exp_Kongfu|48</v>
       </c>
       <c r="Q17" s="4" t="s">
@@ -4967,7 +4958,7 @@
       </c>
       <c r="S17" s="4"/>
       <c r="W17" s="16" t="str">
-        <f>Q17&amp;"|"&amp;ROUND(H17/5,0)&amp;IF(R17="","",";"&amp;R17&amp;"|"&amp;ROUND(H17/5,0)&amp;IF(S17="","",";"&amp;S17&amp;"|"&amp;ROUND(H17/5,0)&amp;IF(T17="","",";"&amp;T17&amp;"|"&amp;ROUND(H17/5,0)&amp;IF(U17="","",";"&amp;U17&amp;"|"&amp;ROUND(H17/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|3|290;106|2|290</v>
       </c>
     </row>
@@ -5012,7 +5003,7 @@
         <v>44</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f>N18&amp;";Exp_Role|"&amp;L18&amp;";Exp_Kongfu|"&amp;M18</f>
+        <f t="shared" si="0"/>
         <v>Item|1001|50;Exp_Role|134;Exp_Kongfu|49</v>
       </c>
       <c r="Q18" s="4" t="s">
@@ -5023,7 +5014,7 @@
       </c>
       <c r="S18" s="4"/>
       <c r="W18" s="16" t="str">
-        <f>Q18&amp;"|"&amp;ROUND(H18/5,0)&amp;IF(R18="","",";"&amp;R18&amp;"|"&amp;ROUND(H18/5,0)&amp;IF(S18="","",";"&amp;S18&amp;"|"&amp;ROUND(H18/5,0)&amp;IF(T18="","",";"&amp;T18&amp;"|"&amp;ROUND(H18/5,0)&amp;IF(U18="","",";"&amp;U18&amp;"|"&amp;ROUND(H18/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>105|3|313;106|2|313</v>
       </c>
     </row>
@@ -5069,7 +5060,7 @@
         <v>101</v>
       </c>
       <c r="O19" s="7" t="str">
-        <f>N19&amp;";Exp_Role|"&amp;L19&amp;";Exp_Kongfu|"&amp;M19</f>
+        <f t="shared" si="0"/>
         <v>Medicine|101|1;Exp_Role|136;Exp_Kongfu|49</v>
       </c>
       <c r="P19" s="15"/>
@@ -5085,7 +5076,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="W19" s="16" t="str">
-        <f>Q19&amp;"|"&amp;ROUND(H19/5,0)&amp;IF(R19="","",";"&amp;R19&amp;"|"&amp;ROUND(H19/5,0)&amp;IF(S19="","",";"&amp;S19&amp;"|"&amp;ROUND(H19/5,0)&amp;IF(T19="","",";"&amp;T19&amp;"|"&amp;ROUND(H19/5,0)&amp;IF(U19="","",";"&amp;U19&amp;"|"&amp;ROUND(H19/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>105|2|339;106|2|339;103|1|339</v>
       </c>
     </row>
@@ -5131,7 +5122,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f>N20&amp;";Exp_Role|"&amp;L20&amp;";Exp_Kongfu|"&amp;M20</f>
+        <f t="shared" si="0"/>
         <v>Coin|150;Exp_Role|138;Exp_Kongfu|50</v>
       </c>
       <c r="P20"/>
@@ -5146,7 +5137,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="15"/>
       <c r="W20" s="7" t="str">
-        <f>Q20&amp;"|"&amp;ROUND(H20/5,0)&amp;IF(R20="","",";"&amp;R20&amp;"|"&amp;ROUND(H20/5,0)&amp;IF(S20="","",";"&amp;S20&amp;"|"&amp;ROUND(H20/5,0)&amp;IF(T20="","",";"&amp;T20&amp;"|"&amp;ROUND(H20/5,0)&amp;IF(U20="","",";"&amp;U20&amp;"|"&amp;ROUND(H20/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|3|366;106|2|366</v>
       </c>
     </row>
@@ -5191,7 +5182,7 @@
         <v>61</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f>N21&amp;";Exp_Role|"&amp;L21&amp;";Exp_Kongfu|"&amp;M21</f>
+        <f t="shared" si="0"/>
         <v>Food|20;Exp_Role|140;Exp_Kongfu|50</v>
       </c>
       <c r="Q21" s="4" t="s">
@@ -5202,7 +5193,7 @@
       </c>
       <c r="S21" s="4"/>
       <c r="W21" s="16" t="str">
-        <f>Q21&amp;"|"&amp;ROUND(H21/5,0)&amp;IF(R21="","",";"&amp;R21&amp;"|"&amp;ROUND(H21/5,0)&amp;IF(S21="","",";"&amp;S21&amp;"|"&amp;ROUND(H21/5,0)&amp;IF(T21="","",";"&amp;T21&amp;"|"&amp;ROUND(H21/5,0)&amp;IF(U21="","",";"&amp;U21&amp;"|"&amp;ROUND(H21/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|3|396;106|2|396</v>
       </c>
     </row>
@@ -5248,7 +5239,7 @@
         <v>111</v>
       </c>
       <c r="O22" s="7" t="str">
-        <f>N22&amp;";Exp_Role|"&amp;L22&amp;";Exp_Kongfu|"&amp;M22</f>
+        <f t="shared" si="0"/>
         <v>Item|2002|1;Exp_Role|142;Exp_Kongfu|51</v>
       </c>
       <c r="P22" s="15"/>
@@ -5266,7 +5257,7 @@
       </c>
       <c r="U22" s="7"/>
       <c r="W22" s="16" t="str">
-        <f>Q22&amp;"|"&amp;ROUND(H22/5,0)&amp;IF(R22="","",";"&amp;R22&amp;"|"&amp;ROUND(H22/5,0)&amp;IF(S22="","",";"&amp;S22&amp;"|"&amp;ROUND(H22/5,0)&amp;IF(T22="","",";"&amp;T22&amp;"|"&amp;ROUND(H22/5,0)&amp;IF(U22="","",";"&amp;U22&amp;"|"&amp;ROUND(H22/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>101|1|428;104|2|428;105|1|428;106|1|428</v>
       </c>
     </row>
@@ -5311,7 +5302,7 @@
         <v>37</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f>N23&amp;";Exp_Role|"&amp;L23&amp;";Exp_Kongfu|"&amp;M23</f>
+        <f t="shared" si="0"/>
         <v>Item|1002|50;Exp_Role|144;Exp_Kongfu|52</v>
       </c>
       <c r="Q23" s="4" t="s">
@@ -5322,7 +5313,7 @@
       </c>
       <c r="S23" s="4"/>
       <c r="W23" s="16" t="str">
-        <f>Q23&amp;"|"&amp;ROUND(H23/5,0)&amp;IF(R23="","",";"&amp;R23&amp;"|"&amp;ROUND(H23/5,0)&amp;IF(S23="","",";"&amp;S23&amp;"|"&amp;ROUND(H23/5,0)&amp;IF(T23="","",";"&amp;T23&amp;"|"&amp;ROUND(H23/5,0)&amp;IF(U23="","",";"&amp;U23&amp;"|"&amp;ROUND(H23/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>105|3|463;106|2|463</v>
       </c>
     </row>
@@ -5368,7 +5359,7 @@
         <v>44</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f>N24&amp;";Exp_Role|"&amp;L24&amp;";Exp_Kongfu|"&amp;M24</f>
+        <f t="shared" si="0"/>
         <v>Item|1001|50;Exp_Role|148;Exp_Kongfu|54</v>
       </c>
       <c r="P24"/>
@@ -5383,7 +5374,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="15"/>
       <c r="W24" s="7" t="str">
-        <f>Q24&amp;"|"&amp;ROUND(H24/5,0)&amp;IF(R24="","",";"&amp;R24&amp;"|"&amp;ROUND(H24/5,0)&amp;IF(S24="","",";"&amp;S24&amp;"|"&amp;ROUND(H24/5,0)&amp;IF(T24="","",";"&amp;T24&amp;"|"&amp;ROUND(H24/5,0)&amp;IF(U24="","",";"&amp;U24&amp;"|"&amp;ROUND(H24/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>105|2|501;106|3|501</v>
       </c>
     </row>
@@ -5429,7 +5420,7 @@
         <v>122</v>
       </c>
       <c r="O25" s="7" t="str">
-        <f>N25&amp;";Exp_Role|"&amp;L25&amp;";Exp_Kongfu|"&amp;M25</f>
+        <f t="shared" si="0"/>
         <v>Item|3001|3;Exp_Role|150;Exp_Kongfu|55</v>
       </c>
       <c r="P25" s="15"/>
@@ -5445,7 +5436,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="W25" s="16" t="str">
-        <f>Q25&amp;"|"&amp;ROUND(H25/5,0)&amp;IF(R25="","",";"&amp;R25&amp;"|"&amp;ROUND(H25/5,0)&amp;IF(S25="","",";"&amp;S25&amp;"|"&amp;ROUND(H25/5,0)&amp;IF(T25="","",";"&amp;T25&amp;"|"&amp;ROUND(H25/5,0)&amp;IF(U25="","",";"&amp;U25&amp;"|"&amp;ROUND(H25/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>106|2|542;105|2|542;103|1|542</v>
       </c>
     </row>
@@ -5490,7 +5481,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f>N26&amp;";Exp_Role|"&amp;L26&amp;";Exp_Kongfu|"&amp;M26</f>
+        <f t="shared" si="0"/>
         <v>Coin|150;Exp_Role|152;Exp_Kongfu|56</v>
       </c>
       <c r="Q26" s="4" t="s">
@@ -5501,7 +5492,7 @@
       </c>
       <c r="S26" s="4"/>
       <c r="W26" s="16" t="str">
-        <f>Q26&amp;"|"&amp;ROUND(H26/5,0)&amp;IF(R26="","",";"&amp;R26&amp;"|"&amp;ROUND(H26/5,0)&amp;IF(S26="","",";"&amp;S26&amp;"|"&amp;ROUND(H26/5,0)&amp;IF(T26="","",";"&amp;T26&amp;"|"&amp;ROUND(H26/5,0)&amp;IF(U26="","",";"&amp;U26&amp;"|"&amp;ROUND(H26/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|3|586;105|2|586</v>
       </c>
     </row>
@@ -5546,7 +5537,7 @@
         <v>61</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f>N27&amp;";Exp_Role|"&amp;L27&amp;";Exp_Kongfu|"&amp;M27</f>
+        <f t="shared" si="0"/>
         <v>Food|20;Exp_Role|154;Exp_Kongfu|57</v>
       </c>
       <c r="Q27" s="4" t="s">
@@ -5559,7 +5550,7 @@
         <v>40</v>
       </c>
       <c r="W27" s="16" t="str">
-        <f>Q27&amp;"|"&amp;ROUND(H27/5,0)&amp;IF(R27="","",";"&amp;R27&amp;"|"&amp;ROUND(H27/5,0)&amp;IF(S27="","",";"&amp;S27&amp;"|"&amp;ROUND(H27/5,0)&amp;IF(T27="","",";"&amp;T27&amp;"|"&amp;ROUND(H27/5,0)&amp;IF(U27="","",";"&amp;U27&amp;"|"&amp;ROUND(H27/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>104|2|633;105|2|633;106|1|633</v>
       </c>
     </row>
@@ -5604,7 +5595,7 @@
         <v>132</v>
       </c>
       <c r="O28" s="7" t="str">
-        <f>N28&amp;";Exp_Role|"&amp;L28&amp;";Exp_Kongfu|"&amp;M28</f>
+        <f t="shared" si="0"/>
         <v>Kongfu|2001|1;Exp_Role|158;Exp_Kongfu|59</v>
       </c>
       <c r="P28" s="15"/>
@@ -5622,7 +5613,7 @@
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="7" t="str">
-        <f>Q28&amp;"|"&amp;ROUND(H28/5,0)&amp;IF(R28="","",";"&amp;R28&amp;"|"&amp;ROUND(H28/5,0)&amp;IF(S28="","",";"&amp;S28&amp;"|"&amp;ROUND(H28/5,0)&amp;IF(T28="","",";"&amp;T28&amp;"|"&amp;ROUND(H28/5,0)&amp;IF(U28="","",";"&amp;U28&amp;"|"&amp;ROUND(H28/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>101|1|684;104|1|684;105|1|684;106|2|684</v>
       </c>
     </row>
@@ -5667,14 +5658,14 @@
         <v>139</v>
       </c>
       <c r="O29" s="3" t="str">
-        <f>N29&amp;";Exp_Role|"&amp;L29&amp;";Exp_Kongfu|"&amp;M29</f>
+        <f t="shared" si="0"/>
         <v>Item|1002|100;Exp_Role|160;Exp_Kongfu|60</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>140</v>
       </c>
       <c r="W29" s="16" t="str">
-        <f>Q29&amp;"|"&amp;ROUND(H29/5,0)&amp;IF(R29="","",";"&amp;R29&amp;"|"&amp;ROUND(H29/5,0)&amp;IF(S29="","",";"&amp;S29&amp;"|"&amp;ROUND(H29/5,0)&amp;IF(T29="","",";"&amp;T29&amp;"|"&amp;ROUND(H29/5,0)&amp;IF(U29="","",";"&amp;U29&amp;"|"&amp;ROUND(H29/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|5|386</v>
       </c>
     </row>
@@ -5719,14 +5710,14 @@
         <v>144</v>
       </c>
       <c r="O30" s="3" t="str">
-        <f>N30&amp;";Exp_Role|"&amp;L30&amp;";Exp_Kongfu|"&amp;M30</f>
+        <f t="shared" si="0"/>
         <v>Item|1001|100;Exp_Role|164;Exp_Kongfu|61</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>140</v>
       </c>
       <c r="W30" s="16" t="str">
-        <f>Q30&amp;"|"&amp;ROUND(H30/5,0)&amp;IF(R30="","",";"&amp;R30&amp;"|"&amp;ROUND(H30/5,0)&amp;IF(S30="","",";"&amp;S30&amp;"|"&amp;ROUND(H30/5,0)&amp;IF(T30="","",";"&amp;T30&amp;"|"&amp;ROUND(H30/5,0)&amp;IF(U30="","",";"&amp;U30&amp;"|"&amp;ROUND(H30/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|5|424</v>
       </c>
     </row>
@@ -5771,7 +5762,7 @@
         <v>149</v>
       </c>
       <c r="O31" s="7" t="str">
-        <f>N31&amp;";Exp_Role|"&amp;L31&amp;";Exp_Kongfu|"&amp;M31</f>
+        <f t="shared" si="0"/>
         <v>Kongfu|1009|1;Exp_Role|168;Exp_Kongfu|62</v>
       </c>
       <c r="P31" s="15"/>
@@ -5786,7 +5777,7 @@
       </c>
       <c r="V31" s="15"/>
       <c r="W31" s="7" t="str">
-        <f>Q31&amp;"|"&amp;ROUND(H31/5,0)&amp;IF(R31="","",";"&amp;R31&amp;"|"&amp;ROUND(H31/5,0)&amp;IF(S31="","",";"&amp;S31&amp;"|"&amp;ROUND(H31/5,0)&amp;IF(T31="","",";"&amp;T31&amp;"|"&amp;ROUND(H31/5,0)&amp;IF(U31="","",";"&amp;U31&amp;"|"&amp;ROUND(H31/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>205|2|466;204|2|466;202|1|466</v>
       </c>
     </row>
@@ -5832,7 +5823,7 @@
         <v>157</v>
       </c>
       <c r="O32" s="3" t="str">
-        <f>N32&amp;";Exp_Role|"&amp;L32&amp;";Exp_Kongfu|"&amp;M32</f>
+        <f t="shared" si="0"/>
         <v>Coin|250;Exp_Role|176;Exp_Kongfu|64</v>
       </c>
       <c r="P32"/>
@@ -5847,7 +5838,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="15"/>
       <c r="W32" s="7" t="str">
-        <f>Q32&amp;"|"&amp;ROUND(H32/5,0)&amp;IF(R32="","",";"&amp;R32&amp;"|"&amp;ROUND(H32/5,0)&amp;IF(S32="","",";"&amp;S32&amp;"|"&amp;ROUND(H32/5,0)&amp;IF(T32="","",";"&amp;T32&amp;"|"&amp;ROUND(H32/5,0)&amp;IF(U32="","",";"&amp;U32&amp;"|"&amp;ROUND(H32/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|4|512;206|1|512</v>
       </c>
     </row>
@@ -5892,7 +5883,7 @@
         <v>163</v>
       </c>
       <c r="O33" s="3" t="str">
-        <f>N33&amp;";Exp_Role|"&amp;L33&amp;";Exp_Kongfu|"&amp;M33</f>
+        <f t="shared" si="0"/>
         <v>Food|25;Exp_Role|180;Exp_Kongfu|65</v>
       </c>
       <c r="Q33" s="4" t="s">
@@ -5902,7 +5893,7 @@
         <v>164</v>
       </c>
       <c r="W33" s="16" t="str">
-        <f>Q33&amp;"|"&amp;ROUND(H33/5,0)&amp;IF(R33="","",";"&amp;R33&amp;"|"&amp;ROUND(H33/5,0)&amp;IF(S33="","",";"&amp;S33&amp;"|"&amp;ROUND(H33/5,0)&amp;IF(T33="","",";"&amp;T33&amp;"|"&amp;ROUND(H33/5,0)&amp;IF(U33="","",";"&amp;U33&amp;"|"&amp;ROUND(H33/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|2|562;205|3|562</v>
       </c>
     </row>
@@ -5948,7 +5939,7 @@
         <v>111</v>
       </c>
       <c r="O34" s="7" t="str">
-        <f>N34&amp;";Exp_Role|"&amp;L34&amp;";Exp_Kongfu|"&amp;M34</f>
+        <f t="shared" si="0"/>
         <v>Item|2002|1;Exp_Role|184;Exp_Kongfu|66</v>
       </c>
       <c r="P34" s="15"/>
@@ -5964,7 +5955,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="W34" s="16" t="str">
-        <f>Q34&amp;"|"&amp;ROUND(H34/5,0)&amp;IF(R34="","",";"&amp;R34&amp;"|"&amp;ROUND(H34/5,0)&amp;IF(S34="","",";"&amp;S34&amp;"|"&amp;ROUND(H34/5,0)&amp;IF(T34="","",";"&amp;T34&amp;"|"&amp;ROUND(H34/5,0)&amp;IF(U34="","",";"&amp;U34&amp;"|"&amp;ROUND(H34/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|2|617;205|2|617;203|1|617</v>
       </c>
     </row>
@@ -6009,7 +6000,7 @@
         <v>139</v>
       </c>
       <c r="O35" s="3" t="str">
-        <f>N35&amp;";Exp_Role|"&amp;L35&amp;";Exp_Kongfu|"&amp;M35</f>
+        <f t="shared" si="0"/>
         <v>Item|1002|100;Exp_Role|192;Exp_Kongfu|68</v>
       </c>
       <c r="Q35" s="4" t="s">
@@ -6019,7 +6010,7 @@
         <v>150</v>
       </c>
       <c r="W35" s="16" t="str">
-        <f>Q35&amp;"|"&amp;ROUND(H35/5,0)&amp;IF(R35="","",";"&amp;R35&amp;"|"&amp;ROUND(H35/5,0)&amp;IF(S35="","",";"&amp;S35&amp;"|"&amp;ROUND(H35/5,0)&amp;IF(T35="","",";"&amp;T35&amp;"|"&amp;ROUND(H35/5,0)&amp;IF(U35="","",";"&amp;U35&amp;"|"&amp;ROUND(H35/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|3|678;205|2|678</v>
       </c>
     </row>
@@ -6065,7 +6056,7 @@
         <v>144</v>
       </c>
       <c r="O36" s="3" t="str">
-        <f>N36&amp;";Exp_Role|"&amp;L36&amp;";Exp_Kongfu|"&amp;M36</f>
+        <f t="shared" si="0"/>
         <v>Item|1001|100;Exp_Role|196;Exp_Kongfu|69</v>
       </c>
       <c r="P36"/>
@@ -6078,7 +6069,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="15"/>
       <c r="W36" s="7" t="str">
-        <f>Q36&amp;"|"&amp;ROUND(H36/5,0)&amp;IF(R36="","",";"&amp;R36&amp;"|"&amp;ROUND(H36/5,0)&amp;IF(S36="","",";"&amp;S36&amp;"|"&amp;ROUND(H36/5,0)&amp;IF(T36="","",";"&amp;T36&amp;"|"&amp;ROUND(H36/5,0)&amp;IF(U36="","",";"&amp;U36&amp;"|"&amp;ROUND(H36/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>206|5|745</v>
       </c>
     </row>
@@ -6124,7 +6115,7 @@
         <v>182</v>
       </c>
       <c r="O37" s="7" t="str">
-        <f>N37&amp;";Exp_Role|"&amp;L37&amp;";Exp_Kongfu|"&amp;M37</f>
+        <f t="shared" si="0"/>
         <v>Armor|501|1;Exp_Role|200;Exp_Kongfu|70</v>
       </c>
       <c r="P37" s="15"/>
@@ -6138,7 +6129,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="W37" s="16" t="str">
-        <f>Q37&amp;"|"&amp;ROUND(H37/5,0)&amp;IF(R37="","",";"&amp;R37&amp;"|"&amp;ROUND(H37/5,0)&amp;IF(S37="","",";"&amp;S37&amp;"|"&amp;ROUND(H37/5,0)&amp;IF(T37="","",";"&amp;T37&amp;"|"&amp;ROUND(H37/5,0)&amp;IF(U37="","",";"&amp;U37&amp;"|"&amp;ROUND(H37/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>205|4|818;202|1|818</v>
       </c>
     </row>
@@ -6183,16 +6174,14 @@
         <v>157</v>
       </c>
       <c r="O38" s="3" t="str">
-        <f>N38&amp;";Exp_Role|"&amp;L38&amp;";Exp_Kongfu|"&amp;M38</f>
+        <f t="shared" si="0"/>
         <v>Coin|250;Exp_Role|216;Exp_Kongfu|72</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
       <c r="W38" s="16" t="str">
-        <f>Q38&amp;"|"&amp;ROUND(H38/5,0)&amp;IF(R38="","",";"&amp;R38&amp;"|"&amp;ROUND(H38/5,0)&amp;IF(S38="","",";"&amp;S38&amp;"|"&amp;ROUND(H38/5,0)&amp;IF(T38="","",";"&amp;T38&amp;"|"&amp;ROUND(H38/5,0)&amp;IF(U38="","",";"&amp;U38&amp;"|"&amp;ROUND(H38/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|5|898</v>
       </c>
     </row>
@@ -6237,14 +6226,14 @@
         <v>163</v>
       </c>
       <c r="O39" s="3" t="str">
-        <f>N39&amp;";Exp_Role|"&amp;L39&amp;";Exp_Kongfu|"&amp;M39</f>
+        <f t="shared" si="0"/>
         <v>Food|25;Exp_Role|224;Exp_Kongfu|73</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>190</v>
       </c>
       <c r="W39" s="16" t="str">
-        <f>Q39&amp;"|"&amp;ROUND(H39/5,0)&amp;IF(R39="","",";"&amp;R39&amp;"|"&amp;ROUND(H39/5,0)&amp;IF(S39="","",";"&amp;S39&amp;"|"&amp;ROUND(H39/5,0)&amp;IF(T39="","",";"&amp;T39&amp;"|"&amp;ROUND(H39/5,0)&amp;IF(U39="","",";"&amp;U39&amp;"|"&amp;ROUND(H39/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>205|5|987</v>
       </c>
     </row>
@@ -6289,7 +6278,7 @@
         <v>194</v>
       </c>
       <c r="O40" s="7" t="str">
-        <f>N40&amp;";Exp_Role|"&amp;L40&amp;";Exp_Kongfu|"&amp;M40</f>
+        <f t="shared" si="0"/>
         <v>Kongfu|1007|1;Exp_Role|232;Exp_Kongfu|74</v>
       </c>
       <c r="P40" s="15"/>
@@ -6307,7 +6296,7 @@
       </c>
       <c r="V40" s="15"/>
       <c r="W40" s="7" t="str">
-        <f>Q40&amp;"|"&amp;ROUND(H40/5,0)&amp;IF(R40="","",";"&amp;R40&amp;"|"&amp;ROUND(H40/5,0)&amp;IF(S40="","",";"&amp;S40&amp;"|"&amp;ROUND(H40/5,0)&amp;IF(T40="","",";"&amp;T40&amp;"|"&amp;ROUND(H40/5,0)&amp;IF(U40="","",";"&amp;U40&amp;"|"&amp;ROUND(H40/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>203|1|1084;204|2|1084;205|1|1084;206|1|1084</v>
       </c>
     </row>
@@ -6352,7 +6341,7 @@
         <v>139</v>
       </c>
       <c r="O41" s="3" t="str">
-        <f>N41&amp;";Exp_Role|"&amp;L41&amp;";Exp_Kongfu|"&amp;M41</f>
+        <f t="shared" si="0"/>
         <v>Item|1002|100;Exp_Role|248;Exp_Kongfu|76</v>
       </c>
       <c r="Q41" s="4" t="s">
@@ -6365,7 +6354,7 @@
         <v>200</v>
       </c>
       <c r="W41" s="16" t="str">
-        <f>Q41&amp;"|"&amp;ROUND(H41/5,0)&amp;IF(R41="","",";"&amp;R41&amp;"|"&amp;ROUND(H41/5,0)&amp;IF(S41="","",";"&amp;S41&amp;"|"&amp;ROUND(H41/5,0)&amp;IF(T41="","",";"&amp;T41&amp;"|"&amp;ROUND(H41/5,0)&amp;IF(U41="","",";"&amp;U41&amp;"|"&amp;ROUND(H41/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|1|1190;205|2|1190;206|2|1190</v>
       </c>
     </row>
@@ -6410,7 +6399,7 @@
         <v>144</v>
       </c>
       <c r="O42" s="3" t="str">
-        <f>N42&amp;";Exp_Role|"&amp;L42&amp;";Exp_Kongfu|"&amp;M42</f>
+        <f t="shared" si="0"/>
         <v>Item|1001|100;Exp_Role|256;Exp_Kongfu|77</v>
       </c>
       <c r="Q42" s="4" t="s">
@@ -6420,7 +6409,7 @@
         <v>173</v>
       </c>
       <c r="W42" s="16" t="str">
-        <f>Q42&amp;"|"&amp;ROUND(H42/5,0)&amp;IF(R42="","",";"&amp;R42&amp;"|"&amp;ROUND(H42/5,0)&amp;IF(S42="","",";"&amp;S42&amp;"|"&amp;ROUND(H42/5,0)&amp;IF(T42="","",";"&amp;T42&amp;"|"&amp;ROUND(H42/5,0)&amp;IF(U42="","",";"&amp;U42&amp;"|"&amp;ROUND(H42/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>205|2|1308;204|3|1308</v>
       </c>
     </row>
@@ -6466,7 +6455,7 @@
         <v>101</v>
       </c>
       <c r="O43" s="7" t="str">
-        <f>N43&amp;";Exp_Role|"&amp;L43&amp;";Exp_Kongfu|"&amp;M43</f>
+        <f t="shared" si="0"/>
         <v>Medicine|101|1;Exp_Role|264;Exp_Kongfu|78</v>
       </c>
       <c r="P43" s="15"/>
@@ -6484,7 +6473,7 @@
       </c>
       <c r="U43" s="7"/>
       <c r="W43" s="16" t="str">
-        <f>Q43&amp;"|"&amp;ROUND(H43/5,0)&amp;IF(R43="","",";"&amp;R43&amp;"|"&amp;ROUND(H43/5,0)&amp;IF(S43="","",";"&amp;S43&amp;"|"&amp;ROUND(H43/5,0)&amp;IF(T43="","",";"&amp;T43&amp;"|"&amp;ROUND(H43/5,0)&amp;IF(U43="","",";"&amp;U43&amp;"|"&amp;ROUND(H43/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|2|1436;205|1|1436;206|1|1436;202|1|1436</v>
       </c>
     </row>
@@ -6530,7 +6519,7 @@
         <v>157</v>
       </c>
       <c r="O44" s="3" t="str">
-        <f>N44&amp;";Exp_Role|"&amp;L44&amp;";Exp_Kongfu|"&amp;M44</f>
+        <f t="shared" si="0"/>
         <v>Coin|250;Exp_Role|272;Exp_Kongfu|79</v>
       </c>
       <c r="P44"/>
@@ -6545,7 +6534,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="15"/>
       <c r="W44" s="7" t="str">
-        <f>Q44&amp;"|"&amp;ROUND(H44/5,0)&amp;IF(R44="","",";"&amp;R44&amp;"|"&amp;ROUND(H44/5,0)&amp;IF(S44="","",";"&amp;S44&amp;"|"&amp;ROUND(H44/5,0)&amp;IF(T44="","",";"&amp;T44&amp;"|"&amp;ROUND(H44/5,0)&amp;IF(U44="","",";"&amp;U44&amp;"|"&amp;ROUND(H44/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|4|1578;205|1|1578</v>
       </c>
     </row>
@@ -6590,7 +6579,7 @@
         <v>163</v>
       </c>
       <c r="O45" s="3" t="str">
-        <f>N45&amp;";Exp_Role|"&amp;L45&amp;";Exp_Kongfu|"&amp;M45</f>
+        <f t="shared" si="0"/>
         <v>Food|25;Exp_Role|288;Exp_Kongfu|81</v>
       </c>
       <c r="Q45" s="4" t="s">
@@ -6603,7 +6592,7 @@
         <v>159</v>
       </c>
       <c r="W45" s="16" t="str">
-        <f>Q45&amp;"|"&amp;ROUND(H45/5,0)&amp;IF(R45="","",";"&amp;R45&amp;"|"&amp;ROUND(H45/5,0)&amp;IF(S45="","",";"&amp;S45&amp;"|"&amp;ROUND(H45/5,0)&amp;IF(T45="","",";"&amp;T45&amp;"|"&amp;ROUND(H45/5,0)&amp;IF(U45="","",";"&amp;U45&amp;"|"&amp;ROUND(H45/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>204|2|1733;205|2|1733;206|1|1733</v>
       </c>
     </row>
@@ -6649,7 +6638,7 @@
         <v>111</v>
       </c>
       <c r="O46" s="7" t="str">
-        <f>N46&amp;";Exp_Role|"&amp;L46&amp;";Exp_Kongfu|"&amp;M46</f>
+        <f t="shared" si="0"/>
         <v>Item|2002|1;Exp_Role|296;Exp_Kongfu|82</v>
       </c>
       <c r="P46" s="15"/>
@@ -6667,7 +6656,7 @@
       </c>
       <c r="U46" s="7"/>
       <c r="W46" s="16" t="str">
-        <f>Q46&amp;"|"&amp;ROUND(H46/5,0)&amp;IF(R46="","",";"&amp;R46&amp;"|"&amp;ROUND(H46/5,0)&amp;IF(S46="","",";"&amp;S46&amp;"|"&amp;ROUND(H46/5,0)&amp;IF(T46="","",";"&amp;T46&amp;"|"&amp;ROUND(H46/5,0)&amp;IF(U46="","",";"&amp;U46&amp;"|"&amp;ROUND(H46/5,0)))))</f>
+        <f t="shared" si="1"/>
         <v>203|1|1903;204|2|1903;205|1|1903;206|1|1903</v>
       </c>
     </row>
@@ -6713,7 +6702,7 @@
         <v>139</v>
       </c>
       <c r="O47" s="3" t="str">
-        <f t="shared" ref="O47:O57" si="0">N47&amp;";Exp_Role|"&amp;L47&amp;";Exp_Kongfu|"&amp;M47</f>
+        <f t="shared" ref="O47:O110" si="2">N47&amp;";Exp_Role|"&amp;L47&amp;";Exp_Kongfu|"&amp;M47</f>
         <v>Item|1002|100;Exp_Role|312;Exp_Kongfu|84</v>
       </c>
       <c r="P47"/>
@@ -6726,7 +6715,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="15"/>
       <c r="W47" s="7" t="str">
-        <f t="shared" ref="W47:W57" si="1">Q47&amp;"|"&amp;ROUND(H47/5,0)&amp;IF(R47="","",";"&amp;R47&amp;"|"&amp;ROUND(H47/5,0)&amp;IF(S47="","",";"&amp;S47&amp;"|"&amp;ROUND(H47/5,0)&amp;IF(T47="","",";"&amp;T47&amp;"|"&amp;ROUND(H47/5,0)&amp;IF(U47="","",";"&amp;U47&amp;"|"&amp;ROUND(H47/5,0)))))</f>
+        <f t="shared" ref="W47:W110" si="3">Q47&amp;"|"&amp;ROUND(H47/5,0)&amp;IF(R47="","",";"&amp;R47&amp;"|"&amp;ROUND(H47/5,0)&amp;IF(S47="","",";"&amp;S47&amp;"|"&amp;ROUND(H47/5,0)&amp;IF(T47="","",";"&amp;T47&amp;"|"&amp;ROUND(H47/5,0)&amp;IF(U47="","",";"&amp;U47&amp;"|"&amp;ROUND(H47/5,0)))))</f>
         <v>206|5|2090</v>
       </c>
     </row>
@@ -6771,7 +6760,7 @@
         <v>144</v>
       </c>
       <c r="O48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Item|1001|100;Exp_Role|320;Exp_Kongfu|85</v>
       </c>
       <c r="Q48" s="4" t="s">
@@ -6780,9 +6769,8 @@
       <c r="R48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="S48" s="3"/>
       <c r="W48" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>206|2|2296;205|3|2296</v>
       </c>
     </row>
@@ -6828,7 +6816,7 @@
         <v>225</v>
       </c>
       <c r="O49" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Item|3001|5;Exp_Role|328;Exp_Kongfu|86</v>
       </c>
       <c r="P49" s="15"/>
@@ -6846,7 +6834,7 @@
       </c>
       <c r="U49" s="7"/>
       <c r="W49" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>204|2|2522;205|1|2522;206|1|2522;202|1|2522</v>
       </c>
     </row>
@@ -6891,7 +6879,7 @@
         <v>157</v>
       </c>
       <c r="O50" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Coin|250;Exp_Role|336;Exp_Kongfu|87</v>
       </c>
       <c r="Q50" s="4" t="s">
@@ -6904,7 +6892,7 @@
         <v>159</v>
       </c>
       <c r="W50" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>204|2|2770;205|2|2770;206|1|2770</v>
       </c>
     </row>
@@ -6949,7 +6937,7 @@
         <v>163</v>
       </c>
       <c r="O51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Food|25;Exp_Role|344;Exp_Kongfu|88</v>
       </c>
       <c r="Q51" s="4" t="s">
@@ -6962,7 +6950,7 @@
         <v>159</v>
       </c>
       <c r="W51" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>204|2|3043;205|2|3043;206|1|3043</v>
       </c>
     </row>
@@ -7007,7 +6995,7 @@
         <v>236</v>
       </c>
       <c r="O52" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kongfu|2002|1;Exp_Role|352;Exp_Kongfu|89</v>
       </c>
       <c r="P52" s="15"/>
@@ -7020,7 +7008,7 @@
       <c r="S52" s="12"/>
       <c r="V52" s="15"/>
       <c r="W52" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>201|1|3342;206|4|3342</v>
       </c>
     </row>
@@ -7065,7 +7053,7 @@
         <v>244</v>
       </c>
       <c r="O53" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Item|1002|150;Exp_Role|360;Exp_Kongfu|90</v>
       </c>
       <c r="Q53" s="4" t="s">
@@ -7078,7 +7066,7 @@
         <v>247</v>
       </c>
       <c r="W53" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>304|2|1555;305|2|1555;306|1|1555</v>
       </c>
     </row>
@@ -7123,7 +7111,7 @@
         <v>252</v>
       </c>
       <c r="O54" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Item|1001|150;Exp_Role|380;Exp_Kongfu|91</v>
       </c>
       <c r="Q54" s="4" t="s">
@@ -7134,7 +7122,7 @@
       </c>
       <c r="S54" s="4"/>
       <c r="W54" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>304|3|1735;305|2|1735</v>
       </c>
     </row>
@@ -7180,7 +7168,7 @@
         <v>258</v>
       </c>
       <c r="O55" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kongfu|1004|1;Exp_Role|400;Exp_Kongfu|92</v>
       </c>
       <c r="P55" s="15"/>
@@ -7196,7 +7184,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="W55" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>305|2|1937;306|2|1937;302|1|1937</v>
       </c>
     </row>
@@ -7242,7 +7230,7 @@
         <v>265</v>
       </c>
       <c r="O56" s="3" t="str">
-        <f>N56&amp;";Exp_Role|"&amp;L56&amp;";Exp_Kongfu|"&amp;M56</f>
+        <f t="shared" si="2"/>
         <v>Coin|400;Exp_Role|440;Exp_Kongfu|94</v>
       </c>
       <c r="P56"/>
@@ -7257,7 +7245,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="15"/>
       <c r="W56" s="7" t="str">
-        <f>Q56&amp;"|"&amp;ROUND(H56/5,0)&amp;IF(R56="","",";"&amp;R56&amp;"|"&amp;ROUND(H56/5,0)&amp;IF(S56="","",";"&amp;S56&amp;"|"&amp;ROUND(H56/5,0)&amp;IF(T56="","",";"&amp;T56&amp;"|"&amp;ROUND(H56/5,0)&amp;IF(U56="","",";"&amp;U56&amp;"|"&amp;ROUND(H56/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>305|3|2162;306|2|2162</v>
       </c>
     </row>
@@ -7302,7 +7290,7 @@
         <v>270</v>
       </c>
       <c r="O57" s="3" t="str">
-        <f>N57&amp;";Exp_Role|"&amp;L57&amp;";Exp_Kongfu|"&amp;M57</f>
+        <f t="shared" si="2"/>
         <v>Food|30;Exp_Role|460;Exp_Kongfu|95</v>
       </c>
       <c r="Q57" s="4" t="s">
@@ -7313,7 +7301,7 @@
       </c>
       <c r="S57" s="4"/>
       <c r="W57" s="16" t="str">
-        <f>Q57&amp;"|"&amp;ROUND(H57/5,0)&amp;IF(R57="","",";"&amp;R57&amp;"|"&amp;ROUND(H57/5,0)&amp;IF(S57="","",";"&amp;S57&amp;"|"&amp;ROUND(H57/5,0)&amp;IF(T57="","",";"&amp;T57&amp;"|"&amp;ROUND(H57/5,0)&amp;IF(U57="","",";"&amp;U57&amp;"|"&amp;ROUND(H57/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|4|2414;305|1|2414</v>
       </c>
     </row>
@@ -7359,7 +7347,7 @@
         <v>111</v>
       </c>
       <c r="O58" s="7" t="str">
-        <f>N58&amp;";Exp_Role|"&amp;L58&amp;";Exp_Kongfu|"&amp;M58</f>
+        <f t="shared" si="2"/>
         <v>Item|2002|1;Exp_Role|480;Exp_Kongfu|96</v>
       </c>
       <c r="P58" s="15"/>
@@ -7375,7 +7363,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
       <c r="W58" s="16" t="str">
-        <f>Q58&amp;"|"&amp;ROUND(H58/5,0)&amp;IF(R58="","",";"&amp;R58&amp;"|"&amp;ROUND(H58/5,0)&amp;IF(S58="","",";"&amp;S58&amp;"|"&amp;ROUND(H58/5,0)&amp;IF(T58="","",";"&amp;T58&amp;"|"&amp;ROUND(H58/5,0)&amp;IF(U58="","",";"&amp;U58&amp;"|"&amp;ROUND(H58/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|2|2694;305|2|2694;301|1|2694</v>
       </c>
     </row>
@@ -7420,7 +7408,7 @@
         <v>244</v>
       </c>
       <c r="O59" s="3" t="str">
-        <f>N59&amp;";Exp_Role|"&amp;L59&amp;";Exp_Kongfu|"&amp;M59</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|150;Exp_Role|520;Exp_Kongfu|98</v>
       </c>
       <c r="Q59" s="4" t="s">
@@ -7431,7 +7419,7 @@
       </c>
       <c r="S59" s="4"/>
       <c r="W59" s="16" t="str">
-        <f>Q59&amp;"|"&amp;ROUND(H59/5,0)&amp;IF(R59="","",";"&amp;R59&amp;"|"&amp;ROUND(H59/5,0)&amp;IF(S59="","",";"&amp;S59&amp;"|"&amp;ROUND(H59/5,0)&amp;IF(T59="","",";"&amp;T59&amp;"|"&amp;ROUND(H59/5,0)&amp;IF(U59="","",";"&amp;U59&amp;"|"&amp;ROUND(H59/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>305|4|3008;306|1|3008</v>
       </c>
     </row>
@@ -7477,7 +7465,7 @@
         <v>252</v>
       </c>
       <c r="O60" s="3" t="str">
-        <f>N60&amp;";Exp_Role|"&amp;L60&amp;";Exp_Kongfu|"&amp;M60</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|150;Exp_Role|540;Exp_Kongfu|99</v>
       </c>
       <c r="P60"/>
@@ -7492,7 +7480,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="15"/>
       <c r="W60" s="7" t="str">
-        <f>Q60&amp;"|"&amp;ROUND(H60/5,0)&amp;IF(R60="","",";"&amp;R60&amp;"|"&amp;ROUND(H60/5,0)&amp;IF(S60="","",";"&amp;S60&amp;"|"&amp;ROUND(H60/5,0)&amp;IF(T60="","",";"&amp;T60&amp;"|"&amp;ROUND(H60/5,0)&amp;IF(U60="","",";"&amp;U60&amp;"|"&amp;ROUND(H60/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|4|3357;305|1|3357</v>
       </c>
     </row>
@@ -7538,7 +7526,7 @@
         <v>288</v>
       </c>
       <c r="O61" s="7" t="str">
-        <f>N61&amp;";Exp_Role|"&amp;L61&amp;";Exp_Kongfu|"&amp;M61</f>
+        <f t="shared" si="2"/>
         <v>Arms|202|1;Exp_Role|560;Exp_Kongfu|100</v>
       </c>
       <c r="P61" s="15"/>
@@ -7554,7 +7542,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="W61" s="16" t="str">
-        <f>Q61&amp;"|"&amp;ROUND(H61/5,0)&amp;IF(R61="","",";"&amp;R61&amp;"|"&amp;ROUND(H61/5,0)&amp;IF(S61="","",";"&amp;S61&amp;"|"&amp;ROUND(H61/5,0)&amp;IF(T61="","",";"&amp;T61&amp;"|"&amp;ROUND(H61/5,0)&amp;IF(U61="","",";"&amp;U61&amp;"|"&amp;ROUND(H61/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|2|3748;306|2|3748;302|1|3748</v>
       </c>
     </row>
@@ -7599,7 +7587,7 @@
         <v>265</v>
       </c>
       <c r="O62" s="3" t="str">
-        <f>N62&amp;";Exp_Role|"&amp;L62&amp;";Exp_Kongfu|"&amp;M62</f>
+        <f t="shared" si="2"/>
         <v>Coin|400;Exp_Role|600;Exp_Kongfu|102</v>
       </c>
       <c r="Q62" s="4" t="s">
@@ -7610,7 +7598,7 @@
       </c>
       <c r="S62" s="4"/>
       <c r="W62" s="16" t="str">
-        <f>Q62&amp;"|"&amp;ROUND(H62/5,0)&amp;IF(R62="","",";"&amp;R62&amp;"|"&amp;ROUND(H62/5,0)&amp;IF(S62="","",";"&amp;S62&amp;"|"&amp;ROUND(H62/5,0)&amp;IF(T62="","",";"&amp;T62&amp;"|"&amp;ROUND(H62/5,0)&amp;IF(U62="","",";"&amp;U62&amp;"|"&amp;ROUND(H62/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>305|3|4184;306|2|4184</v>
       </c>
     </row>
@@ -7655,7 +7643,7 @@
         <v>270</v>
       </c>
       <c r="O63" s="3" t="str">
-        <f>N63&amp;";Exp_Role|"&amp;L63&amp;";Exp_Kongfu|"&amp;M63</f>
+        <f t="shared" si="2"/>
         <v>Food|30;Exp_Role|620;Exp_Kongfu|103</v>
       </c>
       <c r="Q63" s="4" t="s">
@@ -7666,7 +7654,7 @@
       </c>
       <c r="S63" s="4"/>
       <c r="W63" s="16" t="str">
-        <f>Q63&amp;"|"&amp;ROUND(H63/5,0)&amp;IF(R63="","",";"&amp;R63&amp;"|"&amp;ROUND(H63/5,0)&amp;IF(S63="","",";"&amp;S63&amp;"|"&amp;ROUND(H63/5,0)&amp;IF(T63="","",";"&amp;T63&amp;"|"&amp;ROUND(H63/5,0)&amp;IF(U63="","",";"&amp;U63&amp;"|"&amp;ROUND(H63/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|3|4670;305|2|4670</v>
       </c>
     </row>
@@ -7711,7 +7699,7 @@
         <v>298</v>
       </c>
       <c r="O64" s="7" t="str">
-        <f>N64&amp;";Exp_Role|"&amp;L64&amp;";Exp_Kongfu|"&amp;M64</f>
+        <f t="shared" si="2"/>
         <v>Kongfu|2005|1;Exp_Role|640;Exp_Kongfu|104</v>
       </c>
       <c r="P64" s="15"/>
@@ -7726,7 +7714,7 @@
       </c>
       <c r="V64" s="15"/>
       <c r="W64" s="7" t="str">
-        <f>Q64&amp;"|"&amp;ROUND(H64/5,0)&amp;IF(R64="","",";"&amp;R64&amp;"|"&amp;ROUND(H64/5,0)&amp;IF(S64="","",";"&amp;S64&amp;"|"&amp;ROUND(H64/5,0)&amp;IF(T64="","",";"&amp;T64&amp;"|"&amp;ROUND(H64/5,0)&amp;IF(U64="","",";"&amp;U64&amp;"|"&amp;ROUND(H64/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|2|5213;305|2|5213;301|1|5213</v>
       </c>
     </row>
@@ -7771,7 +7759,7 @@
         <v>244</v>
       </c>
       <c r="O65" s="3" t="str">
-        <f>N65&amp;";Exp_Role|"&amp;L65&amp;";Exp_Kongfu|"&amp;M65</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|150;Exp_Role|680;Exp_Kongfu|106</v>
       </c>
       <c r="Q65" s="4" t="s">
@@ -7782,7 +7770,7 @@
       </c>
       <c r="S65" s="4"/>
       <c r="W65" s="16" t="str">
-        <f>Q65&amp;"|"&amp;ROUND(H65/5,0)&amp;IF(R65="","",";"&amp;R65&amp;"|"&amp;ROUND(H65/5,0)&amp;IF(S65="","",";"&amp;S65&amp;"|"&amp;ROUND(H65/5,0)&amp;IF(T65="","",";"&amp;T65&amp;"|"&amp;ROUND(H65/5,0)&amp;IF(U65="","",";"&amp;U65&amp;"|"&amp;ROUND(H65/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|3|5819;306|2|5819</v>
       </c>
     </row>
@@ -7827,7 +7815,7 @@
         <v>252</v>
       </c>
       <c r="O66" s="3" t="str">
-        <f>N66&amp;";Exp_Role|"&amp;L66&amp;";Exp_Kongfu|"&amp;M66</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|150;Exp_Role|700;Exp_Kongfu|107</v>
       </c>
       <c r="Q66" s="4" t="s">
@@ -7838,7 +7826,7 @@
       </c>
       <c r="S66" s="4"/>
       <c r="W66" s="16" t="str">
-        <f>Q66&amp;"|"&amp;ROUND(H66/5,0)&amp;IF(R66="","",";"&amp;R66&amp;"|"&amp;ROUND(H66/5,0)&amp;IF(S66="","",";"&amp;S66&amp;"|"&amp;ROUND(H66/5,0)&amp;IF(T66="","",";"&amp;T66&amp;"|"&amp;ROUND(H66/5,0)&amp;IF(U66="","",";"&amp;U66&amp;"|"&amp;ROUND(H66/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>305|3|6496;306|2|6496</v>
       </c>
     </row>
@@ -7884,7 +7872,7 @@
         <v>308</v>
       </c>
       <c r="O67" s="7" t="str">
-        <f>N67&amp;";Exp_Role|"&amp;L67&amp;";Exp_Kongfu|"&amp;M67</f>
+        <f t="shared" si="2"/>
         <v>Medicine|102|1;Exp_Role|720;Exp_Kongfu|108</v>
       </c>
       <c r="P67" s="15"/>
@@ -7902,7 +7890,7 @@
       </c>
       <c r="U67" s="7"/>
       <c r="W67" s="16" t="str">
-        <f>Q67&amp;"|"&amp;ROUND(H67/5,0)&amp;IF(R67="","",";"&amp;R67&amp;"|"&amp;ROUND(H67/5,0)&amp;IF(S67="","",";"&amp;S67&amp;"|"&amp;ROUND(H67/5,0)&amp;IF(T67="","",";"&amp;T67&amp;"|"&amp;ROUND(H67/5,0)&amp;IF(U67="","",";"&amp;U67&amp;"|"&amp;ROUND(H67/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|2|7251;305|1|7251;306|1|7251;302|1|7251</v>
       </c>
     </row>
@@ -7948,7 +7936,7 @@
         <v>265</v>
       </c>
       <c r="O68" s="3" t="str">
-        <f>N68&amp;";Exp_Role|"&amp;L68&amp;";Exp_Kongfu|"&amp;M68</f>
+        <f t="shared" si="2"/>
         <v>Coin|400;Exp_Role|740;Exp_Kongfu|109</v>
       </c>
       <c r="P68"/>
@@ -7963,7 +7951,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="15"/>
       <c r="W68" s="7" t="str">
-        <f>Q68&amp;"|"&amp;ROUND(H68/5,0)&amp;IF(R68="","",";"&amp;R68&amp;"|"&amp;ROUND(H68/5,0)&amp;IF(S68="","",";"&amp;S68&amp;"|"&amp;ROUND(H68/5,0)&amp;IF(T68="","",";"&amp;T68&amp;"|"&amp;ROUND(H68/5,0)&amp;IF(U68="","",";"&amp;U68&amp;"|"&amp;ROUND(H68/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>305|2|8094;306|3|8094</v>
       </c>
     </row>
@@ -8008,7 +7996,7 @@
         <v>270</v>
       </c>
       <c r="O69" s="3" t="str">
-        <f>N69&amp;";Exp_Role|"&amp;L69&amp;";Exp_Kongfu|"&amp;M69</f>
+        <f t="shared" si="2"/>
         <v>Food|30;Exp_Role|760;Exp_Kongfu|110</v>
       </c>
       <c r="Q69" s="4" t="s">
@@ -8019,7 +8007,7 @@
       </c>
       <c r="S69" s="4"/>
       <c r="W69" s="16" t="str">
-        <f>Q69&amp;"|"&amp;ROUND(H69/5,0)&amp;IF(R69="","",";"&amp;R69&amp;"|"&amp;ROUND(H69/5,0)&amp;IF(S69="","",";"&amp;S69&amp;"|"&amp;ROUND(H69/5,0)&amp;IF(T69="","",";"&amp;T69&amp;"|"&amp;ROUND(H69/5,0)&amp;IF(U69="","",";"&amp;U69&amp;"|"&amp;ROUND(H69/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|2|9035;305|3|9035</v>
       </c>
     </row>
@@ -8065,7 +8053,7 @@
         <v>111</v>
       </c>
       <c r="O70" s="7" t="str">
-        <f>N70&amp;";Exp_Role|"&amp;L70&amp;";Exp_Kongfu|"&amp;M70</f>
+        <f t="shared" si="2"/>
         <v>Item|2002|1;Exp_Role|780;Exp_Kongfu|111</v>
       </c>
       <c r="P70" s="15"/>
@@ -8081,7 +8069,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
       <c r="W70" s="16" t="str">
-        <f>Q70&amp;"|"&amp;ROUND(H70/5,0)&amp;IF(R70="","",";"&amp;R70&amp;"|"&amp;ROUND(H70/5,0)&amp;IF(S70="","",";"&amp;S70&amp;"|"&amp;ROUND(H70/5,0)&amp;IF(T70="","",";"&amp;T70&amp;"|"&amp;ROUND(H70/5,0)&amp;IF(U70="","",";"&amp;U70&amp;"|"&amp;ROUND(H70/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>301|1|10086;304|2|10086;306|2|10086</v>
       </c>
     </row>
@@ -8126,7 +8114,7 @@
         <v>244</v>
       </c>
       <c r="O71" s="3" t="str">
-        <f>N71&amp;";Exp_Role|"&amp;L71&amp;";Exp_Kongfu|"&amp;M71</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|150;Exp_Role|800;Exp_Kongfu|112</v>
       </c>
       <c r="Q71" s="4" t="s">
@@ -8137,7 +8125,7 @@
       </c>
       <c r="S71" s="4"/>
       <c r="W71" s="16" t="str">
-        <f>Q71&amp;"|"&amp;ROUND(H71/5,0)&amp;IF(R71="","",";"&amp;R71&amp;"|"&amp;ROUND(H71/5,0)&amp;IF(S71="","",";"&amp;S71&amp;"|"&amp;ROUND(H71/5,0)&amp;IF(T71="","",";"&amp;T71&amp;"|"&amp;ROUND(H71/5,0)&amp;IF(U71="","",";"&amp;U71&amp;"|"&amp;ROUND(H71/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>305|3|11259;306|2|11259</v>
       </c>
     </row>
@@ -8183,7 +8171,7 @@
         <v>252</v>
       </c>
       <c r="O72" s="3" t="str">
-        <f>N72&amp;";Exp_Role|"&amp;L72&amp;";Exp_Kongfu|"&amp;M72</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|150;Exp_Role|840;Exp_Kongfu|114</v>
       </c>
       <c r="P72"/>
@@ -8198,7 +8186,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="15"/>
       <c r="W72" s="7" t="str">
-        <f>Q72&amp;"|"&amp;ROUND(H72/5,0)&amp;IF(R72="","",";"&amp;R72&amp;"|"&amp;ROUND(H72/5,0)&amp;IF(S72="","",";"&amp;S72&amp;"|"&amp;ROUND(H72/5,0)&amp;IF(T72="","",";"&amp;T72&amp;"|"&amp;ROUND(H72/5,0)&amp;IF(U72="","",";"&amp;U72&amp;"|"&amp;ROUND(H72/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|4|12568;306|1|12568</v>
       </c>
     </row>
@@ -8244,7 +8232,7 @@
         <v>328</v>
       </c>
       <c r="O73" s="7" t="str">
-        <f>N73&amp;";Exp_Role|"&amp;L73&amp;";Exp_Kongfu|"&amp;M73</f>
+        <f t="shared" si="2"/>
         <v>Item|3002|2;Exp_Role|860;Exp_Kongfu|115</v>
       </c>
       <c r="P73" s="15"/>
@@ -8260,7 +8248,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="W73" s="16" t="str">
-        <f>Q73&amp;"|"&amp;ROUND(H73/5,0)&amp;IF(R73="","",";"&amp;R73&amp;"|"&amp;ROUND(H73/5,0)&amp;IF(S73="","",";"&amp;S73&amp;"|"&amp;ROUND(H73/5,0)&amp;IF(T73="","",";"&amp;T73&amp;"|"&amp;ROUND(H73/5,0)&amp;IF(U73="","",";"&amp;U73&amp;"|"&amp;ROUND(H73/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>305|2|14029;306|2|14029;302|1|14029</v>
       </c>
     </row>
@@ -8305,7 +8293,7 @@
         <v>265</v>
       </c>
       <c r="O74" s="3" t="str">
-        <f>N74&amp;";Exp_Role|"&amp;L74&amp;";Exp_Kongfu|"&amp;M74</f>
+        <f t="shared" si="2"/>
         <v>Coin|400;Exp_Role|880;Exp_Kongfu|116</v>
       </c>
       <c r="Q74" s="4" t="s">
@@ -8318,7 +8306,7 @@
         <v>247</v>
       </c>
       <c r="W74" s="16" t="str">
-        <f>Q74&amp;"|"&amp;ROUND(H74/5,0)&amp;IF(R74="","",";"&amp;R74&amp;"|"&amp;ROUND(H74/5,0)&amp;IF(S74="","",";"&amp;S74&amp;"|"&amp;ROUND(H74/5,0)&amp;IF(T74="","",";"&amp;T74&amp;"|"&amp;ROUND(H74/5,0)&amp;IF(U74="","",";"&amp;U74&amp;"|"&amp;ROUND(H74/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|2|15660;305|2|15660;306|1|15660</v>
       </c>
     </row>
@@ -8363,7 +8351,7 @@
         <v>270</v>
       </c>
       <c r="O75" s="3" t="str">
-        <f>N75&amp;";Exp_Role|"&amp;L75&amp;";Exp_Kongfu|"&amp;M75</f>
+        <f t="shared" si="2"/>
         <v>Food|30;Exp_Role|900;Exp_Kongfu|117</v>
       </c>
       <c r="Q75" s="4" t="s">
@@ -8374,7 +8362,7 @@
       </c>
       <c r="S75" s="4"/>
       <c r="W75" s="16" t="str">
-        <f>Q75&amp;"|"&amp;ROUND(H75/5,0)&amp;IF(R75="","",";"&amp;R75&amp;"|"&amp;ROUND(H75/5,0)&amp;IF(S75="","",";"&amp;S75&amp;"|"&amp;ROUND(H75/5,0)&amp;IF(T75="","",";"&amp;T75&amp;"|"&amp;ROUND(H75/5,0)&amp;IF(U75="","",";"&amp;U75&amp;"|"&amp;ROUND(H75/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|2|17481;305|3|17481</v>
       </c>
     </row>
@@ -8419,7 +8407,7 @@
         <v>337</v>
       </c>
       <c r="O76" s="7" t="str">
-        <f>N76&amp;";Exp_Role|"&amp;L76&amp;";Exp_Kongfu|"&amp;M76</f>
+        <f t="shared" si="2"/>
         <v>Kongfu|3004|1;Exp_Role|940;Exp_Kongfu|119</v>
       </c>
       <c r="P76" s="15"/>
@@ -8432,10 +8420,9 @@
       <c r="S76" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="T76" s="7"/>
       <c r="V76" s="15"/>
       <c r="W76" s="7" t="str">
-        <f>Q76&amp;"|"&amp;ROUND(H76/5,0)&amp;IF(R76="","",";"&amp;R76&amp;"|"&amp;ROUND(H76/5,0)&amp;IF(S76="","",";"&amp;S76&amp;"|"&amp;ROUND(H76/5,0)&amp;IF(T76="","",";"&amp;T76&amp;"|"&amp;ROUND(H76/5,0)&amp;IF(U76="","",";"&amp;U76&amp;"|"&amp;ROUND(H76/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>304|2|19514;305|2|19514;301|1|19514</v>
       </c>
     </row>
@@ -8480,14 +8467,14 @@
         <v>343</v>
       </c>
       <c r="O77" s="3" t="str">
-        <f>N77&amp;";Exp_Role|"&amp;L77&amp;";Exp_Kongfu|"&amp;M77</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|250;Exp_Role|960;Exp_Kongfu|120</v>
       </c>
       <c r="Q77" s="4" t="s">
         <v>344</v>
       </c>
       <c r="W77" s="16" t="str">
-        <f>Q77&amp;"|"&amp;ROUND(H77/5,0)&amp;IF(R77="","",";"&amp;R77&amp;"|"&amp;ROUND(H77/5,0)&amp;IF(S77="","",";"&amp;S77&amp;"|"&amp;ROUND(H77/5,0)&amp;IF(T77="","",";"&amp;T77&amp;"|"&amp;ROUND(H77/5,0)&amp;IF(U77="","",";"&amp;U77&amp;"|"&amp;ROUND(H77/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|9035</v>
       </c>
     </row>
@@ -8532,14 +8519,14 @@
         <v>348</v>
       </c>
       <c r="O78" s="3" t="str">
-        <f>N78&amp;";Exp_Role|"&amp;L78&amp;";Exp_Kongfu|"&amp;M78</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|250;Exp_Role|980;Exp_Kongfu|121</v>
       </c>
       <c r="Q78" s="4" t="s">
         <v>344</v>
       </c>
       <c r="W78" s="16" t="str">
-        <f>Q78&amp;"|"&amp;ROUND(H78/5,0)&amp;IF(R78="","",";"&amp;R78&amp;"|"&amp;ROUND(H78/5,0)&amp;IF(S78="","",";"&amp;S78&amp;"|"&amp;ROUND(H78/5,0)&amp;IF(T78="","",";"&amp;T78&amp;"|"&amp;ROUND(H78/5,0)&amp;IF(U78="","",";"&amp;U78&amp;"|"&amp;ROUND(H78/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|10367</v>
       </c>
     </row>
@@ -8585,7 +8572,7 @@
         <v>353</v>
       </c>
       <c r="O79" s="7" t="str">
-        <f>N79&amp;";Exp_Role|"&amp;L79&amp;";Exp_Kongfu|"&amp;M79</f>
+        <f t="shared" si="2"/>
         <v>Kongfu|2006|1;Exp_Role|1000;Exp_Kongfu|122</v>
       </c>
       <c r="P79" s="15"/>
@@ -8599,7 +8586,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="W79" s="16" t="str">
-        <f>Q79&amp;"|"&amp;ROUND(H79/5,0)&amp;IF(R79="","",";"&amp;R79&amp;"|"&amp;ROUND(H79/5,0)&amp;IF(S79="","",";"&amp;S79&amp;"|"&amp;ROUND(H79/5,0)&amp;IF(T79="","",";"&amp;T79&amp;"|"&amp;ROUND(H79/5,0)&amp;IF(U79="","",";"&amp;U79&amp;"|"&amp;ROUND(H79/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|4|11895;402|1|11895</v>
       </c>
     </row>
@@ -8645,7 +8632,7 @@
         <v>359</v>
       </c>
       <c r="O80" s="3" t="str">
-        <f>N80&amp;";Exp_Role|"&amp;L80&amp;";Exp_Kongfu|"&amp;M80</f>
+        <f t="shared" si="2"/>
         <v>Coin|500;Exp_Role|1040;Exp_Kongfu|124</v>
       </c>
       <c r="P80"/>
@@ -8658,7 +8645,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="15"/>
       <c r="W80" s="7" t="str">
-        <f>Q80&amp;"|"&amp;ROUND(H80/5,0)&amp;IF(R80="","",";"&amp;R80&amp;"|"&amp;ROUND(H80/5,0)&amp;IF(S80="","",";"&amp;S80&amp;"|"&amp;ROUND(H80/5,0)&amp;IF(T80="","",";"&amp;T80&amp;"|"&amp;ROUND(H80/5,0)&amp;IF(U80="","",";"&amp;U80&amp;"|"&amp;ROUND(H80/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|13649</v>
       </c>
     </row>
@@ -8703,15 +8690,14 @@
         <v>363</v>
       </c>
       <c r="O81" s="3" t="str">
-        <f>N81&amp;";Exp_Role|"&amp;L81&amp;";Exp_Kongfu|"&amp;M81</f>
+        <f t="shared" si="2"/>
         <v>Food|40;Exp_Role|1060;Exp_Kongfu|125</v>
       </c>
       <c r="Q81" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="R81" s="3"/>
       <c r="W81" s="16" t="str">
-        <f>Q81&amp;"|"&amp;ROUND(H81/5,0)&amp;IF(R81="","",";"&amp;R81&amp;"|"&amp;ROUND(H81/5,0)&amp;IF(S81="","",";"&amp;S81&amp;"|"&amp;ROUND(H81/5,0)&amp;IF(T81="","",";"&amp;T81&amp;"|"&amp;ROUND(H81/5,0)&amp;IF(U81="","",";"&amp;U81&amp;"|"&amp;ROUND(H81/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|15662</v>
       </c>
     </row>
@@ -8757,7 +8743,7 @@
         <v>111</v>
       </c>
       <c r="O82" s="7" t="str">
-        <f>N82&amp;";Exp_Role|"&amp;L82&amp;";Exp_Kongfu|"&amp;M82</f>
+        <f t="shared" si="2"/>
         <v>Item|2002|1;Exp_Role|1080;Exp_Kongfu|126</v>
       </c>
       <c r="P82" s="15"/>
@@ -8771,7 +8757,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
       <c r="W82" s="16" t="str">
-        <f>Q82&amp;"|"&amp;ROUND(H82/5,0)&amp;IF(R82="","",";"&amp;R82&amp;"|"&amp;ROUND(H82/5,0)&amp;IF(S82="","",";"&amp;S82&amp;"|"&amp;ROUND(H82/5,0)&amp;IF(T82="","",";"&amp;T82&amp;"|"&amp;ROUND(H82/5,0)&amp;IF(U82="","",";"&amp;U82&amp;"|"&amp;ROUND(H82/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|4|17971;401|1|17971</v>
       </c>
     </row>
@@ -8816,15 +8802,14 @@
         <v>343</v>
       </c>
       <c r="O83" s="3" t="str">
-        <f>N83&amp;";Exp_Role|"&amp;L83&amp;";Exp_Kongfu|"&amp;M83</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|250;Exp_Role|1120;Exp_Kongfu|128</v>
       </c>
       <c r="Q83" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="R83" s="3"/>
       <c r="W83" s="16" t="str">
-        <f>Q83&amp;"|"&amp;ROUND(H83/5,0)&amp;IF(R83="","",";"&amp;R83&amp;"|"&amp;ROUND(H83/5,0)&amp;IF(S83="","",";"&amp;S83&amp;"|"&amp;ROUND(H83/5,0)&amp;IF(T83="","",";"&amp;T83&amp;"|"&amp;ROUND(H83/5,0)&amp;IF(U83="","",";"&amp;U83&amp;"|"&amp;ROUND(H83/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|20621</v>
       </c>
     </row>
@@ -8870,7 +8855,7 @@
         <v>348</v>
       </c>
       <c r="O84" s="3" t="str">
-        <f>N84&amp;";Exp_Role|"&amp;L84&amp;";Exp_Kongfu|"&amp;M84</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|250;Exp_Role|1140;Exp_Kongfu|129</v>
       </c>
       <c r="P84"/>
@@ -8883,7 +8868,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="15"/>
       <c r="W84" s="7" t="str">
-        <f>Q84&amp;"|"&amp;ROUND(H84/5,0)&amp;IF(R84="","",";"&amp;R84&amp;"|"&amp;ROUND(H84/5,0)&amp;IF(S84="","",";"&amp;S84&amp;"|"&amp;ROUND(H84/5,0)&amp;IF(T84="","",";"&amp;T84&amp;"|"&amp;ROUND(H84/5,0)&amp;IF(U84="","",";"&amp;U84&amp;"|"&amp;ROUND(H84/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|23662</v>
       </c>
     </row>
@@ -8929,7 +8914,7 @@
         <v>378</v>
       </c>
       <c r="O85" s="7" t="str">
-        <f>N85&amp;";Exp_Role|"&amp;L85&amp;";Exp_Kongfu|"&amp;M85</f>
+        <f t="shared" si="2"/>
         <v>Arms|203|1;Exp_Role|1160;Exp_Kongfu|130</v>
       </c>
       <c r="P85" s="15"/>
@@ -8943,7 +8928,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="W85" s="16" t="str">
-        <f>Q85&amp;"|"&amp;ROUND(H85/5,0)&amp;IF(R85="","",";"&amp;R85&amp;"|"&amp;ROUND(H85/5,0)&amp;IF(S85="","",";"&amp;S85&amp;"|"&amp;ROUND(H85/5,0)&amp;IF(T85="","",";"&amp;T85&amp;"|"&amp;ROUND(H85/5,0)&amp;IF(U85="","",";"&amp;U85&amp;"|"&amp;ROUND(H85/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|4|27151;402|1|27151</v>
       </c>
     </row>
@@ -8988,16 +8973,14 @@
         <v>359</v>
       </c>
       <c r="O86" s="3" t="str">
-        <f>N86&amp;";Exp_Role|"&amp;L86&amp;";Exp_Kongfu|"&amp;M86</f>
+        <f t="shared" si="2"/>
         <v>Coin|500;Exp_Role|1200;Exp_Kongfu|132</v>
       </c>
       <c r="Q86" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
       <c r="W86" s="16" t="str">
-        <f>Q86&amp;"|"&amp;ROUND(H86/5,0)&amp;IF(R86="","",";"&amp;R86&amp;"|"&amp;ROUND(H86/5,0)&amp;IF(S86="","",";"&amp;S86&amp;"|"&amp;ROUND(H86/5,0)&amp;IF(T86="","",";"&amp;T86&amp;"|"&amp;ROUND(H86/5,0)&amp;IF(U86="","",";"&amp;U86&amp;"|"&amp;ROUND(H86/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|31155</v>
       </c>
     </row>
@@ -9042,14 +9025,14 @@
         <v>363</v>
       </c>
       <c r="O87" s="3" t="str">
-        <f>N87&amp;";Exp_Role|"&amp;L87&amp;";Exp_Kongfu|"&amp;M87</f>
+        <f t="shared" si="2"/>
         <v>Food|40;Exp_Role|1220;Exp_Kongfu|133</v>
       </c>
       <c r="Q87" s="4" t="s">
         <v>344</v>
       </c>
       <c r="W87" s="16" t="str">
-        <f>Q87&amp;"|"&amp;ROUND(H87/5,0)&amp;IF(R87="","",";"&amp;R87&amp;"|"&amp;ROUND(H87/5,0)&amp;IF(S87="","",";"&amp;S87&amp;"|"&amp;ROUND(H87/5,0)&amp;IF(T87="","",";"&amp;T87&amp;"|"&amp;ROUND(H87/5,0)&amp;IF(U87="","",";"&amp;U87&amp;"|"&amp;ROUND(H87/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|35749</v>
       </c>
     </row>
@@ -9094,7 +9077,7 @@
         <v>388</v>
       </c>
       <c r="O88" s="7" t="str">
-        <f>N88&amp;";Exp_Role|"&amp;L88&amp;";Exp_Kongfu|"&amp;M88</f>
+        <f t="shared" si="2"/>
         <v>Kongfu|2007|1;Exp_Role|1240;Exp_Kongfu|134</v>
       </c>
       <c r="P88" s="15"/>
@@ -9107,7 +9090,7 @@
       <c r="S88" s="12"/>
       <c r="V88" s="15"/>
       <c r="W88" s="7" t="str">
-        <f>Q88&amp;"|"&amp;ROUND(H88/5,0)&amp;IF(R88="","",";"&amp;R88&amp;"|"&amp;ROUND(H88/5,0)&amp;IF(S88="","",";"&amp;S88&amp;"|"&amp;ROUND(H88/5,0)&amp;IF(T88="","",";"&amp;T88&amp;"|"&amp;ROUND(H88/5,0)&amp;IF(U88="","",";"&amp;U88&amp;"|"&amp;ROUND(H88/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|4|41020;401|1|41020</v>
       </c>
     </row>
@@ -9152,14 +9135,14 @@
         <v>343</v>
       </c>
       <c r="O89" s="3" t="str">
-        <f>N89&amp;";Exp_Role|"&amp;L89&amp;";Exp_Kongfu|"&amp;M89</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|250;Exp_Role|1280;Exp_Kongfu|136</v>
       </c>
       <c r="Q89" s="4" t="s">
         <v>344</v>
       </c>
       <c r="W89" s="16" t="str">
-        <f>Q89&amp;"|"&amp;ROUND(H89/5,0)&amp;IF(R89="","",";"&amp;R89&amp;"|"&amp;ROUND(H89/5,0)&amp;IF(S89="","",";"&amp;S89&amp;"|"&amp;ROUND(H89/5,0)&amp;IF(T89="","",";"&amp;T89&amp;"|"&amp;ROUND(H89/5,0)&amp;IF(U89="","",";"&amp;U89&amp;"|"&amp;ROUND(H89/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|47069</v>
       </c>
     </row>
@@ -9204,14 +9187,14 @@
         <v>348</v>
       </c>
       <c r="O90" s="3" t="str">
-        <f>N90&amp;";Exp_Role|"&amp;L90&amp;";Exp_Kongfu|"&amp;M90</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|250;Exp_Role|1300;Exp_Kongfu|137</v>
       </c>
       <c r="Q90" s="4" t="s">
         <v>344</v>
       </c>
       <c r="W90" s="16" t="str">
-        <f>Q90&amp;"|"&amp;ROUND(H90/5,0)&amp;IF(R90="","",";"&amp;R90&amp;"|"&amp;ROUND(H90/5,0)&amp;IF(S90="","",";"&amp;S90&amp;"|"&amp;ROUND(H90/5,0)&amp;IF(T90="","",";"&amp;T90&amp;"|"&amp;ROUND(H90/5,0)&amp;IF(U90="","",";"&amp;U90&amp;"|"&amp;ROUND(H90/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|54010</v>
       </c>
     </row>
@@ -9257,7 +9240,7 @@
         <v>308</v>
       </c>
       <c r="O91" s="7" t="str">
-        <f>N91&amp;";Exp_Role|"&amp;L91&amp;";Exp_Kongfu|"&amp;M91</f>
+        <f t="shared" si="2"/>
         <v>Medicine|102|1;Exp_Role|1320;Exp_Kongfu|138</v>
       </c>
       <c r="P91" s="15"/>
@@ -9271,7 +9254,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="W91" s="16" t="str">
-        <f>Q91&amp;"|"&amp;ROUND(H91/5,0)&amp;IF(R91="","",";"&amp;R91&amp;"|"&amp;ROUND(H91/5,0)&amp;IF(S91="","",";"&amp;S91&amp;"|"&amp;ROUND(H91/5,0)&amp;IF(T91="","",";"&amp;T91&amp;"|"&amp;ROUND(H91/5,0)&amp;IF(U91="","",";"&amp;U91&amp;"|"&amp;ROUND(H91/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|4|61974;402|1|61974</v>
       </c>
     </row>
@@ -9317,7 +9300,7 @@
         <v>359</v>
       </c>
       <c r="O92" s="3" t="str">
-        <f>N92&amp;";Exp_Role|"&amp;L92&amp;";Exp_Kongfu|"&amp;M92</f>
+        <f t="shared" si="2"/>
         <v>Coin|500;Exp_Role|1340;Exp_Kongfu|139</v>
       </c>
       <c r="P92"/>
@@ -9330,7 +9313,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="15"/>
       <c r="W92" s="7" t="str">
-        <f>Q92&amp;"|"&amp;ROUND(H92/5,0)&amp;IF(R92="","",";"&amp;R92&amp;"|"&amp;ROUND(H92/5,0)&amp;IF(S92="","",";"&amp;S92&amp;"|"&amp;ROUND(H92/5,0)&amp;IF(T92="","",";"&amp;T92&amp;"|"&amp;ROUND(H92/5,0)&amp;IF(U92="","",";"&amp;U92&amp;"|"&amp;ROUND(H92/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|71112</v>
       </c>
     </row>
@@ -9375,15 +9358,14 @@
         <v>363</v>
       </c>
       <c r="O93" s="3" t="str">
-        <f>N93&amp;";Exp_Role|"&amp;L93&amp;";Exp_Kongfu|"&amp;M93</f>
+        <f t="shared" si="2"/>
         <v>Food|40;Exp_Role|1380;Exp_Kongfu|141</v>
       </c>
       <c r="Q93" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="R93" s="3"/>
       <c r="W93" s="16" t="str">
-        <f>Q93&amp;"|"&amp;ROUND(H93/5,0)&amp;IF(R93="","",";"&amp;R93&amp;"|"&amp;ROUND(H93/5,0)&amp;IF(S93="","",";"&amp;S93&amp;"|"&amp;ROUND(H93/5,0)&amp;IF(T93="","",";"&amp;T93&amp;"|"&amp;ROUND(H93/5,0)&amp;IF(U93="","",";"&amp;U93&amp;"|"&amp;ROUND(H93/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|81598</v>
       </c>
     </row>
@@ -9429,7 +9411,7 @@
         <v>111</v>
       </c>
       <c r="O94" s="7" t="str">
-        <f>N94&amp;";Exp_Role|"&amp;L94&amp;";Exp_Kongfu|"&amp;M94</f>
+        <f t="shared" si="2"/>
         <v>Item|2002|1;Exp_Role|1400;Exp_Kongfu|142</v>
       </c>
       <c r="P94" s="15"/>
@@ -9443,7 +9425,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
       <c r="W94" s="16" t="str">
-        <f>Q94&amp;"|"&amp;ROUND(H94/5,0)&amp;IF(R94="","",";"&amp;R94&amp;"|"&amp;ROUND(H94/5,0)&amp;IF(S94="","",";"&amp;S94&amp;"|"&amp;ROUND(H94/5,0)&amp;IF(T94="","",";"&amp;T94&amp;"|"&amp;ROUND(H94/5,0)&amp;IF(U94="","",";"&amp;U94&amp;"|"&amp;ROUND(H94/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|4|93630;401|1|93630</v>
       </c>
     </row>
@@ -9475,7 +9457,6 @@
       <c r="I95" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="J95" s="3"/>
       <c r="K95" s="3">
         <v>200</v>
       </c>
@@ -9489,18 +9470,14 @@
         <v>343</v>
       </c>
       <c r="O95" s="3" t="str">
-        <f>N95&amp;";Exp_Role|"&amp;L95&amp;";Exp_Kongfu|"&amp;M95</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|250;Exp_Role|1420;Exp_Kongfu|143</v>
       </c>
       <c r="Q95" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
       <c r="W95" s="16" t="str">
-        <f>Q95&amp;"|"&amp;ROUND(H95/5,0)&amp;IF(R95="","",";"&amp;R95&amp;"|"&amp;ROUND(H95/5,0)&amp;IF(S95="","",";"&amp;S95&amp;"|"&amp;ROUND(H95/5,0)&amp;IF(T95="","",";"&amp;T95&amp;"|"&amp;ROUND(H95/5,0)&amp;IF(U95="","",";"&amp;U95&amp;"|"&amp;ROUND(H95/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|107437</v>
       </c>
     </row>
@@ -9546,7 +9523,7 @@
         <v>348</v>
       </c>
       <c r="O96" s="3" t="str">
-        <f>N96&amp;";Exp_Role|"&amp;L96&amp;";Exp_Kongfu|"&amp;M96</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|250;Exp_Role|1440;Exp_Kongfu|144</v>
       </c>
       <c r="P96"/>
@@ -9559,7 +9536,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="15"/>
       <c r="W96" s="7" t="str">
-        <f>Q96&amp;"|"&amp;ROUND(H96/5,0)&amp;IF(R96="","",";"&amp;R96&amp;"|"&amp;ROUND(H96/5,0)&amp;IF(S96="","",";"&amp;S96&amp;"|"&amp;ROUND(H96/5,0)&amp;IF(T96="","",";"&amp;T96&amp;"|"&amp;ROUND(H96/5,0)&amp;IF(U96="","",";"&amp;U96&amp;"|"&amp;ROUND(H96/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|123279</v>
       </c>
     </row>
@@ -9605,7 +9582,7 @@
         <v>416</v>
       </c>
       <c r="O97" s="7" t="str">
-        <f>N97&amp;";Exp_Role|"&amp;L97&amp;";Exp_Kongfu|"&amp;M97</f>
+        <f t="shared" si="2"/>
         <v>Item|3002|3;Exp_Role|1460;Exp_Kongfu|145</v>
       </c>
       <c r="P97" s="15"/>
@@ -9619,7 +9596,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="W97" s="16" t="str">
-        <f>Q97&amp;"|"&amp;ROUND(H97/5,0)&amp;IF(R97="","",";"&amp;R97&amp;"|"&amp;ROUND(H97/5,0)&amp;IF(S97="","",";"&amp;S97&amp;"|"&amp;ROUND(H97/5,0)&amp;IF(T97="","",";"&amp;T97&amp;"|"&amp;ROUND(H97/5,0)&amp;IF(U97="","",";"&amp;U97&amp;"|"&amp;ROUND(H97/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|4|141457;402|1|141457</v>
       </c>
     </row>
@@ -9664,14 +9641,14 @@
         <v>359</v>
       </c>
       <c r="O98" s="3" t="str">
-        <f>N98&amp;";Exp_Role|"&amp;L98&amp;";Exp_Kongfu|"&amp;M98</f>
+        <f t="shared" si="2"/>
         <v>Coin|500;Exp_Role|1480;Exp_Kongfu|146</v>
       </c>
       <c r="Q98" s="4" t="s">
         <v>344</v>
       </c>
       <c r="W98" s="16" t="str">
-        <f>Q98&amp;"|"&amp;ROUND(H98/5,0)&amp;IF(R98="","",";"&amp;R98&amp;"|"&amp;ROUND(H98/5,0)&amp;IF(S98="","",";"&amp;S98&amp;"|"&amp;ROUND(H98/5,0)&amp;IF(T98="","",";"&amp;T98&amp;"|"&amp;ROUND(H98/5,0)&amp;IF(U98="","",";"&amp;U98&amp;"|"&amp;ROUND(H98/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|162316</v>
       </c>
     </row>
@@ -9716,15 +9693,14 @@
         <v>363</v>
       </c>
       <c r="O99" s="3" t="str">
-        <f>N99&amp;";Exp_Role|"&amp;L99&amp;";Exp_Kongfu|"&amp;M99</f>
+        <f t="shared" si="2"/>
         <v>Food|40;Exp_Role|1500;Exp_Kongfu|147</v>
       </c>
       <c r="Q99" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="R99" s="3"/>
       <c r="W99" s="16" t="str">
-        <f>Q99&amp;"|"&amp;ROUND(H99/5,0)&amp;IF(R99="","",";"&amp;R99&amp;"|"&amp;ROUND(H99/5,0)&amp;IF(S99="","",";"&amp;S99&amp;"|"&amp;ROUND(H99/5,0)&amp;IF(T99="","",";"&amp;T99&amp;"|"&amp;ROUND(H99/5,0)&amp;IF(U99="","",";"&amp;U99&amp;"|"&amp;ROUND(H99/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|5|186250</v>
       </c>
     </row>
@@ -9769,7 +9745,7 @@
         <v>426</v>
       </c>
       <c r="O100" s="7" t="str">
-        <f>N100&amp;";Exp_Role|"&amp;L100&amp;";Exp_Kongfu|"&amp;M100</f>
+        <f t="shared" si="2"/>
         <v>Kongfu|3006|1;Exp_Role|1540;Exp_Kongfu|149</v>
       </c>
       <c r="P100" s="15"/>
@@ -9782,7 +9758,7 @@
       <c r="S100" s="12"/>
       <c r="V100" s="15"/>
       <c r="W100" s="7" t="str">
-        <f>Q100&amp;"|"&amp;ROUND(H100/5,0)&amp;IF(R100="","",";"&amp;R100&amp;"|"&amp;ROUND(H100/5,0)&amp;IF(S100="","",";"&amp;S100&amp;"|"&amp;ROUND(H100/5,0)&amp;IF(T100="","",";"&amp;T100&amp;"|"&amp;ROUND(H100/5,0)&amp;IF(U100="","",";"&amp;U100&amp;"|"&amp;ROUND(H100/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>403|4|213717;401|1|213717</v>
       </c>
     </row>
@@ -9827,7 +9803,7 @@
         <v>432</v>
       </c>
       <c r="O101" s="3" t="str">
-        <f>N101&amp;";Exp_Role|"&amp;L101&amp;";Exp_Kongfu|"&amp;M101</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|350;Exp_Role|1560;Exp_Kongfu|150</v>
       </c>
       <c r="Q101" s="4" t="s">
@@ -9840,7 +9816,7 @@
         <v>435</v>
       </c>
       <c r="W101" s="16" t="str">
-        <f>Q101&amp;"|"&amp;ROUND(H101/5,0)&amp;IF(R101="","",";"&amp;R101&amp;"|"&amp;ROUND(H101/5,0)&amp;IF(S101="","",";"&amp;S101&amp;"|"&amp;ROUND(H101/5,0)&amp;IF(T101="","",";"&amp;T101&amp;"|"&amp;ROUND(H101/5,0)&amp;IF(U101="","",";"&amp;U101&amp;"|"&amp;ROUND(H101/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>503|2|70955;504|2|70955;505|1|70955</v>
       </c>
     </row>
@@ -9885,7 +9861,7 @@
         <v>440</v>
       </c>
       <c r="O102" s="3" t="str">
-        <f>N102&amp;";Exp_Role|"&amp;L102&amp;";Exp_Kongfu|"&amp;M102</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|350;Exp_Role|1580;Exp_Kongfu|151</v>
       </c>
       <c r="Q102" s="4" t="s">
@@ -9896,7 +9872,7 @@
       </c>
       <c r="S102" s="4"/>
       <c r="W102" s="16" t="str">
-        <f>Q102&amp;"|"&amp;ROUND(H102/5,0)&amp;IF(R102="","",";"&amp;R102&amp;"|"&amp;ROUND(H102/5,0)&amp;IF(S102="","",";"&amp;S102&amp;"|"&amp;ROUND(H102/5,0)&amp;IF(T102="","",";"&amp;T102&amp;"|"&amp;ROUND(H102/5,0)&amp;IF(U102="","",";"&amp;U102&amp;"|"&amp;ROUND(H102/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>503|3|80579;505|2|80579</v>
       </c>
     </row>
@@ -9942,7 +9918,7 @@
         <v>446</v>
       </c>
       <c r="O103" s="7" t="str">
-        <f>N103&amp;";Exp_Role|"&amp;L103&amp;";Exp_Kongfu|"&amp;M103</f>
+        <f t="shared" si="2"/>
         <v>Kongfu|2008|1;Exp_Role|1600;Exp_Kongfu|152</v>
       </c>
       <c r="P103" s="15"/>
@@ -9958,7 +9934,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
       <c r="W103" s="16" t="str">
-        <f>Q103&amp;"|"&amp;ROUND(H103/5,0)&amp;IF(R103="","",";"&amp;R103&amp;"|"&amp;ROUND(H103/5,0)&amp;IF(S103="","",";"&amp;S103&amp;"|"&amp;ROUND(H103/5,0)&amp;IF(T103="","",";"&amp;T103&amp;"|"&amp;ROUND(H103/5,0)&amp;IF(U103="","",";"&amp;U103&amp;"|"&amp;ROUND(H103/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>503|2|91509;505|2|91509;502|1|91509</v>
       </c>
     </row>
@@ -10004,7 +9980,7 @@
         <v>451</v>
       </c>
       <c r="O104" s="3" t="str">
-        <f>N104&amp;";Exp_Role|"&amp;L104&amp;";Exp_Kongfu|"&amp;M104</f>
+        <f t="shared" si="2"/>
         <v>Coin|600;Exp_Role|1640;Exp_Kongfu|154</v>
       </c>
       <c r="P104"/>
@@ -10019,7 +9995,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="15"/>
       <c r="W104" s="7" t="str">
-        <f>Q104&amp;"|"&amp;ROUND(H104/5,0)&amp;IF(R104="","",";"&amp;R104&amp;"|"&amp;ROUND(H104/5,0)&amp;IF(S104="","",";"&amp;S104&amp;"|"&amp;ROUND(H104/5,0)&amp;IF(T104="","",";"&amp;T104&amp;"|"&amp;ROUND(H104/5,0)&amp;IF(U104="","",";"&amp;U104&amp;"|"&amp;ROUND(H104/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>503|2|103922;505|4|103922</v>
       </c>
     </row>
@@ -10064,7 +10040,7 @@
         <v>456</v>
       </c>
       <c r="O105" s="3" t="str">
-        <f>N105&amp;";Exp_Role|"&amp;L105&amp;";Exp_Kongfu|"&amp;M105</f>
+        <f t="shared" si="2"/>
         <v>Food|45;Exp_Role|1660;Exp_Kongfu|155</v>
       </c>
       <c r="Q105" s="4" t="s">
@@ -10075,7 +10051,7 @@
       </c>
       <c r="S105" s="4"/>
       <c r="W105" s="16" t="str">
-        <f>Q105&amp;"|"&amp;ROUND(H105/5,0)&amp;IF(R105="","",";"&amp;R105&amp;"|"&amp;ROUND(H105/5,0)&amp;IF(S105="","",";"&amp;S105&amp;"|"&amp;ROUND(H105/5,0)&amp;IF(T105="","",";"&amp;T105&amp;"|"&amp;ROUND(H105/5,0)&amp;IF(U105="","",";"&amp;U105&amp;"|"&amp;ROUND(H105/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>503|3|118019;505|2|118019</v>
       </c>
     </row>
@@ -10121,7 +10097,7 @@
         <v>111</v>
       </c>
       <c r="O106" s="7" t="str">
-        <f>N106&amp;";Exp_Role|"&amp;L106&amp;";Exp_Kongfu|"&amp;M106</f>
+        <f t="shared" si="2"/>
         <v>Item|2002|1;Exp_Role|1680;Exp_Kongfu|156</v>
       </c>
       <c r="P106" s="15"/>
@@ -10137,7 +10113,7 @@
       <c r="T106" s="7"/>
       <c r="U106" s="7"/>
       <c r="W106" s="16" t="str">
-        <f>Q106&amp;"|"&amp;ROUND(H106/5,0)&amp;IF(R106="","",";"&amp;R106&amp;"|"&amp;ROUND(H106/5,0)&amp;IF(S106="","",";"&amp;S106&amp;"|"&amp;ROUND(H106/5,0)&amp;IF(T106="","",";"&amp;T106&amp;"|"&amp;ROUND(H106/5,0)&amp;IF(U106="","",";"&amp;U106&amp;"|"&amp;ROUND(H106/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>503|2|134027;505|2|134027;501|1|134027</v>
       </c>
     </row>
@@ -10182,7 +10158,7 @@
         <v>432</v>
       </c>
       <c r="O107" s="3" t="str">
-        <f>N107&amp;";Exp_Role|"&amp;L107&amp;";Exp_Kongfu|"&amp;M107</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|350;Exp_Role|1720;Exp_Kongfu|158</v>
       </c>
       <c r="Q107" s="4" t="s">
@@ -10193,7 +10169,7 @@
       </c>
       <c r="S107" s="4"/>
       <c r="W107" s="16" t="str">
-        <f>Q107&amp;"|"&amp;ROUND(H107/5,0)&amp;IF(R107="","",";"&amp;R107&amp;"|"&amp;ROUND(H107/5,0)&amp;IF(S107="","",";"&amp;S107&amp;"|"&amp;ROUND(H107/5,0)&amp;IF(T107="","",";"&amp;T107&amp;"|"&amp;ROUND(H107/5,0)&amp;IF(U107="","",";"&amp;U107&amp;"|"&amp;ROUND(H107/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>503|3|152208;505|2|152208</v>
       </c>
     </row>
@@ -10239,7 +10215,7 @@
         <v>440</v>
       </c>
       <c r="O108" s="3" t="str">
-        <f>N108&amp;";Exp_Role|"&amp;L108&amp;";Exp_Kongfu|"&amp;M108</f>
+        <f t="shared" si="2"/>
         <v>Item|1001|350;Exp_Role|1740;Exp_Kongfu|159</v>
       </c>
       <c r="P108"/>
@@ -10254,7 +10230,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="15"/>
       <c r="W108" s="7" t="str">
-        <f>Q108&amp;"|"&amp;ROUND(H108/5,0)&amp;IF(R108="","",";"&amp;R108&amp;"|"&amp;ROUND(H108/5,0)&amp;IF(S108="","",";"&amp;S108&amp;"|"&amp;ROUND(H108/5,0)&amp;IF(T108="","",";"&amp;T108&amp;"|"&amp;ROUND(H108/5,0)&amp;IF(U108="","",";"&amp;U108&amp;"|"&amp;ROUND(H108/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>503|4|172854;505|1|172854</v>
       </c>
     </row>
@@ -10300,7 +10276,7 @@
         <v>472</v>
       </c>
       <c r="O109" s="7" t="str">
-        <f>N109&amp;";Exp_Role|"&amp;L109&amp;";Exp_Kongfu|"&amp;M109</f>
+        <f t="shared" si="2"/>
         <v>Armor|601|1;Exp_Role|1760;Exp_Kongfu|160</v>
       </c>
       <c r="P109" s="15"/>
@@ -10316,7 +10292,7 @@
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="W109" s="16" t="str">
-        <f>Q109&amp;"|"&amp;ROUND(H109/5,0)&amp;IF(R109="","",";"&amp;R109&amp;"|"&amp;ROUND(H109/5,0)&amp;IF(S109="","",";"&amp;S109&amp;"|"&amp;ROUND(H109/5,0)&amp;IF(T109="","",";"&amp;T109&amp;"|"&amp;ROUND(H109/5,0)&amp;IF(U109="","",";"&amp;U109&amp;"|"&amp;ROUND(H109/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>504|2|196301;505|2|196301;502|1|196301</v>
       </c>
     </row>
@@ -10361,7 +10337,7 @@
         <v>451</v>
       </c>
       <c r="O110" s="3" t="str">
-        <f>N110&amp;";Exp_Role|"&amp;L110&amp;";Exp_Kongfu|"&amp;M110</f>
+        <f t="shared" si="2"/>
         <v>Coin|600;Exp_Role|1800;Exp_Kongfu|162</v>
       </c>
       <c r="Q110" s="4" t="s">
@@ -10372,7 +10348,7 @@
       </c>
       <c r="S110" s="4"/>
       <c r="W110" s="16" t="str">
-        <f>Q110&amp;"|"&amp;ROUND(H110/5,0)&amp;IF(R110="","",";"&amp;R110&amp;"|"&amp;ROUND(H110/5,0)&amp;IF(S110="","",";"&amp;S110&amp;"|"&amp;ROUND(H110/5,0)&amp;IF(T110="","",";"&amp;T110&amp;"|"&amp;ROUND(H110/5,0)&amp;IF(U110="","",";"&amp;U110&amp;"|"&amp;ROUND(H110/5,0)))))</f>
+        <f t="shared" si="3"/>
         <v>504|2|222928;505|3|222928</v>
       </c>
     </row>
@@ -10417,7 +10393,7 @@
         <v>456</v>
       </c>
       <c r="O111" s="3" t="str">
-        <f>N111&amp;";Exp_Role|"&amp;L111&amp;";Exp_Kongfu|"&amp;M111</f>
+        <f t="shared" ref="O111:O174" si="4">N111&amp;";Exp_Role|"&amp;L111&amp;";Exp_Kongfu|"&amp;M111</f>
         <v>Food|45;Exp_Role|1840;Exp_Kongfu|163</v>
       </c>
       <c r="Q111" s="4" t="s">
@@ -10428,7 +10404,7 @@
       </c>
       <c r="S111" s="4"/>
       <c r="W111" s="16" t="str">
-        <f>Q111&amp;"|"&amp;ROUND(H111/5,0)&amp;IF(R111="","",";"&amp;R111&amp;"|"&amp;ROUND(H111/5,0)&amp;IF(S111="","",";"&amp;S111&amp;"|"&amp;ROUND(H111/5,0)&amp;IF(T111="","",";"&amp;T111&amp;"|"&amp;ROUND(H111/5,0)&amp;IF(U111="","",";"&amp;U111&amp;"|"&amp;ROUND(H111/5,0)))))</f>
+        <f t="shared" ref="W111:W174" si="5">Q111&amp;"|"&amp;ROUND(H111/5,0)&amp;IF(R111="","",";"&amp;R111&amp;"|"&amp;ROUND(H111/5,0)&amp;IF(S111="","",";"&amp;S111&amp;"|"&amp;ROUND(H111/5,0)&amp;IF(T111="","",";"&amp;T111&amp;"|"&amp;ROUND(H111/5,0)&amp;IF(U111="","",";"&amp;U111&amp;"|"&amp;ROUND(H111/5,0)))))</f>
         <v>504|4|253167;505|1|253167</v>
       </c>
     </row>
@@ -10473,7 +10449,7 @@
         <v>132</v>
       </c>
       <c r="O112" s="7" t="str">
-        <f>N112&amp;";Exp_Role|"&amp;L112&amp;";Exp_Kongfu|"&amp;M112</f>
+        <f t="shared" si="4"/>
         <v>Kongfu|2001|1;Exp_Role|1880;Exp_Kongfu|164</v>
       </c>
       <c r="P112" s="15"/>
@@ -10488,7 +10464,7 @@
       </c>
       <c r="V112" s="15"/>
       <c r="W112" s="7" t="str">
-        <f>Q112&amp;"|"&amp;ROUND(H112/5,0)&amp;IF(R112="","",";"&amp;R112&amp;"|"&amp;ROUND(H112/5,0)&amp;IF(S112="","",";"&amp;S112&amp;"|"&amp;ROUND(H112/5,0)&amp;IF(T112="","",";"&amp;T112&amp;"|"&amp;ROUND(H112/5,0)&amp;IF(U112="","",";"&amp;U112&amp;"|"&amp;ROUND(H112/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>504|2|287508;505|2|287508;501|1|287508</v>
       </c>
     </row>
@@ -10533,7 +10509,7 @@
         <v>432</v>
       </c>
       <c r="O113" s="3" t="str">
-        <f>N113&amp;";Exp_Role|"&amp;L113&amp;";Exp_Kongfu|"&amp;M113</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|350;Exp_Role|1960;Exp_Kongfu|166</v>
       </c>
       <c r="Q113" s="4" t="s">
@@ -10544,7 +10520,7 @@
       </c>
       <c r="S113" s="4"/>
       <c r="W113" s="16" t="str">
-        <f>Q113&amp;"|"&amp;ROUND(H113/5,0)&amp;IF(R113="","",";"&amp;R113&amp;"|"&amp;ROUND(H113/5,0)&amp;IF(S113="","",";"&amp;S113&amp;"|"&amp;ROUND(H113/5,0)&amp;IF(T113="","",";"&amp;T113&amp;"|"&amp;ROUND(H113/5,0)&amp;IF(U113="","",";"&amp;U113&amp;"|"&amp;ROUND(H113/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|3|326507;504|2|326507</v>
       </c>
     </row>
@@ -10589,7 +10565,7 @@
         <v>440</v>
       </c>
       <c r="O114" s="3" t="str">
-        <f>N114&amp;";Exp_Role|"&amp;L114&amp;";Exp_Kongfu|"&amp;M114</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|350;Exp_Role|2000;Exp_Kongfu|167</v>
       </c>
       <c r="Q114" s="4" t="s">
@@ -10602,7 +10578,7 @@
         <v>435</v>
       </c>
       <c r="W114" s="16" t="str">
-        <f>Q114&amp;"|"&amp;ROUND(H114/5,0)&amp;IF(R114="","",";"&amp;R114&amp;"|"&amp;ROUND(H114/5,0)&amp;IF(S114="","",";"&amp;S114&amp;"|"&amp;ROUND(H114/5,0)&amp;IF(T114="","",";"&amp;T114&amp;"|"&amp;ROUND(H114/5,0)&amp;IF(U114="","",";"&amp;U114&amp;"|"&amp;ROUND(H114/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|2|370796;504|1|370796;505|1|370796</v>
       </c>
     </row>
@@ -10648,7 +10624,7 @@
         <v>494</v>
       </c>
       <c r="O115" s="7" t="str">
-        <f>N115&amp;";Exp_Role|"&amp;L115&amp;";Exp_Kongfu|"&amp;M115</f>
+        <f t="shared" si="4"/>
         <v>Medicine|103|1;Exp_Role|2040;Exp_Kongfu|168</v>
       </c>
       <c r="P115" s="15"/>
@@ -10666,7 +10642,7 @@
       </c>
       <c r="U115" s="7"/>
       <c r="W115" s="16" t="str">
-        <f>Q115&amp;"|"&amp;ROUND(H115/5,0)&amp;IF(R115="","",";"&amp;R115&amp;"|"&amp;ROUND(H115/5,0)&amp;IF(S115="","",";"&amp;S115&amp;"|"&amp;ROUND(H115/5,0)&amp;IF(T115="","",";"&amp;T115&amp;"|"&amp;ROUND(H115/5,0)&amp;IF(U115="","",";"&amp;U115&amp;"|"&amp;ROUND(H115/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|1|421092;504|1|421092;505|2|421092;502|1|421092</v>
       </c>
     </row>
@@ -10712,7 +10688,7 @@
         <v>451</v>
       </c>
       <c r="O116" s="3" t="str">
-        <f>N116&amp;";Exp_Role|"&amp;L116&amp;";Exp_Kongfu|"&amp;M116</f>
+        <f t="shared" si="4"/>
         <v>Coin|600;Exp_Role|2080;Exp_Kongfu|169</v>
       </c>
       <c r="P116"/>
@@ -10729,7 +10705,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="15"/>
       <c r="W116" s="7" t="str">
-        <f>Q116&amp;"|"&amp;ROUND(H116/5,0)&amp;IF(R116="","",";"&amp;R116&amp;"|"&amp;ROUND(H116/5,0)&amp;IF(S116="","",";"&amp;S116&amp;"|"&amp;ROUND(H116/5,0)&amp;IF(T116="","",";"&amp;T116&amp;"|"&amp;ROUND(H116/5,0)&amp;IF(U116="","",";"&amp;U116&amp;"|"&amp;ROUND(H116/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|2|478211;504|2|478211;505|1|478211</v>
       </c>
     </row>
@@ -10774,7 +10750,7 @@
         <v>456</v>
       </c>
       <c r="O117" s="3" t="str">
-        <f>N117&amp;";Exp_Role|"&amp;L117&amp;";Exp_Kongfu|"&amp;M117</f>
+        <f t="shared" si="4"/>
         <v>Food|45;Exp_Role|2160;Exp_Kongfu|171</v>
       </c>
       <c r="Q117" s="4" t="s">
@@ -10787,7 +10763,7 @@
         <v>435</v>
       </c>
       <c r="W117" s="16" t="str">
-        <f>Q117&amp;"|"&amp;ROUND(H117/5,0)&amp;IF(R117="","",";"&amp;R117&amp;"|"&amp;ROUND(H117/5,0)&amp;IF(S117="","",";"&amp;S117&amp;"|"&amp;ROUND(H117/5,0)&amp;IF(T117="","",";"&amp;T117&amp;"|"&amp;ROUND(H117/5,0)&amp;IF(U117="","",";"&amp;U117&amp;"|"&amp;ROUND(H117/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|2|543078;504|2|543078;505|1|543078</v>
       </c>
     </row>
@@ -10833,7 +10809,7 @@
         <v>111</v>
       </c>
       <c r="O118" s="7" t="str">
-        <f>N118&amp;";Exp_Role|"&amp;L118&amp;";Exp_Kongfu|"&amp;M118</f>
+        <f t="shared" si="4"/>
         <v>Item|2002|1;Exp_Role|2200;Exp_Kongfu|172</v>
       </c>
       <c r="P118" s="15"/>
@@ -10851,7 +10827,7 @@
       </c>
       <c r="U118" s="7"/>
       <c r="W118" s="16" t="str">
-        <f>Q118&amp;"|"&amp;ROUND(H118/5,0)&amp;IF(R118="","",";"&amp;R118&amp;"|"&amp;ROUND(H118/5,0)&amp;IF(S118="","",";"&amp;S118&amp;"|"&amp;ROUND(H118/5,0)&amp;IF(T118="","",";"&amp;T118&amp;"|"&amp;ROUND(H118/5,0)&amp;IF(U118="","",";"&amp;U118&amp;"|"&amp;ROUND(H118/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>501|1|616744;504|1|616744;505|2|616744;502|1|616744</v>
       </c>
     </row>
@@ -10896,7 +10872,7 @@
         <v>432</v>
       </c>
       <c r="O119" s="3" t="str">
-        <f>N119&amp;";Exp_Role|"&amp;L119&amp;";Exp_Kongfu|"&amp;M119</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|350;Exp_Role|2240;Exp_Kongfu|173</v>
       </c>
       <c r="Q119" s="4" t="s">
@@ -10907,7 +10883,7 @@
       </c>
       <c r="S119" s="4"/>
       <c r="W119" s="16" t="str">
-        <f>Q119&amp;"|"&amp;ROUND(H119/5,0)&amp;IF(R119="","",";"&amp;R119&amp;"|"&amp;ROUND(H119/5,0)&amp;IF(S119="","",";"&amp;S119&amp;"|"&amp;ROUND(H119/5,0)&amp;IF(T119="","",";"&amp;T119&amp;"|"&amp;ROUND(H119/5,0)&amp;IF(U119="","",";"&amp;U119&amp;"|"&amp;ROUND(H119/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|1|700402;505|4|700402</v>
       </c>
     </row>
@@ -10953,7 +10929,7 @@
         <v>440</v>
       </c>
       <c r="O120" s="3" t="str">
-        <f>N120&amp;";Exp_Role|"&amp;L120&amp;";Exp_Kongfu|"&amp;M120</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|350;Exp_Role|2280;Exp_Kongfu|174</v>
       </c>
       <c r="P120"/>
@@ -10968,7 +10944,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="15"/>
       <c r="W120" s="7" t="str">
-        <f>Q120&amp;"|"&amp;ROUND(H120/5,0)&amp;IF(R120="","",";"&amp;R120&amp;"|"&amp;ROUND(H120/5,0)&amp;IF(S120="","",";"&amp;S120&amp;"|"&amp;ROUND(H120/5,0)&amp;IF(T120="","",";"&amp;T120&amp;"|"&amp;ROUND(H120/5,0)&amp;IF(U120="","",";"&amp;U120&amp;"|"&amp;ROUND(H120/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|2|795408;505|3|795408</v>
       </c>
     </row>
@@ -11014,7 +10990,7 @@
         <v>513</v>
       </c>
       <c r="O121" s="7" t="str">
-        <f>N121&amp;";Exp_Role|"&amp;L121&amp;";Exp_Kongfu|"&amp;M121</f>
+        <f t="shared" si="4"/>
         <v>Item|3002|5;Exp_Role|2320;Exp_Kongfu|175</v>
       </c>
       <c r="P121" s="15"/>
@@ -11030,7 +11006,7 @@
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
       <c r="W121" s="16" t="str">
-        <f>Q121&amp;"|"&amp;ROUND(H121/5,0)&amp;IF(R121="","",";"&amp;R121&amp;"|"&amp;ROUND(H121/5,0)&amp;IF(S121="","",";"&amp;S121&amp;"|"&amp;ROUND(H121/5,0)&amp;IF(T121="","",";"&amp;T121&amp;"|"&amp;ROUND(H121/5,0)&amp;IF(U121="","",";"&amp;U121&amp;"|"&amp;ROUND(H121/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>504|2|903301;505|2|903301;502|1|903301</v>
       </c>
     </row>
@@ -11075,7 +11051,7 @@
         <v>451</v>
       </c>
       <c r="O122" s="3" t="str">
-        <f>N122&amp;";Exp_Role|"&amp;L122&amp;";Exp_Kongfu|"&amp;M122</f>
+        <f t="shared" si="4"/>
         <v>Coin|600;Exp_Role|2360;Exp_Kongfu|176</v>
       </c>
       <c r="Q122" s="4" t="s">
@@ -11088,7 +11064,7 @@
         <v>435</v>
       </c>
       <c r="W122" s="16" t="str">
-        <f>Q122&amp;"|"&amp;ROUND(H122/5,0)&amp;IF(R122="","",";"&amp;R122&amp;"|"&amp;ROUND(H122/5,0)&amp;IF(S122="","",";"&amp;S122&amp;"|"&amp;ROUND(H122/5,0)&amp;IF(T122="","",";"&amp;T122&amp;"|"&amp;ROUND(H122/5,0)&amp;IF(U122="","",";"&amp;U122&amp;"|"&amp;ROUND(H122/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|3|1025829;504|1|1025829;505|1|1025829</v>
       </c>
     </row>
@@ -11133,7 +11109,7 @@
         <v>456</v>
       </c>
       <c r="O123" s="3" t="str">
-        <f>N123&amp;";Exp_Role|"&amp;L123&amp;";Exp_Kongfu|"&amp;M123</f>
+        <f t="shared" si="4"/>
         <v>Food|45;Exp_Role|2400;Exp_Kongfu|177</v>
       </c>
       <c r="Q123" s="4" t="s">
@@ -11146,7 +11122,7 @@
         <v>442</v>
       </c>
       <c r="W123" s="16" t="str">
-        <f>Q123&amp;"|"&amp;ROUND(H123/5,0)&amp;IF(R123="","",";"&amp;R123&amp;"|"&amp;ROUND(H123/5,0)&amp;IF(S123="","",";"&amp;S123&amp;"|"&amp;ROUND(H123/5,0)&amp;IF(T123="","",";"&amp;T123&amp;"|"&amp;ROUND(H123/5,0)&amp;IF(U123="","",";"&amp;U123&amp;"|"&amp;ROUND(H123/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>503|1|1164978;504|2|1164978;505|2|1164978</v>
       </c>
     </row>
@@ -11191,7 +11167,7 @@
         <v>523</v>
       </c>
       <c r="O124" s="7" t="str">
-        <f>N124&amp;";Exp_Role|"&amp;L124&amp;";Exp_Kongfu|"&amp;M124</f>
+        <f t="shared" si="4"/>
         <v>Kongfu|3007|1;Exp_Role|2600;Exp_Kongfu|179</v>
       </c>
       <c r="P124" s="15"/>
@@ -11209,7 +11185,7 @@
       </c>
       <c r="V124" s="15"/>
       <c r="W124" s="7" t="str">
-        <f>Q124&amp;"|"&amp;ROUND(H124/5,0)&amp;IF(R124="","",";"&amp;R124&amp;"|"&amp;ROUND(H124/5,0)&amp;IF(S124="","",";"&amp;S124&amp;"|"&amp;ROUND(H124/5,0)&amp;IF(T124="","",";"&amp;T124&amp;"|"&amp;ROUND(H124/5,0)&amp;IF(U124="","",";"&amp;U124&amp;"|"&amp;ROUND(H124/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>501|1|1322997;504|1|1322997;505|2|1322997;502|1|1322997</v>
       </c>
     </row>
@@ -11254,7 +11230,7 @@
         <v>529</v>
       </c>
       <c r="O125" s="3" t="str">
-        <f>N125&amp;";Exp_Role|"&amp;L125&amp;";Exp_Kongfu|"&amp;M125</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|450;Exp_Role|2700;Exp_Kongfu|180</v>
       </c>
       <c r="Q125" s="4" t="s">
@@ -11267,7 +11243,7 @@
         <v>532</v>
       </c>
       <c r="W125" s="16" t="str">
-        <f>Q125&amp;"|"&amp;ROUND(H125/5,0)&amp;IF(R125="","",";"&amp;R125&amp;"|"&amp;ROUND(H125/5,0)&amp;IF(S125="","",";"&amp;S125&amp;"|"&amp;ROUND(H125/5,0)&amp;IF(T125="","",";"&amp;T125&amp;"|"&amp;ROUND(H125/5,0)&amp;IF(U125="","",";"&amp;U125&amp;"|"&amp;ROUND(H125/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|2|402683;604|2|402683;605|1|402683</v>
       </c>
     </row>
@@ -11312,7 +11288,7 @@
         <v>537</v>
       </c>
       <c r="O126" s="3" t="str">
-        <f>N126&amp;";Exp_Role|"&amp;L126&amp;";Exp_Kongfu|"&amp;M126</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|450;Exp_Role|2800;Exp_Kongfu|190</v>
       </c>
       <c r="Q126" s="4" t="s">
@@ -11322,7 +11298,7 @@
         <v>538</v>
       </c>
       <c r="W126" s="16" t="str">
-        <f>Q126&amp;"|"&amp;ROUND(H126/5,0)&amp;IF(R126="","",";"&amp;R126&amp;"|"&amp;ROUND(H126/5,0)&amp;IF(S126="","",";"&amp;S126&amp;"|"&amp;ROUND(H126/5,0)&amp;IF(T126="","",";"&amp;T126&amp;"|"&amp;ROUND(H126/5,0)&amp;IF(U126="","",";"&amp;U126&amp;"|"&amp;ROUND(H126/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>604|2|492875;605|3|492875</v>
       </c>
     </row>
@@ -11368,7 +11344,7 @@
         <v>236</v>
       </c>
       <c r="O127" s="7" t="str">
-        <f>N127&amp;";Exp_Role|"&amp;L127&amp;";Exp_Kongfu|"&amp;M127</f>
+        <f t="shared" si="4"/>
         <v>Kongfu|2002|1;Exp_Role|2900;Exp_Kongfu|200</v>
       </c>
       <c r="P127" s="15"/>
@@ -11384,7 +11360,7 @@
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
       <c r="W127" s="16" t="str">
-        <f>Q127&amp;"|"&amp;ROUND(H127/5,0)&amp;IF(R127="","",";"&amp;R127&amp;"|"&amp;ROUND(H127/5,0)&amp;IF(S127="","",";"&amp;S127&amp;"|"&amp;ROUND(H127/5,0)&amp;IF(T127="","",";"&amp;T127&amp;"|"&amp;ROUND(H127/5,0)&amp;IF(U127="","",";"&amp;U127&amp;"|"&amp;ROUND(H127/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>604|2|603269;605|2|603269;602|1|603269</v>
       </c>
     </row>
@@ -11430,7 +11406,7 @@
         <v>548</v>
       </c>
       <c r="O128" s="3" t="str">
-        <f>N128&amp;";Exp_Role|"&amp;L128&amp;";Exp_Kongfu|"&amp;M128</f>
+        <f t="shared" si="4"/>
         <v>Coin|800;Exp_Role|3100;Exp_Kongfu|220</v>
       </c>
       <c r="P128"/>
@@ -11445,7 +11421,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="15"/>
       <c r="W128" s="7" t="str">
-        <f>Q128&amp;"|"&amp;ROUND(H128/5,0)&amp;IF(R128="","",";"&amp;R128&amp;"|"&amp;ROUND(H128/5,0)&amp;IF(S128="","",";"&amp;S128&amp;"|"&amp;ROUND(H128/5,0)&amp;IF(T128="","",";"&amp;T128&amp;"|"&amp;ROUND(H128/5,0)&amp;IF(U128="","",";"&amp;U128&amp;"|"&amp;ROUND(H128/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>604|4|738388;605|1|738388</v>
       </c>
     </row>
@@ -11490,7 +11466,7 @@
         <v>553</v>
       </c>
       <c r="O129" s="3" t="str">
-        <f>N129&amp;";Exp_Role|"&amp;L129&amp;";Exp_Kongfu|"&amp;M129</f>
+        <f t="shared" si="4"/>
         <v>Food|50;Exp_Role|3200;Exp_Kongfu|230</v>
       </c>
       <c r="Q129" s="4" t="s">
@@ -11500,7 +11476,7 @@
         <v>555</v>
       </c>
       <c r="W129" s="16" t="str">
-        <f>Q129&amp;"|"&amp;ROUND(H129/5,0)&amp;IF(R129="","",";"&amp;R129&amp;"|"&amp;ROUND(H129/5,0)&amp;IF(S129="","",";"&amp;S129&amp;"|"&amp;ROUND(H129/5,0)&amp;IF(T129="","",";"&amp;T129&amp;"|"&amp;ROUND(H129/5,0)&amp;IF(U129="","",";"&amp;U129&amp;"|"&amp;ROUND(H129/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|4|903771;604|1|903771</v>
       </c>
     </row>
@@ -11546,7 +11522,7 @@
         <v>111</v>
       </c>
       <c r="O130" s="7" t="str">
-        <f>N130&amp;";Exp_Role|"&amp;L130&amp;";Exp_Kongfu|"&amp;M130</f>
+        <f t="shared" si="4"/>
         <v>Item|2002|1;Exp_Role|3400;Exp_Kongfu|240</v>
       </c>
       <c r="P130" s="15"/>
@@ -11562,7 +11538,7 @@
       <c r="T130" s="7"/>
       <c r="U130" s="7"/>
       <c r="W130" s="16" t="str">
-        <f>Q130&amp;"|"&amp;ROUND(H130/5,0)&amp;IF(R130="","",";"&amp;R130&amp;"|"&amp;ROUND(H130/5,0)&amp;IF(S130="","",";"&amp;S130&amp;"|"&amp;ROUND(H130/5,0)&amp;IF(T130="","",";"&amp;T130&amp;"|"&amp;ROUND(H130/5,0)&amp;IF(U130="","",";"&amp;U130&amp;"|"&amp;ROUND(H130/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|2|1106196;604|2|1106196;601|1|1106196</v>
       </c>
     </row>
@@ -11607,7 +11583,7 @@
         <v>529</v>
       </c>
       <c r="O131" s="3" t="str">
-        <f>N131&amp;";Exp_Role|"&amp;L131&amp;";Exp_Kongfu|"&amp;M131</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|450;Exp_Role|3800;Exp_Kongfu|260</v>
       </c>
       <c r="Q131" s="4" t="s">
@@ -11616,9 +11592,8 @@
       <c r="R131" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="S131" s="3"/>
       <c r="W131" s="16" t="str">
-        <f>Q131&amp;"|"&amp;ROUND(H131/5,0)&amp;IF(R131="","",";"&amp;R131&amp;"|"&amp;ROUND(H131/5,0)&amp;IF(S131="","",";"&amp;S131&amp;"|"&amp;ROUND(H131/5,0)&amp;IF(T131="","",";"&amp;T131&amp;"|"&amp;ROUND(H131/5,0)&amp;IF(U131="","",";"&amp;U131&amp;"|"&amp;ROUND(H131/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>604|3|1353960;605|2|1353960</v>
       </c>
     </row>
@@ -11664,7 +11639,7 @@
         <v>537</v>
       </c>
       <c r="O132" s="3" t="str">
-        <f>N132&amp;";Exp_Role|"&amp;L132&amp;";Exp_Kongfu|"&amp;M132</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|450;Exp_Role|4000;Exp_Kongfu|270</v>
       </c>
       <c r="P132"/>
@@ -11679,7 +11654,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="15"/>
       <c r="W132" s="7" t="str">
-        <f>Q132&amp;"|"&amp;ROUND(H132/5,0)&amp;IF(R132="","",";"&amp;R132&amp;"|"&amp;ROUND(H132/5,0)&amp;IF(S132="","",";"&amp;S132&amp;"|"&amp;ROUND(H132/5,0)&amp;IF(T132="","",";"&amp;T132&amp;"|"&amp;ROUND(H132/5,0)&amp;IF(U132="","",";"&amp;U132&amp;"|"&amp;ROUND(H132/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|3|1657217;604|2|1657217</v>
       </c>
     </row>
@@ -11722,11 +11697,11 @@
         <v>280</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>572</v>
+        <v>472</v>
       </c>
       <c r="O133" s="7" t="str">
-        <f>N133&amp;";Exp_Role|"&amp;L133&amp;";Exp_Kongfu|"&amp;M133</f>
-        <v>Arms|303|1;Exp_Role|4400;Exp_Kongfu|280</v>
+        <f t="shared" si="4"/>
+        <v>Armor|601|1;Exp_Role|4400;Exp_Kongfu|280</v>
       </c>
       <c r="P133" s="15"/>
       <c r="Q133" s="12" t="s">
@@ -11741,7 +11716,7 @@
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
       <c r="W133" s="16" t="str">
-        <f>Q133&amp;"|"&amp;ROUND(H133/5,0)&amp;IF(R133="","",";"&amp;R133&amp;"|"&amp;ROUND(H133/5,0)&amp;IF(S133="","",";"&amp;S133&amp;"|"&amp;ROUND(H133/5,0)&amp;IF(T133="","",";"&amp;T133&amp;"|"&amp;ROUND(H133/5,0)&amp;IF(U133="","",";"&amp;U133&amp;"|"&amp;ROUND(H133/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|2|2028398;605|2|2028398;602|1|2028398</v>
       </c>
     </row>
@@ -11756,16 +11731,16 @@
         <v>31</v>
       </c>
       <c r="D134" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="F134" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>576</v>
       </c>
       <c r="H134" s="14">
         <v>12413574</v>
@@ -11786,7 +11761,7 @@
         <v>548</v>
       </c>
       <c r="O134" s="3" t="str">
-        <f>N134&amp;";Exp_Role|"&amp;L134&amp;";Exp_Kongfu|"&amp;M134</f>
+        <f t="shared" si="4"/>
         <v>Coin|800;Exp_Role|5200;Exp_Kongfu|300</v>
       </c>
       <c r="Q134" s="4" t="s">
@@ -11795,9 +11770,8 @@
       <c r="R134" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="S134" s="3"/>
       <c r="W134" s="16" t="str">
-        <f>Q134&amp;"|"&amp;ROUND(H134/5,0)&amp;IF(R134="","",";"&amp;R134&amp;"|"&amp;ROUND(H134/5,0)&amp;IF(S134="","",";"&amp;S134&amp;"|"&amp;ROUND(H134/5,0)&amp;IF(T134="","",";"&amp;T134&amp;"|"&amp;ROUND(H134/5,0)&amp;IF(U134="","",";"&amp;U134&amp;"|"&amp;ROUND(H134/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>604|2|2482715;605|3|2482715</v>
       </c>
     </row>
@@ -11815,13 +11789,13 @@
         <v>524</v>
       </c>
       <c r="E135" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="H135" s="14">
         <v>15193945</v>
@@ -11842,7 +11816,7 @@
         <v>553</v>
       </c>
       <c r="O135" s="3" t="str">
-        <f>N135&amp;";Exp_Role|"&amp;L135&amp;";Exp_Kongfu|"&amp;M135</f>
+        <f t="shared" si="4"/>
         <v>Food|50;Exp_Role|5600;Exp_Kongfu|310</v>
       </c>
       <c r="Q135" s="4" t="s">
@@ -11851,9 +11825,8 @@
       <c r="R135" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="S135" s="3"/>
       <c r="W135" s="16" t="str">
-        <f>Q135&amp;"|"&amp;ROUND(H135/5,0)&amp;IF(R135="","",";"&amp;R135&amp;"|"&amp;ROUND(H135/5,0)&amp;IF(S135="","",";"&amp;S135&amp;"|"&amp;ROUND(H135/5,0)&amp;IF(T135="","",";"&amp;T135&amp;"|"&amp;ROUND(H135/5,0)&amp;IF(U135="","",";"&amp;U135&amp;"|"&amp;ROUND(H135/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|2|3038789;604|3|3038789</v>
       </c>
     </row>
@@ -11871,13 +11844,13 @@
         <v>556</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>380</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H136" s="13">
         <v>18597059</v>
@@ -11895,10 +11868,10 @@
         <v>320</v>
       </c>
       <c r="N136" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O136" s="7" t="str">
-        <f>N136&amp;";Exp_Role|"&amp;L136&amp;";Exp_Kongfu|"&amp;M136</f>
+        <f t="shared" si="4"/>
         <v>Kongfu|2003|1;Exp_Role|6000;Exp_Kongfu|320</v>
       </c>
       <c r="P136" s="15"/>
@@ -11913,7 +11886,7 @@
       </c>
       <c r="V136" s="15"/>
       <c r="W136" s="7" t="str">
-        <f>Q136&amp;"|"&amp;ROUND(H136/5,0)&amp;IF(R136="","",";"&amp;R136&amp;"|"&amp;ROUND(H136/5,0)&amp;IF(S136="","",";"&amp;S136&amp;"|"&amp;ROUND(H136/5,0)&amp;IF(T136="","",";"&amp;T136&amp;"|"&amp;ROUND(H136/5,0)&amp;IF(U136="","",";"&amp;U136&amp;"|"&amp;ROUND(H136/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|2|3719412;604|2|3719412;601|1|3719412</v>
       </c>
     </row>
@@ -11928,16 +11901,16 @@
         <v>31</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E137" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>585</v>
       </c>
       <c r="H137" s="14">
         <v>22762396</v>
@@ -11958,17 +11931,17 @@
         <v>529</v>
       </c>
       <c r="O137" s="3" t="str">
-        <f>N137&amp;";Exp_Role|"&amp;L137&amp;";Exp_Kongfu|"&amp;M137</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|450;Exp_Role|7200;Exp_Kongfu|340</v>
       </c>
       <c r="Q137" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="R137" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="R137" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="W137" s="16" t="str">
-        <f>Q137&amp;"|"&amp;ROUND(H137/5,0)&amp;IF(R137="","",";"&amp;R137&amp;"|"&amp;ROUND(H137/5,0)&amp;IF(S137="","",";"&amp;S137&amp;"|"&amp;ROUND(H137/5,0)&amp;IF(T137="","",";"&amp;T137&amp;"|"&amp;ROUND(H137/5,0)&amp;IF(U137="","",";"&amp;U137&amp;"|"&amp;ROUND(H137/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|1|4552479;605|4|4552479</v>
       </c>
     </row>
@@ -11986,13 +11959,13 @@
         <v>524</v>
       </c>
       <c r="E138" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="H138" s="14">
         <v>27860678</v>
@@ -12013,18 +11986,17 @@
         <v>537</v>
       </c>
       <c r="O138" s="3" t="str">
-        <f>N138&amp;";Exp_Role|"&amp;L138&amp;";Exp_Kongfu|"&amp;M138</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|450;Exp_Role|8000;Exp_Kongfu|350</v>
       </c>
       <c r="Q138" s="4" t="s">
         <v>555</v>
       </c>
       <c r="R138" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="S138" s="3"/>
+        <v>586</v>
+      </c>
       <c r="W138" s="16" t="str">
-        <f>Q138&amp;"|"&amp;ROUND(H138/5,0)&amp;IF(R138="","",";"&amp;R138&amp;"|"&amp;ROUND(H138/5,0)&amp;IF(S138="","",";"&amp;S138&amp;"|"&amp;ROUND(H138/5,0)&amp;IF(T138="","",";"&amp;T138&amp;"|"&amp;ROUND(H138/5,0)&amp;IF(U138="","",";"&amp;U138&amp;"|"&amp;ROUND(H138/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>604|1|5572136;605|4|5572136</v>
       </c>
     </row>
@@ -12042,13 +12014,13 @@
         <v>539</v>
       </c>
       <c r="E139" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F139" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="F139" s="12" t="s">
+      <c r="G139" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H139" s="13">
         <v>34100864</v>
@@ -12070,12 +12042,12 @@
         <v>494</v>
       </c>
       <c r="O139" s="7" t="str">
-        <f>N139&amp;";Exp_Role|"&amp;L139&amp;";Exp_Kongfu|"&amp;M139</f>
+        <f t="shared" si="4"/>
         <v>Medicine|103|1;Exp_Role|8800;Exp_Kongfu|360</v>
       </c>
       <c r="P139" s="15"/>
       <c r="Q139" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R139" s="12" t="s">
         <v>555</v>
@@ -12088,7 +12060,7 @@
       </c>
       <c r="U139" s="7"/>
       <c r="W139" s="16" t="str">
-        <f>Q139&amp;"|"&amp;ROUND(H139/5,0)&amp;IF(R139="","",";"&amp;R139&amp;"|"&amp;ROUND(H139/5,0)&amp;IF(S139="","",";"&amp;S139&amp;"|"&amp;ROUND(H139/5,0)&amp;IF(T139="","",";"&amp;T139&amp;"|"&amp;ROUND(H139/5,0)&amp;IF(U139="","",";"&amp;U139&amp;"|"&amp;ROUND(H139/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|1|6820173;604|1|6820173;605|2|6820173;602|1|6820173</v>
       </c>
     </row>
@@ -12103,16 +12075,16 @@
         <v>31</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E140" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="G140" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="H140" s="14">
         <v>41738717</v>
@@ -12134,7 +12106,7 @@
         <v>548</v>
       </c>
       <c r="O140" s="3" t="str">
-        <f>N140&amp;";Exp_Role|"&amp;L140&amp;";Exp_Kongfu|"&amp;M140</f>
+        <f t="shared" si="4"/>
         <v>Coin|800;Exp_Role|9600;Exp_Kongfu|370</v>
       </c>
       <c r="P140"/>
@@ -12142,14 +12114,14 @@
         <v>555</v>
       </c>
       <c r="R140" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="15"/>
       <c r="W140" s="7" t="str">
-        <f>Q140&amp;"|"&amp;ROUND(H140/5,0)&amp;IF(R140="","",";"&amp;R140&amp;"|"&amp;ROUND(H140/5,0)&amp;IF(S140="","",";"&amp;S140&amp;"|"&amp;ROUND(H140/5,0)&amp;IF(T140="","",";"&amp;T140&amp;"|"&amp;ROUND(H140/5,0)&amp;IF(U140="","",";"&amp;U140&amp;"|"&amp;ROUND(H140/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>604|1|8347743;605|4|8347743</v>
       </c>
     </row>
@@ -12167,13 +12139,13 @@
         <v>524</v>
       </c>
       <c r="E141" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="G141" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="H141" s="14">
         <v>51087283</v>
@@ -12194,17 +12166,17 @@
         <v>553</v>
       </c>
       <c r="O141" s="3" t="str">
-        <f>N141&amp;";Exp_Role|"&amp;L141&amp;";Exp_Kongfu|"&amp;M141</f>
+        <f t="shared" si="4"/>
         <v>Food|50;Exp_Role|11200;Exp_Kongfu|390</v>
       </c>
       <c r="Q141" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="R141" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="R141" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="W141" s="16" t="str">
-        <f>Q141&amp;"|"&amp;ROUND(H141/5,0)&amp;IF(R141="","",";"&amp;R141&amp;"|"&amp;ROUND(H141/5,0)&amp;IF(S141="","",";"&amp;S141&amp;"|"&amp;ROUND(H141/5,0)&amp;IF(T141="","",";"&amp;T141&amp;"|"&amp;ROUND(H141/5,0)&amp;IF(U141="","",";"&amp;U141&amp;"|"&amp;ROUND(H141/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|1|10217457;605|4|10217457</v>
       </c>
     </row>
@@ -12222,13 +12194,13 @@
         <v>556</v>
       </c>
       <c r="E142" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F142" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="F142" s="12" t="s">
+      <c r="G142" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="H142" s="13">
         <v>62529724</v>
@@ -12250,7 +12222,7 @@
         <v>111</v>
       </c>
       <c r="O142" s="7" t="str">
-        <f>N142&amp;";Exp_Role|"&amp;L142&amp;";Exp_Kongfu|"&amp;M142</f>
+        <f t="shared" si="4"/>
         <v>Item|2002|1;Exp_Role|12000;Exp_Kongfu|400</v>
       </c>
       <c r="P142" s="15"/>
@@ -12266,7 +12238,7 @@
       <c r="T142" s="7"/>
       <c r="U142" s="7"/>
       <c r="W142" s="16" t="str">
-        <f>Q142&amp;"|"&amp;ROUND(H142/5,0)&amp;IF(R142="","",";"&amp;R142&amp;"|"&amp;ROUND(H142/5,0)&amp;IF(S142="","",";"&amp;S142&amp;"|"&amp;ROUND(H142/5,0)&amp;IF(T142="","",";"&amp;T142&amp;"|"&amp;ROUND(H142/5,0)&amp;IF(U142="","",";"&amp;U142&amp;"|"&amp;ROUND(H142/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|2|12505945;604|2|12505945;601|1|12505945</v>
       </c>
     </row>
@@ -12284,13 +12256,13 @@
         <v>533</v>
       </c>
       <c r="E143" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="G143" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="H143" s="14">
         <v>76535023</v>
@@ -12298,7 +12270,6 @@
       <c r="I143" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="J143" s="3"/>
       <c r="K143" s="3">
         <v>300</v>
       </c>
@@ -12312,11 +12283,11 @@
         <v>529</v>
       </c>
       <c r="O143" s="3" t="str">
-        <f>N143&amp;";Exp_Role|"&amp;L143&amp;";Exp_Kongfu|"&amp;M143</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|450;Exp_Role|12800;Exp_Kongfu|410</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R143" s="3" t="s">
         <v>555</v>
@@ -12324,10 +12295,8 @@
       <c r="S143" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="T143" s="3"/>
-      <c r="U143" s="3"/>
       <c r="W143" s="16" t="str">
-        <f>Q143&amp;"|"&amp;ROUND(H143/5,0)&amp;IF(R143="","",";"&amp;R143&amp;"|"&amp;ROUND(H143/5,0)&amp;IF(S143="","",";"&amp;S143&amp;"|"&amp;ROUND(H143/5,0)&amp;IF(T143="","",";"&amp;T143&amp;"|"&amp;ROUND(H143/5,0)&amp;IF(U143="","",";"&amp;U143&amp;"|"&amp;ROUND(H143/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|1|15307005;604|1|15307005;605|3|15307005</v>
       </c>
     </row>
@@ -12345,13 +12314,13 @@
         <v>533</v>
       </c>
       <c r="E144" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="G144" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>608</v>
       </c>
       <c r="H144" s="14">
         <v>93677205</v>
@@ -12373,12 +12342,12 @@
         <v>537</v>
       </c>
       <c r="O144" s="3" t="str">
-        <f>N144&amp;";Exp_Role|"&amp;L144&amp;";Exp_Kongfu|"&amp;M144</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|450;Exp_Role|13600;Exp_Kongfu|420</v>
       </c>
       <c r="P144"/>
       <c r="Q144" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R144" s="3" t="s">
         <v>549</v>
@@ -12388,7 +12357,7 @@
       <c r="U144" s="3"/>
       <c r="V144" s="15"/>
       <c r="W144" s="7" t="str">
-        <f>Q144&amp;"|"&amp;ROUND(H144/5,0)&amp;IF(R144="","",";"&amp;R144&amp;"|"&amp;ROUND(H144/5,0)&amp;IF(S144="","",";"&amp;S144&amp;"|"&amp;ROUND(H144/5,0)&amp;IF(T144="","",";"&amp;T144&amp;"|"&amp;ROUND(H144/5,0)&amp;IF(U144="","",";"&amp;U144&amp;"|"&amp;ROUND(H144/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|1|18735441;604|4|18735441</v>
       </c>
     </row>
@@ -12406,13 +12375,13 @@
         <v>539</v>
       </c>
       <c r="E145" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F145" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="F145" s="12" t="s">
+      <c r="G145" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H145" s="13">
         <v>114658863</v>
@@ -12431,15 +12400,15 @@
         <v>430</v>
       </c>
       <c r="N145" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O145" s="7" t="str">
-        <f>N145&amp;";Exp_Role|"&amp;L145&amp;";Exp_Kongfu|"&amp;M145</f>
+        <f t="shared" si="4"/>
         <v>Item|3003|2;Exp_Role|14400;Exp_Kongfu|430</v>
       </c>
       <c r="P145" s="15"/>
       <c r="Q145" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R145" s="12" t="s">
         <v>555</v>
@@ -12452,7 +12421,7 @@
       </c>
       <c r="U145" s="7"/>
       <c r="W145" s="16" t="str">
-        <f>Q145&amp;"|"&amp;ROUND(H145/5,0)&amp;IF(R145="","",";"&amp;R145&amp;"|"&amp;ROUND(H145/5,0)&amp;IF(S145="","",";"&amp;S145&amp;"|"&amp;ROUND(H145/5,0)&amp;IF(T145="","",";"&amp;T145&amp;"|"&amp;ROUND(H145/5,0)&amp;IF(U145="","",";"&amp;U145&amp;"|"&amp;ROUND(H145/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|1|22931773;604|1|22931773;605|2|22931773;602|1|22931773</v>
       </c>
     </row>
@@ -12470,13 +12439,13 @@
         <v>533</v>
       </c>
       <c r="E146" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="G146" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>615</v>
       </c>
       <c r="H146" s="14">
         <v>140339957</v>
@@ -12497,7 +12466,7 @@
         <v>548</v>
       </c>
       <c r="O146" s="3" t="str">
-        <f>N146&amp;";Exp_Role|"&amp;L146&amp;";Exp_Kongfu|"&amp;M146</f>
+        <f t="shared" si="4"/>
         <v>Coin|800;Exp_Role|15200;Exp_Kongfu|440</v>
       </c>
       <c r="Q146" s="4" t="s">
@@ -12510,7 +12479,7 @@
         <v>543</v>
       </c>
       <c r="W146" s="16" t="str">
-        <f>Q146&amp;"|"&amp;ROUND(H146/5,0)&amp;IF(R146="","",";"&amp;R146&amp;"|"&amp;ROUND(H146/5,0)&amp;IF(S146="","",";"&amp;S146&amp;"|"&amp;ROUND(H146/5,0)&amp;IF(T146="","",";"&amp;T146&amp;"|"&amp;ROUND(H146/5,0)&amp;IF(U146="","",";"&amp;U146&amp;"|"&amp;ROUND(H146/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|2|28067991;604|1|28067991;605|2|28067991</v>
       </c>
     </row>
@@ -12528,13 +12497,13 @@
         <v>533</v>
       </c>
       <c r="E147" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="G147" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>618</v>
       </c>
       <c r="H147" s="14">
         <v>171773058</v>
@@ -12555,7 +12524,7 @@
         <v>553</v>
       </c>
       <c r="O147" s="3" t="str">
-        <f>N147&amp;";Exp_Role|"&amp;L147&amp;";Exp_Kongfu|"&amp;M147</f>
+        <f t="shared" si="4"/>
         <v>Food|50;Exp_Role|16000;Exp_Kongfu|450</v>
       </c>
       <c r="Q147" s="4" t="s">
@@ -12564,9 +12533,8 @@
       <c r="R147" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="S147" s="3"/>
       <c r="W147" s="16" t="str">
-        <f>Q147&amp;"|"&amp;ROUND(H147/5,0)&amp;IF(R147="","",";"&amp;R147&amp;"|"&amp;ROUND(H147/5,0)&amp;IF(S147="","",";"&amp;S147&amp;"|"&amp;ROUND(H147/5,0)&amp;IF(T147="","",";"&amp;T147&amp;"|"&amp;ROUND(H147/5,0)&amp;IF(U147="","",";"&amp;U147&amp;"|"&amp;ROUND(H147/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>603|3|34354612;605|2|34354612</v>
       </c>
     </row>
@@ -12581,16 +12549,16 @@
         <v>45</v>
       </c>
       <c r="D148" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="E148" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="F148" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="F148" s="12" t="s">
+      <c r="G148" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="H148" s="13">
         <v>210246512</v>
@@ -12608,10 +12576,10 @@
         <v>470</v>
       </c>
       <c r="N148" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O148" s="7" t="str">
-        <f>N148&amp;";Exp_Role|"&amp;L148&amp;";Exp_Kongfu|"&amp;M148</f>
+        <f t="shared" si="4"/>
         <v>Kongfu|3008|1;Exp_Role|17600;Exp_Kongfu|470</v>
       </c>
       <c r="P148" s="15"/>
@@ -12629,7 +12597,7 @@
       </c>
       <c r="V148" s="15"/>
       <c r="W148" s="7" t="str">
-        <f>Q148&amp;"|"&amp;ROUND(H148/5,0)&amp;IF(R148="","",";"&amp;R148&amp;"|"&amp;ROUND(H148/5,0)&amp;IF(S148="","",";"&amp;S148&amp;"|"&amp;ROUND(H148/5,0)&amp;IF(T148="","",";"&amp;T148&amp;"|"&amp;ROUND(H148/5,0)&amp;IF(U148="","",";"&amp;U148&amp;"|"&amp;ROUND(H148/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>601|1|42049302;604|2|42049302;605|1|42049302;601|1|42049302</v>
       </c>
     </row>
@@ -12644,22 +12612,22 @@
         <v>31</v>
       </c>
       <c r="D149" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="E149" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="F149" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="G149" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>627</v>
       </c>
       <c r="H149" s="11">
         <v>48610280</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K149" s="3">
         <v>350</v>
@@ -12671,19 +12639,19 @@
         <v>480</v>
       </c>
       <c r="N149" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="O149" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Item|1002|500;Exp_Role|18400;Exp_Kongfu|480</v>
+      </c>
+      <c r="Q149" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="O149" s="3" t="str">
-        <f>N149&amp;";Exp_Role|"&amp;L149&amp;";Exp_Kongfu|"&amp;M149</f>
-        <v>Item|1002|500;Exp_Role|18400;Exp_Kongfu|480</v>
-      </c>
-      <c r="Q149" s="4" t="s">
-        <v>630</v>
       </c>
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
       <c r="W149" s="16" t="str">
-        <f>Q149&amp;"|"&amp;ROUND(H149/5,0)&amp;IF(R149="","",";"&amp;R149&amp;"|"&amp;ROUND(H149/5,0)&amp;IF(S149="","",";"&amp;S149&amp;"|"&amp;ROUND(H149/5,0)&amp;IF(T149="","",";"&amp;T149&amp;"|"&amp;ROUND(H149/5,0)&amp;IF(U149="","",";"&amp;U149&amp;"|"&amp;ROUND(H149/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|5|9722056</v>
       </c>
     </row>
@@ -12698,22 +12666,22 @@
         <v>31</v>
       </c>
       <c r="D150" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E150" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="F150" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="F150" s="10" t="s">
+      <c r="G150" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>634</v>
       </c>
       <c r="H150" s="11">
         <v>59635793</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K150" s="3">
         <v>350</v>
@@ -12725,19 +12693,19 @@
         <v>490</v>
       </c>
       <c r="N150" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="O150" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Item|1001|500;Exp_Role|19200;Exp_Kongfu|490</v>
+      </c>
+      <c r="Q150" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="O150" s="3" t="str">
-        <f>N150&amp;";Exp_Role|"&amp;L150&amp;";Exp_Kongfu|"&amp;M150</f>
-        <v>Item|1001|500;Exp_Role|19200;Exp_Kongfu|490</v>
-      </c>
-      <c r="Q150" s="4" t="s">
-        <v>636</v>
       </c>
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
       <c r="W150" s="16" t="str">
-        <f>Q150&amp;"|"&amp;ROUND(H150/5,0)&amp;IF(R150="","",";"&amp;R150&amp;"|"&amp;ROUND(H150/5,0)&amp;IF(S150="","",";"&amp;S150&amp;"|"&amp;ROUND(H150/5,0)&amp;IF(T150="","",";"&amp;T150&amp;"|"&amp;ROUND(H150/5,0)&amp;IF(U150="","",";"&amp;U150&amp;"|"&amp;ROUND(H150/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>706|5|11927159</v>
       </c>
     </row>
@@ -12752,22 +12720,22 @@
         <v>45</v>
       </c>
       <c r="D151" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="E151" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="F151" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="G151" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="H151" s="13">
         <v>73162051</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7">
@@ -12780,28 +12748,28 @@
         <v>500</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O151" s="7" t="str">
-        <f>N151&amp;";Exp_Role|"&amp;L151&amp;";Exp_Kongfu|"&amp;M151</f>
+        <f t="shared" si="4"/>
         <v>Kongfu|3001|1;Exp_Role|20000;Exp_Kongfu|500</v>
       </c>
       <c r="P151" s="15"/>
       <c r="Q151" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="R151" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="R151" s="12" t="s">
+      <c r="S151" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="S151" s="12" t="s">
+      <c r="T151" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="T151" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="U151" s="7"/>
       <c r="W151" s="16" t="str">
-        <f>Q151&amp;"|"&amp;ROUND(H151/5,0)&amp;IF(R151="","",";"&amp;R151&amp;"|"&amp;ROUND(H151/5,0)&amp;IF(S151="","",";"&amp;S151&amp;"|"&amp;ROUND(H151/5,0)&amp;IF(T151="","",";"&amp;T151&amp;"|"&amp;ROUND(H151/5,0)&amp;IF(U151="","",";"&amp;U151&amp;"|"&amp;ROUND(H151/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|2|14632410;706|1|14632410;704|1|14632410;703|1|14632410</v>
       </c>
     </row>
@@ -12816,22 +12784,22 @@
         <v>31</v>
       </c>
       <c r="D152" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E152" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="F152" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="F152" s="10" t="s">
+      <c r="G152" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>649</v>
       </c>
       <c r="H152" s="11">
         <v>89756260</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3">
@@ -12844,27 +12812,27 @@
         <v>520</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O152" s="3" t="str">
-        <f>N152&amp;";Exp_Role|"&amp;L152&amp;";Exp_Kongfu|"&amp;M152</f>
+        <f t="shared" si="4"/>
         <v>Coin|1000;Exp_Role|21600;Exp_Kongfu|520</v>
       </c>
       <c r="P152"/>
       <c r="Q152" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="R152" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S152" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="15"/>
       <c r="W152" s="7" t="str">
-        <f>Q152&amp;"|"&amp;ROUND(H152/5,0)&amp;IF(R152="","",";"&amp;R152&amp;"|"&amp;ROUND(H152/5,0)&amp;IF(S152="","",";"&amp;S152&amp;"|"&amp;ROUND(H152/5,0)&amp;IF(T152="","",";"&amp;T152&amp;"|"&amp;ROUND(H152/5,0)&amp;IF(U152="","",";"&amp;U152&amp;"|"&amp;ROUND(H152/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|2|17951252;706|2|17951252;704|1|17951252</v>
       </c>
     </row>
@@ -12879,22 +12847,22 @@
         <v>31</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E153" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="F153" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="F153" s="10" t="s">
+      <c r="G153" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>654</v>
       </c>
       <c r="H153" s="11">
         <v>110114275</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K153" s="3">
         <v>350</v>
@@ -12906,23 +12874,23 @@
         <v>530</v>
       </c>
       <c r="N153" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="O153" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Food|55;Exp_Role|22400;Exp_Kongfu|530</v>
+      </c>
+      <c r="Q153" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="R153" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="S153" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="O153" s="3" t="str">
-        <f>N153&amp;";Exp_Role|"&amp;L153&amp;";Exp_Kongfu|"&amp;M153</f>
-        <v>Food|55;Exp_Role|22400;Exp_Kongfu|530</v>
-      </c>
-      <c r="Q153" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="R153" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="S153" s="4" t="s">
-        <v>656</v>
-      </c>
       <c r="W153" s="16" t="str">
-        <f>Q153&amp;"|"&amp;ROUND(H153/5,0)&amp;IF(R153="","",";"&amp;R153&amp;"|"&amp;ROUND(H153/5,0)&amp;IF(S153="","",";"&amp;S153&amp;"|"&amp;ROUND(H153/5,0)&amp;IF(T153="","",";"&amp;T153&amp;"|"&amp;ROUND(H153/5,0)&amp;IF(U153="","",";"&amp;U153&amp;"|"&amp;ROUND(H153/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|2|22022855;706|1|22022855;704|2|22022855</v>
       </c>
     </row>
@@ -12937,22 +12905,22 @@
         <v>45</v>
       </c>
       <c r="D154" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="F154" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="G154" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="H154" s="13">
         <v>135089781</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7">
@@ -12968,25 +12936,25 @@
         <v>111</v>
       </c>
       <c r="O154" s="7" t="str">
-        <f>N154&amp;";Exp_Role|"&amp;L154&amp;";Exp_Kongfu|"&amp;M154</f>
+        <f t="shared" si="4"/>
         <v>Item|2002|1;Exp_Role|23200;Exp_Kongfu|540</v>
       </c>
       <c r="P154" s="15"/>
       <c r="Q154" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="R154" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="S154" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="T154" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="R154" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="S154" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="T154" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="U154" s="7"/>
       <c r="W154" s="16" t="str">
-        <f>Q154&amp;"|"&amp;ROUND(H154/5,0)&amp;IF(R154="","",";"&amp;R154&amp;"|"&amp;ROUND(H154/5,0)&amp;IF(S154="","",";"&amp;S154&amp;"|"&amp;ROUND(H154/5,0)&amp;IF(T154="","",";"&amp;T154&amp;"|"&amp;ROUND(H154/5,0)&amp;IF(U154="","",";"&amp;U154&amp;"|"&amp;ROUND(H154/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|1|27017956;706|1|27017956;704|2|27017956;702|1|27017956</v>
       </c>
     </row>
@@ -13001,22 +12969,22 @@
         <v>31</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E155" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="F155" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="F155" s="10" t="s">
+      <c r="G155" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="G155" s="8" t="s">
-        <v>665</v>
       </c>
       <c r="H155" s="11">
         <v>165730092</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K155" s="3">
         <v>350</v>
@@ -13028,23 +12996,23 @@
         <v>560</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O155" s="3" t="str">
-        <f>N155&amp;";Exp_Role|"&amp;L155&amp;";Exp_Kongfu|"&amp;M155</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|500;Exp_Role|25200;Exp_Kongfu|560</v>
       </c>
       <c r="Q155" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R155" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S155" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W155" s="16" t="str">
-        <f>Q155&amp;"|"&amp;ROUND(H155/5,0)&amp;IF(R155="","",";"&amp;R155&amp;"|"&amp;ROUND(H155/5,0)&amp;IF(S155="","",";"&amp;S155&amp;"|"&amp;ROUND(H155/5,0)&amp;IF(T155="","",";"&amp;T155&amp;"|"&amp;ROUND(H155/5,0)&amp;IF(U155="","",";"&amp;U155&amp;"|"&amp;ROUND(H155/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|1|33146018;706|2|33146018;704|2|33146018</v>
       </c>
     </row>
@@ -13059,22 +13027,22 @@
         <v>31</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E156" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="F156" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="F156" s="10" t="s">
+      <c r="G156" s="8" t="s">
         <v>667</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>668</v>
       </c>
       <c r="H156" s="11">
         <v>203320068</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3">
@@ -13087,15 +13055,15 @@
         <v>570</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O156" s="3" t="str">
-        <f>N156&amp;";Exp_Role|"&amp;L156&amp;";Exp_Kongfu|"&amp;M156</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|500;Exp_Role|26400;Exp_Kongfu|570</v>
       </c>
       <c r="P156"/>
       <c r="Q156" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
@@ -13103,7 +13071,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="15"/>
       <c r="W156" s="7" t="str">
-        <f>Q156&amp;"|"&amp;ROUND(H156/5,0)&amp;IF(R156="","",";"&amp;R156&amp;"|"&amp;ROUND(H156/5,0)&amp;IF(S156="","",";"&amp;S156&amp;"|"&amp;ROUND(H156/5,0)&amp;IF(T156="","",";"&amp;T156&amp;"|"&amp;ROUND(H156/5,0)&amp;IF(U156="","",";"&amp;U156&amp;"|"&amp;ROUND(H156/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|5|40664014</v>
       </c>
     </row>
@@ -13118,22 +13086,22 @@
         <v>45</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E157" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F157" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="F157" s="12" t="s">
+      <c r="G157" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="H157" s="13">
         <v>249435993</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7">
@@ -13146,28 +13114,28 @@
         <v>580</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O157" s="7" t="str">
-        <f>N157&amp;";Exp_Role|"&amp;L157&amp;";Exp_Kongfu|"&amp;M157</f>
+        <f t="shared" si="4"/>
         <v>Arms|304|1;Exp_Role|27600;Exp_Kongfu|580</v>
       </c>
       <c r="P157" s="15"/>
       <c r="Q157" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="R157" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="R157" s="12" t="s">
+      <c r="S157" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="S157" s="12" t="s">
+      <c r="T157" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="T157" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="U157" s="7"/>
       <c r="W157" s="16" t="str">
-        <f>Q157&amp;"|"&amp;ROUND(H157/5,0)&amp;IF(R157="","",";"&amp;R157&amp;"|"&amp;ROUND(H157/5,0)&amp;IF(S157="","",";"&amp;S157&amp;"|"&amp;ROUND(H157/5,0)&amp;IF(T157="","",";"&amp;T157&amp;"|"&amp;ROUND(H157/5,0)&amp;IF(U157="","",";"&amp;U157&amp;"|"&amp;ROUND(H157/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|2|49887199;706|1|49887199;704|1|49887199;703|1|49887199</v>
       </c>
     </row>
@@ -13182,22 +13150,22 @@
         <v>31</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E158" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="F158" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="F158" s="10" t="s">
+      <c r="G158" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>675</v>
       </c>
       <c r="H158" s="11">
         <v>306011675</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K158" s="3">
         <v>350</v>
@@ -13209,23 +13177,23 @@
         <v>600</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O158" s="3" t="str">
-        <f>N158&amp;";Exp_Role|"&amp;L158&amp;";Exp_Kongfu|"&amp;M158</f>
+        <f t="shared" si="4"/>
         <v>Coin|1000;Exp_Role|30000;Exp_Kongfu|600</v>
       </c>
       <c r="Q158" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="R158" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="R158" s="4" t="s">
-        <v>643</v>
-      </c>
       <c r="S158" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W158" s="16" t="str">
-        <f>Q158&amp;"|"&amp;ROUND(H158/5,0)&amp;IF(R158="","",";"&amp;R158&amp;"|"&amp;ROUND(H158/5,0)&amp;IF(S158="","",";"&amp;S158&amp;"|"&amp;ROUND(H158/5,0)&amp;IF(T158="","",";"&amp;T158&amp;"|"&amp;ROUND(H158/5,0)&amp;IF(U158="","",";"&amp;U158&amp;"|"&amp;ROUND(H158/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|2|61202335;706|1|61202335;704|2|61202335</v>
       </c>
     </row>
@@ -13240,22 +13208,22 @@
         <v>31</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E159" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F159" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="F159" s="10" t="s">
+      <c r="G159" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>678</v>
       </c>
       <c r="H159" s="11">
         <v>375419537</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K159" s="3">
         <v>350</v>
@@ -13267,23 +13235,23 @@
         <v>610</v>
       </c>
       <c r="N159" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="O159" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Food|55;Exp_Role|31200;Exp_Kongfu|610</v>
+      </c>
+      <c r="Q159" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="R159" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="S159" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="O159" s="3" t="str">
-        <f>N159&amp;";Exp_Role|"&amp;L159&amp;";Exp_Kongfu|"&amp;M159</f>
-        <v>Food|55;Exp_Role|31200;Exp_Kongfu|610</v>
-      </c>
-      <c r="Q159" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="R159" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="S159" s="4" t="s">
-        <v>656</v>
-      </c>
       <c r="W159" s="16" t="str">
-        <f>Q159&amp;"|"&amp;ROUND(H159/5,0)&amp;IF(R159="","",";"&amp;R159&amp;"|"&amp;ROUND(H159/5,0)&amp;IF(S159="","",";"&amp;S159&amp;"|"&amp;ROUND(H159/5,0)&amp;IF(T159="","",";"&amp;T159&amp;"|"&amp;ROUND(H159/5,0)&amp;IF(U159="","",";"&amp;U159&amp;"|"&amp;ROUND(H159/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|1|75083907;706|2|75083907;704|2|75083907</v>
       </c>
     </row>
@@ -13298,22 +13266,22 @@
         <v>45</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E160" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="F160" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="F160" s="12" t="s">
+      <c r="G160" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="H160" s="13">
         <v>460570104</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K160" s="7">
         <v>350</v>
@@ -13325,28 +13293,28 @@
         <v>620</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O160" s="7" t="str">
-        <f>N160&amp;";Exp_Role|"&amp;L160&amp;";Exp_Kongfu|"&amp;M160</f>
+        <f t="shared" si="4"/>
         <v>Kongfu|3002|1;Exp_Role|32400;Exp_Kongfu|620</v>
       </c>
       <c r="P160" s="15"/>
       <c r="Q160" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R160" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="S160" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="T160" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="S160" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="T160" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="V160" s="15"/>
       <c r="W160" s="7" t="str">
-        <f>Q160&amp;"|"&amp;ROUND(H160/5,0)&amp;IF(R160="","",";"&amp;R160&amp;"|"&amp;ROUND(H160/5,0)&amp;IF(S160="","",";"&amp;S160&amp;"|"&amp;ROUND(H160/5,0)&amp;IF(T160="","",";"&amp;T160&amp;"|"&amp;ROUND(H160/5,0)&amp;IF(U160="","",";"&amp;U160&amp;"|"&amp;ROUND(H160/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>702|1|92114021;705|1|92114021;706|2|92114021;702|1|92114021</v>
       </c>
     </row>
@@ -13361,22 +13329,22 @@
         <v>31</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E161" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="F161" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="F161" s="10" t="s">
+      <c r="G161" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>685</v>
       </c>
       <c r="H161" s="11">
         <v>565034048</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K161" s="3">
         <v>350</v>
@@ -13388,23 +13356,23 @@
         <v>640</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O161" s="3" t="str">
-        <f>N161&amp;";Exp_Role|"&amp;L161&amp;";Exp_Kongfu|"&amp;M161</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|500;Exp_Role|34800;Exp_Kongfu|640</v>
       </c>
       <c r="Q161" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R161" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S161" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W161" s="16" t="str">
-        <f>Q161&amp;"|"&amp;ROUND(H161/5,0)&amp;IF(R161="","",";"&amp;R161&amp;"|"&amp;ROUND(H161/5,0)&amp;IF(S161="","",";"&amp;S161&amp;"|"&amp;ROUND(H161/5,0)&amp;IF(T161="","",";"&amp;T161&amp;"|"&amp;ROUND(H161/5,0)&amp;IF(U161="","",";"&amp;U161&amp;"|"&amp;ROUND(H161/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>702|1|113006810;706|2|113006810;704|2|113006810</v>
       </c>
     </row>
@@ -13419,22 +13387,22 @@
         <v>31</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E162" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="F162" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="F162" s="10" t="s">
+      <c r="G162" s="8" t="s">
         <v>687</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>688</v>
       </c>
       <c r="H162" s="11">
         <v>693191921</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K162" s="3">
         <v>350</v>
@@ -13446,19 +13414,19 @@
         <v>650</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O162" s="3" t="str">
-        <f>N162&amp;";Exp_Role|"&amp;L162&amp;";Exp_Kongfu|"&amp;M162</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|500;Exp_Role|36000;Exp_Kongfu|650</v>
       </c>
       <c r="Q162" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
       <c r="W162" s="16" t="str">
-        <f>Q162&amp;"|"&amp;ROUND(H162/5,0)&amp;IF(R162="","",";"&amp;R162&amp;"|"&amp;ROUND(H162/5,0)&amp;IF(S162="","",";"&amp;S162&amp;"|"&amp;ROUND(H162/5,0)&amp;IF(T162="","",";"&amp;T162&amp;"|"&amp;ROUND(H162/5,0)&amp;IF(U162="","",";"&amp;U162&amp;"|"&amp;ROUND(H162/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>704|5|138638384</v>
       </c>
     </row>
@@ -13473,22 +13441,22 @@
         <v>45</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E163" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F163" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="F163" s="12" t="s">
+      <c r="G163" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>692</v>
       </c>
       <c r="H163" s="13">
         <v>850417849</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7">
@@ -13501,26 +13469,26 @@
         <v>660</v>
       </c>
       <c r="N163" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O163" s="7" t="str">
-        <f>N163&amp;";Exp_Role|"&amp;L163&amp;";Exp_Kongfu|"&amp;M163</f>
+        <f t="shared" si="4"/>
         <v>Medicine|104|1;Exp_Role|37200;Exp_Kongfu|660</v>
       </c>
       <c r="P163" s="15"/>
       <c r="Q163" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R163" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S163" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T163" s="7"/>
       <c r="U163" s="7"/>
       <c r="W163" s="16" t="str">
-        <f>Q163&amp;"|"&amp;ROUND(H163/5,0)&amp;IF(R163="","",";"&amp;R163&amp;"|"&amp;ROUND(H163/5,0)&amp;IF(S163="","",";"&amp;S163&amp;"|"&amp;ROUND(H163/5,0)&amp;IF(T163="","",";"&amp;T163&amp;"|"&amp;ROUND(H163/5,0)&amp;IF(U163="","",";"&amp;U163&amp;"|"&amp;ROUND(H163/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>704|2|170083570;706|2|170083570;703|1|170083570</v>
       </c>
     </row>
@@ -13535,22 +13503,22 @@
         <v>31</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E164" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="F164" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="F164" s="10" t="s">
+      <c r="G164" s="8" t="s">
         <v>695</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>696</v>
       </c>
       <c r="H164" s="11">
         <v>1043304885</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J164" s="3"/>
       <c r="K164" s="3">
@@ -13563,27 +13531,27 @@
         <v>670</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O164" s="3" t="str">
-        <f>N164&amp;";Exp_Role|"&amp;L164&amp;";Exp_Kongfu|"&amp;M164</f>
+        <f t="shared" si="4"/>
         <v>Coin|1000;Exp_Role|38400;Exp_Kongfu|670</v>
       </c>
       <c r="P164"/>
       <c r="Q164" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R164" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S164" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T164" s="3"/>
       <c r="U164" s="3"/>
       <c r="V164" s="15"/>
       <c r="W164" s="7" t="str">
-        <f>Q164&amp;"|"&amp;ROUND(H164/5,0)&amp;IF(R164="","",";"&amp;R164&amp;"|"&amp;ROUND(H164/5,0)&amp;IF(S164="","",";"&amp;S164&amp;"|"&amp;ROUND(H164/5,0)&amp;IF(T164="","",";"&amp;T164&amp;"|"&amp;ROUND(H164/5,0)&amp;IF(U164="","",";"&amp;U164&amp;"|"&amp;ROUND(H164/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|1|208660977;706|2|208660977;704|2|208660977</v>
       </c>
     </row>
@@ -13598,22 +13566,22 @@
         <v>31</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E165" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="F165" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="F165" s="10" t="s">
+      <c r="G165" s="8" t="s">
         <v>698</v>
-      </c>
-      <c r="G165" s="8" t="s">
-        <v>699</v>
       </c>
       <c r="H165" s="11">
         <v>1279941484</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K165" s="3">
         <v>350</v>
@@ -13625,19 +13593,19 @@
         <v>690</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O165" s="3" t="str">
-        <f>N165&amp;";Exp_Role|"&amp;L165&amp;";Exp_Kongfu|"&amp;M165</f>
+        <f t="shared" si="4"/>
         <v>Food|55;Exp_Role|40800;Exp_Kongfu|690</v>
       </c>
       <c r="Q165" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
       <c r="W165" s="16" t="str">
-        <f>Q165&amp;"|"&amp;ROUND(H165/5,0)&amp;IF(R165="","",";"&amp;R165&amp;"|"&amp;ROUND(H165/5,0)&amp;IF(S165="","",";"&amp;S165&amp;"|"&amp;ROUND(H165/5,0)&amp;IF(T165="","",";"&amp;T165&amp;"|"&amp;ROUND(H165/5,0)&amp;IF(U165="","",";"&amp;U165&amp;"|"&amp;ROUND(H165/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>706|5|255988297</v>
       </c>
     </row>
@@ -13652,22 +13620,22 @@
         <v>45</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E166" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="F166" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="F166" s="12" t="s">
+      <c r="G166" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>702</v>
       </c>
       <c r="H166" s="13">
         <v>1570250677</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J166" s="7"/>
       <c r="K166" s="7">
@@ -13683,25 +13651,25 @@
         <v>111</v>
       </c>
       <c r="O166" s="7" t="str">
-        <f>N166&amp;";Exp_Role|"&amp;L166&amp;";Exp_Kongfu|"&amp;M166</f>
+        <f t="shared" si="4"/>
         <v>Item|2002|1;Exp_Role|42000;Exp_Kongfu|700</v>
       </c>
       <c r="P166" s="15"/>
       <c r="Q166" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R166" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S166" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="T166" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U166" s="7"/>
       <c r="W166" s="16" t="str">
-        <f>Q166&amp;"|"&amp;ROUND(H166/5,0)&amp;IF(R166="","",";"&amp;R166&amp;"|"&amp;ROUND(H166/5,0)&amp;IF(S166="","",";"&amp;S166&amp;"|"&amp;ROUND(H166/5,0)&amp;IF(T166="","",";"&amp;T166&amp;"|"&amp;ROUND(H166/5,0)&amp;IF(U166="","",";"&amp;U166&amp;"|"&amp;ROUND(H166/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>701|1|314050135;704|2|314050135;705|1|314050135;706|1|314050135</v>
       </c>
     </row>
@@ -13716,22 +13684,22 @@
         <v>31</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E167" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="F167" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="F167" s="10" t="s">
+      <c r="G167" s="8" t="s">
         <v>705</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>706</v>
       </c>
       <c r="H167" s="11">
         <v>1926406183</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K167" s="3">
         <v>350</v>
@@ -13743,23 +13711,23 @@
         <v>710</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O167" s="3" t="str">
-        <f>N167&amp;";Exp_Role|"&amp;L167&amp;";Exp_Kongfu|"&amp;M167</f>
+        <f t="shared" si="4"/>
         <v>Item|1002|500;Exp_Role|43200;Exp_Kongfu|710</v>
       </c>
       <c r="Q167" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="R167" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S167" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="W167" s="16" t="str">
-        <f>Q167&amp;"|"&amp;ROUND(H167/5,0)&amp;IF(R167="","",";"&amp;R167&amp;"|"&amp;ROUND(H167/5,0)&amp;IF(S167="","",";"&amp;S167&amp;"|"&amp;ROUND(H167/5,0)&amp;IF(T167="","",";"&amp;T167&amp;"|"&amp;ROUND(H167/5,0)&amp;IF(U167="","",";"&amp;U167&amp;"|"&amp;ROUND(H167/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|2|385281237;706|2|385281237;704|1|385281237</v>
       </c>
     </row>
@@ -13774,22 +13742,22 @@
         <v>31</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E168" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="F168" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="F168" s="10" t="s">
+      <c r="G168" s="8" t="s">
         <v>708</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>709</v>
       </c>
       <c r="H168" s="11">
         <v>2363342896</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3">
@@ -13802,15 +13770,15 @@
         <v>720</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O168" s="3" t="str">
-        <f>N168&amp;";Exp_Role|"&amp;L168&amp;";Exp_Kongfu|"&amp;M168</f>
+        <f t="shared" si="4"/>
         <v>Item|1001|500;Exp_Role|44400;Exp_Kongfu|720</v>
       </c>
       <c r="P168"/>
       <c r="Q168" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
@@ -13818,7 +13786,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="15"/>
       <c r="W168" s="7" t="str">
-        <f>Q168&amp;"|"&amp;ROUND(H168/5,0)&amp;IF(R168="","",";"&amp;R168&amp;"|"&amp;ROUND(H168/5,0)&amp;IF(S168="","",";"&amp;S168&amp;"|"&amp;ROUND(H168/5,0)&amp;IF(T168="","",";"&amp;T168&amp;"|"&amp;ROUND(H168/5,0)&amp;IF(U168="","",";"&amp;U168&amp;"|"&amp;ROUND(H168/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>706|5|472668579</v>
       </c>
     </row>
@@ -13833,22 +13801,22 @@
         <v>45</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E169" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F169" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="F169" s="12" t="s">
+      <c r="G169" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>712</v>
       </c>
       <c r="H169" s="13">
         <v>2899383159</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J169" s="7"/>
       <c r="K169" s="7">
@@ -13861,30 +13829,30 @@
         <v>730</v>
       </c>
       <c r="N169" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O169" s="7" t="str">
-        <f>N169&amp;";Exp_Role|"&amp;L169&amp;";Exp_Kongfu|"&amp;M169</f>
+        <f t="shared" si="4"/>
         <v>Item|3003|3;Exp_Role|45600;Exp_Kongfu|730</v>
       </c>
       <c r="P169" s="15"/>
       <c r="Q169" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R169" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="S169" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T169" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U169" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W169" s="16" t="str">
-        <f>Q169&amp;"|"&amp;ROUND(H169/5,0)&amp;IF(R169="","",";"&amp;R169&amp;"|"&amp;ROUND(H169/5,0)&amp;IF(S169="","",";"&amp;S169&amp;"|"&amp;ROUND(H169/5,0)&amp;IF(T169="","",";"&amp;T169&amp;"|"&amp;ROUND(H169/5,0)&amp;IF(U169="","",";"&amp;U169&amp;"|"&amp;ROUND(H169/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>702|1|579876632;703|1|579876632;704|1|579876632;705|1|579876632;706|1|579876632</v>
       </c>
     </row>
@@ -13899,22 +13867,22 @@
         <v>31</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E170" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="F170" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="F170" s="10" t="s">
+      <c r="G170" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="H170" s="11">
         <v>3557005087</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K170" s="3">
         <v>350</v>
@@ -13926,23 +13894,23 @@
         <v>740</v>
       </c>
       <c r="N170" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="O170" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Coin|1000;Exp_Role|46800;Exp_Kongfu|740</v>
+      </c>
+      <c r="Q170" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="R170" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="O170" s="3" t="str">
-        <f>N170&amp;";Exp_Role|"&amp;L170&amp;";Exp_Kongfu|"&amp;M170</f>
-        <v>Coin|1000;Exp_Role|46800;Exp_Kongfu|740</v>
-      </c>
-      <c r="Q170" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="R170" s="4" t="s">
-        <v>651</v>
-      </c>
       <c r="S170" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W170" s="16" t="str">
-        <f>Q170&amp;"|"&amp;ROUND(H170/5,0)&amp;IF(R170="","",";"&amp;R170&amp;"|"&amp;ROUND(H170/5,0)&amp;IF(S170="","",";"&amp;S170&amp;"|"&amp;ROUND(H170/5,0)&amp;IF(T170="","",";"&amp;T170&amp;"|"&amp;ROUND(H170/5,0)&amp;IF(U170="","",";"&amp;U170&amp;"|"&amp;ROUND(H170/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>705|1|711401017;706|2|711401017;704|2|711401017</v>
       </c>
     </row>
@@ -13957,22 +13925,22 @@
         <v>31</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E171" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="F171" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="F171" s="10" t="s">
+      <c r="G171" s="8" t="s">
         <v>718</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>719</v>
       </c>
       <c r="H171" s="11">
         <v>4363785155</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K171" s="3">
         <v>350</v>
@@ -13984,23 +13952,21 @@
         <v>750</v>
       </c>
       <c r="N171" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="O171" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Food|55;Exp_Role|48000;Exp_Kongfu|750</v>
+      </c>
+      <c r="Q171" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="O171" s="3" t="str">
-        <f>N171&amp;";Exp_Role|"&amp;L171&amp;";Exp_Kongfu|"&amp;M171</f>
-        <v>Food|55;Exp_Role|48000;Exp_Kongfu|750</v>
-      </c>
-      <c r="Q171" s="4" t="s">
-        <v>656</v>
-      </c>
       <c r="R171" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S171" s="4"/>
-      <c r="T171" s="3"/>
-      <c r="U171" s="3"/>
       <c r="W171" s="16" t="str">
-        <f>Q171&amp;"|"&amp;ROUND(H171/5,0)&amp;IF(R171="","",";"&amp;R171&amp;"|"&amp;ROUND(H171/5,0)&amp;IF(S171="","",";"&amp;S171&amp;"|"&amp;ROUND(H171/5,0)&amp;IF(T171="","",";"&amp;T171&amp;"|"&amp;ROUND(H171/5,0)&amp;IF(U171="","",";"&amp;U171&amp;"|"&amp;ROUND(H171/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>704|2|872757031;705|3|872757031</v>
       </c>
     </row>
@@ -14015,22 +13981,22 @@
         <v>45</v>
       </c>
       <c r="D172" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="E172" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="F172" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="F172" s="12" t="s">
+      <c r="G172" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="H172" s="13">
         <v>5353554530</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K172" s="7">
         <v>350</v>
@@ -14042,31 +14008,31 @@
         <v>800</v>
       </c>
       <c r="N172" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O172" s="7" t="str">
-        <f>N172&amp;";Exp_Role|"&amp;L172&amp;";Exp_Kongfu|"&amp;M172</f>
+        <f t="shared" si="4"/>
         <v>Kongfu|3009|1;Exp_Role|50400;Exp_Kongfu|800</v>
       </c>
       <c r="P172" s="15"/>
       <c r="Q172" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R172" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="S172" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T172" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U172" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V172" s="15"/>
       <c r="W172" s="7" t="str">
-        <f>Q172&amp;"|"&amp;ROUND(H172/5,0)&amp;IF(R172="","",";"&amp;R172&amp;"|"&amp;ROUND(H172/5,0)&amp;IF(S172="","",";"&amp;S172&amp;"|"&amp;ROUND(H172/5,0)&amp;IF(T172="","",";"&amp;T172&amp;"|"&amp;ROUND(H172/5,0)&amp;IF(U172="","",";"&amp;U172&amp;"|"&amp;ROUND(H172/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>701|1|1070710906;702|1|1070710906;703|1|1070710906;704|1|1070710906;705|1|1070710906</v>
       </c>
     </row>
@@ -14081,22 +14047,22 @@
         <v>31</v>
       </c>
       <c r="D173" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E173" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="F173" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="G173" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="H173" s="14">
         <v>1082870890</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K173" s="3">
         <v>400</v>
@@ -14108,17 +14074,17 @@
         <v>825</v>
       </c>
       <c r="N173" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="O173" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Item|1002|550;Exp_Role|51600;Exp_Kongfu|825</v>
+      </c>
+      <c r="Q173" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="O173" s="3" t="str">
-        <f>N173&amp;";Exp_Role|"&amp;L173&amp;";Exp_Kongfu|"&amp;M173</f>
-        <v>Item|1002|550;Exp_Role|51600;Exp_Kongfu|825</v>
-      </c>
-      <c r="Q173" s="4" t="s">
-        <v>732</v>
-      </c>
       <c r="W173" s="16" t="str">
-        <f>Q173&amp;"|"&amp;ROUND(H173/5,0)&amp;IF(R173="","",";"&amp;R173&amp;"|"&amp;ROUND(H173/5,0)&amp;IF(S173="","",";"&amp;S173&amp;"|"&amp;ROUND(H173/5,0)&amp;IF(T173="","",";"&amp;T173&amp;"|"&amp;ROUND(H173/5,0)&amp;IF(U173="","",";"&amp;U173&amp;"|"&amp;ROUND(H173/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>9702|5|216574178</v>
       </c>
     </row>
@@ -14133,22 +14099,22 @@
         <v>31</v>
       </c>
       <c r="D174" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="E174" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="F174" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="G174" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="H174" s="14">
         <v>1264346880</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K174" s="3">
         <v>400</v>
@@ -14160,17 +14126,17 @@
         <v>850</v>
       </c>
       <c r="N174" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="O174" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Item|1001|550;Exp_Role|52800;Exp_Kongfu|850</v>
+      </c>
+      <c r="Q174" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="O174" s="3" t="str">
-        <f>N174&amp;";Exp_Role|"&amp;L174&amp;";Exp_Kongfu|"&amp;M174</f>
-        <v>Item|1001|550;Exp_Role|52800;Exp_Kongfu|850</v>
-      </c>
-      <c r="Q174" s="4" t="s">
-        <v>738</v>
-      </c>
       <c r="W174" s="16" t="str">
-        <f>Q174&amp;"|"&amp;ROUND(H174/5,0)&amp;IF(R174="","",";"&amp;R174&amp;"|"&amp;ROUND(H174/5,0)&amp;IF(S174="","",";"&amp;S174&amp;"|"&amp;ROUND(H174/5,0)&amp;IF(T174="","",";"&amp;T174&amp;"|"&amp;ROUND(H174/5,0)&amp;IF(U174="","",";"&amp;U174&amp;"|"&amp;ROUND(H174/5,0)))))</f>
+        <f t="shared" si="5"/>
         <v>9703|5|252869376</v>
       </c>
     </row>
@@ -14185,22 +14151,22 @@
         <v>45</v>
       </c>
       <c r="D175" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="E175" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="F175" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="F175" s="12" t="s">
+      <c r="G175" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>742</v>
       </c>
       <c r="H175" s="13">
         <v>1476236039</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J175" s="7"/>
       <c r="K175" s="7">
@@ -14213,28 +14179,28 @@
         <v>875</v>
       </c>
       <c r="N175" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O175" s="7" t="str">
-        <f>N175&amp;";Exp_Role|"&amp;L175&amp;";Exp_Kongfu|"&amp;M175</f>
+        <f t="shared" ref="O175:O188" si="6">N175&amp;";Exp_Role|"&amp;L175&amp;";Exp_Kongfu|"&amp;M175</f>
         <v>Kongfu|3003|1;Exp_Role|54000;Exp_Kongfu|875</v>
       </c>
       <c r="P175" s="15"/>
       <c r="Q175" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="R175" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="R175" s="12" t="s">
+      <c r="S175" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="S175" s="12" t="s">
+      <c r="T175" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="T175" s="7" t="s">
-        <v>747</v>
       </c>
       <c r="U175" s="7"/>
       <c r="W175" s="16" t="str">
-        <f>Q175&amp;"|"&amp;ROUND(H175/5,0)&amp;IF(R175="","",";"&amp;R175&amp;"|"&amp;ROUND(H175/5,0)&amp;IF(S175="","",";"&amp;S175&amp;"|"&amp;ROUND(H175/5,0)&amp;IF(T175="","",";"&amp;T175&amp;"|"&amp;ROUND(H175/5,0)&amp;IF(U175="","",";"&amp;U175&amp;"|"&amp;ROUND(H175/5,0)))))</f>
+        <f t="shared" ref="W175:W188" si="7">Q175&amp;"|"&amp;ROUND(H175/5,0)&amp;IF(R175="","",";"&amp;R175&amp;"|"&amp;ROUND(H175/5,0)&amp;IF(S175="","",";"&amp;S175&amp;"|"&amp;ROUND(H175/5,0)&amp;IF(T175="","",";"&amp;T175&amp;"|"&amp;ROUND(H175/5,0)&amp;IF(U175="","",";"&amp;U175&amp;"|"&amp;ROUND(H175/5,0)))))</f>
         <v>9701|1|295247208;9702|1|295247208;9703|2|295247208;804|1|295247208</v>
       </c>
     </row>
@@ -14249,22 +14215,22 @@
         <v>31</v>
       </c>
       <c r="D176" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="E176" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="F176" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="G176" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="H176" s="14">
         <v>1723635244</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3">
@@ -14277,27 +14243,27 @@
         <v>925</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O176" s="3" t="str">
-        <f>N176&amp;";Exp_Role|"&amp;L176&amp;";Exp_Kongfu|"&amp;M176</f>
+        <f t="shared" si="6"/>
         <v>Coin|1200;Exp_Role|56400;Exp_Kongfu|925</v>
       </c>
       <c r="P176"/>
       <c r="Q176" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R176" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S176" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="T176" s="3"/>
       <c r="U176" s="3"/>
       <c r="V176" s="15"/>
       <c r="W176" s="7" t="str">
-        <f>Q176&amp;"|"&amp;ROUND(H176/5,0)&amp;IF(R176="","",";"&amp;R176&amp;"|"&amp;ROUND(H176/5,0)&amp;IF(S176="","",";"&amp;S176&amp;"|"&amp;ROUND(H176/5,0)&amp;IF(T176="","",";"&amp;T176&amp;"|"&amp;ROUND(H176/5,0)&amp;IF(U176="","",";"&amp;U176&amp;"|"&amp;ROUND(H176/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|1|344727049;9702|2|344727049;9703|2|344727049</v>
       </c>
     </row>
@@ -14312,22 +14278,22 @@
         <v>31</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E177" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="H177" s="14">
         <v>2012495547</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K177" s="3">
         <v>400</v>
@@ -14339,26 +14305,26 @@
         <v>950</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O177" s="3" t="str">
-        <f>N177&amp;";Exp_Role|"&amp;L177&amp;";Exp_Kongfu|"&amp;M177</f>
+        <f t="shared" si="6"/>
         <v>Food|60;Exp_Role|57600;Exp_Kongfu|950</v>
       </c>
       <c r="Q177" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R177" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="S177" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="S177" s="3" t="s">
+      <c r="T177" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="T177" s="3" t="s">
-        <v>746</v>
-      </c>
       <c r="W177" s="16" t="str">
-        <f>Q177&amp;"|"&amp;ROUND(H177/5,0)&amp;IF(R177="","",";"&amp;R177&amp;"|"&amp;ROUND(H177/5,0)&amp;IF(S177="","",";"&amp;S177&amp;"|"&amp;ROUND(H177/5,0)&amp;IF(T177="","",";"&amp;T177&amp;"|"&amp;ROUND(H177/5,0)&amp;IF(U177="","",";"&amp;U177&amp;"|"&amp;ROUND(H177/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|1|402499109;9701|1|402499109;9702|1|402499109;9703|2|402499109</v>
       </c>
     </row>
@@ -14373,22 +14339,22 @@
         <v>45</v>
       </c>
       <c r="D178" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E178" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="F178" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="F178" s="12" t="s">
+      <c r="G178" s="7" t="s">
         <v>760</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>761</v>
       </c>
       <c r="H178" s="13">
         <v>2349765323</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J178" s="7"/>
       <c r="K178" s="7">
@@ -14404,23 +14370,23 @@
         <v>111</v>
       </c>
       <c r="O178" s="7" t="str">
-        <f>N178&amp;";Exp_Role|"&amp;L178&amp;";Exp_Kongfu|"&amp;M178</f>
+        <f t="shared" si="6"/>
         <v>Item|2002|1;Exp_Role|58800;Exp_Kongfu|975</v>
       </c>
       <c r="P178" s="15"/>
       <c r="Q178" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="R178" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="R178" s="12" t="s">
+      <c r="S178" s="12" t="s">
         <v>763</v>
-      </c>
-      <c r="S178" s="12" t="s">
-        <v>764</v>
       </c>
       <c r="T178" s="7"/>
       <c r="U178" s="7"/>
       <c r="W178" s="16" t="str">
-        <f>Q178&amp;"|"&amp;ROUND(H178/5,0)&amp;IF(R178="","",";"&amp;R178&amp;"|"&amp;ROUND(H178/5,0)&amp;IF(S178="","",";"&amp;S178&amp;"|"&amp;ROUND(H178/5,0)&amp;IF(T178="","",";"&amp;T178&amp;"|"&amp;ROUND(H178/5,0)&amp;IF(U178="","",";"&amp;U178&amp;"|"&amp;ROUND(H178/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|2|469953065;805|2|469953065;803|1|469953065</v>
       </c>
     </row>
@@ -14435,22 +14401,22 @@
         <v>31</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E179" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="G179" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>767</v>
       </c>
       <c r="H179" s="14">
         <v>2743557412</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K179" s="3">
         <v>400</v>
@@ -14462,20 +14428,20 @@
         <v>1025</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O179" s="3" t="str">
-        <f>N179&amp;";Exp_Role|"&amp;L179&amp;";Exp_Kongfu|"&amp;M179</f>
+        <f t="shared" si="6"/>
         <v>Item|1002|550;Exp_Role|61200;Exp_Kongfu|1025</v>
       </c>
       <c r="Q179" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="R179" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="R179" s="3" t="s">
-        <v>769</v>
-      </c>
       <c r="W179" s="16" t="str">
-        <f>Q179&amp;"|"&amp;ROUND(H179/5,0)&amp;IF(R179="","",";"&amp;R179&amp;"|"&amp;ROUND(H179/5,0)&amp;IF(S179="","",";"&amp;S179&amp;"|"&amp;ROUND(H179/5,0)&amp;IF(T179="","",";"&amp;T179&amp;"|"&amp;ROUND(H179/5,0)&amp;IF(U179="","",";"&amp;U179&amp;"|"&amp;ROUND(H179/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|4|548711482;805|1|548711482</v>
       </c>
     </row>
@@ -14490,22 +14456,22 @@
         <v>31</v>
       </c>
       <c r="D180" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E180" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="F180" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="G180" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>773</v>
       </c>
       <c r="H180" s="14">
         <v>3203344265</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J180" s="3"/>
       <c r="K180" s="3">
@@ -14518,25 +14484,25 @@
         <v>1050</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O180" s="3" t="str">
-        <f>N180&amp;";Exp_Role|"&amp;L180&amp;";Exp_Kongfu|"&amp;M180</f>
+        <f t="shared" si="6"/>
         <v>Item|1001|550;Exp_Role|62400;Exp_Kongfu|1050</v>
       </c>
       <c r="P180"/>
       <c r="Q180" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R180" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
       <c r="U180" s="3"/>
       <c r="V180" s="15"/>
       <c r="W180" s="7" t="str">
-        <f>Q180&amp;"|"&amp;ROUND(H180/5,0)&amp;IF(R180="","",";"&amp;R180&amp;"|"&amp;ROUND(H180/5,0)&amp;IF(S180="","",";"&amp;S180&amp;"|"&amp;ROUND(H180/5,0)&amp;IF(T180="","",";"&amp;T180&amp;"|"&amp;ROUND(H180/5,0)&amp;IF(U180="","",";"&amp;U180&amp;"|"&amp;ROUND(H180/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|2|640668853;805|3|640668853</v>
       </c>
     </row>
@@ -14551,22 +14517,22 @@
         <v>45</v>
       </c>
       <c r="D181" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="E181" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="F181" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="F181" s="12" t="s">
+      <c r="G181" s="7" t="s">
         <v>777</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>778</v>
       </c>
       <c r="H181" s="13">
         <v>3740185802</v>
       </c>
       <c r="I181" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J181" s="7"/>
       <c r="K181" s="7">
@@ -14579,26 +14545,26 @@
         <v>1075</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O181" s="7" t="str">
-        <f>N181&amp;";Exp_Role|"&amp;L181&amp;";Exp_Kongfu|"&amp;M181</f>
+        <f t="shared" si="6"/>
         <v>Armor|701|1;Exp_Role|63600;Exp_Kongfu|1075</v>
       </c>
       <c r="P181" s="15"/>
       <c r="Q181" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R181" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S181" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="T181" s="7"/>
       <c r="U181" s="7"/>
       <c r="W181" s="16" t="str">
-        <f>Q181&amp;"|"&amp;ROUND(H181/5,0)&amp;IF(R181="","",";"&amp;R181&amp;"|"&amp;ROUND(H181/5,0)&amp;IF(S181="","",";"&amp;S181&amp;"|"&amp;ROUND(H181/5,0)&amp;IF(T181="","",";"&amp;T181&amp;"|"&amp;ROUND(H181/5,0)&amp;IF(U181="","",";"&amp;U181&amp;"|"&amp;ROUND(H181/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|1|748037160;805|2|748037160;802|2|748037160</v>
       </c>
     </row>
@@ -14613,22 +14579,22 @@
         <v>31</v>
       </c>
       <c r="D182" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="E182" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="F182" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="G182" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>784</v>
       </c>
       <c r="H182" s="14">
         <v>4366995452</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K182" s="3">
         <v>400</v>
@@ -14640,21 +14606,20 @@
         <v>1125</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O182" s="3" t="str">
-        <f>N182&amp;";Exp_Role|"&amp;L182&amp;";Exp_Kongfu|"&amp;M182</f>
+        <f t="shared" si="6"/>
         <v>Coin|1200;Exp_Role|66000;Exp_Kongfu|1125</v>
       </c>
       <c r="Q182" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R182" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="S182" s="3"/>
+        <v>773</v>
+      </c>
       <c r="W182" s="16" t="str">
-        <f>Q182&amp;"|"&amp;ROUND(H182/5,0)&amp;IF(R182="","",";"&amp;R182&amp;"|"&amp;ROUND(H182/5,0)&amp;IF(S182="","",";"&amp;S182&amp;"|"&amp;ROUND(H182/5,0)&amp;IF(T182="","",";"&amp;T182&amp;"|"&amp;ROUND(H182/5,0)&amp;IF(U182="","",";"&amp;U182&amp;"|"&amp;ROUND(H182/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|2|873399090;805|3|873399090</v>
       </c>
     </row>
@@ -14669,22 +14634,22 @@
         <v>31</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E183" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="G183" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>787</v>
       </c>
       <c r="H183" s="14">
         <v>5098850775</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K183" s="3">
         <v>400</v>
@@ -14696,18 +14661,17 @@
         <v>1150</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O183" s="3" t="str">
-        <f>N183&amp;";Exp_Role|"&amp;L183&amp;";Exp_Kongfu|"&amp;M183</f>
+        <f t="shared" si="6"/>
         <v>Food|60;Exp_Role|67200;Exp_Kongfu|1150</v>
       </c>
       <c r="Q183" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="R183" s="3"/>
+        <v>787</v>
+      </c>
       <c r="W183" s="16" t="str">
-        <f>Q183&amp;"|"&amp;ROUND(H183/5,0)&amp;IF(R183="","",";"&amp;R183&amp;"|"&amp;ROUND(H183/5,0)&amp;IF(S183="","",";"&amp;S183&amp;"|"&amp;ROUND(H183/5,0)&amp;IF(T183="","",";"&amp;T183&amp;"|"&amp;ROUND(H183/5,0)&amp;IF(U183="","",";"&amp;U183&amp;"|"&amp;ROUND(H183/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>806|5|1019770155</v>
       </c>
     </row>
@@ -14722,22 +14686,22 @@
         <v>45</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E184" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="F184" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="F184" s="12" t="s">
+      <c r="G184" s="7" t="s">
         <v>790</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>791</v>
       </c>
       <c r="H184" s="13">
         <v>5953356149</v>
       </c>
       <c r="I184" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K184" s="7">
         <v>400</v>
@@ -14752,25 +14716,25 @@
         <v>337</v>
       </c>
       <c r="O184" s="7" t="str">
-        <f>N184&amp;";Exp_Role|"&amp;L184&amp;";Exp_Kongfu|"&amp;M184</f>
+        <f t="shared" si="6"/>
         <v>Kongfu|3004|1;Exp_Role|68400;Exp_Kongfu|1175</v>
       </c>
       <c r="P184" s="15"/>
       <c r="Q184" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R184" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="S184" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="T184" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="S184" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="T184" s="7" t="s">
-        <v>764</v>
       </c>
       <c r="V184" s="15"/>
       <c r="W184" s="7" t="str">
-        <f>Q184&amp;"|"&amp;ROUND(H184/5,0)&amp;IF(R184="","",";"&amp;R184&amp;"|"&amp;ROUND(H184/5,0)&amp;IF(S184="","",";"&amp;S184&amp;"|"&amp;ROUND(H184/5,0)&amp;IF(T184="","",";"&amp;T184&amp;"|"&amp;ROUND(H184/5,0)&amp;IF(U184="","",";"&amp;U184&amp;"|"&amp;ROUND(H184/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|1|1190671230;805|2|1190671230;806|1|1190671230;803|1|1190671230</v>
       </c>
     </row>
@@ -14785,22 +14749,22 @@
         <v>31</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E185" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="G185" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>795</v>
       </c>
       <c r="H185" s="14">
         <v>6951066230</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K185" s="3">
         <v>400</v>
@@ -14812,23 +14776,23 @@
         <v>1225</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O185" s="3" t="str">
-        <f>N185&amp;";Exp_Role|"&amp;L185&amp;";Exp_Kongfu|"&amp;M185</f>
+        <f t="shared" si="6"/>
         <v>Item|1002|550;Exp_Role|70800;Exp_Kongfu|1225</v>
       </c>
       <c r="Q185" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="R185" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="R185" s="3" t="s">
-        <v>763</v>
-      </c>
       <c r="S185" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="W185" s="16" t="str">
-        <f>Q185&amp;"|"&amp;ROUND(H185/5,0)&amp;IF(R185="","",";"&amp;R185&amp;"|"&amp;ROUND(H185/5,0)&amp;IF(S185="","",";"&amp;S185&amp;"|"&amp;ROUND(H185/5,0)&amp;IF(T185="","",";"&amp;T185&amp;"|"&amp;ROUND(H185/5,0)&amp;IF(U185="","",";"&amp;U185&amp;"|"&amp;ROUND(H185/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|2|1390213246;805|2|1390213246;806|1|1390213246</v>
       </c>
     </row>
@@ -14843,22 +14807,22 @@
         <v>31</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E186" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>798</v>
       </c>
       <c r="H186" s="14">
         <v>8115980386</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K186" s="3">
         <v>400</v>
@@ -14870,23 +14834,23 @@
         <v>1250</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O186" s="3" t="str">
-        <f>N186&amp;";Exp_Role|"&amp;L186&amp;";Exp_Kongfu|"&amp;M186</f>
+        <f t="shared" si="6"/>
         <v>Item|1001|550;Exp_Role|72000;Exp_Kongfu|1250</v>
       </c>
       <c r="Q186" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R186" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="W186" s="16" t="str">
-        <f>Q186&amp;"|"&amp;ROUND(H186/5,0)&amp;IF(R186="","",";"&amp;R186&amp;"|"&amp;ROUND(H186/5,0)&amp;IF(S186="","",";"&amp;S186&amp;"|"&amp;ROUND(H186/5,0)&amp;IF(T186="","",";"&amp;T186&amp;"|"&amp;ROUND(H186/5,0)&amp;IF(U186="","",";"&amp;U186&amp;"|"&amp;ROUND(H186/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>804|2|1623196077;805|1|1623196077;806|2|1623196077</v>
       </c>
     </row>
@@ -14901,22 +14865,22 @@
         <v>45</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E187" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F187" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="F187" s="12" t="s">
+      <c r="G187" s="7" t="s">
         <v>801</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>802</v>
       </c>
       <c r="H187" s="13">
         <v>9476119986</v>
       </c>
       <c r="I187" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J187" s="7"/>
       <c r="K187" s="7">
@@ -14929,28 +14893,28 @@
         <v>1275</v>
       </c>
       <c r="N187" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O187" s="7" t="str">
-        <f>N187&amp;";Exp_Role|"&amp;L187&amp;";Exp_Kongfu|"&amp;M187</f>
+        <f t="shared" si="6"/>
         <v>Medicine|104|1;Exp_Role|73200;Exp_Kongfu|1275</v>
       </c>
       <c r="P187" s="15"/>
       <c r="Q187" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R187" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S187" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="T187" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U187" s="7"/>
       <c r="W187" s="16" t="str">
-        <f>Q187&amp;"|"&amp;ROUND(H187/5,0)&amp;IF(R187="","",";"&amp;R187&amp;"|"&amp;ROUND(H187/5,0)&amp;IF(S187="","",";"&amp;S187&amp;"|"&amp;ROUND(H187/5,0)&amp;IF(T187="","",";"&amp;T187&amp;"|"&amp;ROUND(H187/5,0)&amp;IF(U187="","",";"&amp;U187&amp;"|"&amp;ROUND(H187/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>802|1|1895223997;804|1|1895223997;805|2|1895223997;802|1|1895223997</v>
       </c>
     </row>
@@ -14965,22 +14929,22 @@
         <v>31</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E188" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="G188" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>806</v>
       </c>
       <c r="H188" s="14">
         <v>11064202440</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3">
@@ -14993,27 +14957,27 @@
         <v>1300</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O188" s="3" t="str">
-        <f>N188&amp;";Exp_Role|"&amp;L188&amp;";Exp_Kongfu|"&amp;M188</f>
+        <f t="shared" si="6"/>
         <v>Coin|1200;Exp_Role|74400;Exp_Kongfu|1300</v>
       </c>
       <c r="P188"/>
       <c r="Q188" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R188" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S188" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="T188" s="3"/>
       <c r="U188" s="3"/>
       <c r="V188" s="15"/>
       <c r="W188" s="7" t="str">
-        <f>Q188&amp;"|"&amp;ROUND(H188/5,0)&amp;IF(R188="","",";"&amp;R188&amp;"|"&amp;ROUND(H188/5,0)&amp;IF(S188="","",";"&amp;S188&amp;"|"&amp;ROUND(H188/5,0)&amp;IF(T188="","",";"&amp;T188&amp;"|"&amp;ROUND(H188/5,0)&amp;IF(U188="","",";"&amp;U188&amp;"|"&amp;ROUND(H188/5,0)))))</f>
+        <f t="shared" si="7"/>
         <v>802|1|2212840488;805|2|2212840488;806|2|2212840488</v>
       </c>
     </row>
@@ -15028,22 +14992,22 @@
         <v>31</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E189" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="F189" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="G189" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>809</v>
       </c>
       <c r="H189" s="14">
         <v>12918428198</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K189" s="3">
         <v>400</v>
@@ -15055,23 +15019,23 @@
         <v>1350</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O189" s="3" t="str">
-        <f t="shared" ref="O189:O197" si="2">N189&amp;";Exp_Role|"&amp;L189&amp;";Exp_Kongfu|"&amp;M189</f>
+        <f t="shared" ref="O189:O197" si="8">N189&amp;";Exp_Role|"&amp;L189&amp;";Exp_Kongfu|"&amp;M189</f>
         <v>Food|60;Exp_Role|76800;Exp_Kongfu|1350</v>
       </c>
       <c r="Q189" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R189" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="S189" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="S189" s="3" t="s">
-        <v>763</v>
-      </c>
       <c r="W189" s="16" t="str">
-        <f t="shared" ref="W189:W197" si="3">Q189&amp;"|"&amp;ROUND(H189/5,0)&amp;IF(R189="","",";"&amp;R189&amp;"|"&amp;ROUND(H189/5,0)&amp;IF(S189="","",";"&amp;S189&amp;"|"&amp;ROUND(H189/5,0)&amp;IF(T189="","",";"&amp;T189&amp;"|"&amp;ROUND(H189/5,0)&amp;IF(U189="","",";"&amp;U189&amp;"|"&amp;ROUND(H189/5,0)))))</f>
+        <f t="shared" ref="W189:W197" si="9">Q189&amp;"|"&amp;ROUND(H189/5,0)&amp;IF(R189="","",";"&amp;R189&amp;"|"&amp;ROUND(H189/5,0)&amp;IF(S189="","",";"&amp;S189&amp;"|"&amp;ROUND(H189/5,0)&amp;IF(T189="","",";"&amp;T189&amp;"|"&amp;ROUND(H189/5,0)&amp;IF(U189="","",";"&amp;U189&amp;"|"&amp;ROUND(H189/5,0)))))</f>
         <v>803|1|2583685640;804|2|2583685640;805|2|2583685640</v>
       </c>
     </row>
@@ -15086,22 +15050,22 @@
         <v>45</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E190" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="F190" s="12" t="s">
         <v>810</v>
       </c>
-      <c r="F190" s="12" t="s">
+      <c r="G190" s="7" t="s">
         <v>811</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>812</v>
       </c>
       <c r="H190" s="13">
         <v>15083399641</v>
       </c>
       <c r="I190" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J190" s="7"/>
       <c r="K190" s="7">
@@ -15117,25 +15081,25 @@
         <v>111</v>
       </c>
       <c r="O190" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Item|2002|1;Exp_Role|78000;Exp_Kongfu|1375</v>
       </c>
       <c r="P190" s="15"/>
       <c r="Q190" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R190" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="S190" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="T190" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="S190" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="T190" s="7" t="s">
-        <v>764</v>
       </c>
       <c r="U190" s="7"/>
       <c r="W190" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>804|1|3016679928;805|2|3016679928;806|1|3016679928;803|1|3016679928</v>
       </c>
     </row>
@@ -15150,24 +15114,23 @@
         <v>31</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E191" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F191" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>815</v>
       </c>
       <c r="H191" s="14">
         <v>17611193965</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="J191" s="3"/>
+        <v>729</v>
+      </c>
       <c r="K191" s="3">
         <v>400</v>
       </c>
@@ -15178,23 +15141,20 @@
         <v>1400</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O191" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Item|1002|550;Exp_Role|79200;Exp_Kongfu|1400</v>
       </c>
       <c r="Q191" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R191" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
-      <c r="U191" s="3"/>
+        <v>762</v>
+      </c>
       <c r="W191" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>804|3|3522238793;805|2|3522238793</v>
       </c>
     </row>
@@ -15209,22 +15169,22 @@
         <v>31</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E192" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>819</v>
       </c>
       <c r="H192" s="14">
         <v>20562615873</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3">
@@ -15237,27 +15197,27 @@
         <v>1425</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O192" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Item|1001|550;Exp_Role|80400;Exp_Kongfu|1425</v>
       </c>
       <c r="P192"/>
       <c r="Q192" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R192" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="T192" s="3"/>
       <c r="U192" s="3"/>
       <c r="V192" s="15"/>
       <c r="W192" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>804|1|4112523175;805|2|4112523175;806|2|4112523175</v>
       </c>
     </row>
@@ -15272,22 +15232,22 @@
         <v>45</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E193" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="F193" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="F193" s="12" t="s">
+      <c r="G193" s="7" t="s">
         <v>821</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>822</v>
       </c>
       <c r="H193" s="13">
         <v>24008660196</v>
       </c>
       <c r="I193" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J193" s="7"/>
       <c r="K193" s="7">
@@ -15300,28 +15260,28 @@
         <v>1450</v>
       </c>
       <c r="N193" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O193" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Item|3003|5;Exp_Role|81600;Exp_Kongfu|1450</v>
       </c>
       <c r="P193" s="15"/>
       <c r="Q193" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R193" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S193" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="T193" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U193" s="7"/>
       <c r="W193" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>802|1|4801732039;804|1|4801732039;805|2|4801732039;802|1|4801732039</v>
       </c>
     </row>
@@ -15336,22 +15296,22 @@
         <v>31</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E194" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F194" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="H194" s="14">
         <v>28032219634</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K194" s="3">
         <v>400</v>
@@ -15363,23 +15323,23 @@
         <v>1475</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O194" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Coin|1200;Exp_Role|82800;Exp_Kongfu|1475</v>
       </c>
       <c r="Q194" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R194" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S194" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="W194" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>803|1|5606443927;805|2|5606443927;806|2|5606443927</v>
       </c>
     </row>
@@ -15394,22 +15354,22 @@
         <v>31</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E195" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="G195" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>829</v>
       </c>
       <c r="H195" s="14">
         <v>32730078696</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K195" s="3">
         <v>400</v>
@@ -15421,23 +15381,23 @@
         <v>1500</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O195" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Food|60;Exp_Role|84000;Exp_Kongfu|1500</v>
       </c>
       <c r="Q195" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="R195" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="R195" s="3" t="s">
-        <v>763</v>
-      </c>
       <c r="S195" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="W195" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>804|2|6546015739;805|2|6546015739;806|1|6546015739</v>
       </c>
     </row>
@@ -15452,22 +15412,22 @@
         <v>45</v>
       </c>
       <c r="D196" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="E196" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="F196" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="F196" s="12" t="s">
+      <c r="G196" s="7" t="s">
         <v>832</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>833</v>
       </c>
       <c r="H196" s="13">
         <v>38215241820</v>
       </c>
       <c r="I196" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K196" s="7">
         <v>400</v>
@@ -15479,25 +15439,25 @@
         <v>1550</v>
       </c>
       <c r="N196" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O196" s="7" t="str">
-        <f>N196&amp;";Exp_Role|"&amp;L196&amp;";Exp_Kongfu|"&amp;M196</f>
+        <f t="shared" si="8"/>
         <v>Kongfu|3009|1;Exp_Role|86400;Exp_Kongfu|1550</v>
       </c>
       <c r="P196" s="15"/>
       <c r="Q196" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="R196" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S196" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V196" s="15"/>
       <c r="W196" s="7" t="str">
-        <f>Q196&amp;"|"&amp;ROUND(H196/5,0)&amp;IF(R196="","",";"&amp;R196&amp;"|"&amp;ROUND(H196/5,0)&amp;IF(S196="","",";"&amp;S196&amp;"|"&amp;ROUND(H196/5,0)&amp;IF(T196="","",";"&amp;T196&amp;"|"&amp;ROUND(H196/5,0)&amp;IF(U196="","",";"&amp;U196&amp;"|"&amp;ROUND(H196/5,0)))))</f>
+        <f t="shared" si="9"/>
         <v>801|1|7643048364;805|2|7643048364;806|2|7643048364</v>
       </c>
     </row>
@@ -15532,28 +15492,28 @@
         <v>101</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>836</v>
       </c>
       <c r="E1">
         <v>1001</v>
       </c>
       <c r="F1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1">
         <v>101</v>
       </c>
       <c r="I1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K1">
         <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15561,28 +15521,28 @@
         <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E2">
         <v>1002</v>
       </c>
       <c r="F2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H2">
         <v>201</v>
       </c>
       <c r="I2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K2">
         <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -15590,28 +15550,28 @@
         <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E3">
         <v>1003</v>
       </c>
       <c r="F3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H3">
         <v>202</v>
       </c>
       <c r="I3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K3">
         <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -15619,28 +15579,28 @@
         <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E4">
         <v>1004</v>
       </c>
       <c r="F4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H4">
         <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K4">
         <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -15648,22 +15608,22 @@
         <v>105</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E5">
         <v>1005</v>
       </c>
       <c r="F5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H5">
         <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -15671,22 +15631,22 @@
         <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E6" s="5">
         <v>1006</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H6">
         <v>205</v>
       </c>
       <c r="I6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -15694,22 +15654,22 @@
         <v>201</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>858</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>859</v>
       </c>
       <c r="E7">
         <v>1007</v>
       </c>
       <c r="F7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H7">
         <v>206</v>
       </c>
       <c r="I7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -15717,22 +15677,22 @@
         <v>202</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E8">
         <v>1008</v>
       </c>
       <c r="F8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H8">
         <v>301</v>
       </c>
       <c r="I8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -15740,22 +15700,22 @@
         <v>203</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E9">
         <v>1009</v>
       </c>
       <c r="F9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H9">
         <v>302</v>
       </c>
       <c r="I9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -15763,22 +15723,22 @@
         <v>204</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E10" s="5">
         <v>1010</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H10">
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -15786,22 +15746,22 @@
         <v>205</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E11">
         <v>1011</v>
       </c>
       <c r="F11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H11">
         <v>304</v>
       </c>
       <c r="I11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -15809,22 +15769,22 @@
         <v>206</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E12">
         <v>2001</v>
       </c>
       <c r="F12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H12">
         <v>305</v>
       </c>
       <c r="I12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -15832,22 +15792,22 @@
         <v>301</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="E13">
         <v>2002</v>
       </c>
       <c r="F13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H13">
         <v>306</v>
       </c>
       <c r="I13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -15855,22 +15815,22 @@
         <v>302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E14">
         <v>2003</v>
       </c>
       <c r="F14" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H14">
         <v>501</v>
       </c>
       <c r="I14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -15878,22 +15838,22 @@
         <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E15">
         <v>2004</v>
       </c>
       <c r="F15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H15">
         <v>601</v>
       </c>
       <c r="I15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -15901,22 +15861,22 @@
         <v>304</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E16">
         <v>2005</v>
       </c>
       <c r="F16" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H16">
         <v>701</v>
       </c>
       <c r="I16" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -15924,22 +15884,22 @@
         <v>305</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E17">
         <v>2006</v>
       </c>
       <c r="F17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H17">
         <v>702</v>
       </c>
       <c r="I17" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -15947,16 +15907,16 @@
         <v>306</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E18">
         <v>2007</v>
       </c>
       <c r="F18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -15964,16 +15924,16 @@
         <v>401</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>896</v>
       </c>
       <c r="E19">
         <v>2008</v>
       </c>
       <c r="F19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -15981,16 +15941,16 @@
         <v>402</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E20">
         <v>3001</v>
       </c>
       <c r="F20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -15998,16 +15958,16 @@
         <v>403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E21">
         <v>3002</v>
       </c>
       <c r="F21" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -16015,16 +15975,16 @@
         <v>501</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>903</v>
       </c>
       <c r="E22">
         <v>3003</v>
       </c>
       <c r="F22" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -16032,16 +15992,16 @@
         <v>502</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E23">
         <v>3004</v>
       </c>
       <c r="F23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -16049,16 +16009,16 @@
         <v>503</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E24" s="5">
         <v>3005</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -16066,16 +16026,16 @@
         <v>504</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E25">
         <v>3006</v>
       </c>
       <c r="F25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -16083,16 +16043,16 @@
         <v>505</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E26">
         <v>3007</v>
       </c>
       <c r="F26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -16100,16 +16060,16 @@
         <v>601</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>913</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>914</v>
       </c>
       <c r="E27">
         <v>3008</v>
       </c>
       <c r="F27" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -16117,16 +16077,16 @@
         <v>602</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E28">
         <v>3009</v>
       </c>
       <c r="F28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -16134,10 +16094,10 @@
         <v>603</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -16145,10 +16105,10 @@
         <v>604</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -16156,10 +16116,10 @@
         <v>605</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -16167,10 +16127,10 @@
         <v>701</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -16178,10 +16138,10 @@
         <v>702</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -16189,10 +16149,10 @@
         <v>703</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -16200,10 +16160,10 @@
         <v>704</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16211,10 +16171,10 @@
         <v>705</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -16222,10 +16182,10 @@
         <v>706</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -16233,10 +16193,10 @@
         <v>801</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>928</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -16244,10 +16204,10 @@
         <v>802</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -16255,10 +16215,10 @@
         <v>803</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -16266,10 +16226,10 @@
         <v>804</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -16277,10 +16237,10 @@
         <v>805</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -16288,10 +16248,10 @@
         <v>806</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -16306,8 +16266,8 @@
   <sheetPr/>
   <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16318,28 +16278,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C2" t="s">
         <v>935</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>936</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>937</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>938</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>939</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>940</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>941</v>
-      </c>
-      <c r="I2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -16365,10 +16325,10 @@
         <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -16420,13 +16380,13 @@
         <v>472</v>
       </c>
       <c r="G5" t="s">
-        <v>572</v>
+        <v>472</v>
       </c>
       <c r="H5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -16449,10 +16409,10 @@
         <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I6" t="s">
         <v>337</v>
@@ -16481,10 +16441,10 @@
         <v>494</v>
       </c>
       <c r="H7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -16536,13 +16496,13 @@
         <v>513</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -16565,13 +16525,13 @@
         <v>523</v>
       </c>
       <c r="G10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -16594,10 +16554,10 @@
         <v>529</v>
       </c>
       <c r="H12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -16620,10 +16580,10 @@
         <v>537</v>
       </c>
       <c r="H13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -16646,10 +16606,10 @@
         <v>548</v>
       </c>
       <c r="H14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -16672,10 +16632,10 @@
         <v>553</v>
       </c>
       <c r="H15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -17026,7 +16986,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="8"/>
-        <v>Arms|303|1</v>
+        <v>Armor|601|1</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="8"/>

--- a/Tables/Sources/gameplay/Level/LevelConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/LevelConfig.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="956">
   <si>
     <t>ID</t>
   </si>
@@ -1015,7 +1015,7 @@
     <t>前面便是武当派开山始祖——张真人。</t>
   </si>
   <si>
-    <t>Kongfu|3004|1;Exp_Role|940;Exp_Kongfu|119</t>
+    <t>Kongfu|2003|1;Exp_Role|940;Exp_Kongfu|119</t>
   </si>
   <si>
     <t>emei</t>
@@ -1141,7 +1141,7 @@
     <t>不好，中埋伏了。</t>
   </si>
   <si>
-    <t>Arms|203|1;Exp_Role|1160;Exp_Kongfu|130</t>
+    <t>Armor|602|1;Exp_Role|1160;Exp_Kongfu|130</t>
   </si>
   <si>
     <t>405|4</t>
@@ -1399,7 +1399,7 @@
     <t>听说你们有一招无边落木，耍出来给爷瞧瞧。</t>
   </si>
   <si>
-    <t>Armor|601|1;Exp_Role|1760;Exp_Kongfu|160</t>
+    <t>Arms|203|1;Exp_Role|1760;Exp_Kongfu|160</t>
   </si>
   <si>
     <t>huashan2</t>
@@ -1675,7 +1675,7 @@
     <t>弟子们加快脚步，却被一群五毒弟子拦住去路</t>
   </si>
   <si>
-    <t>Armor|601|1;Exp_Role|4400;Exp_Kongfu|280</t>
+    <t>Armor|603|1;Exp_Role|4400;Exp_Kongfu|280</t>
   </si>
   <si>
     <t>wudu2</t>
@@ -2557,54 +2557,66 @@
     <t>乱披风剑法</t>
   </si>
   <si>
+    <t>布甲</t>
+  </si>
+  <si>
+    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
+  </si>
+  <si>
+    <t>烈焰刀法</t>
+  </si>
+  <si>
     <t>银叶甲</t>
   </si>
   <si>
-    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
-  </si>
-  <si>
-    <t>烈焰刀法</t>
+    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
+  </si>
+  <si>
+    <t>御剑术</t>
+  </si>
+  <si>
+    <t>冰蝉丝甲</t>
+  </si>
+  <si>
+    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
+  </si>
+  <si>
+    <t>十二路弹腿</t>
+  </si>
+  <si>
+    <t>虎皮甲</t>
+  </si>
+  <si>
+    <t>绝绝师太</t>
+  </si>
+  <si>
+    <t>Emei</t>
+  </si>
+  <si>
+    <t>开碑手</t>
   </si>
   <si>
     <t>软猬甲</t>
   </si>
   <si>
-    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
-  </si>
-  <si>
-    <t>御剑术</t>
+    <t>独臂女冠</t>
+  </si>
+  <si>
+    <t>如来神掌</t>
   </si>
   <si>
     <t>明光铠</t>
   </si>
   <si>
-    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
-  </si>
-  <si>
-    <t>十二路弹腿</t>
-  </si>
-  <si>
-    <t>绝绝师太</t>
-  </si>
-  <si>
-    <t>Emei</t>
-  </si>
-  <si>
-    <t>开碑手</t>
-  </si>
-  <si>
-    <t>独臂女冠</t>
-  </si>
-  <si>
-    <t>如来神掌</t>
-  </si>
-  <si>
     <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
   </si>
   <si>
     <t>降龙掌</t>
   </si>
   <si>
+    <t>龙鳞甲</t>
+  </si>
+  <si>
     <t>丘不君</t>
   </si>
   <si>
@@ -2612,6 +2624,9 @@
   </si>
   <si>
     <t>六脉神剑</t>
+  </si>
+  <si>
+    <t>玄铁铠甲</t>
   </si>
   <si>
     <t>山不羊</t>
@@ -2786,10 +2801,13 @@
     <t>Arms|202|1</t>
   </si>
   <si>
+    <t>Armor|602|1</t>
+  </si>
+  <si>
     <t>Arms|203|1</t>
   </si>
   <si>
-    <t>Armor|601|1</t>
+    <t>Armor|603|1</t>
   </si>
   <si>
     <t>Arms|304|1</t>
@@ -2971,11 +2989,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2994,6 +3012,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3009,30 +3073,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3048,36 +3118,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3091,58 +3155,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3205,7 +3223,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3217,7 +3283,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3229,7 +3313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3241,37 +3331,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3283,73 +3361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3361,13 +3373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3396,17 +3414,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3414,8 +3441,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3450,22 +3488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3478,31 +3511,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3511,133 +3529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>